--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Forecast\forecast2025年\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\04 - 预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF84421A-2440-418D-A789-101BBE483604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8747C32-92DD-41C2-A0F1-BE218BF856EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="东部" sheetId="3" state="hidden" r:id="rId1"/>
@@ -1715,22 +1715,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="22" width="10.5546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" hidden="1" customWidth="1"/>
+    <col min="15" max="22" width="10.5" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3100</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>193</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>198</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>200</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>200</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>208</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>210</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>212</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>214</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>216</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>218</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>218</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>221</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>227</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>229</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>230</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>231</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>233</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>235</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>120</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>126</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>147</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>163</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>289</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>291</v>
       </c>
@@ -4017,21 +4017,22 @@
   <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>3100</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4143,7 +4144,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>353</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -4205,7 +4206,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>355</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>370000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>357</v>
       </c>
@@ -4304,7 +4305,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -4456,7 +4457,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>361</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>221000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -4905,7 +4906,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -4934,7 +4935,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -5105,7 +5106,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -5128,7 +5129,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -5151,7 +5152,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -5225,7 +5226,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
@@ -5299,7 +5300,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
@@ -5410,7 +5411,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -5472,7 +5473,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -5501,7 +5502,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>69</v>
       </c>
@@ -5538,7 +5539,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>4335000</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
@@ -5604,7 +5605,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>71</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>2172000</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>75</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>364</v>
       </c>
@@ -5737,7 +5738,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>75</v>
       </c>
@@ -5774,7 +5775,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>75</v>
       </c>
@@ -5803,7 +5804,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>80</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>82</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>84</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>86</v>
       </c>
@@ -5951,7 +5952,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>363000</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>88</v>
       </c>
@@ -6008,7 +6009,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>367</v>
       </c>
@@ -6031,7 +6032,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>91</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>93</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -6142,7 +6143,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>97</v>
       </c>
@@ -6173,7 +6174,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>98</v>
       </c>
@@ -6200,7 +6201,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>100</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>102</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>104</v>
       </c>
@@ -6311,7 +6312,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>106</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>108</v>
       </c>
@@ -6385,7 +6386,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>242000</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>113</v>
       </c>
@@ -6492,7 +6493,7 @@
         <v>582000</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>115</v>
       </c>
@@ -6529,7 +6530,7 @@
         <v>1426000</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>117</v>
       </c>
@@ -6566,7 +6567,7 @@
         <v>302000</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>117</v>
       </c>
@@ -6589,7 +6590,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>120</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>505000</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>368</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>122</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>448000</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>123</v>
       </c>
@@ -6729,7 +6730,7 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>370</v>
       </c>
@@ -6764,7 +6765,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>124</v>
       </c>
@@ -6801,7 +6802,7 @@
         <v>1462000</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>126</v>
       </c>
@@ -6826,7 +6827,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>128</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>130</v>
       </c>
@@ -6900,7 +6901,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>132</v>
       </c>
@@ -6937,7 +6938,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>134</v>
       </c>
@@ -6974,7 +6975,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>134</v>
       </c>
@@ -7003,7 +7004,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>137</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>303000</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>139</v>
       </c>
@@ -7075,7 +7076,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>141</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>143</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>1530000</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>145</v>
       </c>
@@ -7186,7 +7187,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>147</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>149</v>
       </c>
@@ -7260,7 +7261,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>151</v>
       </c>
@@ -7297,7 +7298,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>153</v>
       </c>
@@ -7320,7 +7321,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>155</v>
       </c>
@@ -7345,7 +7346,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>157</v>
       </c>
@@ -7382,7 +7383,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>159</v>
       </c>
@@ -7407,7 +7408,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>161</v>
       </c>
@@ -7436,7 +7437,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>163</v>
       </c>
@@ -7461,7 +7462,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>165</v>
       </c>
@@ -7484,7 +7485,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>166</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>168</v>
       </c>
@@ -7558,7 +7559,7 @@
         <v>198000</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>170</v>
       </c>
@@ -7595,7 +7596,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>170</v>
       </c>
@@ -7632,7 +7633,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>373</v>
       </c>
@@ -7645,7 +7646,7 @@
       </c>
       <c r="E106" s="3">
         <f t="shared" si="1"/>
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -7656,20 +7657,12 @@
       <c r="H106" s="3">
         <v>0</v>
       </c>
-      <c r="I106" s="3">
-        <v>500000</v>
-      </c>
-      <c r="J106" s="3">
-        <v>500000</v>
-      </c>
-      <c r="K106" s="3">
-        <v>500000</v>
-      </c>
-      <c r="L106" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>174</v>
       </c>
@@ -7706,7 +7699,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>374</v>
       </c>
@@ -7743,7 +7736,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>176</v>
       </c>
@@ -7774,7 +7767,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>176</v>
       </c>
@@ -7797,7 +7790,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>179</v>
       </c>
@@ -7834,7 +7827,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>181</v>
       </c>
@@ -7871,7 +7864,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>183</v>
       </c>
@@ -7908,7 +7901,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>185</v>
       </c>
@@ -7931,7 +7924,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>187</v>
       </c>
@@ -7962,7 +7955,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>189</v>
       </c>
@@ -7999,7 +7992,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>191</v>
       </c>
@@ -8036,7 +8029,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>193</v>
       </c>
@@ -8069,7 +8062,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>193</v>
       </c>
@@ -8106,7 +8099,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>196</v>
       </c>
@@ -8143,7 +8136,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>198</v>
       </c>
@@ -8180,7 +8173,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>200</v>
       </c>
@@ -8217,7 +8210,7 @@
         <v>233000</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>200</v>
       </c>
@@ -8254,7 +8247,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>378</v>
       </c>
@@ -8291,7 +8284,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>204</v>
       </c>
@@ -8328,7 +8321,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>206</v>
       </c>
@@ -8351,7 +8344,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>208</v>
       </c>
@@ -8388,7 +8381,7 @@
         <v>205000</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>210</v>
       </c>
@@ -8419,7 +8412,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>379</v>
       </c>
@@ -8456,7 +8449,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>212</v>
       </c>
@@ -8489,7 +8482,7 @@
       </c>
       <c r="L130" s="9"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>381</v>
       </c>
@@ -8514,7 +8507,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>214</v>
       </c>
@@ -8551,7 +8544,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>216</v>
       </c>
@@ -8588,7 +8581,7 @@
         <v>139000</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>216</v>
       </c>
@@ -8611,7 +8604,7 @@
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>218</v>
       </c>
@@ -8648,7 +8641,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>218</v>
       </c>
@@ -8685,7 +8678,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>221</v>
       </c>
@@ -8722,7 +8715,7 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>223</v>
       </c>
@@ -8753,7 +8746,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>225</v>
       </c>
@@ -8790,7 +8783,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>229</v>
       </c>
@@ -8827,7 +8820,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>230</v>
       </c>
@@ -8864,7 +8857,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>384</v>
       </c>
@@ -8897,7 +8890,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>384</v>
       </c>
@@ -8930,7 +8923,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>235</v>
       </c>
@@ -8967,7 +8960,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>237</v>
       </c>
@@ -9004,7 +8997,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>239</v>
       </c>
@@ -9041,7 +9034,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>241</v>
       </c>
@@ -9078,7 +9071,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>243</v>
       </c>
@@ -9115,7 +9108,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>245</v>
       </c>
@@ -9152,7 +9145,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>247</v>
       </c>
@@ -9189,7 +9182,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>249</v>
       </c>
@@ -9226,7 +9219,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>387</v>
       </c>
@@ -9263,7 +9256,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>387</v>
       </c>
@@ -9297,7 +9290,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>390</v>
       </c>
@@ -9331,7 +9324,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>390</v>
       </c>
@@ -9368,7 +9361,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>252</v>
       </c>
@@ -9405,7 +9398,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>254</v>
       </c>
@@ -9442,7 +9435,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>256</v>
       </c>
@@ -9479,7 +9472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>258</v>
       </c>
@@ -9516,7 +9509,7 @@
         <v>254500</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>260</v>
       </c>
@@ -9539,7 +9532,7 @@
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>392</v>
       </c>
@@ -9576,7 +9569,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>263</v>
       </c>
@@ -9613,7 +9606,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>394</v>
       </c>
@@ -9650,7 +9643,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>264</v>
       </c>
@@ -9687,7 +9680,7 @@
         <v>957330</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>266</v>
       </c>
@@ -9724,7 +9717,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>268</v>
       </c>
@@ -9761,7 +9754,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>269</v>
       </c>
@@ -9798,7 +9791,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>269</v>
       </c>
@@ -9835,7 +9828,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>271</v>
       </c>
@@ -9872,7 +9865,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>273</v>
       </c>
@@ -9909,7 +9902,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>275</v>
       </c>
@@ -9946,7 +9939,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>275</v>
       </c>
@@ -9983,7 +9976,7 @@
         <v>161000</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>277</v>
       </c>
@@ -10020,7 +10013,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>279</v>
       </c>
@@ -10057,7 +10050,7 @@
         <v>1293000</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>281</v>
       </c>
@@ -10094,7 +10087,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>399</v>
       </c>
@@ -10128,7 +10121,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>401</v>
       </c>
@@ -10165,7 +10158,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>402</v>
       </c>
@@ -10202,7 +10195,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>285</v>
       </c>
@@ -10239,7 +10232,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>287</v>
       </c>
@@ -10276,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>289</v>
       </c>
@@ -10299,7 +10292,7 @@
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>291</v>
       </c>
@@ -10322,7 +10315,7 @@
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>403</v>
       </c>
@@ -10345,7 +10338,7 @@
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>405</v>
       </c>
@@ -10365,7 +10358,7 @@
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>293</v>
       </c>
@@ -10402,7 +10395,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>293</v>
       </c>
@@ -10439,7 +10432,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>296</v>
       </c>
@@ -10476,7 +10469,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>296</v>
       </c>
@@ -10489,14 +10482,10 @@
       </c>
       <c r="E188" s="3">
         <f t="shared" si="2"/>
-        <v>4800000</v>
-      </c>
-      <c r="F188" s="3">
-        <v>800000</v>
-      </c>
-      <c r="G188" s="3">
-        <v>800000</v>
-      </c>
+        <v>3200000</v>
+      </c>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
       <c r="H188" s="3">
         <v>800000</v>
       </c>
@@ -10513,7 +10502,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>299</v>
       </c>
@@ -10526,31 +10515,17 @@
       </c>
       <c r="E189" s="3">
         <f t="shared" si="2"/>
-        <v>2400000</v>
-      </c>
-      <c r="F189" s="3">
-        <v>400000</v>
-      </c>
-      <c r="G189" s="3">
-        <v>0</v>
-      </c>
-      <c r="H189" s="3">
-        <v>400000</v>
-      </c>
-      <c r="I189" s="3">
-        <v>400000</v>
-      </c>
-      <c r="J189" s="3">
-        <v>400000</v>
-      </c>
-      <c r="K189" s="3">
-        <v>400000</v>
-      </c>
-      <c r="L189" s="3">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>299</v>
       </c>
@@ -10563,31 +10538,17 @@
       </c>
       <c r="E190" s="3">
         <f t="shared" si="2"/>
-        <v>1818583</v>
-      </c>
-      <c r="F190" s="3">
-        <v>900000</v>
-      </c>
-      <c r="G190" s="3">
-        <v>118583</v>
-      </c>
-      <c r="H190" s="3">
-        <v>0</v>
-      </c>
-      <c r="I190" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J190" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K190" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L190" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>302</v>
       </c>
@@ -10624,7 +10585,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>304</v>
       </c>
@@ -10661,7 +10622,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>306</v>
       </c>
@@ -10684,7 +10645,7 @@
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>308</v>
       </c>
@@ -10721,7 +10682,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>309</v>
       </c>
@@ -10750,7 +10711,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>311</v>
       </c>
@@ -10779,7 +10740,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>313</v>
       </c>
@@ -10816,7 +10777,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>315</v>
       </c>
@@ -10845,7 +10806,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>317</v>
       </c>
@@ -10882,7 +10843,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>319</v>
       </c>
@@ -10919,7 +10880,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>321</v>
       </c>
@@ -10956,7 +10917,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>322</v>
       </c>
@@ -10979,7 +10940,7 @@
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>407</v>
       </c>
@@ -11014,7 +10975,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>409</v>
       </c>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\04 - 预测\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Forecast\forecast2025年\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8747C32-92DD-41C2-A0F1-BE218BF856EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DF66DE-F9D7-4680-B15E-005410B430FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="2124" windowWidth="23040" windowHeight="12204" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="东部" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$204</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">东部!$A$1:$W$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1371,12 +1372,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1409,7 +1416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1428,6 +1435,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1715,22 +1723,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.625" hidden="1" customWidth="1"/>
-    <col min="15" max="22" width="10.5" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="22" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1809,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3100</v>
       </c>
@@ -1864,7 +1872,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>193</v>
       </c>
@@ -1923,7 +1931,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -1986,7 +1994,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
@@ -2049,7 +2057,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>198</v>
       </c>
@@ -2112,7 +2120,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>200</v>
       </c>
@@ -2175,7 +2183,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>200</v>
       </c>
@@ -2238,7 +2246,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
@@ -2301,7 +2309,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
@@ -2364,7 +2372,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
@@ -2427,7 +2435,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>208</v>
       </c>
@@ -2490,7 +2498,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>210</v>
       </c>
@@ -2553,7 +2561,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>212</v>
       </c>
@@ -2610,7 +2618,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>214</v>
       </c>
@@ -2673,7 +2681,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>216</v>
       </c>
@@ -2736,7 +2744,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>218</v>
       </c>
@@ -2799,7 +2807,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>218</v>
       </c>
@@ -2862,7 +2870,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>221</v>
       </c>
@@ -2925,7 +2933,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>227</v>
       </c>
@@ -2988,7 +2996,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>229</v>
       </c>
@@ -3051,7 +3059,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>230</v>
       </c>
@@ -3114,7 +3122,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>231</v>
       </c>
@@ -3177,7 +3185,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>233</v>
       </c>
@@ -3240,7 +3248,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>235</v>
       </c>
@@ -3303,7 +3311,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -3366,7 +3374,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -3429,7 +3437,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>120</v>
       </c>
@@ -3492,7 +3500,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -3555,7 +3563,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>126</v>
       </c>
@@ -3610,7 +3618,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -3673,7 +3681,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
@@ -3736,7 +3744,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>147</v>
       </c>
@@ -3799,7 +3807,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
@@ -3854,7 +3862,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>163</v>
       </c>
@@ -3903,7 +3911,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>289</v>
       </c>
@@ -3952,7 +3960,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>291</v>
       </c>
@@ -4017,22 +4025,21 @@
   <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4070,7 +4077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>3100</v>
       </c>
@@ -4107,7 +4114,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4144,7 +4151,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>353</v>
       </c>
@@ -4181,7 +4188,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -4206,7 +4213,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -4243,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>355</v>
       </c>
@@ -4280,7 +4287,7 @@
         <v>370000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>357</v>
       </c>
@@ -4305,7 +4312,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -4342,7 +4349,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -4379,7 +4386,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -4418,7 +4425,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -4457,7 +4464,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4494,7 +4501,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -4531,7 +4538,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -4568,7 +4575,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -4607,7 +4614,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -4644,7 +4651,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -4678,7 +4685,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>361</v>
       </c>
@@ -4717,7 +4724,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -4756,7 +4763,7 @@
         <v>221000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -4793,7 +4800,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4830,7 +4837,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -4867,7 +4874,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -4906,7 +4913,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -4935,7 +4942,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -4972,7 +4979,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -5009,7 +5016,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -5046,7 +5053,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5083,7 +5090,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -5106,7 +5113,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -5129,7 +5136,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -5152,7 +5159,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
@@ -5189,7 +5196,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -5226,7 +5233,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
@@ -5263,7 +5270,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
@@ -5300,7 +5307,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -5337,7 +5344,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -5374,7 +5381,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
@@ -5411,7 +5418,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -5448,7 +5455,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -5473,7 +5480,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -5502,7 +5509,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>69</v>
       </c>
@@ -5539,7 +5546,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -5576,7 +5583,7 @@
         <v>4335000</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
@@ -5605,7 +5612,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>71</v>
       </c>
@@ -5642,7 +5649,7 @@
         <v>2172000</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>75</v>
       </c>
@@ -5679,7 +5686,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -5716,7 +5723,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>364</v>
       </c>
@@ -5738,7 +5745,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>75</v>
       </c>
@@ -5775,7 +5782,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>75</v>
       </c>
@@ -5804,7 +5811,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>80</v>
       </c>
@@ -5841,7 +5848,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>82</v>
       </c>
@@ -5878,7 +5885,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>84</v>
       </c>
@@ -5915,7 +5922,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>86</v>
       </c>
@@ -5952,7 +5959,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
@@ -5989,7 +5996,7 @@
         <v>363000</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>88</v>
       </c>
@@ -6009,7 +6016,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>367</v>
       </c>
@@ -6032,7 +6039,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>91</v>
       </c>
@@ -6069,7 +6076,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>93</v>
       </c>
@@ -6106,7 +6113,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -6143,7 +6150,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>97</v>
       </c>
@@ -6174,7 +6181,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>98</v>
       </c>
@@ -6201,7 +6208,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>100</v>
       </c>
@@ -6238,7 +6245,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>102</v>
       </c>
@@ -6275,7 +6282,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>104</v>
       </c>
@@ -6312,7 +6319,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>106</v>
       </c>
@@ -6349,7 +6356,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>108</v>
       </c>
@@ -6386,7 +6393,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
@@ -6419,7 +6426,7 @@
         <v>242000</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
@@ -6456,7 +6463,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>113</v>
       </c>
@@ -6493,7 +6500,7 @@
         <v>582000</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>115</v>
       </c>
@@ -6506,19 +6513,22 @@
       </c>
       <c r="E72" s="3">
         <f t="shared" si="1"/>
-        <v>8217900</v>
+        <v>7677900</v>
       </c>
       <c r="F72" s="3">
         <v>989000</v>
       </c>
-      <c r="G72" s="3">
-        <v>771400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1003000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1281500</v>
+      <c r="G72" s="12">
+        <f>771400-180000</f>
+        <v>591400</v>
+      </c>
+      <c r="H72" s="12">
+        <f>1003000-180000</f>
+        <v>823000</v>
+      </c>
+      <c r="I72" s="12">
+        <f>1281500-180000</f>
+        <v>1101500</v>
       </c>
       <c r="J72" s="3">
         <v>1321000</v>
@@ -6530,7 +6540,7 @@
         <v>1426000</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>117</v>
       </c>
@@ -6567,7 +6577,7 @@
         <v>302000</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>117</v>
       </c>
@@ -6590,7 +6600,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>120</v>
       </c>
@@ -6627,7 +6637,7 @@
         <v>505000</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>368</v>
       </c>
@@ -6656,7 +6666,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>122</v>
       </c>
@@ -6693,7 +6703,7 @@
         <v>448000</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>123</v>
       </c>
@@ -6730,7 +6740,7 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>370</v>
       </c>
@@ -6765,7 +6775,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>124</v>
       </c>
@@ -6802,7 +6812,7 @@
         <v>1462000</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>126</v>
       </c>
@@ -6827,7 +6837,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>128</v>
       </c>
@@ -6864,7 +6874,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>130</v>
       </c>
@@ -6901,7 +6911,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>132</v>
       </c>
@@ -6938,7 +6948,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>134</v>
       </c>
@@ -6975,7 +6985,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>134</v>
       </c>
@@ -7004,7 +7014,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>137</v>
       </c>
@@ -7041,7 +7051,7 @@
         <v>303000</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>139</v>
       </c>
@@ -7076,7 +7086,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>141</v>
       </c>
@@ -7113,7 +7123,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>143</v>
       </c>
@@ -7150,7 +7160,7 @@
         <v>1530000</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>145</v>
       </c>
@@ -7187,7 +7197,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>147</v>
       </c>
@@ -7224,7 +7234,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>149</v>
       </c>
@@ -7261,7 +7271,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>151</v>
       </c>
@@ -7298,7 +7308,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>153</v>
       </c>
@@ -7321,7 +7331,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>155</v>
       </c>
@@ -7346,7 +7356,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>157</v>
       </c>
@@ -7383,7 +7393,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>159</v>
       </c>
@@ -7408,7 +7418,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>161</v>
       </c>
@@ -7437,7 +7447,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>163</v>
       </c>
@@ -7462,7 +7472,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>165</v>
       </c>
@@ -7485,7 +7495,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>166</v>
       </c>
@@ -7522,7 +7532,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>168</v>
       </c>
@@ -7559,7 +7569,7 @@
         <v>198000</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>170</v>
       </c>
@@ -7596,7 +7606,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>170</v>
       </c>
@@ -7633,7 +7643,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>373</v>
       </c>
@@ -7657,12 +7667,12 @@
       <c r="H106" s="3">
         <v>0</v>
       </c>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>174</v>
       </c>
@@ -7699,7 +7709,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>374</v>
       </c>
@@ -7736,7 +7746,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>176</v>
       </c>
@@ -7767,7 +7777,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>176</v>
       </c>
@@ -7790,7 +7800,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>179</v>
       </c>
@@ -7827,7 +7837,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>181</v>
       </c>
@@ -7864,7 +7874,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>183</v>
       </c>
@@ -7901,7 +7911,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>185</v>
       </c>
@@ -7924,7 +7934,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>187</v>
       </c>
@@ -7955,7 +7965,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>189</v>
       </c>
@@ -7992,7 +8002,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>191</v>
       </c>
@@ -8029,7 +8039,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>193</v>
       </c>
@@ -8062,7 +8072,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>193</v>
       </c>
@@ -8099,7 +8109,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>196</v>
       </c>
@@ -8136,7 +8146,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>198</v>
       </c>
@@ -8173,7 +8183,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>200</v>
       </c>
@@ -8210,7 +8220,7 @@
         <v>233000</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>200</v>
       </c>
@@ -8219,21 +8229,16 @@
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3">
-        <v>3412500</v>
+        <f>E123*1.93</f>
+        <v>1930000</v>
       </c>
       <c r="E123" s="3">
         <f t="shared" si="1"/>
-        <v>1750000</v>
-      </c>
-      <c r="F123" s="3">
-        <v>250000</v>
-      </c>
-      <c r="G123" s="3">
-        <v>250000</v>
-      </c>
-      <c r="H123" s="3">
-        <v>250000</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
       <c r="I123" s="3">
         <v>250000</v>
       </c>
@@ -8247,7 +8252,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>378</v>
       </c>
@@ -8256,20 +8261,21 @@
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3">
-        <v>10237500</v>
+        <f>E124*1.95</f>
+        <v>8775000</v>
       </c>
       <c r="E124" s="3">
         <f t="shared" si="1"/>
-        <v>5250000</v>
-      </c>
-      <c r="F124" s="3">
-        <v>750000</v>
-      </c>
-      <c r="G124" s="3">
-        <v>750000</v>
-      </c>
-      <c r="H124" s="3">
-        <v>750000</v>
+        <v>4500000</v>
+      </c>
+      <c r="F124" s="12">
+        <v>500000</v>
+      </c>
+      <c r="G124" s="12">
+        <v>500000</v>
+      </c>
+      <c r="H124" s="12">
+        <v>500000</v>
       </c>
       <c r="I124" s="3">
         <v>750000</v>
@@ -8284,7 +8290,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>204</v>
       </c>
@@ -8321,7 +8327,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>206</v>
       </c>
@@ -8344,7 +8350,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>208</v>
       </c>
@@ -8381,7 +8387,7 @@
         <v>205000</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>210</v>
       </c>
@@ -8412,7 +8418,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>379</v>
       </c>
@@ -8449,7 +8455,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>212</v>
       </c>
@@ -8482,7 +8488,7 @@
       </c>
       <c r="L130" s="9"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>381</v>
       </c>
@@ -8507,7 +8513,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>214</v>
       </c>
@@ -8544,7 +8550,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>216</v>
       </c>
@@ -8581,7 +8587,7 @@
         <v>139000</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>216</v>
       </c>
@@ -8604,7 +8610,7 @@
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>218</v>
       </c>
@@ -8641,7 +8647,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>218</v>
       </c>
@@ -8678,7 +8684,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>221</v>
       </c>
@@ -8715,7 +8721,7 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>223</v>
       </c>
@@ -8746,7 +8752,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>225</v>
       </c>
@@ -8783,7 +8789,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>229</v>
       </c>
@@ -8820,7 +8826,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>230</v>
       </c>
@@ -8857,7 +8863,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>384</v>
       </c>
@@ -8890,7 +8896,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>384</v>
       </c>
@@ -8923,7 +8929,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>235</v>
       </c>
@@ -8960,7 +8966,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>237</v>
       </c>
@@ -8997,7 +9003,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>239</v>
       </c>
@@ -9034,7 +9040,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>241</v>
       </c>
@@ -9071,7 +9077,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>243</v>
       </c>
@@ -9108,7 +9114,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>245</v>
       </c>
@@ -9145,7 +9151,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>247</v>
       </c>
@@ -9182,7 +9188,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>249</v>
       </c>
@@ -9219,7 +9225,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>387</v>
       </c>
@@ -9256,7 +9262,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>387</v>
       </c>
@@ -9290,7 +9296,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>390</v>
       </c>
@@ -9324,7 +9330,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>390</v>
       </c>
@@ -9361,7 +9367,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>252</v>
       </c>
@@ -9398,7 +9404,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>254</v>
       </c>
@@ -9435,7 +9441,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>256</v>
       </c>
@@ -9472,7 +9478,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>258</v>
       </c>
@@ -9509,7 +9515,7 @@
         <v>254500</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>260</v>
       </c>
@@ -9532,7 +9538,7 @@
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>392</v>
       </c>
@@ -9569,7 +9575,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>263</v>
       </c>
@@ -9606,7 +9612,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>394</v>
       </c>
@@ -9643,7 +9649,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>264</v>
       </c>
@@ -9680,7 +9686,7 @@
         <v>957330</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>266</v>
       </c>
@@ -9717,7 +9723,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>268</v>
       </c>
@@ -9754,7 +9760,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>269</v>
       </c>
@@ -9791,7 +9797,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>269</v>
       </c>
@@ -9828,7 +9834,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>271</v>
       </c>
@@ -9865,7 +9871,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>273</v>
       </c>
@@ -9902,7 +9908,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>275</v>
       </c>
@@ -9939,7 +9945,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>275</v>
       </c>
@@ -9976,7 +9982,7 @@
         <v>161000</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>277</v>
       </c>
@@ -10013,7 +10019,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>279</v>
       </c>
@@ -10050,7 +10056,7 @@
         <v>1293000</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>281</v>
       </c>
@@ -10087,7 +10093,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>399</v>
       </c>
@@ -10121,7 +10127,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>401</v>
       </c>
@@ -10158,7 +10164,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>402</v>
       </c>
@@ -10195,7 +10201,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>285</v>
       </c>
@@ -10232,7 +10238,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>287</v>
       </c>
@@ -10269,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>289</v>
       </c>
@@ -10292,7 +10298,7 @@
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>291</v>
       </c>
@@ -10315,7 +10321,7 @@
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>403</v>
       </c>
@@ -10338,7 +10344,7 @@
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>405</v>
       </c>
@@ -10358,7 +10364,7 @@
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>293</v>
       </c>
@@ -10395,7 +10401,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>293</v>
       </c>
@@ -10432,7 +10438,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>296</v>
       </c>
@@ -10469,7 +10475,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>296</v>
       </c>
@@ -10482,10 +10488,14 @@
       </c>
       <c r="E188" s="3">
         <f t="shared" si="2"/>
-        <v>3200000</v>
-      </c>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
+        <v>4800000</v>
+      </c>
+      <c r="F188" s="3">
+        <v>800000</v>
+      </c>
+      <c r="G188" s="3">
+        <v>800000</v>
+      </c>
       <c r="H188" s="3">
         <v>800000</v>
       </c>
@@ -10502,7 +10512,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>299</v>
       </c>
@@ -10517,15 +10527,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
-      <c r="L189" s="3"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>299</v>
       </c>
@@ -10540,15 +10550,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
-      <c r="L190" s="3"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>302</v>
       </c>
@@ -10585,7 +10595,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>304</v>
       </c>
@@ -10622,7 +10632,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>306</v>
       </c>
@@ -10645,7 +10655,7 @@
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>308</v>
       </c>
@@ -10682,7 +10692,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>309</v>
       </c>
@@ -10711,7 +10721,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>311</v>
       </c>
@@ -10740,7 +10750,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>313</v>
       </c>
@@ -10777,7 +10787,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>315</v>
       </c>
@@ -10806,7 +10816,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>317</v>
       </c>
@@ -10843,7 +10853,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>319</v>
       </c>
@@ -10880,7 +10890,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>321</v>
       </c>
@@ -10917,7 +10927,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>322</v>
       </c>
@@ -10940,7 +10950,7 @@
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>407</v>
       </c>
@@ -10975,7 +10985,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>409</v>
       </c>
@@ -11013,6 +11023,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L204" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Forecast\forecast2025年\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DF66DE-F9D7-4680-B15E-005410B430FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556A0D86-F09D-49B9-ABEE-48E038C806E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="2124" windowWidth="23040" windowHeight="12204" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="东部" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">东部!$A$1:$W$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="412">
   <si>
     <t>产品型号</t>
   </si>
@@ -1310,6 +1310,10 @@
   </si>
   <si>
     <t>NA.SC60226SS-DC</t>
+  </si>
+  <si>
+    <t>SC2442SO-N-Q-CP-10CR-2442</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1723,22 +1727,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="22" width="10.5546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" hidden="1" customWidth="1"/>
+    <col min="15" max="22" width="10.5" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1813,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3100</v>
       </c>
@@ -1872,7 +1876,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>193</v>
       </c>
@@ -1931,7 +1935,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>198</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>200</v>
       </c>
@@ -2183,7 +2187,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>200</v>
       </c>
@@ -2246,7 +2250,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
@@ -2309,7 +2313,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
@@ -2435,7 +2439,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>208</v>
       </c>
@@ -2498,7 +2502,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>210</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>212</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>214</v>
       </c>
@@ -2681,7 +2685,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>216</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>218</v>
       </c>
@@ -2807,7 +2811,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>218</v>
       </c>
@@ -2870,7 +2874,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>221</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>227</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>229</v>
       </c>
@@ -3059,7 +3063,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>230</v>
       </c>
@@ -3122,7 +3126,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>231</v>
       </c>
@@ -3185,7 +3189,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>233</v>
       </c>
@@ -3248,7 +3252,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>235</v>
       </c>
@@ -3311,7 +3315,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -3374,7 +3378,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>120</v>
       </c>
@@ -3500,7 +3504,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -3563,7 +3567,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>126</v>
       </c>
@@ -3618,7 +3622,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -3681,7 +3685,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
@@ -3744,7 +3748,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>147</v>
       </c>
@@ -3807,7 +3811,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
@@ -3862,7 +3866,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>163</v>
       </c>
@@ -3911,7 +3915,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>289</v>
       </c>
@@ -3960,7 +3964,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>291</v>
       </c>
@@ -4022,24 +4026,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}">
-  <dimension ref="A1:L204"/>
+  <dimension ref="A1:L205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4077,7 +4081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>3100</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4151,7 +4155,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>353</v>
       </c>
@@ -4188,7 +4192,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -4213,7 +4217,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>355</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>370000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>357</v>
       </c>
@@ -4312,7 +4316,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -4349,7 +4353,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -4386,7 +4390,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -4425,7 +4429,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -4464,7 +4468,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4501,7 +4505,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -4538,7 +4542,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -4575,7 +4579,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -4614,7 +4618,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -4685,7 +4689,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>361</v>
       </c>
@@ -4724,7 +4728,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -4763,7 +4767,7 @@
         <v>221000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -4800,7 +4804,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4837,7 +4841,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -4874,7 +4878,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -4942,7 +4946,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -5016,7 +5020,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -5053,7 +5057,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5090,7 +5094,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -5113,7 +5117,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -5136,7 +5140,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -5159,7 +5163,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
@@ -5196,7 +5200,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -5233,7 +5237,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
@@ -5270,7 +5274,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
@@ -5307,7 +5311,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -5344,7 +5348,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -5381,7 +5385,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -5455,7 +5459,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -5480,7 +5484,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>69</v>
       </c>
@@ -5546,7 +5550,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -5583,7 +5587,7 @@
         <v>4335000</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
@@ -5612,7 +5616,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>71</v>
       </c>
@@ -5649,7 +5653,7 @@
         <v>2172000</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>75</v>
       </c>
@@ -5686,7 +5690,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -5723,7 +5727,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>364</v>
       </c>
@@ -5745,7 +5749,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>75</v>
       </c>
@@ -5782,7 +5786,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>75</v>
       </c>
@@ -5811,7 +5815,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>80</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>82</v>
       </c>
@@ -5885,7 +5889,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>84</v>
       </c>
@@ -5922,7 +5926,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>86</v>
       </c>
@@ -5959,7 +5963,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
@@ -5996,7 +6000,7 @@
         <v>363000</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>88</v>
       </c>
@@ -6016,7 +6020,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>367</v>
       </c>
@@ -6039,7 +6043,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>91</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>93</v>
       </c>
@@ -6113,7 +6117,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -6150,7 +6154,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>97</v>
       </c>
@@ -6181,7 +6185,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>98</v>
       </c>
@@ -6208,7 +6212,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>100</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>102</v>
       </c>
@@ -6282,7 +6286,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>104</v>
       </c>
@@ -6319,7 +6323,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>106</v>
       </c>
@@ -6356,7 +6360,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>108</v>
       </c>
@@ -6368,983 +6372,995 @@
         <v>4580189.5734597156</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" ref="E68:E131" si="1">SUM(F68:L68)</f>
-        <v>12600000</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="H68" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="I68" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="J68" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="K68" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="L68" s="3">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E68:E132" si="1">SUM(F68:L68)</f>
+        <v>2360000</v>
+      </c>
+      <c r="F68" s="12">
+        <v>240000</v>
+      </c>
+      <c r="G68" s="12">
+        <v>240000</v>
+      </c>
+      <c r="H68" s="12">
+        <v>360000</v>
+      </c>
+      <c r="I68" s="12">
+        <v>360000</v>
+      </c>
+      <c r="J68" s="12">
+        <v>400000</v>
+      </c>
+      <c r="K68" s="12">
+        <v>360000</v>
+      </c>
+      <c r="L68" s="12">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>111</v>
+        <v>411</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="3">
-        <v>327500</v>
-      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="3">
         <f t="shared" si="1"/>
-        <v>1310000</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3">
-        <v>402000</v>
-      </c>
-      <c r="I69" s="3">
-        <v>212000</v>
-      </c>
-      <c r="J69" s="3">
-        <v>242000</v>
-      </c>
-      <c r="K69" s="3">
-        <v>212000</v>
-      </c>
-      <c r="L69" s="3">
-        <v>242000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16800000</v>
+      </c>
+      <c r="F69" s="12">
+        <v>2400000</v>
+      </c>
+      <c r="G69" s="12">
+        <v>2400000</v>
+      </c>
+      <c r="H69" s="12">
+        <v>2400000</v>
+      </c>
+      <c r="I69" s="12">
+        <v>2400000</v>
+      </c>
+      <c r="J69" s="12">
+        <v>2400000</v>
+      </c>
+      <c r="K69" s="12">
+        <v>2400000</v>
+      </c>
+      <c r="L69" s="12">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3">
-        <v>4641231.9958311617</v>
+        <v>327500</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="1"/>
-        <v>14700000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2100000</v>
-      </c>
-      <c r="G70" s="3">
-        <v>2100000</v>
-      </c>
+        <v>1310000</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
       <c r="H70" s="3">
-        <v>2100000</v>
+        <v>402000</v>
       </c>
       <c r="I70" s="3">
-        <v>2100000</v>
+        <v>212000</v>
       </c>
       <c r="J70" s="3">
-        <v>2100000</v>
+        <v>242000</v>
       </c>
       <c r="K70" s="3">
-        <v>2100000</v>
+        <v>212000</v>
       </c>
       <c r="L70" s="3">
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>242000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>1089640</v>
+        <v>4641231.9958311617</v>
       </c>
       <c r="E71" s="3">
         <f t="shared" si="1"/>
-        <v>2849000</v>
-      </c>
-      <c r="F71" s="3">
-        <v>467000</v>
-      </c>
-      <c r="G71" s="3">
-        <v>272000</v>
-      </c>
-      <c r="H71" s="3">
-        <v>272000</v>
-      </c>
-      <c r="I71" s="3">
-        <v>472000</v>
-      </c>
-      <c r="J71" s="3">
-        <v>402000</v>
-      </c>
-      <c r="K71" s="3">
-        <v>382000</v>
-      </c>
-      <c r="L71" s="3">
-        <v>582000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2800000</v>
+      </c>
+      <c r="F71" s="12">
+        <v>400000</v>
+      </c>
+      <c r="G71" s="12">
+        <v>400000</v>
+      </c>
+      <c r="H71" s="12">
+        <v>400000</v>
+      </c>
+      <c r="I71" s="12">
+        <v>400000</v>
+      </c>
+      <c r="J71" s="12">
+        <v>400000</v>
+      </c>
+      <c r="K71" s="12">
+        <v>400000</v>
+      </c>
+      <c r="L71" s="12">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3">
-        <v>2896908</v>
+        <v>1089640</v>
       </c>
       <c r="E72" s="3">
         <f t="shared" si="1"/>
+        <v>2849000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>467000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>272000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>272000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>472000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>402000</v>
+      </c>
+      <c r="K72" s="3">
+        <v>382000</v>
+      </c>
+      <c r="L72" s="3">
+        <v>582000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3">
+        <v>2896908</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="1"/>
         <v>7677900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F73" s="3">
         <v>989000</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G73" s="12">
         <f>771400-180000</f>
         <v>591400</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H73" s="12">
         <f>1003000-180000</f>
         <v>823000</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I73" s="12">
         <f>1281500-180000</f>
         <v>1101500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J73" s="3">
         <v>1321000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K73" s="3">
         <v>1426000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L73" s="3">
         <v>1426000</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3">
         <v>634280</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E74" s="3">
         <f t="shared" si="1"/>
         <v>2094000</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F74" s="3">
         <v>272000</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G74" s="3">
         <v>282000</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H74" s="3">
         <v>342000</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I74" s="3">
         <v>292000</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J74" s="3">
         <v>302000</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K74" s="3">
         <v>302000</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L74" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3">
-        <v>0</v>
-      </c>
-      <c r="E74" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3">
-        <v>1001250.0000000001</v>
+        <v>0</v>
       </c>
       <c r="E75" s="3">
         <f t="shared" si="1"/>
-        <v>3115000</v>
-      </c>
-      <c r="F75" s="3">
-        <v>365000</v>
-      </c>
-      <c r="G75" s="3">
-        <v>365000</v>
-      </c>
-      <c r="H75" s="3">
-        <v>365000</v>
-      </c>
-      <c r="I75" s="3">
-        <v>505000</v>
-      </c>
-      <c r="J75" s="3">
-        <v>505000</v>
-      </c>
-      <c r="K75" s="3">
-        <v>505000</v>
-      </c>
-      <c r="L75" s="3">
-        <v>505000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>368</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>369</v>
+        <v>121</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3">
-        <v>7500</v>
+        <v>1001250.0000000001</v>
       </c>
       <c r="E76" s="3">
         <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+        <v>3115000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>365000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>365000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>365000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>505000</v>
+      </c>
       <c r="J76" s="3">
-        <v>5000</v>
+        <v>505000</v>
       </c>
       <c r="K76" s="3">
-        <v>5000</v>
+        <v>505000</v>
       </c>
       <c r="L76" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>505000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>368</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3">
-        <v>1125260</v>
+        <v>7500</v>
       </c>
       <c r="E77" s="3">
         <f t="shared" si="1"/>
-        <v>2343000</v>
-      </c>
-      <c r="F77" s="3">
-        <v>249000</v>
-      </c>
-      <c r="G77" s="3">
-        <v>259000</v>
-      </c>
-      <c r="H77" s="3">
-        <v>262000</v>
-      </c>
-      <c r="I77" s="3">
-        <v>326000</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
       <c r="J77" s="3">
-        <v>371000</v>
+        <v>5000</v>
       </c>
       <c r="K77" s="3">
-        <v>428000</v>
+        <v>5000</v>
       </c>
       <c r="L77" s="3">
-        <v>448000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3">
-        <v>3736320</v>
+        <v>1125260</v>
       </c>
       <c r="E78" s="3">
         <f t="shared" si="1"/>
-        <v>5866000</v>
+        <v>2343000</v>
       </c>
       <c r="F78" s="3">
-        <v>835000</v>
+        <v>249000</v>
       </c>
       <c r="G78" s="3">
-        <v>835000</v>
+        <v>259000</v>
       </c>
       <c r="H78" s="3">
-        <v>838000</v>
+        <v>262000</v>
       </c>
       <c r="I78" s="3">
-        <v>838000</v>
+        <v>326000</v>
       </c>
       <c r="J78" s="3">
-        <v>840000</v>
+        <v>371000</v>
       </c>
       <c r="K78" s="3">
-        <v>840000</v>
+        <v>428000</v>
       </c>
       <c r="L78" s="3">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>370</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3">
-        <v>467820.00000000006</v>
+        <v>3736320</v>
       </c>
       <c r="E79" s="3">
         <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-      <c r="F79" s="3"/>
+        <v>5866000</v>
+      </c>
+      <c r="F79" s="3">
+        <v>835000</v>
+      </c>
       <c r="G79" s="3">
-        <v>150000</v>
+        <v>835000</v>
       </c>
       <c r="H79" s="3">
-        <v>150000</v>
+        <v>838000</v>
       </c>
       <c r="I79" s="3">
-        <v>150000</v>
+        <v>838000</v>
       </c>
       <c r="J79" s="3">
-        <v>150000</v>
+        <v>840000</v>
       </c>
       <c r="K79" s="3">
-        <v>150000</v>
+        <v>840000</v>
       </c>
       <c r="L79" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>370</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>125</v>
+        <v>371</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
-        <v>3262375.3</v>
+        <v>467820.00000000006</v>
       </c>
       <c r="E80" s="3">
         <f t="shared" si="1"/>
-        <v>8055948</v>
-      </c>
-      <c r="F80" s="3">
-        <v>944384</v>
-      </c>
+        <v>900000</v>
+      </c>
+      <c r="F80" s="3"/>
       <c r="G80" s="3">
-        <v>991156</v>
+        <v>150000</v>
       </c>
       <c r="H80" s="3">
-        <v>976336</v>
+        <v>150000</v>
       </c>
       <c r="I80" s="3">
-        <v>1037872</v>
+        <v>150000</v>
       </c>
       <c r="J80" s="3">
-        <v>1197200</v>
+        <v>150000</v>
       </c>
       <c r="K80" s="3">
-        <v>1447000</v>
+        <v>150000</v>
       </c>
       <c r="L80" s="3">
-        <v>1462000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3">
-        <v>110000.00000000001</v>
+        <v>3262375.3</v>
       </c>
       <c r="E81" s="3">
         <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
+        <v>8055948</v>
+      </c>
+      <c r="F81" s="3">
+        <v>944384</v>
+      </c>
+      <c r="G81" s="3">
+        <v>991156</v>
+      </c>
+      <c r="H81" s="3">
+        <v>976336</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1037872</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1197200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1447000</v>
+      </c>
       <c r="L81" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1462000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3">
-        <v>19800</v>
+        <v>110000.00000000001</v>
       </c>
       <c r="E82" s="3">
         <f t="shared" si="1"/>
-        <v>36000</v>
-      </c>
-      <c r="F82" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G82" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H82" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I82" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J82" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K82" s="3">
-        <v>5000</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
       <c r="L82" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3">
-        <v>294000.00000000006</v>
+        <v>19800</v>
       </c>
       <c r="E83" s="3">
         <f t="shared" si="1"/>
-        <v>1050000</v>
+        <v>36000</v>
       </c>
       <c r="F83" s="3">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="G83" s="3">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="H83" s="3">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="I83" s="3">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="J83" s="3">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="K83" s="3">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="L83" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3">
-        <v>332117.14589989354</v>
+        <v>294000.00000000006</v>
       </c>
       <c r="E84" s="3">
         <f t="shared" si="1"/>
-        <v>844000</v>
+        <v>1050000</v>
       </c>
       <c r="F84" s="3">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="G84" s="3">
-        <v>128000</v>
+        <v>150000</v>
       </c>
       <c r="H84" s="3">
-        <v>128000</v>
+        <v>150000</v>
       </c>
       <c r="I84" s="3">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="J84" s="3">
-        <v>133000</v>
+        <v>150000</v>
       </c>
       <c r="K84" s="3">
-        <v>145000</v>
+        <v>150000</v>
       </c>
       <c r="L84" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3">
-        <v>462500</v>
+        <v>332117.14589989354</v>
       </c>
       <c r="E85" s="3">
         <f t="shared" si="1"/>
-        <v>1850000</v>
+        <v>844000</v>
       </c>
       <c r="F85" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G85" s="3">
-        <v>300000</v>
+        <v>128000</v>
       </c>
       <c r="H85" s="3">
-        <v>300000</v>
+        <v>128000</v>
       </c>
       <c r="I85" s="3">
-        <v>300000</v>
+        <v>130000</v>
       </c>
       <c r="J85" s="3">
-        <v>300000</v>
+        <v>133000</v>
       </c>
       <c r="K85" s="3">
-        <v>300000</v>
+        <v>145000</v>
       </c>
       <c r="L85" s="3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3">
-        <v>312000</v>
+        <v>462500</v>
       </c>
       <c r="E86" s="3">
         <f t="shared" si="1"/>
-        <v>1200000</v>
+        <v>1850000</v>
       </c>
       <c r="F86" s="3">
-        <v>400000</v>
+        <v>50000</v>
       </c>
       <c r="G86" s="3">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="H86" s="3">
-        <v>400000</v>
-      </c>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>300000</v>
+      </c>
+      <c r="I86" s="3">
+        <v>300000</v>
+      </c>
+      <c r="J86" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K86" s="3">
+        <v>300000</v>
+      </c>
+      <c r="L86" s="3">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3">
-        <v>580873.84615384624</v>
+        <v>312000</v>
       </c>
       <c r="E87" s="3">
         <f t="shared" si="1"/>
-        <v>2208000</v>
+        <v>1200000</v>
       </c>
       <c r="F87" s="3">
-        <v>990000</v>
+        <v>400000</v>
       </c>
       <c r="G87" s="3">
-        <v>3000</v>
+        <v>400000</v>
       </c>
       <c r="H87" s="3">
-        <v>303000</v>
-      </c>
-      <c r="I87" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J87" s="3">
-        <v>303000</v>
-      </c>
-      <c r="K87" s="3">
-        <v>303000</v>
-      </c>
-      <c r="L87" s="3">
-        <v>303000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>400000</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3">
-        <v>200000</v>
+        <v>580873.84615384624</v>
       </c>
       <c r="E88" s="3">
         <f t="shared" si="1"/>
-        <v>695000</v>
+        <v>1008000</v>
       </c>
       <c r="F88" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G88" s="3">
-        <v>65000</v>
-      </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3">
-        <v>150000</v>
-      </c>
-      <c r="J88" s="3">
-        <v>115000</v>
-      </c>
-      <c r="K88" s="3">
-        <v>100000</v>
-      </c>
-      <c r="L88" s="3">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>990000</v>
+      </c>
+      <c r="G88" s="12">
+        <v>3000</v>
+      </c>
+      <c r="H88" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I88" s="12">
+        <v>3000</v>
+      </c>
+      <c r="J88" s="12">
+        <v>3000</v>
+      </c>
+      <c r="K88" s="12">
+        <v>3000</v>
+      </c>
+      <c r="L88" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3">
-        <v>3468000</v>
+        <v>200000</v>
       </c>
       <c r="E89" s="3">
         <f t="shared" si="1"/>
-        <v>6800000</v>
+        <v>695000</v>
       </c>
       <c r="F89" s="3">
-        <v>800000</v>
+        <v>100000</v>
       </c>
       <c r="G89" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>1000000</v>
-      </c>
+        <v>65000</v>
+      </c>
+      <c r="H89" s="3"/>
       <c r="I89" s="3">
-        <v>1000000</v>
+        <v>150000</v>
       </c>
       <c r="J89" s="3">
-        <v>1000000</v>
+        <v>115000</v>
       </c>
       <c r="K89" s="3">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="L89" s="3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3">
-        <v>4410100</v>
+        <v>3468000</v>
       </c>
       <c r="E90" s="3">
         <f t="shared" si="1"/>
-        <v>7670000</v>
+        <v>6800000</v>
       </c>
       <c r="F90" s="3">
-        <v>680000</v>
+        <v>800000</v>
       </c>
       <c r="G90" s="3">
-        <v>1010000</v>
+        <v>1000000</v>
       </c>
       <c r="H90" s="3">
-        <v>1010000</v>
+        <v>1000000</v>
       </c>
       <c r="I90" s="3">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="J90" s="3">
-        <v>1110000</v>
+        <v>1000000</v>
       </c>
       <c r="K90" s="3">
-        <v>1170000</v>
+        <v>1000000</v>
       </c>
       <c r="L90" s="3">
-        <v>1530000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3">
-        <v>371360</v>
+        <v>4410100</v>
       </c>
       <c r="E91" s="3">
         <f t="shared" si="1"/>
-        <v>480000</v>
+        <v>7670000</v>
       </c>
       <c r="F91" s="3">
-        <v>40000</v>
+        <v>680000</v>
       </c>
       <c r="G91" s="3">
-        <v>60000</v>
+        <v>1010000</v>
       </c>
       <c r="H91" s="3">
-        <v>80000</v>
+        <v>1010000</v>
       </c>
       <c r="I91" s="3">
-        <v>70000</v>
+        <v>1160000</v>
       </c>
       <c r="J91" s="3">
-        <v>70000</v>
+        <v>1110000</v>
       </c>
       <c r="K91" s="3">
-        <v>70000</v>
+        <v>1170000</v>
       </c>
       <c r="L91" s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3">
-        <v>398300</v>
+        <v>371360</v>
       </c>
       <c r="E92" s="3">
         <f t="shared" si="1"/>
-        <v>665000</v>
+        <v>480000</v>
       </c>
       <c r="F92" s="3">
-        <v>95000</v>
+        <v>40000</v>
       </c>
       <c r="G92" s="3">
-        <v>95000</v>
+        <v>60000</v>
       </c>
       <c r="H92" s="3">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="I92" s="3">
-        <v>95000</v>
+        <v>70000</v>
       </c>
       <c r="J92" s="3">
-        <v>95000</v>
+        <v>70000</v>
       </c>
       <c r="K92" s="3">
-        <v>95000</v>
+        <v>70000</v>
       </c>
       <c r="L92" s="3">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3">
-        <v>7200</v>
+        <v>398300</v>
       </c>
       <c r="E93" s="3">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>665000</v>
       </c>
       <c r="F93" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="G93" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="H93" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="I93" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="J93" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="K93" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="L93" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3">
-        <v>502260</v>
+        <v>7200</v>
       </c>
       <c r="E94" s="3">
         <f t="shared" si="1"/>
-        <v>746000</v>
+        <v>10000</v>
       </c>
       <c r="F94" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>83000</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3">
-        <v>0</v>
+        <v>502260</v>
       </c>
       <c r="E95" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>746000</v>
+      </c>
+      <c r="F95" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G95" s="3">
+        <v>83000</v>
+      </c>
+      <c r="H95" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I95" s="3">
+        <v>85000</v>
+      </c>
+      <c r="J95" s="3">
+        <v>140000</v>
+      </c>
+      <c r="K95" s="3">
+        <v>150000</v>
+      </c>
+      <c r="L95" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -7352,142 +7368,142 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="L96" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3">
-        <v>88000</v>
+        <v>3750</v>
       </c>
       <c r="E97" s="3">
         <f t="shared" si="1"/>
-        <v>160000</v>
-      </c>
-      <c r="F97" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G97" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H97" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I97" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J97" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K97" s="3">
-        <v>30000</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
       <c r="L97" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3">
-        <v>810</v>
+        <v>88000</v>
       </c>
       <c r="E98" s="3">
         <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
+        <v>160000</v>
+      </c>
+      <c r="F98" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G98" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H98" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I98" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J98" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K98" s="3">
+        <v>30000</v>
+      </c>
       <c r="L98" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3">
-        <v>13520</v>
+        <v>810</v>
       </c>
       <c r="E99" s="3">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>1000</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
-      <c r="J99" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K99" s="3">
-        <v>8000</v>
-      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
       <c r="L99" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3">
-        <v>320625</v>
+        <v>13520</v>
       </c>
       <c r="E100" s="3">
         <f t="shared" si="1"/>
-        <v>1125000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1125000</v>
-      </c>
+        <v>26000</v>
+      </c>
+      <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L100" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>372</v>
+        <v>164</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>320625</v>
       </c>
       <c r="E101" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F101" s="3"/>
+        <v>1125000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1125000</v>
+      </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -7495,1413 +7511,1403 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3">
-        <v>418999.99999999994</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <f t="shared" si="1"/>
-        <v>2310000</v>
-      </c>
-      <c r="F102" s="3">
-        <v>90000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>880000</v>
-      </c>
-      <c r="H102" s="3">
-        <v>90000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>90000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>880000</v>
-      </c>
-      <c r="K102" s="3">
-        <v>90000</v>
-      </c>
-      <c r="L102" s="3">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3">
-        <v>418035</v>
+        <v>418999.99999999994</v>
       </c>
       <c r="E103" s="3">
         <f t="shared" si="1"/>
-        <v>584500</v>
+        <v>2310000</v>
       </c>
       <c r="F103" s="3">
-        <v>100500</v>
+        <v>90000</v>
       </c>
       <c r="G103" s="3">
-        <v>86000</v>
+        <v>880000</v>
       </c>
       <c r="H103" s="3">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="I103" s="3">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="J103" s="3">
-        <v>70000</v>
+        <v>880000</v>
       </c>
       <c r="K103" s="3">
-        <v>20000</v>
+        <v>90000</v>
       </c>
       <c r="L103" s="3">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3">
-        <v>175000</v>
+        <v>418035</v>
       </c>
       <c r="E104" s="3">
         <f t="shared" si="1"/>
-        <v>350000</v>
+        <v>584500</v>
       </c>
       <c r="F104" s="3">
-        <v>50000</v>
+        <v>100500</v>
       </c>
       <c r="G104" s="3">
-        <v>50000</v>
+        <v>86000</v>
       </c>
       <c r="H104" s="3">
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="I104" s="3">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J104" s="3">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K104" s="3">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="L104" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3">
-        <v>89100</v>
+        <v>175000</v>
       </c>
       <c r="E105" s="3">
         <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>350000</v>
       </c>
       <c r="F105" s="3">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G105" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H105" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="I105" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="J105" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K105" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="L105" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>373</v>
+        <v>170</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3">
-        <v>400000</v>
+        <v>89100</v>
       </c>
       <c r="E106" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
       </c>
       <c r="G106" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H106" s="3">
-        <v>0</v>
-      </c>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+      <c r="I106" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J106" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K106" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L106" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>174</v>
+        <v>373</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3">
-        <v>385846.15384615387</v>
+        <v>400000</v>
       </c>
       <c r="E107" s="3">
         <f t="shared" si="1"/>
-        <v>2200000</v>
+        <v>0</v>
       </c>
       <c r="F107" s="3">
-        <v>690000</v>
+        <v>0</v>
       </c>
       <c r="G107" s="3">
-        <v>245000</v>
+        <v>0</v>
       </c>
       <c r="H107" s="3">
-        <v>245000</v>
-      </c>
-      <c r="I107" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J107" s="3">
-        <v>250000</v>
-      </c>
-      <c r="K107" s="3">
-        <v>260000</v>
-      </c>
-      <c r="L107" s="3">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>374</v>
+        <v>174</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>375</v>
+        <v>175</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3">
-        <v>3710000</v>
+        <v>385846.15384615387</v>
       </c>
       <c r="E108" s="3">
         <f t="shared" si="1"/>
-        <v>14000000</v>
+        <v>2200000</v>
       </c>
       <c r="F108" s="3">
-        <v>2000000</v>
+        <v>690000</v>
       </c>
       <c r="G108" s="3">
-        <v>2000000</v>
+        <v>245000</v>
       </c>
       <c r="H108" s="3">
-        <v>2000000</v>
+        <v>245000</v>
       </c>
       <c r="I108" s="3">
-        <v>2000000</v>
+        <v>250000</v>
       </c>
       <c r="J108" s="3">
-        <v>2000000</v>
+        <v>250000</v>
       </c>
       <c r="K108" s="3">
-        <v>2000000</v>
+        <v>260000</v>
       </c>
       <c r="L108" s="3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>376</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C109" s="3"/>
       <c r="D109" s="3">
-        <v>2100000</v>
+        <v>3710000</v>
       </c>
       <c r="E109" s="3">
         <f t="shared" si="1"/>
-        <v>15000000</v>
-      </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
+        <v>14000000</v>
+      </c>
+      <c r="F109" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="G109" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="H109" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="I109" s="3">
+        <v>2000000</v>
+      </c>
       <c r="J109" s="3">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="K109" s="3">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="L109" s="3">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C110" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="D110" s="3">
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="E110" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J110" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="K110" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="L110" s="3">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3">
-        <v>112000.00000000001</v>
+        <v>0</v>
       </c>
       <c r="E111" s="3">
         <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="F111" s="3">
-        <v>200000</v>
-      </c>
-      <c r="G111" s="3">
-        <v>0</v>
-      </c>
-      <c r="H111" s="3">
-        <v>0</v>
-      </c>
-      <c r="I111" s="3">
-        <v>0</v>
-      </c>
-      <c r="J111" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K111" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L111" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3">
-        <v>24150</v>
+        <v>112000.00000000001</v>
       </c>
       <c r="E112" s="3">
         <f t="shared" si="1"/>
-        <v>105000</v>
+        <v>800000</v>
       </c>
       <c r="F112" s="3">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="G112" s="3">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="H112" s="3">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I112" s="3">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="J112" s="3">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="K112" s="3">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="L112" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3">
-        <v>21840</v>
+        <v>24150</v>
       </c>
       <c r="E113" s="3">
         <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+      <c r="F113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L113" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3">
+        <v>21840</v>
+      </c>
+      <c r="E114" s="3">
+        <f t="shared" si="1"/>
         <v>84000</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F114" s="3">
         <v>12000</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G114" s="3">
         <v>12000</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H114" s="3">
         <v>12000</v>
       </c>
-      <c r="I113" s="3">
+      <c r="I114" s="3">
         <v>12000</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J114" s="3">
         <v>12000</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K114" s="3">
         <v>12000</v>
       </c>
-      <c r="L113" s="3">
+      <c r="L114" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B115" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9">
-        <v>0</v>
-      </c>
-      <c r="E114" s="9">
+      <c r="C115" s="9"/>
+      <c r="D115" s="9">
+        <v>0</v>
+      </c>
+      <c r="E115" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D116" s="3">
         <v>6000000</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E116" s="3">
         <f t="shared" si="1"/>
         <v>6000000</v>
       </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3">
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3">
         <v>2000000</v>
       </c>
-      <c r="K115" s="3">
+      <c r="K116" s="3">
         <v>2000000</v>
       </c>
-      <c r="L115" s="3">
+      <c r="L116" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3">
+      <c r="C117" s="3"/>
+      <c r="D117" s="3">
         <v>1512000</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E117" s="3">
         <f t="shared" si="1"/>
         <v>2800000</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F117" s="3">
         <v>400000</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G117" s="3">
         <v>400000</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H117" s="3">
         <v>400000</v>
       </c>
-      <c r="I116" s="3">
+      <c r="I117" s="3">
         <v>400000</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J117" s="3">
         <v>400000</v>
       </c>
-      <c r="K116" s="3">
+      <c r="K117" s="3">
         <v>400000</v>
       </c>
-      <c r="L116" s="3">
+      <c r="L117" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3">
+      <c r="C118" s="3"/>
+      <c r="D118" s="3">
         <v>140000</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E118" s="3">
         <f t="shared" si="1"/>
         <v>140000</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F118" s="3">
         <v>20000</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G118" s="3">
         <v>20000</v>
       </c>
-      <c r="H117" s="3">
+      <c r="H118" s="3">
         <v>20000</v>
       </c>
-      <c r="I117" s="3">
+      <c r="I118" s="3">
         <v>20000</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J118" s="3">
         <v>20000</v>
       </c>
-      <c r="K117" s="3">
+      <c r="K118" s="3">
         <v>20000</v>
       </c>
-      <c r="L117" s="3">
+      <c r="L118" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3">
+      <c r="C119" s="3"/>
+      <c r="D119" s="3">
         <v>224000</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E119" s="3">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3">
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3">
         <v>10000</v>
       </c>
-      <c r="I118" s="3">
+      <c r="I119" s="3">
         <v>10000</v>
       </c>
-      <c r="J118" s="3">
+      <c r="J119" s="3">
         <v>20000</v>
       </c>
-      <c r="K118" s="3">
+      <c r="K119" s="3">
         <v>20000</v>
       </c>
-      <c r="L118" s="3">
+      <c r="L119" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3">
+      <c r="C120" s="3"/>
+      <c r="D120" s="3">
         <v>3615999.9999999995</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E120" s="3">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F120" s="3">
         <v>800000</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G120" s="3">
         <v>300000</v>
       </c>
-      <c r="H119" s="3">
+      <c r="H120" s="3">
         <v>150000</v>
       </c>
-      <c r="I119" s="3">
+      <c r="I120" s="3">
         <v>150000</v>
       </c>
-      <c r="J119" s="3">
+      <c r="J120" s="3">
         <v>200000</v>
       </c>
-      <c r="K119" s="3">
+      <c r="K120" s="3">
         <v>200000</v>
       </c>
-      <c r="L119" s="3">
+      <c r="L120" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3">
+      <c r="C121" s="3"/>
+      <c r="D121" s="3">
         <v>313235.99999999994</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E121" s="3">
         <f t="shared" si="1"/>
         <v>140000</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F121" s="3">
         <v>20000</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G121" s="3">
         <v>20000</v>
       </c>
-      <c r="H120" s="3">
+      <c r="H121" s="3">
         <v>20000</v>
       </c>
-      <c r="I120" s="3">
+      <c r="I121" s="3">
         <v>20000</v>
       </c>
-      <c r="J120" s="3">
+      <c r="J121" s="3">
         <v>20000</v>
       </c>
-      <c r="K120" s="3">
+      <c r="K121" s="3">
         <v>20000</v>
       </c>
-      <c r="L120" s="3">
+      <c r="L121" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3">
+      <c r="C122" s="3"/>
+      <c r="D122" s="3">
         <v>78308.999999999985</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E122" s="3">
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F122" s="3">
         <v>5000</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G122" s="3">
         <v>5000</v>
       </c>
-      <c r="H121" s="3">
+      <c r="H122" s="3">
         <v>5000</v>
       </c>
-      <c r="I121" s="3">
+      <c r="I122" s="3">
         <v>5000</v>
       </c>
-      <c r="J121" s="3">
+      <c r="J122" s="3">
         <v>5000</v>
       </c>
-      <c r="K121" s="3">
+      <c r="K122" s="3">
         <v>5000</v>
       </c>
-      <c r="L121" s="3">
+      <c r="L122" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3">
+      <c r="C123" s="3"/>
+      <c r="D123" s="3">
         <v>2390579.651928504</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E123" s="3">
         <f t="shared" si="1"/>
         <v>1117000</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F123" s="3">
         <v>200000</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G123" s="3">
         <v>31000</v>
       </c>
-      <c r="H122" s="3">
+      <c r="H123" s="3">
         <v>230000</v>
       </c>
-      <c r="I122" s="3">
+      <c r="I123" s="3">
         <v>105000</v>
       </c>
-      <c r="J122" s="3">
+      <c r="J123" s="3">
         <v>223000</v>
       </c>
-      <c r="K122" s="3">
+      <c r="K123" s="3">
         <v>95000</v>
       </c>
-      <c r="L122" s="3">
+      <c r="L123" s="3">
         <v>233000</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3">
-        <f>E123*1.93</f>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3">
+        <f>E124*1.93</f>
         <v>1930000</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E124" s="3">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="3">
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="3">
         <v>250000</v>
       </c>
-      <c r="J123" s="3">
+      <c r="J124" s="3">
         <v>250000</v>
       </c>
-      <c r="K123" s="3">
+      <c r="K124" s="3">
         <v>250000</v>
       </c>
-      <c r="L123" s="3">
+      <c r="L124" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3">
-        <f>E124*1.95</f>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3">
+        <f>E125*1.95</f>
         <v>8775000</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E125" s="3">
         <f t="shared" si="1"/>
         <v>4500000</v>
       </c>
-      <c r="F124" s="12">
+      <c r="F125" s="12">
         <v>500000</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G125" s="12">
         <v>500000</v>
       </c>
-      <c r="H124" s="12">
+      <c r="H125" s="12">
         <v>500000</v>
       </c>
-      <c r="I124" s="3">
+      <c r="I125" s="3">
         <v>750000</v>
       </c>
-      <c r="J124" s="3">
+      <c r="J125" s="3">
         <v>750000</v>
       </c>
-      <c r="K124" s="3">
+      <c r="K125" s="3">
         <v>750000</v>
       </c>
-      <c r="L124" s="3">
+      <c r="L125" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3">
+      <c r="C126" s="3"/>
+      <c r="D126" s="3">
         <v>1144500</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E126" s="3">
         <f t="shared" si="1"/>
         <v>545000</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F126" s="3">
         <v>75000</v>
       </c>
-      <c r="G125" s="3">
+      <c r="G126" s="3">
         <v>75000</v>
       </c>
-      <c r="H125" s="3">
+      <c r="H126" s="3">
         <v>75000</v>
       </c>
-      <c r="I125" s="3">
+      <c r="I126" s="3">
         <v>80000</v>
       </c>
-      <c r="J125" s="3">
+      <c r="J126" s="3">
         <v>80000</v>
       </c>
-      <c r="K125" s="3">
+      <c r="K126" s="3">
         <v>80000</v>
       </c>
-      <c r="L125" s="3">
+      <c r="L126" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3">
-        <v>0</v>
-      </c>
-      <c r="E126" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3">
-        <v>1716100</v>
+        <v>0</v>
       </c>
       <c r="E127" s="3">
         <f t="shared" si="1"/>
-        <v>905000</v>
-      </c>
-      <c r="F127" s="3">
-        <v>25000</v>
-      </c>
-      <c r="G127" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H127" s="3">
-        <v>105000</v>
-      </c>
-      <c r="I127" s="3">
-        <v>105000</v>
-      </c>
-      <c r="J127" s="3">
-        <v>205000</v>
-      </c>
-      <c r="K127" s="3">
-        <v>205000</v>
-      </c>
-      <c r="L127" s="3">
-        <v>205000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3">
-        <v>44946</v>
+        <v>1716100</v>
       </c>
       <c r="E128" s="3">
         <f t="shared" si="1"/>
-        <v>18000</v>
-      </c>
-      <c r="F128" s="3"/>
+        <v>905000</v>
+      </c>
+      <c r="F128" s="3">
+        <v>25000</v>
+      </c>
       <c r="G128" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H128" s="3"/>
+        <v>55000</v>
+      </c>
+      <c r="H128" s="3">
+        <v>105000</v>
+      </c>
       <c r="I128" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J128" s="3"/>
+        <v>105000</v>
+      </c>
+      <c r="J128" s="3">
+        <v>205000</v>
+      </c>
       <c r="K128" s="3">
-        <v>6000</v>
+        <v>205000</v>
       </c>
       <c r="L128" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>379</v>
+        <v>210</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>380</v>
+        <v>211</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3">
-        <v>142880</v>
+        <v>44946</v>
       </c>
       <c r="E129" s="3">
         <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L129" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3">
+        <v>142880</v>
+      </c>
+      <c r="E130" s="3">
+        <f t="shared" si="1"/>
         <v>76000</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F130" s="3">
         <v>6000</v>
       </c>
-      <c r="G129" s="3">
+      <c r="G130" s="3">
         <v>11000</v>
       </c>
-      <c r="H129" s="3">
+      <c r="H130" s="3">
         <v>11000</v>
       </c>
-      <c r="I129" s="3">
+      <c r="I130" s="3">
         <v>11000</v>
       </c>
-      <c r="J129" s="3">
+      <c r="J130" s="3">
         <v>11000</v>
       </c>
-      <c r="K129" s="3">
+      <c r="K130" s="3">
         <v>11000</v>
       </c>
-      <c r="L129" s="3">
+      <c r="L130" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B131" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="3">
+      <c r="C131" s="9"/>
+      <c r="D131" s="3">
         <v>387180</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E131" s="9">
         <f t="shared" si="1"/>
         <v>239000</v>
       </c>
-      <c r="F130" s="9">
+      <c r="F131" s="9">
         <v>39000</v>
       </c>
-      <c r="G130" s="9">
+      <c r="G131" s="9">
         <v>50000</v>
       </c>
-      <c r="H130" s="9">
+      <c r="H131" s="9">
         <v>50000</v>
       </c>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9">
+      <c r="I131" s="9"/>
+      <c r="J131" s="9">
         <v>50000</v>
       </c>
-      <c r="K130" s="9">
+      <c r="K131" s="9">
         <v>50000</v>
       </c>
-      <c r="L130" s="9"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="L131" s="9"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3">
+      <c r="C132" s="3"/>
+      <c r="D132" s="3">
         <v>14000</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E132" s="3">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3">
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B133" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11">
+      <c r="C133" s="11"/>
+      <c r="D133" s="11">
         <v>1465227.2727272727</v>
       </c>
-      <c r="E132" s="11">
-        <f t="shared" ref="E132:E200" si="2">SUM(F132:L132)</f>
+      <c r="E133" s="11">
+        <f t="shared" ref="E133:E201" si="2">SUM(F133:L133)</f>
         <v>1050000</v>
       </c>
-      <c r="F132" s="11">
+      <c r="F133" s="11">
         <v>150000</v>
       </c>
-      <c r="G132" s="11">
+      <c r="G133" s="11">
         <v>150000</v>
       </c>
-      <c r="H132" s="11">
+      <c r="H133" s="11">
         <v>150000</v>
       </c>
-      <c r="I132" s="11">
+      <c r="I133" s="11">
         <v>150000</v>
       </c>
-      <c r="J132" s="11">
+      <c r="J133" s="11">
         <v>150000</v>
       </c>
-      <c r="K132" s="11">
+      <c r="K133" s="11">
         <v>150000</v>
       </c>
-      <c r="L132" s="11">
+      <c r="L133" s="11">
         <v>150000</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3">
+      <c r="C134" s="3"/>
+      <c r="D134" s="3">
         <v>1967753.4246575343</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E134" s="3">
         <f t="shared" si="2"/>
         <v>807000</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F134" s="3">
         <v>84000</v>
       </c>
-      <c r="G133" s="3">
+      <c r="G134" s="3">
         <v>102000</v>
       </c>
-      <c r="H133" s="3">
+      <c r="H134" s="3">
         <v>110000</v>
       </c>
-      <c r="I133" s="3">
+      <c r="I134" s="3">
         <v>114000</v>
       </c>
-      <c r="J133" s="3">
+      <c r="J134" s="3">
         <v>129000</v>
       </c>
-      <c r="K133" s="3">
+      <c r="K134" s="3">
         <v>129000</v>
       </c>
-      <c r="L133" s="3">
+      <c r="L134" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3">
-        <v>0</v>
-      </c>
-      <c r="E134" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3">
-        <v>3358493.9820359279</v>
+        <v>0</v>
       </c>
       <c r="E135" s="3">
         <f t="shared" si="2"/>
-        <v>1291000</v>
-      </c>
-      <c r="F135" s="3">
-        <v>228000</v>
-      </c>
-      <c r="G135" s="3">
-        <v>150000</v>
-      </c>
-      <c r="H135" s="3">
-        <v>320000</v>
-      </c>
-      <c r="I135" s="3">
-        <v>148000</v>
-      </c>
-      <c r="J135" s="3">
-        <v>130000</v>
-      </c>
-      <c r="K135" s="3">
-        <v>155000</v>
-      </c>
-      <c r="L135" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3">
-        <v>8228000</v>
+        <v>3358493.9820359279</v>
       </c>
       <c r="E136" s="3">
         <f t="shared" si="2"/>
-        <v>3400000</v>
+        <v>1291000</v>
       </c>
       <c r="F136" s="3">
-        <v>450000</v>
+        <v>228000</v>
       </c>
       <c r="G136" s="3">
-        <v>500000</v>
+        <v>150000</v>
       </c>
       <c r="H136" s="3">
-        <v>450000</v>
+        <v>320000</v>
       </c>
       <c r="I136" s="3">
-        <v>500000</v>
+        <v>148000</v>
       </c>
       <c r="J136" s="3">
-        <v>500000</v>
+        <v>130000</v>
       </c>
       <c r="K136" s="3">
-        <v>500000</v>
+        <v>155000</v>
       </c>
       <c r="L136" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3">
-        <v>4224350</v>
+        <v>8228000</v>
       </c>
       <c r="E137" s="3">
         <f t="shared" si="2"/>
-        <v>1640500</v>
+        <v>3400000</v>
       </c>
       <c r="F137" s="3">
-        <v>158000</v>
+        <v>450000</v>
       </c>
       <c r="G137" s="3">
-        <v>212500</v>
+        <v>500000</v>
       </c>
       <c r="H137" s="3">
-        <v>212500</v>
+        <v>450000</v>
       </c>
       <c r="I137" s="3">
-        <v>262500</v>
+        <v>500000</v>
       </c>
       <c r="J137" s="3">
-        <v>265000</v>
+        <v>500000</v>
       </c>
       <c r="K137" s="3">
-        <v>265000</v>
+        <v>500000</v>
       </c>
       <c r="L137" s="3">
-        <v>265000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3">
-        <v>15000000</v>
+        <v>4224350</v>
       </c>
       <c r="E138" s="3">
         <f t="shared" si="2"/>
-        <v>30000000</v>
+        <v>1640500</v>
       </c>
       <c r="F138" s="3">
-        <v>0</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
+        <v>158000</v>
+      </c>
+      <c r="G138" s="3">
+        <v>212500</v>
+      </c>
+      <c r="H138" s="3">
+        <v>212500</v>
+      </c>
+      <c r="I138" s="3">
+        <v>262500</v>
+      </c>
       <c r="J138" s="3">
-        <v>10000000</v>
+        <v>265000</v>
       </c>
       <c r="K138" s="3">
-        <v>10000000</v>
+        <v>265000</v>
       </c>
       <c r="L138" s="3">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>265000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3">
-        <v>13600000</v>
+        <v>15000000</v>
       </c>
       <c r="E139" s="3">
         <f t="shared" si="2"/>
-        <v>34000000</v>
+        <v>30000000</v>
       </c>
       <c r="F139" s="3">
-        <v>4000000</v>
-      </c>
-      <c r="G139" s="3">
-        <v>4000000</v>
-      </c>
-      <c r="H139" s="3">
-        <v>4000000</v>
-      </c>
-      <c r="I139" s="3">
-        <v>4000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
       <c r="J139" s="3">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
       <c r="K139" s="3">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
       <c r="L139" s="3">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3">
-        <v>358560</v>
+        <v>13600000</v>
       </c>
       <c r="E140" s="3">
         <f t="shared" si="2"/>
-        <v>119520</v>
+        <v>34000000</v>
       </c>
       <c r="F140" s="3">
-        <v>20000</v>
+        <v>4000000</v>
       </c>
       <c r="G140" s="3">
-        <v>20000</v>
+        <v>4000000</v>
       </c>
       <c r="H140" s="3">
-        <v>20000</v>
+        <v>4000000</v>
       </c>
       <c r="I140" s="3">
-        <v>14880</v>
+        <v>4000000</v>
       </c>
       <c r="J140" s="3">
-        <v>14880</v>
+        <v>6000000</v>
       </c>
       <c r="K140" s="3">
-        <v>14880</v>
+        <v>6000000</v>
       </c>
       <c r="L140" s="3">
-        <v>14880</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3">
-        <v>294000</v>
+        <v>358560</v>
       </c>
       <c r="E141" s="3">
         <f t="shared" si="2"/>
-        <v>91000</v>
+        <v>119520</v>
       </c>
       <c r="F141" s="3">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="G141" s="3">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="H141" s="3">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="I141" s="3">
-        <v>13000</v>
+        <v>14880</v>
       </c>
       <c r="J141" s="3">
-        <v>13000</v>
+        <v>14880</v>
       </c>
       <c r="K141" s="3">
-        <v>13000</v>
+        <v>14880</v>
       </c>
       <c r="L141" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>384</v>
+        <v>230</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>385</v>
+        <v>230</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3">
-        <v>399000</v>
+        <v>294000</v>
       </c>
       <c r="E142" s="3">
         <f t="shared" si="2"/>
-        <v>140000</v>
-      </c>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
+        <v>91000</v>
+      </c>
+      <c r="F142" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G142" s="3">
+        <v>13000</v>
+      </c>
       <c r="H142" s="3">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="I142" s="3">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="J142" s="3">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="K142" s="3">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="L142" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3">
@@ -8929,1182 +8935,1181 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>235</v>
+        <v>384</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>236</v>
+        <v>386</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3">
-        <v>425000</v>
+        <v>399000</v>
       </c>
       <c r="E144" s="3">
         <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-      <c r="F144" s="3">
-        <v>0</v>
-      </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
+        <v>140000</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
       <c r="H144" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I144" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J144" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="K144" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L144" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3">
-        <v>302014.92537313432</v>
+        <v>425000</v>
       </c>
       <c r="E145" s="3">
         <f t="shared" si="2"/>
-        <v>71000</v>
+        <v>50000</v>
       </c>
       <c r="F145" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G145" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H145" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I145" s="3">
         <v>0</v>
       </c>
       <c r="J145" s="3">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="K145" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="L145" s="3">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3">
-        <v>1137680</v>
+        <v>302014.92537313432</v>
       </c>
       <c r="E146" s="3">
         <f t="shared" si="2"/>
-        <v>332500</v>
+        <v>71000</v>
       </c>
       <c r="F146" s="3">
-        <v>28000</v>
+        <v>4000</v>
       </c>
       <c r="G146" s="3">
-        <v>28500</v>
+        <v>3000</v>
       </c>
       <c r="H146" s="3">
-        <v>49000</v>
+        <v>3000</v>
       </c>
       <c r="I146" s="3">
-        <v>49500</v>
+        <v>0</v>
       </c>
       <c r="J146" s="3">
-        <v>59000</v>
+        <v>18000</v>
       </c>
       <c r="K146" s="3">
-        <v>59500</v>
+        <v>20000</v>
       </c>
       <c r="L146" s="3">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3">
-        <v>1279199.9999999998</v>
+        <v>1137680</v>
       </c>
       <c r="E147" s="3">
         <f t="shared" si="2"/>
-        <v>317000</v>
+        <v>332500</v>
       </c>
       <c r="F147" s="3">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="G147" s="3">
-        <v>12000</v>
+        <v>28500</v>
       </c>
       <c r="H147" s="3">
-        <v>33000</v>
+        <v>49000</v>
       </c>
       <c r="I147" s="3">
-        <v>37000</v>
+        <v>49500</v>
       </c>
       <c r="J147" s="3">
-        <v>58000</v>
+        <v>59000</v>
       </c>
       <c r="K147" s="3">
-        <v>78000</v>
+        <v>59500</v>
       </c>
       <c r="L147" s="3">
-        <v>88000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3">
-        <v>157500</v>
+        <v>1279199.9999999998</v>
       </c>
       <c r="E148" s="3">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>317000</v>
       </c>
       <c r="F148" s="3">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="G148" s="3">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="H148" s="3">
-        <v>3000</v>
+        <v>33000</v>
       </c>
       <c r="I148" s="3">
-        <v>3000</v>
+        <v>37000</v>
       </c>
       <c r="J148" s="3">
-        <v>3000</v>
+        <v>58000</v>
       </c>
       <c r="K148" s="3">
-        <v>3000</v>
+        <v>78000</v>
       </c>
       <c r="L148" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3">
-        <v>630000</v>
+        <v>157500</v>
       </c>
       <c r="E149" s="3">
         <f t="shared" si="2"/>
-        <v>90000</v>
+        <v>21000</v>
       </c>
       <c r="F149" s="3">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="G149" s="3">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="H149" s="3">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="I149" s="3">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="J149" s="3">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="K149" s="3">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="L149" s="3">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3">
-        <v>2358000</v>
+        <v>630000</v>
       </c>
       <c r="E150" s="3">
         <f t="shared" si="2"/>
-        <v>461000</v>
+        <v>90000</v>
       </c>
       <c r="F150" s="3">
-        <v>50000</v>
+        <v>6000</v>
       </c>
       <c r="G150" s="3">
-        <v>51000</v>
+        <v>6000</v>
       </c>
       <c r="H150" s="3">
-        <v>51000</v>
+        <v>12000</v>
       </c>
       <c r="I150" s="3">
-        <v>56000</v>
+        <v>12000</v>
       </c>
       <c r="J150" s="3">
-        <v>71000</v>
+        <v>18000</v>
       </c>
       <c r="K150" s="3">
-        <v>91000</v>
+        <v>18000</v>
       </c>
       <c r="L150" s="3">
-        <v>91000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3">
-        <v>1120000</v>
+        <v>2358000</v>
       </c>
       <c r="E151" s="3">
         <f t="shared" si="2"/>
-        <v>1400000</v>
+        <v>461000</v>
       </c>
       <c r="F151" s="3">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="G151" s="3">
-        <v>200000</v>
+        <v>51000</v>
       </c>
       <c r="H151" s="3">
-        <v>200000</v>
+        <v>51000</v>
       </c>
       <c r="I151" s="3">
-        <v>200000</v>
+        <v>56000</v>
       </c>
       <c r="J151" s="3">
-        <v>200000</v>
+        <v>71000</v>
       </c>
       <c r="K151" s="3">
-        <v>200000</v>
+        <v>91000</v>
       </c>
       <c r="L151" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>387</v>
+        <v>249</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>388</v>
+        <v>250</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3">
-        <v>784000</v>
+        <v>1120000</v>
       </c>
       <c r="E152" s="3">
         <f t="shared" si="2"/>
-        <v>1120000</v>
+        <v>1400000</v>
       </c>
       <c r="F152" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="G152" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="H152" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="I152" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="J152" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="K152" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="L152" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3">
-        <v>274400</v>
-      </c>
-      <c r="E153" s="3"/>
+        <v>784000</v>
+      </c>
+      <c r="E153" s="3">
+        <f t="shared" si="2"/>
+        <v>1120000</v>
+      </c>
       <c r="F153" s="3">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="G153" s="3">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="H153" s="3">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="I153" s="3">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="J153" s="3">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="K153" s="3">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="L153" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3">
-        <v>196000</v>
+        <v>274400</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="G154" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="H154" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="I154" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="J154" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="K154" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="L154" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>251</v>
+        <v>391</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G155" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H155" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I155" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J155" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K155" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L155" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3">
         <v>922785.29411764711</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E156" s="3">
         <f t="shared" si="2"/>
         <v>798000</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F156" s="3">
         <v>130000</v>
       </c>
-      <c r="G155" s="3">
+      <c r="G156" s="3">
         <v>130000</v>
       </c>
-      <c r="H155" s="3">
+      <c r="H156" s="3">
         <v>130000</v>
       </c>
-      <c r="I155" s="3">
+      <c r="I156" s="3">
         <v>102000</v>
       </c>
-      <c r="J155" s="3">
+      <c r="J156" s="3">
         <v>102000</v>
       </c>
-      <c r="K155" s="3">
+      <c r="K156" s="3">
         <v>102000</v>
       </c>
-      <c r="L155" s="3">
+      <c r="L156" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3">
+      <c r="C157" s="3"/>
+      <c r="D157" s="3">
         <v>240400.00000000003</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E157" s="3">
         <f t="shared" si="2"/>
         <v>159000</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F157" s="3">
         <v>22000</v>
       </c>
-      <c r="G156" s="3">
+      <c r="G157" s="3">
         <v>22000</v>
       </c>
-      <c r="H156" s="3">
+      <c r="H157" s="3">
         <v>23000</v>
       </c>
-      <c r="I156" s="3">
+      <c r="I157" s="3">
         <v>23000</v>
       </c>
-      <c r="J156" s="3">
+      <c r="J157" s="3">
         <v>23000</v>
       </c>
-      <c r="K156" s="3">
+      <c r="K157" s="3">
         <v>23000</v>
       </c>
-      <c r="L156" s="3">
+      <c r="L157" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3">
+      <c r="C158" s="3"/>
+      <c r="D158" s="3">
         <v>521050</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E158" s="3">
         <f t="shared" si="2"/>
         <v>287000</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F158" s="3">
         <v>34000</v>
       </c>
-      <c r="G157" s="3">
+      <c r="G158" s="3">
         <v>36000</v>
       </c>
-      <c r="H157" s="3">
+      <c r="H158" s="3">
         <v>46000</v>
       </c>
-      <c r="I157" s="3">
+      <c r="I158" s="3">
         <v>42000</v>
       </c>
-      <c r="J157" s="3">
+      <c r="J158" s="3">
         <v>41000</v>
       </c>
-      <c r="K157" s="3">
+      <c r="K158" s="3">
         <v>41000</v>
       </c>
-      <c r="L157" s="3">
+      <c r="L158" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3">
+      <c r="C159" s="3"/>
+      <c r="D159" s="3">
         <v>14700</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E159" s="3">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="F158" s="3">
+      <c r="F159" s="3">
         <v>1000</v>
       </c>
-      <c r="G158" s="3">
+      <c r="G159" s="3">
         <v>1000</v>
       </c>
-      <c r="H158" s="3">
+      <c r="H159" s="3">
         <v>1000</v>
       </c>
-      <c r="I158" s="3">
+      <c r="I159" s="3">
         <v>1000</v>
       </c>
-      <c r="J158" s="3">
+      <c r="J159" s="3">
         <v>1000</v>
       </c>
-      <c r="K158" s="3">
+      <c r="K159" s="3">
         <v>1000</v>
       </c>
-      <c r="L158" s="3">
+      <c r="L159" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3">
+      <c r="C160" s="3"/>
+      <c r="D160" s="3">
         <v>3845946.3922720249</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E160" s="3">
         <f t="shared" si="2"/>
         <v>2056129</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F160" s="3">
         <v>439129</v>
       </c>
-      <c r="G159" s="3">
+      <c r="G160" s="3">
         <v>284500</v>
       </c>
-      <c r="H159" s="3">
+      <c r="H160" s="3">
         <v>284500</v>
       </c>
-      <c r="I159" s="3">
+      <c r="I160" s="3">
         <v>284500</v>
       </c>
-      <c r="J159" s="3">
+      <c r="J160" s="3">
         <v>254500</v>
       </c>
-      <c r="K159" s="3">
+      <c r="K160" s="3">
         <v>254500</v>
       </c>
-      <c r="L159" s="3">
+      <c r="L160" s="3">
         <v>254500</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B161" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9">
-        <v>0</v>
-      </c>
-      <c r="E160" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-      <c r="L160" s="9"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3">
-        <v>3438000</v>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9">
+        <v>0</v>
       </c>
       <c r="E161" s="9">
         <f t="shared" si="2"/>
-        <v>660000</v>
-      </c>
-      <c r="F161" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G161" s="3">
-        <v>100000</v>
-      </c>
-      <c r="H161" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I161" s="3">
-        <v>90000</v>
-      </c>
-      <c r="J161" s="3">
-        <v>90000</v>
-      </c>
-      <c r="K161" s="3">
-        <v>90000</v>
-      </c>
-      <c r="L161" s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>263</v>
+        <v>392</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>393</v>
+        <v>262</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3">
-        <v>1081500</v>
+        <v>3438000</v>
       </c>
       <c r="E162" s="9">
         <f t="shared" si="2"/>
-        <v>210000</v>
+        <v>660000</v>
       </c>
       <c r="F162" s="3">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="G162" s="3">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="H162" s="3">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="I162" s="3">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="J162" s="3">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="K162" s="3">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="L162" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>394</v>
+        <v>263</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3">
-        <v>441000</v>
+        <v>1081500</v>
       </c>
       <c r="E163" s="9">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>210000</v>
       </c>
       <c r="F163" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G163" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="H163" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="I163" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J163" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K163" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L163" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>264</v>
+        <v>394</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>265</v>
+        <v>395</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3">
-        <v>13801182.699999997</v>
+        <v>441000</v>
       </c>
       <c r="E164" s="9">
         <f t="shared" si="2"/>
+        <v>70000</v>
+      </c>
+      <c r="F164" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G164" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H164" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I164" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J164" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K164" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L164" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3">
+        <v>13801182.699999997</v>
+      </c>
+      <c r="E165" s="9">
+        <f t="shared" si="2"/>
         <v>6440090</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F165" s="3">
         <v>884000</v>
       </c>
-      <c r="G164" s="3">
+      <c r="G165" s="3">
         <v>894000</v>
       </c>
-      <c r="H164" s="3">
+      <c r="H165" s="3">
         <v>857570</v>
       </c>
-      <c r="I164" s="3">
+      <c r="I165" s="3">
         <v>937970</v>
       </c>
-      <c r="J164" s="3">
+      <c r="J165" s="3">
         <v>950370</v>
       </c>
-      <c r="K164" s="3">
+      <c r="K165" s="3">
         <v>958850</v>
       </c>
-      <c r="L164" s="3">
+      <c r="L165" s="3">
         <v>957330</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4">
+      <c r="C166" s="4"/>
+      <c r="D166" s="4">
         <v>10906611.804767311</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E166" s="4">
         <f t="shared" si="2"/>
         <v>7000000</v>
       </c>
-      <c r="F165" s="4">
+      <c r="F166" s="4">
         <v>1000000</v>
       </c>
-      <c r="G165" s="4">
+      <c r="G166" s="4">
         <v>1000000</v>
       </c>
-      <c r="H165" s="4">
+      <c r="H166" s="4">
         <v>1000000</v>
       </c>
-      <c r="I165" s="4">
+      <c r="I166" s="4">
         <v>1000000</v>
       </c>
-      <c r="J165" s="4">
+      <c r="J166" s="4">
         <v>1000000</v>
       </c>
-      <c r="K165" s="4">
+      <c r="K166" s="4">
         <v>1000000</v>
       </c>
-      <c r="L165" s="4">
+      <c r="L166" s="4">
         <v>1000000</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3">
+      <c r="C167" s="3"/>
+      <c r="D167" s="3">
         <v>240000</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E167" s="3">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F167" s="3">
         <v>30000</v>
       </c>
-      <c r="G166" s="3">
+      <c r="G167" s="3">
         <v>20000</v>
       </c>
-      <c r="H166" s="3">
+      <c r="H167" s="3">
         <v>20000</v>
       </c>
-      <c r="I166" s="3">
+      <c r="I167" s="3">
         <v>20000</v>
       </c>
-      <c r="J166" s="3">
+      <c r="J167" s="3">
         <v>20000</v>
       </c>
-      <c r="K166" s="3">
+      <c r="K167" s="3">
         <v>20000</v>
       </c>
-      <c r="L166" s="3">
+      <c r="L167" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3">
+      <c r="C168" s="3"/>
+      <c r="D168" s="3">
         <v>4076869.6084683072</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E168" s="3">
         <f t="shared" si="2"/>
         <v>2020500</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F168" s="3">
         <v>300000</v>
       </c>
-      <c r="G167" s="3">
+      <c r="G168" s="3">
         <v>300000</v>
       </c>
-      <c r="H167" s="3">
+      <c r="H168" s="3">
         <v>330000</v>
       </c>
-      <c r="I167" s="3">
+      <c r="I168" s="3">
         <v>340500</v>
       </c>
-      <c r="J167" s="3">
+      <c r="J168" s="3">
         <v>240000</v>
       </c>
-      <c r="K167" s="3">
+      <c r="K168" s="3">
         <v>240000</v>
       </c>
-      <c r="L167" s="3">
+      <c r="L168" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3">
+      <c r="C169" s="3"/>
+      <c r="D169" s="3">
         <v>3833730.3915316919</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E169" s="3">
         <f t="shared" si="2"/>
         <v>1900000</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F169" s="3">
         <v>200000</v>
       </c>
-      <c r="G168" s="3">
+      <c r="G169" s="3">
         <v>200000</v>
       </c>
-      <c r="H168" s="3">
+      <c r="H169" s="3">
         <v>200000</v>
       </c>
-      <c r="I168" s="3">
+      <c r="I169" s="3">
         <v>300000</v>
       </c>
-      <c r="J168" s="3">
+      <c r="J169" s="3">
         <v>300000</v>
       </c>
-      <c r="K168" s="3">
+      <c r="K169" s="3">
         <v>300000</v>
       </c>
-      <c r="L168" s="3">
+      <c r="L169" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3">
+      <c r="C170" s="3"/>
+      <c r="D170" s="3">
         <v>3052187.9975861064</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E170" s="3">
         <f t="shared" si="2"/>
         <v>1400000</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F170" s="3">
         <v>200000</v>
       </c>
-      <c r="G169" s="3">
+      <c r="G170" s="3">
         <v>200000</v>
       </c>
-      <c r="H169" s="3">
+      <c r="H170" s="3">
         <v>200000</v>
       </c>
-      <c r="I169" s="3">
+      <c r="I170" s="3">
         <v>200000</v>
       </c>
-      <c r="J169" s="3">
+      <c r="J170" s="3">
         <v>200000</v>
       </c>
-      <c r="K169" s="3">
+      <c r="K170" s="3">
         <v>200000</v>
       </c>
-      <c r="L169" s="3">
+      <c r="L170" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3">
+      <c r="C171" s="3"/>
+      <c r="D171" s="3">
         <v>623000</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E171" s="3">
         <f t="shared" si="2"/>
         <v>322000</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F171" s="3">
         <v>46000</v>
       </c>
-      <c r="G170" s="3">
+      <c r="G171" s="3">
         <v>46000</v>
       </c>
-      <c r="H170" s="3">
+      <c r="H171" s="3">
         <v>46000</v>
       </c>
-      <c r="I170" s="3">
+      <c r="I171" s="3">
         <v>46000</v>
       </c>
-      <c r="J170" s="3">
+      <c r="J171" s="3">
         <v>46000</v>
       </c>
-      <c r="K170" s="3">
+      <c r="K171" s="3">
         <v>46000</v>
       </c>
-      <c r="L170" s="3">
+      <c r="L171" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3">
+      <c r="C172" s="3"/>
+      <c r="D172" s="3">
         <v>2752599.9999999995</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E172" s="3">
         <f t="shared" si="2"/>
         <v>1300000</v>
       </c>
-      <c r="F171" s="3">
+      <c r="F172" s="3">
         <v>180000</v>
       </c>
-      <c r="G171" s="3">
+      <c r="G172" s="3">
         <v>180000</v>
       </c>
-      <c r="H171" s="3">
+      <c r="H172" s="3">
         <v>180000</v>
       </c>
-      <c r="I171" s="3">
+      <c r="I172" s="3">
         <v>190000</v>
       </c>
-      <c r="J171" s="3">
+      <c r="J172" s="3">
         <v>190000</v>
       </c>
-      <c r="K171" s="3">
+      <c r="K172" s="3">
         <v>190000</v>
       </c>
-      <c r="L171" s="3">
+      <c r="L172" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3">
+      <c r="C173" s="3"/>
+      <c r="D173" s="3">
         <v>2139390</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E173" s="3">
         <f t="shared" si="2"/>
         <v>1043000</v>
       </c>
-      <c r="F172" s="3">
+      <c r="F173" s="3">
         <v>136000</v>
       </c>
-      <c r="G172" s="3">
+      <c r="G173" s="3">
         <v>136000</v>
       </c>
-      <c r="H172" s="3">
+      <c r="H173" s="3">
         <v>136000</v>
       </c>
-      <c r="I172" s="3">
+      <c r="I173" s="3">
         <v>158000</v>
       </c>
-      <c r="J172" s="3">
+      <c r="J173" s="3">
         <v>158000</v>
       </c>
-      <c r="K172" s="3">
+      <c r="K173" s="3">
         <v>158000</v>
       </c>
-      <c r="L172" s="3">
+      <c r="L173" s="3">
         <v>161000</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3">
+      <c r="C174" s="3"/>
+      <c r="D174" s="3">
         <v>3871457.4999999995</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E174" s="3">
         <f t="shared" si="2"/>
         <v>1796500</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F174" s="3">
         <v>196500</v>
       </c>
-      <c r="G173" s="3">
+      <c r="G174" s="3">
         <v>200000</v>
       </c>
-      <c r="H173" s="3">
+      <c r="H174" s="3">
         <v>200000</v>
       </c>
-      <c r="I173" s="3">
+      <c r="I174" s="3">
         <v>300000</v>
       </c>
-      <c r="J173" s="3">
+      <c r="J174" s="3">
         <v>300000</v>
       </c>
-      <c r="K173" s="3">
+      <c r="K174" s="3">
         <v>300000</v>
       </c>
-      <c r="L173" s="3">
+      <c r="L174" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3">
+      <c r="C175" s="3"/>
+      <c r="D175" s="3">
         <v>10137060</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E175" s="3">
         <f t="shared" si="2"/>
         <v>7835000</v>
       </c>
-      <c r="F174" s="3">
+      <c r="F175" s="3">
         <v>705000</v>
       </c>
-      <c r="G174" s="3">
+      <c r="G175" s="3">
         <v>765000</v>
       </c>
-      <c r="H174" s="3">
+      <c r="H175" s="3">
         <v>1243000</v>
       </c>
-      <c r="I174" s="3">
+      <c r="I175" s="3">
         <v>1243000</v>
       </c>
-      <c r="J174" s="3">
+      <c r="J175" s="3">
         <v>1293000</v>
       </c>
-      <c r="K174" s="3">
+      <c r="K175" s="3">
         <v>1293000</v>
       </c>
-      <c r="L174" s="3">
+      <c r="L175" s="3">
         <v>1293000</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3">
+      <c r="C176" s="3"/>
+      <c r="D176" s="3">
         <v>423500</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E176" s="3">
         <f t="shared" si="2"/>
         <v>70000</v>
       </c>
-      <c r="F175" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G175" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H175" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I175" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J175" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K175" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L175" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3">
-        <v>455000</v>
-      </c>
-      <c r="E176" s="3"/>
       <c r="F176" s="3">
         <v>10000</v>
       </c>
@@ -10127,160 +10132,157 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>283</v>
+        <v>400</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G177" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H177" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I177" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J177" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K177" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L177" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3">
         <v>138460</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E178" s="3">
         <f t="shared" si="2"/>
         <v>23000</v>
       </c>
-      <c r="F177" s="3">
+      <c r="F178" s="3">
         <v>2000</v>
       </c>
-      <c r="G177" s="3">
+      <c r="G178" s="3">
         <v>3000</v>
       </c>
-      <c r="H177" s="3">
+      <c r="H178" s="3">
         <v>3000</v>
       </c>
-      <c r="I177" s="3">
+      <c r="I178" s="3">
         <v>3000</v>
       </c>
-      <c r="J177" s="3">
+      <c r="J178" s="3">
         <v>4000</v>
       </c>
-      <c r="K177" s="3">
+      <c r="K178" s="3">
         <v>4000</v>
       </c>
-      <c r="L177" s="3">
+      <c r="L178" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3">
+      <c r="C179" s="3"/>
+      <c r="D179" s="3">
         <v>435600</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E179" s="3">
         <f t="shared" si="2"/>
         <v>72000</v>
       </c>
-      <c r="F178" s="3">
+      <c r="F179" s="3">
         <v>10000</v>
       </c>
-      <c r="G178" s="3">
+      <c r="G179" s="3">
         <v>10000</v>
       </c>
-      <c r="H178" s="3">
+      <c r="H179" s="3">
         <v>10000</v>
       </c>
-      <c r="I178" s="3">
+      <c r="I179" s="3">
         <v>10000</v>
       </c>
-      <c r="J178" s="3">
+      <c r="J179" s="3">
         <v>10000</v>
       </c>
-      <c r="K178" s="3">
+      <c r="K179" s="3">
         <v>10000</v>
       </c>
-      <c r="L178" s="3">
+      <c r="L179" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3">
+      <c r="C180" s="3"/>
+      <c r="D180" s="3">
         <v>1207200</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E180" s="3">
         <f t="shared" si="2"/>
         <v>198000</v>
       </c>
-      <c r="F179" s="3">
+      <c r="F180" s="3">
         <v>26000</v>
       </c>
-      <c r="G179" s="3">
+      <c r="G180" s="3">
         <v>27000</v>
       </c>
-      <c r="H179" s="3">
+      <c r="H180" s="3">
         <v>27000</v>
       </c>
-      <c r="I179" s="3">
+      <c r="I180" s="3">
         <v>27000</v>
       </c>
-      <c r="J179" s="3">
+      <c r="J180" s="3">
         <v>27000</v>
       </c>
-      <c r="K179" s="3">
+      <c r="K180" s="3">
         <v>32000</v>
       </c>
-      <c r="L179" s="3">
+      <c r="L180" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3">
-        <v>0</v>
-      </c>
-      <c r="E180" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F180" s="3">
-        <v>0</v>
-      </c>
-      <c r="G180" s="3">
-        <v>0</v>
-      </c>
-      <c r="H180" s="3">
-        <v>0</v>
-      </c>
-      <c r="I180" s="3">
-        <v>0</v>
-      </c>
-      <c r="J180" s="3">
-        <v>0</v>
-      </c>
-      <c r="K180" s="3">
-        <v>0</v>
-      </c>
-      <c r="L180" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3">
@@ -10290,20 +10292,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F181" s="3">
+        <v>0</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="3">
+        <v>0</v>
+      </c>
+      <c r="I181" s="3">
+        <v>0</v>
+      </c>
+      <c r="J181" s="3">
+        <v>0</v>
+      </c>
+      <c r="K181" s="3">
+        <v>0</v>
+      </c>
+      <c r="L181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3">
@@ -10321,12 +10337,12 @@
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>403</v>
+        <v>291</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3">
@@ -10344,18 +10360,21 @@
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3">
         <v>0</v>
       </c>
-      <c r="E184" s="3"/>
+      <c r="E184" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -10364,187 +10383,180 @@
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>293</v>
+        <v>405</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3">
+        <v>0</v>
+      </c>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3">
         <v>1260000.0000000002</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E186" s="3">
         <f t="shared" si="2"/>
         <v>9000000</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F186" s="3">
         <v>600000</v>
       </c>
-      <c r="G185" s="3">
+      <c r="G186" s="3">
         <v>1000000</v>
       </c>
-      <c r="H185" s="3">
+      <c r="H186" s="3">
         <v>1000000</v>
       </c>
-      <c r="I185" s="3">
+      <c r="I186" s="3">
         <v>1200000</v>
       </c>
-      <c r="J185" s="3">
+      <c r="J186" s="3">
         <v>2000000</v>
       </c>
-      <c r="K185" s="3">
+      <c r="K186" s="3">
         <v>1200000</v>
       </c>
-      <c r="L185" s="3">
+      <c r="L186" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3">
+      <c r="C187" s="3"/>
+      <c r="D187" s="3">
         <v>714000.00000000012</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E187" s="3">
         <f t="shared" si="2"/>
         <v>5100000</v>
       </c>
-      <c r="F186" s="3">
+      <c r="F187" s="3">
         <v>1000000</v>
       </c>
-      <c r="G186" s="3">
+      <c r="G187" s="3">
         <v>600000</v>
       </c>
-      <c r="H186" s="3">
+      <c r="H187" s="3">
         <v>600000</v>
       </c>
-      <c r="I186" s="3">
+      <c r="I187" s="3">
         <v>1000000</v>
       </c>
-      <c r="J186" s="3">
+      <c r="J187" s="3">
         <v>500000</v>
       </c>
-      <c r="K186" s="3">
+      <c r="K187" s="3">
         <v>600000</v>
       </c>
-      <c r="L186" s="3">
+      <c r="L187" s="3">
         <v>800000</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3">
+      <c r="C188" s="3"/>
+      <c r="D188" s="3">
         <v>2377500</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E188" s="3">
         <f t="shared" si="2"/>
         <v>18900000</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F188" s="3">
         <v>2400000</v>
       </c>
-      <c r="G187" s="3">
+      <c r="G188" s="3">
         <v>2200000</v>
       </c>
-      <c r="H187" s="3">
+      <c r="H188" s="3">
         <v>2400000</v>
       </c>
-      <c r="I187" s="3">
+      <c r="I188" s="3">
         <v>3600000</v>
       </c>
-      <c r="J187" s="3">
+      <c r="J188" s="3">
         <v>2100000</v>
       </c>
-      <c r="K187" s="3">
+      <c r="K188" s="3">
         <v>2400000</v>
       </c>
-      <c r="L187" s="3">
+      <c r="L188" s="3">
         <v>3800000</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3">
-        <v>624000</v>
-      </c>
-      <c r="E188" s="3">
-        <f t="shared" si="2"/>
-        <v>4800000</v>
-      </c>
-      <c r="F188" s="3">
-        <v>800000</v>
-      </c>
-      <c r="G188" s="3">
-        <v>800000</v>
-      </c>
-      <c r="H188" s="3">
-        <v>800000</v>
-      </c>
-      <c r="I188" s="3">
-        <v>800000</v>
-      </c>
-      <c r="J188" s="3">
-        <v>400000</v>
-      </c>
-      <c r="K188" s="3">
-        <v>400000</v>
-      </c>
-      <c r="L188" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3">
-        <v>432000</v>
+        <v>624000</v>
       </c>
       <c r="E189" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
-      <c r="J189" s="12"/>
-      <c r="K189" s="12"/>
-      <c r="L189" s="12"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3200000</v>
+      </c>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3">
+        <v>800000</v>
+      </c>
+      <c r="I189" s="3">
+        <v>800000</v>
+      </c>
+      <c r="J189" s="3">
+        <v>400000</v>
+      </c>
+      <c r="K189" s="3">
+        <v>400000</v>
+      </c>
+      <c r="L189" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3">
-        <v>327344.94</v>
+        <v>432000</v>
       </c>
       <c r="E190" s="3">
         <f t="shared" si="2"/>
@@ -10558,473 +10570,497 @@
       <c r="K190" s="12"/>
       <c r="L190" s="12"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3">
-        <v>237999.99999999997</v>
+        <v>327344.94</v>
       </c>
       <c r="E191" s="3">
         <f t="shared" si="2"/>
-        <v>680000</v>
-      </c>
-      <c r="F191" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G191" s="3">
-        <v>50000</v>
-      </c>
-      <c r="H191" s="3">
-        <v>50000</v>
-      </c>
-      <c r="I191" s="3">
-        <v>80000</v>
-      </c>
-      <c r="J191" s="3">
-        <v>100000</v>
-      </c>
-      <c r="K191" s="3">
-        <v>100000</v>
-      </c>
-      <c r="L191" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3">
-        <v>550800</v>
+        <v>237999.99999999997</v>
       </c>
       <c r="E192" s="3">
         <f t="shared" si="2"/>
-        <v>3240000</v>
+        <v>680000</v>
       </c>
       <c r="F192" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G192" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H192" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I192" s="3">
+        <v>80000</v>
+      </c>
+      <c r="J192" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K192" s="3">
+        <v>100000</v>
+      </c>
+      <c r="L192" s="3">
         <v>200000</v>
       </c>
-      <c r="G192" s="3">
-        <v>160000</v>
-      </c>
-      <c r="H192" s="3">
-        <v>180000</v>
-      </c>
-      <c r="I192" s="3">
-        <v>500000</v>
-      </c>
-      <c r="J192" s="3">
-        <v>600000</v>
-      </c>
-      <c r="K192" s="3">
-        <v>600000</v>
-      </c>
-      <c r="L192" s="3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3">
-        <v>0</v>
+        <v>550800</v>
       </c>
       <c r="E193" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3240000</v>
+      </c>
+      <c r="F193" s="3">
+        <v>200000</v>
+      </c>
+      <c r="G193" s="3">
+        <v>160000</v>
+      </c>
+      <c r="H193" s="3">
+        <v>180000</v>
+      </c>
+      <c r="I193" s="3">
+        <v>500000</v>
+      </c>
+      <c r="J193" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K193" s="3">
+        <v>600000</v>
+      </c>
+      <c r="L193" s="3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3">
-        <v>1456875</v>
+        <v>0</v>
       </c>
       <c r="E194" s="3">
         <f t="shared" si="2"/>
-        <v>875</v>
-      </c>
-      <c r="F194" s="3">
-        <v>125</v>
-      </c>
-      <c r="G194" s="3">
-        <v>125</v>
-      </c>
-      <c r="H194" s="3">
-        <v>125</v>
-      </c>
-      <c r="I194" s="3">
-        <v>125</v>
-      </c>
-      <c r="J194" s="3">
-        <v>125</v>
-      </c>
-      <c r="K194" s="3">
-        <v>125</v>
-      </c>
-      <c r="L194" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3">
-        <v>42500</v>
+        <v>1456875</v>
       </c>
       <c r="E195" s="3">
         <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
+        <v>875</v>
+      </c>
+      <c r="F195" s="3">
+        <v>125</v>
+      </c>
+      <c r="G195" s="3">
+        <v>125</v>
+      </c>
+      <c r="H195" s="3">
+        <v>125</v>
+      </c>
+      <c r="I195" s="3">
+        <v>125</v>
+      </c>
       <c r="J195" s="3">
-        <v>15000</v>
+        <v>125</v>
       </c>
       <c r="K195" s="3">
-        <v>15000</v>
+        <v>125</v>
       </c>
       <c r="L195" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3">
-        <v>14499.999999999998</v>
+        <v>42500</v>
       </c>
       <c r="E196" s="3">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="K196" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L196" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3">
-        <v>429600</v>
+        <v>14499.999999999998</v>
       </c>
       <c r="E197" s="3">
         <f t="shared" si="2"/>
-        <v>528000</v>
-      </c>
-      <c r="F197" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K197" s="3">
         <v>10000</v>
       </c>
-      <c r="G197" s="3">
-        <v>51000</v>
-      </c>
-      <c r="H197" s="3">
-        <v>51000</v>
-      </c>
-      <c r="I197" s="3">
-        <v>101000</v>
-      </c>
-      <c r="J197" s="3">
-        <v>105000</v>
-      </c>
-      <c r="K197" s="3">
-        <v>105000</v>
-      </c>
       <c r="L197" s="3">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3">
-        <v>17400</v>
+        <v>429600</v>
       </c>
       <c r="E198" s="3">
         <f t="shared" si="2"/>
-        <v>30000</v>
-      </c>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
+        <v>528000</v>
+      </c>
+      <c r="F198" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G198" s="3">
+        <v>51000</v>
+      </c>
+      <c r="H198" s="3">
+        <v>51000</v>
+      </c>
+      <c r="I198" s="3">
+        <v>101000</v>
+      </c>
       <c r="J198" s="3">
-        <v>10000</v>
+        <v>105000</v>
       </c>
       <c r="K198" s="3">
-        <v>10000</v>
+        <v>105000</v>
       </c>
       <c r="L198" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3">
-        <v>1029500</v>
+        <v>17400</v>
       </c>
       <c r="E199" s="3">
         <f t="shared" si="2"/>
-        <v>408000</v>
-      </c>
-      <c r="F199" s="3">
-        <v>0</v>
-      </c>
-      <c r="G199" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3">
         <v>10000</v>
       </c>
-      <c r="H199" s="3">
-        <v>27000</v>
-      </c>
-      <c r="I199" s="3">
-        <v>56000</v>
-      </c>
-      <c r="J199" s="3">
-        <v>105000</v>
-      </c>
       <c r="K199" s="3">
-        <v>105000</v>
+        <v>10000</v>
       </c>
       <c r="L199" s="3">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3">
-        <v>240000</v>
+        <v>1029500</v>
       </c>
       <c r="E200" s="3">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>408000</v>
       </c>
       <c r="F200" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G200" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="H200" s="3">
-        <v>4000</v>
+        <v>27000</v>
       </c>
       <c r="I200" s="3">
-        <v>10000</v>
+        <v>56000</v>
       </c>
       <c r="J200" s="3">
-        <v>20000</v>
+        <v>105000</v>
       </c>
       <c r="K200" s="3">
-        <v>20000</v>
+        <v>105000</v>
       </c>
       <c r="L200" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3">
-        <v>140800</v>
+        <v>240000</v>
       </c>
       <c r="E201" s="3">
-        <f t="shared" ref="E201:E204" si="3">SUM(F201:L201)</f>
-        <v>256000</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
       </c>
       <c r="F201" s="3">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="G201" s="3">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="H201" s="3">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="I201" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J201" s="3">
         <v>20000</v>
       </c>
       <c r="K201" s="3">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="L201" s="3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3">
-        <v>0</v>
+        <v>140800</v>
       </c>
       <c r="E202" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
-      <c r="L202" s="3"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E202:E205" si="3">SUM(F202:L202)</f>
+        <v>256000</v>
+      </c>
+      <c r="F202" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G202" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H202" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I202" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J202" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K202" s="3">
+        <v>60000</v>
+      </c>
+      <c r="L202" s="3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>408</v>
+        <v>322</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3">
-        <v>480000</v>
+        <v>0</v>
       </c>
       <c r="E203" s="3">
         <f t="shared" si="3"/>
-        <v>160000</v>
+        <v>0</v>
       </c>
       <c r="F203" s="3"/>
-      <c r="G203" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H203" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I203" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J203" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K203" s="3">
-        <v>30000</v>
-      </c>
-      <c r="L203" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3">
-        <v>2940000</v>
+        <v>480000</v>
       </c>
       <c r="E204" s="3">
         <f t="shared" si="3"/>
+        <v>160000</v>
+      </c>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H204" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I204" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J204" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K204" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L204" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3">
+        <v>2940000</v>
+      </c>
+      <c r="E205" s="3">
+        <f t="shared" si="3"/>
         <v>980000</v>
       </c>
-      <c r="F204" s="3">
+      <c r="F205" s="3">
         <v>100000</v>
       </c>
-      <c r="G204" s="3">
+      <c r="G205" s="3">
         <v>130000</v>
       </c>
-      <c r="H204" s="3">
+      <c r="H205" s="3">
         <v>150000</v>
       </c>
-      <c r="I204" s="3">
+      <c r="I205" s="3">
         <v>150000</v>
       </c>
-      <c r="J204" s="3">
+      <c r="J205" s="3">
         <v>150000</v>
       </c>
-      <c r="K204" s="3">
+      <c r="K205" s="3">
         <v>150000</v>
       </c>
-      <c r="L204" s="3">
+      <c r="L205" s="3">
         <v>150000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L204" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
+  <autoFilter ref="A1:L1" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Forecast\forecast2025年\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556A0D86-F09D-49B9-ABEE-48E038C806E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DF66DE-F9D7-4680-B15E-005410B430FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="2124" windowWidth="23040" windowHeight="12204" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="东部" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$204</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">东部!$A$1:$W$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="411">
   <si>
     <t>产品型号</t>
   </si>
@@ -1310,10 +1310,6 @@
   </si>
   <si>
     <t>NA.SC60226SS-DC</t>
-  </si>
-  <si>
-    <t>SC2442SO-N-Q-CP-10CR-2442</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1727,22 +1723,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.625" hidden="1" customWidth="1"/>
-    <col min="15" max="22" width="10.5" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="22" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1813,7 +1809,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3100</v>
       </c>
@@ -1876,7 +1872,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>193</v>
       </c>
@@ -1935,7 +1931,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -1998,7 +1994,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
@@ -2061,7 +2057,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>198</v>
       </c>
@@ -2124,7 +2120,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>200</v>
       </c>
@@ -2187,7 +2183,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>200</v>
       </c>
@@ -2250,7 +2246,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
@@ -2313,7 +2309,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
@@ -2376,7 +2372,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
@@ -2439,7 +2435,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>208</v>
       </c>
@@ -2502,7 +2498,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>210</v>
       </c>
@@ -2565,7 +2561,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>212</v>
       </c>
@@ -2622,7 +2618,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>214</v>
       </c>
@@ -2685,7 +2681,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>216</v>
       </c>
@@ -2748,7 +2744,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>218</v>
       </c>
@@ -2811,7 +2807,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>218</v>
       </c>
@@ -2874,7 +2870,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>221</v>
       </c>
@@ -2937,7 +2933,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>227</v>
       </c>
@@ -3000,7 +2996,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>229</v>
       </c>
@@ -3063,7 +3059,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>230</v>
       </c>
@@ -3126,7 +3122,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>231</v>
       </c>
@@ -3189,7 +3185,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>233</v>
       </c>
@@ -3252,7 +3248,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>235</v>
       </c>
@@ -3315,7 +3311,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -3378,7 +3374,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -3441,7 +3437,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>120</v>
       </c>
@@ -3504,7 +3500,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -3567,7 +3563,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>126</v>
       </c>
@@ -3622,7 +3618,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -3685,7 +3681,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
@@ -3748,7 +3744,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>147</v>
       </c>
@@ -3811,7 +3807,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
@@ -3866,7 +3862,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>163</v>
       </c>
@@ -3915,7 +3911,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>289</v>
       </c>
@@ -3964,7 +3960,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>291</v>
       </c>
@@ -4026,24 +4022,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}">
-  <dimension ref="A1:L205"/>
+  <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4081,7 +4077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>3100</v>
       </c>
@@ -4118,7 +4114,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4155,7 +4151,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>353</v>
       </c>
@@ -4192,7 +4188,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -4217,7 +4213,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -4254,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>355</v>
       </c>
@@ -4291,7 +4287,7 @@
         <v>370000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>357</v>
       </c>
@@ -4316,7 +4312,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -4353,7 +4349,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -4390,7 +4386,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -4429,7 +4425,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -4468,7 +4464,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4505,7 +4501,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -4542,7 +4538,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -4579,7 +4575,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -4618,7 +4614,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -4655,7 +4651,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -4689,7 +4685,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>361</v>
       </c>
@@ -4728,7 +4724,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -4767,7 +4763,7 @@
         <v>221000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -4804,7 +4800,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4841,7 +4837,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -4878,7 +4874,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -4917,7 +4913,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -4946,7 +4942,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -4983,7 +4979,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -5020,7 +5016,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -5057,7 +5053,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5094,7 +5090,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -5117,7 +5113,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -5140,7 +5136,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -5163,7 +5159,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
@@ -5200,7 +5196,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -5237,7 +5233,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
@@ -5274,7 +5270,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
@@ -5311,7 +5307,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -5348,7 +5344,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -5385,7 +5381,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
@@ -5422,7 +5418,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -5459,7 +5455,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -5484,7 +5480,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -5513,7 +5509,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>69</v>
       </c>
@@ -5550,7 +5546,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -5587,7 +5583,7 @@
         <v>4335000</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
@@ -5616,7 +5612,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>71</v>
       </c>
@@ -5653,7 +5649,7 @@
         <v>2172000</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>75</v>
       </c>
@@ -5690,7 +5686,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -5727,7 +5723,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>364</v>
       </c>
@@ -5749,7 +5745,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>75</v>
       </c>
@@ -5786,7 +5782,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>75</v>
       </c>
@@ -5815,7 +5811,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>80</v>
       </c>
@@ -5852,7 +5848,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>82</v>
       </c>
@@ -5889,7 +5885,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>84</v>
       </c>
@@ -5926,7 +5922,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>86</v>
       </c>
@@ -5963,7 +5959,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
@@ -6000,7 +5996,7 @@
         <v>363000</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>88</v>
       </c>
@@ -6020,7 +6016,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>367</v>
       </c>
@@ -6043,7 +6039,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>91</v>
       </c>
@@ -6080,7 +6076,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>93</v>
       </c>
@@ -6117,7 +6113,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -6154,7 +6150,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>97</v>
       </c>
@@ -6185,7 +6181,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>98</v>
       </c>
@@ -6212,7 +6208,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>100</v>
       </c>
@@ -6249,7 +6245,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>102</v>
       </c>
@@ -6286,7 +6282,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>104</v>
       </c>
@@ -6323,7 +6319,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>106</v>
       </c>
@@ -6360,7 +6356,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>108</v>
       </c>
@@ -6372,995 +6368,983 @@
         <v>4580189.5734597156</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" ref="E68:E132" si="1">SUM(F68:L68)</f>
-        <v>2360000</v>
-      </c>
-      <c r="F68" s="12">
-        <v>240000</v>
-      </c>
-      <c r="G68" s="12">
-        <v>240000</v>
-      </c>
-      <c r="H68" s="12">
-        <v>360000</v>
-      </c>
-      <c r="I68" s="12">
-        <v>360000</v>
-      </c>
-      <c r="J68" s="12">
-        <v>400000</v>
-      </c>
-      <c r="K68" s="12">
-        <v>360000</v>
-      </c>
-      <c r="L68" s="12">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E68:E131" si="1">SUM(F68:L68)</f>
+        <v>12600000</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="K68" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>411</v>
+        <v>111</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="3">
+        <v>327500</v>
+      </c>
       <c r="E69" s="3">
         <f t="shared" si="1"/>
-        <v>16800000</v>
-      </c>
-      <c r="F69" s="12">
-        <v>2400000</v>
-      </c>
-      <c r="G69" s="12">
-        <v>2400000</v>
-      </c>
-      <c r="H69" s="12">
-        <v>2400000</v>
-      </c>
-      <c r="I69" s="12">
-        <v>2400000</v>
-      </c>
-      <c r="J69" s="12">
-        <v>2400000</v>
-      </c>
-      <c r="K69" s="12">
-        <v>2400000</v>
-      </c>
-      <c r="L69" s="12">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1310000</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3">
+        <v>402000</v>
+      </c>
+      <c r="I69" s="3">
+        <v>212000</v>
+      </c>
+      <c r="J69" s="3">
+        <v>242000</v>
+      </c>
+      <c r="K69" s="3">
+        <v>212000</v>
+      </c>
+      <c r="L69" s="3">
+        <v>242000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3">
-        <v>327500</v>
+        <v>4641231.9958311617</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="1"/>
-        <v>1310000</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+        <v>14700000</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2100000</v>
+      </c>
       <c r="H70" s="3">
-        <v>402000</v>
+        <v>2100000</v>
       </c>
       <c r="I70" s="3">
-        <v>212000</v>
+        <v>2100000</v>
       </c>
       <c r="J70" s="3">
-        <v>242000</v>
+        <v>2100000</v>
       </c>
       <c r="K70" s="3">
-        <v>212000</v>
+        <v>2100000</v>
       </c>
       <c r="L70" s="3">
-        <v>242000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>4641231.9958311617</v>
+        <v>1089640</v>
       </c>
       <c r="E71" s="3">
         <f t="shared" si="1"/>
-        <v>2800000</v>
-      </c>
-      <c r="F71" s="12">
-        <v>400000</v>
-      </c>
-      <c r="G71" s="12">
-        <v>400000</v>
-      </c>
-      <c r="H71" s="12">
-        <v>400000</v>
-      </c>
-      <c r="I71" s="12">
-        <v>400000</v>
-      </c>
-      <c r="J71" s="12">
-        <v>400000</v>
-      </c>
-      <c r="K71" s="12">
-        <v>400000</v>
-      </c>
-      <c r="L71" s="12">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2849000</v>
+      </c>
+      <c r="F71" s="3">
+        <v>467000</v>
+      </c>
+      <c r="G71" s="3">
+        <v>272000</v>
+      </c>
+      <c r="H71" s="3">
+        <v>272000</v>
+      </c>
+      <c r="I71" s="3">
+        <v>472000</v>
+      </c>
+      <c r="J71" s="3">
+        <v>402000</v>
+      </c>
+      <c r="K71" s="3">
+        <v>382000</v>
+      </c>
+      <c r="L71" s="3">
+        <v>582000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3">
-        <v>1089640</v>
+        <v>2896908</v>
       </c>
       <c r="E72" s="3">
         <f t="shared" si="1"/>
-        <v>2849000</v>
+        <v>7677900</v>
       </c>
       <c r="F72" s="3">
-        <v>467000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>272000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>272000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>472000</v>
+        <v>989000</v>
+      </c>
+      <c r="G72" s="12">
+        <f>771400-180000</f>
+        <v>591400</v>
+      </c>
+      <c r="H72" s="12">
+        <f>1003000-180000</f>
+        <v>823000</v>
+      </c>
+      <c r="I72" s="12">
+        <f>1281500-180000</f>
+        <v>1101500</v>
       </c>
       <c r="J72" s="3">
-        <v>402000</v>
+        <v>1321000</v>
       </c>
       <c r="K72" s="3">
-        <v>382000</v>
+        <v>1426000</v>
       </c>
       <c r="L72" s="3">
-        <v>582000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1426000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3">
-        <v>2896908</v>
+        <v>634280</v>
       </c>
       <c r="E73" s="3">
         <f t="shared" si="1"/>
-        <v>7677900</v>
+        <v>2094000</v>
       </c>
       <c r="F73" s="3">
-        <v>989000</v>
-      </c>
-      <c r="G73" s="12">
-        <f>771400-180000</f>
-        <v>591400</v>
-      </c>
-      <c r="H73" s="12">
-        <f>1003000-180000</f>
-        <v>823000</v>
-      </c>
-      <c r="I73" s="12">
-        <f>1281500-180000</f>
-        <v>1101500</v>
+        <v>272000</v>
+      </c>
+      <c r="G73" s="3">
+        <v>282000</v>
+      </c>
+      <c r="H73" s="3">
+        <v>342000</v>
+      </c>
+      <c r="I73" s="3">
+        <v>292000</v>
       </c>
       <c r="J73" s="3">
-        <v>1321000</v>
+        <v>302000</v>
       </c>
       <c r="K73" s="3">
-        <v>1426000</v>
+        <v>302000</v>
       </c>
       <c r="L73" s="3">
-        <v>1426000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+        <v>302000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3">
-        <v>634280</v>
+        <v>0</v>
       </c>
       <c r="E74" s="3">
         <f t="shared" si="1"/>
-        <v>2094000</v>
-      </c>
-      <c r="F74" s="3">
-        <v>272000</v>
-      </c>
-      <c r="G74" s="3">
-        <v>282000</v>
-      </c>
-      <c r="H74" s="3">
-        <v>342000</v>
-      </c>
-      <c r="I74" s="3">
-        <v>292000</v>
-      </c>
-      <c r="J74" s="3">
-        <v>302000</v>
-      </c>
-      <c r="K74" s="3">
-        <v>302000</v>
-      </c>
-      <c r="L74" s="3">
-        <v>302000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3">
-        <v>0</v>
+        <v>1001250.0000000001</v>
       </c>
       <c r="E75" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3115000</v>
+      </c>
+      <c r="F75" s="3">
+        <v>365000</v>
+      </c>
+      <c r="G75" s="3">
+        <v>365000</v>
+      </c>
+      <c r="H75" s="3">
+        <v>365000</v>
+      </c>
+      <c r="I75" s="3">
+        <v>505000</v>
+      </c>
+      <c r="J75" s="3">
+        <v>505000</v>
+      </c>
+      <c r="K75" s="3">
+        <v>505000</v>
+      </c>
+      <c r="L75" s="3">
+        <v>505000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>368</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>121</v>
+        <v>369</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3">
-        <v>1001250.0000000001</v>
+        <v>7500</v>
       </c>
       <c r="E76" s="3">
         <f t="shared" si="1"/>
-        <v>3115000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>365000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>365000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>365000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>505000</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
       <c r="J76" s="3">
-        <v>505000</v>
+        <v>5000</v>
       </c>
       <c r="K76" s="3">
-        <v>505000</v>
+        <v>5000</v>
       </c>
       <c r="L76" s="3">
-        <v>505000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>368</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3">
-        <v>7500</v>
+        <v>1125260</v>
       </c>
       <c r="E77" s="3">
         <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+        <v>2343000</v>
+      </c>
+      <c r="F77" s="3">
+        <v>249000</v>
+      </c>
+      <c r="G77" s="3">
+        <v>259000</v>
+      </c>
+      <c r="H77" s="3">
+        <v>262000</v>
+      </c>
+      <c r="I77" s="3">
+        <v>326000</v>
+      </c>
       <c r="J77" s="3">
-        <v>5000</v>
+        <v>371000</v>
       </c>
       <c r="K77" s="3">
-        <v>5000</v>
+        <v>428000</v>
       </c>
       <c r="L77" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+        <v>448000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3">
-        <v>1125260</v>
+        <v>3736320</v>
       </c>
       <c r="E78" s="3">
         <f t="shared" si="1"/>
-        <v>2343000</v>
+        <v>5866000</v>
       </c>
       <c r="F78" s="3">
-        <v>249000</v>
+        <v>835000</v>
       </c>
       <c r="G78" s="3">
-        <v>259000</v>
+        <v>835000</v>
       </c>
       <c r="H78" s="3">
-        <v>262000</v>
+        <v>838000</v>
       </c>
       <c r="I78" s="3">
-        <v>326000</v>
+        <v>838000</v>
       </c>
       <c r="J78" s="3">
-        <v>371000</v>
+        <v>840000</v>
       </c>
       <c r="K78" s="3">
-        <v>428000</v>
+        <v>840000</v>
       </c>
       <c r="L78" s="3">
-        <v>448000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>370</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3">
-        <v>3736320</v>
+        <v>467820.00000000006</v>
       </c>
       <c r="E79" s="3">
         <f t="shared" si="1"/>
-        <v>5866000</v>
-      </c>
-      <c r="F79" s="3">
-        <v>835000</v>
-      </c>
+        <v>900000</v>
+      </c>
+      <c r="F79" s="3"/>
       <c r="G79" s="3">
-        <v>835000</v>
+        <v>150000</v>
       </c>
       <c r="H79" s="3">
-        <v>838000</v>
+        <v>150000</v>
       </c>
       <c r="I79" s="3">
-        <v>838000</v>
+        <v>150000</v>
       </c>
       <c r="J79" s="3">
-        <v>840000</v>
+        <v>150000</v>
       </c>
       <c r="K79" s="3">
-        <v>840000</v>
+        <v>150000</v>
       </c>
       <c r="L79" s="3">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>370</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>371</v>
+        <v>125</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
-        <v>467820.00000000006</v>
+        <v>3262375.3</v>
       </c>
       <c r="E80" s="3">
         <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-      <c r="F80" s="3"/>
+        <v>8055948</v>
+      </c>
+      <c r="F80" s="3">
+        <v>944384</v>
+      </c>
       <c r="G80" s="3">
-        <v>150000</v>
+        <v>991156</v>
       </c>
       <c r="H80" s="3">
-        <v>150000</v>
+        <v>976336</v>
       </c>
       <c r="I80" s="3">
-        <v>150000</v>
+        <v>1037872</v>
       </c>
       <c r="J80" s="3">
-        <v>150000</v>
+        <v>1197200</v>
       </c>
       <c r="K80" s="3">
-        <v>150000</v>
+        <v>1447000</v>
       </c>
       <c r="L80" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1462000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3">
-        <v>3262375.3</v>
+        <v>110000.00000000001</v>
       </c>
       <c r="E81" s="3">
         <f t="shared" si="1"/>
-        <v>8055948</v>
-      </c>
-      <c r="F81" s="3">
-        <v>944384</v>
-      </c>
-      <c r="G81" s="3">
-        <v>991156</v>
-      </c>
-      <c r="H81" s="3">
-        <v>976336</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1037872</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1197200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1447000</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
       <c r="L81" s="3">
-        <v>1462000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3">
-        <v>110000.00000000001</v>
+        <v>19800</v>
       </c>
       <c r="E82" s="3">
         <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+        <v>36000</v>
+      </c>
+      <c r="F82" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G82" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H82" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I82" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J82" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K82" s="3">
+        <v>5000</v>
+      </c>
       <c r="L82" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3">
-        <v>19800</v>
+        <v>294000.00000000006</v>
       </c>
       <c r="E83" s="3">
         <f t="shared" si="1"/>
-        <v>36000</v>
+        <v>1050000</v>
       </c>
       <c r="F83" s="3">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="G83" s="3">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="H83" s="3">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="I83" s="3">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="J83" s="3">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="K83" s="3">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="L83" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3">
-        <v>294000.00000000006</v>
+        <v>332117.14589989354</v>
       </c>
       <c r="E84" s="3">
         <f t="shared" si="1"/>
-        <v>1050000</v>
+        <v>844000</v>
       </c>
       <c r="F84" s="3">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="G84" s="3">
-        <v>150000</v>
+        <v>128000</v>
       </c>
       <c r="H84" s="3">
-        <v>150000</v>
+        <v>128000</v>
       </c>
       <c r="I84" s="3">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="J84" s="3">
-        <v>150000</v>
+        <v>133000</v>
       </c>
       <c r="K84" s="3">
-        <v>150000</v>
+        <v>145000</v>
       </c>
       <c r="L84" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3">
-        <v>332117.14589989354</v>
+        <v>462500</v>
       </c>
       <c r="E85" s="3">
         <f t="shared" si="1"/>
-        <v>844000</v>
+        <v>1850000</v>
       </c>
       <c r="F85" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G85" s="3">
-        <v>128000</v>
+        <v>300000</v>
       </c>
       <c r="H85" s="3">
-        <v>128000</v>
+        <v>300000</v>
       </c>
       <c r="I85" s="3">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="J85" s="3">
-        <v>133000</v>
+        <v>300000</v>
       </c>
       <c r="K85" s="3">
-        <v>145000</v>
+        <v>300000</v>
       </c>
       <c r="L85" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3">
-        <v>462500</v>
+        <v>312000</v>
       </c>
       <c r="E86" s="3">
         <f t="shared" si="1"/>
-        <v>1850000</v>
+        <v>1200000</v>
       </c>
       <c r="F86" s="3">
-        <v>50000</v>
+        <v>400000</v>
       </c>
       <c r="G86" s="3">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="H86" s="3">
-        <v>300000</v>
-      </c>
-      <c r="I86" s="3">
-        <v>300000</v>
-      </c>
-      <c r="J86" s="3">
-        <v>300000</v>
-      </c>
-      <c r="K86" s="3">
-        <v>300000</v>
-      </c>
-      <c r="L86" s="3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+        <v>400000</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3">
-        <v>312000</v>
+        <v>580873.84615384624</v>
       </c>
       <c r="E87" s="3">
         <f t="shared" si="1"/>
-        <v>1200000</v>
+        <v>2208000</v>
       </c>
       <c r="F87" s="3">
-        <v>400000</v>
+        <v>990000</v>
       </c>
       <c r="G87" s="3">
-        <v>400000</v>
+        <v>3000</v>
       </c>
       <c r="H87" s="3">
-        <v>400000</v>
-      </c>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+        <v>303000</v>
+      </c>
+      <c r="I87" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J87" s="3">
+        <v>303000</v>
+      </c>
+      <c r="K87" s="3">
+        <v>303000</v>
+      </c>
+      <c r="L87" s="3">
+        <v>303000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3">
-        <v>580873.84615384624</v>
+        <v>200000</v>
       </c>
       <c r="E88" s="3">
         <f t="shared" si="1"/>
-        <v>1008000</v>
+        <v>695000</v>
       </c>
       <c r="F88" s="3">
-        <v>990000</v>
-      </c>
-      <c r="G88" s="12">
-        <v>3000</v>
-      </c>
-      <c r="H88" s="12">
-        <v>3000</v>
-      </c>
-      <c r="I88" s="12">
-        <v>3000</v>
-      </c>
-      <c r="J88" s="12">
-        <v>3000</v>
-      </c>
-      <c r="K88" s="12">
-        <v>3000</v>
-      </c>
-      <c r="L88" s="12">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+        <v>100000</v>
+      </c>
+      <c r="G88" s="3">
+        <v>65000</v>
+      </c>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3">
+        <v>150000</v>
+      </c>
+      <c r="J88" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K88" s="3">
+        <v>100000</v>
+      </c>
+      <c r="L88" s="3">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3">
-        <v>200000</v>
+        <v>3468000</v>
       </c>
       <c r="E89" s="3">
         <f t="shared" si="1"/>
-        <v>695000</v>
+        <v>6800000</v>
       </c>
       <c r="F89" s="3">
-        <v>100000</v>
+        <v>800000</v>
       </c>
       <c r="G89" s="3">
-        <v>65000</v>
-      </c>
-      <c r="H89" s="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1000000</v>
+      </c>
       <c r="I89" s="3">
-        <v>150000</v>
+        <v>1000000</v>
       </c>
       <c r="J89" s="3">
-        <v>115000</v>
+        <v>1000000</v>
       </c>
       <c r="K89" s="3">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="L89" s="3">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3">
-        <v>3468000</v>
+        <v>4410100</v>
       </c>
       <c r="E90" s="3">
         <f t="shared" si="1"/>
-        <v>6800000</v>
+        <v>7670000</v>
       </c>
       <c r="F90" s="3">
-        <v>800000</v>
+        <v>680000</v>
       </c>
       <c r="G90" s="3">
-        <v>1000000</v>
+        <v>1010000</v>
       </c>
       <c r="H90" s="3">
-        <v>1000000</v>
+        <v>1010000</v>
       </c>
       <c r="I90" s="3">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="J90" s="3">
-        <v>1000000</v>
+        <v>1110000</v>
       </c>
       <c r="K90" s="3">
-        <v>1000000</v>
+        <v>1170000</v>
       </c>
       <c r="L90" s="3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3">
-        <v>4410100</v>
+        <v>371360</v>
       </c>
       <c r="E91" s="3">
         <f t="shared" si="1"/>
-        <v>7670000</v>
+        <v>480000</v>
       </c>
       <c r="F91" s="3">
-        <v>680000</v>
+        <v>40000</v>
       </c>
       <c r="G91" s="3">
-        <v>1010000</v>
+        <v>60000</v>
       </c>
       <c r="H91" s="3">
-        <v>1010000</v>
+        <v>80000</v>
       </c>
       <c r="I91" s="3">
-        <v>1160000</v>
+        <v>70000</v>
       </c>
       <c r="J91" s="3">
-        <v>1110000</v>
+        <v>70000</v>
       </c>
       <c r="K91" s="3">
-        <v>1170000</v>
+        <v>70000</v>
       </c>
       <c r="L91" s="3">
-        <v>1530000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3">
-        <v>371360</v>
+        <v>398300</v>
       </c>
       <c r="E92" s="3">
         <f t="shared" si="1"/>
-        <v>480000</v>
+        <v>665000</v>
       </c>
       <c r="F92" s="3">
-        <v>40000</v>
+        <v>95000</v>
       </c>
       <c r="G92" s="3">
-        <v>60000</v>
+        <v>95000</v>
       </c>
       <c r="H92" s="3">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="I92" s="3">
-        <v>70000</v>
+        <v>95000</v>
       </c>
       <c r="J92" s="3">
-        <v>70000</v>
+        <v>95000</v>
       </c>
       <c r="K92" s="3">
-        <v>70000</v>
+        <v>95000</v>
       </c>
       <c r="L92" s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3">
-        <v>398300</v>
+        <v>7200</v>
       </c>
       <c r="E93" s="3">
         <f t="shared" si="1"/>
-        <v>665000</v>
+        <v>10000</v>
       </c>
       <c r="F93" s="3">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="G93" s="3">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="H93" s="3">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="I93" s="3">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="J93" s="3">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="K93" s="3">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="L93" s="3">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3">
-        <v>7200</v>
+        <v>502260</v>
       </c>
       <c r="E94" s="3">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>746000</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>83000</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="L94" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3">
-        <v>502260</v>
+        <v>0</v>
       </c>
       <c r="E95" s="3">
         <f t="shared" si="1"/>
-        <v>746000</v>
-      </c>
-      <c r="F95" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G95" s="3">
-        <v>83000</v>
-      </c>
-      <c r="H95" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I95" s="3">
-        <v>85000</v>
-      </c>
-      <c r="J95" s="3">
-        <v>140000</v>
-      </c>
-      <c r="K95" s="3">
-        <v>150000</v>
-      </c>
-      <c r="L95" s="3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="E96" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -7368,142 +7352,142 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3">
-        <v>3750</v>
+        <v>88000</v>
       </c>
       <c r="E97" s="3">
         <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+        <v>160000</v>
+      </c>
+      <c r="F97" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G97" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H97" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I97" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J97" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K97" s="3">
+        <v>30000</v>
+      </c>
       <c r="L97" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3">
-        <v>88000</v>
+        <v>810</v>
       </c>
       <c r="E98" s="3">
         <f t="shared" si="1"/>
-        <v>160000</v>
-      </c>
-      <c r="F98" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G98" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H98" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I98" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J98" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K98" s="3">
-        <v>30000</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
       <c r="L98" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3">
-        <v>810</v>
+        <v>13520</v>
       </c>
       <c r="E99" s="3">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>26000</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
+      <c r="J99" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K99" s="3">
+        <v>8000</v>
+      </c>
       <c r="L99" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3">
-        <v>13520</v>
+        <v>320625</v>
       </c>
       <c r="E100" s="3">
         <f t="shared" si="1"/>
-        <v>26000</v>
-      </c>
-      <c r="F100" s="3"/>
+        <v>1125000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1125000</v>
+      </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
-      <c r="J100" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K100" s="3">
-        <v>8000</v>
-      </c>
-      <c r="L100" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>164</v>
+        <v>372</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3">
-        <v>320625</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <f t="shared" si="1"/>
-        <v>1125000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1125000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -7511,562 +7495,572 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>372</v>
+        <v>167</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>418999.99999999994</v>
       </c>
       <c r="E102" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2310000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>90000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>880000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>90000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>90000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>880000</v>
+      </c>
+      <c r="K102" s="3">
+        <v>90000</v>
+      </c>
+      <c r="L102" s="3">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3">
-        <v>418999.99999999994</v>
+        <v>418035</v>
       </c>
       <c r="E103" s="3">
         <f t="shared" si="1"/>
-        <v>2310000</v>
+        <v>584500</v>
       </c>
       <c r="F103" s="3">
-        <v>90000</v>
+        <v>100500</v>
       </c>
       <c r="G103" s="3">
-        <v>880000</v>
+        <v>86000</v>
       </c>
       <c r="H103" s="3">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="I103" s="3">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J103" s="3">
-        <v>880000</v>
+        <v>70000</v>
       </c>
       <c r="K103" s="3">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="L103" s="3">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3">
-        <v>418035</v>
+        <v>175000</v>
       </c>
       <c r="E104" s="3">
         <f t="shared" si="1"/>
-        <v>584500</v>
+        <v>350000</v>
       </c>
       <c r="F104" s="3">
-        <v>100500</v>
+        <v>50000</v>
       </c>
       <c r="G104" s="3">
-        <v>86000</v>
+        <v>50000</v>
       </c>
       <c r="H104" s="3">
-        <v>110000</v>
+        <v>50000</v>
       </c>
       <c r="I104" s="3">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="J104" s="3">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="K104" s="3">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="L104" s="3">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3">
-        <v>175000</v>
+        <v>89100</v>
       </c>
       <c r="E105" s="3">
         <f t="shared" si="1"/>
-        <v>350000</v>
+        <v>180000</v>
       </c>
       <c r="F105" s="3">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G105" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="H105" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="I105" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="J105" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K105" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L105" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>170</v>
+        <v>373</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3">
-        <v>89100</v>
+        <v>400000</v>
       </c>
       <c r="E106" s="3">
         <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
       </c>
       <c r="G106" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I106" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J106" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K106" s="3">
-        <v>30000</v>
-      </c>
-      <c r="L106" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>373</v>
+        <v>174</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3">
-        <v>400000</v>
+        <v>385846.15384615387</v>
       </c>
       <c r="E107" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="F107" s="3">
-        <v>0</v>
+        <v>690000</v>
       </c>
       <c r="G107" s="3">
-        <v>0</v>
+        <v>245000</v>
       </c>
       <c r="H107" s="3">
-        <v>0</v>
-      </c>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+        <v>245000</v>
+      </c>
+      <c r="I107" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J107" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K107" s="3">
+        <v>260000</v>
+      </c>
+      <c r="L107" s="3">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>174</v>
+        <v>374</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3">
-        <v>385846.15384615387</v>
+        <v>3710000</v>
       </c>
       <c r="E108" s="3">
         <f t="shared" si="1"/>
-        <v>2200000</v>
+        <v>14000000</v>
       </c>
       <c r="F108" s="3">
-        <v>690000</v>
+        <v>2000000</v>
       </c>
       <c r="G108" s="3">
-        <v>245000</v>
+        <v>2000000</v>
       </c>
       <c r="H108" s="3">
-        <v>245000</v>
+        <v>2000000</v>
       </c>
       <c r="I108" s="3">
-        <v>250000</v>
+        <v>2000000</v>
       </c>
       <c r="J108" s="3">
-        <v>250000</v>
+        <v>2000000</v>
       </c>
       <c r="K108" s="3">
-        <v>260000</v>
+        <v>2000000</v>
       </c>
       <c r="L108" s="3">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C109" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="D109" s="3">
-        <v>3710000</v>
+        <v>2100000</v>
       </c>
       <c r="E109" s="3">
         <f t="shared" si="1"/>
-        <v>14000000</v>
-      </c>
-      <c r="F109" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="G109" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="H109" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="I109" s="3">
-        <v>2000000</v>
-      </c>
+        <v>15000000</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
       <c r="J109" s="3">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="K109" s="3">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="L109" s="3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>376</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C110" s="3"/>
       <c r="D110" s="3">
-        <v>2100000</v>
+        <v>0</v>
       </c>
       <c r="E110" s="3">
         <f t="shared" si="1"/>
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-      <c r="J110" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="K110" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="L110" s="3">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3">
-        <v>0</v>
+        <v>112000.00000000001</v>
       </c>
       <c r="E111" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+        <v>800000</v>
+      </c>
+      <c r="F111" s="3">
+        <v>200000</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K111" s="3">
+        <v>200000</v>
+      </c>
+      <c r="L111" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3">
-        <v>112000.00000000001</v>
+        <v>24150</v>
       </c>
       <c r="E112" s="3">
         <f t="shared" si="1"/>
-        <v>800000</v>
+        <v>105000</v>
       </c>
       <c r="F112" s="3">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="G112" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="H112" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I112" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J112" s="3">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="K112" s="3">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="L112" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3">
-        <v>24150</v>
+        <v>21840</v>
       </c>
       <c r="E113" s="3">
         <f t="shared" si="1"/>
-        <v>105000</v>
+        <v>84000</v>
       </c>
       <c r="F113" s="3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="G113" s="3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="H113" s="3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="I113" s="3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="J113" s="3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="K113" s="3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L113" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3">
-        <v>21840</v>
-      </c>
-      <c r="E114" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9">
+        <v>0</v>
+      </c>
+      <c r="E114" s="9">
         <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-      <c r="F114" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G114" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H114" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I114" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J114" s="3">
-        <v>12000</v>
-      </c>
-      <c r="K114" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L114" s="3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9">
-        <v>0</v>
-      </c>
-      <c r="E115" s="9">
+        <v>0</v>
+      </c>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D115" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="E115" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6000000</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="K115" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="L115" s="3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>377</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C116" s="3"/>
       <c r="D116" s="3">
-        <v>6000000</v>
+        <v>1512000</v>
       </c>
       <c r="E116" s="3">
         <f t="shared" si="1"/>
-        <v>6000000</v>
-      </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
+        <v>2800000</v>
+      </c>
+      <c r="F116" s="3">
+        <v>400000</v>
+      </c>
+      <c r="G116" s="3">
+        <v>400000</v>
+      </c>
+      <c r="H116" s="3">
+        <v>400000</v>
+      </c>
+      <c r="I116" s="3">
+        <v>400000</v>
+      </c>
       <c r="J116" s="3">
-        <v>2000000</v>
+        <v>400000</v>
       </c>
       <c r="K116" s="3">
-        <v>2000000</v>
+        <v>400000</v>
       </c>
       <c r="L116" s="3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3">
-        <v>1512000</v>
+        <v>140000</v>
       </c>
       <c r="E117" s="3">
         <f t="shared" si="1"/>
-        <v>2800000</v>
+        <v>140000</v>
       </c>
       <c r="F117" s="3">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="G117" s="3">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="H117" s="3">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="I117" s="3">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="J117" s="3">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="K117" s="3">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="L117" s="3">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3">
-        <v>140000</v>
+        <v>224000</v>
       </c>
       <c r="E118" s="3">
         <f t="shared" si="1"/>
-        <v>140000</v>
-      </c>
-      <c r="F118" s="3">
-        <v>20000</v>
-      </c>
-      <c r="G118" s="3">
-        <v>20000</v>
-      </c>
+        <v>80000</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
       <c r="H118" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I118" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J118" s="3">
         <v>20000</v>
@@ -8078,836 +8072,836 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3">
-        <v>224000</v>
+        <v>3615999.9999999995</v>
       </c>
       <c r="E119" s="3">
         <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
+        <v>2000000</v>
+      </c>
+      <c r="F119" s="3">
+        <v>800000</v>
+      </c>
+      <c r="G119" s="3">
+        <v>300000</v>
+      </c>
       <c r="H119" s="3">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="I119" s="3">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="J119" s="3">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="K119" s="3">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="L119" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3">
-        <v>3615999.9999999995</v>
+        <v>313235.99999999994</v>
       </c>
       <c r="E120" s="3">
         <f t="shared" si="1"/>
-        <v>2000000</v>
+        <v>140000</v>
       </c>
       <c r="F120" s="3">
-        <v>800000</v>
+        <v>20000</v>
       </c>
       <c r="G120" s="3">
-        <v>300000</v>
+        <v>20000</v>
       </c>
       <c r="H120" s="3">
-        <v>150000</v>
+        <v>20000</v>
       </c>
       <c r="I120" s="3">
-        <v>150000</v>
+        <v>20000</v>
       </c>
       <c r="J120" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="K120" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="L120" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3">
-        <v>313235.99999999994</v>
+        <v>78308.999999999985</v>
       </c>
       <c r="E121" s="3">
         <f t="shared" si="1"/>
-        <v>140000</v>
+        <v>35000</v>
       </c>
       <c r="F121" s="3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="G121" s="3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H121" s="3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="I121" s="3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="J121" s="3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="K121" s="3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="L121" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3">
-        <v>78308.999999999985</v>
+        <v>2390579.651928504</v>
       </c>
       <c r="E122" s="3">
         <f t="shared" si="1"/>
-        <v>35000</v>
+        <v>1117000</v>
       </c>
       <c r="F122" s="3">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="G122" s="3">
-        <v>5000</v>
+        <v>31000</v>
       </c>
       <c r="H122" s="3">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="I122" s="3">
-        <v>5000</v>
+        <v>105000</v>
       </c>
       <c r="J122" s="3">
-        <v>5000</v>
+        <v>223000</v>
       </c>
       <c r="K122" s="3">
-        <v>5000</v>
+        <v>95000</v>
       </c>
       <c r="L122" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+        <v>233000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3">
-        <v>2390579.651928504</v>
+        <f>E123*1.93</f>
+        <v>1930000</v>
       </c>
       <c r="E123" s="3">
         <f t="shared" si="1"/>
-        <v>1117000</v>
-      </c>
-      <c r="F123" s="3">
-        <v>200000</v>
-      </c>
-      <c r="G123" s="3">
-        <v>31000</v>
-      </c>
-      <c r="H123" s="3">
-        <v>230000</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
       <c r="I123" s="3">
-        <v>105000</v>
+        <v>250000</v>
       </c>
       <c r="J123" s="3">
-        <v>223000</v>
+        <v>250000</v>
       </c>
       <c r="K123" s="3">
-        <v>95000</v>
+        <v>250000</v>
       </c>
       <c r="L123" s="3">
-        <v>233000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3">
-        <f>E124*1.93</f>
-        <v>1930000</v>
+        <f>E124*1.95</f>
+        <v>8775000</v>
       </c>
       <c r="E124" s="3">
         <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
+        <v>4500000</v>
+      </c>
+      <c r="F124" s="12">
+        <v>500000</v>
+      </c>
+      <c r="G124" s="12">
+        <v>500000</v>
+      </c>
+      <c r="H124" s="12">
+        <v>500000</v>
+      </c>
       <c r="I124" s="3">
-        <v>250000</v>
+        <v>750000</v>
       </c>
       <c r="J124" s="3">
-        <v>250000</v>
+        <v>750000</v>
       </c>
       <c r="K124" s="3">
-        <v>250000</v>
+        <v>750000</v>
       </c>
       <c r="L124" s="3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>378</v>
+        <v>204</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>348</v>
+        <v>205</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3">
-        <f>E125*1.95</f>
-        <v>8775000</v>
+        <v>1144500</v>
       </c>
       <c r="E125" s="3">
         <f t="shared" si="1"/>
-        <v>4500000</v>
-      </c>
-      <c r="F125" s="12">
-        <v>500000</v>
-      </c>
-      <c r="G125" s="12">
-        <v>500000</v>
-      </c>
-      <c r="H125" s="12">
-        <v>500000</v>
+        <v>545000</v>
+      </c>
+      <c r="F125" s="3">
+        <v>75000</v>
+      </c>
+      <c r="G125" s="3">
+        <v>75000</v>
+      </c>
+      <c r="H125" s="3">
+        <v>75000</v>
       </c>
       <c r="I125" s="3">
-        <v>750000</v>
+        <v>80000</v>
       </c>
       <c r="J125" s="3">
-        <v>750000</v>
+        <v>80000</v>
       </c>
       <c r="K125" s="3">
-        <v>750000</v>
+        <v>80000</v>
       </c>
       <c r="L125" s="3">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3">
-        <v>1144500</v>
+        <v>0</v>
       </c>
       <c r="E126" s="3">
         <f t="shared" si="1"/>
-        <v>545000</v>
-      </c>
-      <c r="F126" s="3">
-        <v>75000</v>
-      </c>
-      <c r="G126" s="3">
-        <v>75000</v>
-      </c>
-      <c r="H126" s="3">
-        <v>75000</v>
-      </c>
-      <c r="I126" s="3">
-        <v>80000</v>
-      </c>
-      <c r="J126" s="3">
-        <v>80000</v>
-      </c>
-      <c r="K126" s="3">
-        <v>80000</v>
-      </c>
-      <c r="L126" s="3">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3">
-        <v>0</v>
+        <v>1716100</v>
       </c>
       <c r="E127" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+        <v>905000</v>
+      </c>
+      <c r="F127" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G127" s="3">
+        <v>55000</v>
+      </c>
+      <c r="H127" s="3">
+        <v>105000</v>
+      </c>
+      <c r="I127" s="3">
+        <v>105000</v>
+      </c>
+      <c r="J127" s="3">
+        <v>205000</v>
+      </c>
+      <c r="K127" s="3">
+        <v>205000</v>
+      </c>
+      <c r="L127" s="3">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3">
-        <v>1716100</v>
+        <v>44946</v>
       </c>
       <c r="E128" s="3">
         <f t="shared" si="1"/>
-        <v>905000</v>
-      </c>
-      <c r="F128" s="3">
-        <v>25000</v>
-      </c>
+        <v>18000</v>
+      </c>
+      <c r="F128" s="3"/>
       <c r="G128" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H128" s="3">
-        <v>105000</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="H128" s="3"/>
       <c r="I128" s="3">
-        <v>105000</v>
-      </c>
-      <c r="J128" s="3">
-        <v>205000</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="J128" s="3"/>
       <c r="K128" s="3">
-        <v>205000</v>
+        <v>6000</v>
       </c>
       <c r="L128" s="3">
-        <v>205000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>210</v>
+        <v>379</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>211</v>
+        <v>380</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3">
-        <v>44946</v>
+        <v>142880</v>
       </c>
       <c r="E129" s="3">
         <f t="shared" si="1"/>
-        <v>18000</v>
-      </c>
-      <c r="F129" s="3"/>
+        <v>76000</v>
+      </c>
+      <c r="F129" s="3">
+        <v>6000</v>
+      </c>
       <c r="G129" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H129" s="3"/>
+        <v>11000</v>
+      </c>
+      <c r="H129" s="3">
+        <v>11000</v>
+      </c>
       <c r="I129" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J129" s="3"/>
+        <v>11000</v>
+      </c>
+      <c r="J129" s="3">
+        <v>11000</v>
+      </c>
       <c r="K129" s="3">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L129" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C130" s="3"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C130" s="9"/>
       <c r="D130" s="3">
-        <v>142880</v>
-      </c>
-      <c r="E130" s="3">
-        <f t="shared" si="1"/>
-        <v>76000</v>
-      </c>
-      <c r="F130" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G130" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H130" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I130" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J130" s="3">
-        <v>11000</v>
-      </c>
-      <c r="K130" s="3">
-        <v>11000</v>
-      </c>
-      <c r="L130" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="3">
         <v>387180</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E130" s="9">
         <f t="shared" si="1"/>
         <v>239000</v>
       </c>
-      <c r="F131" s="9">
+      <c r="F130" s="9">
         <v>39000</v>
       </c>
-      <c r="G131" s="9">
+      <c r="G130" s="9">
         <v>50000</v>
       </c>
-      <c r="H131" s="9">
+      <c r="H130" s="9">
         <v>50000</v>
       </c>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9">
+      <c r="I130" s="9"/>
+      <c r="J130" s="9">
         <v>50000</v>
       </c>
-      <c r="K131" s="9">
+      <c r="K130" s="9">
         <v>50000</v>
       </c>
-      <c r="L131" s="9"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+      <c r="L130" s="9"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3">
+      <c r="C131" s="3"/>
+      <c r="D131" s="3">
         <v>14000</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E131" s="3">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3">
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="10" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B132" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11">
+      <c r="C132" s="11"/>
+      <c r="D132" s="11">
         <v>1465227.2727272727</v>
       </c>
-      <c r="E133" s="11">
-        <f t="shared" ref="E133:E201" si="2">SUM(F133:L133)</f>
+      <c r="E132" s="11">
+        <f t="shared" ref="E132:E200" si="2">SUM(F132:L132)</f>
         <v>1050000</v>
       </c>
-      <c r="F133" s="11">
+      <c r="F132" s="11">
         <v>150000</v>
       </c>
-      <c r="G133" s="11">
+      <c r="G132" s="11">
         <v>150000</v>
       </c>
-      <c r="H133" s="11">
+      <c r="H132" s="11">
         <v>150000</v>
       </c>
-      <c r="I133" s="11">
+      <c r="I132" s="11">
         <v>150000</v>
       </c>
-      <c r="J133" s="11">
+      <c r="J132" s="11">
         <v>150000</v>
       </c>
-      <c r="K133" s="11">
+      <c r="K132" s="11">
         <v>150000</v>
       </c>
-      <c r="L133" s="11">
+      <c r="L132" s="11">
         <v>150000</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3">
+        <v>1967753.4246575343</v>
+      </c>
+      <c r="E133" s="3">
+        <f t="shared" si="2"/>
+        <v>807000</v>
+      </c>
+      <c r="F133" s="3">
+        <v>84000</v>
+      </c>
+      <c r="G133" s="3">
+        <v>102000</v>
+      </c>
+      <c r="H133" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I133" s="3">
+        <v>114000</v>
+      </c>
+      <c r="J133" s="3">
+        <v>129000</v>
+      </c>
+      <c r="K133" s="3">
+        <v>129000</v>
+      </c>
+      <c r="L133" s="3">
+        <v>139000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>217</v>
+        <v>383</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3">
-        <v>1967753.4246575343</v>
+        <v>0</v>
       </c>
       <c r="E134" s="3">
         <f t="shared" si="2"/>
-        <v>807000</v>
-      </c>
-      <c r="F134" s="3">
-        <v>84000</v>
-      </c>
-      <c r="G134" s="3">
-        <v>102000</v>
-      </c>
-      <c r="H134" s="3">
-        <v>110000</v>
-      </c>
-      <c r="I134" s="3">
-        <v>114000</v>
-      </c>
-      <c r="J134" s="3">
-        <v>129000</v>
-      </c>
-      <c r="K134" s="3">
-        <v>129000</v>
-      </c>
-      <c r="L134" s="3">
-        <v>139000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>383</v>
+        <v>219</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3">
-        <v>0</v>
+        <v>3358493.9820359279</v>
       </c>
       <c r="E135" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1291000</v>
+      </c>
+      <c r="F135" s="3">
+        <v>228000</v>
+      </c>
+      <c r="G135" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H135" s="3">
+        <v>320000</v>
+      </c>
+      <c r="I135" s="3">
+        <v>148000</v>
+      </c>
+      <c r="J135" s="3">
+        <v>130000</v>
+      </c>
+      <c r="K135" s="3">
+        <v>155000</v>
+      </c>
+      <c r="L135" s="3">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3">
-        <v>3358493.9820359279</v>
+        <v>8228000</v>
       </c>
       <c r="E136" s="3">
         <f t="shared" si="2"/>
-        <v>1291000</v>
+        <v>3400000</v>
       </c>
       <c r="F136" s="3">
-        <v>228000</v>
+        <v>450000</v>
       </c>
       <c r="G136" s="3">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="H136" s="3">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="I136" s="3">
-        <v>148000</v>
+        <v>500000</v>
       </c>
       <c r="J136" s="3">
-        <v>130000</v>
+        <v>500000</v>
       </c>
       <c r="K136" s="3">
-        <v>155000</v>
+        <v>500000</v>
       </c>
       <c r="L136" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3">
-        <v>8228000</v>
+        <v>4224350</v>
       </c>
       <c r="E137" s="3">
         <f t="shared" si="2"/>
-        <v>3400000</v>
+        <v>1640500</v>
       </c>
       <c r="F137" s="3">
-        <v>450000</v>
+        <v>158000</v>
       </c>
       <c r="G137" s="3">
-        <v>500000</v>
+        <v>212500</v>
       </c>
       <c r="H137" s="3">
-        <v>450000</v>
+        <v>212500</v>
       </c>
       <c r="I137" s="3">
-        <v>500000</v>
+        <v>262500</v>
       </c>
       <c r="J137" s="3">
-        <v>500000</v>
+        <v>265000</v>
       </c>
       <c r="K137" s="3">
-        <v>500000</v>
+        <v>265000</v>
       </c>
       <c r="L137" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+        <v>265000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3">
-        <v>4224350</v>
+        <v>15000000</v>
       </c>
       <c r="E138" s="3">
         <f t="shared" si="2"/>
-        <v>1640500</v>
+        <v>30000000</v>
       </c>
       <c r="F138" s="3">
-        <v>158000</v>
-      </c>
-      <c r="G138" s="3">
-        <v>212500</v>
-      </c>
-      <c r="H138" s="3">
-        <v>212500</v>
-      </c>
-      <c r="I138" s="3">
-        <v>262500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
       <c r="J138" s="3">
-        <v>265000</v>
+        <v>10000000</v>
       </c>
       <c r="K138" s="3">
-        <v>265000</v>
+        <v>10000000</v>
       </c>
       <c r="L138" s="3">
-        <v>265000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3">
-        <v>15000000</v>
+        <v>13600000</v>
       </c>
       <c r="E139" s="3">
         <f t="shared" si="2"/>
-        <v>30000000</v>
+        <v>34000000</v>
       </c>
       <c r="F139" s="3">
-        <v>0</v>
-      </c>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
+        <v>4000000</v>
+      </c>
+      <c r="G139" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="H139" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="I139" s="3">
+        <v>4000000</v>
+      </c>
       <c r="J139" s="3">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="K139" s="3">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="L139" s="3">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3">
-        <v>13600000</v>
+        <v>358560</v>
       </c>
       <c r="E140" s="3">
         <f t="shared" si="2"/>
-        <v>34000000</v>
+        <v>119520</v>
       </c>
       <c r="F140" s="3">
-        <v>4000000</v>
+        <v>20000</v>
       </c>
       <c r="G140" s="3">
-        <v>4000000</v>
+        <v>20000</v>
       </c>
       <c r="H140" s="3">
-        <v>4000000</v>
+        <v>20000</v>
       </c>
       <c r="I140" s="3">
-        <v>4000000</v>
+        <v>14880</v>
       </c>
       <c r="J140" s="3">
-        <v>6000000</v>
+        <v>14880</v>
       </c>
       <c r="K140" s="3">
-        <v>6000000</v>
+        <v>14880</v>
       </c>
       <c r="L140" s="3">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3">
-        <v>358560</v>
+        <v>294000</v>
       </c>
       <c r="E141" s="3">
         <f t="shared" si="2"/>
-        <v>119520</v>
+        <v>91000</v>
       </c>
       <c r="F141" s="3">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="G141" s="3">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="H141" s="3">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="I141" s="3">
-        <v>14880</v>
+        <v>13000</v>
       </c>
       <c r="J141" s="3">
-        <v>14880</v>
+        <v>13000</v>
       </c>
       <c r="K141" s="3">
-        <v>14880</v>
+        <v>13000</v>
       </c>
       <c r="L141" s="3">
-        <v>14880</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>230</v>
+        <v>384</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3">
-        <v>294000</v>
+        <v>399000</v>
       </c>
       <c r="E142" s="3">
         <f t="shared" si="2"/>
-        <v>91000</v>
-      </c>
-      <c r="F142" s="3">
-        <v>13000</v>
-      </c>
-      <c r="G142" s="3">
-        <v>13000</v>
-      </c>
+        <v>140000</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
       <c r="H142" s="3">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="I142" s="3">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="J142" s="3">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="K142" s="3">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="L142" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3">
@@ -8935,921 +8929,925 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>384</v>
+        <v>235</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>386</v>
+        <v>236</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3">
-        <v>399000</v>
+        <v>425000</v>
       </c>
       <c r="E144" s="3">
         <f t="shared" si="2"/>
-        <v>140000</v>
-      </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
+        <v>50000</v>
+      </c>
+      <c r="F144" s="3">
+        <v>0</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
       <c r="H144" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I144" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J144" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="K144" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="L144" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3">
-        <v>425000</v>
+        <v>302014.92537313432</v>
       </c>
       <c r="E145" s="3">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>71000</v>
       </c>
       <c r="F145" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G145" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H145" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I145" s="3">
         <v>0</v>
       </c>
       <c r="J145" s="3">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="K145" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L145" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3">
-        <v>302014.92537313432</v>
+        <v>1137680</v>
       </c>
       <c r="E146" s="3">
         <f t="shared" si="2"/>
-        <v>71000</v>
+        <v>332500</v>
       </c>
       <c r="F146" s="3">
-        <v>4000</v>
+        <v>28000</v>
       </c>
       <c r="G146" s="3">
-        <v>3000</v>
+        <v>28500</v>
       </c>
       <c r="H146" s="3">
-        <v>3000</v>
+        <v>49000</v>
       </c>
       <c r="I146" s="3">
-        <v>0</v>
+        <v>49500</v>
       </c>
       <c r="J146" s="3">
-        <v>18000</v>
+        <v>59000</v>
       </c>
       <c r="K146" s="3">
-        <v>20000</v>
+        <v>59500</v>
       </c>
       <c r="L146" s="3">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3">
-        <v>1137680</v>
+        <v>1279199.9999999998</v>
       </c>
       <c r="E147" s="3">
         <f t="shared" si="2"/>
-        <v>332500</v>
+        <v>317000</v>
       </c>
       <c r="F147" s="3">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="G147" s="3">
-        <v>28500</v>
+        <v>12000</v>
       </c>
       <c r="H147" s="3">
-        <v>49000</v>
+        <v>33000</v>
       </c>
       <c r="I147" s="3">
-        <v>49500</v>
+        <v>37000</v>
       </c>
       <c r="J147" s="3">
-        <v>59000</v>
+        <v>58000</v>
       </c>
       <c r="K147" s="3">
-        <v>59500</v>
+        <v>78000</v>
       </c>
       <c r="L147" s="3">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3">
-        <v>1279199.9999999998</v>
+        <v>157500</v>
       </c>
       <c r="E148" s="3">
         <f t="shared" si="2"/>
-        <v>317000</v>
+        <v>21000</v>
       </c>
       <c r="F148" s="3">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="G148" s="3">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="H148" s="3">
-        <v>33000</v>
+        <v>3000</v>
       </c>
       <c r="I148" s="3">
-        <v>37000</v>
+        <v>3000</v>
       </c>
       <c r="J148" s="3">
-        <v>58000</v>
+        <v>3000</v>
       </c>
       <c r="K148" s="3">
-        <v>78000</v>
+        <v>3000</v>
       </c>
       <c r="L148" s="3">
-        <v>88000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3">
-        <v>157500</v>
+        <v>630000</v>
       </c>
       <c r="E149" s="3">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>90000</v>
       </c>
       <c r="F149" s="3">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G149" s="3">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="H149" s="3">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="I149" s="3">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="J149" s="3">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="K149" s="3">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="L149" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3">
-        <v>630000</v>
+        <v>2358000</v>
       </c>
       <c r="E150" s="3">
         <f t="shared" si="2"/>
-        <v>90000</v>
+        <v>461000</v>
       </c>
       <c r="F150" s="3">
-        <v>6000</v>
+        <v>50000</v>
       </c>
       <c r="G150" s="3">
-        <v>6000</v>
+        <v>51000</v>
       </c>
       <c r="H150" s="3">
-        <v>12000</v>
+        <v>51000</v>
       </c>
       <c r="I150" s="3">
-        <v>12000</v>
+        <v>56000</v>
       </c>
       <c r="J150" s="3">
-        <v>18000</v>
+        <v>71000</v>
       </c>
       <c r="K150" s="3">
-        <v>18000</v>
+        <v>91000</v>
       </c>
       <c r="L150" s="3">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3">
-        <v>2358000</v>
+        <v>1120000</v>
       </c>
       <c r="E151" s="3">
         <f t="shared" si="2"/>
-        <v>461000</v>
+        <v>1400000</v>
       </c>
       <c r="F151" s="3">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="G151" s="3">
-        <v>51000</v>
+        <v>200000</v>
       </c>
       <c r="H151" s="3">
-        <v>51000</v>
+        <v>200000</v>
       </c>
       <c r="I151" s="3">
-        <v>56000</v>
+        <v>200000</v>
       </c>
       <c r="J151" s="3">
-        <v>71000</v>
+        <v>200000</v>
       </c>
       <c r="K151" s="3">
-        <v>91000</v>
+        <v>200000</v>
       </c>
       <c r="L151" s="3">
-        <v>91000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>249</v>
+        <v>387</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>250</v>
+        <v>388</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3">
-        <v>1120000</v>
+        <v>784000</v>
       </c>
       <c r="E152" s="3">
         <f t="shared" si="2"/>
-        <v>1400000</v>
+        <v>1120000</v>
       </c>
       <c r="F152" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="G152" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="H152" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="I152" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="J152" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="K152" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="L152" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3">
-        <v>784000</v>
-      </c>
-      <c r="E153" s="3">
-        <f t="shared" si="2"/>
-        <v>1120000</v>
-      </c>
+        <v>274400</v>
+      </c>
+      <c r="E153" s="3"/>
       <c r="F153" s="3">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="G153" s="3">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="H153" s="3">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="I153" s="3">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="J153" s="3">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="K153" s="3">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="L153" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3">
-        <v>274400</v>
+        <v>196000</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="G154" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="H154" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="I154" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="J154" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="K154" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L154" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>391</v>
+        <v>251</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3">
-        <v>196000</v>
-      </c>
-      <c r="E155" s="3"/>
+        <v>922785.29411764711</v>
+      </c>
+      <c r="E155" s="3">
+        <f t="shared" si="2"/>
+        <v>798000</v>
+      </c>
       <c r="F155" s="3">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="G155" s="3">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="H155" s="3">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="I155" s="3">
-        <v>10000</v>
+        <v>102000</v>
       </c>
       <c r="J155" s="3">
-        <v>10000</v>
+        <v>102000</v>
       </c>
       <c r="K155" s="3">
-        <v>10000</v>
+        <v>102000</v>
       </c>
       <c r="L155" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>390</v>
+        <v>252</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3">
-        <v>922785.29411764711</v>
+        <v>240400.00000000003</v>
       </c>
       <c r="E156" s="3">
         <f t="shared" si="2"/>
-        <v>798000</v>
+        <v>159000</v>
       </c>
       <c r="F156" s="3">
-        <v>130000</v>
+        <v>22000</v>
       </c>
       <c r="G156" s="3">
-        <v>130000</v>
+        <v>22000</v>
       </c>
       <c r="H156" s="3">
-        <v>130000</v>
+        <v>23000</v>
       </c>
       <c r="I156" s="3">
-        <v>102000</v>
+        <v>23000</v>
       </c>
       <c r="J156" s="3">
-        <v>102000</v>
+        <v>23000</v>
       </c>
       <c r="K156" s="3">
-        <v>102000</v>
+        <v>23000</v>
       </c>
       <c r="L156" s="3">
-        <v>102000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3">
-        <v>240400.00000000003</v>
+        <v>521050</v>
       </c>
       <c r="E157" s="3">
         <f t="shared" si="2"/>
-        <v>159000</v>
+        <v>287000</v>
       </c>
       <c r="F157" s="3">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="G157" s="3">
-        <v>22000</v>
+        <v>36000</v>
       </c>
       <c r="H157" s="3">
-        <v>23000</v>
+        <v>46000</v>
       </c>
       <c r="I157" s="3">
-        <v>23000</v>
+        <v>42000</v>
       </c>
       <c r="J157" s="3">
-        <v>23000</v>
+        <v>41000</v>
       </c>
       <c r="K157" s="3">
-        <v>23000</v>
+        <v>41000</v>
       </c>
       <c r="L157" s="3">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3">
-        <v>521050</v>
+        <v>14700</v>
       </c>
       <c r="E158" s="3">
         <f t="shared" si="2"/>
-        <v>287000</v>
+        <v>7000</v>
       </c>
       <c r="F158" s="3">
-        <v>34000</v>
+        <v>1000</v>
       </c>
       <c r="G158" s="3">
-        <v>36000</v>
+        <v>1000</v>
       </c>
       <c r="H158" s="3">
-        <v>46000</v>
+        <v>1000</v>
       </c>
       <c r="I158" s="3">
-        <v>42000</v>
+        <v>1000</v>
       </c>
       <c r="J158" s="3">
-        <v>41000</v>
+        <v>1000</v>
       </c>
       <c r="K158" s="3">
-        <v>41000</v>
+        <v>1000</v>
       </c>
       <c r="L158" s="3">
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3">
-        <v>14700</v>
+        <v>3845946.3922720249</v>
       </c>
       <c r="E159" s="3">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>2056129</v>
       </c>
       <c r="F159" s="3">
-        <v>1000</v>
+        <v>439129</v>
       </c>
       <c r="G159" s="3">
-        <v>1000</v>
+        <v>284500</v>
       </c>
       <c r="H159" s="3">
-        <v>1000</v>
+        <v>284500</v>
       </c>
       <c r="I159" s="3">
-        <v>1000</v>
+        <v>284500</v>
       </c>
       <c r="J159" s="3">
-        <v>1000</v>
+        <v>254500</v>
       </c>
       <c r="K159" s="3">
-        <v>1000</v>
+        <v>254500</v>
       </c>
       <c r="L159" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3">
-        <v>3845946.3922720249</v>
-      </c>
-      <c r="E160" s="3">
+        <v>254500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9">
+        <v>0</v>
+      </c>
+      <c r="E160" s="9">
         <f t="shared" si="2"/>
-        <v>2056129</v>
-      </c>
-      <c r="F160" s="3">
-        <v>439129</v>
-      </c>
-      <c r="G160" s="3">
-        <v>284500</v>
-      </c>
-      <c r="H160" s="3">
-        <v>284500</v>
-      </c>
-      <c r="I160" s="3">
-        <v>284500</v>
-      </c>
-      <c r="J160" s="3">
-        <v>254500</v>
-      </c>
-      <c r="K160" s="3">
-        <v>254500</v>
-      </c>
-      <c r="L160" s="3">
-        <v>254500</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3">
+        <v>3438000</v>
       </c>
       <c r="E161" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+        <v>660000</v>
+      </c>
+      <c r="F161" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G161" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H161" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I161" s="3">
+        <v>90000</v>
+      </c>
+      <c r="J161" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K161" s="3">
+        <v>90000</v>
+      </c>
+      <c r="L161" s="3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>392</v>
+        <v>263</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>262</v>
+        <v>393</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3">
-        <v>3438000</v>
+        <v>1081500</v>
       </c>
       <c r="E162" s="9">
         <f t="shared" si="2"/>
-        <v>660000</v>
+        <v>210000</v>
       </c>
       <c r="F162" s="3">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="G162" s="3">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="H162" s="3">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="I162" s="3">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="J162" s="3">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="K162" s="3">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="L162" s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>263</v>
+        <v>394</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3">
-        <v>1081500</v>
+        <v>441000</v>
       </c>
       <c r="E163" s="9">
         <f t="shared" si="2"/>
-        <v>210000</v>
+        <v>70000</v>
       </c>
       <c r="F163" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G163" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="H163" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="I163" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="J163" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="K163" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L163" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>394</v>
+        <v>264</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>395</v>
+        <v>265</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3">
-        <v>441000</v>
+        <v>13801182.699999997</v>
       </c>
       <c r="E164" s="9">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>6440090</v>
       </c>
       <c r="F164" s="3">
-        <v>10000</v>
+        <v>884000</v>
       </c>
       <c r="G164" s="3">
-        <v>10000</v>
+        <v>894000</v>
       </c>
       <c r="H164" s="3">
-        <v>10000</v>
+        <v>857570</v>
       </c>
       <c r="I164" s="3">
-        <v>10000</v>
+        <v>937970</v>
       </c>
       <c r="J164" s="3">
-        <v>10000</v>
+        <v>950370</v>
       </c>
       <c r="K164" s="3">
-        <v>10000</v>
+        <v>958850</v>
       </c>
       <c r="L164" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+        <v>957330</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3">
-        <v>13801182.699999997</v>
-      </c>
-      <c r="E165" s="9">
-        <f t="shared" si="2"/>
-        <v>6440090</v>
-      </c>
-      <c r="F165" s="3">
-        <v>884000</v>
-      </c>
-      <c r="G165" s="3">
-        <v>894000</v>
-      </c>
-      <c r="H165" s="3">
-        <v>857570</v>
-      </c>
-      <c r="I165" s="3">
-        <v>937970</v>
-      </c>
-      <c r="J165" s="3">
-        <v>950370</v>
-      </c>
-      <c r="K165" s="3">
-        <v>958850</v>
-      </c>
-      <c r="L165" s="3">
-        <v>957330</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B166" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4">
+      <c r="C165" s="4"/>
+      <c r="D165" s="4">
         <v>10906611.804767311</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E165" s="4">
         <f t="shared" si="2"/>
         <v>7000000</v>
       </c>
-      <c r="F166" s="4">
+      <c r="F165" s="4">
         <v>1000000</v>
       </c>
-      <c r="G166" s="4">
+      <c r="G165" s="4">
         <v>1000000</v>
       </c>
-      <c r="H166" s="4">
+      <c r="H165" s="4">
         <v>1000000</v>
       </c>
-      <c r="I166" s="4">
+      <c r="I165" s="4">
         <v>1000000</v>
       </c>
-      <c r="J166" s="4">
+      <c r="J165" s="4">
         <v>1000000</v>
       </c>
-      <c r="K166" s="4">
+      <c r="K165" s="4">
         <v>1000000</v>
       </c>
-      <c r="L166" s="4">
+      <c r="L165" s="4">
         <v>1000000</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E166" s="3">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="F166" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G166" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H166" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I166" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J166" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K166" s="3">
+        <v>20000</v>
+      </c>
+      <c r="L166" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>396</v>
+        <v>270</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3">
-        <v>240000</v>
+        <v>4076869.6084683072</v>
       </c>
       <c r="E167" s="3">
         <f t="shared" si="2"/>
-        <v>150000</v>
+        <v>2020500</v>
       </c>
       <c r="F167" s="3">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="G167" s="3">
-        <v>20000</v>
+        <v>300000</v>
       </c>
       <c r="H167" s="3">
-        <v>20000</v>
+        <v>330000</v>
       </c>
       <c r="I167" s="3">
-        <v>20000</v>
+        <v>340500</v>
       </c>
       <c r="J167" s="3">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="K167" s="3">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="L167" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>270</v>
+        <v>397</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3">
-        <v>4076869.6084683072</v>
+        <v>3833730.3915316919</v>
       </c>
       <c r="E168" s="3">
         <f t="shared" si="2"/>
-        <v>2020500</v>
+        <v>1900000</v>
       </c>
       <c r="F168" s="3">
+        <v>200000</v>
+      </c>
+      <c r="G168" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H168" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I168" s="3">
         <v>300000</v>
       </c>
-      <c r="G168" s="3">
+      <c r="J168" s="3">
         <v>300000</v>
       </c>
-      <c r="H168" s="3">
-        <v>330000</v>
-      </c>
-      <c r="I168" s="3">
-        <v>340500</v>
-      </c>
-      <c r="J168" s="3">
-        <v>240000</v>
-      </c>
       <c r="K168" s="3">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="L168" s="3">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>397</v>
+        <v>272</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3">
-        <v>3833730.3915316919</v>
+        <v>3052187.9975861064</v>
       </c>
       <c r="E169" s="3">
         <f t="shared" si="2"/>
-        <v>1900000</v>
+        <v>1400000</v>
       </c>
       <c r="F169" s="3">
         <v>200000</v>
@@ -9861,255 +9859,252 @@
         <v>200000</v>
       </c>
       <c r="I169" s="3">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="J169" s="3">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="K169" s="3">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="L169" s="3">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3">
-        <v>3052187.9975861064</v>
+        <v>623000</v>
       </c>
       <c r="E170" s="3">
         <f t="shared" si="2"/>
-        <v>1400000</v>
+        <v>322000</v>
       </c>
       <c r="F170" s="3">
-        <v>200000</v>
+        <v>46000</v>
       </c>
       <c r="G170" s="3">
-        <v>200000</v>
+        <v>46000</v>
       </c>
       <c r="H170" s="3">
-        <v>200000</v>
+        <v>46000</v>
       </c>
       <c r="I170" s="3">
-        <v>200000</v>
+        <v>46000</v>
       </c>
       <c r="J170" s="3">
-        <v>200000</v>
+        <v>46000</v>
       </c>
       <c r="K170" s="3">
-        <v>200000</v>
+        <v>46000</v>
       </c>
       <c r="L170" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>274</v>
+        <v>398</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3">
-        <v>623000</v>
+        <v>2752599.9999999995</v>
       </c>
       <c r="E171" s="3">
         <f t="shared" si="2"/>
-        <v>322000</v>
+        <v>1300000</v>
       </c>
       <c r="F171" s="3">
-        <v>46000</v>
+        <v>180000</v>
       </c>
       <c r="G171" s="3">
-        <v>46000</v>
+        <v>180000</v>
       </c>
       <c r="H171" s="3">
-        <v>46000</v>
+        <v>180000</v>
       </c>
       <c r="I171" s="3">
-        <v>46000</v>
+        <v>190000</v>
       </c>
       <c r="J171" s="3">
-        <v>46000</v>
+        <v>190000</v>
       </c>
       <c r="K171" s="3">
-        <v>46000</v>
+        <v>190000</v>
       </c>
       <c r="L171" s="3">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>398</v>
+        <v>276</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3">
-        <v>2752599.9999999995</v>
+        <v>2139390</v>
       </c>
       <c r="E172" s="3">
         <f t="shared" si="2"/>
-        <v>1300000</v>
+        <v>1043000</v>
       </c>
       <c r="F172" s="3">
-        <v>180000</v>
+        <v>136000</v>
       </c>
       <c r="G172" s="3">
-        <v>180000</v>
+        <v>136000</v>
       </c>
       <c r="H172" s="3">
-        <v>180000</v>
+        <v>136000</v>
       </c>
       <c r="I172" s="3">
-        <v>190000</v>
+        <v>158000</v>
       </c>
       <c r="J172" s="3">
-        <v>190000</v>
+        <v>158000</v>
       </c>
       <c r="K172" s="3">
-        <v>190000</v>
+        <v>158000</v>
       </c>
       <c r="L172" s="3">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3">
-        <v>2139390</v>
+        <v>3871457.4999999995</v>
       </c>
       <c r="E173" s="3">
         <f t="shared" si="2"/>
-        <v>1043000</v>
+        <v>1796500</v>
       </c>
       <c r="F173" s="3">
-        <v>136000</v>
+        <v>196500</v>
       </c>
       <c r="G173" s="3">
-        <v>136000</v>
+        <v>200000</v>
       </c>
       <c r="H173" s="3">
-        <v>136000</v>
+        <v>200000</v>
       </c>
       <c r="I173" s="3">
-        <v>158000</v>
+        <v>300000</v>
       </c>
       <c r="J173" s="3">
-        <v>158000</v>
+        <v>300000</v>
       </c>
       <c r="K173" s="3">
-        <v>158000</v>
+        <v>300000</v>
       </c>
       <c r="L173" s="3">
-        <v>161000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3">
-        <v>3871457.4999999995</v>
+        <v>10137060</v>
       </c>
       <c r="E174" s="3">
         <f t="shared" si="2"/>
-        <v>1796500</v>
+        <v>7835000</v>
       </c>
       <c r="F174" s="3">
-        <v>196500</v>
+        <v>705000</v>
       </c>
       <c r="G174" s="3">
-        <v>200000</v>
+        <v>765000</v>
       </c>
       <c r="H174" s="3">
-        <v>200000</v>
+        <v>1243000</v>
       </c>
       <c r="I174" s="3">
-        <v>300000</v>
+        <v>1243000</v>
       </c>
       <c r="J174" s="3">
-        <v>300000</v>
+        <v>1293000</v>
       </c>
       <c r="K174" s="3">
-        <v>300000</v>
+        <v>1293000</v>
       </c>
       <c r="L174" s="3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1293000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3">
-        <v>10137060</v>
+        <v>423500</v>
       </c>
       <c r="E175" s="3">
         <f t="shared" si="2"/>
-        <v>7835000</v>
+        <v>70000</v>
       </c>
       <c r="F175" s="3">
-        <v>705000</v>
+        <v>10000</v>
       </c>
       <c r="G175" s="3">
-        <v>765000</v>
+        <v>10000</v>
       </c>
       <c r="H175" s="3">
-        <v>1243000</v>
+        <v>10000</v>
       </c>
       <c r="I175" s="3">
-        <v>1243000</v>
+        <v>10000</v>
       </c>
       <c r="J175" s="3">
-        <v>1293000</v>
+        <v>10000</v>
       </c>
       <c r="K175" s="3">
-        <v>1293000</v>
+        <v>10000</v>
       </c>
       <c r="L175" s="3">
-        <v>1293000</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>281</v>
+        <v>399</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>282</v>
+        <v>400</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3">
-        <v>423500</v>
-      </c>
-      <c r="E176" s="3">
-        <f t="shared" si="2"/>
-        <v>70000</v>
-      </c>
+        <v>455000</v>
+      </c>
+      <c r="E176" s="3"/>
       <c r="F176" s="3">
         <v>10000</v>
       </c>
@@ -10132,157 +10127,160 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>400</v>
+        <v>283</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3">
-        <v>455000</v>
-      </c>
-      <c r="E177" s="3"/>
+        <v>138460</v>
+      </c>
+      <c r="E177" s="3">
+        <f t="shared" si="2"/>
+        <v>23000</v>
+      </c>
       <c r="F177" s="3">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G177" s="3">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="H177" s="3">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="I177" s="3">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="J177" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="K177" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L177" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3">
-        <v>138460</v>
+        <v>435600</v>
       </c>
       <c r="E178" s="3">
         <f t="shared" si="2"/>
-        <v>23000</v>
+        <v>72000</v>
       </c>
       <c r="F178" s="3">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G178" s="3">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="H178" s="3">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="I178" s="3">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="J178" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="K178" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L178" s="3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3">
-        <v>435600</v>
+        <v>1207200</v>
       </c>
       <c r="E179" s="3">
         <f t="shared" si="2"/>
-        <v>72000</v>
+        <v>198000</v>
       </c>
       <c r="F179" s="3">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="G179" s="3">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="H179" s="3">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="I179" s="3">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="J179" s="3">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="K179" s="3">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="L179" s="3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3">
-        <v>1207200</v>
+        <v>0</v>
       </c>
       <c r="E180" s="3">
         <f t="shared" si="2"/>
-        <v>198000</v>
+        <v>0</v>
       </c>
       <c r="F180" s="3">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="G180" s="3">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="H180" s="3">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="I180" s="3">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="J180" s="3">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="K180" s="3">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="L180" s="3">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3">
@@ -10292,34 +10290,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F181" s="3">
-        <v>0</v>
-      </c>
-      <c r="G181" s="3">
-        <v>0</v>
-      </c>
-      <c r="H181" s="3">
-        <v>0</v>
-      </c>
-      <c r="I181" s="3">
-        <v>0</v>
-      </c>
-      <c r="J181" s="3">
-        <v>0</v>
-      </c>
-      <c r="K181" s="3">
-        <v>0</v>
-      </c>
-      <c r="L181" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3">
@@ -10337,12 +10321,12 @@
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>291</v>
+        <v>403</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>292</v>
+        <v>404</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3">
@@ -10360,21 +10344,18 @@
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3">
         <v>0</v>
       </c>
-      <c r="E184" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -10383,180 +10364,187 @@
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>405</v>
+        <v>293</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>406</v>
+        <v>294</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3">
-        <v>0</v>
-      </c>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
-      <c r="L185" s="3"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1260000.0000000002</v>
+      </c>
+      <c r="E185" s="3">
+        <f t="shared" si="2"/>
+        <v>9000000</v>
+      </c>
+      <c r="F185" s="3">
+        <v>600000</v>
+      </c>
+      <c r="G185" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H185" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="I185" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="J185" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="K185" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="L185" s="3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3">
-        <v>1260000.0000000002</v>
+        <v>714000.00000000012</v>
       </c>
       <c r="E186" s="3">
         <f t="shared" si="2"/>
-        <v>9000000</v>
+        <v>5100000</v>
       </c>
       <c r="F186" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G186" s="3">
         <v>600000</v>
       </c>
-      <c r="G186" s="3">
+      <c r="H186" s="3">
+        <v>600000</v>
+      </c>
+      <c r="I186" s="3">
         <v>1000000</v>
       </c>
-      <c r="H186" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="I186" s="3">
-        <v>1200000</v>
-      </c>
       <c r="J186" s="3">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="K186" s="3">
-        <v>1200000</v>
+        <v>600000</v>
       </c>
       <c r="L186" s="3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3">
-        <v>714000.00000000012</v>
+        <v>2377500</v>
       </c>
       <c r="E187" s="3">
         <f t="shared" si="2"/>
-        <v>5100000</v>
+        <v>18900000</v>
       </c>
       <c r="F187" s="3">
-        <v>1000000</v>
+        <v>2400000</v>
       </c>
       <c r="G187" s="3">
-        <v>600000</v>
+        <v>2200000</v>
       </c>
       <c r="H187" s="3">
-        <v>600000</v>
+        <v>2400000</v>
       </c>
       <c r="I187" s="3">
-        <v>1000000</v>
+        <v>3600000</v>
       </c>
       <c r="J187" s="3">
-        <v>500000</v>
+        <v>2100000</v>
       </c>
       <c r="K187" s="3">
-        <v>600000</v>
+        <v>2400000</v>
       </c>
       <c r="L187" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3">
-        <v>2377500</v>
+        <v>624000</v>
       </c>
       <c r="E188" s="3">
         <f t="shared" si="2"/>
-        <v>18900000</v>
+        <v>4800000</v>
       </c>
       <c r="F188" s="3">
-        <v>2400000</v>
+        <v>800000</v>
       </c>
       <c r="G188" s="3">
-        <v>2200000</v>
+        <v>800000</v>
       </c>
       <c r="H188" s="3">
-        <v>2400000</v>
+        <v>800000</v>
       </c>
       <c r="I188" s="3">
-        <v>3600000</v>
+        <v>800000</v>
       </c>
       <c r="J188" s="3">
-        <v>2100000</v>
+        <v>400000</v>
       </c>
       <c r="K188" s="3">
-        <v>2400000</v>
+        <v>400000</v>
       </c>
       <c r="L188" s="3">
-        <v>3800000</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3">
-        <v>624000</v>
+        <v>432000</v>
       </c>
       <c r="E189" s="3">
         <f t="shared" si="2"/>
-        <v>3200000</v>
-      </c>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3">
-        <v>800000</v>
-      </c>
-      <c r="I189" s="3">
-        <v>800000</v>
-      </c>
-      <c r="J189" s="3">
-        <v>400000</v>
-      </c>
-      <c r="K189" s="3">
-        <v>400000</v>
-      </c>
-      <c r="L189" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3">
-        <v>432000</v>
+        <v>327344.94</v>
       </c>
       <c r="E190" s="3">
         <f t="shared" si="2"/>
@@ -10570,497 +10558,473 @@
       <c r="K190" s="12"/>
       <c r="L190" s="12"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3">
-        <v>327344.94</v>
+        <v>237999.99999999997</v>
       </c>
       <c r="E191" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F191" s="12"/>
-      <c r="G191" s="12"/>
-      <c r="H191" s="12"/>
-      <c r="I191" s="12"/>
-      <c r="J191" s="12"/>
-      <c r="K191" s="12"/>
-      <c r="L191" s="12"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+        <v>680000</v>
+      </c>
+      <c r="F191" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G191" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H191" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I191" s="3">
+        <v>80000</v>
+      </c>
+      <c r="J191" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K191" s="3">
+        <v>100000</v>
+      </c>
+      <c r="L191" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3">
-        <v>237999.99999999997</v>
+        <v>550800</v>
       </c>
       <c r="E192" s="3">
         <f t="shared" si="2"/>
-        <v>680000</v>
+        <v>3240000</v>
       </c>
       <c r="F192" s="3">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G192" s="3">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="H192" s="3">
-        <v>50000</v>
+        <v>180000</v>
       </c>
       <c r="I192" s="3">
-        <v>80000</v>
+        <v>500000</v>
       </c>
       <c r="J192" s="3">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="K192" s="3">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="L192" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3">
-        <v>550800</v>
+        <v>0</v>
       </c>
       <c r="E193" s="3">
         <f t="shared" si="2"/>
-        <v>3240000</v>
-      </c>
-      <c r="F193" s="3">
-        <v>200000</v>
-      </c>
-      <c r="G193" s="3">
-        <v>160000</v>
-      </c>
-      <c r="H193" s="3">
-        <v>180000</v>
-      </c>
-      <c r="I193" s="3">
-        <v>500000</v>
-      </c>
-      <c r="J193" s="3">
-        <v>600000</v>
-      </c>
-      <c r="K193" s="3">
-        <v>600000</v>
-      </c>
-      <c r="L193" s="3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3">
-        <v>0</v>
+        <v>1456875</v>
       </c>
       <c r="E194" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+        <v>875</v>
+      </c>
+      <c r="F194" s="3">
+        <v>125</v>
+      </c>
+      <c r="G194" s="3">
+        <v>125</v>
+      </c>
+      <c r="H194" s="3">
+        <v>125</v>
+      </c>
+      <c r="I194" s="3">
+        <v>125</v>
+      </c>
+      <c r="J194" s="3">
+        <v>125</v>
+      </c>
+      <c r="K194" s="3">
+        <v>125</v>
+      </c>
+      <c r="L194" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3">
-        <v>1456875</v>
+        <v>42500</v>
       </c>
       <c r="E195" s="3">
         <f t="shared" si="2"/>
-        <v>875</v>
-      </c>
-      <c r="F195" s="3">
-        <v>125</v>
-      </c>
-      <c r="G195" s="3">
-        <v>125</v>
-      </c>
-      <c r="H195" s="3">
-        <v>125</v>
-      </c>
-      <c r="I195" s="3">
-        <v>125</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
       <c r="J195" s="3">
-        <v>125</v>
+        <v>15000</v>
       </c>
       <c r="K195" s="3">
-        <v>125</v>
+        <v>15000</v>
       </c>
       <c r="L195" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3">
-        <v>42500</v>
+        <v>14499.999999999998</v>
       </c>
       <c r="E196" s="3">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="K196" s="3">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L196" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3">
-        <v>14499.999999999998</v>
+        <v>429600</v>
       </c>
       <c r="E197" s="3">
         <f t="shared" si="2"/>
-        <v>25000</v>
-      </c>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
+        <v>528000</v>
+      </c>
+      <c r="F197" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G197" s="3">
+        <v>51000</v>
+      </c>
+      <c r="H197" s="3">
+        <v>51000</v>
+      </c>
+      <c r="I197" s="3">
+        <v>101000</v>
+      </c>
       <c r="J197" s="3">
-        <v>5000</v>
+        <v>105000</v>
       </c>
       <c r="K197" s="3">
-        <v>10000</v>
+        <v>105000</v>
       </c>
       <c r="L197" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3">
-        <v>429600</v>
+        <v>17400</v>
       </c>
       <c r="E198" s="3">
         <f t="shared" si="2"/>
-        <v>528000</v>
-      </c>
-      <c r="F198" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3">
         <v>10000</v>
       </c>
-      <c r="G198" s="3">
-        <v>51000</v>
-      </c>
-      <c r="H198" s="3">
-        <v>51000</v>
-      </c>
-      <c r="I198" s="3">
-        <v>101000</v>
-      </c>
-      <c r="J198" s="3">
-        <v>105000</v>
-      </c>
       <c r="K198" s="3">
-        <v>105000</v>
+        <v>10000</v>
       </c>
       <c r="L198" s="3">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3">
-        <v>17400</v>
+        <v>1029500</v>
       </c>
       <c r="E199" s="3">
         <f t="shared" si="2"/>
-        <v>30000</v>
-      </c>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
+        <v>408000</v>
+      </c>
+      <c r="F199" s="3">
+        <v>0</v>
+      </c>
+      <c r="G199" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H199" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I199" s="3">
+        <v>56000</v>
+      </c>
       <c r="J199" s="3">
-        <v>10000</v>
+        <v>105000</v>
       </c>
       <c r="K199" s="3">
-        <v>10000</v>
+        <v>105000</v>
       </c>
       <c r="L199" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3">
-        <v>1029500</v>
+        <v>240000</v>
       </c>
       <c r="E200" s="3">
         <f t="shared" si="2"/>
-        <v>408000</v>
+        <v>80000</v>
       </c>
       <c r="F200" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G200" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H200" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I200" s="3">
         <v>10000</v>
       </c>
-      <c r="H200" s="3">
-        <v>27000</v>
-      </c>
-      <c r="I200" s="3">
-        <v>56000</v>
-      </c>
       <c r="J200" s="3">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="K200" s="3">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="L200" s="3">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3">
-        <v>240000</v>
+        <v>140800</v>
       </c>
       <c r="E201" s="3">
-        <f t="shared" si="2"/>
-        <v>80000</v>
+        <f t="shared" ref="E201:E204" si="3">SUM(F201:L201)</f>
+        <v>256000</v>
       </c>
       <c r="F201" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="G201" s="3">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="H201" s="3">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="I201" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J201" s="3">
         <v>20000</v>
       </c>
       <c r="K201" s="3">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="L201" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3">
-        <v>140800</v>
+        <v>0</v>
       </c>
       <c r="E202" s="3">
-        <f t="shared" ref="E202:E205" si="3">SUM(F202:L202)</f>
-        <v>256000</v>
-      </c>
-      <c r="F202" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G202" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H202" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I202" s="3">
-        <v>20000</v>
-      </c>
-      <c r="J202" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K202" s="3">
-        <v>60000</v>
-      </c>
-      <c r="L202" s="3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>322</v>
+        <v>408</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3">
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="E203" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
-      <c r="L203" s="3"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G203" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H203" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I203" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J203" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K203" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L203" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3">
-        <v>480000</v>
+        <v>2940000</v>
       </c>
       <c r="E204" s="3">
         <f t="shared" si="3"/>
-        <v>160000</v>
-      </c>
-      <c r="F204" s="3"/>
+        <v>980000</v>
+      </c>
+      <c r="F204" s="3">
+        <v>100000</v>
+      </c>
       <c r="G204" s="3">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="H204" s="3">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="I204" s="3">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="J204" s="3">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="K204" s="3">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="L204" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3">
-        <v>2940000</v>
-      </c>
-      <c r="E205" s="3">
-        <f t="shared" si="3"/>
-        <v>980000</v>
-      </c>
-      <c r="F205" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G205" s="3">
-        <v>130000</v>
-      </c>
-      <c r="H205" s="3">
         <v>150000</v>
       </c>
-      <c r="I205" s="3">
-        <v>150000</v>
-      </c>
-      <c r="J205" s="3">
-        <v>150000</v>
-      </c>
-      <c r="K205" s="3">
-        <v>150000</v>
-      </c>
-      <c r="L205" s="3">
-        <v>150000</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
+  <autoFilter ref="A1:L204" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Forecast\forecast2025年\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\04 - 预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DF66DE-F9D7-4680-B15E-005410B430FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644534EB-8653-4CA9-B0EC-E5B419630D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="2124" windowWidth="23040" windowHeight="12204" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="东部" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">东部!$A$1:$W$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="412">
   <si>
     <t>产品型号</t>
   </si>
@@ -1310,6 +1310,10 @@
   </si>
   <si>
     <t>NA.SC60226SS-DC</t>
+  </si>
+  <si>
+    <t>SC2442SO-N-Q-CP-10CR-2442</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1416,7 +1420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1436,6 +1440,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1723,22 +1728,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="22" width="10.5546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" hidden="1" customWidth="1"/>
+    <col min="15" max="22" width="10.5" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1814,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3100</v>
       </c>
@@ -1872,7 +1877,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>193</v>
       </c>
@@ -1931,7 +1936,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -1994,7 +1999,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
@@ -2057,7 +2062,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>198</v>
       </c>
@@ -2120,7 +2125,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>200</v>
       </c>
@@ -2183,7 +2188,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>200</v>
       </c>
@@ -2246,7 +2251,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
@@ -2309,7 +2314,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
@@ -2372,7 +2377,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
@@ -2435,7 +2440,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>208</v>
       </c>
@@ -2498,7 +2503,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>210</v>
       </c>
@@ -2561,7 +2566,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>212</v>
       </c>
@@ -2618,7 +2623,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>214</v>
       </c>
@@ -2681,7 +2686,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>216</v>
       </c>
@@ -2744,7 +2749,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>218</v>
       </c>
@@ -2807,7 +2812,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>218</v>
       </c>
@@ -2870,7 +2875,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>221</v>
       </c>
@@ -2933,7 +2938,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>227</v>
       </c>
@@ -2996,7 +3001,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>229</v>
       </c>
@@ -3059,7 +3064,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>230</v>
       </c>
@@ -3122,7 +3127,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>231</v>
       </c>
@@ -3185,7 +3190,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>233</v>
       </c>
@@ -3248,7 +3253,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>235</v>
       </c>
@@ -3311,7 +3316,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -3374,7 +3379,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -3437,7 +3442,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>120</v>
       </c>
@@ -3500,7 +3505,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -3563,7 +3568,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>126</v>
       </c>
@@ -3618,7 +3623,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -3681,7 +3686,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
@@ -3744,7 +3749,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>147</v>
       </c>
@@ -3807,7 +3812,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
@@ -3862,7 +3867,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>163</v>
       </c>
@@ -3911,7 +3916,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>289</v>
       </c>
@@ -3960,7 +3965,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>291</v>
       </c>
@@ -4022,24 +4027,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}">
-  <dimension ref="A1:L204"/>
+  <dimension ref="A1:L205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4077,7 +4082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>3100</v>
       </c>
@@ -4114,7 +4119,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4151,7 +4156,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>353</v>
       </c>
@@ -4188,7 +4193,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -4213,7 +4218,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -4250,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>355</v>
       </c>
@@ -4287,7 +4292,7 @@
         <v>370000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>357</v>
       </c>
@@ -4312,7 +4317,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -4349,7 +4354,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -4386,11 +4391,11 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -4425,11 +4430,11 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -4464,11 +4469,11 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3"/>
@@ -4501,7 +4506,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -4538,7 +4543,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -4575,7 +4580,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -4614,7 +4619,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -4651,7 +4656,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -4685,11 +4690,11 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -4724,11 +4729,11 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -4763,11 +4768,11 @@
         <v>221000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="3"/>
@@ -4800,7 +4805,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4837,7 +4842,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -4913,7 +4918,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -4942,7 +4947,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -4979,7 +4984,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -5016,7 +5021,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -5053,7 +5058,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5090,7 +5095,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -5113,7 +5118,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -5136,7 +5141,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -5159,7 +5164,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
@@ -5196,7 +5201,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -5233,7 +5238,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
@@ -5270,7 +5275,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
@@ -5307,7 +5312,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -5344,7 +5349,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -5381,7 +5386,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -5455,7 +5460,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -5480,7 +5485,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -5509,7 +5514,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>69</v>
       </c>
@@ -5546,7 +5551,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -5583,7 +5588,7 @@
         <v>4335000</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
@@ -5612,7 +5617,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>71</v>
       </c>
@@ -5649,7 +5654,7 @@
         <v>2172000</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>75</v>
       </c>
@@ -5686,7 +5691,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -5723,7 +5728,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>364</v>
       </c>
@@ -5745,7 +5750,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>75</v>
       </c>
@@ -5782,7 +5787,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>75</v>
       </c>
@@ -5811,7 +5816,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>80</v>
       </c>
@@ -5848,7 +5853,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>82</v>
       </c>
@@ -5885,7 +5890,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>84</v>
       </c>
@@ -5922,7 +5927,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>86</v>
       </c>
@@ -5959,7 +5964,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
@@ -5996,7 +6001,7 @@
         <v>363000</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>88</v>
       </c>
@@ -6016,7 +6021,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>367</v>
       </c>
@@ -6039,7 +6044,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>91</v>
       </c>
@@ -6076,7 +6081,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>93</v>
       </c>
@@ -6113,7 +6118,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -6150,7 +6155,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>97</v>
       </c>
@@ -6181,7 +6186,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>98</v>
       </c>
@@ -6208,7 +6213,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>100</v>
       </c>
@@ -6245,7 +6250,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>102</v>
       </c>
@@ -6282,7 +6287,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>104</v>
       </c>
@@ -6319,7 +6324,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>106</v>
       </c>
@@ -6356,7 +6361,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>108</v>
       </c>
@@ -6368,983 +6373,995 @@
         <v>4580189.5734597156</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" ref="E68:E131" si="1">SUM(F68:L68)</f>
-        <v>12600000</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="H68" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="I68" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="J68" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="K68" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="L68" s="3">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E68:E132" si="1">SUM(F68:L68)</f>
+        <v>2360000</v>
+      </c>
+      <c r="F68" s="12">
+        <v>240000</v>
+      </c>
+      <c r="G68" s="12">
+        <v>240000</v>
+      </c>
+      <c r="H68" s="12">
+        <v>360000</v>
+      </c>
+      <c r="I68" s="12">
+        <v>360000</v>
+      </c>
+      <c r="J68" s="12">
+        <v>400000</v>
+      </c>
+      <c r="K68" s="12">
+        <v>360000</v>
+      </c>
+      <c r="L68" s="12">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>111</v>
+        <v>411</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="3">
-        <v>327500</v>
-      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="3">
         <f t="shared" si="1"/>
-        <v>1310000</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3">
-        <v>402000</v>
-      </c>
-      <c r="I69" s="3">
-        <v>212000</v>
-      </c>
-      <c r="J69" s="3">
-        <v>242000</v>
-      </c>
-      <c r="K69" s="3">
-        <v>212000</v>
-      </c>
-      <c r="L69" s="3">
-        <v>242000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16800000</v>
+      </c>
+      <c r="F69" s="12">
+        <v>2400000</v>
+      </c>
+      <c r="G69" s="12">
+        <v>2400000</v>
+      </c>
+      <c r="H69" s="12">
+        <v>2400000</v>
+      </c>
+      <c r="I69" s="12">
+        <v>2400000</v>
+      </c>
+      <c r="J69" s="12">
+        <v>2400000</v>
+      </c>
+      <c r="K69" s="12">
+        <v>2400000</v>
+      </c>
+      <c r="L69" s="12">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3">
-        <v>4641231.9958311617</v>
+        <v>327500</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="1"/>
-        <v>14700000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2100000</v>
-      </c>
-      <c r="G70" s="3">
-        <v>2100000</v>
-      </c>
+        <v>1310000</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
       <c r="H70" s="3">
-        <v>2100000</v>
+        <v>402000</v>
       </c>
       <c r="I70" s="3">
-        <v>2100000</v>
+        <v>212000</v>
       </c>
       <c r="J70" s="3">
-        <v>2100000</v>
+        <v>242000</v>
       </c>
       <c r="K70" s="3">
-        <v>2100000</v>
+        <v>212000</v>
       </c>
       <c r="L70" s="3">
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>242000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>1089640</v>
+        <v>4641231.9958311617</v>
       </c>
       <c r="E71" s="3">
         <f t="shared" si="1"/>
-        <v>2849000</v>
-      </c>
-      <c r="F71" s="3">
-        <v>467000</v>
-      </c>
-      <c r="G71" s="3">
-        <v>272000</v>
-      </c>
-      <c r="H71" s="3">
-        <v>272000</v>
-      </c>
-      <c r="I71" s="3">
-        <v>472000</v>
-      </c>
-      <c r="J71" s="3">
-        <v>402000</v>
-      </c>
-      <c r="K71" s="3">
-        <v>382000</v>
-      </c>
-      <c r="L71" s="3">
-        <v>582000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2800000</v>
+      </c>
+      <c r="F71" s="12">
+        <v>400000</v>
+      </c>
+      <c r="G71" s="12">
+        <v>400000</v>
+      </c>
+      <c r="H71" s="12">
+        <v>400000</v>
+      </c>
+      <c r="I71" s="12">
+        <v>400000</v>
+      </c>
+      <c r="J71" s="12">
+        <v>400000</v>
+      </c>
+      <c r="K71" s="12">
+        <v>400000</v>
+      </c>
+      <c r="L71" s="12">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3">
-        <v>2896908</v>
+        <v>1089640</v>
       </c>
       <c r="E72" s="3">
         <f t="shared" si="1"/>
+        <v>2849000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>467000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>272000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>272000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>472000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>402000</v>
+      </c>
+      <c r="K72" s="3">
+        <v>382000</v>
+      </c>
+      <c r="L72" s="3">
+        <v>582000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3">
+        <v>2896908</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="1"/>
         <v>7677900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F73" s="3">
         <v>989000</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G73" s="12">
         <f>771400-180000</f>
         <v>591400</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H73" s="12">
         <f>1003000-180000</f>
         <v>823000</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I73" s="12">
         <f>1281500-180000</f>
         <v>1101500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J73" s="3">
         <v>1321000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K73" s="3">
         <v>1426000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L73" s="3">
         <v>1426000</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3">
         <v>634280</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E74" s="3">
         <f t="shared" si="1"/>
         <v>2094000</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F74" s="3">
         <v>272000</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G74" s="3">
         <v>282000</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H74" s="3">
         <v>342000</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I74" s="3">
         <v>292000</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J74" s="3">
         <v>302000</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K74" s="3">
         <v>302000</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L74" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3">
-        <v>0</v>
-      </c>
-      <c r="E74" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3">
-        <v>1001250.0000000001</v>
+        <v>0</v>
       </c>
       <c r="E75" s="3">
         <f t="shared" si="1"/>
-        <v>3115000</v>
-      </c>
-      <c r="F75" s="3">
-        <v>365000</v>
-      </c>
-      <c r="G75" s="3">
-        <v>365000</v>
-      </c>
-      <c r="H75" s="3">
-        <v>365000</v>
-      </c>
-      <c r="I75" s="3">
-        <v>505000</v>
-      </c>
-      <c r="J75" s="3">
-        <v>505000</v>
-      </c>
-      <c r="K75" s="3">
-        <v>505000</v>
-      </c>
-      <c r="L75" s="3">
-        <v>505000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>368</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>369</v>
+        <v>121</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3">
-        <v>7500</v>
+        <v>1001250.0000000001</v>
       </c>
       <c r="E76" s="3">
         <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+        <v>3115000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>365000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>365000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>365000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>505000</v>
+      </c>
       <c r="J76" s="3">
-        <v>5000</v>
+        <v>505000</v>
       </c>
       <c r="K76" s="3">
-        <v>5000</v>
+        <v>505000</v>
       </c>
       <c r="L76" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>505000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>368</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3">
-        <v>1125260</v>
+        <v>7500</v>
       </c>
       <c r="E77" s="3">
         <f t="shared" si="1"/>
-        <v>2343000</v>
-      </c>
-      <c r="F77" s="3">
-        <v>249000</v>
-      </c>
-      <c r="G77" s="3">
-        <v>259000</v>
-      </c>
-      <c r="H77" s="3">
-        <v>262000</v>
-      </c>
-      <c r="I77" s="3">
-        <v>326000</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
       <c r="J77" s="3">
-        <v>371000</v>
+        <v>5000</v>
       </c>
       <c r="K77" s="3">
-        <v>428000</v>
+        <v>5000</v>
       </c>
       <c r="L77" s="3">
-        <v>448000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3">
-        <v>3736320</v>
+        <v>1125260</v>
       </c>
       <c r="E78" s="3">
         <f t="shared" si="1"/>
-        <v>5866000</v>
+        <v>2343000</v>
       </c>
       <c r="F78" s="3">
-        <v>835000</v>
+        <v>249000</v>
       </c>
       <c r="G78" s="3">
-        <v>835000</v>
+        <v>259000</v>
       </c>
       <c r="H78" s="3">
-        <v>838000</v>
+        <v>262000</v>
       </c>
       <c r="I78" s="3">
-        <v>838000</v>
+        <v>326000</v>
       </c>
       <c r="J78" s="3">
-        <v>840000</v>
+        <v>371000</v>
       </c>
       <c r="K78" s="3">
-        <v>840000</v>
+        <v>428000</v>
       </c>
       <c r="L78" s="3">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>370</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3">
-        <v>467820.00000000006</v>
+        <v>3736320</v>
       </c>
       <c r="E79" s="3">
         <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-      <c r="F79" s="3"/>
+        <v>5866000</v>
+      </c>
+      <c r="F79" s="3">
+        <v>835000</v>
+      </c>
       <c r="G79" s="3">
-        <v>150000</v>
+        <v>835000</v>
       </c>
       <c r="H79" s="3">
-        <v>150000</v>
+        <v>838000</v>
       </c>
       <c r="I79" s="3">
-        <v>150000</v>
+        <v>838000</v>
       </c>
       <c r="J79" s="3">
-        <v>150000</v>
+        <v>840000</v>
       </c>
       <c r="K79" s="3">
-        <v>150000</v>
+        <v>840000</v>
       </c>
       <c r="L79" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>370</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>125</v>
+        <v>371</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
-        <v>3262375.3</v>
+        <v>467820.00000000006</v>
       </c>
       <c r="E80" s="3">
         <f t="shared" si="1"/>
-        <v>8055948</v>
-      </c>
-      <c r="F80" s="3">
-        <v>944384</v>
-      </c>
+        <v>900000</v>
+      </c>
+      <c r="F80" s="3"/>
       <c r="G80" s="3">
-        <v>991156</v>
+        <v>150000</v>
       </c>
       <c r="H80" s="3">
-        <v>976336</v>
+        <v>150000</v>
       </c>
       <c r="I80" s="3">
-        <v>1037872</v>
+        <v>150000</v>
       </c>
       <c r="J80" s="3">
-        <v>1197200</v>
+        <v>150000</v>
       </c>
       <c r="K80" s="3">
-        <v>1447000</v>
+        <v>150000</v>
       </c>
       <c r="L80" s="3">
-        <v>1462000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3">
-        <v>110000.00000000001</v>
+        <v>3262375.3</v>
       </c>
       <c r="E81" s="3">
         <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
+        <v>8055948</v>
+      </c>
+      <c r="F81" s="3">
+        <v>944384</v>
+      </c>
+      <c r="G81" s="3">
+        <v>991156</v>
+      </c>
+      <c r="H81" s="3">
+        <v>976336</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1037872</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1197200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1447000</v>
+      </c>
       <c r="L81" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1462000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3">
-        <v>19800</v>
+        <v>110000.00000000001</v>
       </c>
       <c r="E82" s="3">
         <f t="shared" si="1"/>
-        <v>36000</v>
-      </c>
-      <c r="F82" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G82" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H82" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I82" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J82" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K82" s="3">
-        <v>5000</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
       <c r="L82" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3">
-        <v>294000.00000000006</v>
+        <v>19800</v>
       </c>
       <c r="E83" s="3">
         <f t="shared" si="1"/>
-        <v>1050000</v>
+        <v>36000</v>
       </c>
       <c r="F83" s="3">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="G83" s="3">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="H83" s="3">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="I83" s="3">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="J83" s="3">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="K83" s="3">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="L83" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3">
-        <v>332117.14589989354</v>
+        <v>294000.00000000006</v>
       </c>
       <c r="E84" s="3">
         <f t="shared" si="1"/>
-        <v>844000</v>
+        <v>1050000</v>
       </c>
       <c r="F84" s="3">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="G84" s="3">
-        <v>128000</v>
+        <v>150000</v>
       </c>
       <c r="H84" s="3">
-        <v>128000</v>
+        <v>150000</v>
       </c>
       <c r="I84" s="3">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="J84" s="3">
-        <v>133000</v>
+        <v>150000</v>
       </c>
       <c r="K84" s="3">
-        <v>145000</v>
+        <v>150000</v>
       </c>
       <c r="L84" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3">
-        <v>462500</v>
+        <v>332117.14589989354</v>
       </c>
       <c r="E85" s="3">
         <f t="shared" si="1"/>
-        <v>1850000</v>
+        <v>844000</v>
       </c>
       <c r="F85" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G85" s="3">
-        <v>300000</v>
+        <v>128000</v>
       </c>
       <c r="H85" s="3">
-        <v>300000</v>
+        <v>128000</v>
       </c>
       <c r="I85" s="3">
-        <v>300000</v>
+        <v>130000</v>
       </c>
       <c r="J85" s="3">
-        <v>300000</v>
+        <v>133000</v>
       </c>
       <c r="K85" s="3">
-        <v>300000</v>
+        <v>145000</v>
       </c>
       <c r="L85" s="3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3">
-        <v>312000</v>
+        <v>462500</v>
       </c>
       <c r="E86" s="3">
         <f t="shared" si="1"/>
-        <v>1200000</v>
+        <v>1850000</v>
       </c>
       <c r="F86" s="3">
-        <v>400000</v>
+        <v>50000</v>
       </c>
       <c r="G86" s="3">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="H86" s="3">
-        <v>400000</v>
-      </c>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>300000</v>
+      </c>
+      <c r="I86" s="3">
+        <v>300000</v>
+      </c>
+      <c r="J86" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K86" s="3">
+        <v>300000</v>
+      </c>
+      <c r="L86" s="3">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3">
-        <v>580873.84615384624</v>
+        <v>312000</v>
       </c>
       <c r="E87" s="3">
         <f t="shared" si="1"/>
-        <v>2208000</v>
+        <v>1200000</v>
       </c>
       <c r="F87" s="3">
-        <v>990000</v>
+        <v>400000</v>
       </c>
       <c r="G87" s="3">
-        <v>3000</v>
+        <v>400000</v>
       </c>
       <c r="H87" s="3">
-        <v>303000</v>
-      </c>
-      <c r="I87" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J87" s="3">
-        <v>303000</v>
-      </c>
-      <c r="K87" s="3">
-        <v>303000</v>
-      </c>
-      <c r="L87" s="3">
-        <v>303000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>400000</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3">
-        <v>200000</v>
+        <v>580873.84615384624</v>
       </c>
       <c r="E88" s="3">
         <f t="shared" si="1"/>
-        <v>695000</v>
+        <v>1008000</v>
       </c>
       <c r="F88" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G88" s="3">
-        <v>65000</v>
-      </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3">
-        <v>150000</v>
-      </c>
-      <c r="J88" s="3">
-        <v>115000</v>
-      </c>
-      <c r="K88" s="3">
-        <v>100000</v>
-      </c>
-      <c r="L88" s="3">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>990000</v>
+      </c>
+      <c r="G88" s="12">
+        <v>3000</v>
+      </c>
+      <c r="H88" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I88" s="12">
+        <v>3000</v>
+      </c>
+      <c r="J88" s="12">
+        <v>3000</v>
+      </c>
+      <c r="K88" s="12">
+        <v>3000</v>
+      </c>
+      <c r="L88" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3">
-        <v>3468000</v>
+        <v>200000</v>
       </c>
       <c r="E89" s="3">
         <f t="shared" si="1"/>
-        <v>6800000</v>
+        <v>695000</v>
       </c>
       <c r="F89" s="3">
-        <v>800000</v>
+        <v>100000</v>
       </c>
       <c r="G89" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>1000000</v>
-      </c>
+        <v>65000</v>
+      </c>
+      <c r="H89" s="3"/>
       <c r="I89" s="3">
-        <v>1000000</v>
+        <v>150000</v>
       </c>
       <c r="J89" s="3">
-        <v>1000000</v>
+        <v>115000</v>
       </c>
       <c r="K89" s="3">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="L89" s="3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3">
-        <v>4410100</v>
+        <v>3468000</v>
       </c>
       <c r="E90" s="3">
         <f t="shared" si="1"/>
-        <v>7670000</v>
+        <v>6800000</v>
       </c>
       <c r="F90" s="3">
-        <v>680000</v>
+        <v>800000</v>
       </c>
       <c r="G90" s="3">
-        <v>1010000</v>
+        <v>1000000</v>
       </c>
       <c r="H90" s="3">
-        <v>1010000</v>
+        <v>1000000</v>
       </c>
       <c r="I90" s="3">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="J90" s="3">
-        <v>1110000</v>
+        <v>1000000</v>
       </c>
       <c r="K90" s="3">
-        <v>1170000</v>
+        <v>1000000</v>
       </c>
       <c r="L90" s="3">
-        <v>1530000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3">
-        <v>371360</v>
+        <v>4410100</v>
       </c>
       <c r="E91" s="3">
         <f t="shared" si="1"/>
-        <v>480000</v>
+        <v>7670000</v>
       </c>
       <c r="F91" s="3">
-        <v>40000</v>
+        <v>680000</v>
       </c>
       <c r="G91" s="3">
-        <v>60000</v>
+        <v>1010000</v>
       </c>
       <c r="H91" s="3">
-        <v>80000</v>
+        <v>1010000</v>
       </c>
       <c r="I91" s="3">
-        <v>70000</v>
+        <v>1160000</v>
       </c>
       <c r="J91" s="3">
-        <v>70000</v>
+        <v>1110000</v>
       </c>
       <c r="K91" s="3">
-        <v>70000</v>
+        <v>1170000</v>
       </c>
       <c r="L91" s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3">
-        <v>398300</v>
+        <v>371360</v>
       </c>
       <c r="E92" s="3">
         <f t="shared" si="1"/>
-        <v>665000</v>
+        <v>480000</v>
       </c>
       <c r="F92" s="3">
-        <v>95000</v>
+        <v>40000</v>
       </c>
       <c r="G92" s="3">
-        <v>95000</v>
+        <v>60000</v>
       </c>
       <c r="H92" s="3">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="I92" s="3">
-        <v>95000</v>
+        <v>70000</v>
       </c>
       <c r="J92" s="3">
-        <v>95000</v>
+        <v>70000</v>
       </c>
       <c r="K92" s="3">
-        <v>95000</v>
+        <v>70000</v>
       </c>
       <c r="L92" s="3">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3">
-        <v>7200</v>
+        <v>398300</v>
       </c>
       <c r="E93" s="3">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>665000</v>
       </c>
       <c r="F93" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="G93" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="H93" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="I93" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="J93" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="K93" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="L93" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3">
-        <v>502260</v>
+        <v>7200</v>
       </c>
       <c r="E94" s="3">
         <f t="shared" si="1"/>
-        <v>746000</v>
+        <v>10000</v>
       </c>
       <c r="F94" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>83000</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3">
-        <v>0</v>
+        <v>502260</v>
       </c>
       <c r="E95" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>746000</v>
+      </c>
+      <c r="F95" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G95" s="3">
+        <v>83000</v>
+      </c>
+      <c r="H95" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I95" s="3">
+        <v>85000</v>
+      </c>
+      <c r="J95" s="3">
+        <v>140000</v>
+      </c>
+      <c r="K95" s="3">
+        <v>150000</v>
+      </c>
+      <c r="L95" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -7352,142 +7369,142 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="L96" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3">
-        <v>88000</v>
+        <v>3750</v>
       </c>
       <c r="E97" s="3">
         <f t="shared" si="1"/>
-        <v>160000</v>
-      </c>
-      <c r="F97" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G97" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H97" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I97" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J97" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K97" s="3">
-        <v>30000</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
       <c r="L97" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3">
-        <v>810</v>
+        <v>88000</v>
       </c>
       <c r="E98" s="3">
         <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
+        <v>160000</v>
+      </c>
+      <c r="F98" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G98" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H98" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I98" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J98" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K98" s="3">
+        <v>30000</v>
+      </c>
       <c r="L98" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3">
-        <v>13520</v>
+        <v>810</v>
       </c>
       <c r="E99" s="3">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>1000</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
-      <c r="J99" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K99" s="3">
-        <v>8000</v>
-      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
       <c r="L99" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3">
-        <v>320625</v>
+        <v>13520</v>
       </c>
       <c r="E100" s="3">
         <f t="shared" si="1"/>
-        <v>1125000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1125000</v>
-      </c>
+        <v>26000</v>
+      </c>
+      <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L100" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>372</v>
+        <v>164</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>320625</v>
       </c>
       <c r="E101" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F101" s="3"/>
+        <v>1125000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1125000</v>
+      </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -7495,1413 +7512,1403 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3">
-        <v>418999.99999999994</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <f t="shared" si="1"/>
-        <v>2310000</v>
-      </c>
-      <c r="F102" s="3">
-        <v>90000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>880000</v>
-      </c>
-      <c r="H102" s="3">
-        <v>90000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>90000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>880000</v>
-      </c>
-      <c r="K102" s="3">
-        <v>90000</v>
-      </c>
-      <c r="L102" s="3">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3">
-        <v>418035</v>
+        <v>418999.99999999994</v>
       </c>
       <c r="E103" s="3">
         <f t="shared" si="1"/>
-        <v>584500</v>
+        <v>2310000</v>
       </c>
       <c r="F103" s="3">
-        <v>100500</v>
+        <v>90000</v>
       </c>
       <c r="G103" s="3">
-        <v>86000</v>
+        <v>880000</v>
       </c>
       <c r="H103" s="3">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="I103" s="3">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="J103" s="3">
-        <v>70000</v>
+        <v>880000</v>
       </c>
       <c r="K103" s="3">
-        <v>20000</v>
+        <v>90000</v>
       </c>
       <c r="L103" s="3">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3">
-        <v>175000</v>
+        <v>418035</v>
       </c>
       <c r="E104" s="3">
         <f t="shared" si="1"/>
-        <v>350000</v>
+        <v>584500</v>
       </c>
       <c r="F104" s="3">
-        <v>50000</v>
+        <v>100500</v>
       </c>
       <c r="G104" s="3">
-        <v>50000</v>
+        <v>86000</v>
       </c>
       <c r="H104" s="3">
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="I104" s="3">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J104" s="3">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K104" s="3">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="L104" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3">
-        <v>89100</v>
+        <v>175000</v>
       </c>
       <c r="E105" s="3">
         <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>350000</v>
       </c>
       <c r="F105" s="3">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G105" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H105" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="I105" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="J105" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K105" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="L105" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>373</v>
+        <v>170</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3">
-        <v>400000</v>
+        <v>89100</v>
       </c>
       <c r="E106" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
       </c>
       <c r="G106" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H106" s="3">
-        <v>0</v>
-      </c>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+      <c r="I106" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J106" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K106" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L106" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>174</v>
+        <v>373</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3">
-        <v>385846.15384615387</v>
+        <v>400000</v>
       </c>
       <c r="E107" s="3">
         <f t="shared" si="1"/>
-        <v>2200000</v>
+        <v>0</v>
       </c>
       <c r="F107" s="3">
-        <v>690000</v>
+        <v>0</v>
       </c>
       <c r="G107" s="3">
-        <v>245000</v>
+        <v>0</v>
       </c>
       <c r="H107" s="3">
-        <v>245000</v>
-      </c>
-      <c r="I107" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J107" s="3">
-        <v>250000</v>
-      </c>
-      <c r="K107" s="3">
-        <v>260000</v>
-      </c>
-      <c r="L107" s="3">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>374</v>
+        <v>174</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>375</v>
+        <v>175</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3">
-        <v>3710000</v>
+        <v>385846.15384615387</v>
       </c>
       <c r="E108" s="3">
         <f t="shared" si="1"/>
-        <v>14000000</v>
+        <v>2200000</v>
       </c>
       <c r="F108" s="3">
-        <v>2000000</v>
+        <v>690000</v>
       </c>
       <c r="G108" s="3">
-        <v>2000000</v>
+        <v>245000</v>
       </c>
       <c r="H108" s="3">
-        <v>2000000</v>
+        <v>245000</v>
       </c>
       <c r="I108" s="3">
-        <v>2000000</v>
+        <v>250000</v>
       </c>
       <c r="J108" s="3">
-        <v>2000000</v>
+        <v>250000</v>
       </c>
       <c r="K108" s="3">
-        <v>2000000</v>
+        <v>260000</v>
       </c>
       <c r="L108" s="3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>376</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C109" s="3"/>
       <c r="D109" s="3">
-        <v>2100000</v>
+        <v>3710000</v>
       </c>
       <c r="E109" s="3">
         <f t="shared" si="1"/>
-        <v>15000000</v>
-      </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
+        <v>14000000</v>
+      </c>
+      <c r="F109" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="G109" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="H109" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="I109" s="3">
+        <v>2000000</v>
+      </c>
       <c r="J109" s="3">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="K109" s="3">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="L109" s="3">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C110" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="D110" s="3">
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="E110" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J110" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="K110" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="L110" s="3">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3">
-        <v>112000.00000000001</v>
+        <v>0</v>
       </c>
       <c r="E111" s="3">
         <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="F111" s="3">
-        <v>200000</v>
-      </c>
-      <c r="G111" s="3">
-        <v>0</v>
-      </c>
-      <c r="H111" s="3">
-        <v>0</v>
-      </c>
-      <c r="I111" s="3">
-        <v>0</v>
-      </c>
-      <c r="J111" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K111" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L111" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3">
-        <v>24150</v>
+        <v>112000.00000000001</v>
       </c>
       <c r="E112" s="3">
         <f t="shared" si="1"/>
-        <v>105000</v>
+        <v>800000</v>
       </c>
       <c r="F112" s="3">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="G112" s="3">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="H112" s="3">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I112" s="3">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="J112" s="3">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="K112" s="3">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="L112" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3">
-        <v>21840</v>
+        <v>24150</v>
       </c>
       <c r="E113" s="3">
         <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+      <c r="F113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L113" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3">
+        <v>21840</v>
+      </c>
+      <c r="E114" s="3">
+        <f t="shared" si="1"/>
         <v>84000</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F114" s="3">
         <v>12000</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G114" s="3">
         <v>12000</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H114" s="3">
         <v>12000</v>
       </c>
-      <c r="I113" s="3">
+      <c r="I114" s="3">
         <v>12000</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J114" s="3">
         <v>12000</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K114" s="3">
         <v>12000</v>
       </c>
-      <c r="L113" s="3">
+      <c r="L114" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B115" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9">
-        <v>0</v>
-      </c>
-      <c r="E114" s="9">
+      <c r="C115" s="9"/>
+      <c r="D115" s="9">
+        <v>0</v>
+      </c>
+      <c r="E115" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D116" s="3">
         <v>6000000</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E116" s="3">
         <f t="shared" si="1"/>
         <v>6000000</v>
       </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3">
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3">
         <v>2000000</v>
       </c>
-      <c r="K115" s="3">
+      <c r="K116" s="3">
         <v>2000000</v>
       </c>
-      <c r="L115" s="3">
+      <c r="L116" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3">
+      <c r="C117" s="3"/>
+      <c r="D117" s="3">
         <v>1512000</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E117" s="3">
         <f t="shared" si="1"/>
         <v>2800000</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F117" s="3">
         <v>400000</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G117" s="3">
         <v>400000</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H117" s="3">
         <v>400000</v>
       </c>
-      <c r="I116" s="3">
+      <c r="I117" s="3">
         <v>400000</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J117" s="3">
         <v>400000</v>
       </c>
-      <c r="K116" s="3">
+      <c r="K117" s="3">
         <v>400000</v>
       </c>
-      <c r="L116" s="3">
+      <c r="L117" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3">
+      <c r="C118" s="3"/>
+      <c r="D118" s="3">
         <v>140000</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E118" s="3">
         <f t="shared" si="1"/>
         <v>140000</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F118" s="3">
         <v>20000</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G118" s="3">
         <v>20000</v>
       </c>
-      <c r="H117" s="3">
+      <c r="H118" s="3">
         <v>20000</v>
       </c>
-      <c r="I117" s="3">
+      <c r="I118" s="3">
         <v>20000</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J118" s="3">
         <v>20000</v>
       </c>
-      <c r="K117" s="3">
+      <c r="K118" s="3">
         <v>20000</v>
       </c>
-      <c r="L117" s="3">
+      <c r="L118" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3">
+      <c r="C119" s="3"/>
+      <c r="D119" s="3">
         <v>224000</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E119" s="3">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3">
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3">
         <v>10000</v>
       </c>
-      <c r="I118" s="3">
+      <c r="I119" s="3">
         <v>10000</v>
       </c>
-      <c r="J118" s="3">
+      <c r="J119" s="3">
         <v>20000</v>
       </c>
-      <c r="K118" s="3">
+      <c r="K119" s="3">
         <v>20000</v>
       </c>
-      <c r="L118" s="3">
+      <c r="L119" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3">
+      <c r="C120" s="3"/>
+      <c r="D120" s="3">
         <v>3615999.9999999995</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E120" s="3">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F120" s="3">
         <v>800000</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G120" s="3">
         <v>300000</v>
       </c>
-      <c r="H119" s="3">
+      <c r="H120" s="3">
         <v>150000</v>
       </c>
-      <c r="I119" s="3">
+      <c r="I120" s="3">
         <v>150000</v>
       </c>
-      <c r="J119" s="3">
+      <c r="J120" s="3">
         <v>200000</v>
       </c>
-      <c r="K119" s="3">
+      <c r="K120" s="3">
         <v>200000</v>
       </c>
-      <c r="L119" s="3">
+      <c r="L120" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3">
+      <c r="C121" s="3"/>
+      <c r="D121" s="3">
         <v>313235.99999999994</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E121" s="3">
         <f t="shared" si="1"/>
         <v>140000</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F121" s="3">
         <v>20000</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G121" s="3">
         <v>20000</v>
       </c>
-      <c r="H120" s="3">
+      <c r="H121" s="3">
         <v>20000</v>
       </c>
-      <c r="I120" s="3">
+      <c r="I121" s="3">
         <v>20000</v>
       </c>
-      <c r="J120" s="3">
+      <c r="J121" s="3">
         <v>20000</v>
       </c>
-      <c r="K120" s="3">
+      <c r="K121" s="3">
         <v>20000</v>
       </c>
-      <c r="L120" s="3">
+      <c r="L121" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3">
+      <c r="C122" s="3"/>
+      <c r="D122" s="3">
         <v>78308.999999999985</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E122" s="3">
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F122" s="3">
         <v>5000</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G122" s="3">
         <v>5000</v>
       </c>
-      <c r="H121" s="3">
+      <c r="H122" s="3">
         <v>5000</v>
       </c>
-      <c r="I121" s="3">
+      <c r="I122" s="3">
         <v>5000</v>
       </c>
-      <c r="J121" s="3">
+      <c r="J122" s="3">
         <v>5000</v>
       </c>
-      <c r="K121" s="3">
+      <c r="K122" s="3">
         <v>5000</v>
       </c>
-      <c r="L121" s="3">
+      <c r="L122" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3">
+      <c r="C123" s="3"/>
+      <c r="D123" s="3">
         <v>2390579.651928504</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E123" s="3">
         <f t="shared" si="1"/>
         <v>1117000</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F123" s="3">
         <v>200000</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G123" s="3">
         <v>31000</v>
       </c>
-      <c r="H122" s="3">
+      <c r="H123" s="3">
         <v>230000</v>
       </c>
-      <c r="I122" s="3">
+      <c r="I123" s="3">
         <v>105000</v>
       </c>
-      <c r="J122" s="3">
+      <c r="J123" s="3">
         <v>223000</v>
       </c>
-      <c r="K122" s="3">
+      <c r="K123" s="3">
         <v>95000</v>
       </c>
-      <c r="L122" s="3">
+      <c r="L123" s="3">
         <v>233000</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3">
-        <f>E123*1.93</f>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3">
+        <f>E124*1.93</f>
         <v>1930000</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E124" s="3">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="3">
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="3">
         <v>250000</v>
       </c>
-      <c r="J123" s="3">
+      <c r="J124" s="3">
         <v>250000</v>
       </c>
-      <c r="K123" s="3">
+      <c r="K124" s="3">
         <v>250000</v>
       </c>
-      <c r="L123" s="3">
+      <c r="L124" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3">
-        <f>E124*1.95</f>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3">
+        <f>E125*1.95</f>
         <v>8775000</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E125" s="3">
         <f t="shared" si="1"/>
         <v>4500000</v>
       </c>
-      <c r="F124" s="12">
+      <c r="F125" s="12">
         <v>500000</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G125" s="12">
         <v>500000</v>
       </c>
-      <c r="H124" s="12">
+      <c r="H125" s="12">
         <v>500000</v>
       </c>
-      <c r="I124" s="3">
+      <c r="I125" s="3">
         <v>750000</v>
       </c>
-      <c r="J124" s="3">
+      <c r="J125" s="3">
         <v>750000</v>
       </c>
-      <c r="K124" s="3">
+      <c r="K125" s="3">
         <v>750000</v>
       </c>
-      <c r="L124" s="3">
+      <c r="L125" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3">
+      <c r="C126" s="3"/>
+      <c r="D126" s="3">
         <v>1144500</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E126" s="3">
         <f t="shared" si="1"/>
         <v>545000</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F126" s="3">
         <v>75000</v>
       </c>
-      <c r="G125" s="3">
+      <c r="G126" s="3">
         <v>75000</v>
       </c>
-      <c r="H125" s="3">
+      <c r="H126" s="3">
         <v>75000</v>
       </c>
-      <c r="I125" s="3">
+      <c r="I126" s="3">
         <v>80000</v>
       </c>
-      <c r="J125" s="3">
+      <c r="J126" s="3">
         <v>80000</v>
       </c>
-      <c r="K125" s="3">
+      <c r="K126" s="3">
         <v>80000</v>
       </c>
-      <c r="L125" s="3">
+      <c r="L126" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3">
-        <v>0</v>
-      </c>
-      <c r="E126" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3">
-        <v>1716100</v>
+        <v>0</v>
       </c>
       <c r="E127" s="3">
         <f t="shared" si="1"/>
-        <v>905000</v>
-      </c>
-      <c r="F127" s="3">
-        <v>25000</v>
-      </c>
-      <c r="G127" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H127" s="3">
-        <v>105000</v>
-      </c>
-      <c r="I127" s="3">
-        <v>105000</v>
-      </c>
-      <c r="J127" s="3">
-        <v>205000</v>
-      </c>
-      <c r="K127" s="3">
-        <v>205000</v>
-      </c>
-      <c r="L127" s="3">
-        <v>205000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3">
-        <v>44946</v>
+        <v>1716100</v>
       </c>
       <c r="E128" s="3">
         <f t="shared" si="1"/>
-        <v>18000</v>
-      </c>
-      <c r="F128" s="3"/>
+        <v>905000</v>
+      </c>
+      <c r="F128" s="3">
+        <v>25000</v>
+      </c>
       <c r="G128" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H128" s="3"/>
+        <v>55000</v>
+      </c>
+      <c r="H128" s="3">
+        <v>105000</v>
+      </c>
       <c r="I128" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J128" s="3"/>
+        <v>105000</v>
+      </c>
+      <c r="J128" s="3">
+        <v>205000</v>
+      </c>
       <c r="K128" s="3">
-        <v>6000</v>
+        <v>205000</v>
       </c>
       <c r="L128" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>379</v>
+        <v>210</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>380</v>
+        <v>211</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3">
-        <v>142880</v>
+        <v>44946</v>
       </c>
       <c r="E129" s="3">
         <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L129" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3">
+        <v>142880</v>
+      </c>
+      <c r="E130" s="3">
+        <f t="shared" si="1"/>
         <v>76000</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F130" s="3">
         <v>6000</v>
       </c>
-      <c r="G129" s="3">
+      <c r="G130" s="3">
         <v>11000</v>
       </c>
-      <c r="H129" s="3">
+      <c r="H130" s="3">
         <v>11000</v>
       </c>
-      <c r="I129" s="3">
+      <c r="I130" s="3">
         <v>11000</v>
       </c>
-      <c r="J129" s="3">
+      <c r="J130" s="3">
         <v>11000</v>
       </c>
-      <c r="K129" s="3">
+      <c r="K130" s="3">
         <v>11000</v>
       </c>
-      <c r="L129" s="3">
+      <c r="L130" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B131" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="3">
+      <c r="C131" s="9"/>
+      <c r="D131" s="3">
         <v>387180</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E131" s="9">
         <f t="shared" si="1"/>
         <v>239000</v>
       </c>
-      <c r="F130" s="9">
+      <c r="F131" s="9">
         <v>39000</v>
       </c>
-      <c r="G130" s="9">
+      <c r="G131" s="9">
         <v>50000</v>
       </c>
-      <c r="H130" s="9">
+      <c r="H131" s="9">
         <v>50000</v>
       </c>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9">
+      <c r="I131" s="9"/>
+      <c r="J131" s="9">
         <v>50000</v>
       </c>
-      <c r="K130" s="9">
+      <c r="K131" s="9">
         <v>50000</v>
       </c>
-      <c r="L130" s="9"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="L131" s="9"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3">
+      <c r="C132" s="3"/>
+      <c r="D132" s="3">
         <v>14000</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E132" s="3">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3">
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B133" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11">
+      <c r="C133" s="11"/>
+      <c r="D133" s="11">
         <v>1465227.2727272727</v>
       </c>
-      <c r="E132" s="11">
-        <f t="shared" ref="E132:E200" si="2">SUM(F132:L132)</f>
+      <c r="E133" s="11">
+        <f t="shared" ref="E133:E201" si="2">SUM(F133:L133)</f>
         <v>1050000</v>
       </c>
-      <c r="F132" s="11">
+      <c r="F133" s="11">
         <v>150000</v>
       </c>
-      <c r="G132" s="11">
+      <c r="G133" s="11">
         <v>150000</v>
       </c>
-      <c r="H132" s="11">
+      <c r="H133" s="11">
         <v>150000</v>
       </c>
-      <c r="I132" s="11">
+      <c r="I133" s="11">
         <v>150000</v>
       </c>
-      <c r="J132" s="11">
+      <c r="J133" s="11">
         <v>150000</v>
       </c>
-      <c r="K132" s="11">
+      <c r="K133" s="11">
         <v>150000</v>
       </c>
-      <c r="L132" s="11">
+      <c r="L133" s="11">
         <v>150000</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3">
+      <c r="C134" s="3"/>
+      <c r="D134" s="3">
         <v>1967753.4246575343</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E134" s="3">
         <f t="shared" si="2"/>
         <v>807000</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F134" s="3">
         <v>84000</v>
       </c>
-      <c r="G133" s="3">
+      <c r="G134" s="3">
         <v>102000</v>
       </c>
-      <c r="H133" s="3">
+      <c r="H134" s="3">
         <v>110000</v>
       </c>
-      <c r="I133" s="3">
+      <c r="I134" s="3">
         <v>114000</v>
       </c>
-      <c r="J133" s="3">
+      <c r="J134" s="3">
         <v>129000</v>
       </c>
-      <c r="K133" s="3">
+      <c r="K134" s="3">
         <v>129000</v>
       </c>
-      <c r="L133" s="3">
+      <c r="L134" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3">
-        <v>0</v>
-      </c>
-      <c r="E134" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3">
-        <v>3358493.9820359279</v>
+        <v>0</v>
       </c>
       <c r="E135" s="3">
         <f t="shared" si="2"/>
-        <v>1291000</v>
-      </c>
-      <c r="F135" s="3">
-        <v>228000</v>
-      </c>
-      <c r="G135" s="3">
-        <v>150000</v>
-      </c>
-      <c r="H135" s="3">
-        <v>320000</v>
-      </c>
-      <c r="I135" s="3">
-        <v>148000</v>
-      </c>
-      <c r="J135" s="3">
-        <v>130000</v>
-      </c>
-      <c r="K135" s="3">
-        <v>155000</v>
-      </c>
-      <c r="L135" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3">
-        <v>8228000</v>
+        <v>3358493.9820359279</v>
       </c>
       <c r="E136" s="3">
         <f t="shared" si="2"/>
-        <v>3400000</v>
+        <v>1291000</v>
       </c>
       <c r="F136" s="3">
-        <v>450000</v>
+        <v>228000</v>
       </c>
       <c r="G136" s="3">
-        <v>500000</v>
+        <v>150000</v>
       </c>
       <c r="H136" s="3">
-        <v>450000</v>
+        <v>320000</v>
       </c>
       <c r="I136" s="3">
-        <v>500000</v>
+        <v>148000</v>
       </c>
       <c r="J136" s="3">
-        <v>500000</v>
+        <v>130000</v>
       </c>
       <c r="K136" s="3">
-        <v>500000</v>
+        <v>155000</v>
       </c>
       <c r="L136" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3">
-        <v>4224350</v>
+        <v>8228000</v>
       </c>
       <c r="E137" s="3">
         <f t="shared" si="2"/>
-        <v>1640500</v>
+        <v>3400000</v>
       </c>
       <c r="F137" s="3">
-        <v>158000</v>
+        <v>450000</v>
       </c>
       <c r="G137" s="3">
-        <v>212500</v>
+        <v>500000</v>
       </c>
       <c r="H137" s="3">
-        <v>212500</v>
+        <v>450000</v>
       </c>
       <c r="I137" s="3">
-        <v>262500</v>
+        <v>500000</v>
       </c>
       <c r="J137" s="3">
-        <v>265000</v>
+        <v>500000</v>
       </c>
       <c r="K137" s="3">
-        <v>265000</v>
+        <v>500000</v>
       </c>
       <c r="L137" s="3">
-        <v>265000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3">
-        <v>15000000</v>
+        <v>4224350</v>
       </c>
       <c r="E138" s="3">
         <f t="shared" si="2"/>
-        <v>30000000</v>
+        <v>1640500</v>
       </c>
       <c r="F138" s="3">
-        <v>0</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
+        <v>158000</v>
+      </c>
+      <c r="G138" s="3">
+        <v>212500</v>
+      </c>
+      <c r="H138" s="3">
+        <v>212500</v>
+      </c>
+      <c r="I138" s="3">
+        <v>262500</v>
+      </c>
       <c r="J138" s="3">
-        <v>10000000</v>
+        <v>265000</v>
       </c>
       <c r="K138" s="3">
-        <v>10000000</v>
+        <v>265000</v>
       </c>
       <c r="L138" s="3">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>265000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3">
-        <v>13600000</v>
+        <v>15000000</v>
       </c>
       <c r="E139" s="3">
         <f t="shared" si="2"/>
-        <v>34000000</v>
+        <v>30000000</v>
       </c>
       <c r="F139" s="3">
-        <v>4000000</v>
-      </c>
-      <c r="G139" s="3">
-        <v>4000000</v>
-      </c>
-      <c r="H139" s="3">
-        <v>4000000</v>
-      </c>
-      <c r="I139" s="3">
-        <v>4000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
       <c r="J139" s="3">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
       <c r="K139" s="3">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
       <c r="L139" s="3">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3">
-        <v>358560</v>
+        <v>13600000</v>
       </c>
       <c r="E140" s="3">
         <f t="shared" si="2"/>
-        <v>119520</v>
+        <v>34000000</v>
       </c>
       <c r="F140" s="3">
-        <v>20000</v>
+        <v>4000000</v>
       </c>
       <c r="G140" s="3">
-        <v>20000</v>
+        <v>4000000</v>
       </c>
       <c r="H140" s="3">
-        <v>20000</v>
+        <v>4000000</v>
       </c>
       <c r="I140" s="3">
-        <v>14880</v>
+        <v>4000000</v>
       </c>
       <c r="J140" s="3">
-        <v>14880</v>
+        <v>6000000</v>
       </c>
       <c r="K140" s="3">
-        <v>14880</v>
+        <v>6000000</v>
       </c>
       <c r="L140" s="3">
-        <v>14880</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3">
-        <v>294000</v>
+        <v>358560</v>
       </c>
       <c r="E141" s="3">
         <f t="shared" si="2"/>
-        <v>91000</v>
+        <v>119520</v>
       </c>
       <c r="F141" s="3">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="G141" s="3">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="H141" s="3">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="I141" s="3">
-        <v>13000</v>
+        <v>14880</v>
       </c>
       <c r="J141" s="3">
-        <v>13000</v>
+        <v>14880</v>
       </c>
       <c r="K141" s="3">
-        <v>13000</v>
+        <v>14880</v>
       </c>
       <c r="L141" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>384</v>
+        <v>230</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>385</v>
+        <v>230</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3">
-        <v>399000</v>
+        <v>294000</v>
       </c>
       <c r="E142" s="3">
         <f t="shared" si="2"/>
-        <v>140000</v>
-      </c>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
+        <v>91000</v>
+      </c>
+      <c r="F142" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G142" s="3">
+        <v>13000</v>
+      </c>
       <c r="H142" s="3">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="I142" s="3">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="J142" s="3">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="K142" s="3">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="L142" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3">
@@ -8929,1182 +8936,1181 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>235</v>
+        <v>384</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>236</v>
+        <v>386</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3">
-        <v>425000</v>
+        <v>399000</v>
       </c>
       <c r="E144" s="3">
         <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-      <c r="F144" s="3">
-        <v>0</v>
-      </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
+        <v>140000</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
       <c r="H144" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I144" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J144" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="K144" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L144" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3">
-        <v>302014.92537313432</v>
+        <v>425000</v>
       </c>
       <c r="E145" s="3">
         <f t="shared" si="2"/>
-        <v>71000</v>
+        <v>50000</v>
       </c>
       <c r="F145" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G145" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H145" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I145" s="3">
         <v>0</v>
       </c>
       <c r="J145" s="3">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="K145" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="L145" s="3">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3">
-        <v>1137680</v>
+        <v>302014.92537313432</v>
       </c>
       <c r="E146" s="3">
         <f t="shared" si="2"/>
-        <v>332500</v>
+        <v>71000</v>
       </c>
       <c r="F146" s="3">
-        <v>28000</v>
+        <v>4000</v>
       </c>
       <c r="G146" s="3">
-        <v>28500</v>
+        <v>3000</v>
       </c>
       <c r="H146" s="3">
-        <v>49000</v>
+        <v>3000</v>
       </c>
       <c r="I146" s="3">
-        <v>49500</v>
+        <v>0</v>
       </c>
       <c r="J146" s="3">
-        <v>59000</v>
+        <v>18000</v>
       </c>
       <c r="K146" s="3">
-        <v>59500</v>
+        <v>20000</v>
       </c>
       <c r="L146" s="3">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3">
-        <v>1279199.9999999998</v>
+        <v>1137680</v>
       </c>
       <c r="E147" s="3">
         <f t="shared" si="2"/>
-        <v>317000</v>
+        <v>332500</v>
       </c>
       <c r="F147" s="3">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="G147" s="3">
-        <v>12000</v>
+        <v>28500</v>
       </c>
       <c r="H147" s="3">
-        <v>33000</v>
+        <v>49000</v>
       </c>
       <c r="I147" s="3">
-        <v>37000</v>
+        <v>49500</v>
       </c>
       <c r="J147" s="3">
-        <v>58000</v>
+        <v>59000</v>
       </c>
       <c r="K147" s="3">
-        <v>78000</v>
+        <v>59500</v>
       </c>
       <c r="L147" s="3">
-        <v>88000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3">
-        <v>157500</v>
+        <v>1279199.9999999998</v>
       </c>
       <c r="E148" s="3">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>317000</v>
       </c>
       <c r="F148" s="3">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="G148" s="3">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="H148" s="3">
-        <v>3000</v>
+        <v>33000</v>
       </c>
       <c r="I148" s="3">
-        <v>3000</v>
+        <v>37000</v>
       </c>
       <c r="J148" s="3">
-        <v>3000</v>
+        <v>58000</v>
       </c>
       <c r="K148" s="3">
-        <v>3000</v>
+        <v>78000</v>
       </c>
       <c r="L148" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3">
-        <v>630000</v>
+        <v>157500</v>
       </c>
       <c r="E149" s="3">
         <f t="shared" si="2"/>
-        <v>90000</v>
+        <v>21000</v>
       </c>
       <c r="F149" s="3">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="G149" s="3">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="H149" s="3">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="I149" s="3">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="J149" s="3">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="K149" s="3">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="L149" s="3">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3">
-        <v>2358000</v>
+        <v>630000</v>
       </c>
       <c r="E150" s="3">
         <f t="shared" si="2"/>
-        <v>461000</v>
+        <v>90000</v>
       </c>
       <c r="F150" s="3">
-        <v>50000</v>
+        <v>6000</v>
       </c>
       <c r="G150" s="3">
-        <v>51000</v>
+        <v>6000</v>
       </c>
       <c r="H150" s="3">
-        <v>51000</v>
+        <v>12000</v>
       </c>
       <c r="I150" s="3">
-        <v>56000</v>
+        <v>12000</v>
       </c>
       <c r="J150" s="3">
-        <v>71000</v>
+        <v>18000</v>
       </c>
       <c r="K150" s="3">
-        <v>91000</v>
+        <v>18000</v>
       </c>
       <c r="L150" s="3">
-        <v>91000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3">
-        <v>1120000</v>
+        <v>2358000</v>
       </c>
       <c r="E151" s="3">
         <f t="shared" si="2"/>
-        <v>1400000</v>
+        <v>461000</v>
       </c>
       <c r="F151" s="3">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="G151" s="3">
-        <v>200000</v>
+        <v>51000</v>
       </c>
       <c r="H151" s="3">
-        <v>200000</v>
+        <v>51000</v>
       </c>
       <c r="I151" s="3">
-        <v>200000</v>
+        <v>56000</v>
       </c>
       <c r="J151" s="3">
-        <v>200000</v>
+        <v>71000</v>
       </c>
       <c r="K151" s="3">
-        <v>200000</v>
+        <v>91000</v>
       </c>
       <c r="L151" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>387</v>
+        <v>249</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>388</v>
+        <v>250</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3">
-        <v>784000</v>
+        <v>1120000</v>
       </c>
       <c r="E152" s="3">
         <f t="shared" si="2"/>
-        <v>1120000</v>
+        <v>1400000</v>
       </c>
       <c r="F152" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="G152" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="H152" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="I152" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="J152" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="K152" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="L152" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3">
-        <v>274400</v>
-      </c>
-      <c r="E153" s="3"/>
+        <v>784000</v>
+      </c>
+      <c r="E153" s="3">
+        <f t="shared" si="2"/>
+        <v>1120000</v>
+      </c>
       <c r="F153" s="3">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="G153" s="3">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="H153" s="3">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="I153" s="3">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="J153" s="3">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="K153" s="3">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="L153" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3">
-        <v>196000</v>
+        <v>274400</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="G154" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="H154" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="I154" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="J154" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="K154" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="L154" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>251</v>
+        <v>391</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G155" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H155" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I155" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J155" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K155" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L155" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3">
         <v>922785.29411764711</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E156" s="3">
         <f t="shared" si="2"/>
         <v>798000</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F156" s="3">
         <v>130000</v>
       </c>
-      <c r="G155" s="3">
+      <c r="G156" s="3">
         <v>130000</v>
       </c>
-      <c r="H155" s="3">
+      <c r="H156" s="3">
         <v>130000</v>
       </c>
-      <c r="I155" s="3">
+      <c r="I156" s="3">
         <v>102000</v>
       </c>
-      <c r="J155" s="3">
+      <c r="J156" s="3">
         <v>102000</v>
       </c>
-      <c r="K155" s="3">
+      <c r="K156" s="3">
         <v>102000</v>
       </c>
-      <c r="L155" s="3">
+      <c r="L156" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3">
+      <c r="C157" s="3"/>
+      <c r="D157" s="3">
         <v>240400.00000000003</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E157" s="3">
         <f t="shared" si="2"/>
         <v>159000</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F157" s="3">
         <v>22000</v>
       </c>
-      <c r="G156" s="3">
+      <c r="G157" s="3">
         <v>22000</v>
       </c>
-      <c r="H156" s="3">
+      <c r="H157" s="3">
         <v>23000</v>
       </c>
-      <c r="I156" s="3">
+      <c r="I157" s="3">
         <v>23000</v>
       </c>
-      <c r="J156" s="3">
+      <c r="J157" s="3">
         <v>23000</v>
       </c>
-      <c r="K156" s="3">
+      <c r="K157" s="3">
         <v>23000</v>
       </c>
-      <c r="L156" s="3">
+      <c r="L157" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3">
+      <c r="C158" s="3"/>
+      <c r="D158" s="3">
         <v>521050</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E158" s="3">
         <f t="shared" si="2"/>
         <v>287000</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F158" s="3">
         <v>34000</v>
       </c>
-      <c r="G157" s="3">
+      <c r="G158" s="3">
         <v>36000</v>
       </c>
-      <c r="H157" s="3">
+      <c r="H158" s="3">
         <v>46000</v>
       </c>
-      <c r="I157" s="3">
+      <c r="I158" s="3">
         <v>42000</v>
       </c>
-      <c r="J157" s="3">
+      <c r="J158" s="3">
         <v>41000</v>
       </c>
-      <c r="K157" s="3">
+      <c r="K158" s="3">
         <v>41000</v>
       </c>
-      <c r="L157" s="3">
+      <c r="L158" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3">
+      <c r="C159" s="3"/>
+      <c r="D159" s="3">
         <v>14700</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E159" s="3">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="F158" s="3">
+      <c r="F159" s="3">
         <v>1000</v>
       </c>
-      <c r="G158" s="3">
+      <c r="G159" s="3">
         <v>1000</v>
       </c>
-      <c r="H158" s="3">
+      <c r="H159" s="3">
         <v>1000</v>
       </c>
-      <c r="I158" s="3">
+      <c r="I159" s="3">
         <v>1000</v>
       </c>
-      <c r="J158" s="3">
+      <c r="J159" s="3">
         <v>1000</v>
       </c>
-      <c r="K158" s="3">
+      <c r="K159" s="3">
         <v>1000</v>
       </c>
-      <c r="L158" s="3">
+      <c r="L159" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3">
+      <c r="C160" s="3"/>
+      <c r="D160" s="3">
         <v>3845946.3922720249</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E160" s="3">
         <f t="shared" si="2"/>
         <v>2056129</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F160" s="3">
         <v>439129</v>
       </c>
-      <c r="G159" s="3">
+      <c r="G160" s="3">
         <v>284500</v>
       </c>
-      <c r="H159" s="3">
+      <c r="H160" s="3">
         <v>284500</v>
       </c>
-      <c r="I159" s="3">
+      <c r="I160" s="3">
         <v>284500</v>
       </c>
-      <c r="J159" s="3">
+      <c r="J160" s="3">
         <v>254500</v>
       </c>
-      <c r="K159" s="3">
+      <c r="K160" s="3">
         <v>254500</v>
       </c>
-      <c r="L159" s="3">
+      <c r="L160" s="3">
         <v>254500</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B161" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9">
-        <v>0</v>
-      </c>
-      <c r="E160" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-      <c r="L160" s="9"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3">
-        <v>3438000</v>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9">
+        <v>0</v>
       </c>
       <c r="E161" s="9">
         <f t="shared" si="2"/>
-        <v>660000</v>
-      </c>
-      <c r="F161" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G161" s="3">
-        <v>100000</v>
-      </c>
-      <c r="H161" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I161" s="3">
-        <v>90000</v>
-      </c>
-      <c r="J161" s="3">
-        <v>90000</v>
-      </c>
-      <c r="K161" s="3">
-        <v>90000</v>
-      </c>
-      <c r="L161" s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>263</v>
+        <v>392</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>393</v>
+        <v>262</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3">
-        <v>1081500</v>
+        <v>3438000</v>
       </c>
       <c r="E162" s="9">
         <f t="shared" si="2"/>
-        <v>210000</v>
+        <v>660000</v>
       </c>
       <c r="F162" s="3">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="G162" s="3">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="H162" s="3">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="I162" s="3">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="J162" s="3">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="K162" s="3">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="L162" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>394</v>
+        <v>263</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3">
-        <v>441000</v>
+        <v>1081500</v>
       </c>
       <c r="E163" s="9">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>210000</v>
       </c>
       <c r="F163" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G163" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="H163" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="I163" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J163" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K163" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L163" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>264</v>
+        <v>394</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>265</v>
+        <v>395</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3">
-        <v>13801182.699999997</v>
+        <v>441000</v>
       </c>
       <c r="E164" s="9">
         <f t="shared" si="2"/>
+        <v>70000</v>
+      </c>
+      <c r="F164" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G164" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H164" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I164" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J164" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K164" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L164" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3">
+        <v>13801182.699999997</v>
+      </c>
+      <c r="E165" s="9">
+        <f t="shared" si="2"/>
         <v>6440090</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F165" s="3">
         <v>884000</v>
       </c>
-      <c r="G164" s="3">
+      <c r="G165" s="3">
         <v>894000</v>
       </c>
-      <c r="H164" s="3">
+      <c r="H165" s="3">
         <v>857570</v>
       </c>
-      <c r="I164" s="3">
+      <c r="I165" s="3">
         <v>937970</v>
       </c>
-      <c r="J164" s="3">
+      <c r="J165" s="3">
         <v>950370</v>
       </c>
-      <c r="K164" s="3">
+      <c r="K165" s="3">
         <v>958850</v>
       </c>
-      <c r="L164" s="3">
+      <c r="L165" s="3">
         <v>957330</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4">
+      <c r="C166" s="4"/>
+      <c r="D166" s="4">
         <v>10906611.804767311</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E166" s="4">
         <f t="shared" si="2"/>
         <v>7000000</v>
       </c>
-      <c r="F165" s="4">
+      <c r="F166" s="4">
         <v>1000000</v>
       </c>
-      <c r="G165" s="4">
+      <c r="G166" s="4">
         <v>1000000</v>
       </c>
-      <c r="H165" s="4">
+      <c r="H166" s="4">
         <v>1000000</v>
       </c>
-      <c r="I165" s="4">
+      <c r="I166" s="4">
         <v>1000000</v>
       </c>
-      <c r="J165" s="4">
+      <c r="J166" s="4">
         <v>1000000</v>
       </c>
-      <c r="K165" s="4">
+      <c r="K166" s="4">
         <v>1000000</v>
       </c>
-      <c r="L165" s="4">
+      <c r="L166" s="4">
         <v>1000000</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3">
+      <c r="C167" s="3"/>
+      <c r="D167" s="3">
         <v>240000</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E167" s="3">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F167" s="3">
         <v>30000</v>
       </c>
-      <c r="G166" s="3">
+      <c r="G167" s="3">
         <v>20000</v>
       </c>
-      <c r="H166" s="3">
+      <c r="H167" s="3">
         <v>20000</v>
       </c>
-      <c r="I166" s="3">
+      <c r="I167" s="3">
         <v>20000</v>
       </c>
-      <c r="J166" s="3">
+      <c r="J167" s="3">
         <v>20000</v>
       </c>
-      <c r="K166" s="3">
+      <c r="K167" s="3">
         <v>20000</v>
       </c>
-      <c r="L166" s="3">
+      <c r="L167" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3">
+      <c r="C168" s="3"/>
+      <c r="D168" s="3">
         <v>4076869.6084683072</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E168" s="3">
         <f t="shared" si="2"/>
         <v>2020500</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F168" s="3">
         <v>300000</v>
       </c>
-      <c r="G167" s="3">
+      <c r="G168" s="3">
         <v>300000</v>
       </c>
-      <c r="H167" s="3">
+      <c r="H168" s="3">
         <v>330000</v>
       </c>
-      <c r="I167" s="3">
+      <c r="I168" s="3">
         <v>340500</v>
       </c>
-      <c r="J167" s="3">
+      <c r="J168" s="3">
         <v>240000</v>
       </c>
-      <c r="K167" s="3">
+      <c r="K168" s="3">
         <v>240000</v>
       </c>
-      <c r="L167" s="3">
+      <c r="L168" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3">
+      <c r="C169" s="3"/>
+      <c r="D169" s="3">
         <v>3833730.3915316919</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E169" s="3">
         <f t="shared" si="2"/>
         <v>1900000</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F169" s="3">
         <v>200000</v>
       </c>
-      <c r="G168" s="3">
+      <c r="G169" s="3">
         <v>200000</v>
       </c>
-      <c r="H168" s="3">
+      <c r="H169" s="3">
         <v>200000</v>
       </c>
-      <c r="I168" s="3">
+      <c r="I169" s="3">
         <v>300000</v>
       </c>
-      <c r="J168" s="3">
+      <c r="J169" s="3">
         <v>300000</v>
       </c>
-      <c r="K168" s="3">
+      <c r="K169" s="3">
         <v>300000</v>
       </c>
-      <c r="L168" s="3">
+      <c r="L169" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3">
+      <c r="C170" s="3"/>
+      <c r="D170" s="3">
         <v>3052187.9975861064</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E170" s="3">
         <f t="shared" si="2"/>
         <v>1400000</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F170" s="3">
         <v>200000</v>
       </c>
-      <c r="G169" s="3">
+      <c r="G170" s="3">
         <v>200000</v>
       </c>
-      <c r="H169" s="3">
+      <c r="H170" s="3">
         <v>200000</v>
       </c>
-      <c r="I169" s="3">
+      <c r="I170" s="3">
         <v>200000</v>
       </c>
-      <c r="J169" s="3">
+      <c r="J170" s="3">
         <v>200000</v>
       </c>
-      <c r="K169" s="3">
+      <c r="K170" s="3">
         <v>200000</v>
       </c>
-      <c r="L169" s="3">
+      <c r="L170" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3">
+      <c r="C171" s="3"/>
+      <c r="D171" s="3">
         <v>623000</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E171" s="3">
         <f t="shared" si="2"/>
         <v>322000</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F171" s="3">
         <v>46000</v>
       </c>
-      <c r="G170" s="3">
+      <c r="G171" s="3">
         <v>46000</v>
       </c>
-      <c r="H170" s="3">
+      <c r="H171" s="3">
         <v>46000</v>
       </c>
-      <c r="I170" s="3">
+      <c r="I171" s="3">
         <v>46000</v>
       </c>
-      <c r="J170" s="3">
+      <c r="J171" s="3">
         <v>46000</v>
       </c>
-      <c r="K170" s="3">
+      <c r="K171" s="3">
         <v>46000</v>
       </c>
-      <c r="L170" s="3">
+      <c r="L171" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3">
+      <c r="C172" s="3"/>
+      <c r="D172" s="3">
         <v>2752599.9999999995</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E172" s="3">
         <f t="shared" si="2"/>
         <v>1300000</v>
       </c>
-      <c r="F171" s="3">
+      <c r="F172" s="3">
         <v>180000</v>
       </c>
-      <c r="G171" s="3">
+      <c r="G172" s="3">
         <v>180000</v>
       </c>
-      <c r="H171" s="3">
+      <c r="H172" s="3">
         <v>180000</v>
       </c>
-      <c r="I171" s="3">
+      <c r="I172" s="3">
         <v>190000</v>
       </c>
-      <c r="J171" s="3">
+      <c r="J172" s="3">
         <v>190000</v>
       </c>
-      <c r="K171" s="3">
+      <c r="K172" s="3">
         <v>190000</v>
       </c>
-      <c r="L171" s="3">
+      <c r="L172" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3">
+      <c r="C173" s="3"/>
+      <c r="D173" s="3">
         <v>2139390</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E173" s="3">
         <f t="shared" si="2"/>
         <v>1043000</v>
       </c>
-      <c r="F172" s="3">
+      <c r="F173" s="3">
         <v>136000</v>
       </c>
-      <c r="G172" s="3">
+      <c r="G173" s="3">
         <v>136000</v>
       </c>
-      <c r="H172" s="3">
+      <c r="H173" s="3">
         <v>136000</v>
       </c>
-      <c r="I172" s="3">
+      <c r="I173" s="3">
         <v>158000</v>
       </c>
-      <c r="J172" s="3">
+      <c r="J173" s="3">
         <v>158000</v>
       </c>
-      <c r="K172" s="3">
+      <c r="K173" s="3">
         <v>158000</v>
       </c>
-      <c r="L172" s="3">
+      <c r="L173" s="3">
         <v>161000</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3">
+      <c r="C174" s="3"/>
+      <c r="D174" s="3">
         <v>3871457.4999999995</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E174" s="3">
         <f t="shared" si="2"/>
         <v>1796500</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F174" s="3">
         <v>196500</v>
       </c>
-      <c r="G173" s="3">
+      <c r="G174" s="3">
         <v>200000</v>
       </c>
-      <c r="H173" s="3">
+      <c r="H174" s="3">
         <v>200000</v>
       </c>
-      <c r="I173" s="3">
+      <c r="I174" s="3">
         <v>300000</v>
       </c>
-      <c r="J173" s="3">
+      <c r="J174" s="3">
         <v>300000</v>
       </c>
-      <c r="K173" s="3">
+      <c r="K174" s="3">
         <v>300000</v>
       </c>
-      <c r="L173" s="3">
+      <c r="L174" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3">
+      <c r="C175" s="3"/>
+      <c r="D175" s="3">
         <v>10137060</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E175" s="3">
         <f t="shared" si="2"/>
         <v>7835000</v>
       </c>
-      <c r="F174" s="3">
+      <c r="F175" s="3">
         <v>705000</v>
       </c>
-      <c r="G174" s="3">
+      <c r="G175" s="3">
         <v>765000</v>
       </c>
-      <c r="H174" s="3">
+      <c r="H175" s="3">
         <v>1243000</v>
       </c>
-      <c r="I174" s="3">
+      <c r="I175" s="3">
         <v>1243000</v>
       </c>
-      <c r="J174" s="3">
+      <c r="J175" s="3">
         <v>1293000</v>
       </c>
-      <c r="K174" s="3">
+      <c r="K175" s="3">
         <v>1293000</v>
       </c>
-      <c r="L174" s="3">
+      <c r="L175" s="3">
         <v>1293000</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3">
+      <c r="C176" s="3"/>
+      <c r="D176" s="3">
         <v>423500</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E176" s="3">
         <f t="shared" si="2"/>
         <v>70000</v>
       </c>
-      <c r="F175" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G175" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H175" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I175" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J175" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K175" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L175" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3">
-        <v>455000</v>
-      </c>
-      <c r="E176" s="3"/>
       <c r="F176" s="3">
         <v>10000</v>
       </c>
@@ -10127,160 +10133,157 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>283</v>
+        <v>400</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G177" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H177" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I177" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J177" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K177" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L177" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3">
         <v>138460</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E178" s="3">
         <f t="shared" si="2"/>
         <v>23000</v>
       </c>
-      <c r="F177" s="3">
+      <c r="F178" s="3">
         <v>2000</v>
       </c>
-      <c r="G177" s="3">
+      <c r="G178" s="3">
         <v>3000</v>
       </c>
-      <c r="H177" s="3">
+      <c r="H178" s="3">
         <v>3000</v>
       </c>
-      <c r="I177" s="3">
+      <c r="I178" s="3">
         <v>3000</v>
       </c>
-      <c r="J177" s="3">
+      <c r="J178" s="3">
         <v>4000</v>
       </c>
-      <c r="K177" s="3">
+      <c r="K178" s="3">
         <v>4000</v>
       </c>
-      <c r="L177" s="3">
+      <c r="L178" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3">
+      <c r="C179" s="3"/>
+      <c r="D179" s="3">
         <v>435600</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E179" s="3">
         <f t="shared" si="2"/>
         <v>72000</v>
       </c>
-      <c r="F178" s="3">
+      <c r="F179" s="3">
         <v>10000</v>
       </c>
-      <c r="G178" s="3">
+      <c r="G179" s="3">
         <v>10000</v>
       </c>
-      <c r="H178" s="3">
+      <c r="H179" s="3">
         <v>10000</v>
       </c>
-      <c r="I178" s="3">
+      <c r="I179" s="3">
         <v>10000</v>
       </c>
-      <c r="J178" s="3">
+      <c r="J179" s="3">
         <v>10000</v>
       </c>
-      <c r="K178" s="3">
+      <c r="K179" s="3">
         <v>10000</v>
       </c>
-      <c r="L178" s="3">
+      <c r="L179" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3">
+      <c r="C180" s="3"/>
+      <c r="D180" s="3">
         <v>1207200</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E180" s="3">
         <f t="shared" si="2"/>
         <v>198000</v>
       </c>
-      <c r="F179" s="3">
+      <c r="F180" s="3">
         <v>26000</v>
       </c>
-      <c r="G179" s="3">
+      <c r="G180" s="3">
         <v>27000</v>
       </c>
-      <c r="H179" s="3">
+      <c r="H180" s="3">
         <v>27000</v>
       </c>
-      <c r="I179" s="3">
+      <c r="I180" s="3">
         <v>27000</v>
       </c>
-      <c r="J179" s="3">
+      <c r="J180" s="3">
         <v>27000</v>
       </c>
-      <c r="K179" s="3">
+      <c r="K180" s="3">
         <v>32000</v>
       </c>
-      <c r="L179" s="3">
+      <c r="L180" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3">
-        <v>0</v>
-      </c>
-      <c r="E180" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F180" s="3">
-        <v>0</v>
-      </c>
-      <c r="G180" s="3">
-        <v>0</v>
-      </c>
-      <c r="H180" s="3">
-        <v>0</v>
-      </c>
-      <c r="I180" s="3">
-        <v>0</v>
-      </c>
-      <c r="J180" s="3">
-        <v>0</v>
-      </c>
-      <c r="K180" s="3">
-        <v>0</v>
-      </c>
-      <c r="L180" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3">
@@ -10290,20 +10293,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F181" s="3">
+        <v>0</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="3">
+        <v>0</v>
+      </c>
+      <c r="I181" s="3">
+        <v>0</v>
+      </c>
+      <c r="J181" s="3">
+        <v>0</v>
+      </c>
+      <c r="K181" s="3">
+        <v>0</v>
+      </c>
+      <c r="L181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3">
@@ -10321,12 +10338,12 @@
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>403</v>
+        <v>291</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3">
@@ -10344,18 +10361,21 @@
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3">
         <v>0</v>
       </c>
-      <c r="E184" s="3"/>
+      <c r="E184" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -10364,187 +10384,180 @@
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>293</v>
+        <v>405</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3">
+        <v>0</v>
+      </c>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3">
         <v>1260000.0000000002</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E186" s="3">
         <f t="shared" si="2"/>
         <v>9000000</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F186" s="3">
         <v>600000</v>
       </c>
-      <c r="G185" s="3">
+      <c r="G186" s="3">
         <v>1000000</v>
       </c>
-      <c r="H185" s="3">
+      <c r="H186" s="3">
         <v>1000000</v>
       </c>
-      <c r="I185" s="3">
+      <c r="I186" s="3">
         <v>1200000</v>
       </c>
-      <c r="J185" s="3">
+      <c r="J186" s="3">
         <v>2000000</v>
       </c>
-      <c r="K185" s="3">
+      <c r="K186" s="3">
         <v>1200000</v>
       </c>
-      <c r="L185" s="3">
+      <c r="L186" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3">
+      <c r="C187" s="3"/>
+      <c r="D187" s="3">
         <v>714000.00000000012</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E187" s="3">
         <f t="shared" si="2"/>
         <v>5100000</v>
       </c>
-      <c r="F186" s="3">
+      <c r="F187" s="3">
         <v>1000000</v>
       </c>
-      <c r="G186" s="3">
+      <c r="G187" s="3">
         <v>600000</v>
       </c>
-      <c r="H186" s="3">
+      <c r="H187" s="3">
         <v>600000</v>
       </c>
-      <c r="I186" s="3">
+      <c r="I187" s="3">
         <v>1000000</v>
       </c>
-      <c r="J186" s="3">
+      <c r="J187" s="3">
         <v>500000</v>
       </c>
-      <c r="K186" s="3">
+      <c r="K187" s="3">
         <v>600000</v>
       </c>
-      <c r="L186" s="3">
+      <c r="L187" s="3">
         <v>800000</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3">
+      <c r="C188" s="3"/>
+      <c r="D188" s="3">
         <v>2377500</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E188" s="3">
         <f t="shared" si="2"/>
         <v>18900000</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F188" s="3">
         <v>2400000</v>
       </c>
-      <c r="G187" s="3">
+      <c r="G188" s="3">
         <v>2200000</v>
       </c>
-      <c r="H187" s="3">
+      <c r="H188" s="3">
         <v>2400000</v>
       </c>
-      <c r="I187" s="3">
+      <c r="I188" s="3">
         <v>3600000</v>
       </c>
-      <c r="J187" s="3">
+      <c r="J188" s="3">
         <v>2100000</v>
       </c>
-      <c r="K187" s="3">
+      <c r="K188" s="3">
         <v>2400000</v>
       </c>
-      <c r="L187" s="3">
+      <c r="L188" s="3">
         <v>3800000</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3">
-        <v>624000</v>
-      </c>
-      <c r="E188" s="3">
-        <f t="shared" si="2"/>
-        <v>4800000</v>
-      </c>
-      <c r="F188" s="3">
-        <v>800000</v>
-      </c>
-      <c r="G188" s="3">
-        <v>800000</v>
-      </c>
-      <c r="H188" s="3">
-        <v>800000</v>
-      </c>
-      <c r="I188" s="3">
-        <v>800000</v>
-      </c>
-      <c r="J188" s="3">
-        <v>400000</v>
-      </c>
-      <c r="K188" s="3">
-        <v>400000</v>
-      </c>
-      <c r="L188" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3">
-        <v>432000</v>
+        <v>624000</v>
       </c>
       <c r="E189" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
-      <c r="J189" s="12"/>
-      <c r="K189" s="12"/>
-      <c r="L189" s="12"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3200000</v>
+      </c>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3">
+        <v>800000</v>
+      </c>
+      <c r="I189" s="3">
+        <v>800000</v>
+      </c>
+      <c r="J189" s="3">
+        <v>400000</v>
+      </c>
+      <c r="K189" s="3">
+        <v>400000</v>
+      </c>
+      <c r="L189" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3">
-        <v>327344.94</v>
+        <v>432000</v>
       </c>
       <c r="E190" s="3">
         <f t="shared" si="2"/>
@@ -10558,473 +10571,497 @@
       <c r="K190" s="12"/>
       <c r="L190" s="12"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3">
-        <v>237999.99999999997</v>
+        <v>327344.94</v>
       </c>
       <c r="E191" s="3">
         <f t="shared" si="2"/>
-        <v>680000</v>
-      </c>
-      <c r="F191" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G191" s="3">
-        <v>50000</v>
-      </c>
-      <c r="H191" s="3">
-        <v>50000</v>
-      </c>
-      <c r="I191" s="3">
-        <v>80000</v>
-      </c>
-      <c r="J191" s="3">
-        <v>100000</v>
-      </c>
-      <c r="K191" s="3">
-        <v>100000</v>
-      </c>
-      <c r="L191" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3">
-        <v>550800</v>
+        <v>237999.99999999997</v>
       </c>
       <c r="E192" s="3">
         <f t="shared" si="2"/>
-        <v>3240000</v>
+        <v>680000</v>
       </c>
       <c r="F192" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G192" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H192" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I192" s="3">
+        <v>80000</v>
+      </c>
+      <c r="J192" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K192" s="3">
+        <v>100000</v>
+      </c>
+      <c r="L192" s="3">
         <v>200000</v>
       </c>
-      <c r="G192" s="3">
-        <v>160000</v>
-      </c>
-      <c r="H192" s="3">
-        <v>180000</v>
-      </c>
-      <c r="I192" s="3">
-        <v>500000</v>
-      </c>
-      <c r="J192" s="3">
-        <v>600000</v>
-      </c>
-      <c r="K192" s="3">
-        <v>600000</v>
-      </c>
-      <c r="L192" s="3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3">
-        <v>0</v>
+        <v>550800</v>
       </c>
       <c r="E193" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3240000</v>
+      </c>
+      <c r="F193" s="3">
+        <v>200000</v>
+      </c>
+      <c r="G193" s="3">
+        <v>160000</v>
+      </c>
+      <c r="H193" s="3">
+        <v>180000</v>
+      </c>
+      <c r="I193" s="3">
+        <v>500000</v>
+      </c>
+      <c r="J193" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K193" s="3">
+        <v>600000</v>
+      </c>
+      <c r="L193" s="3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3">
-        <v>1456875</v>
+        <v>0</v>
       </c>
       <c r="E194" s="3">
         <f t="shared" si="2"/>
-        <v>875</v>
-      </c>
-      <c r="F194" s="3">
-        <v>125</v>
-      </c>
-      <c r="G194" s="3">
-        <v>125</v>
-      </c>
-      <c r="H194" s="3">
-        <v>125</v>
-      </c>
-      <c r="I194" s="3">
-        <v>125</v>
-      </c>
-      <c r="J194" s="3">
-        <v>125</v>
-      </c>
-      <c r="K194" s="3">
-        <v>125</v>
-      </c>
-      <c r="L194" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3">
-        <v>42500</v>
+        <v>1456875</v>
       </c>
       <c r="E195" s="3">
         <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
+        <v>875</v>
+      </c>
+      <c r="F195" s="3">
+        <v>125</v>
+      </c>
+      <c r="G195" s="3">
+        <v>125</v>
+      </c>
+      <c r="H195" s="3">
+        <v>125</v>
+      </c>
+      <c r="I195" s="3">
+        <v>125</v>
+      </c>
       <c r="J195" s="3">
-        <v>15000</v>
+        <v>125</v>
       </c>
       <c r="K195" s="3">
-        <v>15000</v>
+        <v>125</v>
       </c>
       <c r="L195" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3">
-        <v>14499.999999999998</v>
+        <v>42500</v>
       </c>
       <c r="E196" s="3">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="K196" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L196" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3">
-        <v>429600</v>
+        <v>14499.999999999998</v>
       </c>
       <c r="E197" s="3">
         <f t="shared" si="2"/>
-        <v>528000</v>
-      </c>
-      <c r="F197" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K197" s="3">
         <v>10000</v>
       </c>
-      <c r="G197" s="3">
-        <v>51000</v>
-      </c>
-      <c r="H197" s="3">
-        <v>51000</v>
-      </c>
-      <c r="I197" s="3">
-        <v>101000</v>
-      </c>
-      <c r="J197" s="3">
-        <v>105000</v>
-      </c>
-      <c r="K197" s="3">
-        <v>105000</v>
-      </c>
       <c r="L197" s="3">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3">
-        <v>17400</v>
+        <v>429600</v>
       </c>
       <c r="E198" s="3">
         <f t="shared" si="2"/>
-        <v>30000</v>
-      </c>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
+        <v>528000</v>
+      </c>
+      <c r="F198" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G198" s="3">
+        <v>51000</v>
+      </c>
+      <c r="H198" s="3">
+        <v>51000</v>
+      </c>
+      <c r="I198" s="3">
+        <v>101000</v>
+      </c>
       <c r="J198" s="3">
-        <v>10000</v>
+        <v>105000</v>
       </c>
       <c r="K198" s="3">
-        <v>10000</v>
+        <v>105000</v>
       </c>
       <c r="L198" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3">
-        <v>1029500</v>
+        <v>17400</v>
       </c>
       <c r="E199" s="3">
         <f t="shared" si="2"/>
-        <v>408000</v>
-      </c>
-      <c r="F199" s="3">
-        <v>0</v>
-      </c>
-      <c r="G199" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3">
         <v>10000</v>
       </c>
-      <c r="H199" s="3">
-        <v>27000</v>
-      </c>
-      <c r="I199" s="3">
-        <v>56000</v>
-      </c>
-      <c r="J199" s="3">
-        <v>105000</v>
-      </c>
       <c r="K199" s="3">
-        <v>105000</v>
+        <v>10000</v>
       </c>
       <c r="L199" s="3">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3">
-        <v>240000</v>
+        <v>1029500</v>
       </c>
       <c r="E200" s="3">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>408000</v>
       </c>
       <c r="F200" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G200" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="H200" s="3">
-        <v>4000</v>
+        <v>27000</v>
       </c>
       <c r="I200" s="3">
-        <v>10000</v>
+        <v>56000</v>
       </c>
       <c r="J200" s="3">
-        <v>20000</v>
+        <v>105000</v>
       </c>
       <c r="K200" s="3">
-        <v>20000</v>
+        <v>105000</v>
       </c>
       <c r="L200" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3">
-        <v>140800</v>
+        <v>240000</v>
       </c>
       <c r="E201" s="3">
-        <f t="shared" ref="E201:E204" si="3">SUM(F201:L201)</f>
-        <v>256000</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
       </c>
       <c r="F201" s="3">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="G201" s="3">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="H201" s="3">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="I201" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J201" s="3">
         <v>20000</v>
       </c>
       <c r="K201" s="3">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="L201" s="3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3">
-        <v>0</v>
+        <v>140800</v>
       </c>
       <c r="E202" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
-      <c r="L202" s="3"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E202:E205" si="3">SUM(F202:L202)</f>
+        <v>256000</v>
+      </c>
+      <c r="F202" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G202" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H202" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I202" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J202" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K202" s="3">
+        <v>60000</v>
+      </c>
+      <c r="L202" s="3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>408</v>
+        <v>322</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3">
-        <v>480000</v>
+        <v>0</v>
       </c>
       <c r="E203" s="3">
         <f t="shared" si="3"/>
-        <v>160000</v>
+        <v>0</v>
       </c>
       <c r="F203" s="3"/>
-      <c r="G203" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H203" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I203" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J203" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K203" s="3">
-        <v>30000</v>
-      </c>
-      <c r="L203" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3">
-        <v>2940000</v>
+        <v>480000</v>
       </c>
       <c r="E204" s="3">
         <f t="shared" si="3"/>
+        <v>160000</v>
+      </c>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H204" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I204" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J204" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K204" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L204" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3">
+        <v>2940000</v>
+      </c>
+      <c r="E205" s="3">
+        <f t="shared" si="3"/>
         <v>980000</v>
       </c>
-      <c r="F204" s="3">
+      <c r="F205" s="3">
         <v>100000</v>
       </c>
-      <c r="G204" s="3">
+      <c r="G205" s="3">
         <v>130000</v>
       </c>
-      <c r="H204" s="3">
+      <c r="H205" s="3">
         <v>150000</v>
       </c>
-      <c r="I204" s="3">
+      <c r="I205" s="3">
         <v>150000</v>
       </c>
-      <c r="J204" s="3">
+      <c r="J205" s="3">
         <v>150000</v>
       </c>
-      <c r="K204" s="3">
+      <c r="K205" s="3">
         <v>150000</v>
       </c>
-      <c r="L204" s="3">
+      <c r="L205" s="3">
         <v>150000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L204" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
+  <autoFilter ref="A1:L1" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\04 - 预测\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644534EB-8653-4CA9-B0EC-E5B419630D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556A0D86-F09D-49B9-ABEE-48E038C806E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1420,7 +1420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1440,7 +1440,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4029,8 +4028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}">
   <dimension ref="A1:L205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4395,7 +4394,7 @@
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -4434,7 +4433,7 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -4473,7 +4472,7 @@
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3"/>
@@ -4694,7 +4693,7 @@
       <c r="A19" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -4733,7 +4732,7 @@
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -4772,7 +4771,7 @@
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="3"/>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\04 - 预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556A0D86-F09D-49B9-ABEE-48E038C806E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644534EB-8653-4CA9-B0EC-E5B419630D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1420,7 +1420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1440,6 +1440,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4028,8 +4029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}">
   <dimension ref="A1:L205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4394,7 +4395,7 @@
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -4433,7 +4434,7 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -4472,7 +4473,7 @@
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3"/>
@@ -4693,7 +4694,7 @@
       <c r="A19" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -4732,7 +4733,7 @@
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -4771,7 +4772,7 @@
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="3"/>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\04 - 预测\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Forecast\forecast2025年\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644534EB-8653-4CA9-B0EC-E5B419630D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DF66DE-F9D7-4680-B15E-005410B430FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="2124" windowWidth="23040" windowHeight="12204" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="东部" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$204</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">东部!$A$1:$W$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="411">
   <si>
     <t>产品型号</t>
   </si>
@@ -1310,10 +1310,6 @@
   </si>
   <si>
     <t>NA.SC60226SS-DC</t>
-  </si>
-  <si>
-    <t>SC2442SO-N-Q-CP-10CR-2442</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1420,7 +1416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1440,7 +1436,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1728,22 +1723,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.625" hidden="1" customWidth="1"/>
-    <col min="15" max="22" width="10.5" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="22" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1809,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3100</v>
       </c>
@@ -1877,7 +1872,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>193</v>
       </c>
@@ -1936,7 +1931,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -1999,7 +1994,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
@@ -2062,7 +2057,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>198</v>
       </c>
@@ -2125,7 +2120,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>200</v>
       </c>
@@ -2188,7 +2183,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>200</v>
       </c>
@@ -2251,7 +2246,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
@@ -2314,7 +2309,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
@@ -2377,7 +2372,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
@@ -2440,7 +2435,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>208</v>
       </c>
@@ -2503,7 +2498,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>210</v>
       </c>
@@ -2566,7 +2561,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>212</v>
       </c>
@@ -2623,7 +2618,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>214</v>
       </c>
@@ -2686,7 +2681,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>216</v>
       </c>
@@ -2749,7 +2744,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>218</v>
       </c>
@@ -2812,7 +2807,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>218</v>
       </c>
@@ -2875,7 +2870,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>221</v>
       </c>
@@ -2938,7 +2933,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>227</v>
       </c>
@@ -3001,7 +2996,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>229</v>
       </c>
@@ -3064,7 +3059,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>230</v>
       </c>
@@ -3127,7 +3122,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>231</v>
       </c>
@@ -3190,7 +3185,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>233</v>
       </c>
@@ -3253,7 +3248,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>235</v>
       </c>
@@ -3316,7 +3311,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -3379,7 +3374,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -3442,7 +3437,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>120</v>
       </c>
@@ -3505,7 +3500,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -3568,7 +3563,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>126</v>
       </c>
@@ -3623,7 +3618,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -3686,7 +3681,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
@@ -3749,7 +3744,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>147</v>
       </c>
@@ -3812,7 +3807,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
@@ -3867,7 +3862,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>163</v>
       </c>
@@ -3916,7 +3911,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>289</v>
       </c>
@@ -3965,7 +3960,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>291</v>
       </c>
@@ -4027,24 +4022,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}">
-  <dimension ref="A1:L205"/>
+  <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4082,7 +4077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>3100</v>
       </c>
@@ -4119,7 +4114,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4156,7 +4151,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>353</v>
       </c>
@@ -4193,7 +4188,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -4218,7 +4213,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -4255,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>355</v>
       </c>
@@ -4292,7 +4287,7 @@
         <v>370000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>357</v>
       </c>
@@ -4317,7 +4312,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -4354,7 +4349,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -4391,11 +4386,11 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -4430,11 +4425,11 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -4469,11 +4464,11 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3"/>
@@ -4506,7 +4501,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -4543,7 +4538,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -4580,7 +4575,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -4619,7 +4614,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -4656,7 +4651,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -4690,11 +4685,11 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -4729,11 +4724,11 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -4768,11 +4763,11 @@
         <v>221000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="3"/>
@@ -4805,7 +4800,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4842,7 +4837,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -4879,7 +4874,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -4918,7 +4913,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -4947,7 +4942,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -4984,7 +4979,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -5021,7 +5016,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -5058,7 +5053,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5095,7 +5090,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -5118,7 +5113,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -5141,7 +5136,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -5164,7 +5159,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
@@ -5201,7 +5196,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -5238,7 +5233,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
@@ -5275,7 +5270,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
@@ -5312,7 +5307,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -5349,7 +5344,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -5386,7 +5381,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
@@ -5423,7 +5418,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -5460,7 +5455,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -5485,7 +5480,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -5514,7 +5509,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>69</v>
       </c>
@@ -5551,7 +5546,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -5588,7 +5583,7 @@
         <v>4335000</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
@@ -5617,7 +5612,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>71</v>
       </c>
@@ -5654,7 +5649,7 @@
         <v>2172000</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>75</v>
       </c>
@@ -5691,7 +5686,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -5728,7 +5723,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>364</v>
       </c>
@@ -5750,7 +5745,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>75</v>
       </c>
@@ -5787,7 +5782,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>75</v>
       </c>
@@ -5816,7 +5811,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>80</v>
       </c>
@@ -5853,7 +5848,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>82</v>
       </c>
@@ -5890,7 +5885,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>84</v>
       </c>
@@ -5927,7 +5922,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>86</v>
       </c>
@@ -5964,7 +5959,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
@@ -6001,7 +5996,7 @@
         <v>363000</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>88</v>
       </c>
@@ -6021,7 +6016,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>367</v>
       </c>
@@ -6044,7 +6039,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>91</v>
       </c>
@@ -6081,7 +6076,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>93</v>
       </c>
@@ -6118,7 +6113,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -6155,7 +6150,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>97</v>
       </c>
@@ -6186,7 +6181,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>98</v>
       </c>
@@ -6213,7 +6208,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>100</v>
       </c>
@@ -6250,7 +6245,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>102</v>
       </c>
@@ -6287,7 +6282,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>104</v>
       </c>
@@ -6324,7 +6319,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>106</v>
       </c>
@@ -6361,7 +6356,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>108</v>
       </c>
@@ -6373,995 +6368,983 @@
         <v>4580189.5734597156</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" ref="E68:E132" si="1">SUM(F68:L68)</f>
-        <v>2360000</v>
-      </c>
-      <c r="F68" s="12">
-        <v>240000</v>
-      </c>
-      <c r="G68" s="12">
-        <v>240000</v>
-      </c>
-      <c r="H68" s="12">
-        <v>360000</v>
-      </c>
-      <c r="I68" s="12">
-        <v>360000</v>
-      </c>
-      <c r="J68" s="12">
-        <v>400000</v>
-      </c>
-      <c r="K68" s="12">
-        <v>360000</v>
-      </c>
-      <c r="L68" s="12">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E68:E131" si="1">SUM(F68:L68)</f>
+        <v>12600000</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="K68" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>411</v>
+        <v>111</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="3">
+        <v>327500</v>
+      </c>
       <c r="E69" s="3">
         <f t="shared" si="1"/>
-        <v>16800000</v>
-      </c>
-      <c r="F69" s="12">
-        <v>2400000</v>
-      </c>
-      <c r="G69" s="12">
-        <v>2400000</v>
-      </c>
-      <c r="H69" s="12">
-        <v>2400000</v>
-      </c>
-      <c r="I69" s="12">
-        <v>2400000</v>
-      </c>
-      <c r="J69" s="12">
-        <v>2400000</v>
-      </c>
-      <c r="K69" s="12">
-        <v>2400000</v>
-      </c>
-      <c r="L69" s="12">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1310000</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3">
+        <v>402000</v>
+      </c>
+      <c r="I69" s="3">
+        <v>212000</v>
+      </c>
+      <c r="J69" s="3">
+        <v>242000</v>
+      </c>
+      <c r="K69" s="3">
+        <v>212000</v>
+      </c>
+      <c r="L69" s="3">
+        <v>242000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3">
-        <v>327500</v>
+        <v>4641231.9958311617</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="1"/>
-        <v>1310000</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+        <v>14700000</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2100000</v>
+      </c>
       <c r="H70" s="3">
-        <v>402000</v>
+        <v>2100000</v>
       </c>
       <c r="I70" s="3">
-        <v>212000</v>
+        <v>2100000</v>
       </c>
       <c r="J70" s="3">
-        <v>242000</v>
+        <v>2100000</v>
       </c>
       <c r="K70" s="3">
-        <v>212000</v>
+        <v>2100000</v>
       </c>
       <c r="L70" s="3">
-        <v>242000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>4641231.9958311617</v>
+        <v>1089640</v>
       </c>
       <c r="E71" s="3">
         <f t="shared" si="1"/>
-        <v>2800000</v>
-      </c>
-      <c r="F71" s="12">
-        <v>400000</v>
-      </c>
-      <c r="G71" s="12">
-        <v>400000</v>
-      </c>
-      <c r="H71" s="12">
-        <v>400000</v>
-      </c>
-      <c r="I71" s="12">
-        <v>400000</v>
-      </c>
-      <c r="J71" s="12">
-        <v>400000</v>
-      </c>
-      <c r="K71" s="12">
-        <v>400000</v>
-      </c>
-      <c r="L71" s="12">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2849000</v>
+      </c>
+      <c r="F71" s="3">
+        <v>467000</v>
+      </c>
+      <c r="G71" s="3">
+        <v>272000</v>
+      </c>
+      <c r="H71" s="3">
+        <v>272000</v>
+      </c>
+      <c r="I71" s="3">
+        <v>472000</v>
+      </c>
+      <c r="J71" s="3">
+        <v>402000</v>
+      </c>
+      <c r="K71" s="3">
+        <v>382000</v>
+      </c>
+      <c r="L71" s="3">
+        <v>582000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3">
-        <v>1089640</v>
+        <v>2896908</v>
       </c>
       <c r="E72" s="3">
         <f t="shared" si="1"/>
-        <v>2849000</v>
+        <v>7677900</v>
       </c>
       <c r="F72" s="3">
-        <v>467000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>272000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>272000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>472000</v>
+        <v>989000</v>
+      </c>
+      <c r="G72" s="12">
+        <f>771400-180000</f>
+        <v>591400</v>
+      </c>
+      <c r="H72" s="12">
+        <f>1003000-180000</f>
+        <v>823000</v>
+      </c>
+      <c r="I72" s="12">
+        <f>1281500-180000</f>
+        <v>1101500</v>
       </c>
       <c r="J72" s="3">
-        <v>402000</v>
+        <v>1321000</v>
       </c>
       <c r="K72" s="3">
-        <v>382000</v>
+        <v>1426000</v>
       </c>
       <c r="L72" s="3">
-        <v>582000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1426000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3">
-        <v>2896908</v>
+        <v>634280</v>
       </c>
       <c r="E73" s="3">
         <f t="shared" si="1"/>
-        <v>7677900</v>
+        <v>2094000</v>
       </c>
       <c r="F73" s="3">
-        <v>989000</v>
-      </c>
-      <c r="G73" s="12">
-        <f>771400-180000</f>
-        <v>591400</v>
-      </c>
-      <c r="H73" s="12">
-        <f>1003000-180000</f>
-        <v>823000</v>
-      </c>
-      <c r="I73" s="12">
-        <f>1281500-180000</f>
-        <v>1101500</v>
+        <v>272000</v>
+      </c>
+      <c r="G73" s="3">
+        <v>282000</v>
+      </c>
+      <c r="H73" s="3">
+        <v>342000</v>
+      </c>
+      <c r="I73" s="3">
+        <v>292000</v>
       </c>
       <c r="J73" s="3">
-        <v>1321000</v>
+        <v>302000</v>
       </c>
       <c r="K73" s="3">
-        <v>1426000</v>
+        <v>302000</v>
       </c>
       <c r="L73" s="3">
-        <v>1426000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+        <v>302000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3">
-        <v>634280</v>
+        <v>0</v>
       </c>
       <c r="E74" s="3">
         <f t="shared" si="1"/>
-        <v>2094000</v>
-      </c>
-      <c r="F74" s="3">
-        <v>272000</v>
-      </c>
-      <c r="G74" s="3">
-        <v>282000</v>
-      </c>
-      <c r="H74" s="3">
-        <v>342000</v>
-      </c>
-      <c r="I74" s="3">
-        <v>292000</v>
-      </c>
-      <c r="J74" s="3">
-        <v>302000</v>
-      </c>
-      <c r="K74" s="3">
-        <v>302000</v>
-      </c>
-      <c r="L74" s="3">
-        <v>302000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3">
-        <v>0</v>
+        <v>1001250.0000000001</v>
       </c>
       <c r="E75" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3115000</v>
+      </c>
+      <c r="F75" s="3">
+        <v>365000</v>
+      </c>
+      <c r="G75" s="3">
+        <v>365000</v>
+      </c>
+      <c r="H75" s="3">
+        <v>365000</v>
+      </c>
+      <c r="I75" s="3">
+        <v>505000</v>
+      </c>
+      <c r="J75" s="3">
+        <v>505000</v>
+      </c>
+      <c r="K75" s="3">
+        <v>505000</v>
+      </c>
+      <c r="L75" s="3">
+        <v>505000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>368</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>121</v>
+        <v>369</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3">
-        <v>1001250.0000000001</v>
+        <v>7500</v>
       </c>
       <c r="E76" s="3">
         <f t="shared" si="1"/>
-        <v>3115000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>365000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>365000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>365000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>505000</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
       <c r="J76" s="3">
-        <v>505000</v>
+        <v>5000</v>
       </c>
       <c r="K76" s="3">
-        <v>505000</v>
+        <v>5000</v>
       </c>
       <c r="L76" s="3">
-        <v>505000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>368</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3">
-        <v>7500</v>
+        <v>1125260</v>
       </c>
       <c r="E77" s="3">
         <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+        <v>2343000</v>
+      </c>
+      <c r="F77" s="3">
+        <v>249000</v>
+      </c>
+      <c r="G77" s="3">
+        <v>259000</v>
+      </c>
+      <c r="H77" s="3">
+        <v>262000</v>
+      </c>
+      <c r="I77" s="3">
+        <v>326000</v>
+      </c>
       <c r="J77" s="3">
-        <v>5000</v>
+        <v>371000</v>
       </c>
       <c r="K77" s="3">
-        <v>5000</v>
+        <v>428000</v>
       </c>
       <c r="L77" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+        <v>448000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3">
-        <v>1125260</v>
+        <v>3736320</v>
       </c>
       <c r="E78" s="3">
         <f t="shared" si="1"/>
-        <v>2343000</v>
+        <v>5866000</v>
       </c>
       <c r="F78" s="3">
-        <v>249000</v>
+        <v>835000</v>
       </c>
       <c r="G78" s="3">
-        <v>259000</v>
+        <v>835000</v>
       </c>
       <c r="H78" s="3">
-        <v>262000</v>
+        <v>838000</v>
       </c>
       <c r="I78" s="3">
-        <v>326000</v>
+        <v>838000</v>
       </c>
       <c r="J78" s="3">
-        <v>371000</v>
+        <v>840000</v>
       </c>
       <c r="K78" s="3">
-        <v>428000</v>
+        <v>840000</v>
       </c>
       <c r="L78" s="3">
-        <v>448000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>370</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3">
-        <v>3736320</v>
+        <v>467820.00000000006</v>
       </c>
       <c r="E79" s="3">
         <f t="shared" si="1"/>
-        <v>5866000</v>
-      </c>
-      <c r="F79" s="3">
-        <v>835000</v>
-      </c>
+        <v>900000</v>
+      </c>
+      <c r="F79" s="3"/>
       <c r="G79" s="3">
-        <v>835000</v>
+        <v>150000</v>
       </c>
       <c r="H79" s="3">
-        <v>838000</v>
+        <v>150000</v>
       </c>
       <c r="I79" s="3">
-        <v>838000</v>
+        <v>150000</v>
       </c>
       <c r="J79" s="3">
-        <v>840000</v>
+        <v>150000</v>
       </c>
       <c r="K79" s="3">
-        <v>840000</v>
+        <v>150000</v>
       </c>
       <c r="L79" s="3">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>370</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>371</v>
+        <v>125</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
-        <v>467820.00000000006</v>
+        <v>3262375.3</v>
       </c>
       <c r="E80" s="3">
         <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-      <c r="F80" s="3"/>
+        <v>8055948</v>
+      </c>
+      <c r="F80" s="3">
+        <v>944384</v>
+      </c>
       <c r="G80" s="3">
-        <v>150000</v>
+        <v>991156</v>
       </c>
       <c r="H80" s="3">
-        <v>150000</v>
+        <v>976336</v>
       </c>
       <c r="I80" s="3">
-        <v>150000</v>
+        <v>1037872</v>
       </c>
       <c r="J80" s="3">
-        <v>150000</v>
+        <v>1197200</v>
       </c>
       <c r="K80" s="3">
-        <v>150000</v>
+        <v>1447000</v>
       </c>
       <c r="L80" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1462000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3">
-        <v>3262375.3</v>
+        <v>110000.00000000001</v>
       </c>
       <c r="E81" s="3">
         <f t="shared" si="1"/>
-        <v>8055948</v>
-      </c>
-      <c r="F81" s="3">
-        <v>944384</v>
-      </c>
-      <c r="G81" s="3">
-        <v>991156</v>
-      </c>
-      <c r="H81" s="3">
-        <v>976336</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1037872</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1197200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1447000</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
       <c r="L81" s="3">
-        <v>1462000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3">
-        <v>110000.00000000001</v>
+        <v>19800</v>
       </c>
       <c r="E82" s="3">
         <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+        <v>36000</v>
+      </c>
+      <c r="F82" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G82" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H82" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I82" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J82" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K82" s="3">
+        <v>5000</v>
+      </c>
       <c r="L82" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3">
-        <v>19800</v>
+        <v>294000.00000000006</v>
       </c>
       <c r="E83" s="3">
         <f t="shared" si="1"/>
-        <v>36000</v>
+        <v>1050000</v>
       </c>
       <c r="F83" s="3">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="G83" s="3">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="H83" s="3">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="I83" s="3">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="J83" s="3">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="K83" s="3">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="L83" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3">
-        <v>294000.00000000006</v>
+        <v>332117.14589989354</v>
       </c>
       <c r="E84" s="3">
         <f t="shared" si="1"/>
-        <v>1050000</v>
+        <v>844000</v>
       </c>
       <c r="F84" s="3">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="G84" s="3">
-        <v>150000</v>
+        <v>128000</v>
       </c>
       <c r="H84" s="3">
-        <v>150000</v>
+        <v>128000</v>
       </c>
       <c r="I84" s="3">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="J84" s="3">
-        <v>150000</v>
+        <v>133000</v>
       </c>
       <c r="K84" s="3">
-        <v>150000</v>
+        <v>145000</v>
       </c>
       <c r="L84" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3">
-        <v>332117.14589989354</v>
+        <v>462500</v>
       </c>
       <c r="E85" s="3">
         <f t="shared" si="1"/>
-        <v>844000</v>
+        <v>1850000</v>
       </c>
       <c r="F85" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G85" s="3">
-        <v>128000</v>
+        <v>300000</v>
       </c>
       <c r="H85" s="3">
-        <v>128000</v>
+        <v>300000</v>
       </c>
       <c r="I85" s="3">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="J85" s="3">
-        <v>133000</v>
+        <v>300000</v>
       </c>
       <c r="K85" s="3">
-        <v>145000</v>
+        <v>300000</v>
       </c>
       <c r="L85" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3">
-        <v>462500</v>
+        <v>312000</v>
       </c>
       <c r="E86" s="3">
         <f t="shared" si="1"/>
-        <v>1850000</v>
+        <v>1200000</v>
       </c>
       <c r="F86" s="3">
-        <v>50000</v>
+        <v>400000</v>
       </c>
       <c r="G86" s="3">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="H86" s="3">
-        <v>300000</v>
-      </c>
-      <c r="I86" s="3">
-        <v>300000</v>
-      </c>
-      <c r="J86" s="3">
-        <v>300000</v>
-      </c>
-      <c r="K86" s="3">
-        <v>300000</v>
-      </c>
-      <c r="L86" s="3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+        <v>400000</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3">
-        <v>312000</v>
+        <v>580873.84615384624</v>
       </c>
       <c r="E87" s="3">
         <f t="shared" si="1"/>
-        <v>1200000</v>
+        <v>2208000</v>
       </c>
       <c r="F87" s="3">
-        <v>400000</v>
+        <v>990000</v>
       </c>
       <c r="G87" s="3">
-        <v>400000</v>
+        <v>3000</v>
       </c>
       <c r="H87" s="3">
-        <v>400000</v>
-      </c>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+        <v>303000</v>
+      </c>
+      <c r="I87" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J87" s="3">
+        <v>303000</v>
+      </c>
+      <c r="K87" s="3">
+        <v>303000</v>
+      </c>
+      <c r="L87" s="3">
+        <v>303000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3">
-        <v>580873.84615384624</v>
+        <v>200000</v>
       </c>
       <c r="E88" s="3">
         <f t="shared" si="1"/>
-        <v>1008000</v>
+        <v>695000</v>
       </c>
       <c r="F88" s="3">
-        <v>990000</v>
-      </c>
-      <c r="G88" s="12">
-        <v>3000</v>
-      </c>
-      <c r="H88" s="12">
-        <v>3000</v>
-      </c>
-      <c r="I88" s="12">
-        <v>3000</v>
-      </c>
-      <c r="J88" s="12">
-        <v>3000</v>
-      </c>
-      <c r="K88" s="12">
-        <v>3000</v>
-      </c>
-      <c r="L88" s="12">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+        <v>100000</v>
+      </c>
+      <c r="G88" s="3">
+        <v>65000</v>
+      </c>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3">
+        <v>150000</v>
+      </c>
+      <c r="J88" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K88" s="3">
+        <v>100000</v>
+      </c>
+      <c r="L88" s="3">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3">
-        <v>200000</v>
+        <v>3468000</v>
       </c>
       <c r="E89" s="3">
         <f t="shared" si="1"/>
-        <v>695000</v>
+        <v>6800000</v>
       </c>
       <c r="F89" s="3">
-        <v>100000</v>
+        <v>800000</v>
       </c>
       <c r="G89" s="3">
-        <v>65000</v>
-      </c>
-      <c r="H89" s="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1000000</v>
+      </c>
       <c r="I89" s="3">
-        <v>150000</v>
+        <v>1000000</v>
       </c>
       <c r="J89" s="3">
-        <v>115000</v>
+        <v>1000000</v>
       </c>
       <c r="K89" s="3">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="L89" s="3">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3">
-        <v>3468000</v>
+        <v>4410100</v>
       </c>
       <c r="E90" s="3">
         <f t="shared" si="1"/>
-        <v>6800000</v>
+        <v>7670000</v>
       </c>
       <c r="F90" s="3">
-        <v>800000</v>
+        <v>680000</v>
       </c>
       <c r="G90" s="3">
-        <v>1000000</v>
+        <v>1010000</v>
       </c>
       <c r="H90" s="3">
-        <v>1000000</v>
+        <v>1010000</v>
       </c>
       <c r="I90" s="3">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="J90" s="3">
-        <v>1000000</v>
+        <v>1110000</v>
       </c>
       <c r="K90" s="3">
-        <v>1000000</v>
+        <v>1170000</v>
       </c>
       <c r="L90" s="3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3">
-        <v>4410100</v>
+        <v>371360</v>
       </c>
       <c r="E91" s="3">
         <f t="shared" si="1"/>
-        <v>7670000</v>
+        <v>480000</v>
       </c>
       <c r="F91" s="3">
-        <v>680000</v>
+        <v>40000</v>
       </c>
       <c r="G91" s="3">
-        <v>1010000</v>
+        <v>60000</v>
       </c>
       <c r="H91" s="3">
-        <v>1010000</v>
+        <v>80000</v>
       </c>
       <c r="I91" s="3">
-        <v>1160000</v>
+        <v>70000</v>
       </c>
       <c r="J91" s="3">
-        <v>1110000</v>
+        <v>70000</v>
       </c>
       <c r="K91" s="3">
-        <v>1170000</v>
+        <v>70000</v>
       </c>
       <c r="L91" s="3">
-        <v>1530000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3">
-        <v>371360</v>
+        <v>398300</v>
       </c>
       <c r="E92" s="3">
         <f t="shared" si="1"/>
-        <v>480000</v>
+        <v>665000</v>
       </c>
       <c r="F92" s="3">
-        <v>40000</v>
+        <v>95000</v>
       </c>
       <c r="G92" s="3">
-        <v>60000</v>
+        <v>95000</v>
       </c>
       <c r="H92" s="3">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="I92" s="3">
-        <v>70000</v>
+        <v>95000</v>
       </c>
       <c r="J92" s="3">
-        <v>70000</v>
+        <v>95000</v>
       </c>
       <c r="K92" s="3">
-        <v>70000</v>
+        <v>95000</v>
       </c>
       <c r="L92" s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3">
-        <v>398300</v>
+        <v>7200</v>
       </c>
       <c r="E93" s="3">
         <f t="shared" si="1"/>
-        <v>665000</v>
+        <v>10000</v>
       </c>
       <c r="F93" s="3">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="G93" s="3">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="H93" s="3">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="I93" s="3">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="J93" s="3">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="K93" s="3">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="L93" s="3">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3">
-        <v>7200</v>
+        <v>502260</v>
       </c>
       <c r="E94" s="3">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>746000</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>83000</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="L94" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3">
-        <v>502260</v>
+        <v>0</v>
       </c>
       <c r="E95" s="3">
         <f t="shared" si="1"/>
-        <v>746000</v>
-      </c>
-      <c r="F95" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G95" s="3">
-        <v>83000</v>
-      </c>
-      <c r="H95" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I95" s="3">
-        <v>85000</v>
-      </c>
-      <c r="J95" s="3">
-        <v>140000</v>
-      </c>
-      <c r="K95" s="3">
-        <v>150000</v>
-      </c>
-      <c r="L95" s="3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="E96" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -7369,142 +7352,142 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3">
-        <v>3750</v>
+        <v>88000</v>
       </c>
       <c r="E97" s="3">
         <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+        <v>160000</v>
+      </c>
+      <c r="F97" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G97" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H97" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I97" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J97" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K97" s="3">
+        <v>30000</v>
+      </c>
       <c r="L97" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3">
-        <v>88000</v>
+        <v>810</v>
       </c>
       <c r="E98" s="3">
         <f t="shared" si="1"/>
-        <v>160000</v>
-      </c>
-      <c r="F98" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G98" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H98" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I98" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J98" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K98" s="3">
-        <v>30000</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
       <c r="L98" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3">
-        <v>810</v>
+        <v>13520</v>
       </c>
       <c r="E99" s="3">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>26000</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
+      <c r="J99" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K99" s="3">
+        <v>8000</v>
+      </c>
       <c r="L99" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3">
-        <v>13520</v>
+        <v>320625</v>
       </c>
       <c r="E100" s="3">
         <f t="shared" si="1"/>
-        <v>26000</v>
-      </c>
-      <c r="F100" s="3"/>
+        <v>1125000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1125000</v>
+      </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
-      <c r="J100" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K100" s="3">
-        <v>8000</v>
-      </c>
-      <c r="L100" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>164</v>
+        <v>372</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3">
-        <v>320625</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <f t="shared" si="1"/>
-        <v>1125000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1125000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -7512,562 +7495,572 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>372</v>
+        <v>167</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>418999.99999999994</v>
       </c>
       <c r="E102" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2310000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>90000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>880000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>90000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>90000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>880000</v>
+      </c>
+      <c r="K102" s="3">
+        <v>90000</v>
+      </c>
+      <c r="L102" s="3">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3">
-        <v>418999.99999999994</v>
+        <v>418035</v>
       </c>
       <c r="E103" s="3">
         <f t="shared" si="1"/>
-        <v>2310000</v>
+        <v>584500</v>
       </c>
       <c r="F103" s="3">
-        <v>90000</v>
+        <v>100500</v>
       </c>
       <c r="G103" s="3">
-        <v>880000</v>
+        <v>86000</v>
       </c>
       <c r="H103" s="3">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="I103" s="3">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J103" s="3">
-        <v>880000</v>
+        <v>70000</v>
       </c>
       <c r="K103" s="3">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="L103" s="3">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3">
-        <v>418035</v>
+        <v>175000</v>
       </c>
       <c r="E104" s="3">
         <f t="shared" si="1"/>
-        <v>584500</v>
+        <v>350000</v>
       </c>
       <c r="F104" s="3">
-        <v>100500</v>
+        <v>50000</v>
       </c>
       <c r="G104" s="3">
-        <v>86000</v>
+        <v>50000</v>
       </c>
       <c r="H104" s="3">
-        <v>110000</v>
+        <v>50000</v>
       </c>
       <c r="I104" s="3">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="J104" s="3">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="K104" s="3">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="L104" s="3">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3">
-        <v>175000</v>
+        <v>89100</v>
       </c>
       <c r="E105" s="3">
         <f t="shared" si="1"/>
-        <v>350000</v>
+        <v>180000</v>
       </c>
       <c r="F105" s="3">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G105" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="H105" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="I105" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="J105" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K105" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L105" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>170</v>
+        <v>373</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3">
-        <v>89100</v>
+        <v>400000</v>
       </c>
       <c r="E106" s="3">
         <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
       </c>
       <c r="G106" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I106" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J106" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K106" s="3">
-        <v>30000</v>
-      </c>
-      <c r="L106" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>373</v>
+        <v>174</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3">
-        <v>400000</v>
+        <v>385846.15384615387</v>
       </c>
       <c r="E107" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="F107" s="3">
-        <v>0</v>
+        <v>690000</v>
       </c>
       <c r="G107" s="3">
-        <v>0</v>
+        <v>245000</v>
       </c>
       <c r="H107" s="3">
-        <v>0</v>
-      </c>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+        <v>245000</v>
+      </c>
+      <c r="I107" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J107" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K107" s="3">
+        <v>260000</v>
+      </c>
+      <c r="L107" s="3">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>174</v>
+        <v>374</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3">
-        <v>385846.15384615387</v>
+        <v>3710000</v>
       </c>
       <c r="E108" s="3">
         <f t="shared" si="1"/>
-        <v>2200000</v>
+        <v>14000000</v>
       </c>
       <c r="F108" s="3">
-        <v>690000</v>
+        <v>2000000</v>
       </c>
       <c r="G108" s="3">
-        <v>245000</v>
+        <v>2000000</v>
       </c>
       <c r="H108" s="3">
-        <v>245000</v>
+        <v>2000000</v>
       </c>
       <c r="I108" s="3">
-        <v>250000</v>
+        <v>2000000</v>
       </c>
       <c r="J108" s="3">
-        <v>250000</v>
+        <v>2000000</v>
       </c>
       <c r="K108" s="3">
-        <v>260000</v>
+        <v>2000000</v>
       </c>
       <c r="L108" s="3">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C109" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="D109" s="3">
-        <v>3710000</v>
+        <v>2100000</v>
       </c>
       <c r="E109" s="3">
         <f t="shared" si="1"/>
-        <v>14000000</v>
-      </c>
-      <c r="F109" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="G109" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="H109" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="I109" s="3">
-        <v>2000000</v>
-      </c>
+        <v>15000000</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
       <c r="J109" s="3">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="K109" s="3">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="L109" s="3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>376</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C110" s="3"/>
       <c r="D110" s="3">
-        <v>2100000</v>
+        <v>0</v>
       </c>
       <c r="E110" s="3">
         <f t="shared" si="1"/>
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-      <c r="J110" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="K110" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="L110" s="3">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3">
-        <v>0</v>
+        <v>112000.00000000001</v>
       </c>
       <c r="E111" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+        <v>800000</v>
+      </c>
+      <c r="F111" s="3">
+        <v>200000</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K111" s="3">
+        <v>200000</v>
+      </c>
+      <c r="L111" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3">
-        <v>112000.00000000001</v>
+        <v>24150</v>
       </c>
       <c r="E112" s="3">
         <f t="shared" si="1"/>
-        <v>800000</v>
+        <v>105000</v>
       </c>
       <c r="F112" s="3">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="G112" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="H112" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I112" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J112" s="3">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="K112" s="3">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="L112" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3">
-        <v>24150</v>
+        <v>21840</v>
       </c>
       <c r="E113" s="3">
         <f t="shared" si="1"/>
-        <v>105000</v>
+        <v>84000</v>
       </c>
       <c r="F113" s="3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="G113" s="3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="H113" s="3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="I113" s="3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="J113" s="3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="K113" s="3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L113" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3">
-        <v>21840</v>
-      </c>
-      <c r="E114" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9">
+        <v>0</v>
+      </c>
+      <c r="E114" s="9">
         <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-      <c r="F114" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G114" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H114" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I114" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J114" s="3">
-        <v>12000</v>
-      </c>
-      <c r="K114" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L114" s="3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9">
-        <v>0</v>
-      </c>
-      <c r="E115" s="9">
+        <v>0</v>
+      </c>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D115" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="E115" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6000000</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="K115" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="L115" s="3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>377</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C116" s="3"/>
       <c r="D116" s="3">
-        <v>6000000</v>
+        <v>1512000</v>
       </c>
       <c r="E116" s="3">
         <f t="shared" si="1"/>
-        <v>6000000</v>
-      </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
+        <v>2800000</v>
+      </c>
+      <c r="F116" s="3">
+        <v>400000</v>
+      </c>
+      <c r="G116" s="3">
+        <v>400000</v>
+      </c>
+      <c r="H116" s="3">
+        <v>400000</v>
+      </c>
+      <c r="I116" s="3">
+        <v>400000</v>
+      </c>
       <c r="J116" s="3">
-        <v>2000000</v>
+        <v>400000</v>
       </c>
       <c r="K116" s="3">
-        <v>2000000</v>
+        <v>400000</v>
       </c>
       <c r="L116" s="3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3">
-        <v>1512000</v>
+        <v>140000</v>
       </c>
       <c r="E117" s="3">
         <f t="shared" si="1"/>
-        <v>2800000</v>
+        <v>140000</v>
       </c>
       <c r="F117" s="3">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="G117" s="3">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="H117" s="3">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="I117" s="3">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="J117" s="3">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="K117" s="3">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="L117" s="3">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3">
-        <v>140000</v>
+        <v>224000</v>
       </c>
       <c r="E118" s="3">
         <f t="shared" si="1"/>
-        <v>140000</v>
-      </c>
-      <c r="F118" s="3">
-        <v>20000</v>
-      </c>
-      <c r="G118" s="3">
-        <v>20000</v>
-      </c>
+        <v>80000</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
       <c r="H118" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I118" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J118" s="3">
         <v>20000</v>
@@ -8079,836 +8072,836 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3">
-        <v>224000</v>
+        <v>3615999.9999999995</v>
       </c>
       <c r="E119" s="3">
         <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
+        <v>2000000</v>
+      </c>
+      <c r="F119" s="3">
+        <v>800000</v>
+      </c>
+      <c r="G119" s="3">
+        <v>300000</v>
+      </c>
       <c r="H119" s="3">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="I119" s="3">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="J119" s="3">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="K119" s="3">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="L119" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3">
-        <v>3615999.9999999995</v>
+        <v>313235.99999999994</v>
       </c>
       <c r="E120" s="3">
         <f t="shared" si="1"/>
-        <v>2000000</v>
+        <v>140000</v>
       </c>
       <c r="F120" s="3">
-        <v>800000</v>
+        <v>20000</v>
       </c>
       <c r="G120" s="3">
-        <v>300000</v>
+        <v>20000</v>
       </c>
       <c r="H120" s="3">
-        <v>150000</v>
+        <v>20000</v>
       </c>
       <c r="I120" s="3">
-        <v>150000</v>
+        <v>20000</v>
       </c>
       <c r="J120" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="K120" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="L120" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3">
-        <v>313235.99999999994</v>
+        <v>78308.999999999985</v>
       </c>
       <c r="E121" s="3">
         <f t="shared" si="1"/>
-        <v>140000</v>
+        <v>35000</v>
       </c>
       <c r="F121" s="3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="G121" s="3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H121" s="3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="I121" s="3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="J121" s="3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="K121" s="3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="L121" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3">
-        <v>78308.999999999985</v>
+        <v>2390579.651928504</v>
       </c>
       <c r="E122" s="3">
         <f t="shared" si="1"/>
-        <v>35000</v>
+        <v>1117000</v>
       </c>
       <c r="F122" s="3">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="G122" s="3">
-        <v>5000</v>
+        <v>31000</v>
       </c>
       <c r="H122" s="3">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="I122" s="3">
-        <v>5000</v>
+        <v>105000</v>
       </c>
       <c r="J122" s="3">
-        <v>5000</v>
+        <v>223000</v>
       </c>
       <c r="K122" s="3">
-        <v>5000</v>
+        <v>95000</v>
       </c>
       <c r="L122" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+        <v>233000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3">
-        <v>2390579.651928504</v>
+        <f>E123*1.93</f>
+        <v>1930000</v>
       </c>
       <c r="E123" s="3">
         <f t="shared" si="1"/>
-        <v>1117000</v>
-      </c>
-      <c r="F123" s="3">
-        <v>200000</v>
-      </c>
-      <c r="G123" s="3">
-        <v>31000</v>
-      </c>
-      <c r="H123" s="3">
-        <v>230000</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
       <c r="I123" s="3">
-        <v>105000</v>
+        <v>250000</v>
       </c>
       <c r="J123" s="3">
-        <v>223000</v>
+        <v>250000</v>
       </c>
       <c r="K123" s="3">
-        <v>95000</v>
+        <v>250000</v>
       </c>
       <c r="L123" s="3">
-        <v>233000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3">
-        <f>E124*1.93</f>
-        <v>1930000</v>
+        <f>E124*1.95</f>
+        <v>8775000</v>
       </c>
       <c r="E124" s="3">
         <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
+        <v>4500000</v>
+      </c>
+      <c r="F124" s="12">
+        <v>500000</v>
+      </c>
+      <c r="G124" s="12">
+        <v>500000</v>
+      </c>
+      <c r="H124" s="12">
+        <v>500000</v>
+      </c>
       <c r="I124" s="3">
-        <v>250000</v>
+        <v>750000</v>
       </c>
       <c r="J124" s="3">
-        <v>250000</v>
+        <v>750000</v>
       </c>
       <c r="K124" s="3">
-        <v>250000</v>
+        <v>750000</v>
       </c>
       <c r="L124" s="3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>378</v>
+        <v>204</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>348</v>
+        <v>205</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3">
-        <f>E125*1.95</f>
-        <v>8775000</v>
+        <v>1144500</v>
       </c>
       <c r="E125" s="3">
         <f t="shared" si="1"/>
-        <v>4500000</v>
-      </c>
-      <c r="F125" s="12">
-        <v>500000</v>
-      </c>
-      <c r="G125" s="12">
-        <v>500000</v>
-      </c>
-      <c r="H125" s="12">
-        <v>500000</v>
+        <v>545000</v>
+      </c>
+      <c r="F125" s="3">
+        <v>75000</v>
+      </c>
+      <c r="G125" s="3">
+        <v>75000</v>
+      </c>
+      <c r="H125" s="3">
+        <v>75000</v>
       </c>
       <c r="I125" s="3">
-        <v>750000</v>
+        <v>80000</v>
       </c>
       <c r="J125" s="3">
-        <v>750000</v>
+        <v>80000</v>
       </c>
       <c r="K125" s="3">
-        <v>750000</v>
+        <v>80000</v>
       </c>
       <c r="L125" s="3">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3">
-        <v>1144500</v>
+        <v>0</v>
       </c>
       <c r="E126" s="3">
         <f t="shared" si="1"/>
-        <v>545000</v>
-      </c>
-      <c r="F126" s="3">
-        <v>75000</v>
-      </c>
-      <c r="G126" s="3">
-        <v>75000</v>
-      </c>
-      <c r="H126" s="3">
-        <v>75000</v>
-      </c>
-      <c r="I126" s="3">
-        <v>80000</v>
-      </c>
-      <c r="J126" s="3">
-        <v>80000</v>
-      </c>
-      <c r="K126" s="3">
-        <v>80000</v>
-      </c>
-      <c r="L126" s="3">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3">
-        <v>0</v>
+        <v>1716100</v>
       </c>
       <c r="E127" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+        <v>905000</v>
+      </c>
+      <c r="F127" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G127" s="3">
+        <v>55000</v>
+      </c>
+      <c r="H127" s="3">
+        <v>105000</v>
+      </c>
+      <c r="I127" s="3">
+        <v>105000</v>
+      </c>
+      <c r="J127" s="3">
+        <v>205000</v>
+      </c>
+      <c r="K127" s="3">
+        <v>205000</v>
+      </c>
+      <c r="L127" s="3">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3">
-        <v>1716100</v>
+        <v>44946</v>
       </c>
       <c r="E128" s="3">
         <f t="shared" si="1"/>
-        <v>905000</v>
-      </c>
-      <c r="F128" s="3">
-        <v>25000</v>
-      </c>
+        <v>18000</v>
+      </c>
+      <c r="F128" s="3"/>
       <c r="G128" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H128" s="3">
-        <v>105000</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="H128" s="3"/>
       <c r="I128" s="3">
-        <v>105000</v>
-      </c>
-      <c r="J128" s="3">
-        <v>205000</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="J128" s="3"/>
       <c r="K128" s="3">
-        <v>205000</v>
+        <v>6000</v>
       </c>
       <c r="L128" s="3">
-        <v>205000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>210</v>
+        <v>379</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>211</v>
+        <v>380</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3">
-        <v>44946</v>
+        <v>142880</v>
       </c>
       <c r="E129" s="3">
         <f t="shared" si="1"/>
-        <v>18000</v>
-      </c>
-      <c r="F129" s="3"/>
+        <v>76000</v>
+      </c>
+      <c r="F129" s="3">
+        <v>6000</v>
+      </c>
       <c r="G129" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H129" s="3"/>
+        <v>11000</v>
+      </c>
+      <c r="H129" s="3">
+        <v>11000</v>
+      </c>
       <c r="I129" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J129" s="3"/>
+        <v>11000</v>
+      </c>
+      <c r="J129" s="3">
+        <v>11000</v>
+      </c>
       <c r="K129" s="3">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L129" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C130" s="3"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C130" s="9"/>
       <c r="D130" s="3">
-        <v>142880</v>
-      </c>
-      <c r="E130" s="3">
-        <f t="shared" si="1"/>
-        <v>76000</v>
-      </c>
-      <c r="F130" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G130" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H130" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I130" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J130" s="3">
-        <v>11000</v>
-      </c>
-      <c r="K130" s="3">
-        <v>11000</v>
-      </c>
-      <c r="L130" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="3">
         <v>387180</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E130" s="9">
         <f t="shared" si="1"/>
         <v>239000</v>
       </c>
-      <c r="F131" s="9">
+      <c r="F130" s="9">
         <v>39000</v>
       </c>
-      <c r="G131" s="9">
+      <c r="G130" s="9">
         <v>50000</v>
       </c>
-      <c r="H131" s="9">
+      <c r="H130" s="9">
         <v>50000</v>
       </c>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9">
+      <c r="I130" s="9"/>
+      <c r="J130" s="9">
         <v>50000</v>
       </c>
-      <c r="K131" s="9">
+      <c r="K130" s="9">
         <v>50000</v>
       </c>
-      <c r="L131" s="9"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+      <c r="L130" s="9"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3">
+      <c r="C131" s="3"/>
+      <c r="D131" s="3">
         <v>14000</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E131" s="3">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3">
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="10" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B132" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11">
+      <c r="C132" s="11"/>
+      <c r="D132" s="11">
         <v>1465227.2727272727</v>
       </c>
-      <c r="E133" s="11">
-        <f t="shared" ref="E133:E201" si="2">SUM(F133:L133)</f>
+      <c r="E132" s="11">
+        <f t="shared" ref="E132:E200" si="2">SUM(F132:L132)</f>
         <v>1050000</v>
       </c>
-      <c r="F133" s="11">
+      <c r="F132" s="11">
         <v>150000</v>
       </c>
-      <c r="G133" s="11">
+      <c r="G132" s="11">
         <v>150000</v>
       </c>
-      <c r="H133" s="11">
+      <c r="H132" s="11">
         <v>150000</v>
       </c>
-      <c r="I133" s="11">
+      <c r="I132" s="11">
         <v>150000</v>
       </c>
-      <c r="J133" s="11">
+      <c r="J132" s="11">
         <v>150000</v>
       </c>
-      <c r="K133" s="11">
+      <c r="K132" s="11">
         <v>150000</v>
       </c>
-      <c r="L133" s="11">
+      <c r="L132" s="11">
         <v>150000</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3">
+        <v>1967753.4246575343</v>
+      </c>
+      <c r="E133" s="3">
+        <f t="shared" si="2"/>
+        <v>807000</v>
+      </c>
+      <c r="F133" s="3">
+        <v>84000</v>
+      </c>
+      <c r="G133" s="3">
+        <v>102000</v>
+      </c>
+      <c r="H133" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I133" s="3">
+        <v>114000</v>
+      </c>
+      <c r="J133" s="3">
+        <v>129000</v>
+      </c>
+      <c r="K133" s="3">
+        <v>129000</v>
+      </c>
+      <c r="L133" s="3">
+        <v>139000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>217</v>
+        <v>383</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3">
-        <v>1967753.4246575343</v>
+        <v>0</v>
       </c>
       <c r="E134" s="3">
         <f t="shared" si="2"/>
-        <v>807000</v>
-      </c>
-      <c r="F134" s="3">
-        <v>84000</v>
-      </c>
-      <c r="G134" s="3">
-        <v>102000</v>
-      </c>
-      <c r="H134" s="3">
-        <v>110000</v>
-      </c>
-      <c r="I134" s="3">
-        <v>114000</v>
-      </c>
-      <c r="J134" s="3">
-        <v>129000</v>
-      </c>
-      <c r="K134" s="3">
-        <v>129000</v>
-      </c>
-      <c r="L134" s="3">
-        <v>139000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>383</v>
+        <v>219</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3">
-        <v>0</v>
+        <v>3358493.9820359279</v>
       </c>
       <c r="E135" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1291000</v>
+      </c>
+      <c r="F135" s="3">
+        <v>228000</v>
+      </c>
+      <c r="G135" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H135" s="3">
+        <v>320000</v>
+      </c>
+      <c r="I135" s="3">
+        <v>148000</v>
+      </c>
+      <c r="J135" s="3">
+        <v>130000</v>
+      </c>
+      <c r="K135" s="3">
+        <v>155000</v>
+      </c>
+      <c r="L135" s="3">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3">
-        <v>3358493.9820359279</v>
+        <v>8228000</v>
       </c>
       <c r="E136" s="3">
         <f t="shared" si="2"/>
-        <v>1291000</v>
+        <v>3400000</v>
       </c>
       <c r="F136" s="3">
-        <v>228000</v>
+        <v>450000</v>
       </c>
       <c r="G136" s="3">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="H136" s="3">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="I136" s="3">
-        <v>148000</v>
+        <v>500000</v>
       </c>
       <c r="J136" s="3">
-        <v>130000</v>
+        <v>500000</v>
       </c>
       <c r="K136" s="3">
-        <v>155000</v>
+        <v>500000</v>
       </c>
       <c r="L136" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3">
-        <v>8228000</v>
+        <v>4224350</v>
       </c>
       <c r="E137" s="3">
         <f t="shared" si="2"/>
-        <v>3400000</v>
+        <v>1640500</v>
       </c>
       <c r="F137" s="3">
-        <v>450000</v>
+        <v>158000</v>
       </c>
       <c r="G137" s="3">
-        <v>500000</v>
+        <v>212500</v>
       </c>
       <c r="H137" s="3">
-        <v>450000</v>
+        <v>212500</v>
       </c>
       <c r="I137" s="3">
-        <v>500000</v>
+        <v>262500</v>
       </c>
       <c r="J137" s="3">
-        <v>500000</v>
+        <v>265000</v>
       </c>
       <c r="K137" s="3">
-        <v>500000</v>
+        <v>265000</v>
       </c>
       <c r="L137" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+        <v>265000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3">
-        <v>4224350</v>
+        <v>15000000</v>
       </c>
       <c r="E138" s="3">
         <f t="shared" si="2"/>
-        <v>1640500</v>
+        <v>30000000</v>
       </c>
       <c r="F138" s="3">
-        <v>158000</v>
-      </c>
-      <c r="G138" s="3">
-        <v>212500</v>
-      </c>
-      <c r="H138" s="3">
-        <v>212500</v>
-      </c>
-      <c r="I138" s="3">
-        <v>262500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
       <c r="J138" s="3">
-        <v>265000</v>
+        <v>10000000</v>
       </c>
       <c r="K138" s="3">
-        <v>265000</v>
+        <v>10000000</v>
       </c>
       <c r="L138" s="3">
-        <v>265000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3">
-        <v>15000000</v>
+        <v>13600000</v>
       </c>
       <c r="E139" s="3">
         <f t="shared" si="2"/>
-        <v>30000000</v>
+        <v>34000000</v>
       </c>
       <c r="F139" s="3">
-        <v>0</v>
-      </c>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
+        <v>4000000</v>
+      </c>
+      <c r="G139" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="H139" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="I139" s="3">
+        <v>4000000</v>
+      </c>
       <c r="J139" s="3">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="K139" s="3">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="L139" s="3">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3">
-        <v>13600000</v>
+        <v>358560</v>
       </c>
       <c r="E140" s="3">
         <f t="shared" si="2"/>
-        <v>34000000</v>
+        <v>119520</v>
       </c>
       <c r="F140" s="3">
-        <v>4000000</v>
+        <v>20000</v>
       </c>
       <c r="G140" s="3">
-        <v>4000000</v>
+        <v>20000</v>
       </c>
       <c r="H140" s="3">
-        <v>4000000</v>
+        <v>20000</v>
       </c>
       <c r="I140" s="3">
-        <v>4000000</v>
+        <v>14880</v>
       </c>
       <c r="J140" s="3">
-        <v>6000000</v>
+        <v>14880</v>
       </c>
       <c r="K140" s="3">
-        <v>6000000</v>
+        <v>14880</v>
       </c>
       <c r="L140" s="3">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3">
-        <v>358560</v>
+        <v>294000</v>
       </c>
       <c r="E141" s="3">
         <f t="shared" si="2"/>
-        <v>119520</v>
+        <v>91000</v>
       </c>
       <c r="F141" s="3">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="G141" s="3">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="H141" s="3">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="I141" s="3">
-        <v>14880</v>
+        <v>13000</v>
       </c>
       <c r="J141" s="3">
-        <v>14880</v>
+        <v>13000</v>
       </c>
       <c r="K141" s="3">
-        <v>14880</v>
+        <v>13000</v>
       </c>
       <c r="L141" s="3">
-        <v>14880</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>230</v>
+        <v>384</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3">
-        <v>294000</v>
+        <v>399000</v>
       </c>
       <c r="E142" s="3">
         <f t="shared" si="2"/>
-        <v>91000</v>
-      </c>
-      <c r="F142" s="3">
-        <v>13000</v>
-      </c>
-      <c r="G142" s="3">
-        <v>13000</v>
-      </c>
+        <v>140000</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
       <c r="H142" s="3">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="I142" s="3">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="J142" s="3">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="K142" s="3">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="L142" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3">
@@ -8936,921 +8929,925 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>384</v>
+        <v>235</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>386</v>
+        <v>236</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3">
-        <v>399000</v>
+        <v>425000</v>
       </c>
       <c r="E144" s="3">
         <f t="shared" si="2"/>
-        <v>140000</v>
-      </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
+        <v>50000</v>
+      </c>
+      <c r="F144" s="3">
+        <v>0</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
       <c r="H144" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I144" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J144" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="K144" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="L144" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3">
-        <v>425000</v>
+        <v>302014.92537313432</v>
       </c>
       <c r="E145" s="3">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>71000</v>
       </c>
       <c r="F145" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G145" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H145" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I145" s="3">
         <v>0</v>
       </c>
       <c r="J145" s="3">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="K145" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L145" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3">
-        <v>302014.92537313432</v>
+        <v>1137680</v>
       </c>
       <c r="E146" s="3">
         <f t="shared" si="2"/>
-        <v>71000</v>
+        <v>332500</v>
       </c>
       <c r="F146" s="3">
-        <v>4000</v>
+        <v>28000</v>
       </c>
       <c r="G146" s="3">
-        <v>3000</v>
+        <v>28500</v>
       </c>
       <c r="H146" s="3">
-        <v>3000</v>
+        <v>49000</v>
       </c>
       <c r="I146" s="3">
-        <v>0</v>
+        <v>49500</v>
       </c>
       <c r="J146" s="3">
-        <v>18000</v>
+        <v>59000</v>
       </c>
       <c r="K146" s="3">
-        <v>20000</v>
+        <v>59500</v>
       </c>
       <c r="L146" s="3">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3">
-        <v>1137680</v>
+        <v>1279199.9999999998</v>
       </c>
       <c r="E147" s="3">
         <f t="shared" si="2"/>
-        <v>332500</v>
+        <v>317000</v>
       </c>
       <c r="F147" s="3">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="G147" s="3">
-        <v>28500</v>
+        <v>12000</v>
       </c>
       <c r="H147" s="3">
-        <v>49000</v>
+        <v>33000</v>
       </c>
       <c r="I147" s="3">
-        <v>49500</v>
+        <v>37000</v>
       </c>
       <c r="J147" s="3">
-        <v>59000</v>
+        <v>58000</v>
       </c>
       <c r="K147" s="3">
-        <v>59500</v>
+        <v>78000</v>
       </c>
       <c r="L147" s="3">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3">
-        <v>1279199.9999999998</v>
+        <v>157500</v>
       </c>
       <c r="E148" s="3">
         <f t="shared" si="2"/>
-        <v>317000</v>
+        <v>21000</v>
       </c>
       <c r="F148" s="3">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="G148" s="3">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="H148" s="3">
-        <v>33000</v>
+        <v>3000</v>
       </c>
       <c r="I148" s="3">
-        <v>37000</v>
+        <v>3000</v>
       </c>
       <c r="J148" s="3">
-        <v>58000</v>
+        <v>3000</v>
       </c>
       <c r="K148" s="3">
-        <v>78000</v>
+        <v>3000</v>
       </c>
       <c r="L148" s="3">
-        <v>88000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3">
-        <v>157500</v>
+        <v>630000</v>
       </c>
       <c r="E149" s="3">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>90000</v>
       </c>
       <c r="F149" s="3">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G149" s="3">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="H149" s="3">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="I149" s="3">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="J149" s="3">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="K149" s="3">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="L149" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3">
-        <v>630000</v>
+        <v>2358000</v>
       </c>
       <c r="E150" s="3">
         <f t="shared" si="2"/>
-        <v>90000</v>
+        <v>461000</v>
       </c>
       <c r="F150" s="3">
-        <v>6000</v>
+        <v>50000</v>
       </c>
       <c r="G150" s="3">
-        <v>6000</v>
+        <v>51000</v>
       </c>
       <c r="H150" s="3">
-        <v>12000</v>
+        <v>51000</v>
       </c>
       <c r="I150" s="3">
-        <v>12000</v>
+        <v>56000</v>
       </c>
       <c r="J150" s="3">
-        <v>18000</v>
+        <v>71000</v>
       </c>
       <c r="K150" s="3">
-        <v>18000</v>
+        <v>91000</v>
       </c>
       <c r="L150" s="3">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3">
-        <v>2358000</v>
+        <v>1120000</v>
       </c>
       <c r="E151" s="3">
         <f t="shared" si="2"/>
-        <v>461000</v>
+        <v>1400000</v>
       </c>
       <c r="F151" s="3">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="G151" s="3">
-        <v>51000</v>
+        <v>200000</v>
       </c>
       <c r="H151" s="3">
-        <v>51000</v>
+        <v>200000</v>
       </c>
       <c r="I151" s="3">
-        <v>56000</v>
+        <v>200000</v>
       </c>
       <c r="J151" s="3">
-        <v>71000</v>
+        <v>200000</v>
       </c>
       <c r="K151" s="3">
-        <v>91000</v>
+        <v>200000</v>
       </c>
       <c r="L151" s="3">
-        <v>91000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>249</v>
+        <v>387</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>250</v>
+        <v>388</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3">
-        <v>1120000</v>
+        <v>784000</v>
       </c>
       <c r="E152" s="3">
         <f t="shared" si="2"/>
-        <v>1400000</v>
+        <v>1120000</v>
       </c>
       <c r="F152" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="G152" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="H152" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="I152" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="J152" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="K152" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="L152" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3">
-        <v>784000</v>
-      </c>
-      <c r="E153" s="3">
-        <f t="shared" si="2"/>
-        <v>1120000</v>
-      </c>
+        <v>274400</v>
+      </c>
+      <c r="E153" s="3"/>
       <c r="F153" s="3">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="G153" s="3">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="H153" s="3">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="I153" s="3">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="J153" s="3">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="K153" s="3">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="L153" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3">
-        <v>274400</v>
+        <v>196000</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="G154" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="H154" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="I154" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="J154" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="K154" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L154" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>391</v>
+        <v>251</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3">
-        <v>196000</v>
-      </c>
-      <c r="E155" s="3"/>
+        <v>922785.29411764711</v>
+      </c>
+      <c r="E155" s="3">
+        <f t="shared" si="2"/>
+        <v>798000</v>
+      </c>
       <c r="F155" s="3">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="G155" s="3">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="H155" s="3">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="I155" s="3">
-        <v>10000</v>
+        <v>102000</v>
       </c>
       <c r="J155" s="3">
-        <v>10000</v>
+        <v>102000</v>
       </c>
       <c r="K155" s="3">
-        <v>10000</v>
+        <v>102000</v>
       </c>
       <c r="L155" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>390</v>
+        <v>252</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3">
-        <v>922785.29411764711</v>
+        <v>240400.00000000003</v>
       </c>
       <c r="E156" s="3">
         <f t="shared" si="2"/>
-        <v>798000</v>
+        <v>159000</v>
       </c>
       <c r="F156" s="3">
-        <v>130000</v>
+        <v>22000</v>
       </c>
       <c r="G156" s="3">
-        <v>130000</v>
+        <v>22000</v>
       </c>
       <c r="H156" s="3">
-        <v>130000</v>
+        <v>23000</v>
       </c>
       <c r="I156" s="3">
-        <v>102000</v>
+        <v>23000</v>
       </c>
       <c r="J156" s="3">
-        <v>102000</v>
+        <v>23000</v>
       </c>
       <c r="K156" s="3">
-        <v>102000</v>
+        <v>23000</v>
       </c>
       <c r="L156" s="3">
-        <v>102000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3">
-        <v>240400.00000000003</v>
+        <v>521050</v>
       </c>
       <c r="E157" s="3">
         <f t="shared" si="2"/>
-        <v>159000</v>
+        <v>287000</v>
       </c>
       <c r="F157" s="3">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="G157" s="3">
-        <v>22000</v>
+        <v>36000</v>
       </c>
       <c r="H157" s="3">
-        <v>23000</v>
+        <v>46000</v>
       </c>
       <c r="I157" s="3">
-        <v>23000</v>
+        <v>42000</v>
       </c>
       <c r="J157" s="3">
-        <v>23000</v>
+        <v>41000</v>
       </c>
       <c r="K157" s="3">
-        <v>23000</v>
+        <v>41000</v>
       </c>
       <c r="L157" s="3">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3">
-        <v>521050</v>
+        <v>14700</v>
       </c>
       <c r="E158" s="3">
         <f t="shared" si="2"/>
-        <v>287000</v>
+        <v>7000</v>
       </c>
       <c r="F158" s="3">
-        <v>34000</v>
+        <v>1000</v>
       </c>
       <c r="G158" s="3">
-        <v>36000</v>
+        <v>1000</v>
       </c>
       <c r="H158" s="3">
-        <v>46000</v>
+        <v>1000</v>
       </c>
       <c r="I158" s="3">
-        <v>42000</v>
+        <v>1000</v>
       </c>
       <c r="J158" s="3">
-        <v>41000</v>
+        <v>1000</v>
       </c>
       <c r="K158" s="3">
-        <v>41000</v>
+        <v>1000</v>
       </c>
       <c r="L158" s="3">
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3">
-        <v>14700</v>
+        <v>3845946.3922720249</v>
       </c>
       <c r="E159" s="3">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>2056129</v>
       </c>
       <c r="F159" s="3">
-        <v>1000</v>
+        <v>439129</v>
       </c>
       <c r="G159" s="3">
-        <v>1000</v>
+        <v>284500</v>
       </c>
       <c r="H159" s="3">
-        <v>1000</v>
+        <v>284500</v>
       </c>
       <c r="I159" s="3">
-        <v>1000</v>
+        <v>284500</v>
       </c>
       <c r="J159" s="3">
-        <v>1000</v>
+        <v>254500</v>
       </c>
       <c r="K159" s="3">
-        <v>1000</v>
+        <v>254500</v>
       </c>
       <c r="L159" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3">
-        <v>3845946.3922720249</v>
-      </c>
-      <c r="E160" s="3">
+        <v>254500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9">
+        <v>0</v>
+      </c>
+      <c r="E160" s="9">
         <f t="shared" si="2"/>
-        <v>2056129</v>
-      </c>
-      <c r="F160" s="3">
-        <v>439129</v>
-      </c>
-      <c r="G160" s="3">
-        <v>284500</v>
-      </c>
-      <c r="H160" s="3">
-        <v>284500</v>
-      </c>
-      <c r="I160" s="3">
-        <v>284500</v>
-      </c>
-      <c r="J160" s="3">
-        <v>254500</v>
-      </c>
-      <c r="K160" s="3">
-        <v>254500</v>
-      </c>
-      <c r="L160" s="3">
-        <v>254500</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3">
+        <v>3438000</v>
       </c>
       <c r="E161" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+        <v>660000</v>
+      </c>
+      <c r="F161" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G161" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H161" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I161" s="3">
+        <v>90000</v>
+      </c>
+      <c r="J161" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K161" s="3">
+        <v>90000</v>
+      </c>
+      <c r="L161" s="3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>392</v>
+        <v>263</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>262</v>
+        <v>393</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3">
-        <v>3438000</v>
+        <v>1081500</v>
       </c>
       <c r="E162" s="9">
         <f t="shared" si="2"/>
-        <v>660000</v>
+        <v>210000</v>
       </c>
       <c r="F162" s="3">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="G162" s="3">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="H162" s="3">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="I162" s="3">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="J162" s="3">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="K162" s="3">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="L162" s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>263</v>
+        <v>394</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3">
-        <v>1081500</v>
+        <v>441000</v>
       </c>
       <c r="E163" s="9">
         <f t="shared" si="2"/>
-        <v>210000</v>
+        <v>70000</v>
       </c>
       <c r="F163" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G163" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="H163" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="I163" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="J163" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="K163" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L163" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>394</v>
+        <v>264</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>395</v>
+        <v>265</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3">
-        <v>441000</v>
+        <v>13801182.699999997</v>
       </c>
       <c r="E164" s="9">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>6440090</v>
       </c>
       <c r="F164" s="3">
-        <v>10000</v>
+        <v>884000</v>
       </c>
       <c r="G164" s="3">
-        <v>10000</v>
+        <v>894000</v>
       </c>
       <c r="H164" s="3">
-        <v>10000</v>
+        <v>857570</v>
       </c>
       <c r="I164" s="3">
-        <v>10000</v>
+        <v>937970</v>
       </c>
       <c r="J164" s="3">
-        <v>10000</v>
+        <v>950370</v>
       </c>
       <c r="K164" s="3">
-        <v>10000</v>
+        <v>958850</v>
       </c>
       <c r="L164" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+        <v>957330</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3">
-        <v>13801182.699999997</v>
-      </c>
-      <c r="E165" s="9">
-        <f t="shared" si="2"/>
-        <v>6440090</v>
-      </c>
-      <c r="F165" s="3">
-        <v>884000</v>
-      </c>
-      <c r="G165" s="3">
-        <v>894000</v>
-      </c>
-      <c r="H165" s="3">
-        <v>857570</v>
-      </c>
-      <c r="I165" s="3">
-        <v>937970</v>
-      </c>
-      <c r="J165" s="3">
-        <v>950370</v>
-      </c>
-      <c r="K165" s="3">
-        <v>958850</v>
-      </c>
-      <c r="L165" s="3">
-        <v>957330</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B166" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4">
+      <c r="C165" s="4"/>
+      <c r="D165" s="4">
         <v>10906611.804767311</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E165" s="4">
         <f t="shared" si="2"/>
         <v>7000000</v>
       </c>
-      <c r="F166" s="4">
+      <c r="F165" s="4">
         <v>1000000</v>
       </c>
-      <c r="G166" s="4">
+      <c r="G165" s="4">
         <v>1000000</v>
       </c>
-      <c r="H166" s="4">
+      <c r="H165" s="4">
         <v>1000000</v>
       </c>
-      <c r="I166" s="4">
+      <c r="I165" s="4">
         <v>1000000</v>
       </c>
-      <c r="J166" s="4">
+      <c r="J165" s="4">
         <v>1000000</v>
       </c>
-      <c r="K166" s="4">
+      <c r="K165" s="4">
         <v>1000000</v>
       </c>
-      <c r="L166" s="4">
+      <c r="L165" s="4">
         <v>1000000</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E166" s="3">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="F166" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G166" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H166" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I166" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J166" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K166" s="3">
+        <v>20000</v>
+      </c>
+      <c r="L166" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>396</v>
+        <v>270</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3">
-        <v>240000</v>
+        <v>4076869.6084683072</v>
       </c>
       <c r="E167" s="3">
         <f t="shared" si="2"/>
-        <v>150000</v>
+        <v>2020500</v>
       </c>
       <c r="F167" s="3">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="G167" s="3">
-        <v>20000</v>
+        <v>300000</v>
       </c>
       <c r="H167" s="3">
-        <v>20000</v>
+        <v>330000</v>
       </c>
       <c r="I167" s="3">
-        <v>20000</v>
+        <v>340500</v>
       </c>
       <c r="J167" s="3">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="K167" s="3">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="L167" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>270</v>
+        <v>397</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3">
-        <v>4076869.6084683072</v>
+        <v>3833730.3915316919</v>
       </c>
       <c r="E168" s="3">
         <f t="shared" si="2"/>
-        <v>2020500</v>
+        <v>1900000</v>
       </c>
       <c r="F168" s="3">
+        <v>200000</v>
+      </c>
+      <c r="G168" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H168" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I168" s="3">
         <v>300000</v>
       </c>
-      <c r="G168" s="3">
+      <c r="J168" s="3">
         <v>300000</v>
       </c>
-      <c r="H168" s="3">
-        <v>330000</v>
-      </c>
-      <c r="I168" s="3">
-        <v>340500</v>
-      </c>
-      <c r="J168" s="3">
-        <v>240000</v>
-      </c>
       <c r="K168" s="3">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="L168" s="3">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>397</v>
+        <v>272</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3">
-        <v>3833730.3915316919</v>
+        <v>3052187.9975861064</v>
       </c>
       <c r="E169" s="3">
         <f t="shared" si="2"/>
-        <v>1900000</v>
+        <v>1400000</v>
       </c>
       <c r="F169" s="3">
         <v>200000</v>
@@ -9862,255 +9859,252 @@
         <v>200000</v>
       </c>
       <c r="I169" s="3">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="J169" s="3">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="K169" s="3">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="L169" s="3">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3">
-        <v>3052187.9975861064</v>
+        <v>623000</v>
       </c>
       <c r="E170" s="3">
         <f t="shared" si="2"/>
-        <v>1400000</v>
+        <v>322000</v>
       </c>
       <c r="F170" s="3">
-        <v>200000</v>
+        <v>46000</v>
       </c>
       <c r="G170" s="3">
-        <v>200000</v>
+        <v>46000</v>
       </c>
       <c r="H170" s="3">
-        <v>200000</v>
+        <v>46000</v>
       </c>
       <c r="I170" s="3">
-        <v>200000</v>
+        <v>46000</v>
       </c>
       <c r="J170" s="3">
-        <v>200000</v>
+        <v>46000</v>
       </c>
       <c r="K170" s="3">
-        <v>200000</v>
+        <v>46000</v>
       </c>
       <c r="L170" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>274</v>
+        <v>398</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3">
-        <v>623000</v>
+        <v>2752599.9999999995</v>
       </c>
       <c r="E171" s="3">
         <f t="shared" si="2"/>
-        <v>322000</v>
+        <v>1300000</v>
       </c>
       <c r="F171" s="3">
-        <v>46000</v>
+        <v>180000</v>
       </c>
       <c r="G171" s="3">
-        <v>46000</v>
+        <v>180000</v>
       </c>
       <c r="H171" s="3">
-        <v>46000</v>
+        <v>180000</v>
       </c>
       <c r="I171" s="3">
-        <v>46000</v>
+        <v>190000</v>
       </c>
       <c r="J171" s="3">
-        <v>46000</v>
+        <v>190000</v>
       </c>
       <c r="K171" s="3">
-        <v>46000</v>
+        <v>190000</v>
       </c>
       <c r="L171" s="3">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>398</v>
+        <v>276</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3">
-        <v>2752599.9999999995</v>
+        <v>2139390</v>
       </c>
       <c r="E172" s="3">
         <f t="shared" si="2"/>
-        <v>1300000</v>
+        <v>1043000</v>
       </c>
       <c r="F172" s="3">
-        <v>180000</v>
+        <v>136000</v>
       </c>
       <c r="G172" s="3">
-        <v>180000</v>
+        <v>136000</v>
       </c>
       <c r="H172" s="3">
-        <v>180000</v>
+        <v>136000</v>
       </c>
       <c r="I172" s="3">
-        <v>190000</v>
+        <v>158000</v>
       </c>
       <c r="J172" s="3">
-        <v>190000</v>
+        <v>158000</v>
       </c>
       <c r="K172" s="3">
-        <v>190000</v>
+        <v>158000</v>
       </c>
       <c r="L172" s="3">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3">
-        <v>2139390</v>
+        <v>3871457.4999999995</v>
       </c>
       <c r="E173" s="3">
         <f t="shared" si="2"/>
-        <v>1043000</v>
+        <v>1796500</v>
       </c>
       <c r="F173" s="3">
-        <v>136000</v>
+        <v>196500</v>
       </c>
       <c r="G173" s="3">
-        <v>136000</v>
+        <v>200000</v>
       </c>
       <c r="H173" s="3">
-        <v>136000</v>
+        <v>200000</v>
       </c>
       <c r="I173" s="3">
-        <v>158000</v>
+        <v>300000</v>
       </c>
       <c r="J173" s="3">
-        <v>158000</v>
+        <v>300000</v>
       </c>
       <c r="K173" s="3">
-        <v>158000</v>
+        <v>300000</v>
       </c>
       <c r="L173" s="3">
-        <v>161000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3">
-        <v>3871457.4999999995</v>
+        <v>10137060</v>
       </c>
       <c r="E174" s="3">
         <f t="shared" si="2"/>
-        <v>1796500</v>
+        <v>7835000</v>
       </c>
       <c r="F174" s="3">
-        <v>196500</v>
+        <v>705000</v>
       </c>
       <c r="G174" s="3">
-        <v>200000</v>
+        <v>765000</v>
       </c>
       <c r="H174" s="3">
-        <v>200000</v>
+        <v>1243000</v>
       </c>
       <c r="I174" s="3">
-        <v>300000</v>
+        <v>1243000</v>
       </c>
       <c r="J174" s="3">
-        <v>300000</v>
+        <v>1293000</v>
       </c>
       <c r="K174" s="3">
-        <v>300000</v>
+        <v>1293000</v>
       </c>
       <c r="L174" s="3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1293000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3">
-        <v>10137060</v>
+        <v>423500</v>
       </c>
       <c r="E175" s="3">
         <f t="shared" si="2"/>
-        <v>7835000</v>
+        <v>70000</v>
       </c>
       <c r="F175" s="3">
-        <v>705000</v>
+        <v>10000</v>
       </c>
       <c r="G175" s="3">
-        <v>765000</v>
+        <v>10000</v>
       </c>
       <c r="H175" s="3">
-        <v>1243000</v>
+        <v>10000</v>
       </c>
       <c r="I175" s="3">
-        <v>1243000</v>
+        <v>10000</v>
       </c>
       <c r="J175" s="3">
-        <v>1293000</v>
+        <v>10000</v>
       </c>
       <c r="K175" s="3">
-        <v>1293000</v>
+        <v>10000</v>
       </c>
       <c r="L175" s="3">
-        <v>1293000</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>281</v>
+        <v>399</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>282</v>
+        <v>400</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3">
-        <v>423500</v>
-      </c>
-      <c r="E176" s="3">
-        <f t="shared" si="2"/>
-        <v>70000</v>
-      </c>
+        <v>455000</v>
+      </c>
+      <c r="E176" s="3"/>
       <c r="F176" s="3">
         <v>10000</v>
       </c>
@@ -10133,157 +10127,160 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>400</v>
+        <v>283</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3">
-        <v>455000</v>
-      </c>
-      <c r="E177" s="3"/>
+        <v>138460</v>
+      </c>
+      <c r="E177" s="3">
+        <f t="shared" si="2"/>
+        <v>23000</v>
+      </c>
       <c r="F177" s="3">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G177" s="3">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="H177" s="3">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="I177" s="3">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="J177" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="K177" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L177" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3">
-        <v>138460</v>
+        <v>435600</v>
       </c>
       <c r="E178" s="3">
         <f t="shared" si="2"/>
-        <v>23000</v>
+        <v>72000</v>
       </c>
       <c r="F178" s="3">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G178" s="3">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="H178" s="3">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="I178" s="3">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="J178" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="K178" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L178" s="3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3">
-        <v>435600</v>
+        <v>1207200</v>
       </c>
       <c r="E179" s="3">
         <f t="shared" si="2"/>
-        <v>72000</v>
+        <v>198000</v>
       </c>
       <c r="F179" s="3">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="G179" s="3">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="H179" s="3">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="I179" s="3">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="J179" s="3">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="K179" s="3">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="L179" s="3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3">
-        <v>1207200</v>
+        <v>0</v>
       </c>
       <c r="E180" s="3">
         <f t="shared" si="2"/>
-        <v>198000</v>
+        <v>0</v>
       </c>
       <c r="F180" s="3">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="G180" s="3">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="H180" s="3">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="I180" s="3">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="J180" s="3">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="K180" s="3">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="L180" s="3">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3">
@@ -10293,34 +10290,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F181" s="3">
-        <v>0</v>
-      </c>
-      <c r="G181" s="3">
-        <v>0</v>
-      </c>
-      <c r="H181" s="3">
-        <v>0</v>
-      </c>
-      <c r="I181" s="3">
-        <v>0</v>
-      </c>
-      <c r="J181" s="3">
-        <v>0</v>
-      </c>
-      <c r="K181" s="3">
-        <v>0</v>
-      </c>
-      <c r="L181" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3">
@@ -10338,12 +10321,12 @@
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>291</v>
+        <v>403</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>292</v>
+        <v>404</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3">
@@ -10361,21 +10344,18 @@
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3">
         <v>0</v>
       </c>
-      <c r="E184" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -10384,180 +10364,187 @@
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>405</v>
+        <v>293</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>406</v>
+        <v>294</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3">
-        <v>0</v>
-      </c>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
-      <c r="L185" s="3"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1260000.0000000002</v>
+      </c>
+      <c r="E185" s="3">
+        <f t="shared" si="2"/>
+        <v>9000000</v>
+      </c>
+      <c r="F185" s="3">
+        <v>600000</v>
+      </c>
+      <c r="G185" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H185" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="I185" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="J185" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="K185" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="L185" s="3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3">
-        <v>1260000.0000000002</v>
+        <v>714000.00000000012</v>
       </c>
       <c r="E186" s="3">
         <f t="shared" si="2"/>
-        <v>9000000</v>
+        <v>5100000</v>
       </c>
       <c r="F186" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G186" s="3">
         <v>600000</v>
       </c>
-      <c r="G186" s="3">
+      <c r="H186" s="3">
+        <v>600000</v>
+      </c>
+      <c r="I186" s="3">
         <v>1000000</v>
       </c>
-      <c r="H186" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="I186" s="3">
-        <v>1200000</v>
-      </c>
       <c r="J186" s="3">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="K186" s="3">
-        <v>1200000</v>
+        <v>600000</v>
       </c>
       <c r="L186" s="3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3">
-        <v>714000.00000000012</v>
+        <v>2377500</v>
       </c>
       <c r="E187" s="3">
         <f t="shared" si="2"/>
-        <v>5100000</v>
+        <v>18900000</v>
       </c>
       <c r="F187" s="3">
-        <v>1000000</v>
+        <v>2400000</v>
       </c>
       <c r="G187" s="3">
-        <v>600000</v>
+        <v>2200000</v>
       </c>
       <c r="H187" s="3">
-        <v>600000</v>
+        <v>2400000</v>
       </c>
       <c r="I187" s="3">
-        <v>1000000</v>
+        <v>3600000</v>
       </c>
       <c r="J187" s="3">
-        <v>500000</v>
+        <v>2100000</v>
       </c>
       <c r="K187" s="3">
-        <v>600000</v>
+        <v>2400000</v>
       </c>
       <c r="L187" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3">
-        <v>2377500</v>
+        <v>624000</v>
       </c>
       <c r="E188" s="3">
         <f t="shared" si="2"/>
-        <v>18900000</v>
+        <v>4800000</v>
       </c>
       <c r="F188" s="3">
-        <v>2400000</v>
+        <v>800000</v>
       </c>
       <c r="G188" s="3">
-        <v>2200000</v>
+        <v>800000</v>
       </c>
       <c r="H188" s="3">
-        <v>2400000</v>
+        <v>800000</v>
       </c>
       <c r="I188" s="3">
-        <v>3600000</v>
+        <v>800000</v>
       </c>
       <c r="J188" s="3">
-        <v>2100000</v>
+        <v>400000</v>
       </c>
       <c r="K188" s="3">
-        <v>2400000</v>
+        <v>400000</v>
       </c>
       <c r="L188" s="3">
-        <v>3800000</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3">
-        <v>624000</v>
+        <v>432000</v>
       </c>
       <c r="E189" s="3">
         <f t="shared" si="2"/>
-        <v>3200000</v>
-      </c>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3">
-        <v>800000</v>
-      </c>
-      <c r="I189" s="3">
-        <v>800000</v>
-      </c>
-      <c r="J189" s="3">
-        <v>400000</v>
-      </c>
-      <c r="K189" s="3">
-        <v>400000</v>
-      </c>
-      <c r="L189" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3">
-        <v>432000</v>
+        <v>327344.94</v>
       </c>
       <c r="E190" s="3">
         <f t="shared" si="2"/>
@@ -10571,497 +10558,473 @@
       <c r="K190" s="12"/>
       <c r="L190" s="12"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3">
-        <v>327344.94</v>
+        <v>237999.99999999997</v>
       </c>
       <c r="E191" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F191" s="12"/>
-      <c r="G191" s="12"/>
-      <c r="H191" s="12"/>
-      <c r="I191" s="12"/>
-      <c r="J191" s="12"/>
-      <c r="K191" s="12"/>
-      <c r="L191" s="12"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+        <v>680000</v>
+      </c>
+      <c r="F191" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G191" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H191" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I191" s="3">
+        <v>80000</v>
+      </c>
+      <c r="J191" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K191" s="3">
+        <v>100000</v>
+      </c>
+      <c r="L191" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3">
-        <v>237999.99999999997</v>
+        <v>550800</v>
       </c>
       <c r="E192" s="3">
         <f t="shared" si="2"/>
-        <v>680000</v>
+        <v>3240000</v>
       </c>
       <c r="F192" s="3">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G192" s="3">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="H192" s="3">
-        <v>50000</v>
+        <v>180000</v>
       </c>
       <c r="I192" s="3">
-        <v>80000</v>
+        <v>500000</v>
       </c>
       <c r="J192" s="3">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="K192" s="3">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="L192" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3">
-        <v>550800</v>
+        <v>0</v>
       </c>
       <c r="E193" s="3">
         <f t="shared" si="2"/>
-        <v>3240000</v>
-      </c>
-      <c r="F193" s="3">
-        <v>200000</v>
-      </c>
-      <c r="G193" s="3">
-        <v>160000</v>
-      </c>
-      <c r="H193" s="3">
-        <v>180000</v>
-      </c>
-      <c r="I193" s="3">
-        <v>500000</v>
-      </c>
-      <c r="J193" s="3">
-        <v>600000</v>
-      </c>
-      <c r="K193" s="3">
-        <v>600000</v>
-      </c>
-      <c r="L193" s="3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3">
-        <v>0</v>
+        <v>1456875</v>
       </c>
       <c r="E194" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+        <v>875</v>
+      </c>
+      <c r="F194" s="3">
+        <v>125</v>
+      </c>
+      <c r="G194" s="3">
+        <v>125</v>
+      </c>
+      <c r="H194" s="3">
+        <v>125</v>
+      </c>
+      <c r="I194" s="3">
+        <v>125</v>
+      </c>
+      <c r="J194" s="3">
+        <v>125</v>
+      </c>
+      <c r="K194" s="3">
+        <v>125</v>
+      </c>
+      <c r="L194" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3">
-        <v>1456875</v>
+        <v>42500</v>
       </c>
       <c r="E195" s="3">
         <f t="shared" si="2"/>
-        <v>875</v>
-      </c>
-      <c r="F195" s="3">
-        <v>125</v>
-      </c>
-      <c r="G195" s="3">
-        <v>125</v>
-      </c>
-      <c r="H195" s="3">
-        <v>125</v>
-      </c>
-      <c r="I195" s="3">
-        <v>125</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
       <c r="J195" s="3">
-        <v>125</v>
+        <v>15000</v>
       </c>
       <c r="K195" s="3">
-        <v>125</v>
+        <v>15000</v>
       </c>
       <c r="L195" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3">
-        <v>42500</v>
+        <v>14499.999999999998</v>
       </c>
       <c r="E196" s="3">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="K196" s="3">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L196" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3">
-        <v>14499.999999999998</v>
+        <v>429600</v>
       </c>
       <c r="E197" s="3">
         <f t="shared" si="2"/>
-        <v>25000</v>
-      </c>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
+        <v>528000</v>
+      </c>
+      <c r="F197" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G197" s="3">
+        <v>51000</v>
+      </c>
+      <c r="H197" s="3">
+        <v>51000</v>
+      </c>
+      <c r="I197" s="3">
+        <v>101000</v>
+      </c>
       <c r="J197" s="3">
-        <v>5000</v>
+        <v>105000</v>
       </c>
       <c r="K197" s="3">
-        <v>10000</v>
+        <v>105000</v>
       </c>
       <c r="L197" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3">
-        <v>429600</v>
+        <v>17400</v>
       </c>
       <c r="E198" s="3">
         <f t="shared" si="2"/>
-        <v>528000</v>
-      </c>
-      <c r="F198" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3">
         <v>10000</v>
       </c>
-      <c r="G198" s="3">
-        <v>51000</v>
-      </c>
-      <c r="H198" s="3">
-        <v>51000</v>
-      </c>
-      <c r="I198" s="3">
-        <v>101000</v>
-      </c>
-      <c r="J198" s="3">
-        <v>105000</v>
-      </c>
       <c r="K198" s="3">
-        <v>105000</v>
+        <v>10000</v>
       </c>
       <c r="L198" s="3">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3">
-        <v>17400</v>
+        <v>1029500</v>
       </c>
       <c r="E199" s="3">
         <f t="shared" si="2"/>
-        <v>30000</v>
-      </c>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
+        <v>408000</v>
+      </c>
+      <c r="F199" s="3">
+        <v>0</v>
+      </c>
+      <c r="G199" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H199" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I199" s="3">
+        <v>56000</v>
+      </c>
       <c r="J199" s="3">
-        <v>10000</v>
+        <v>105000</v>
       </c>
       <c r="K199" s="3">
-        <v>10000</v>
+        <v>105000</v>
       </c>
       <c r="L199" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3">
-        <v>1029500</v>
+        <v>240000</v>
       </c>
       <c r="E200" s="3">
         <f t="shared" si="2"/>
-        <v>408000</v>
+        <v>80000</v>
       </c>
       <c r="F200" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G200" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H200" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I200" s="3">
         <v>10000</v>
       </c>
-      <c r="H200" s="3">
-        <v>27000</v>
-      </c>
-      <c r="I200" s="3">
-        <v>56000</v>
-      </c>
       <c r="J200" s="3">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="K200" s="3">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="L200" s="3">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3">
-        <v>240000</v>
+        <v>140800</v>
       </c>
       <c r="E201" s="3">
-        <f t="shared" si="2"/>
-        <v>80000</v>
+        <f t="shared" ref="E201:E204" si="3">SUM(F201:L201)</f>
+        <v>256000</v>
       </c>
       <c r="F201" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="G201" s="3">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="H201" s="3">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="I201" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J201" s="3">
         <v>20000</v>
       </c>
       <c r="K201" s="3">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="L201" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3">
-        <v>140800</v>
+        <v>0</v>
       </c>
       <c r="E202" s="3">
-        <f t="shared" ref="E202:E205" si="3">SUM(F202:L202)</f>
-        <v>256000</v>
-      </c>
-      <c r="F202" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G202" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H202" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I202" s="3">
-        <v>20000</v>
-      </c>
-      <c r="J202" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K202" s="3">
-        <v>60000</v>
-      </c>
-      <c r="L202" s="3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>322</v>
+        <v>408</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3">
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="E203" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
-      <c r="L203" s="3"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G203" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H203" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I203" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J203" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K203" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L203" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3">
-        <v>480000</v>
+        <v>2940000</v>
       </c>
       <c r="E204" s="3">
         <f t="shared" si="3"/>
-        <v>160000</v>
-      </c>
-      <c r="F204" s="3"/>
+        <v>980000</v>
+      </c>
+      <c r="F204" s="3">
+        <v>100000</v>
+      </c>
       <c r="G204" s="3">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="H204" s="3">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="I204" s="3">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="J204" s="3">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="K204" s="3">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="L204" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3">
-        <v>2940000</v>
-      </c>
-      <c r="E205" s="3">
-        <f t="shared" si="3"/>
-        <v>980000</v>
-      </c>
-      <c r="F205" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G205" s="3">
-        <v>130000</v>
-      </c>
-      <c r="H205" s="3">
         <v>150000</v>
       </c>
-      <c r="I205" s="3">
-        <v>150000</v>
-      </c>
-      <c r="J205" s="3">
-        <v>150000</v>
-      </c>
-      <c r="K205" s="3">
-        <v>150000</v>
-      </c>
-      <c r="L205" s="3">
-        <v>150000</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
+  <autoFilter ref="A1:L204" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/预测.xlsx
+++ b/预测.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\77\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DB0E5E-97C8-47C3-99E6-6CE9EDAB3BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F4C2CC-6CE5-43FD-841E-B649192FA627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1296,7 +1296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1312,7 +1312,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1597,7 +1598,7 @@
   <dimension ref="A1:L205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1863,7 +1864,7 @@
       <c r="A8" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="11" t="s">
         <v>323</v>
       </c>
       <c r="C8" s="2"/>
@@ -1888,7 +1889,7 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>324</v>
       </c>
       <c r="C9" s="2"/>
@@ -1925,7 +1926,7 @@
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="7"/>
@@ -2077,7 +2078,7 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2"/>
@@ -2114,7 +2115,7 @@
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="2"/>
@@ -2151,7 +2152,7 @@
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2190,7 +2191,7 @@
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="2"/>
@@ -2227,7 +2228,7 @@
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="11" t="s">
         <v>325</v>
       </c>
       <c r="C18" s="2"/>
@@ -2376,7 +2377,7 @@
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="2"/>
@@ -2413,7 +2414,7 @@
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="2"/>
@@ -2450,7 +2451,7 @@
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2489,7 +2490,7 @@
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="2"/>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\714\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B303A234-489E-42D3-8EF6-7DF17A3AAAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F79421-629A-4299-8830-0F80081D3ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,26 +1057,26 @@
     <t>SC9675IM-LRF00-Q-AB-4XAR-9675</t>
   </si>
   <si>
-    <t>2025年7月预测</t>
+    <t>7月预测</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025年8月预测</t>
-  </si>
-  <si>
-    <t>2025年9月预测</t>
-  </si>
-  <si>
-    <t>2025年10月预测</t>
-  </si>
-  <si>
-    <t>2025年11月预测</t>
-  </si>
-  <si>
-    <t>2025年12月预测</t>
-  </si>
-  <si>
-    <t>2026年1月预测</t>
+    <t>8月预测</t>
+  </si>
+  <si>
+    <t>9月预测</t>
+  </si>
+  <si>
+    <t>10月预测</t>
+  </si>
+  <si>
+    <t>11月预测</t>
+  </si>
+  <si>
+    <t>12月预测</t>
+  </si>
+  <si>
+    <t>1月预测</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1199,67 +1199,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4146,10 +4086,10 @@
   <dimension ref="A1:O199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H198" sqref="H198"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10435,10 +10375,10 @@
   <autoFilter ref="A1:O1" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\714\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D3BBAD-9A05-4F92-9985-B78B1037DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDACB69-02B4-4A3B-A05D-B87A83F75204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,9 +993,6 @@
     <t>SC9675IM-LRF01-TR-Q</t>
   </si>
   <si>
-    <t>1月预测2</t>
-  </si>
-  <si>
     <t>合计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1077,6 +1074,10 @@
   </si>
   <si>
     <t>SC1945B1(STC2899AJ)-N13</t>
+  </si>
+  <si>
+    <t>1月预测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4088,7 +4089,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4115,7 +4116,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>3</v>
@@ -4133,10 +4134,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>318</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -5054,7 +5055,7 @@
         <v>293</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="str">
@@ -10410,7 +10411,7 @@
     </row>
     <row r="176" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D176" s="2">
         <f>IFERROR(VLOOKUP(B176,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10425,7 +10426,7 @@
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D177" s="2">
         <f>IFERROR(VLOOKUP(B177,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10440,7 +10441,7 @@
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D178" s="2">
         <f>IFERROR(VLOOKUP(B178,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10455,7 +10456,7 @@
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D179" s="2">
         <f>IFERROR(VLOOKUP(B179,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10470,7 +10471,7 @@
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D180" s="2">
         <f>IFERROR(VLOOKUP(B180,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10485,7 +10486,7 @@
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D181" s="2">
         <f>IFERROR(VLOOKUP(B181,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10500,7 +10501,7 @@
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D182" s="2">
         <f>IFERROR(VLOOKUP(B182,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10515,7 +10516,7 @@
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D183" s="2">
         <f>IFERROR(VLOOKUP(B183,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10530,7 +10531,7 @@
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D184" s="2">
         <f>IFERROR(VLOOKUP(B184,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10545,7 +10546,7 @@
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D185" s="2">
         <f>IFERROR(VLOOKUP(B185,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10560,7 +10561,7 @@
     </row>
     <row r="186" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D186" s="2">
         <f>IFERROR(VLOOKUP(B186,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10575,7 +10576,7 @@
     </row>
     <row r="187" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D187" s="2">
         <f>IFERROR(VLOOKUP(B187,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10590,7 +10591,7 @@
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D188" s="2">
         <f>IFERROR(VLOOKUP(B188,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10605,7 +10606,7 @@
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D189" s="2">
         <f>IFERROR(VLOOKUP(B189,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10620,7 +10621,7 @@
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D190" s="2">
         <f>IFERROR(VLOOKUP(B190,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10635,7 +10636,7 @@
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D191" s="2">
         <f>IFERROR(VLOOKUP(B191,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10650,7 +10651,7 @@
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D192" s="2">
         <f>IFERROR(VLOOKUP(B192,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10665,7 +10666,7 @@
     </row>
     <row r="193" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D193" s="2">
         <f>IFERROR(VLOOKUP(B193,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10680,7 +10681,7 @@
     </row>
     <row r="194" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D194" s="2">
         <f>IFERROR(VLOOKUP(B194,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10695,7 +10696,7 @@
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D195" s="2">
         <f>IFERROR(VLOOKUP(B195,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10710,7 +10711,7 @@
     </row>
     <row r="196" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D196" s="2">
         <f>IFERROR(VLOOKUP(B196,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10725,7 +10726,7 @@
     </row>
     <row r="197" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D197" s="2">
         <f>IFERROR(VLOOKUP(B197,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10740,7 +10741,7 @@
     </row>
     <row r="198" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D198" s="2">
         <f>IFERROR(VLOOKUP(B198,[1]Sheet2!$B:$G,6,0),"")</f>
@@ -10755,7 +10756,7 @@
     </row>
     <row r="199" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D199" s="2">
         <f>IFERROR(VLOOKUP(B199,[1]Sheet2!$B:$G,6,0),"")</f>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\716\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA855BF-E290-4629-B51F-00A49C49CDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C873399-2A79-4680-A4F6-F27435353FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1005,9 +1005,6 @@
     <t>SC9675IM-LRF01-TR-Q</t>
   </si>
   <si>
-    <t>1月预测2</t>
-  </si>
-  <si>
     <t>合计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1280,6 +1277,10 @@
   </si>
   <si>
     <t>7月预测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月预测</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1694,10 +1695,10 @@
   <dimension ref="A1:O365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D341" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G362" sqref="G362"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1724,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
@@ -1742,10 +1743,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>323</v>
       </c>
       <c r="L1" s="12"/>
       <c r="M1" s="6"/>
@@ -1818,10 +1819,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1840,10 +1841,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1862,10 +1863,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2093,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2586,10 +2587,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2608,10 +2609,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2633,7 +2634,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3073,7 +3074,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3215,7 +3216,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3273,7 +3274,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3448,10 +3449,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3594,10 +3595,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3971,7 +3972,7 @@
         <v>93</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -4864,10 +4865,10 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4982,10 +4983,10 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -5004,10 +5005,10 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -5218,10 +5219,10 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -6122,10 +6123,10 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -6464,10 +6465,10 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -6720,10 +6721,10 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -7090,10 +7091,10 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -7208,10 +7209,10 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -7304,10 +7305,10 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -7390,10 +7391,10 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -7540,10 +7541,10 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -7562,10 +7563,10 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -7648,10 +7649,10 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -7918,10 +7919,10 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -7940,10 +7941,10 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -7966,10 +7967,10 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -7992,10 +7993,10 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -8012,10 +8013,10 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -8036,10 +8037,10 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -8068,10 +8069,10 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -8088,10 +8089,10 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -8108,10 +8109,10 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -8131,7 +8132,7 @@
         <v>3100</v>
       </c>
       <c r="B216" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D216" s="2">
         <v>10000</v>
@@ -8139,10 +8140,10 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B217" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D217" s="2">
         <v>840000</v>
@@ -8153,7 +8154,7 @@
         <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D218" s="2">
         <v>110000</v>
@@ -8214,7 +8215,7 @@
         <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D223" s="2">
         <v>380000</v>
@@ -8366,7 +8367,7 @@
         <v>31</v>
       </c>
       <c r="B236" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D236" s="2">
         <v>250000</v>
@@ -8377,7 +8378,7 @@
         <v>31</v>
       </c>
       <c r="B237" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D237" s="2">
         <v>3000000</v>
@@ -8487,7 +8488,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D247" s="2">
         <v>3855000</v>
@@ -8498,10 +8499,10 @@
         <v>53</v>
       </c>
       <c r="B248" t="s">
+        <v>390</v>
+      </c>
+      <c r="C248" t="s">
         <v>391</v>
-      </c>
-      <c r="C248" t="s">
-        <v>392</v>
       </c>
       <c r="D248" s="2">
         <v>900000</v>
@@ -8531,10 +8532,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>392</v>
+      </c>
+      <c r="B251" t="s">
         <v>393</v>
-      </c>
-      <c r="B251" t="s">
-        <v>394</v>
       </c>
       <c r="D251" s="2">
         <v>600000</v>
@@ -8545,7 +8546,7 @@
         <v>55</v>
       </c>
       <c r="B252" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D252" s="2">
         <v>200000</v>
@@ -8663,10 +8664,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>339</v>
+      </c>
+      <c r="B263" t="s">
         <v>340</v>
-      </c>
-      <c r="B263" t="s">
-        <v>341</v>
       </c>
       <c r="D263" s="2">
         <v>400000</v>
@@ -8817,10 +8818,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>394</v>
+      </c>
+      <c r="B277" t="s">
         <v>395</v>
-      </c>
-      <c r="B277" t="s">
-        <v>396</v>
       </c>
       <c r="D277" s="2">
         <v>150000</v>
@@ -8831,7 +8832,7 @@
         <v>99</v>
       </c>
       <c r="B278" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D278" s="2">
         <v>991156</v>
@@ -9059,10 +9060,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>397</v>
+      </c>
+      <c r="B299" t="s">
         <v>398</v>
-      </c>
-      <c r="B299" t="s">
-        <v>399</v>
       </c>
       <c r="D299" s="2">
         <v>12000</v>
@@ -9180,10 +9181,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
+        <v>399</v>
+      </c>
+      <c r="B310" t="s">
         <v>400</v>
-      </c>
-      <c r="B310" t="s">
-        <v>401</v>
       </c>
       <c r="D310" s="2">
         <v>11000</v>
@@ -9367,10 +9368,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
+        <v>401</v>
+      </c>
+      <c r="B327" t="s">
         <v>402</v>
-      </c>
-      <c r="B327" t="s">
-        <v>403</v>
       </c>
       <c r="D327" s="2">
         <v>160000</v>
@@ -9378,10 +9379,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B328" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D328" s="2">
         <v>40000</v>
@@ -9392,7 +9393,7 @@
         <v>211</v>
       </c>
       <c r="B329" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D329" s="2">
         <v>10000</v>
@@ -9433,10 +9434,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
+        <v>405</v>
+      </c>
+      <c r="B333" t="s">
         <v>406</v>
-      </c>
-      <c r="B333" t="s">
-        <v>407</v>
       </c>
       <c r="D333" s="2">
         <v>1000</v>
@@ -9477,10 +9478,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
+        <v>407</v>
+      </c>
+      <c r="B337" t="s">
         <v>408</v>
-      </c>
-      <c r="B337" t="s">
-        <v>409</v>
       </c>
       <c r="D337" s="2">
         <v>10000</v>
@@ -9502,7 +9503,7 @@
         <v>224</v>
       </c>
       <c r="B339" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D339" s="3">
         <v>1000000</v>
@@ -9554,10 +9555,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
+        <v>410</v>
+      </c>
+      <c r="B344" t="s">
         <v>411</v>
-      </c>
-      <c r="B344" t="s">
-        <v>412</v>
       </c>
       <c r="D344" s="2">
         <v>46000</v>
@@ -9587,10 +9588,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
+        <v>355</v>
+      </c>
+      <c r="B347" t="s">
         <v>356</v>
-      </c>
-      <c r="B347" t="s">
-        <v>357</v>
       </c>
       <c r="D347" s="2">
         <v>200000</v>
@@ -9620,10 +9621,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
+        <v>357</v>
+      </c>
+      <c r="B350" t="s">
         <v>358</v>
-      </c>
-      <c r="B350" t="s">
-        <v>359</v>
       </c>
       <c r="D350" s="2">
         <v>10000</v>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\716\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\04 - 预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C873399-2A79-4680-A4F6-F27435353FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FD8D60-B063-4FE4-9676-3B3AB4D640AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$215</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="385">
   <si>
     <t>产品型号</t>
   </si>
@@ -1003,6 +1003,9 @@
   </si>
   <si>
     <t>SC9675IM-LRF01-TR-Q</t>
+  </si>
+  <si>
+    <t>1月预测2</t>
   </si>
   <si>
     <t>合计</t>
@@ -1190,98 +1193,6 @@
   </si>
   <si>
     <t>SYLM358DC-GC-90AR-NM</t>
-  </si>
-  <si>
-    <t>3100-3100</t>
-  </si>
-  <si>
-    <t>PFD1014A</t>
-  </si>
-  <si>
-    <t>SC1134BU-CI-00AR-1134</t>
-  </si>
-  <si>
-    <t>SC1645A1-AI-00HK-615HA</t>
-  </si>
-  <si>
-    <t>SC1645B1-AE-00HK-4601</t>
-  </si>
-  <si>
-    <t>SC2402SO-N-CJ-00NR-2402</t>
-  </si>
-  <si>
-    <t>SC2402SO-N-CJ-00NR-6571</t>
-  </si>
-  <si>
-    <t>CSMC</t>
-  </si>
-  <si>
-    <t>SC2402S1-BK</t>
-  </si>
-  <si>
-    <t>SC2402S1-CJ-90AK-6571</t>
-  </si>
-  <si>
-    <t>SC2448SO-H-TR-Q</t>
-  </si>
-  <si>
-    <t>SC2448SO-H-Q-DB-60AR-2448H</t>
-  </si>
-  <si>
-    <t>SC2448SO-Q-DB-40CR-2448</t>
-  </si>
-  <si>
-    <t>SC4104SE-TR</t>
-  </si>
-  <si>
-    <t>SC4104SE-GB-00LR-4104</t>
-  </si>
-  <si>
-    <t>SC4643VB-S-TR-Q</t>
-  </si>
-  <si>
-    <t>SC4643VB-S-Q-DE-40CR-4643</t>
-  </si>
-  <si>
-    <t>SC9314UA</t>
-  </si>
-  <si>
-    <t>SC9314UA-9201L</t>
-  </si>
-  <si>
-    <t>SC9314UA-9209</t>
-  </si>
-  <si>
-    <t>SC9314UA-CF-0XAK-2414</t>
-  </si>
-  <si>
-    <t>SC9621VB-TR-Q</t>
-  </si>
-  <si>
-    <t>SC9621VB-Q-CN-4XCR-9621</t>
-  </si>
-  <si>
-    <t>SC9634VB-BK</t>
-  </si>
-  <si>
-    <t>SC9634VB-CG-00CK-9634</t>
-  </si>
-  <si>
-    <t>SC9641TS-P-AI-10LR-41CPA</t>
-  </si>
-  <si>
-    <t>SC9642TS-E-TR</t>
-  </si>
-  <si>
-    <t>SC9642TS-E-AH-4XLR-9642</t>
-  </si>
-  <si>
-    <t>7月预测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月预测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1331,18 +1242,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1388,7 +1293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1410,7 +1315,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1692,13 +1596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}">
-  <dimension ref="A1:O365"/>
+  <dimension ref="A1:N215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D194" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1706,15 +1610,14 @@
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="11.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1725,35 +1628,32 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>412</v>
+        <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>7</v>
+        <v>322</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="L1" s="12"/>
+        <v>323</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>286</v>
       </c>
@@ -1761,31 +1661,30 @@
         <v>286</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3">
+        <v>48</v>
+      </c>
       <c r="E2" s="3">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="F2" s="3">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="G2" s="3">
         <v>96</v>
       </c>
       <c r="H2" s="3">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I2" s="3">
         <v>24</v>
       </c>
-      <c r="J2" s="3">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4">
-        <f>SUM(E2:J2)</f>
+      <c r="J2" s="4">
+        <f>SUM(D2:I2)</f>
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>288</v>
       </c>
@@ -1793,83 +1692,82 @@
         <v>288</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>25</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>25</v>
       </c>
-      <c r="J3" s="3">
-        <v>25</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K47" si="0">SUM(E3:J3)</f>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J47" si="0">SUM(D3:I3)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
@@ -1885,15 +1783,12 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>289</v>
       </c>
@@ -1901,31 +1796,30 @@
         <v>290</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
       <c r="E7" s="9">
-        <v>0</v>
+        <v>370000</v>
       </c>
       <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
         <v>370000</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
       </c>
       <c r="I7" s="9">
         <v>370000</v>
       </c>
-      <c r="J7" s="9">
-        <v>370000</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>1110000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1933,7 +1827,9 @@
         <v>291</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3">
+        <v>50000</v>
+      </c>
       <c r="E8" s="3">
         <v>50000</v>
       </c>
@@ -1949,15 +1845,12 @@
       <c r="I8" s="3">
         <v>50000</v>
       </c>
-      <c r="J8" s="3">
-        <v>50000</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1965,31 +1858,30 @@
         <v>10</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3">
+        <v>572150</v>
+      </c>
       <c r="E9" s="3">
+        <v>567150</v>
+      </c>
+      <c r="F9" s="3">
         <v>572150</v>
       </c>
-      <c r="F9" s="3">
-        <v>567150</v>
-      </c>
       <c r="G9" s="3">
-        <v>572150</v>
+        <v>632150</v>
       </c>
       <c r="H9" s="3">
-        <v>632150</v>
+        <v>627150</v>
       </c>
       <c r="I9" s="3">
         <v>627150</v>
       </c>
-      <c r="J9" s="3">
-        <v>627150</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>3597900</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1999,7 +1891,9 @@
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3">
+        <v>130000</v>
+      </c>
       <c r="E10" s="3">
         <v>130000</v>
       </c>
@@ -2015,15 +1909,12 @@
       <c r="I10" s="3">
         <v>130000</v>
       </c>
-      <c r="J10" s="3">
-        <v>130000</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>780000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2033,7 +1924,9 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3">
+        <v>50000</v>
+      </c>
       <c r="E11" s="3">
         <v>50000</v>
       </c>
@@ -2049,15 +1942,12 @@
       <c r="I11" s="3">
         <v>50000</v>
       </c>
-      <c r="J11" s="3">
-        <v>50000</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2065,53 +1955,51 @@
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3">
+        <v>65000</v>
+      </c>
       <c r="E12" s="3">
         <v>65000</v>
       </c>
       <c r="F12" s="3">
-        <v>65000</v>
+        <v>135000</v>
       </c>
       <c r="G12" s="3">
-        <v>135000</v>
+        <v>85000</v>
       </c>
       <c r="H12" s="3">
-        <v>85000</v>
+        <v>118000</v>
       </c>
       <c r="I12" s="3">
         <v>118000</v>
       </c>
-      <c r="J12" s="3">
-        <v>118000</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>586000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2119,9 +2007,11 @@
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="3">
+        <v>240000</v>
+      </c>
       <c r="E14" s="3">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="F14" s="3">
         <v>120000</v>
@@ -2135,15 +2025,12 @@
       <c r="I14" s="3">
         <v>120000</v>
       </c>
-      <c r="J14" s="3">
-        <v>120000</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2153,25 +2040,24 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3">
+        <v>380000</v>
+      </c>
       <c r="E15" s="3">
         <v>380000</v>
       </c>
-      <c r="F15" s="3">
-        <v>380000</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>760000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2179,7 +2065,9 @@
         <v>17</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3">
+        <v>320000</v>
+      </c>
       <c r="E16" s="3">
         <v>320000</v>
       </c>
@@ -2195,15 +2083,12 @@
       <c r="I16" s="3">
         <v>320000</v>
       </c>
-      <c r="J16" s="3">
-        <v>320000</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="J16" s="4">
         <f t="shared" si="0"/>
         <v>1920000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2211,7 +2096,9 @@
         <v>269</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="3">
+        <v>100000</v>
+      </c>
       <c r="E17" s="3">
         <v>100000</v>
       </c>
@@ -2227,15 +2114,12 @@
       <c r="I17" s="3">
         <v>100000</v>
       </c>
-      <c r="J17" s="3">
-        <v>100000</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="J17" s="4">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2245,7 +2129,9 @@
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3">
+        <v>3000</v>
+      </c>
       <c r="E18" s="3">
         <v>3000</v>
       </c>
@@ -2261,15 +2147,12 @@
       <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2279,31 +2162,30 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3">
+        <v>212000</v>
+      </c>
       <c r="E19" s="3">
-        <v>212000</v>
+        <v>200000</v>
       </c>
       <c r="F19" s="3">
+        <v>218000</v>
+      </c>
+      <c r="G19" s="3">
         <v>200000</v>
       </c>
-      <c r="G19" s="3">
-        <v>218000</v>
-      </c>
       <c r="H19" s="3">
-        <v>200000</v>
+        <v>221000</v>
       </c>
       <c r="I19" s="3">
         <v>221000</v>
       </c>
-      <c r="J19" s="3">
-        <v>221000</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="J19" s="4">
         <f t="shared" si="0"/>
         <v>1272000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2311,12 +2193,14 @@
         <v>20</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3">
+        <v>33000</v>
+      </c>
       <c r="E20" s="3">
         <v>33000</v>
       </c>
       <c r="F20" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="G20" s="3">
         <v>35000</v>
@@ -2327,15 +2211,12 @@
       <c r="I20" s="3">
         <v>35000</v>
       </c>
-      <c r="J20" s="3">
-        <v>35000</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="J20" s="4">
         <f t="shared" si="0"/>
         <v>206000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2343,7 +2224,9 @@
         <v>22</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3">
+        <v>400000</v>
+      </c>
       <c r="E21" s="3">
         <v>400000</v>
       </c>
@@ -2359,15 +2242,12 @@
       <c r="I21" s="3">
         <v>400000</v>
       </c>
-      <c r="J21" s="3">
-        <v>400000</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="J21" s="4">
         <f t="shared" si="0"/>
         <v>2400000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2375,9 +2255,11 @@
         <v>24</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3">
+        <v>395000</v>
+      </c>
       <c r="E22" s="3">
-        <v>395000</v>
+        <v>235000</v>
       </c>
       <c r="F22" s="3">
         <v>235000</v>
@@ -2391,15 +2273,12 @@
       <c r="I22" s="3">
         <v>235000</v>
       </c>
-      <c r="J22" s="3">
-        <v>235000</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="J22" s="4">
         <f t="shared" si="0"/>
         <v>1570000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2407,7 +2286,9 @@
         <v>26</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3">
+        <v>19000</v>
+      </c>
       <c r="E23" s="3">
         <v>19000</v>
       </c>
@@ -2423,15 +2304,12 @@
       <c r="I23" s="3">
         <v>19000</v>
       </c>
-      <c r="J23" s="3">
-        <v>19000</v>
-      </c>
-      <c r="K23" s="4">
+      <c r="J23" s="4">
         <f t="shared" si="0"/>
         <v>114000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2439,25 +2317,24 @@
         <v>28</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>500000</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
         <v>500000</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2465,7 +2342,9 @@
         <v>29</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="3">
+        <v>3500000</v>
+      </c>
       <c r="E25" s="3">
         <v>3500000</v>
       </c>
@@ -2481,15 +2360,12 @@
       <c r="I25" s="3">
         <v>3500000</v>
       </c>
-      <c r="J25" s="3">
-        <v>3500000</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="J25" s="4">
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2497,9 +2373,11 @@
         <v>30</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3">
+        <v>2000000</v>
+      </c>
       <c r="E26" s="3">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F26" s="3">
         <v>1000000</v>
@@ -2513,15 +2391,12 @@
       <c r="I26" s="3">
         <v>1000000</v>
       </c>
-      <c r="J26" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="K26" s="4">
+      <c r="J26" s="4">
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -2529,7 +2404,9 @@
         <v>292</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="3">
+        <v>3000000</v>
+      </c>
       <c r="E27" s="3">
         <v>3000000</v>
       </c>
@@ -2545,15 +2422,12 @@
       <c r="I27" s="3">
         <v>3000000</v>
       </c>
-      <c r="J27" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="K27" s="4">
+      <c r="J27" s="4">
         <f t="shared" si="0"/>
         <v>18000000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2561,9 +2435,11 @@
         <v>293</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="3">
+        <v>750000</v>
+      </c>
       <c r="E28" s="3">
-        <v>750000</v>
+        <v>250000</v>
       </c>
       <c r="F28" s="3">
         <v>250000</v>
@@ -2577,81 +2453,75 @@
       <c r="I28" s="3">
         <v>250000</v>
       </c>
-      <c r="J28" s="3">
-        <v>250000</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="J28" s="4">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2659,25 +2529,24 @@
         <v>33</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="3">
+        <v>2500000</v>
+      </c>
       <c r="E32" s="3">
         <v>2500000</v>
       </c>
-      <c r="F32" s="3">
-        <v>2500000</v>
-      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2685,9 +2554,11 @@
         <v>35</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="3">
+        <v>500000</v>
+      </c>
       <c r="E33" s="3">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="F33" s="3">
         <v>250000</v>
@@ -2701,15 +2572,12 @@
       <c r="I33" s="3">
         <v>250000</v>
       </c>
-      <c r="J33" s="3">
-        <v>250000</v>
-      </c>
-      <c r="K33" s="4">
+      <c r="J33" s="4">
         <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>294</v>
       </c>
@@ -2717,23 +2585,22 @@
         <v>295</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3">
+      <c r="D34" s="3">
         <v>250000</v>
       </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2741,23 +2608,22 @@
         <v>37</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3">
+      <c r="D35" s="3">
         <v>1500000</v>
       </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>296</v>
       </c>
@@ -2765,12 +2631,14 @@
         <v>297</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="3">
+        <v>60000</v>
+      </c>
       <c r="E36" s="3">
         <v>60000</v>
       </c>
       <c r="F36" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="G36" s="3">
         <v>65000</v>
@@ -2781,15 +2649,12 @@
       <c r="I36" s="3">
         <v>65000</v>
       </c>
-      <c r="J36" s="3">
-        <v>65000</v>
-      </c>
-      <c r="K36" s="4">
+      <c r="J36" s="4">
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,15 +2662,17 @@
         <v>39</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="3">
+        <v>239000</v>
+      </c>
       <c r="E37" s="3">
+        <v>1239000</v>
+      </c>
+      <c r="F37" s="3">
         <v>239000</v>
       </c>
-      <c r="F37" s="3">
-        <v>1239000</v>
-      </c>
       <c r="G37" s="3">
-        <v>239000</v>
+        <v>240000</v>
       </c>
       <c r="H37" s="3">
         <v>240000</v>
@@ -2813,15 +2680,12 @@
       <c r="I37" s="3">
         <v>240000</v>
       </c>
-      <c r="J37" s="3">
-        <v>240000</v>
-      </c>
-      <c r="K37" s="4">
+      <c r="J37" s="4">
         <f t="shared" si="0"/>
         <v>2437000</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2829,15 +2693,17 @@
         <v>41</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
         <v>30000</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
       </c>
       <c r="H38" s="3">
         <v>30000</v>
@@ -2845,15 +2711,12 @@
       <c r="I38" s="3">
         <v>30000</v>
       </c>
-      <c r="J38" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K38" s="4">
+      <c r="J38" s="4">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -2861,7 +2724,9 @@
         <v>43</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="3">
+        <v>379000</v>
+      </c>
       <c r="E39" s="3">
         <v>379000</v>
       </c>
@@ -2877,15 +2742,12 @@
       <c r="I39" s="3">
         <v>379000</v>
       </c>
-      <c r="J39" s="3">
-        <v>379000</v>
-      </c>
-      <c r="K39" s="4">
+      <c r="J39" s="4">
         <f t="shared" si="0"/>
         <v>2274000</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -2893,7 +2755,9 @@
         <v>45</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="3">
+        <v>80000</v>
+      </c>
       <c r="E40" s="3">
         <v>80000</v>
       </c>
@@ -2909,15 +2773,12 @@
       <c r="I40" s="3">
         <v>80000</v>
       </c>
-      <c r="J40" s="3">
-        <v>80000</v>
-      </c>
-      <c r="K40" s="4">
+      <c r="J40" s="4">
         <f t="shared" si="0"/>
         <v>480000</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2925,7 +2786,9 @@
         <v>47</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="3">
+        <v>510000</v>
+      </c>
       <c r="E41" s="3">
         <v>510000</v>
       </c>
@@ -2941,15 +2804,12 @@
       <c r="I41" s="3">
         <v>510000</v>
       </c>
-      <c r="J41" s="3">
-        <v>510000</v>
-      </c>
-      <c r="K41" s="4">
+      <c r="J41" s="4">
         <f t="shared" si="0"/>
         <v>3060000</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2957,23 +2817,22 @@
         <v>48</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3">
+      <c r="D42" s="3">
         <v>381000</v>
       </c>
+      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
         <f t="shared" si="0"/>
         <v>381000</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -2981,15 +2840,17 @@
         <v>50</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="3">
+        <v>40000</v>
+      </c>
       <c r="E43" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="F43" s="3">
         <v>10000</v>
       </c>
       <c r="G43" s="3">
-        <v>10000</v>
+        <v>70000</v>
       </c>
       <c r="H43" s="3">
         <v>70000</v>
@@ -2997,15 +2858,12 @@
       <c r="I43" s="3">
         <v>70000</v>
       </c>
-      <c r="J43" s="3">
-        <v>70000</v>
-      </c>
-      <c r="K43" s="4">
+      <c r="J43" s="4">
         <f t="shared" si="0"/>
         <v>270000</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -3013,7 +2871,9 @@
         <v>52</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="3">
+        <v>50000</v>
+      </c>
       <c r="E44" s="3">
         <v>50000</v>
       </c>
@@ -3029,15 +2889,12 @@
       <c r="I44" s="3">
         <v>50000</v>
       </c>
-      <c r="J44" s="3">
-        <v>50000</v>
-      </c>
-      <c r="K44" s="4">
+      <c r="J44" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -3045,53 +2902,51 @@
         <v>298</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="3">
+        <v>3910000</v>
+      </c>
       <c r="E45" s="3">
-        <v>3910000</v>
+        <v>4335000</v>
       </c>
       <c r="F45" s="3">
+        <v>3615000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4095000</v>
+      </c>
+      <c r="H45" s="3">
         <v>4335000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3615000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4095000</v>
       </c>
       <c r="I45" s="3">
         <v>4335000</v>
       </c>
-      <c r="J45" s="3">
-        <v>4335000</v>
-      </c>
-      <c r="K45" s="4">
+      <c r="J45" s="4">
         <f t="shared" si="0"/>
         <v>24625000</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="4">
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -3099,7 +2954,9 @@
         <v>54</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="3">
+        <v>2167000</v>
+      </c>
       <c r="E47" s="3">
         <v>2167000</v>
       </c>
@@ -3110,20 +2967,17 @@
         <v>2167000</v>
       </c>
       <c r="H47" s="3">
-        <v>2167000</v>
+        <v>2287000</v>
       </c>
       <c r="I47" s="3">
         <v>2287000</v>
       </c>
-      <c r="J47" s="3">
-        <v>2287000</v>
-      </c>
-      <c r="K47" s="4">
+      <c r="J47" s="4">
         <f t="shared" si="0"/>
         <v>13242000</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -3131,31 +2985,30 @@
         <v>56</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="3">
+        <v>500000</v>
+      </c>
       <c r="E48" s="3">
-        <v>500000</v>
+        <v>1100000</v>
       </c>
       <c r="F48" s="3">
+        <v>600000</v>
+      </c>
+      <c r="G48" s="3">
         <v>1100000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>600000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1100000</v>
       </c>
       <c r="I48" s="3">
         <v>600000</v>
       </c>
-      <c r="J48" s="3">
-        <v>600000</v>
-      </c>
-      <c r="K48" s="4">
-        <f t="shared" ref="K48:K94" si="1">SUM(E48:J48)</f>
+      <c r="J48" s="4">
+        <f t="shared" ref="J48:J94" si="1">SUM(D48:I48)</f>
         <v>4500000</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -3163,31 +3016,30 @@
         <v>57</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="3">
+        <v>400000</v>
+      </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>600000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>400000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>600000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>400000</v>
       </c>
-      <c r="J49" s="3">
-        <v>400000</v>
-      </c>
-      <c r="K49" s="4">
+      <c r="J49" s="4">
         <f t="shared" si="1"/>
         <v>1800000</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -3195,31 +3047,32 @@
         <v>299</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="3">
+      <c r="D50" s="3">
         <v>1000000</v>
       </c>
+      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
       <c r="E51" s="3">
         <v>0</v>
       </c>
@@ -3235,15 +3088,12 @@
       <c r="I51" s="3">
         <v>0</v>
       </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
+      <c r="J51" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -3251,45 +3101,43 @@
         <v>58</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
         <v>1000000</v>
       </c>
+      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3">
+      <c r="G52" s="3">
         <v>1000000</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="4">
+      <c r="J53" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -3297,29 +3145,28 @@
         <v>60</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="3">
+        <v>600000</v>
+      </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>600000</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>600000</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
         <f t="shared" si="1"/>
         <v>1200000</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -3327,7 +3174,9 @@
         <v>62</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="3">
+        <v>140000</v>
+      </c>
       <c r="E55" s="3">
         <v>140000</v>
       </c>
@@ -3343,15 +3192,12 @@
       <c r="I55" s="3">
         <v>140000</v>
       </c>
-      <c r="J55" s="3">
-        <v>140000</v>
-      </c>
-      <c r="K55" s="4">
+      <c r="J55" s="4">
         <f t="shared" si="1"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -3359,12 +3205,14 @@
         <v>64</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="3">
+        <v>20000</v>
+      </c>
       <c r="E56" s="3">
         <v>20000</v>
       </c>
       <c r="F56" s="3">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="G56" s="3">
         <v>35000</v>
@@ -3375,15 +3223,12 @@
       <c r="I56" s="3">
         <v>35000</v>
       </c>
-      <c r="J56" s="3">
-        <v>35000</v>
-      </c>
-      <c r="K56" s="4">
+      <c r="J56" s="4">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -3391,9 +3236,11 @@
         <v>66</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="3">
+        <v>5000</v>
+      </c>
       <c r="E57" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F57" s="3">
         <v>10000</v>
@@ -3402,20 +3249,17 @@
         <v>10000</v>
       </c>
       <c r="H57" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="I57" s="3">
         <v>40000</v>
       </c>
-      <c r="J57" s="3">
-        <v>40000</v>
-      </c>
-      <c r="K57" s="4">
+      <c r="J57" s="4">
         <f t="shared" si="1"/>
         <v>115000</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -3423,53 +3267,51 @@
         <v>68</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="3">
+        <v>106000</v>
+      </c>
       <c r="E58" s="3">
-        <v>106000</v>
+        <v>76000</v>
       </c>
       <c r="F58" s="3">
-        <v>76000</v>
+        <v>89000</v>
       </c>
       <c r="G58" s="3">
         <v>89000</v>
       </c>
       <c r="H58" s="3">
-        <v>89000</v>
+        <v>109000</v>
       </c>
       <c r="I58" s="3">
         <v>109000</v>
       </c>
-      <c r="J58" s="3">
-        <v>109000</v>
-      </c>
-      <c r="K58" s="4">
+      <c r="J58" s="4">
         <f t="shared" si="1"/>
         <v>578000</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4">
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -3477,7 +3319,9 @@
         <v>70</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="3">
+        <v>430000</v>
+      </c>
       <c r="E60" s="3">
         <v>430000</v>
       </c>
@@ -3493,15 +3337,12 @@
       <c r="I60" s="3">
         <v>430000</v>
       </c>
-      <c r="J60" s="3">
-        <v>430000</v>
-      </c>
-      <c r="K60" s="4">
+      <c r="J60" s="4">
         <f t="shared" si="1"/>
         <v>2580000</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3509,31 +3350,30 @@
         <v>72</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="3">
+        <v>120000</v>
+      </c>
       <c r="E61" s="3">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="F61" s="3">
-        <v>125000</v>
+        <v>130000</v>
       </c>
       <c r="G61" s="3">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="H61" s="3">
-        <v>135000</v>
+        <v>165000</v>
       </c>
       <c r="I61" s="3">
         <v>165000</v>
       </c>
-      <c r="J61" s="3">
-        <v>165000</v>
-      </c>
-      <c r="K61" s="4">
+      <c r="J61" s="4">
         <f t="shared" si="1"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -3541,7 +3381,9 @@
         <v>74</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="3">
+        <v>30000</v>
+      </c>
       <c r="E62" s="3">
         <v>30000</v>
       </c>
@@ -3557,15 +3399,12 @@
       <c r="I62" s="3">
         <v>30000</v>
       </c>
-      <c r="J62" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K62" s="4">
+      <c r="J62" s="4">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -3573,49 +3412,47 @@
         <v>74</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3">
+        <v>12000</v>
+      </c>
       <c r="F63" s="3">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="G63" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H63" s="3">
         <v>15000</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3">
-        <v>0</v>
-      </c>
-      <c r="K63" s="4">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
         <f t="shared" si="1"/>
         <v>33000</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
-      <c r="K64" s="4">
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -3623,31 +3460,30 @@
         <v>77</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="D65" s="3">
+        <v>30000</v>
+      </c>
       <c r="E65" s="3">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="F65" s="3">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="G65" s="3">
         <v>3000</v>
       </c>
       <c r="H65" s="3">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="I65" s="3">
         <v>18000</v>
       </c>
-      <c r="J65" s="3">
-        <v>18000</v>
-      </c>
-      <c r="K65" s="4">
+      <c r="J65" s="4">
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -3655,31 +3491,30 @@
         <v>79</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="3">
+        <v>14000</v>
+      </c>
       <c r="E66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F66" s="3">
         <v>14000</v>
       </c>
-      <c r="F66" s="3">
-        <v>5000</v>
-      </c>
       <c r="G66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H66" s="3">
         <v>14000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>20000</v>
       </c>
       <c r="I66" s="3">
         <v>14000</v>
       </c>
-      <c r="J66" s="3">
-        <v>14000</v>
-      </c>
-      <c r="K66" s="4">
+      <c r="J66" s="4">
         <f t="shared" si="1"/>
         <v>81000</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
@@ -3687,7 +3522,9 @@
         <v>81</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="3">
+        <v>19000</v>
+      </c>
       <c r="E67" s="3">
         <v>19000</v>
       </c>
@@ -3703,15 +3540,12 @@
       <c r="I67" s="3">
         <v>19000</v>
       </c>
-      <c r="J67" s="3">
-        <v>19000</v>
-      </c>
-      <c r="K67" s="4">
+      <c r="J67" s="4">
         <f t="shared" si="1"/>
         <v>114000</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -3719,7 +3553,9 @@
         <v>83</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="3">
+        <v>20000</v>
+      </c>
       <c r="E68" s="3">
         <v>20000</v>
       </c>
@@ -3735,15 +3571,12 @@
       <c r="I68" s="3">
         <v>20000</v>
       </c>
-      <c r="J68" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K68" s="4">
+      <c r="J68" s="4">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
@@ -3751,31 +3584,30 @@
         <v>85</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="3">
+        <v>322000</v>
+      </c>
       <c r="E69" s="3">
         <v>322000</v>
       </c>
       <c r="F69" s="3">
+        <v>352000</v>
+      </c>
+      <c r="G69" s="3">
         <v>322000</v>
       </c>
-      <c r="G69" s="3">
+      <c r="H69" s="3">
         <v>352000</v>
-      </c>
-      <c r="H69" s="3">
-        <v>322000</v>
       </c>
       <c r="I69" s="3">
         <v>352000</v>
       </c>
-      <c r="J69" s="3">
-        <v>352000</v>
-      </c>
-      <c r="K69" s="4">
+      <c r="J69" s="4">
         <f t="shared" si="1"/>
         <v>2022000</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
@@ -3783,31 +3615,30 @@
         <v>300</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="D70" s="3">
+        <v>900000</v>
+      </c>
       <c r="E70" s="3">
         <v>900000</v>
       </c>
       <c r="F70" s="3">
-        <v>900000</v>
+        <v>1000000</v>
       </c>
       <c r="G70" s="3">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H70" s="3">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="I70" s="3">
         <v>1500000</v>
       </c>
-      <c r="J70" s="3">
-        <v>1500000</v>
-      </c>
-      <c r="K70" s="4">
+      <c r="J70" s="4">
         <f t="shared" si="1"/>
         <v>7100000</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
@@ -3815,31 +3646,30 @@
         <v>87</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="3">
+        <v>212000</v>
+      </c>
       <c r="E71" s="3">
         <v>212000</v>
       </c>
       <c r="F71" s="3">
+        <v>242000</v>
+      </c>
+      <c r="G71" s="3">
         <v>212000</v>
       </c>
-      <c r="G71" s="3">
+      <c r="H71" s="3">
         <v>242000</v>
-      </c>
-      <c r="H71" s="3">
-        <v>212000</v>
       </c>
       <c r="I71" s="3">
         <v>242000</v>
       </c>
-      <c r="J71" s="3">
-        <v>242000</v>
-      </c>
-      <c r="K71" s="4">
+      <c r="J71" s="4">
         <f t="shared" si="1"/>
         <v>1362000</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
@@ -3847,31 +3677,30 @@
         <v>88</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="3">
+        <v>320000</v>
+      </c>
       <c r="E72" s="3">
         <v>320000</v>
       </c>
       <c r="F72" s="3">
-        <v>320000</v>
+        <v>380000</v>
       </c>
       <c r="G72" s="3">
         <v>380000</v>
       </c>
       <c r="H72" s="3">
-        <v>380000</v>
+        <v>392000</v>
       </c>
       <c r="I72" s="3">
         <v>392000</v>
       </c>
-      <c r="J72" s="3">
-        <v>392000</v>
-      </c>
-      <c r="K72" s="4">
+      <c r="J72" s="4">
         <f t="shared" si="1"/>
         <v>2184000</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -3879,31 +3708,30 @@
         <v>90</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="3">
+        <v>352000</v>
+      </c>
       <c r="E73" s="3">
-        <v>352000</v>
+        <v>552000</v>
       </c>
       <c r="F73" s="3">
-        <v>552000</v>
+        <v>362000</v>
       </c>
       <c r="G73" s="3">
         <v>362000</v>
       </c>
       <c r="H73" s="3">
-        <v>362000</v>
+        <v>562000</v>
       </c>
       <c r="I73" s="3">
         <v>562000</v>
       </c>
-      <c r="J73" s="3">
-        <v>562000</v>
-      </c>
-      <c r="K73" s="4">
+      <c r="J73" s="4">
         <f t="shared" si="1"/>
         <v>2752000</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -3911,31 +3739,30 @@
         <v>92</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="3">
+        <v>854000</v>
+      </c>
       <c r="E74" s="3">
-        <v>854000</v>
+        <v>1192500</v>
       </c>
       <c r="F74" s="3">
-        <v>1192500</v>
+        <v>1429000</v>
       </c>
       <c r="G74" s="3">
-        <v>1429000</v>
+        <v>1529000</v>
       </c>
       <c r="H74" s="3">
-        <v>1529000</v>
+        <v>1527000</v>
       </c>
       <c r="I74" s="3">
         <v>1527000</v>
       </c>
-      <c r="J74" s="3">
-        <v>1527000</v>
-      </c>
-      <c r="K74" s="4">
+      <c r="J74" s="4">
         <f t="shared" si="1"/>
         <v>8058500</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>93</v>
       </c>
@@ -3943,53 +3770,51 @@
         <v>94</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="3">
+        <v>322000</v>
+      </c>
       <c r="E75" s="3">
-        <v>322000</v>
+        <v>272000</v>
       </c>
       <c r="F75" s="3">
-        <v>272000</v>
+        <v>282000</v>
       </c>
       <c r="G75" s="3">
         <v>282000</v>
       </c>
       <c r="H75" s="3">
-        <v>282000</v>
+        <v>292000</v>
       </c>
       <c r="I75" s="3">
         <v>292000</v>
       </c>
-      <c r="J75" s="3">
-        <v>292000</v>
-      </c>
-      <c r="K75" s="4">
+      <c r="J75" s="4">
         <f t="shared" si="1"/>
         <v>1742000</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="4">
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>95</v>
       </c>
@@ -3997,12 +3822,14 @@
         <v>96</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="3">
+        <v>360000</v>
+      </c>
       <c r="E77" s="3">
-        <v>360000</v>
+        <v>500000</v>
       </c>
       <c r="F77" s="3">
-        <v>500000</v>
+        <v>505000</v>
       </c>
       <c r="G77" s="3">
         <v>505000</v>
@@ -4013,15 +3840,12 @@
       <c r="I77" s="3">
         <v>505000</v>
       </c>
-      <c r="J77" s="3">
-        <v>505000</v>
-      </c>
-      <c r="K77" s="4">
+      <c r="J77" s="4">
         <f t="shared" si="1"/>
         <v>2880000</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>97</v>
       </c>
@@ -4029,31 +3853,30 @@
         <v>301</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="D78" s="3">
+        <v>262000</v>
+      </c>
       <c r="E78" s="3">
-        <v>262000</v>
+        <v>283000</v>
       </c>
       <c r="F78" s="3">
-        <v>283000</v>
+        <v>331000</v>
       </c>
       <c r="G78" s="3">
-        <v>331000</v>
+        <v>368000</v>
       </c>
       <c r="H78" s="3">
-        <v>368000</v>
+        <v>388000</v>
       </c>
       <c r="I78" s="3">
         <v>388000</v>
       </c>
-      <c r="J78" s="3">
-        <v>388000</v>
-      </c>
-      <c r="K78" s="4">
+      <c r="J78" s="4">
         <f t="shared" si="1"/>
         <v>2020000</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>98</v>
       </c>
@@ -4061,12 +3884,14 @@
         <v>302</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="D79" s="3">
+        <v>830000</v>
+      </c>
       <c r="E79" s="3">
         <v>830000</v>
       </c>
       <c r="F79" s="3">
-        <v>830000</v>
+        <v>840000</v>
       </c>
       <c r="G79" s="3">
         <v>840000</v>
@@ -4077,15 +3902,12 @@
       <c r="I79" s="3">
         <v>840000</v>
       </c>
-      <c r="J79" s="3">
-        <v>840000</v>
-      </c>
-      <c r="K79" s="4">
+      <c r="J79" s="4">
         <f t="shared" si="1"/>
         <v>5020000</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>99</v>
       </c>
@@ -4093,31 +3915,30 @@
         <v>303</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="3">
+        <v>994000</v>
+      </c>
       <c r="E80" s="3">
-        <v>994000</v>
+        <v>1072000</v>
       </c>
       <c r="F80" s="3">
-        <v>1072000</v>
+        <v>1226000</v>
       </c>
       <c r="G80" s="3">
-        <v>1226000</v>
+        <v>1470000</v>
       </c>
       <c r="H80" s="3">
-        <v>1470000</v>
+        <v>1464000</v>
       </c>
       <c r="I80" s="3">
-        <v>1464000</v>
-      </c>
-      <c r="J80" s="3">
         <v>1460000</v>
       </c>
-      <c r="K80" s="4">
+      <c r="J80" s="4">
         <f t="shared" si="1"/>
         <v>7686000</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>100</v>
       </c>
@@ -4125,23 +3946,22 @@
         <v>101</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
+      <c r="H81" s="3">
+        <v>200000</v>
+      </c>
       <c r="I81" s="3">
         <v>200000</v>
       </c>
-      <c r="J81" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K81" s="4">
+      <c r="J81" s="4">
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>304</v>
       </c>
@@ -4149,25 +3969,24 @@
         <v>305</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
+      <c r="G82" s="3">
+        <v>5000</v>
+      </c>
       <c r="H82" s="3">
         <v>5000</v>
       </c>
       <c r="I82" s="3">
         <v>5000</v>
       </c>
-      <c r="J82" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K82" s="4">
+      <c r="J82" s="4">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>102</v>
       </c>
@@ -4175,7 +3994,9 @@
         <v>103</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="D83" s="3">
+        <v>5000</v>
+      </c>
       <c r="E83" s="3">
         <v>5000</v>
       </c>
@@ -4191,15 +4012,12 @@
       <c r="I83" s="3">
         <v>5000</v>
       </c>
-      <c r="J83" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K83" s="4">
+      <c r="J83" s="4">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>104</v>
       </c>
@@ -4207,7 +4025,9 @@
         <v>105</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="3">
+        <v>150000</v>
+      </c>
       <c r="E84" s="3">
         <v>150000</v>
       </c>
@@ -4215,7 +4035,7 @@
         <v>150000</v>
       </c>
       <c r="G84" s="3">
-        <v>150000</v>
+        <v>151000</v>
       </c>
       <c r="H84" s="3">
         <v>151000</v>
@@ -4223,15 +4043,12 @@
       <c r="I84" s="3">
         <v>151000</v>
       </c>
-      <c r="J84" s="3">
-        <v>151000</v>
-      </c>
-      <c r="K84" s="4">
+      <c r="J84" s="4">
         <f t="shared" si="1"/>
         <v>903000</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>106</v>
       </c>
@@ -4239,31 +4056,30 @@
         <v>107</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="D85" s="3">
+        <v>128000</v>
+      </c>
       <c r="E85" s="3">
-        <v>128000</v>
+        <v>130000</v>
       </c>
       <c r="F85" s="3">
-        <v>130000</v>
+        <v>133000</v>
       </c>
       <c r="G85" s="3">
-        <v>133000</v>
+        <v>145000</v>
       </c>
       <c r="H85" s="3">
-        <v>145000</v>
+        <v>150000</v>
       </c>
       <c r="I85" s="3">
         <v>150000</v>
       </c>
-      <c r="J85" s="3">
-        <v>150000</v>
-      </c>
-      <c r="K85" s="4">
+      <c r="J85" s="4">
         <f t="shared" si="1"/>
         <v>836000</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>108</v>
       </c>
@@ -4271,7 +4087,9 @@
         <v>109</v>
       </c>
       <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+      <c r="D86" s="9">
+        <v>10000</v>
+      </c>
       <c r="E86" s="9">
         <v>10000</v>
       </c>
@@ -4287,15 +4105,12 @@
       <c r="I86" s="9">
         <v>10000</v>
       </c>
-      <c r="J86" s="9">
-        <v>10000</v>
-      </c>
-      <c r="K86" s="4">
+      <c r="J86" s="4">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
@@ -4303,23 +4118,22 @@
         <v>110</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="3">
+      <c r="D87" s="3">
         <v>400000</v>
       </c>
+      <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3">
-        <v>0</v>
-      </c>
-      <c r="K87" s="4">
+      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>111</v>
       </c>
@@ -4327,7 +4141,9 @@
         <v>112</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="D88" s="3">
+        <v>3000</v>
+      </c>
       <c r="E88" s="3">
         <v>3000</v>
       </c>
@@ -4343,15 +4159,12 @@
       <c r="I88" s="3">
         <v>3000</v>
       </c>
-      <c r="J88" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K88" s="4">
+      <c r="J88" s="4">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>113</v>
       </c>
@@ -4359,29 +4172,28 @@
         <v>114</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3">
+        <v>200000</v>
+      </c>
       <c r="F89" s="3">
-        <v>200000</v>
+        <v>215000</v>
       </c>
       <c r="G89" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H89" s="3">
         <v>215000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>150000</v>
       </c>
       <c r="I89" s="3">
         <v>215000</v>
       </c>
-      <c r="J89" s="3">
-        <v>215000</v>
-      </c>
-      <c r="K89" s="4">
+      <c r="J89" s="4">
         <f t="shared" si="1"/>
         <v>995000</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>306</v>
       </c>
@@ -4389,9 +4201,11 @@
         <v>287</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="3">
+        <v>5000</v>
+      </c>
       <c r="G90" s="3">
         <v>5000</v>
       </c>
@@ -4401,15 +4215,12 @@
       <c r="I90" s="3">
         <v>5000</v>
       </c>
-      <c r="J90" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K90" s="4">
+      <c r="J90" s="4">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>115</v>
       </c>
@@ -4417,7 +4228,9 @@
         <v>116</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="3">
+        <v>1200000</v>
+      </c>
       <c r="E91" s="3">
         <v>1200000</v>
       </c>
@@ -4433,15 +4246,12 @@
       <c r="I91" s="3">
         <v>1200000</v>
       </c>
-      <c r="J91" s="3">
-        <v>1200000</v>
-      </c>
-      <c r="K91" s="4">
+      <c r="J91" s="4">
         <f t="shared" si="1"/>
         <v>7200000</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>117</v>
       </c>
@@ -4449,31 +4259,30 @@
         <v>118</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="3">
+        <v>1050000</v>
+      </c>
       <c r="E92" s="3">
-        <v>1050000</v>
+        <v>1200000</v>
       </c>
       <c r="F92" s="3">
-        <v>1200000</v>
+        <v>1110000</v>
       </c>
       <c r="G92" s="3">
-        <v>1110000</v>
+        <v>1170000</v>
       </c>
       <c r="H92" s="3">
-        <v>1170000</v>
+        <v>1530000</v>
       </c>
       <c r="I92" s="3">
         <v>1530000</v>
       </c>
-      <c r="J92" s="3">
-        <v>1530000</v>
-      </c>
-      <c r="K92" s="4">
+      <c r="J92" s="4">
         <f t="shared" si="1"/>
         <v>7590000</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
@@ -4481,31 +4290,30 @@
         <v>120</v>
       </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="3">
+        <v>82000</v>
+      </c>
       <c r="E93" s="3">
-        <v>82000</v>
+        <v>94000</v>
       </c>
       <c r="F93" s="3">
-        <v>94000</v>
+        <v>120000</v>
       </c>
       <c r="G93" s="3">
-        <v>120000</v>
+        <v>190000</v>
       </c>
       <c r="H93" s="3">
-        <v>190000</v>
+        <v>214000</v>
       </c>
       <c r="I93" s="3">
         <v>214000</v>
       </c>
-      <c r="J93" s="3">
-        <v>214000</v>
-      </c>
-      <c r="K93" s="4">
+      <c r="J93" s="4">
         <f t="shared" si="1"/>
         <v>914000</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>121</v>
       </c>
@@ -4513,7 +4321,9 @@
         <v>122</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="3">
+        <v>95000</v>
+      </c>
       <c r="E94" s="3">
         <v>95000</v>
       </c>
@@ -4529,15 +4339,12 @@
       <c r="I94" s="3">
         <v>95000</v>
       </c>
-      <c r="J94" s="3">
-        <v>95000</v>
-      </c>
-      <c r="K94" s="4">
+      <c r="J94" s="4">
         <f t="shared" si="1"/>
         <v>570000</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>123</v>
       </c>
@@ -4545,7 +4352,9 @@
         <v>124</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
       <c r="E95" s="3">
         <v>0</v>
       </c>
@@ -4556,20 +4365,17 @@
         <v>0</v>
       </c>
       <c r="H95" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I95" s="3">
         <v>10000</v>
       </c>
-      <c r="J95" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K95" s="4">
-        <f t="shared" ref="K95:K140" si="2">SUM(E95:J95)</f>
+      <c r="J95" s="4">
+        <f t="shared" ref="J95:J140" si="2">SUM(D95:I95)</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>125</v>
       </c>
@@ -4577,31 +4383,30 @@
         <v>126</v>
       </c>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="D96" s="3">
+        <v>50000</v>
+      </c>
       <c r="E96" s="3">
         <v>50000</v>
       </c>
       <c r="F96" s="3">
-        <v>50000</v>
+        <v>115000</v>
       </c>
       <c r="G96" s="3">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="H96" s="3">
-        <v>125000</v>
+        <v>175000</v>
       </c>
       <c r="I96" s="3">
         <v>175000</v>
       </c>
-      <c r="J96" s="3">
-        <v>175000</v>
-      </c>
-      <c r="K96" s="4">
+      <c r="J96" s="4">
         <f t="shared" si="2"/>
         <v>690000</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>127</v>
       </c>
@@ -4609,7 +4414,9 @@
         <v>128</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="D97" s="3">
+        <v>5000</v>
+      </c>
       <c r="E97" s="3">
         <v>5000</v>
       </c>
@@ -4625,15 +4432,12 @@
       <c r="I97" s="3">
         <v>5000</v>
       </c>
-      <c r="J97" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K97" s="4">
+      <c r="J97" s="4">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>129</v>
       </c>
@@ -4641,9 +4445,11 @@
         <v>130</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+      <c r="F98" s="3">
+        <v>5000</v>
+      </c>
       <c r="G98" s="3">
         <v>5000</v>
       </c>
@@ -4653,15 +4459,12 @@
       <c r="I98" s="3">
         <v>5000</v>
       </c>
-      <c r="J98" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K98" s="4">
+      <c r="J98" s="4">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
@@ -4669,12 +4472,14 @@
         <v>132</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="3">
+        <v>5000</v>
+      </c>
       <c r="E99" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F99" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G99" s="3">
         <v>20000</v>
@@ -4685,15 +4490,12 @@
       <c r="I99" s="3">
         <v>20000</v>
       </c>
-      <c r="J99" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K99" s="4">
+      <c r="J99" s="4">
         <f t="shared" si="2"/>
         <v>95000</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
@@ -4701,25 +4503,24 @@
         <v>134</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="G100" s="3">
+        <v>3000</v>
+      </c>
       <c r="H100" s="3">
         <v>3000</v>
       </c>
       <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K100" s="4">
+      <c r="J100" s="4">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>307</v>
       </c>
@@ -4727,10 +4528,12 @@
         <v>308</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3">
+        <v>3000</v>
+      </c>
       <c r="F101" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G101" s="3">
         <v>5000</v>
@@ -4741,15 +4544,12 @@
       <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K101" s="4">
+      <c r="J101" s="4">
         <f t="shared" si="2"/>
         <v>23000</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>309</v>
       </c>
@@ -4757,7 +4557,9 @@
         <v>287</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="3">
+        <v>60000</v>
+      </c>
       <c r="E102" s="3">
         <v>60000</v>
       </c>
@@ -4765,7 +4567,7 @@
         <v>60000</v>
       </c>
       <c r="G102" s="3">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="H102" s="3">
         <v>120000</v>
@@ -4773,15 +4575,12 @@
       <c r="I102" s="3">
         <v>120000</v>
       </c>
-      <c r="J102" s="3">
-        <v>120000</v>
-      </c>
-      <c r="K102" s="4">
+      <c r="J102" s="4">
         <f t="shared" si="2"/>
         <v>540000</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>135</v>
       </c>
@@ -4789,27 +4588,26 @@
         <v>136</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="F103" s="3">
+        <v>10000</v>
+      </c>
       <c r="G103" s="3">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="H103" s="3">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="I103" s="3">
         <v>18000</v>
       </c>
-      <c r="J103" s="3">
-        <v>18000</v>
-      </c>
-      <c r="K103" s="4">
+      <c r="J103" s="4">
         <f t="shared" si="2"/>
         <v>59000</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>137</v>
       </c>
@@ -4817,21 +4615,20 @@
         <v>138</v>
       </c>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3">
-        <v>0</v>
-      </c>
-      <c r="K104" s="4">
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>310</v>
       </c>
@@ -4839,7 +4636,9 @@
         <v>287</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="D105" s="3">
+        <v>50000</v>
+      </c>
       <c r="E105" s="3">
         <v>50000</v>
       </c>
@@ -4855,37 +4654,33 @@
       <c r="I105" s="3">
         <v>50000</v>
       </c>
-      <c r="J105" s="3">
-        <v>50000</v>
-      </c>
-      <c r="K105" s="4">
+      <c r="J105" s="4">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3">
-        <v>0</v>
-      </c>
-      <c r="K106" s="4">
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>311</v>
       </c>
@@ -4893,12 +4688,14 @@
         <v>312</v>
       </c>
       <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="D107" s="3">
+        <v>10000</v>
+      </c>
       <c r="E107" s="3">
         <v>10000</v>
       </c>
       <c r="F107" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G107" s="3">
         <v>20000</v>
@@ -4909,15 +4706,12 @@
       <c r="I107" s="3">
         <v>20000</v>
       </c>
-      <c r="J107" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K107" s="4">
+      <c r="J107" s="4">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>139</v>
       </c>
@@ -4925,31 +4719,30 @@
         <v>140</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="D108" s="3">
+        <v>90000</v>
+      </c>
       <c r="E108" s="3">
         <v>90000</v>
       </c>
       <c r="F108" s="3">
+        <v>880000</v>
+      </c>
+      <c r="G108" s="3">
         <v>90000</v>
       </c>
-      <c r="G108" s="3">
-        <v>880000</v>
-      </c>
       <c r="H108" s="3">
-        <v>90000</v>
+        <v>190000</v>
       </c>
       <c r="I108" s="3">
         <v>190000</v>
       </c>
-      <c r="J108" s="3">
-        <v>190000</v>
-      </c>
-      <c r="K108" s="4">
+      <c r="J108" s="4">
         <f t="shared" si="2"/>
         <v>1530000</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>141</v>
       </c>
@@ -4957,75 +4750,72 @@
         <v>142</v>
       </c>
       <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
       <c r="E109" s="3">
         <v>0</v>
       </c>
       <c r="F109" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G109" s="3">
         <v>20000</v>
       </c>
       <c r="H109" s="3">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="I109" s="3">
         <v>100000</v>
       </c>
-      <c r="J109" s="3">
-        <v>100000</v>
-      </c>
-      <c r="K109" s="4">
+      <c r="J109" s="4">
         <f t="shared" si="2"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3">
-        <v>0</v>
-      </c>
-      <c r="K110" s="4">
+      <c r="I110" s="3">
+        <v>0</v>
+      </c>
+      <c r="J110" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3">
-        <v>0</v>
-      </c>
-      <c r="K111" s="4">
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>143</v>
       </c>
@@ -5033,7 +4823,9 @@
         <v>144</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="D112" s="3">
+        <v>50000</v>
+      </c>
       <c r="E112" s="3">
         <v>50000</v>
       </c>
@@ -5049,15 +4841,12 @@
       <c r="I112" s="3">
         <v>50000</v>
       </c>
-      <c r="J112" s="3">
-        <v>50000</v>
-      </c>
-      <c r="K112" s="4">
+      <c r="J112" s="4">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>143</v>
       </c>
@@ -5065,7 +4854,9 @@
         <v>145</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="D113" s="3">
+        <v>30000</v>
+      </c>
       <c r="E113" s="3">
         <v>30000</v>
       </c>
@@ -5081,15 +4872,12 @@
       <c r="I113" s="3">
         <v>30000</v>
       </c>
-      <c r="J113" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K113" s="4">
+      <c r="J113" s="4">
         <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>270</v>
       </c>
@@ -5097,7 +4885,9 @@
         <v>146</v>
       </c>
       <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="3">
+        <v>500000</v>
+      </c>
       <c r="E114" s="3">
         <v>500000</v>
       </c>
@@ -5113,15 +4903,12 @@
       <c r="I114" s="3">
         <v>500000</v>
       </c>
-      <c r="J114" s="3">
-        <v>500000</v>
-      </c>
-      <c r="K114" s="4">
+      <c r="J114" s="4">
         <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>147</v>
       </c>
@@ -5129,9 +4916,11 @@
         <v>148</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="D115" s="3">
+        <v>240000</v>
+      </c>
       <c r="E115" s="3">
-        <v>240000</v>
+        <v>245000</v>
       </c>
       <c r="F115" s="3">
         <v>245000</v>
@@ -5140,20 +4929,17 @@
         <v>245000</v>
       </c>
       <c r="H115" s="3">
-        <v>245000</v>
+        <v>260000</v>
       </c>
       <c r="I115" s="3">
         <v>260000</v>
       </c>
-      <c r="J115" s="3">
-        <v>260000</v>
-      </c>
-      <c r="K115" s="4">
+      <c r="J115" s="4">
         <f t="shared" si="2"/>
         <v>1495000</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>271</v>
       </c>
@@ -5161,7 +4947,9 @@
         <v>272</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="3">
+        <v>3000000</v>
+      </c>
       <c r="E116" s="3">
         <v>3000000</v>
       </c>
@@ -5177,15 +4965,12 @@
       <c r="I116" s="3">
         <v>3000000</v>
       </c>
-      <c r="J116" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="K116" s="4">
+      <c r="J116" s="4">
         <f t="shared" si="2"/>
         <v>18000000</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>149</v>
       </c>
@@ -5193,12 +4978,14 @@
         <v>150</v>
       </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="3">
-        <v>0</v>
-      </c>
-      <c r="F117" s="9">
-        <v>0</v>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="9">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>200000</v>
       </c>
       <c r="G117" s="3">
         <v>200000</v>
@@ -5209,20 +4996,17 @@
       <c r="I117" s="3">
         <v>200000</v>
       </c>
-      <c r="J117" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K117" s="4">
+      <c r="J117" s="4">
         <f t="shared" si="2"/>
         <v>800000</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -5230,16 +5014,15 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3">
-        <v>0</v>
-      </c>
-      <c r="K118" s="4">
+      <c r="I118" s="3">
+        <v>0</v>
+      </c>
+      <c r="J118" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>151</v>
       </c>
@@ -5247,23 +5030,22 @@
         <v>152</v>
       </c>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="3">
+      <c r="D119" s="3">
         <v>65000</v>
       </c>
+      <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3">
-        <v>0</v>
-      </c>
-      <c r="K119" s="4">
+      <c r="I119" s="3">
+        <v>0</v>
+      </c>
+      <c r="J119" s="4">
         <f t="shared" si="2"/>
         <v>65000</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>153</v>
       </c>
@@ -5271,11 +5053,13 @@
         <v>154</v>
       </c>
       <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
+      <c r="F120" s="3">
+        <v>200000</v>
+      </c>
       <c r="G120" s="3">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="H120" s="3">
         <v>250000</v>
@@ -5283,15 +5067,12 @@
       <c r="I120" s="3">
         <v>250000</v>
       </c>
-      <c r="J120" s="3">
-        <v>250000</v>
-      </c>
-      <c r="K120" s="4">
+      <c r="J120" s="4">
         <f t="shared" si="2"/>
         <v>950000</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>155</v>
       </c>
@@ -5299,9 +5080,11 @@
         <v>156</v>
       </c>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+      <c r="F121" s="3">
+        <v>2000000</v>
+      </c>
       <c r="G121" s="3">
         <v>2000000</v>
       </c>
@@ -5311,15 +5094,12 @@
       <c r="I121" s="3">
         <v>2000000</v>
       </c>
-      <c r="J121" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="K121" s="4">
+      <c r="J121" s="4">
         <f t="shared" si="2"/>
         <v>8000000</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>157</v>
       </c>
@@ -5327,19 +5107,18 @@
         <v>158</v>
       </c>
       <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="4">
+      <c r="J122" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>159</v>
       </c>
@@ -5347,7 +5126,9 @@
         <v>160</v>
       </c>
       <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="D123" s="3">
+        <v>20000</v>
+      </c>
       <c r="E123" s="3">
         <v>20000</v>
       </c>
@@ -5363,15 +5144,12 @@
       <c r="I123" s="3">
         <v>20000</v>
       </c>
-      <c r="J123" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K123" s="4">
+      <c r="J123" s="4">
         <f t="shared" si="2"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
@@ -5379,12 +5157,14 @@
         <v>162</v>
       </c>
       <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="D124" s="3">
+        <v>10000</v>
+      </c>
       <c r="E124" s="3">
         <v>10000</v>
       </c>
       <c r="F124" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G124" s="3">
         <v>20000</v>
@@ -5395,15 +5175,12 @@
       <c r="I124" s="3">
         <v>20000</v>
       </c>
-      <c r="J124" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K124" s="4">
+      <c r="J124" s="4">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>161</v>
       </c>
@@ -5411,15 +5188,17 @@
         <v>163</v>
       </c>
       <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="D125" s="3">
+        <v>151320</v>
+      </c>
       <c r="E125" s="3">
-        <v>151320</v>
+        <v>174800</v>
       </c>
       <c r="F125" s="3">
         <v>174800</v>
       </c>
       <c r="G125" s="3">
-        <v>174800</v>
+        <v>1000000</v>
       </c>
       <c r="H125" s="3">
         <v>1000000</v>
@@ -5427,15 +5206,12 @@
       <c r="I125" s="3">
         <v>1000000</v>
       </c>
-      <c r="J125" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="K125" s="4">
+      <c r="J125" s="4">
         <f t="shared" si="2"/>
         <v>3500920</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>164</v>
       </c>
@@ -5443,15 +5219,17 @@
         <v>165</v>
       </c>
       <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="D126" s="3">
+        <v>21150</v>
+      </c>
       <c r="E126" s="3">
-        <v>21150</v>
+        <v>23500</v>
       </c>
       <c r="F126" s="3">
         <v>23500</v>
       </c>
       <c r="G126" s="3">
-        <v>23500</v>
+        <v>30000</v>
       </c>
       <c r="H126" s="3">
         <v>30000</v>
@@ -5459,15 +5237,12 @@
       <c r="I126" s="3">
         <v>30000</v>
       </c>
-      <c r="J126" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K126" s="4">
+      <c r="J126" s="4">
         <f t="shared" si="2"/>
         <v>158150</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>166</v>
       </c>
@@ -5475,27 +5250,26 @@
         <v>167</v>
       </c>
       <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="D127" s="3">
+        <v>4750</v>
+      </c>
       <c r="E127" s="3">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="F127" s="3">
         <v>3750</v>
       </c>
-      <c r="G127" s="3">
-        <v>3750</v>
-      </c>
+      <c r="G127" s="3"/>
       <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3">
-        <v>0</v>
-      </c>
-      <c r="K127" s="4">
+      <c r="I127" s="3">
+        <v>0</v>
+      </c>
+      <c r="J127" s="4">
         <f t="shared" si="2"/>
         <v>12250</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>168</v>
       </c>
@@ -5503,31 +5277,30 @@
         <v>169</v>
       </c>
       <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="D128" s="3">
+        <v>220000</v>
+      </c>
       <c r="E128" s="3">
-        <v>220000</v>
+        <v>85000</v>
       </c>
       <c r="F128" s="3">
-        <v>85000</v>
+        <v>213000</v>
       </c>
       <c r="G128" s="3">
+        <v>75000</v>
+      </c>
+      <c r="H128" s="3">
         <v>213000</v>
-      </c>
-      <c r="H128" s="3">
-        <v>75000</v>
       </c>
       <c r="I128" s="3">
         <v>213000</v>
       </c>
-      <c r="J128" s="3">
-        <v>213000</v>
-      </c>
-      <c r="K128" s="4">
+      <c r="J128" s="4">
         <f t="shared" si="2"/>
         <v>1019000</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>168</v>
       </c>
@@ -5535,8 +5308,10 @@
         <v>170</v>
       </c>
       <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3">
+        <v>250000</v>
+      </c>
       <c r="F129" s="3">
         <v>250000</v>
       </c>
@@ -5549,15 +5324,12 @@
       <c r="I129" s="3">
         <v>250000</v>
       </c>
-      <c r="J129" s="3">
-        <v>250000</v>
-      </c>
-      <c r="K129" s="4">
+      <c r="J129" s="4">
         <f t="shared" si="2"/>
         <v>1250000</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>172</v>
       </c>
@@ -5565,31 +5337,30 @@
         <v>173</v>
       </c>
       <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="D130" s="3">
+        <v>75000</v>
+      </c>
       <c r="E130" s="3">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="F130" s="3">
+        <v>80000</v>
+      </c>
+      <c r="G130" s="3">
         <v>30000</v>
       </c>
-      <c r="G130" s="3">
+      <c r="H130" s="3">
         <v>80000</v>
-      </c>
-      <c r="H130" s="3">
-        <v>30000</v>
       </c>
       <c r="I130" s="3">
         <v>80000</v>
       </c>
-      <c r="J130" s="3">
-        <v>80000</v>
-      </c>
-      <c r="K130" s="4">
+      <c r="J130" s="4">
         <f t="shared" si="2"/>
         <v>375000</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>174</v>
       </c>
@@ -5597,12 +5368,14 @@
         <v>175</v>
       </c>
       <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="D131" s="3">
+        <v>20000</v>
+      </c>
       <c r="E131" s="3">
-        <v>20000</v>
+        <v>58400</v>
       </c>
       <c r="F131" s="3">
-        <v>58400</v>
+        <v>64400</v>
       </c>
       <c r="G131" s="3">
         <v>64400</v>
@@ -5613,15 +5386,12 @@
       <c r="I131" s="3">
         <v>64400</v>
       </c>
-      <c r="J131" s="3">
-        <v>64400</v>
-      </c>
-      <c r="K131" s="4">
+      <c r="J131" s="4">
         <f t="shared" si="2"/>
         <v>336000</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>176</v>
       </c>
@@ -5629,7 +5399,9 @@
         <v>177</v>
       </c>
       <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+      <c r="D132" s="3">
+        <v>2000</v>
+      </c>
       <c r="E132" s="3">
         <v>2000</v>
       </c>
@@ -5645,15 +5417,12 @@
       <c r="I132" s="3">
         <v>2000</v>
       </c>
-      <c r="J132" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K132" s="4">
+      <c r="J132" s="4">
         <f t="shared" si="2"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>178</v>
       </c>
@@ -5661,15 +5430,17 @@
         <v>179</v>
       </c>
       <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+      <c r="D133" s="3">
+        <v>7000</v>
+      </c>
       <c r="E133" s="3">
-        <v>7000</v>
+        <v>27000</v>
       </c>
       <c r="F133" s="3">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="G133" s="3">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="H133" s="3">
         <v>24000</v>
@@ -5677,15 +5448,12 @@
       <c r="I133" s="3">
         <v>24000</v>
       </c>
-      <c r="J133" s="3">
-        <v>24000</v>
-      </c>
-      <c r="K133" s="4">
+      <c r="J133" s="4">
         <f t="shared" si="2"/>
         <v>124000</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>171</v>
       </c>
@@ -5693,9 +5461,11 @@
         <v>268</v>
       </c>
       <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+      <c r="D134" s="3">
+        <v>400000</v>
+      </c>
       <c r="E134" s="3">
-        <v>400000</v>
+        <v>750000</v>
       </c>
       <c r="F134" s="3">
         <v>750000</v>
@@ -5709,15 +5479,12 @@
       <c r="I134" s="3">
         <v>750000</v>
       </c>
-      <c r="J134" s="3">
-        <v>750000</v>
-      </c>
-      <c r="K134" s="4">
+      <c r="J134" s="4">
         <f t="shared" si="2"/>
         <v>4150000</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>180</v>
       </c>
@@ -5725,27 +5492,26 @@
         <v>181</v>
       </c>
       <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="3">
+      <c r="D135" s="3">
         <v>50000</v>
       </c>
-      <c r="F135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3">
+        <v>50000</v>
+      </c>
       <c r="G135" s="3">
         <v>50000</v>
       </c>
-      <c r="H135" s="3">
-        <v>50000</v>
-      </c>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3">
-        <v>0</v>
-      </c>
-      <c r="K135" s="4">
+      <c r="H135" s="3"/>
+      <c r="I135" s="3">
+        <v>0</v>
+      </c>
+      <c r="J135" s="4">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>273</v>
       </c>
@@ -5753,23 +5519,22 @@
         <v>274</v>
       </c>
       <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
+      <c r="H136" s="3">
+        <v>5000</v>
+      </c>
       <c r="I136" s="3">
         <v>5000</v>
       </c>
-      <c r="J136" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K136" s="4">
+      <c r="J136" s="4">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>182</v>
       </c>
@@ -5777,7 +5542,9 @@
         <v>183</v>
       </c>
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="3">
+        <v>200000</v>
+      </c>
       <c r="E137" s="3">
         <v>200000</v>
       </c>
@@ -5793,15 +5560,12 @@
       <c r="I137" s="3">
         <v>200000</v>
       </c>
-      <c r="J137" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K137" s="4">
+      <c r="J137" s="4">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>184</v>
       </c>
@@ -5809,31 +5573,30 @@
         <v>185</v>
       </c>
       <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="3">
+        <v>210000</v>
+      </c>
       <c r="E138" s="3">
-        <v>210000</v>
+        <v>214000</v>
       </c>
       <c r="F138" s="3">
-        <v>214000</v>
+        <v>219000</v>
       </c>
       <c r="G138" s="3">
         <v>219000</v>
       </c>
       <c r="H138" s="3">
-        <v>219000</v>
+        <v>229000</v>
       </c>
       <c r="I138" s="3">
         <v>229000</v>
       </c>
-      <c r="J138" s="3">
-        <v>229000</v>
-      </c>
-      <c r="K138" s="4">
+      <c r="J138" s="4">
         <f t="shared" si="2"/>
         <v>1320000</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>186</v>
       </c>
@@ -5841,31 +5604,30 @@
         <v>187</v>
       </c>
       <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="3">
+        <v>356000</v>
+      </c>
       <c r="E139" s="3">
-        <v>356000</v>
+        <v>366000</v>
       </c>
       <c r="F139" s="3">
-        <v>366000</v>
+        <v>358000</v>
       </c>
       <c r="G139" s="3">
+        <v>368000</v>
+      </c>
+      <c r="H139" s="3">
         <v>358000</v>
       </c>
-      <c r="H139" s="3">
+      <c r="I139" s="3">
         <v>368000</v>
       </c>
-      <c r="I139" s="3">
-        <v>358000</v>
-      </c>
-      <c r="J139" s="3">
-        <v>368000</v>
-      </c>
-      <c r="K139" s="4">
+      <c r="J139" s="4">
         <f t="shared" si="2"/>
         <v>2174000</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>186</v>
       </c>
@@ -5873,7 +5635,9 @@
         <v>188</v>
       </c>
       <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+      <c r="D140" s="3">
+        <v>600000</v>
+      </c>
       <c r="E140" s="3">
         <v>600000</v>
       </c>
@@ -5889,15 +5653,12 @@
       <c r="I140" s="3">
         <v>600000</v>
       </c>
-      <c r="J140" s="3">
-        <v>600000</v>
-      </c>
-      <c r="K140" s="4">
+      <c r="J140" s="4">
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>189</v>
       </c>
@@ -5905,12 +5666,14 @@
         <v>190</v>
       </c>
       <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="D141" s="3">
+        <v>262500</v>
+      </c>
       <c r="E141" s="3">
-        <v>262500</v>
+        <v>312500</v>
       </c>
       <c r="F141" s="3">
-        <v>312500</v>
+        <v>315000</v>
       </c>
       <c r="G141" s="3">
         <v>315000</v>
@@ -5921,15 +5684,12 @@
       <c r="I141" s="3">
         <v>315000</v>
       </c>
-      <c r="J141" s="3">
-        <v>315000</v>
-      </c>
-      <c r="K141" s="4">
-        <f t="shared" ref="K141:K202" si="3">SUM(E141:J141)</f>
+      <c r="J141" s="4">
+        <f t="shared" ref="J141:J202" si="3">SUM(D141:I141)</f>
         <v>1835000</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>313</v>
       </c>
@@ -5937,7 +5697,9 @@
         <v>314</v>
       </c>
       <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+      <c r="D142" s="3">
+        <v>400000</v>
+      </c>
       <c r="E142" s="3">
         <v>400000</v>
       </c>
@@ -5945,7 +5707,7 @@
         <v>400000</v>
       </c>
       <c r="G142" s="3">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="H142" s="3">
         <v>300000</v>
@@ -5953,15 +5715,12 @@
       <c r="I142" s="3">
         <v>300000</v>
       </c>
-      <c r="J142" s="3">
-        <v>300000</v>
-      </c>
-      <c r="K142" s="4">
+      <c r="J142" s="4">
         <f t="shared" si="3"/>
         <v>2100000</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>191</v>
       </c>
@@ -5969,7 +5728,9 @@
         <v>192</v>
       </c>
       <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+      <c r="D143" s="3">
+        <v>1000000</v>
+      </c>
       <c r="E143" s="3">
         <v>1000000</v>
       </c>
@@ -5985,15 +5746,12 @@
       <c r="I143" s="3">
         <v>1000000</v>
       </c>
-      <c r="J143" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="K143" s="4">
+      <c r="J143" s="4">
         <f t="shared" si="3"/>
         <v>6000000</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>193</v>
       </c>
@@ -6001,7 +5759,9 @@
         <v>194</v>
       </c>
       <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+      <c r="D144" s="3">
+        <v>1000000</v>
+      </c>
       <c r="E144" s="3">
         <v>1000000</v>
       </c>
@@ -6017,15 +5777,12 @@
       <c r="I144" s="3">
         <v>1000000</v>
       </c>
-      <c r="J144" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="K144" s="4">
+      <c r="J144" s="4">
         <f t="shared" si="3"/>
         <v>6000000</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
@@ -6033,7 +5790,9 @@
         <v>283</v>
       </c>
       <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+      <c r="D145" s="3">
+        <v>30000</v>
+      </c>
       <c r="E145" s="3">
         <v>30000</v>
       </c>
@@ -6049,15 +5808,12 @@
       <c r="I145" s="3">
         <v>30000</v>
       </c>
-      <c r="J145" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K145" s="4">
+      <c r="J145" s="4">
         <f t="shared" si="3"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>195</v>
       </c>
@@ -6065,7 +5821,9 @@
         <v>195</v>
       </c>
       <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="D146" s="3">
+        <v>14880</v>
+      </c>
       <c r="E146" s="3">
         <v>14880</v>
       </c>
@@ -6081,15 +5839,12 @@
       <c r="I146" s="3">
         <v>14880</v>
       </c>
-      <c r="J146" s="3">
-        <v>14880</v>
-      </c>
-      <c r="K146" s="4">
+      <c r="J146" s="4">
         <f t="shared" si="3"/>
         <v>89280</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>196</v>
       </c>
@@ -6097,7 +5852,9 @@
         <v>196</v>
       </c>
       <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="D147" s="3">
+        <v>13000</v>
+      </c>
       <c r="E147" s="3">
         <v>13000</v>
       </c>
@@ -6113,37 +5870,33 @@
       <c r="I147" s="3">
         <v>13000</v>
       </c>
-      <c r="J147" s="3">
-        <v>13000</v>
-      </c>
-      <c r="K147" s="4">
+      <c r="J147" s="4">
         <f t="shared" si="3"/>
         <v>78000</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+      <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3">
-        <v>0</v>
-      </c>
-      <c r="K148" s="4">
+      <c r="I148" s="3">
+        <v>0</v>
+      </c>
+      <c r="J148" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>284</v>
       </c>
@@ -6151,7 +5904,9 @@
         <v>285</v>
       </c>
       <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="D149" s="1">
+        <v>160000</v>
+      </c>
       <c r="E149" s="1">
         <v>160000</v>
       </c>
@@ -6167,15 +5922,12 @@
       <c r="I149" s="1">
         <v>160000</v>
       </c>
-      <c r="J149" s="1">
-        <v>160000</v>
-      </c>
-      <c r="K149" s="4">
+      <c r="J149" s="4">
         <f t="shared" si="3"/>
         <v>960000</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>275</v>
       </c>
@@ -6183,9 +5935,11 @@
         <v>276</v>
       </c>
       <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="D150" s="1">
+        <v>20000</v>
+      </c>
       <c r="E150" s="1">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F150" s="1">
         <v>30000</v>
@@ -6199,15 +5953,12 @@
       <c r="I150" s="1">
         <v>30000</v>
       </c>
-      <c r="J150" s="1">
-        <v>30000</v>
-      </c>
-      <c r="K150" s="4">
+      <c r="J150" s="4">
         <f t="shared" si="3"/>
         <v>170000</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>275</v>
       </c>
@@ -6215,9 +5966,11 @@
         <v>277</v>
       </c>
       <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="D151" s="1">
+        <v>20000</v>
+      </c>
       <c r="E151" s="1">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F151" s="1">
         <v>30000</v>
@@ -6231,15 +5984,12 @@
       <c r="I151" s="1">
         <v>30000</v>
       </c>
-      <c r="J151" s="1">
-        <v>30000</v>
-      </c>
-      <c r="K151" s="4">
+      <c r="J151" s="4">
         <f t="shared" si="3"/>
         <v>170000</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>197</v>
       </c>
@@ -6247,7 +5997,9 @@
         <v>198</v>
       </c>
       <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
+      <c r="D152" s="1">
+        <v>0</v>
+      </c>
       <c r="E152" s="1">
         <v>0</v>
       </c>
@@ -6258,20 +6010,17 @@
         <v>0</v>
       </c>
       <c r="H152" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I152" s="1">
         <v>50000</v>
       </c>
-      <c r="J152" s="1">
-        <v>50000</v>
-      </c>
-      <c r="K152" s="4">
+      <c r="J152" s="4">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>199</v>
       </c>
@@ -6279,31 +6028,30 @@
         <v>200</v>
       </c>
       <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="D153" s="1">
+        <v>3000</v>
+      </c>
       <c r="E153" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F153" s="1">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="G153" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H153" s="1">
         <v>23000</v>
-      </c>
-      <c r="H153" s="1">
-        <v>20000</v>
       </c>
       <c r="I153" s="1">
         <v>23000</v>
       </c>
-      <c r="J153" s="1">
-        <v>23000</v>
-      </c>
-      <c r="K153" s="4">
+      <c r="J153" s="4">
         <f t="shared" si="3"/>
         <v>92000</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>201</v>
       </c>
@@ -6311,31 +6059,30 @@
         <v>202</v>
       </c>
       <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="D154" s="1">
+        <v>31000</v>
+      </c>
       <c r="E154" s="1">
+        <v>31500</v>
+      </c>
+      <c r="F154" s="1">
         <v>31000</v>
       </c>
-      <c r="F154" s="1">
-        <v>31500</v>
-      </c>
       <c r="G154" s="1">
-        <v>31000</v>
+        <v>59500</v>
       </c>
       <c r="H154" s="1">
-        <v>59500</v>
+        <v>59000</v>
       </c>
       <c r="I154" s="1">
         <v>59000</v>
       </c>
-      <c r="J154" s="1">
-        <v>59000</v>
-      </c>
-      <c r="K154" s="4">
+      <c r="J154" s="4">
         <f t="shared" si="3"/>
         <v>271000</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>203</v>
       </c>
@@ -6343,31 +6090,30 @@
         <v>204</v>
       </c>
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="D155" s="1">
+        <v>33000</v>
+      </c>
       <c r="E155" s="1">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="F155" s="1">
-        <v>37000</v>
+        <v>48000</v>
       </c>
       <c r="G155" s="1">
-        <v>48000</v>
+        <v>58000</v>
       </c>
       <c r="H155" s="1">
-        <v>58000</v>
+        <v>63000</v>
       </c>
       <c r="I155" s="1">
         <v>63000</v>
       </c>
-      <c r="J155" s="1">
-        <v>63000</v>
-      </c>
-      <c r="K155" s="4">
+      <c r="J155" s="4">
         <f t="shared" si="3"/>
         <v>302000</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>205</v>
       </c>
@@ -6375,7 +6121,9 @@
         <v>206</v>
       </c>
       <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
+      <c r="D156" s="1">
+        <v>3000</v>
+      </c>
       <c r="E156" s="1">
         <v>3000</v>
       </c>
@@ -6391,15 +6139,12 @@
       <c r="I156" s="1">
         <v>3000</v>
       </c>
-      <c r="J156" s="1">
-        <v>3000</v>
-      </c>
-      <c r="K156" s="4">
+      <c r="J156" s="4">
         <f t="shared" si="3"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>207</v>
       </c>
@@ -6407,15 +6152,17 @@
         <v>208</v>
       </c>
       <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
+      <c r="D157" s="1">
+        <v>12000</v>
+      </c>
       <c r="E157" s="1">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="F157" s="1">
         <v>7000</v>
       </c>
       <c r="G157" s="1">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="H157" s="1">
         <v>18000</v>
@@ -6423,15 +6170,12 @@
       <c r="I157" s="1">
         <v>18000</v>
       </c>
-      <c r="J157" s="1">
-        <v>18000</v>
-      </c>
-      <c r="K157" s="4">
+      <c r="J157" s="4">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>209</v>
       </c>
@@ -6439,15 +6183,17 @@
         <v>210</v>
       </c>
       <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
+      <c r="D158" s="1">
+        <v>51000</v>
+      </c>
       <c r="E158" s="1">
-        <v>51000</v>
+        <v>56000</v>
       </c>
       <c r="F158" s="1">
-        <v>56000</v>
+        <v>71000</v>
       </c>
       <c r="G158" s="1">
-        <v>71000</v>
+        <v>91000</v>
       </c>
       <c r="H158" s="1">
         <v>91000</v>
@@ -6455,23 +6201,22 @@
       <c r="I158" s="1">
         <v>91000</v>
       </c>
-      <c r="J158" s="1">
-        <v>91000</v>
-      </c>
-      <c r="K158" s="4">
+      <c r="J158" s="4">
         <f t="shared" si="3"/>
         <v>451000</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
       <c r="E159" s="1">
         <v>0</v>
       </c>
@@ -6487,15 +6232,12 @@
       <c r="I159" s="1">
         <v>0</v>
       </c>
-      <c r="J159" s="1">
-        <v>0</v>
-      </c>
-      <c r="K159" s="4">
+      <c r="J159" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>211</v>
       </c>
@@ -6503,7 +6245,9 @@
         <v>212</v>
       </c>
       <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="D160" s="1">
+        <v>100000</v>
+      </c>
       <c r="E160" s="1">
         <v>100000</v>
       </c>
@@ -6519,15 +6263,12 @@
       <c r="I160" s="1">
         <v>100000</v>
       </c>
-      <c r="J160" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K160" s="4">
+      <c r="J160" s="4">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>211</v>
       </c>
@@ -6535,7 +6276,9 @@
         <v>315</v>
       </c>
       <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
+      <c r="D161" s="1">
+        <v>160000</v>
+      </c>
       <c r="E161" s="1">
         <v>160000</v>
       </c>
@@ -6551,15 +6294,12 @@
       <c r="I161" s="1">
         <v>160000</v>
       </c>
-      <c r="J161" s="1">
-        <v>160000</v>
-      </c>
-      <c r="K161" s="4">
+      <c r="J161" s="4">
         <f t="shared" si="3"/>
         <v>960000</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>211</v>
       </c>
@@ -6567,7 +6307,9 @@
         <v>316</v>
       </c>
       <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
+      <c r="D162" s="1">
+        <v>40000</v>
+      </c>
       <c r="E162" s="1">
         <v>40000</v>
       </c>
@@ -6583,15 +6325,12 @@
       <c r="I162" s="1">
         <v>40000</v>
       </c>
-      <c r="J162" s="1">
-        <v>40000</v>
-      </c>
-      <c r="K162" s="4">
+      <c r="J162" s="4">
         <f t="shared" si="3"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>211</v>
       </c>
@@ -6599,7 +6338,9 @@
         <v>213</v>
       </c>
       <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
+      <c r="D163" s="1">
+        <v>92000</v>
+      </c>
       <c r="E163" s="1">
         <v>92000</v>
       </c>
@@ -6615,15 +6356,12 @@
       <c r="I163" s="1">
         <v>92000</v>
       </c>
-      <c r="J163" s="1">
-        <v>92000</v>
-      </c>
-      <c r="K163" s="4">
+      <c r="J163" s="4">
         <f t="shared" si="3"/>
         <v>552000</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>214</v>
       </c>
@@ -6631,7 +6369,9 @@
         <v>215</v>
       </c>
       <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
+      <c r="D164" s="1">
+        <v>1000</v>
+      </c>
       <c r="E164" s="1">
         <v>1000</v>
       </c>
@@ -6647,15 +6387,12 @@
       <c r="I164" s="1">
         <v>1000</v>
       </c>
-      <c r="J164" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K164" s="4">
+      <c r="J164" s="4">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>216</v>
       </c>
@@ -6663,12 +6400,14 @@
         <v>217</v>
       </c>
       <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
+      <c r="D165" s="1">
+        <v>47000</v>
+      </c>
       <c r="E165" s="1">
-        <v>47000</v>
+        <v>37000</v>
       </c>
       <c r="F165" s="1">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="G165" s="1">
         <v>42000</v>
@@ -6679,15 +6418,12 @@
       <c r="I165" s="1">
         <v>42000</v>
       </c>
-      <c r="J165" s="1">
-        <v>42000</v>
-      </c>
-      <c r="K165" s="4">
+      <c r="J165" s="4">
         <f t="shared" si="3"/>
         <v>252000</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>218</v>
       </c>
@@ -6695,12 +6431,14 @@
         <v>219</v>
       </c>
       <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
+      <c r="D166" s="1">
+        <v>404500</v>
+      </c>
       <c r="E166" s="1">
-        <v>404500</v>
+        <v>284500</v>
       </c>
       <c r="F166" s="1">
-        <v>284500</v>
+        <v>294500</v>
       </c>
       <c r="G166" s="1">
         <v>294500</v>
@@ -6711,20 +6449,17 @@
       <c r="I166" s="1">
         <v>294500</v>
       </c>
-      <c r="J166" s="1">
-        <v>294500</v>
-      </c>
-      <c r="K166" s="4">
+      <c r="J166" s="4">
         <f t="shared" si="3"/>
         <v>1867000</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -6732,16 +6467,15 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1">
-        <v>0</v>
-      </c>
-      <c r="K167" s="4">
+      <c r="I167" s="1">
+        <v>0</v>
+      </c>
+      <c r="J167" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>278</v>
       </c>
@@ -6749,9 +6483,11 @@
         <v>220</v>
       </c>
       <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
+      <c r="D168" s="1">
+        <v>110000</v>
+      </c>
       <c r="E168" s="1">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="F168" s="1">
         <v>100000</v>
@@ -6765,15 +6501,12 @@
       <c r="I168" s="1">
         <v>100000</v>
       </c>
-      <c r="J168" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K168" s="4">
+      <c r="J168" s="4">
         <f t="shared" si="3"/>
         <v>610000</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>221</v>
       </c>
@@ -6783,7 +6516,9 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="F169" s="1">
+        <v>20000</v>
+      </c>
       <c r="G169" s="1">
         <v>20000</v>
       </c>
@@ -6793,15 +6528,12 @@
       <c r="I169" s="1">
         <v>20000</v>
       </c>
-      <c r="J169" s="1">
-        <v>20000</v>
-      </c>
-      <c r="K169" s="4">
+      <c r="J169" s="4">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>222</v>
       </c>
@@ -6809,31 +6541,30 @@
         <v>223</v>
       </c>
       <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
+      <c r="D170" s="1">
+        <v>833570</v>
+      </c>
       <c r="E170" s="1">
-        <v>833570</v>
+        <v>857970</v>
       </c>
       <c r="F170" s="1">
-        <v>857970</v>
+        <v>870370</v>
       </c>
       <c r="G170" s="1">
-        <v>870370</v>
+        <v>878850</v>
       </c>
       <c r="H170" s="1">
-        <v>878850</v>
+        <v>877330</v>
       </c>
       <c r="I170" s="1">
         <v>877330</v>
       </c>
-      <c r="J170" s="1">
-        <v>877330</v>
-      </c>
-      <c r="K170" s="4">
+      <c r="J170" s="4">
         <f t="shared" si="3"/>
         <v>5195420</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>224</v>
       </c>
@@ -6841,15 +6572,17 @@
         <v>317</v>
       </c>
       <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
+      <c r="D171" s="1">
+        <v>506000</v>
+      </c>
       <c r="E171" s="1">
         <v>506000</v>
       </c>
       <c r="F171" s="1">
+        <v>406000</v>
+      </c>
+      <c r="G171" s="1">
         <v>506000</v>
-      </c>
-      <c r="G171" s="1">
-        <v>406000</v>
       </c>
       <c r="H171" s="1">
         <v>506000</v>
@@ -6857,15 +6590,12 @@
       <c r="I171" s="1">
         <v>506000</v>
       </c>
-      <c r="J171" s="1">
-        <v>506000</v>
-      </c>
-      <c r="K171" s="4">
+      <c r="J171" s="4">
         <f t="shared" si="3"/>
         <v>2936000</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>224</v>
       </c>
@@ -6873,7 +6603,9 @@
         <v>318</v>
       </c>
       <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
+      <c r="D172" s="1">
+        <v>50000</v>
+      </c>
       <c r="E172" s="1">
         <v>50000</v>
       </c>
@@ -6889,15 +6621,12 @@
       <c r="I172" s="1">
         <v>50000</v>
       </c>
-      <c r="J172" s="1">
-        <v>50000</v>
-      </c>
-      <c r="K172" s="4">
+      <c r="J172" s="4">
         <f t="shared" si="3"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>225</v>
       </c>
@@ -6905,7 +6634,9 @@
         <v>319</v>
       </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
+      <c r="D173" s="1">
+        <v>20000</v>
+      </c>
       <c r="E173" s="1">
         <v>20000</v>
       </c>
@@ -6921,15 +6652,12 @@
       <c r="I173" s="1">
         <v>20000</v>
       </c>
-      <c r="J173" s="1">
-        <v>20000</v>
-      </c>
-      <c r="K173" s="4">
+      <c r="J173" s="4">
         <f t="shared" si="3"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>226</v>
       </c>
@@ -6937,7 +6665,9 @@
         <v>280</v>
       </c>
       <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
+      <c r="D174" s="1">
+        <v>100000</v>
+      </c>
       <c r="E174" s="1">
         <v>100000</v>
       </c>
@@ -6953,15 +6683,12 @@
       <c r="I174" s="1">
         <v>100000</v>
       </c>
-      <c r="J174" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K174" s="4">
+      <c r="J174" s="4">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>226</v>
       </c>
@@ -6969,31 +6696,30 @@
         <v>227</v>
       </c>
       <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
+      <c r="D175" s="1">
+        <v>330000</v>
+      </c>
       <c r="E175" s="1">
-        <v>330000</v>
+        <v>340500</v>
       </c>
       <c r="F175" s="1">
-        <v>340500</v>
+        <v>240000</v>
       </c>
       <c r="G175" s="1">
         <v>240000</v>
       </c>
       <c r="H175" s="1">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="I175" s="1">
         <v>270000</v>
       </c>
-      <c r="J175" s="1">
-        <v>270000</v>
-      </c>
-      <c r="K175" s="4">
+      <c r="J175" s="4">
         <f t="shared" si="3"/>
         <v>1690500</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>228</v>
       </c>
@@ -7001,31 +6727,30 @@
         <v>229</v>
       </c>
       <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="D176" s="1">
+        <v>120000</v>
+      </c>
       <c r="E176" s="1">
         <v>120000</v>
       </c>
       <c r="F176" s="1">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="G176" s="1">
         <v>125000</v>
       </c>
       <c r="H176" s="1">
-        <v>125000</v>
+        <v>103000</v>
       </c>
       <c r="I176" s="1">
         <v>103000</v>
       </c>
-      <c r="J176" s="1">
-        <v>103000</v>
-      </c>
-      <c r="K176" s="4">
+      <c r="J176" s="4">
         <f t="shared" si="3"/>
         <v>696000</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>230</v>
       </c>
@@ -7033,7 +6758,9 @@
         <v>281</v>
       </c>
       <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
+      <c r="D177" s="1">
+        <v>90000</v>
+      </c>
       <c r="E177" s="1">
         <v>90000</v>
       </c>
@@ -7049,15 +6776,12 @@
       <c r="I177" s="1">
         <v>90000</v>
       </c>
-      <c r="J177" s="1">
-        <v>90000</v>
-      </c>
-      <c r="K177" s="4">
+      <c r="J177" s="4">
         <f t="shared" si="3"/>
         <v>540000</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>230</v>
       </c>
@@ -7065,36 +6789,35 @@
         <v>231</v>
       </c>
       <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
+      <c r="D178" s="1">
+        <v>179000</v>
+      </c>
       <c r="E178" s="1">
-        <v>179000</v>
+        <v>204000</v>
       </c>
       <c r="F178" s="1">
+        <v>214000</v>
+      </c>
+      <c r="G178" s="1">
         <v>204000</v>
       </c>
-      <c r="G178" s="1">
-        <v>214000</v>
-      </c>
       <c r="H178" s="1">
-        <v>204000</v>
+        <v>207000</v>
       </c>
       <c r="I178" s="1">
         <v>207000</v>
       </c>
-      <c r="J178" s="1">
-        <v>207000</v>
-      </c>
-      <c r="K178" s="4">
+      <c r="J178" s="4">
         <f t="shared" si="3"/>
         <v>1215000</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -7102,16 +6825,15 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1">
-        <v>0</v>
-      </c>
-      <c r="K179" s="4">
+      <c r="I179" s="1">
+        <v>0</v>
+      </c>
+      <c r="J179" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>232</v>
       </c>
@@ -7119,15 +6841,17 @@
         <v>233</v>
       </c>
       <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="D180" s="1">
+        <v>610000</v>
+      </c>
       <c r="E180" s="1">
-        <v>610000</v>
+        <v>920000</v>
       </c>
       <c r="F180" s="1">
-        <v>920000</v>
+        <v>700000</v>
       </c>
       <c r="G180" s="1">
-        <v>700000</v>
+        <v>478000</v>
       </c>
       <c r="H180" s="1">
         <v>478000</v>
@@ -7135,15 +6859,12 @@
       <c r="I180" s="1">
         <v>478000</v>
       </c>
-      <c r="J180" s="1">
-        <v>478000</v>
-      </c>
-      <c r="K180" s="4">
+      <c r="J180" s="4">
         <f t="shared" si="3"/>
         <v>3664000</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>234</v>
       </c>
@@ -7151,7 +6872,9 @@
         <v>235</v>
       </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="D181" s="1">
+        <v>2000</v>
+      </c>
       <c r="E181" s="1">
         <v>2000</v>
       </c>
@@ -7159,7 +6882,7 @@
         <v>2000</v>
       </c>
       <c r="G181" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H181" s="1">
         <v>5000</v>
@@ -7167,15 +6890,12 @@
       <c r="I181" s="1">
         <v>5000</v>
       </c>
-      <c r="J181" s="1">
-        <v>5000</v>
-      </c>
-      <c r="K181" s="4">
+      <c r="J181" s="4">
         <f t="shared" si="3"/>
         <v>21000</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>320</v>
       </c>
@@ -7183,7 +6903,9 @@
         <v>236</v>
       </c>
       <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
+      <c r="D182" s="1">
+        <v>10000</v>
+      </c>
       <c r="E182" s="1">
         <v>10000</v>
       </c>
@@ -7191,7 +6913,7 @@
         <v>10000</v>
       </c>
       <c r="G182" s="1">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="H182" s="1">
         <v>4000</v>
@@ -7199,23 +6921,22 @@
       <c r="I182" s="1">
         <v>4000</v>
       </c>
-      <c r="J182" s="1">
-        <v>4000</v>
-      </c>
-      <c r="K182" s="4">
+      <c r="J182" s="4">
         <f t="shared" si="3"/>
         <v>42000</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
+      <c r="D183" s="1">
+        <v>0</v>
+      </c>
       <c r="E183" s="1">
         <v>0</v>
       </c>
@@ -7231,15 +6952,12 @@
       <c r="I183" s="1">
         <v>0</v>
       </c>
-      <c r="J183" s="1">
-        <v>0</v>
-      </c>
-      <c r="K183" s="4">
+      <c r="J183" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>321</v>
       </c>
@@ -7247,31 +6965,30 @@
         <v>237</v>
       </c>
       <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
+      <c r="D184" s="1">
+        <v>10000</v>
+      </c>
       <c r="E184" s="1">
         <v>10000</v>
       </c>
       <c r="F184" s="1">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="G184" s="1">
         <v>25000</v>
       </c>
       <c r="H184" s="1">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I184" s="1">
         <v>27000</v>
       </c>
-      <c r="J184" s="1">
-        <v>27000</v>
-      </c>
-      <c r="K184" s="4">
+      <c r="J184" s="4">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>238</v>
       </c>
@@ -7279,7 +6996,9 @@
         <v>239</v>
       </c>
       <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
+      <c r="D185" s="1">
+        <v>27000</v>
+      </c>
       <c r="E185" s="1">
         <v>27000</v>
       </c>
@@ -7295,23 +7014,22 @@
       <c r="I185" s="1">
         <v>27000</v>
       </c>
-      <c r="J185" s="1">
-        <v>27000</v>
-      </c>
-      <c r="K185" s="4">
+      <c r="J185" s="4">
         <f t="shared" si="3"/>
         <v>162000</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
+      <c r="D186" s="1">
+        <v>0</v>
+      </c>
       <c r="E186" s="1">
         <v>0</v>
       </c>
@@ -7327,15 +7045,12 @@
       <c r="I186" s="1">
         <v>0</v>
       </c>
-      <c r="J186" s="1">
-        <v>0</v>
-      </c>
-      <c r="K186" s="4">
+      <c r="J186" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>240</v>
       </c>
@@ -7348,16 +7063,15 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1">
-        <v>0</v>
-      </c>
-      <c r="K187" s="4">
+      <c r="I187" s="1">
+        <v>0</v>
+      </c>
+      <c r="J187" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>242</v>
       </c>
@@ -7365,9 +7079,11 @@
         <v>243</v>
       </c>
       <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
+      <c r="D188" s="1">
+        <v>40000</v>
+      </c>
       <c r="E188" s="1">
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="F188" s="1">
         <v>41000</v>
@@ -7381,20 +7097,17 @@
       <c r="I188" s="1">
         <v>41000</v>
       </c>
-      <c r="J188" s="1">
-        <v>41000</v>
-      </c>
-      <c r="K188" s="4">
+      <c r="J188" s="4">
         <f t="shared" si="3"/>
         <v>245000</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -7402,16 +7115,15 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1">
-        <v>0</v>
-      </c>
-      <c r="K189" s="4">
+      <c r="I189" s="1">
+        <v>0</v>
+      </c>
+      <c r="J189" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>244</v>
       </c>
@@ -7419,31 +7131,30 @@
         <v>245</v>
       </c>
       <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
+      <c r="D190" s="1">
+        <v>1000000</v>
+      </c>
       <c r="E190" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="F190" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="G190" s="1">
         <v>1200000</v>
       </c>
-      <c r="G190" s="1">
+      <c r="H190" s="1">
         <v>2000000</v>
-      </c>
-      <c r="H190" s="1">
-        <v>1200000</v>
       </c>
       <c r="I190" s="1">
         <v>2000000</v>
       </c>
-      <c r="J190" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="K190" s="4">
+      <c r="J190" s="4">
         <f t="shared" si="3"/>
         <v>9400000</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>244</v>
       </c>
@@ -7451,31 +7162,30 @@
         <v>246</v>
       </c>
       <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
+      <c r="D191" s="1">
+        <v>600000</v>
+      </c>
       <c r="E191" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F191" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G191" s="1">
         <v>600000</v>
       </c>
-      <c r="F191" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="G191" s="1">
-        <v>500000</v>
-      </c>
       <c r="H191" s="1">
-        <v>600000</v>
+        <v>800000</v>
       </c>
       <c r="I191" s="1">
         <v>800000</v>
       </c>
-      <c r="J191" s="1">
-        <v>800000</v>
-      </c>
-      <c r="K191" s="4">
+      <c r="J191" s="4">
         <f t="shared" si="3"/>
         <v>4300000</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>247</v>
       </c>
@@ -7483,31 +7193,30 @@
         <v>248</v>
       </c>
       <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
+      <c r="D192" s="1">
+        <v>2400000</v>
+      </c>
       <c r="E192" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="F192" s="1">
+        <v>2100000</v>
+      </c>
+      <c r="G192" s="1">
         <v>2400000</v>
       </c>
-      <c r="F192" s="1">
-        <v>3600000</v>
-      </c>
-      <c r="G192" s="1">
-        <v>2100000</v>
-      </c>
       <c r="H192" s="1">
-        <v>2400000</v>
+        <v>3800000</v>
       </c>
       <c r="I192" s="1">
         <v>3800000</v>
       </c>
-      <c r="J192" s="1">
-        <v>3800000</v>
-      </c>
-      <c r="K192" s="4">
+      <c r="J192" s="4">
         <f t="shared" si="3"/>
         <v>18100000</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>247</v>
       </c>
@@ -7515,36 +7224,35 @@
         <v>249</v>
       </c>
       <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
+      <c r="D193" s="1">
+        <v>800000</v>
+      </c>
       <c r="E193" s="1">
         <v>800000</v>
       </c>
       <c r="F193" s="1">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="G193" s="1">
         <v>400000</v>
       </c>
       <c r="H193" s="1">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="I193" s="1">
         <v>800000</v>
       </c>
-      <c r="J193" s="1">
-        <v>800000</v>
-      </c>
-      <c r="K193" s="4">
+      <c r="J193" s="4">
         <f t="shared" si="3"/>
         <v>4000000</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -7552,21 +7260,20 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1">
-        <v>0</v>
-      </c>
-      <c r="K194" s="4">
+      <c r="I194" s="1">
+        <v>0</v>
+      </c>
+      <c r="J194" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -7574,16 +7281,15 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1">
-        <v>0</v>
-      </c>
-      <c r="K195" s="4">
+      <c r="I195" s="1">
+        <v>0</v>
+      </c>
+      <c r="J195" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>250</v>
       </c>
@@ -7591,31 +7297,30 @@
         <v>251</v>
       </c>
       <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
+      <c r="D196" s="1">
+        <v>50000</v>
+      </c>
       <c r="E196" s="1">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="F196" s="1">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="G196" s="1">
         <v>100000</v>
       </c>
       <c r="H196" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I196" s="1">
         <v>200000</v>
       </c>
-      <c r="J196" s="1">
-        <v>200000</v>
-      </c>
-      <c r="K196" s="4">
+      <c r="J196" s="4">
         <f t="shared" si="3"/>
         <v>730000</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>252</v>
       </c>
@@ -7623,36 +7328,35 @@
         <v>253</v>
       </c>
       <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
+      <c r="D197" s="1">
+        <v>500000</v>
+      </c>
       <c r="E197" s="1">
         <v>500000</v>
       </c>
       <c r="F197" s="1">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="G197" s="1">
         <v>600000</v>
       </c>
       <c r="H197" s="1">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="I197" s="1">
         <v>1000000</v>
       </c>
-      <c r="J197" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="K197" s="4">
+      <c r="J197" s="4">
         <f t="shared" si="3"/>
         <v>4200000</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -7660,16 +7364,15 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1">
-        <v>0</v>
-      </c>
-      <c r="K198" s="4">
+      <c r="I198" s="1">
+        <v>0</v>
+      </c>
+      <c r="J198" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>254</v>
       </c>
@@ -7677,7 +7380,9 @@
         <v>254</v>
       </c>
       <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
+      <c r="D199" s="1">
+        <v>125</v>
+      </c>
       <c r="E199" s="1">
         <v>125</v>
       </c>
@@ -7693,15 +7398,12 @@
       <c r="I199" s="1">
         <v>125</v>
       </c>
-      <c r="J199" s="1">
-        <v>125</v>
-      </c>
-      <c r="K199" s="4">
+      <c r="J199" s="4">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>255</v>
       </c>
@@ -7711,25 +7413,24 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
+      <c r="F200" s="1">
+        <v>15000</v>
+      </c>
       <c r="G200" s="1">
         <v>15000</v>
       </c>
       <c r="H200" s="1">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="I200" s="1">
         <v>20000</v>
       </c>
-      <c r="J200" s="1">
-        <v>20000</v>
-      </c>
-      <c r="K200" s="4">
+      <c r="J200" s="4">
         <f t="shared" si="3"/>
         <v>70000</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>257</v>
       </c>
@@ -7739,9 +7440,11 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
+      <c r="F201" s="1">
+        <v>5000</v>
+      </c>
       <c r="G201" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="H201" s="1">
         <v>10000</v>
@@ -7749,15 +7452,12 @@
       <c r="I201" s="1">
         <v>10000</v>
       </c>
-      <c r="J201" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K201" s="4">
+      <c r="J201" s="4">
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>259</v>
       </c>
@@ -7765,12 +7465,14 @@
         <v>260</v>
       </c>
       <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
+      <c r="D202" s="1">
+        <v>51000</v>
+      </c>
       <c r="E202" s="1">
-        <v>51000</v>
+        <v>101000</v>
       </c>
       <c r="F202" s="1">
-        <v>101000</v>
+        <v>105000</v>
       </c>
       <c r="G202" s="1">
         <v>105000</v>
@@ -7781,15 +7483,12 @@
       <c r="I202" s="1">
         <v>105000</v>
       </c>
-      <c r="J202" s="1">
-        <v>105000</v>
-      </c>
-      <c r="K202" s="4">
+      <c r="J202" s="4">
         <f t="shared" si="3"/>
         <v>572000</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>261</v>
       </c>
@@ -7797,12 +7496,14 @@
         <v>262</v>
       </c>
       <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
+      <c r="D203" s="1">
+        <v>0</v>
+      </c>
       <c r="E203" s="1">
         <v>0</v>
       </c>
       <c r="F203" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G203" s="1">
         <v>10000</v>
@@ -7813,15 +7514,12 @@
       <c r="I203" s="1">
         <v>10000</v>
       </c>
-      <c r="J203" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K203" s="4">
-        <f t="shared" ref="K203:K215" si="4">SUM(E203:J203)</f>
+      <c r="J203" s="4">
+        <f t="shared" ref="J203:J215" si="4">SUM(D203:I203)</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>263</v>
       </c>
@@ -7829,12 +7527,14 @@
         <v>264</v>
       </c>
       <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
+      <c r="D204" s="1">
+        <v>27000</v>
+      </c>
       <c r="E204" s="1">
-        <v>27000</v>
+        <v>56000</v>
       </c>
       <c r="F204" s="1">
-        <v>56000</v>
+        <v>105000</v>
       </c>
       <c r="G204" s="1">
         <v>105000</v>
@@ -7845,15 +7545,12 @@
       <c r="I204" s="1">
         <v>105000</v>
       </c>
-      <c r="J204" s="1">
-        <v>105000</v>
-      </c>
-      <c r="K204" s="4">
+      <c r="J204" s="4">
         <f t="shared" si="4"/>
         <v>503000</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>265</v>
       </c>
@@ -7861,12 +7558,14 @@
         <v>266</v>
       </c>
       <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
+      <c r="D205" s="1">
+        <v>4000</v>
+      </c>
       <c r="E205" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="F205" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G205" s="1">
         <v>20000</v>
@@ -7877,15 +7576,12 @@
       <c r="I205" s="1">
         <v>20000</v>
       </c>
-      <c r="J205" s="1">
-        <v>20000</v>
-      </c>
-      <c r="K205" s="4">
+      <c r="J205" s="4">
         <f t="shared" si="4"/>
         <v>94000</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>267</v>
       </c>
@@ -7893,36 +7589,35 @@
         <v>267</v>
       </c>
       <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
+      <c r="D206" s="1">
+        <v>12000</v>
+      </c>
       <c r="E206" s="1">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="F206" s="1">
         <v>20000</v>
       </c>
       <c r="G206" s="1">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="H206" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="I206" s="1">
         <v>120000</v>
       </c>
-      <c r="J206" s="1">
-        <v>120000</v>
-      </c>
-      <c r="K206" s="4">
+      <c r="J206" s="4">
         <f t="shared" si="4"/>
         <v>352000</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -7930,73 +7625,70 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1">
-        <v>0</v>
-      </c>
-      <c r="K207" s="4">
+      <c r="I207" s="1">
+        <v>0</v>
+      </c>
+      <c r="J207" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
+      <c r="D208" s="1">
+        <v>250000</v>
+      </c>
       <c r="E208" s="1">
         <v>250000</v>
       </c>
       <c r="F208" s="1">
         <v>250000</v>
       </c>
-      <c r="G208" s="1">
-        <v>250000</v>
-      </c>
+      <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="4">
+      <c r="J208" s="4">
         <f t="shared" si="4"/>
         <v>750000</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
+      <c r="D209" s="1">
+        <v>750000</v>
+      </c>
       <c r="E209" s="1">
         <v>750000</v>
       </c>
       <c r="F209" s="1">
-        <v>750000</v>
-      </c>
-      <c r="G209" s="1">
         <v>500000</v>
       </c>
+      <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="4">
+      <c r="J209" s="4">
         <f t="shared" si="4"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -8005,45 +7697,45 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="4">
+      <c r="J210" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1">
+      <c r="E211" s="1">
         <v>370000</v>
       </c>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1">
+      <c r="F211" s="1"/>
+      <c r="G211" s="1">
         <v>400000</v>
       </c>
+      <c r="H211" s="1"/>
       <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="4">
+      <c r="J211" s="4">
         <f t="shared" si="4"/>
         <v>770000</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
+      <c r="D212" s="1">
+        <v>5000</v>
+      </c>
       <c r="E212" s="1">
         <v>5000</v>
       </c>
@@ -8059,20 +7751,17 @@
       <c r="I212" s="1">
         <v>5000</v>
       </c>
-      <c r="J212" s="1">
-        <v>5000</v>
-      </c>
-      <c r="K212" s="4">
+      <c r="J212" s="4">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -8081,18 +7770,17 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="4">
+      <c r="J213" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -8101,18 +7789,17 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="4">
+      <c r="J214" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -8121,1682 +7808,13 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="4">
+      <c r="J215" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>3100</v>
-      </c>
-      <c r="B216" t="s">
-        <v>384</v>
-      </c>
-      <c r="D216" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>385</v>
-      </c>
-      <c r="B217" t="s">
-        <v>385</v>
-      </c>
-      <c r="D217" s="2">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>8</v>
-      </c>
-      <c r="B218" t="s">
-        <v>386</v>
-      </c>
-      <c r="D218" s="2">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>9</v>
-      </c>
-      <c r="B219" t="s">
-        <v>10</v>
-      </c>
-      <c r="D219" s="8">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>11</v>
-      </c>
-      <c r="B220" t="s">
-        <v>12</v>
-      </c>
-      <c r="C220" t="s">
-        <v>13</v>
-      </c>
-      <c r="D220" s="2">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>11</v>
-      </c>
-      <c r="B221" t="s">
-        <v>12</v>
-      </c>
-      <c r="C221" t="s">
-        <v>14</v>
-      </c>
-      <c r="D221" s="2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>11</v>
-      </c>
-      <c r="B222" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="2">
-        <v>155000</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>15</v>
-      </c>
-      <c r="B223" t="s">
-        <v>329</v>
-      </c>
-      <c r="D223" s="2">
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>15</v>
-      </c>
-      <c r="B224" t="s">
-        <v>16</v>
-      </c>
-      <c r="D224" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>15</v>
-      </c>
-      <c r="B225" t="s">
-        <v>18</v>
-      </c>
-      <c r="C225" t="s">
-        <v>14</v>
-      </c>
-      <c r="D225" s="2">
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>15</v>
-      </c>
-      <c r="B226" t="s">
-        <v>17</v>
-      </c>
-      <c r="D226" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>15</v>
-      </c>
-      <c r="B227" t="s">
-        <v>269</v>
-      </c>
-      <c r="D227" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>19</v>
-      </c>
-      <c r="B228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C228" t="s">
-        <v>13</v>
-      </c>
-      <c r="D228" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>19</v>
-      </c>
-      <c r="B229" t="s">
-        <v>20</v>
-      </c>
-      <c r="D229" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>21</v>
-      </c>
-      <c r="B230" t="s">
-        <v>22</v>
-      </c>
-      <c r="D230" s="2">
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>23</v>
-      </c>
-      <c r="B231" t="s">
-        <v>24</v>
-      </c>
-      <c r="D231" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>25</v>
-      </c>
-      <c r="B232" t="s">
-        <v>26</v>
-      </c>
-      <c r="C232" t="s">
-        <v>13</v>
-      </c>
-      <c r="D232" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>27</v>
-      </c>
-      <c r="B233" t="s">
-        <v>28</v>
-      </c>
-      <c r="D233" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>27</v>
-      </c>
-      <c r="B234" t="s">
-        <v>29</v>
-      </c>
-      <c r="D234" s="2">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>27</v>
-      </c>
-      <c r="B235" t="s">
-        <v>30</v>
-      </c>
-      <c r="D235" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>31</v>
-      </c>
-      <c r="B236" t="s">
-        <v>387</v>
-      </c>
-      <c r="D236" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>31</v>
-      </c>
-      <c r="B237" t="s">
-        <v>388</v>
-      </c>
-      <c r="D237" s="2">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>32</v>
-      </c>
-      <c r="B238" t="s">
-        <v>33</v>
-      </c>
-      <c r="D238" s="2">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>34</v>
-      </c>
-      <c r="B239" t="s">
-        <v>35</v>
-      </c>
-      <c r="D239" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>36</v>
-      </c>
-      <c r="B240" t="s">
-        <v>37</v>
-      </c>
-      <c r="D240" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>38</v>
-      </c>
-      <c r="B241" t="s">
-        <v>39</v>
-      </c>
-      <c r="D241" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>40</v>
-      </c>
-      <c r="B242" t="s">
-        <v>41</v>
-      </c>
-      <c r="D242" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>42</v>
-      </c>
-      <c r="B243" t="s">
-        <v>43</v>
-      </c>
-      <c r="D243" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>44</v>
-      </c>
-      <c r="B244" t="s">
-        <v>45</v>
-      </c>
-      <c r="D244" s="2">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>46</v>
-      </c>
-      <c r="B245" t="s">
-        <v>47</v>
-      </c>
-      <c r="D245" s="2">
-        <v>390000</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>51</v>
-      </c>
-      <c r="B246" t="s">
-        <v>52</v>
-      </c>
-      <c r="D246" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>53</v>
-      </c>
-      <c r="B247" t="s">
-        <v>389</v>
-      </c>
-      <c r="D247" s="2">
-        <v>3855000</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>53</v>
-      </c>
-      <c r="B248" t="s">
-        <v>390</v>
-      </c>
-      <c r="C248" t="s">
-        <v>391</v>
-      </c>
-      <c r="D248" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>53</v>
-      </c>
-      <c r="B249" t="s">
-        <v>54</v>
-      </c>
-      <c r="D249" s="2">
-        <v>2167000</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>55</v>
-      </c>
-      <c r="B250" t="s">
-        <v>56</v>
-      </c>
-      <c r="D250" s="2">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>392</v>
-      </c>
-      <c r="B251" t="s">
-        <v>393</v>
-      </c>
-      <c r="D251" s="2">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>55</v>
-      </c>
-      <c r="B252" t="s">
-        <v>335</v>
-      </c>
-      <c r="D252" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>55</v>
-      </c>
-      <c r="B253" t="s">
-        <v>58</v>
-      </c>
-      <c r="D253" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>59</v>
-      </c>
-      <c r="B254" t="s">
-        <v>60</v>
-      </c>
-      <c r="D254" s="2">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>61</v>
-      </c>
-      <c r="B255" t="s">
-        <v>62</v>
-      </c>
-      <c r="D255" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>63</v>
-      </c>
-      <c r="B256" t="s">
-        <v>64</v>
-      </c>
-      <c r="D256" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>65</v>
-      </c>
-      <c r="B257" t="s">
-        <v>66</v>
-      </c>
-      <c r="D257" s="2">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>67</v>
-      </c>
-      <c r="B258" t="s">
-        <v>68</v>
-      </c>
-      <c r="D258" s="2">
-        <v>338000</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>69</v>
-      </c>
-      <c r="B259" t="s">
-        <v>70</v>
-      </c>
-      <c r="D259" s="2">
-        <v>316000</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>71</v>
-      </c>
-      <c r="B260" t="s">
-        <v>72</v>
-      </c>
-      <c r="D260" s="2">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>73</v>
-      </c>
-      <c r="B261" t="s">
-        <v>74</v>
-      </c>
-      <c r="D261" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>75</v>
-      </c>
-      <c r="B262" t="s">
-        <v>74</v>
-      </c>
-      <c r="D262" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>339</v>
-      </c>
-      <c r="B263" t="s">
-        <v>340</v>
-      </c>
-      <c r="D263" s="2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>76</v>
-      </c>
-      <c r="B264" t="s">
-        <v>77</v>
-      </c>
-      <c r="D264" s="2">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>78</v>
-      </c>
-      <c r="B265" t="s">
-        <v>79</v>
-      </c>
-      <c r="D265" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>80</v>
-      </c>
-      <c r="B266" t="s">
-        <v>81</v>
-      </c>
-      <c r="D266" s="2">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>82</v>
-      </c>
-      <c r="B267" t="s">
-        <v>83</v>
-      </c>
-      <c r="D267" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>84</v>
-      </c>
-      <c r="B268" t="s">
-        <v>85</v>
-      </c>
-      <c r="D268" s="13">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>86</v>
-      </c>
-      <c r="B269" t="s">
-        <v>300</v>
-      </c>
-      <c r="D269" s="13">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>86</v>
-      </c>
-      <c r="B270" t="s">
-        <v>88</v>
-      </c>
-      <c r="D270" s="13">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>89</v>
-      </c>
-      <c r="B271" t="s">
-        <v>90</v>
-      </c>
-      <c r="D271" s="2">
-        <v>272000</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>91</v>
-      </c>
-      <c r="B272" t="s">
-        <v>92</v>
-      </c>
-      <c r="D272" s="13">
-        <v>591400</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>93</v>
-      </c>
-      <c r="B273" t="s">
-        <v>94</v>
-      </c>
-      <c r="D273" s="2">
-        <v>282000</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>95</v>
-      </c>
-      <c r="B274" t="s">
-        <v>96</v>
-      </c>
-      <c r="D274" s="2">
-        <v>365000</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>97</v>
-      </c>
-      <c r="B275" t="s">
-        <v>301</v>
-      </c>
-      <c r="D275" s="2">
-        <v>259000</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>98</v>
-      </c>
-      <c r="B276" t="s">
-        <v>302</v>
-      </c>
-      <c r="D276" s="2">
-        <v>835000</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>394</v>
-      </c>
-      <c r="B277" t="s">
-        <v>395</v>
-      </c>
-      <c r="D277" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>99</v>
-      </c>
-      <c r="B278" t="s">
-        <v>396</v>
-      </c>
-      <c r="D278" s="2">
-        <v>991156</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>102</v>
-      </c>
-      <c r="B279" t="s">
-        <v>103</v>
-      </c>
-      <c r="D279" s="2">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>104</v>
-      </c>
-      <c r="B280" t="s">
-        <v>105</v>
-      </c>
-      <c r="D280" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>106</v>
-      </c>
-      <c r="B281" t="s">
-        <v>107</v>
-      </c>
-      <c r="D281" s="2">
-        <v>128000</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>108</v>
-      </c>
-      <c r="B282" t="s">
-        <v>109</v>
-      </c>
-      <c r="D282" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>108</v>
-      </c>
-      <c r="B283" t="s">
-        <v>110</v>
-      </c>
-      <c r="D283" s="2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>111</v>
-      </c>
-      <c r="B284" t="s">
-        <v>112</v>
-      </c>
-      <c r="D284" s="13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>113</v>
-      </c>
-      <c r="B285" t="s">
-        <v>114</v>
-      </c>
-      <c r="D285" s="2">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>115</v>
-      </c>
-      <c r="B286" t="s">
-        <v>116</v>
-      </c>
-      <c r="D286" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>117</v>
-      </c>
-      <c r="B287" t="s">
-        <v>118</v>
-      </c>
-      <c r="D287" s="2">
-        <v>1010000</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>119</v>
-      </c>
-      <c r="B288" t="s">
-        <v>120</v>
-      </c>
-      <c r="D288" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>121</v>
-      </c>
-      <c r="B289" t="s">
-        <v>122</v>
-      </c>
-      <c r="D289" s="2">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>125</v>
-      </c>
-      <c r="B290" t="s">
-        <v>126</v>
-      </c>
-      <c r="D290" s="2">
-        <v>83000</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>131</v>
-      </c>
-      <c r="B291" t="s">
-        <v>132</v>
-      </c>
-      <c r="D291" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>139</v>
-      </c>
-      <c r="B292" t="s">
-        <v>140</v>
-      </c>
-      <c r="D292" s="2">
-        <v>880000</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>141</v>
-      </c>
-      <c r="B293" t="s">
-        <v>142</v>
-      </c>
-      <c r="D293" s="2">
-        <v>86000</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>143</v>
-      </c>
-      <c r="B294" t="s">
-        <v>144</v>
-      </c>
-      <c r="D294" s="2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>143</v>
-      </c>
-      <c r="B295" t="s">
-        <v>145</v>
-      </c>
-      <c r="D295" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>147</v>
-      </c>
-      <c r="B296" t="s">
-        <v>148</v>
-      </c>
-      <c r="D296" s="2">
-        <v>245000</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>271</v>
-      </c>
-      <c r="B297" t="s">
-        <v>272</v>
-      </c>
-      <c r="D297" s="2">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>151</v>
-      </c>
-      <c r="B298" t="s">
-        <v>152</v>
-      </c>
-      <c r="D298" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>397</v>
-      </c>
-      <c r="B299" t="s">
-        <v>398</v>
-      </c>
-      <c r="D299" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>157</v>
-      </c>
-      <c r="B300" t="s">
-        <v>158</v>
-      </c>
-      <c r="D300" s="2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>159</v>
-      </c>
-      <c r="B301" t="s">
-        <v>160</v>
-      </c>
-      <c r="D301" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>161</v>
-      </c>
-      <c r="B302" t="s">
-        <v>163</v>
-      </c>
-      <c r="D302" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>164</v>
-      </c>
-      <c r="B303" t="s">
-        <v>165</v>
-      </c>
-      <c r="D303" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>166</v>
-      </c>
-      <c r="B304" t="s">
-        <v>167</v>
-      </c>
-      <c r="D304" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>168</v>
-      </c>
-      <c r="B305" t="s">
-        <v>169</v>
-      </c>
-      <c r="D305" s="2">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>171</v>
-      </c>
-      <c r="B306" t="s">
-        <v>268</v>
-      </c>
-      <c r="D306" s="13">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>172</v>
-      </c>
-      <c r="B307" t="s">
-        <v>173</v>
-      </c>
-      <c r="D307" s="2">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>176</v>
-      </c>
-      <c r="B308" t="s">
-        <v>177</v>
-      </c>
-      <c r="D308" s="2">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>178</v>
-      </c>
-      <c r="B309" t="s">
-        <v>179</v>
-      </c>
-      <c r="D309" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>399</v>
-      </c>
-      <c r="B310" t="s">
-        <v>400</v>
-      </c>
-      <c r="D310" s="2">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>180</v>
-      </c>
-      <c r="B311" t="s">
-        <v>181</v>
-      </c>
-      <c r="D311" s="8">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>182</v>
-      </c>
-      <c r="B312" t="s">
-        <v>183</v>
-      </c>
-      <c r="D312" s="9">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>184</v>
-      </c>
-      <c r="B313" t="s">
-        <v>185</v>
-      </c>
-      <c r="D313" s="2">
-        <v>102000</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>186</v>
-      </c>
-      <c r="B314" t="s">
-        <v>187</v>
-      </c>
-      <c r="D314" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>186</v>
-      </c>
-      <c r="B315" t="s">
-        <v>188</v>
-      </c>
-      <c r="D315" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>189</v>
-      </c>
-      <c r="B316" t="s">
-        <v>190</v>
-      </c>
-      <c r="D316" s="2">
-        <v>212500</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>193</v>
-      </c>
-      <c r="B317" t="s">
-        <v>194</v>
-      </c>
-      <c r="D317" s="2">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>195</v>
-      </c>
-      <c r="B318" t="s">
-        <v>195</v>
-      </c>
-      <c r="D318" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>196</v>
-      </c>
-      <c r="B319" t="s">
-        <v>196</v>
-      </c>
-      <c r="D319" s="2">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>199</v>
-      </c>
-      <c r="B320" t="s">
-        <v>200</v>
-      </c>
-      <c r="D320" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>201</v>
-      </c>
-      <c r="B321" t="s">
-        <v>202</v>
-      </c>
-      <c r="D321" s="2">
-        <v>28500</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>203</v>
-      </c>
-      <c r="B322" t="s">
-        <v>204</v>
-      </c>
-      <c r="D322" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>205</v>
-      </c>
-      <c r="B323" t="s">
-        <v>206</v>
-      </c>
-      <c r="D323" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>207</v>
-      </c>
-      <c r="B324" t="s">
-        <v>208</v>
-      </c>
-      <c r="D324" s="2">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>209</v>
-      </c>
-      <c r="B325" t="s">
-        <v>210</v>
-      </c>
-      <c r="D325" s="2">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>211</v>
-      </c>
-      <c r="B326" t="s">
-        <v>212</v>
-      </c>
-      <c r="D326" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>401</v>
-      </c>
-      <c r="B327" t="s">
-        <v>402</v>
-      </c>
-      <c r="D327" s="2">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>401</v>
-      </c>
-      <c r="B328" t="s">
-        <v>403</v>
-      </c>
-      <c r="D328" s="2">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>211</v>
-      </c>
-      <c r="B329" t="s">
-        <v>404</v>
-      </c>
-      <c r="D329" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>211</v>
-      </c>
-      <c r="B330" t="s">
-        <v>213</v>
-      </c>
-      <c r="D330" s="2">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>214</v>
-      </c>
-      <c r="B331" t="s">
-        <v>215</v>
-      </c>
-      <c r="D331" s="2">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>216</v>
-      </c>
-      <c r="B332" t="s">
-        <v>217</v>
-      </c>
-      <c r="D332" s="2">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>405</v>
-      </c>
-      <c r="B333" t="s">
-        <v>406</v>
-      </c>
-      <c r="D333" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>218</v>
-      </c>
-      <c r="B334" t="s">
-        <v>219</v>
-      </c>
-      <c r="D334" s="2">
-        <v>284500</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>278</v>
-      </c>
-      <c r="B335" t="s">
-        <v>220</v>
-      </c>
-      <c r="D335" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>221</v>
-      </c>
-      <c r="B336" t="s">
-        <v>279</v>
-      </c>
-      <c r="D336" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>407</v>
-      </c>
-      <c r="B337" t="s">
-        <v>408</v>
-      </c>
-      <c r="D337" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>222</v>
-      </c>
-      <c r="B338" t="s">
-        <v>223</v>
-      </c>
-      <c r="D338" s="2">
-        <v>894000</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>224</v>
-      </c>
-      <c r="B339" t="s">
-        <v>409</v>
-      </c>
-      <c r="D339" s="3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>225</v>
-      </c>
-      <c r="B340" t="s">
-        <v>319</v>
-      </c>
-      <c r="D340" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>226</v>
-      </c>
-      <c r="B341" t="s">
-        <v>227</v>
-      </c>
-      <c r="D341" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>226</v>
-      </c>
-      <c r="B342" t="s">
-        <v>280</v>
-      </c>
-      <c r="D342" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>228</v>
-      </c>
-      <c r="B343" t="s">
-        <v>229</v>
-      </c>
-      <c r="D343" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
-        <v>410</v>
-      </c>
-      <c r="B344" t="s">
-        <v>411</v>
-      </c>
-      <c r="D344" s="2">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>230</v>
-      </c>
-      <c r="B345" t="s">
-        <v>281</v>
-      </c>
-      <c r="D345" s="2">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>230</v>
-      </c>
-      <c r="B346" t="s">
-        <v>231</v>
-      </c>
-      <c r="D346" s="2">
-        <v>136000</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>355</v>
-      </c>
-      <c r="B347" t="s">
-        <v>356</v>
-      </c>
-      <c r="D347" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
-        <v>232</v>
-      </c>
-      <c r="B348" t="s">
-        <v>233</v>
-      </c>
-      <c r="D348" s="2">
-        <v>765000</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>234</v>
-      </c>
-      <c r="B349" t="s">
-        <v>235</v>
-      </c>
-      <c r="D349" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
-        <v>357</v>
-      </c>
-      <c r="B350" t="s">
-        <v>358</v>
-      </c>
-      <c r="D350" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>320</v>
-      </c>
-      <c r="B351" t="s">
-        <v>236</v>
-      </c>
-      <c r="D351" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
-        <v>321</v>
-      </c>
-      <c r="B352" t="s">
-        <v>237</v>
-      </c>
-      <c r="D352" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>238</v>
-      </c>
-      <c r="B353" t="s">
-        <v>239</v>
-      </c>
-      <c r="D353" s="2">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>244</v>
-      </c>
-      <c r="B354" t="s">
-        <v>245</v>
-      </c>
-      <c r="D354" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>244</v>
-      </c>
-      <c r="B355" t="s">
-        <v>246</v>
-      </c>
-      <c r="D355" s="2">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>247</v>
-      </c>
-      <c r="B356" t="s">
-        <v>248</v>
-      </c>
-      <c r="D356" s="2">
-        <v>2200000</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>250</v>
-      </c>
-      <c r="B357" t="s">
-        <v>251</v>
-      </c>
-      <c r="D357" s="2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>252</v>
-      </c>
-      <c r="B358" t="s">
-        <v>253</v>
-      </c>
-      <c r="D358" s="2">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>254</v>
-      </c>
-      <c r="B359" t="s">
-        <v>254</v>
-      </c>
-      <c r="D359" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
-        <v>259</v>
-      </c>
-      <c r="B360" t="s">
-        <v>260</v>
-      </c>
-      <c r="D360" s="2">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>263</v>
-      </c>
-      <c r="B361" t="s">
-        <v>264</v>
-      </c>
-      <c r="D361" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>265</v>
-      </c>
-      <c r="B362" t="s">
-        <v>266</v>
-      </c>
-      <c r="D362" s="2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>267</v>
-      </c>
-      <c r="B363" t="s">
-        <v>267</v>
-      </c>
-      <c r="D363" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>282</v>
-      </c>
-      <c r="B364" t="s">
-        <v>283</v>
-      </c>
-      <c r="D364" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
-        <v>284</v>
-      </c>
-      <c r="B365" t="s">
-        <v>285</v>
-      </c>
-      <c r="D365" s="2">
-        <v>130000</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K215" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
+  <autoFilter ref="A1:J215" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\04 - 预测\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\716\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FD8D60-B063-4FE4-9676-3B3AB4D640AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C873399-2A79-4680-A4F6-F27435353FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$215</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="414">
   <si>
     <t>产品型号</t>
   </si>
@@ -1003,9 +1003,6 @@
   </si>
   <si>
     <t>SC9675IM-LRF01-TR-Q</t>
-  </si>
-  <si>
-    <t>1月预测2</t>
   </si>
   <si>
     <t>合计</t>
@@ -1193,6 +1190,98 @@
   </si>
   <si>
     <t>SYLM358DC-GC-90AR-NM</t>
+  </si>
+  <si>
+    <t>3100-3100</t>
+  </si>
+  <si>
+    <t>PFD1014A</t>
+  </si>
+  <si>
+    <t>SC1134BU-CI-00AR-1134</t>
+  </si>
+  <si>
+    <t>SC1645A1-AI-00HK-615HA</t>
+  </si>
+  <si>
+    <t>SC1645B1-AE-00HK-4601</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-CJ-00NR-2402</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-CJ-00NR-6571</t>
+  </si>
+  <si>
+    <t>CSMC</t>
+  </si>
+  <si>
+    <t>SC2402S1-BK</t>
+  </si>
+  <si>
+    <t>SC2402S1-CJ-90AK-6571</t>
+  </si>
+  <si>
+    <t>SC2448SO-H-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2448SO-H-Q-DB-60AR-2448H</t>
+  </si>
+  <si>
+    <t>SC2448SO-Q-DB-40CR-2448</t>
+  </si>
+  <si>
+    <t>SC4104SE-TR</t>
+  </si>
+  <si>
+    <t>SC4104SE-GB-00LR-4104</t>
+  </si>
+  <si>
+    <t>SC4643VB-S-TR-Q</t>
+  </si>
+  <si>
+    <t>SC4643VB-S-Q-DE-40CR-4643</t>
+  </si>
+  <si>
+    <t>SC9314UA</t>
+  </si>
+  <si>
+    <t>SC9314UA-9201L</t>
+  </si>
+  <si>
+    <t>SC9314UA-9209</t>
+  </si>
+  <si>
+    <t>SC9314UA-CF-0XAK-2414</t>
+  </si>
+  <si>
+    <t>SC9621VB-TR-Q</t>
+  </si>
+  <si>
+    <t>SC9621VB-Q-CN-4XCR-9621</t>
+  </si>
+  <si>
+    <t>SC9634VB-BK</t>
+  </si>
+  <si>
+    <t>SC9634VB-CG-00CK-9634</t>
+  </si>
+  <si>
+    <t>SC9641TS-P-AI-10LR-41CPA</t>
+  </si>
+  <si>
+    <t>SC9642TS-E-TR</t>
+  </si>
+  <si>
+    <t>SC9642TS-E-AH-4XLR-9642</t>
+  </si>
+  <si>
+    <t>7月预测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月预测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1242,12 +1331,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1293,7 +1388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1315,6 +1410,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1596,13 +1692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}">
-  <dimension ref="A1:N215"/>
+  <dimension ref="A1:O365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D194" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D213" sqref="D213"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1610,14 +1706,15 @@
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1628,32 +1725,35 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="6"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>286</v>
       </c>
@@ -1661,30 +1761,31 @@
         <v>286</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="3">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3">
         <v>48</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>120</v>
-      </c>
-      <c r="F2" s="3">
-        <v>96</v>
       </c>
       <c r="G2" s="3">
         <v>96</v>
       </c>
       <c r="H2" s="3">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I2" s="3">
         <v>24</v>
       </c>
-      <c r="J2" s="4">
-        <f>SUM(D2:I2)</f>
+      <c r="J2" s="3">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUM(E2:J2)</f>
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>288</v>
       </c>
@@ -1692,82 +1793,83 @@
         <v>288</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>25</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>25</v>
       </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J47" si="0">SUM(D3:I3)</f>
+      <c r="J3" s="3">
+        <v>25</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K47" si="0">SUM(E3:J3)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="3">
         <v>0</v>
       </c>
@@ -1783,12 +1885,15 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>289</v>
       </c>
@@ -1796,30 +1901,31 @@
         <v>290</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
         <v>370000</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <v>370000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="9">
         <v>370000</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="9">
+        <v>370000</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>1110000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1827,9 +1933,7 @@
         <v>291</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="3">
         <v>50000</v>
       </c>
@@ -1845,12 +1949,15 @@
       <c r="I8" s="3">
         <v>50000</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1858,30 +1965,31 @@
         <v>10</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3">
         <v>572150</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>567150</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>572150</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>632150</v>
-      </c>
-      <c r="H9" s="3">
-        <v>627150</v>
       </c>
       <c r="I9" s="3">
         <v>627150</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
+        <v>627150</v>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>3597900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1891,9 +1999,7 @@
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3">
-        <v>130000</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="3">
         <v>130000</v>
       </c>
@@ -1909,12 +2015,15 @@
       <c r="I10" s="3">
         <v>130000</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
+        <v>130000</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>780000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1924,9 +2033,7 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="3">
         <v>50000</v>
       </c>
@@ -1942,12 +2049,15 @@
       <c r="I11" s="3">
         <v>50000</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1955,51 +2065,53 @@
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <v>65000</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="3">
         <v>65000</v>
       </c>
       <c r="F12" s="3">
+        <v>65000</v>
+      </c>
+      <c r="G12" s="3">
         <v>135000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>85000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>118000</v>
       </c>
       <c r="I12" s="3">
         <v>118000</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
+        <v>118000</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>586000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2007,11 +2119,9 @@
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3">
         <v>240000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>120000</v>
       </c>
       <c r="F14" s="3">
         <v>120000</v>
@@ -2025,12 +2135,15 @@
       <c r="I14" s="3">
         <v>120000</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
+        <v>120000</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2040,24 +2153,25 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3">
-        <v>380000</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="3">
         <v>380000</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>380000</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>760000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2065,9 +2179,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="3">
-        <v>320000</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="3">
         <v>320000</v>
       </c>
@@ -2083,12 +2195,15 @@
       <c r="I16" s="3">
         <v>320000</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
+        <v>320000</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>1920000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2096,9 +2211,7 @@
         <v>269</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="3">
-        <v>100000</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="3">
         <v>100000</v>
       </c>
@@ -2114,12 +2227,15 @@
       <c r="I17" s="3">
         <v>100000</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,9 +2245,7 @@
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>3000</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="3">
         <v>3000</v>
       </c>
@@ -2147,12 +2261,15 @@
       <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2162,30 +2279,31 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="3">
         <v>212000</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>200000</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>218000</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>200000</v>
-      </c>
-      <c r="H19" s="3">
-        <v>221000</v>
       </c>
       <c r="I19" s="3">
         <v>221000</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
+        <v>221000</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
         <v>1272000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2193,14 +2311,12 @@
         <v>20</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="3">
-        <v>33000</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="3">
         <v>33000</v>
       </c>
       <c r="F20" s="3">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="G20" s="3">
         <v>35000</v>
@@ -2211,12 +2327,15 @@
       <c r="I20" s="3">
         <v>35000</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
         <v>206000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2224,9 +2343,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="3">
-        <v>400000</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="3">
         <v>400000</v>
       </c>
@@ -2242,12 +2359,15 @@
       <c r="I21" s="3">
         <v>400000</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
+        <v>400000</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
         <v>2400000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2255,11 +2375,9 @@
         <v>24</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="3">
+      <c r="D22" s="2"/>
+      <c r="E22" s="3">
         <v>395000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>235000</v>
       </c>
       <c r="F22" s="3">
         <v>235000</v>
@@ -2273,12 +2391,15 @@
       <c r="I22" s="3">
         <v>235000</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
+        <v>235000</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
         <v>1570000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2286,9 +2407,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="3">
-        <v>19000</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="3">
         <v>19000</v>
       </c>
@@ -2304,12 +2423,15 @@
       <c r="I23" s="3">
         <v>19000</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
         <v>114000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2317,24 +2439,25 @@
         <v>28</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
         <v>500000</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
         <v>500000</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,9 +2465,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="3">
-        <v>3500000</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="3">
         <v>3500000</v>
       </c>
@@ -2360,12 +2481,15 @@
       <c r="I25" s="3">
         <v>3500000</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
+        <v>3500000</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2373,11 +2497,9 @@
         <v>30</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="3">
+      <c r="D26" s="2"/>
+      <c r="E26" s="3">
         <v>2000000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1000000</v>
       </c>
       <c r="F26" s="3">
         <v>1000000</v>
@@ -2391,12 +2513,15 @@
       <c r="I26" s="3">
         <v>1000000</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -2404,9 +2529,7 @@
         <v>292</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="3">
-        <v>3000000</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="3">
         <v>3000000</v>
       </c>
@@ -2422,12 +2545,15 @@
       <c r="I27" s="3">
         <v>3000000</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="K27" s="4">
         <f t="shared" si="0"/>
         <v>18000000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2435,11 +2561,9 @@
         <v>293</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="3">
+      <c r="D28" s="2"/>
+      <c r="E28" s="3">
         <v>750000</v>
-      </c>
-      <c r="E28" s="3">
-        <v>250000</v>
       </c>
       <c r="F28" s="3">
         <v>250000</v>
@@ -2453,75 +2577,81 @@
       <c r="I28" s="3">
         <v>250000</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K28" s="4">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2529,24 +2659,25 @@
         <v>33</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="3">
-        <v>2500000</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="3">
         <v>2500000</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3">
+        <v>2500000</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2554,11 +2685,9 @@
         <v>35</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="3">
+      <c r="D33" s="2"/>
+      <c r="E33" s="3">
         <v>500000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>250000</v>
       </c>
       <c r="F33" s="3">
         <v>250000</v>
@@ -2572,12 +2701,15 @@
       <c r="I33" s="3">
         <v>250000</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K33" s="4">
         <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>294</v>
       </c>
@@ -2585,22 +2717,23 @@
         <v>295</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="3">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3">
         <v>250000</v>
       </c>
-      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2608,22 +2741,23 @@
         <v>37</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="3">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3">
         <v>1500000</v>
       </c>
-      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>296</v>
       </c>
@@ -2631,14 +2765,12 @@
         <v>297</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="3">
-        <v>60000</v>
-      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="3">
         <v>60000</v>
       </c>
       <c r="F36" s="3">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="G36" s="3">
         <v>65000</v>
@@ -2649,12 +2781,15 @@
       <c r="I36" s="3">
         <v>65000</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K36" s="4">
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2662,17 +2797,15 @@
         <v>39</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="3">
+      <c r="D37" s="2"/>
+      <c r="E37" s="3">
         <v>239000</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>1239000</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>239000</v>
-      </c>
-      <c r="G37" s="3">
-        <v>240000</v>
       </c>
       <c r="H37" s="3">
         <v>240000</v>
@@ -2680,12 +2813,15 @@
       <c r="I37" s="3">
         <v>240000</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="3">
+        <v>240000</v>
+      </c>
+      <c r="K37" s="4">
         <f t="shared" si="0"/>
         <v>2437000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2693,17 +2829,15 @@
         <v>41</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
         <v>30000</v>
       </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
       <c r="G38" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3">
         <v>30000</v>
@@ -2711,12 +2845,15 @@
       <c r="I38" s="3">
         <v>30000</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K38" s="4">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -2724,9 +2861,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="3">
-        <v>379000</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="3">
         <v>379000</v>
       </c>
@@ -2742,12 +2877,15 @@
       <c r="I39" s="3">
         <v>379000</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="3">
+        <v>379000</v>
+      </c>
+      <c r="K39" s="4">
         <f t="shared" si="0"/>
         <v>2274000</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -2755,9 +2893,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="3">
-        <v>80000</v>
-      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="3">
         <v>80000</v>
       </c>
@@ -2773,12 +2909,15 @@
       <c r="I40" s="3">
         <v>80000</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K40" s="4">
         <f t="shared" si="0"/>
         <v>480000</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2786,9 +2925,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="3">
-        <v>510000</v>
-      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="3">
         <v>510000</v>
       </c>
@@ -2804,12 +2941,15 @@
       <c r="I41" s="3">
         <v>510000</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="3">
+        <v>510000</v>
+      </c>
+      <c r="K41" s="4">
         <f t="shared" si="0"/>
         <v>3060000</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2817,22 +2957,23 @@
         <v>48</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="3">
+      <c r="D42" s="2"/>
+      <c r="E42" s="3">
         <v>381000</v>
       </c>
-      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
         <f t="shared" si="0"/>
         <v>381000</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -2840,17 +2981,15 @@
         <v>50</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="3">
+      <c r="D43" s="2"/>
+      <c r="E43" s="3">
         <v>40000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>10000</v>
       </c>
       <c r="F43" s="3">
         <v>10000</v>
       </c>
       <c r="G43" s="3">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="H43" s="3">
         <v>70000</v>
@@ -2858,12 +2997,15 @@
       <c r="I43" s="3">
         <v>70000</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K43" s="4">
         <f t="shared" si="0"/>
         <v>270000</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -2871,9 +3013,7 @@
         <v>52</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="3">
         <v>50000</v>
       </c>
@@ -2889,12 +3029,15 @@
       <c r="I44" s="3">
         <v>50000</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K44" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2902,51 +3045,53 @@
         <v>298</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="3">
+      <c r="D45" s="2"/>
+      <c r="E45" s="3">
         <v>3910000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4335000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3615000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4095000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4335000</v>
       </c>
       <c r="I45" s="3">
         <v>4335000</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="3">
+        <v>4335000</v>
+      </c>
+      <c r="K45" s="4">
         <f t="shared" si="0"/>
         <v>24625000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -2954,9 +3099,7 @@
         <v>54</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="3">
-        <v>2167000</v>
-      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="3">
         <v>2167000</v>
       </c>
@@ -2967,17 +3110,20 @@
         <v>2167000</v>
       </c>
       <c r="H47" s="3">
-        <v>2287000</v>
+        <v>2167000</v>
       </c>
       <c r="I47" s="3">
         <v>2287000</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="3">
+        <v>2287000</v>
+      </c>
+      <c r="K47" s="4">
         <f t="shared" si="0"/>
         <v>13242000</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -2985,30 +3131,31 @@
         <v>56</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="3">
+      <c r="D48" s="2"/>
+      <c r="E48" s="3">
         <v>500000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>600000</v>
       </c>
       <c r="I48" s="3">
         <v>600000</v>
       </c>
-      <c r="J48" s="4">
-        <f t="shared" ref="J48:J94" si="1">SUM(D48:I48)</f>
+      <c r="J48" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" ref="K48:K94" si="1">SUM(E48:J48)</f>
         <v>4500000</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -3016,30 +3163,31 @@
         <v>57</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="3">
+      <c r="D49" s="2"/>
+      <c r="E49" s="3">
         <v>400000</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>600000</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
       <c r="H49" s="3">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>400000</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="3">
+        <v>400000</v>
+      </c>
+      <c r="K49" s="4">
         <f t="shared" si="1"/>
         <v>1800000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -3047,32 +3195,31 @@
         <v>299</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="3">
+      <c r="D50" s="2"/>
+      <c r="E50" s="3">
         <v>1000000</v>
       </c>
-      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="3">
         <v>0</v>
       </c>
@@ -3088,12 +3235,15 @@
       <c r="I51" s="3">
         <v>0</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -3101,43 +3251,45 @@
         <v>58</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="3">
+      <c r="D52" s="2"/>
+      <c r="E52" s="3">
         <v>1000000</v>
       </c>
-      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3">
         <v>1000000</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="4">
+      <c r="J53" s="3"/>
+      <c r="K53" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -3145,28 +3297,29 @@
         <v>60</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="3">
+      <c r="D54" s="2"/>
+      <c r="E54" s="3">
         <v>600000</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>600000</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="4">
+      <c r="I54" s="3"/>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
         <f t="shared" si="1"/>
         <v>1200000</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -3174,9 +3327,7 @@
         <v>62</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="3">
-        <v>140000</v>
-      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="3">
         <v>140000</v>
       </c>
@@ -3192,12 +3343,15 @@
       <c r="I55" s="3">
         <v>140000</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="3">
+        <v>140000</v>
+      </c>
+      <c r="K55" s="4">
         <f t="shared" si="1"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -3205,14 +3359,12 @@
         <v>64</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="3">
-        <v>20000</v>
-      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="3">
         <v>20000</v>
       </c>
       <c r="F56" s="3">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="G56" s="3">
         <v>35000</v>
@@ -3223,12 +3375,15 @@
       <c r="I56" s="3">
         <v>35000</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K56" s="4">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -3236,11 +3391,9 @@
         <v>66</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="3">
+      <c r="D57" s="2"/>
+      <c r="E57" s="3">
         <v>5000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>10000</v>
       </c>
       <c r="F57" s="3">
         <v>10000</v>
@@ -3249,17 +3402,20 @@
         <v>10000</v>
       </c>
       <c r="H57" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="I57" s="3">
         <v>40000</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K57" s="4">
         <f t="shared" si="1"/>
         <v>115000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -3267,51 +3423,53 @@
         <v>68</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="3">
+      <c r="D58" s="2"/>
+      <c r="E58" s="3">
         <v>106000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>76000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>89000</v>
       </c>
       <c r="G58" s="3">
         <v>89000</v>
       </c>
       <c r="H58" s="3">
-        <v>109000</v>
+        <v>89000</v>
       </c>
       <c r="I58" s="3">
         <v>109000</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K58" s="4">
         <f t="shared" si="1"/>
         <v>578000</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="2"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
+      <c r="I59" s="3"/>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -3319,9 +3477,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="3">
-        <v>430000</v>
-      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="3">
         <v>430000</v>
       </c>
@@ -3337,12 +3493,15 @@
       <c r="I60" s="3">
         <v>430000</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="3">
+        <v>430000</v>
+      </c>
+      <c r="K60" s="4">
         <f t="shared" si="1"/>
         <v>2580000</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3350,30 +3509,31 @@
         <v>72</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="3">
+      <c r="D61" s="2"/>
+      <c r="E61" s="3">
         <v>120000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>125000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>130000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>135000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>165000</v>
       </c>
       <c r="I61" s="3">
         <v>165000</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K61" s="4">
         <f t="shared" si="1"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -3381,9 +3541,7 @@
         <v>74</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="3">
-        <v>30000</v>
-      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="3">
         <v>30000</v>
       </c>
@@ -3399,12 +3557,15 @@
       <c r="I62" s="3">
         <v>30000</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K62" s="4">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -3412,47 +3573,49 @@
         <v>74</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3">
+      <c r="D63" s="2"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3">
         <v>12000</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <v>6000</v>
       </c>
-      <c r="G63" s="3">
+      <c r="H63" s="3">
         <v>15000</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
+      <c r="I63" s="3"/>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
         <f t="shared" si="1"/>
         <v>33000</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="J64" s="4">
+      <c r="I64" s="3"/>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -3460,30 +3623,31 @@
         <v>77</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="3">
+      <c r="D65" s="2"/>
+      <c r="E65" s="3">
         <v>30000</v>
       </c>
-      <c r="E65" s="3">
+      <c r="F65" s="3">
         <v>18000</v>
-      </c>
-      <c r="F65" s="3">
-        <v>3000</v>
       </c>
       <c r="G65" s="3">
         <v>3000</v>
       </c>
       <c r="H65" s="3">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="I65" s="3">
         <v>18000</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J65" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K65" s="4">
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -3491,30 +3655,31 @@
         <v>79</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="3">
+      <c r="D66" s="2"/>
+      <c r="E66" s="3">
         <v>14000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>14000</v>
       </c>
       <c r="I66" s="3">
         <v>14000</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J66" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K66" s="4">
         <f t="shared" si="1"/>
         <v>81000</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
@@ -3522,9 +3687,7 @@
         <v>81</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="3">
-        <v>19000</v>
-      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="3">
         <v>19000</v>
       </c>
@@ -3540,12 +3703,15 @@
       <c r="I67" s="3">
         <v>19000</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K67" s="4">
         <f t="shared" si="1"/>
         <v>114000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -3553,9 +3719,7 @@
         <v>83</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="3">
-        <v>20000</v>
-      </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="3">
         <v>20000</v>
       </c>
@@ -3571,12 +3735,15 @@
       <c r="I68" s="3">
         <v>20000</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K68" s="4">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
@@ -3584,30 +3751,31 @@
         <v>85</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="3">
-        <v>322000</v>
-      </c>
+      <c r="D69" s="2"/>
       <c r="E69" s="3">
         <v>322000</v>
       </c>
       <c r="F69" s="3">
+        <v>322000</v>
+      </c>
+      <c r="G69" s="3">
         <v>352000</v>
       </c>
-      <c r="G69" s="3">
+      <c r="H69" s="3">
         <v>322000</v>
-      </c>
-      <c r="H69" s="3">
-        <v>352000</v>
       </c>
       <c r="I69" s="3">
         <v>352000</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J69" s="3">
+        <v>352000</v>
+      </c>
+      <c r="K69" s="4">
         <f t="shared" si="1"/>
         <v>2022000</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
@@ -3615,30 +3783,31 @@
         <v>300</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="3">
-        <v>900000</v>
-      </c>
+      <c r="D70" s="2"/>
       <c r="E70" s="3">
         <v>900000</v>
       </c>
       <c r="F70" s="3">
+        <v>900000</v>
+      </c>
+      <c r="G70" s="3">
         <v>1000000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>1300000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1500000</v>
       </c>
       <c r="I70" s="3">
         <v>1500000</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="K70" s="4">
         <f t="shared" si="1"/>
         <v>7100000</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
@@ -3646,30 +3815,31 @@
         <v>87</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="3">
-        <v>212000</v>
-      </c>
+      <c r="D71" s="2"/>
       <c r="E71" s="3">
         <v>212000</v>
       </c>
       <c r="F71" s="3">
+        <v>212000</v>
+      </c>
+      <c r="G71" s="3">
         <v>242000</v>
       </c>
-      <c r="G71" s="3">
+      <c r="H71" s="3">
         <v>212000</v>
-      </c>
-      <c r="H71" s="3">
-        <v>242000</v>
       </c>
       <c r="I71" s="3">
         <v>242000</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J71" s="3">
+        <v>242000</v>
+      </c>
+      <c r="K71" s="4">
         <f t="shared" si="1"/>
         <v>1362000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
@@ -3677,30 +3847,31 @@
         <v>88</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="3">
-        <v>320000</v>
-      </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="3">
         <v>320000</v>
       </c>
       <c r="F72" s="3">
-        <v>380000</v>
+        <v>320000</v>
       </c>
       <c r="G72" s="3">
         <v>380000</v>
       </c>
       <c r="H72" s="3">
-        <v>392000</v>
+        <v>380000</v>
       </c>
       <c r="I72" s="3">
         <v>392000</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J72" s="3">
+        <v>392000</v>
+      </c>
+      <c r="K72" s="4">
         <f t="shared" si="1"/>
         <v>2184000</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -3708,30 +3879,31 @@
         <v>90</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="3">
+      <c r="D73" s="2"/>
+      <c r="E73" s="3">
         <v>352000</v>
       </c>
-      <c r="E73" s="3">
+      <c r="F73" s="3">
         <v>552000</v>
-      </c>
-      <c r="F73" s="3">
-        <v>362000</v>
       </c>
       <c r="G73" s="3">
         <v>362000</v>
       </c>
       <c r="H73" s="3">
-        <v>562000</v>
+        <v>362000</v>
       </c>
       <c r="I73" s="3">
         <v>562000</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J73" s="3">
+        <v>562000</v>
+      </c>
+      <c r="K73" s="4">
         <f t="shared" si="1"/>
         <v>2752000</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -3739,30 +3911,31 @@
         <v>92</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="3">
+      <c r="D74" s="2"/>
+      <c r="E74" s="3">
         <v>854000</v>
       </c>
-      <c r="E74" s="3">
+      <c r="F74" s="3">
         <v>1192500</v>
       </c>
-      <c r="F74" s="3">
+      <c r="G74" s="3">
         <v>1429000</v>
       </c>
-      <c r="G74" s="3">
+      <c r="H74" s="3">
         <v>1529000</v>
-      </c>
-      <c r="H74" s="3">
-        <v>1527000</v>
       </c>
       <c r="I74" s="3">
         <v>1527000</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J74" s="3">
+        <v>1527000</v>
+      </c>
+      <c r="K74" s="4">
         <f t="shared" si="1"/>
         <v>8058500</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>93</v>
       </c>
@@ -3770,51 +3943,53 @@
         <v>94</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="3">
+      <c r="D75" s="2"/>
+      <c r="E75" s="3">
         <v>322000</v>
       </c>
-      <c r="E75" s="3">
+      <c r="F75" s="3">
         <v>272000</v>
-      </c>
-      <c r="F75" s="3">
-        <v>282000</v>
       </c>
       <c r="G75" s="3">
         <v>282000</v>
       </c>
       <c r="H75" s="3">
-        <v>292000</v>
+        <v>282000</v>
       </c>
       <c r="I75" s="3">
         <v>292000</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75" s="3">
+        <v>292000</v>
+      </c>
+      <c r="K75" s="4">
         <f t="shared" si="1"/>
         <v>1742000</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" s="3"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="4">
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>95</v>
       </c>
@@ -3822,14 +3997,12 @@
         <v>96</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="3">
+      <c r="D77" s="2"/>
+      <c r="E77" s="3">
         <v>360000</v>
       </c>
-      <c r="E77" s="3">
+      <c r="F77" s="3">
         <v>500000</v>
-      </c>
-      <c r="F77" s="3">
-        <v>505000</v>
       </c>
       <c r="G77" s="3">
         <v>505000</v>
@@ -3840,12 +4013,15 @@
       <c r="I77" s="3">
         <v>505000</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J77" s="3">
+        <v>505000</v>
+      </c>
+      <c r="K77" s="4">
         <f t="shared" si="1"/>
         <v>2880000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>97</v>
       </c>
@@ -3853,30 +4029,31 @@
         <v>301</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="3">
+      <c r="D78" s="2"/>
+      <c r="E78" s="3">
         <v>262000</v>
       </c>
-      <c r="E78" s="3">
+      <c r="F78" s="3">
         <v>283000</v>
       </c>
-      <c r="F78" s="3">
+      <c r="G78" s="3">
         <v>331000</v>
       </c>
-      <c r="G78" s="3">
+      <c r="H78" s="3">
         <v>368000</v>
-      </c>
-      <c r="H78" s="3">
-        <v>388000</v>
       </c>
       <c r="I78" s="3">
         <v>388000</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78" s="3">
+        <v>388000</v>
+      </c>
+      <c r="K78" s="4">
         <f t="shared" si="1"/>
         <v>2020000</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>98</v>
       </c>
@@ -3884,14 +4061,12 @@
         <v>302</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="D79" s="3">
-        <v>830000</v>
-      </c>
+      <c r="D79" s="2"/>
       <c r="E79" s="3">
         <v>830000</v>
       </c>
       <c r="F79" s="3">
-        <v>840000</v>
+        <v>830000</v>
       </c>
       <c r="G79" s="3">
         <v>840000</v>
@@ -3902,12 +4077,15 @@
       <c r="I79" s="3">
         <v>840000</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J79" s="3">
+        <v>840000</v>
+      </c>
+      <c r="K79" s="4">
         <f t="shared" si="1"/>
         <v>5020000</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>99</v>
       </c>
@@ -3915,30 +4093,31 @@
         <v>303</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="3">
+      <c r="D80" s="2"/>
+      <c r="E80" s="3">
         <v>994000</v>
       </c>
-      <c r="E80" s="3">
+      <c r="F80" s="3">
         <v>1072000</v>
       </c>
-      <c r="F80" s="3">
+      <c r="G80" s="3">
         <v>1226000</v>
       </c>
-      <c r="G80" s="3">
+      <c r="H80" s="3">
         <v>1470000</v>
       </c>
-      <c r="H80" s="3">
+      <c r="I80" s="3">
         <v>1464000</v>
       </c>
-      <c r="I80" s="3">
+      <c r="J80" s="3">
         <v>1460000</v>
       </c>
-      <c r="J80" s="4">
+      <c r="K80" s="4">
         <f t="shared" si="1"/>
         <v>7686000</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>100</v>
       </c>
@@ -3946,22 +4125,23 @@
         <v>101</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="3"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="3">
-        <v>200000</v>
-      </c>
+      <c r="H81" s="3"/>
       <c r="I81" s="3">
         <v>200000</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J81" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K81" s="4">
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>304</v>
       </c>
@@ -3969,24 +4149,25 @@
         <v>305</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="3"/>
+      <c r="D82" s="2"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="3">
-        <v>5000</v>
-      </c>
+      <c r="G82" s="3"/>
       <c r="H82" s="3">
         <v>5000</v>
       </c>
       <c r="I82" s="3">
         <v>5000</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J82" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K82" s="4">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>102</v>
       </c>
@@ -3994,9 +4175,7 @@
         <v>103</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" s="3">
-        <v>5000</v>
-      </c>
+      <c r="D83" s="2"/>
       <c r="E83" s="3">
         <v>5000</v>
       </c>
@@ -4012,12 +4191,15 @@
       <c r="I83" s="3">
         <v>5000</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K83" s="4">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>104</v>
       </c>
@@ -4025,9 +4207,7 @@
         <v>105</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="3">
-        <v>150000</v>
-      </c>
+      <c r="D84" s="2"/>
       <c r="E84" s="3">
         <v>150000</v>
       </c>
@@ -4035,7 +4215,7 @@
         <v>150000</v>
       </c>
       <c r="G84" s="3">
-        <v>151000</v>
+        <v>150000</v>
       </c>
       <c r="H84" s="3">
         <v>151000</v>
@@ -4043,12 +4223,15 @@
       <c r="I84" s="3">
         <v>151000</v>
       </c>
-      <c r="J84" s="4">
+      <c r="J84" s="3">
+        <v>151000</v>
+      </c>
+      <c r="K84" s="4">
         <f t="shared" si="1"/>
         <v>903000</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>106</v>
       </c>
@@ -4056,30 +4239,31 @@
         <v>107</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="3">
+      <c r="D85" s="2"/>
+      <c r="E85" s="3">
         <v>128000</v>
       </c>
-      <c r="E85" s="3">
+      <c r="F85" s="3">
         <v>130000</v>
       </c>
-      <c r="F85" s="3">
+      <c r="G85" s="3">
         <v>133000</v>
       </c>
-      <c r="G85" s="3">
+      <c r="H85" s="3">
         <v>145000</v>
-      </c>
-      <c r="H85" s="3">
-        <v>150000</v>
       </c>
       <c r="I85" s="3">
         <v>150000</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J85" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K85" s="4">
         <f t="shared" si="1"/>
         <v>836000</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>108</v>
       </c>
@@ -4087,9 +4271,7 @@
         <v>109</v>
       </c>
       <c r="C86" s="8"/>
-      <c r="D86" s="9">
-        <v>10000</v>
-      </c>
+      <c r="D86" s="8"/>
       <c r="E86" s="9">
         <v>10000</v>
       </c>
@@ -4105,12 +4287,15 @@
       <c r="I86" s="9">
         <v>10000</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J86" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K86" s="4">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
@@ -4118,22 +4303,23 @@
         <v>110</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="3">
+      <c r="D87" s="2"/>
+      <c r="E87" s="3">
         <v>400000</v>
       </c>
-      <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3">
-        <v>0</v>
-      </c>
-      <c r="J87" s="4">
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>111</v>
       </c>
@@ -4141,9 +4327,7 @@
         <v>112</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="3">
-        <v>3000</v>
-      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="3">
         <v>3000</v>
       </c>
@@ -4159,12 +4343,15 @@
       <c r="I88" s="3">
         <v>3000</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K88" s="4">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>113</v>
       </c>
@@ -4172,28 +4359,29 @@
         <v>114</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3">
+      <c r="D89" s="2"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3">
         <v>200000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>215000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>150000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>215000</v>
       </c>
       <c r="I89" s="3">
         <v>215000</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89" s="3">
+        <v>215000</v>
+      </c>
+      <c r="K89" s="4">
         <f t="shared" si="1"/>
         <v>995000</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>306</v>
       </c>
@@ -4201,11 +4389,9 @@
         <v>287</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="3"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="3">
-        <v>5000</v>
-      </c>
+      <c r="F90" s="3"/>
       <c r="G90" s="3">
         <v>5000</v>
       </c>
@@ -4215,12 +4401,15 @@
       <c r="I90" s="3">
         <v>5000</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K90" s="4">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>115</v>
       </c>
@@ -4228,9 +4417,7 @@
         <v>116</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="3">
-        <v>1200000</v>
-      </c>
+      <c r="D91" s="2"/>
       <c r="E91" s="3">
         <v>1200000</v>
       </c>
@@ -4246,12 +4433,15 @@
       <c r="I91" s="3">
         <v>1200000</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J91" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="K91" s="4">
         <f t="shared" si="1"/>
         <v>7200000</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>117</v>
       </c>
@@ -4259,30 +4449,31 @@
         <v>118</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="3">
+      <c r="D92" s="2"/>
+      <c r="E92" s="3">
         <v>1050000</v>
       </c>
-      <c r="E92" s="3">
+      <c r="F92" s="3">
         <v>1200000</v>
       </c>
-      <c r="F92" s="3">
+      <c r="G92" s="3">
         <v>1110000</v>
       </c>
-      <c r="G92" s="3">
+      <c r="H92" s="3">
         <v>1170000</v>
-      </c>
-      <c r="H92" s="3">
-        <v>1530000</v>
       </c>
       <c r="I92" s="3">
         <v>1530000</v>
       </c>
-      <c r="J92" s="4">
+      <c r="J92" s="3">
+        <v>1530000</v>
+      </c>
+      <c r="K92" s="4">
         <f t="shared" si="1"/>
         <v>7590000</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
@@ -4290,30 +4481,31 @@
         <v>120</v>
       </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="3">
+      <c r="D93" s="2"/>
+      <c r="E93" s="3">
         <v>82000</v>
       </c>
-      <c r="E93" s="3">
+      <c r="F93" s="3">
         <v>94000</v>
       </c>
-      <c r="F93" s="3">
+      <c r="G93" s="3">
         <v>120000</v>
       </c>
-      <c r="G93" s="3">
+      <c r="H93" s="3">
         <v>190000</v>
-      </c>
-      <c r="H93" s="3">
-        <v>214000</v>
       </c>
       <c r="I93" s="3">
         <v>214000</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J93" s="3">
+        <v>214000</v>
+      </c>
+      <c r="K93" s="4">
         <f t="shared" si="1"/>
         <v>914000</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>121</v>
       </c>
@@ -4321,9 +4513,7 @@
         <v>122</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="3">
-        <v>95000</v>
-      </c>
+      <c r="D94" s="2"/>
       <c r="E94" s="3">
         <v>95000</v>
       </c>
@@ -4339,12 +4529,15 @@
       <c r="I94" s="3">
         <v>95000</v>
       </c>
-      <c r="J94" s="4">
+      <c r="J94" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K94" s="4">
         <f t="shared" si="1"/>
         <v>570000</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>123</v>
       </c>
@@ -4352,9 +4545,7 @@
         <v>124</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="3">
-        <v>0</v>
-      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="3">
         <v>0</v>
       </c>
@@ -4365,17 +4556,20 @@
         <v>0</v>
       </c>
       <c r="H95" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I95" s="3">
         <v>10000</v>
       </c>
-      <c r="J95" s="4">
-        <f t="shared" ref="J95:J140" si="2">SUM(D95:I95)</f>
+      <c r="J95" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K95" s="4">
+        <f t="shared" ref="K95:K140" si="2">SUM(E95:J95)</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>125</v>
       </c>
@@ -4383,30 +4577,31 @@
         <v>126</v>
       </c>
       <c r="C96" s="2"/>
-      <c r="D96" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D96" s="2"/>
       <c r="E96" s="3">
         <v>50000</v>
       </c>
       <c r="F96" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G96" s="3">
         <v>115000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>125000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>175000</v>
       </c>
       <c r="I96" s="3">
         <v>175000</v>
       </c>
-      <c r="J96" s="4">
+      <c r="J96" s="3">
+        <v>175000</v>
+      </c>
+      <c r="K96" s="4">
         <f t="shared" si="2"/>
         <v>690000</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>127</v>
       </c>
@@ -4414,9 +4609,7 @@
         <v>128</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="3">
-        <v>5000</v>
-      </c>
+      <c r="D97" s="2"/>
       <c r="E97" s="3">
         <v>5000</v>
       </c>
@@ -4432,12 +4625,15 @@
       <c r="I97" s="3">
         <v>5000</v>
       </c>
-      <c r="J97" s="4">
+      <c r="J97" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K97" s="4">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>129</v>
       </c>
@@ -4445,11 +4641,9 @@
         <v>130</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="3"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3">
-        <v>5000</v>
-      </c>
+      <c r="F98" s="3"/>
       <c r="G98" s="3">
         <v>5000</v>
       </c>
@@ -4459,12 +4653,15 @@
       <c r="I98" s="3">
         <v>5000</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K98" s="4">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
@@ -4472,14 +4669,12 @@
         <v>132</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="3">
+      <c r="D99" s="2"/>
+      <c r="E99" s="3">
         <v>5000</v>
       </c>
-      <c r="E99" s="3">
+      <c r="F99" s="3">
         <v>10000</v>
-      </c>
-      <c r="F99" s="3">
-        <v>20000</v>
       </c>
       <c r="G99" s="3">
         <v>20000</v>
@@ -4490,12 +4685,15 @@
       <c r="I99" s="3">
         <v>20000</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J99" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K99" s="4">
         <f t="shared" si="2"/>
         <v>95000</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
@@ -4503,24 +4701,25 @@
         <v>134</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="3"/>
+      <c r="D100" s="2"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="3">
-        <v>3000</v>
-      </c>
+      <c r="G100" s="3"/>
       <c r="H100" s="3">
         <v>3000</v>
       </c>
       <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="4">
+      <c r="J100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K100" s="4">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>307</v>
       </c>
@@ -4528,12 +4727,10 @@
         <v>308</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3">
+      <c r="D101" s="2"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3">
         <v>3000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>5000</v>
       </c>
       <c r="G101" s="3">
         <v>5000</v>
@@ -4544,12 +4741,15 @@
       <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="4">
+      <c r="J101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K101" s="4">
         <f t="shared" si="2"/>
         <v>23000</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>309</v>
       </c>
@@ -4557,9 +4757,7 @@
         <v>287</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="3">
-        <v>60000</v>
-      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="3">
         <v>60000</v>
       </c>
@@ -4567,7 +4765,7 @@
         <v>60000</v>
       </c>
       <c r="G102" s="3">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="H102" s="3">
         <v>120000</v>
@@ -4575,12 +4773,15 @@
       <c r="I102" s="3">
         <v>120000</v>
       </c>
-      <c r="J102" s="4">
+      <c r="J102" s="3">
+        <v>120000</v>
+      </c>
+      <c r="K102" s="4">
         <f t="shared" si="2"/>
         <v>540000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>135</v>
       </c>
@@ -4588,26 +4789,27 @@
         <v>136</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="3"/>
+      <c r="D103" s="2"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="3">
+      <c r="F103" s="3"/>
+      <c r="G103" s="3">
         <v>10000</v>
       </c>
-      <c r="G103" s="3">
+      <c r="H103" s="3">
         <v>13000</v>
-      </c>
-      <c r="H103" s="3">
-        <v>18000</v>
       </c>
       <c r="I103" s="3">
         <v>18000</v>
       </c>
-      <c r="J103" s="4">
+      <c r="J103" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K103" s="4">
         <f t="shared" si="2"/>
         <v>59000</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>137</v>
       </c>
@@ -4615,20 +4817,21 @@
         <v>138</v>
       </c>
       <c r="C104" s="2"/>
-      <c r="D104" s="3"/>
+      <c r="D104" s="2"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="3">
-        <v>0</v>
-      </c>
-      <c r="J104" s="4">
+      <c r="I104" s="3"/>
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
+      <c r="K104" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>310</v>
       </c>
@@ -4636,9 +4839,7 @@
         <v>287</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D105" s="2"/>
       <c r="E105" s="3">
         <v>50000</v>
       </c>
@@ -4654,33 +4855,37 @@
       <c r="I105" s="3">
         <v>50000</v>
       </c>
-      <c r="J105" s="4">
+      <c r="J105" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K105" s="4">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="C106" s="2"/>
-      <c r="D106" s="3"/>
+      <c r="D106" s="2"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
-      <c r="I106" s="3">
-        <v>0</v>
-      </c>
-      <c r="J106" s="4">
+      <c r="I106" s="3"/>
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
+      <c r="K106" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>311</v>
       </c>
@@ -4688,14 +4893,12 @@
         <v>312</v>
       </c>
       <c r="C107" s="2"/>
-      <c r="D107" s="3">
-        <v>10000</v>
-      </c>
+      <c r="D107" s="2"/>
       <c r="E107" s="3">
         <v>10000</v>
       </c>
       <c r="F107" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G107" s="3">
         <v>20000</v>
@@ -4706,12 +4909,15 @@
       <c r="I107" s="3">
         <v>20000</v>
       </c>
-      <c r="J107" s="4">
+      <c r="J107" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K107" s="4">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>139</v>
       </c>
@@ -4719,30 +4925,31 @@
         <v>140</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="D108" s="3">
-        <v>90000</v>
-      </c>
+      <c r="D108" s="2"/>
       <c r="E108" s="3">
         <v>90000</v>
       </c>
       <c r="F108" s="3">
+        <v>90000</v>
+      </c>
+      <c r="G108" s="3">
         <v>880000</v>
       </c>
-      <c r="G108" s="3">
+      <c r="H108" s="3">
         <v>90000</v>
-      </c>
-      <c r="H108" s="3">
-        <v>190000</v>
       </c>
       <c r="I108" s="3">
         <v>190000</v>
       </c>
-      <c r="J108" s="4">
+      <c r="J108" s="3">
+        <v>190000</v>
+      </c>
+      <c r="K108" s="4">
         <f t="shared" si="2"/>
         <v>1530000</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>141</v>
       </c>
@@ -4750,72 +4957,75 @@
         <v>142</v>
       </c>
       <c r="C109" s="2"/>
-      <c r="D109" s="3">
-        <v>0</v>
-      </c>
+      <c r="D109" s="2"/>
       <c r="E109" s="3">
         <v>0</v>
       </c>
       <c r="F109" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G109" s="3">
         <v>20000</v>
       </c>
       <c r="H109" s="3">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="I109" s="3">
         <v>100000</v>
       </c>
-      <c r="J109" s="4">
+      <c r="J109" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K109" s="4">
         <f t="shared" si="2"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="C110" s="2"/>
-      <c r="D110" s="3"/>
+      <c r="D110" s="2"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
-      <c r="I110" s="3">
-        <v>0</v>
-      </c>
-      <c r="J110" s="4">
+      <c r="I110" s="3"/>
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
+      <c r="K110" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="C111" s="2"/>
-      <c r="D111" s="3"/>
+      <c r="D111" s="2"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="3">
-        <v>0</v>
-      </c>
-      <c r="J111" s="4">
+      <c r="I111" s="3"/>
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
+      <c r="K111" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>143</v>
       </c>
@@ -4823,9 +5033,7 @@
         <v>144</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D112" s="2"/>
       <c r="E112" s="3">
         <v>50000</v>
       </c>
@@ -4841,12 +5049,15 @@
       <c r="I112" s="3">
         <v>50000</v>
       </c>
-      <c r="J112" s="4">
+      <c r="J112" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K112" s="4">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>143</v>
       </c>
@@ -4854,9 +5065,7 @@
         <v>145</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="3">
-        <v>30000</v>
-      </c>
+      <c r="D113" s="2"/>
       <c r="E113" s="3">
         <v>30000</v>
       </c>
@@ -4872,12 +5081,15 @@
       <c r="I113" s="3">
         <v>30000</v>
       </c>
-      <c r="J113" s="4">
+      <c r="J113" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K113" s="4">
         <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>270</v>
       </c>
@@ -4885,9 +5097,7 @@
         <v>146</v>
       </c>
       <c r="C114" s="2"/>
-      <c r="D114" s="3">
-        <v>500000</v>
-      </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="3">
         <v>500000</v>
       </c>
@@ -4903,12 +5113,15 @@
       <c r="I114" s="3">
         <v>500000</v>
       </c>
-      <c r="J114" s="4">
+      <c r="J114" s="3">
+        <v>500000</v>
+      </c>
+      <c r="K114" s="4">
         <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>147</v>
       </c>
@@ -4916,11 +5129,9 @@
         <v>148</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="3">
+      <c r="D115" s="2"/>
+      <c r="E115" s="3">
         <v>240000</v>
-      </c>
-      <c r="E115" s="3">
-        <v>245000</v>
       </c>
       <c r="F115" s="3">
         <v>245000</v>
@@ -4929,17 +5140,20 @@
         <v>245000</v>
       </c>
       <c r="H115" s="3">
-        <v>260000</v>
+        <v>245000</v>
       </c>
       <c r="I115" s="3">
         <v>260000</v>
       </c>
-      <c r="J115" s="4">
+      <c r="J115" s="3">
+        <v>260000</v>
+      </c>
+      <c r="K115" s="4">
         <f t="shared" si="2"/>
         <v>1495000</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>271</v>
       </c>
@@ -4947,9 +5161,7 @@
         <v>272</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="3">
-        <v>3000000</v>
-      </c>
+      <c r="D116" s="2"/>
       <c r="E116" s="3">
         <v>3000000</v>
       </c>
@@ -4965,12 +5177,15 @@
       <c r="I116" s="3">
         <v>3000000</v>
       </c>
-      <c r="J116" s="4">
+      <c r="J116" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="K116" s="4">
         <f t="shared" si="2"/>
         <v>18000000</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>149</v>
       </c>
@@ -4978,14 +5193,12 @@
         <v>150</v>
       </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="3">
-        <v>0</v>
-      </c>
-      <c r="E117" s="9">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3">
-        <v>200000</v>
+      <c r="D117" s="2"/>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="9">
+        <v>0</v>
       </c>
       <c r="G117" s="3">
         <v>200000</v>
@@ -4996,17 +5209,20 @@
       <c r="I117" s="3">
         <v>200000</v>
       </c>
-      <c r="J117" s="4">
+      <c r="J117" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K117" s="4">
         <f t="shared" si="2"/>
         <v>800000</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -5014,15 +5230,16 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="3">
-        <v>0</v>
-      </c>
-      <c r="J118" s="4">
+      <c r="I118" s="3"/>
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
+      <c r="K118" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>151</v>
       </c>
@@ -5030,22 +5247,23 @@
         <v>152</v>
       </c>
       <c r="C119" s="2"/>
-      <c r="D119" s="3">
+      <c r="D119" s="2"/>
+      <c r="E119" s="3">
         <v>65000</v>
       </c>
-      <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="3">
-        <v>0</v>
-      </c>
-      <c r="J119" s="4">
+      <c r="I119" s="3"/>
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
+      <c r="K119" s="4">
         <f t="shared" si="2"/>
         <v>65000</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>153</v>
       </c>
@@ -5053,13 +5271,11 @@
         <v>154</v>
       </c>
       <c r="C120" s="2"/>
-      <c r="D120" s="3"/>
+      <c r="D120" s="2"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="3">
+      <c r="F120" s="3"/>
+      <c r="G120" s="3">
         <v>200000</v>
-      </c>
-      <c r="G120" s="3">
-        <v>250000</v>
       </c>
       <c r="H120" s="3">
         <v>250000</v>
@@ -5067,12 +5283,15 @@
       <c r="I120" s="3">
         <v>250000</v>
       </c>
-      <c r="J120" s="4">
+      <c r="J120" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K120" s="4">
         <f t="shared" si="2"/>
         <v>950000</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>155</v>
       </c>
@@ -5080,11 +5299,9 @@
         <v>156</v>
       </c>
       <c r="C121" s="2"/>
-      <c r="D121" s="3"/>
+      <c r="D121" s="2"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="3">
-        <v>2000000</v>
-      </c>
+      <c r="F121" s="3"/>
       <c r="G121" s="3">
         <v>2000000</v>
       </c>
@@ -5094,12 +5311,15 @@
       <c r="I121" s="3">
         <v>2000000</v>
       </c>
-      <c r="J121" s="4">
+      <c r="J121" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="K121" s="4">
         <f t="shared" si="2"/>
         <v>8000000</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>157</v>
       </c>
@@ -5107,18 +5327,19 @@
         <v>158</v>
       </c>
       <c r="C122" s="2"/>
-      <c r="D122" s="3"/>
+      <c r="D122" s="2"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
-      <c r="J122" s="4">
+      <c r="J122" s="3"/>
+      <c r="K122" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>159</v>
       </c>
@@ -5126,9 +5347,7 @@
         <v>160</v>
       </c>
       <c r="C123" s="2"/>
-      <c r="D123" s="3">
-        <v>20000</v>
-      </c>
+      <c r="D123" s="2"/>
       <c r="E123" s="3">
         <v>20000</v>
       </c>
@@ -5144,12 +5363,15 @@
       <c r="I123" s="3">
         <v>20000</v>
       </c>
-      <c r="J123" s="4">
+      <c r="J123" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K123" s="4">
         <f t="shared" si="2"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
@@ -5157,14 +5379,12 @@
         <v>162</v>
       </c>
       <c r="C124" s="2"/>
-      <c r="D124" s="3">
-        <v>10000</v>
-      </c>
+      <c r="D124" s="2"/>
       <c r="E124" s="3">
         <v>10000</v>
       </c>
       <c r="F124" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G124" s="3">
         <v>20000</v>
@@ -5175,12 +5395,15 @@
       <c r="I124" s="3">
         <v>20000</v>
       </c>
-      <c r="J124" s="4">
+      <c r="J124" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K124" s="4">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>161</v>
       </c>
@@ -5188,17 +5411,15 @@
         <v>163</v>
       </c>
       <c r="C125" s="2"/>
-      <c r="D125" s="3">
+      <c r="D125" s="2"/>
+      <c r="E125" s="3">
         <v>151320</v>
-      </c>
-      <c r="E125" s="3">
-        <v>174800</v>
       </c>
       <c r="F125" s="3">
         <v>174800</v>
       </c>
       <c r="G125" s="3">
-        <v>1000000</v>
+        <v>174800</v>
       </c>
       <c r="H125" s="3">
         <v>1000000</v>
@@ -5206,12 +5427,15 @@
       <c r="I125" s="3">
         <v>1000000</v>
       </c>
-      <c r="J125" s="4">
+      <c r="J125" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K125" s="4">
         <f t="shared" si="2"/>
         <v>3500920</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>164</v>
       </c>
@@ -5219,17 +5443,15 @@
         <v>165</v>
       </c>
       <c r="C126" s="2"/>
-      <c r="D126" s="3">
+      <c r="D126" s="2"/>
+      <c r="E126" s="3">
         <v>21150</v>
-      </c>
-      <c r="E126" s="3">
-        <v>23500</v>
       </c>
       <c r="F126" s="3">
         <v>23500</v>
       </c>
       <c r="G126" s="3">
-        <v>30000</v>
+        <v>23500</v>
       </c>
       <c r="H126" s="3">
         <v>30000</v>
@@ -5237,12 +5459,15 @@
       <c r="I126" s="3">
         <v>30000</v>
       </c>
-      <c r="J126" s="4">
+      <c r="J126" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K126" s="4">
         <f t="shared" si="2"/>
         <v>158150</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>166</v>
       </c>
@@ -5250,26 +5475,27 @@
         <v>167</v>
       </c>
       <c r="C127" s="2"/>
-      <c r="D127" s="3">
+      <c r="D127" s="2"/>
+      <c r="E127" s="3">
         <v>4750</v>
-      </c>
-      <c r="E127" s="3">
-        <v>3750</v>
       </c>
       <c r="F127" s="3">
         <v>3750</v>
       </c>
-      <c r="G127" s="3"/>
+      <c r="G127" s="3">
+        <v>3750</v>
+      </c>
       <c r="H127" s="3"/>
-      <c r="I127" s="3">
-        <v>0</v>
-      </c>
-      <c r="J127" s="4">
+      <c r="I127" s="3"/>
+      <c r="J127" s="3">
+        <v>0</v>
+      </c>
+      <c r="K127" s="4">
         <f t="shared" si="2"/>
         <v>12250</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>168</v>
       </c>
@@ -5277,30 +5503,31 @@
         <v>169</v>
       </c>
       <c r="C128" s="2"/>
-      <c r="D128" s="3">
+      <c r="D128" s="2"/>
+      <c r="E128" s="3">
         <v>220000</v>
       </c>
-      <c r="E128" s="3">
+      <c r="F128" s="3">
         <v>85000</v>
       </c>
-      <c r="F128" s="3">
+      <c r="G128" s="3">
         <v>213000</v>
       </c>
-      <c r="G128" s="3">
+      <c r="H128" s="3">
         <v>75000</v>
-      </c>
-      <c r="H128" s="3">
-        <v>213000</v>
       </c>
       <c r="I128" s="3">
         <v>213000</v>
       </c>
-      <c r="J128" s="4">
+      <c r="J128" s="3">
+        <v>213000</v>
+      </c>
+      <c r="K128" s="4">
         <f t="shared" si="2"/>
         <v>1019000</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>168</v>
       </c>
@@ -5308,10 +5535,8 @@
         <v>170</v>
       </c>
       <c r="C129" s="2"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3">
-        <v>250000</v>
-      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="3"/>
       <c r="F129" s="3">
         <v>250000</v>
       </c>
@@ -5324,12 +5549,15 @@
       <c r="I129" s="3">
         <v>250000</v>
       </c>
-      <c r="J129" s="4">
+      <c r="J129" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K129" s="4">
         <f t="shared" si="2"/>
         <v>1250000</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>172</v>
       </c>
@@ -5337,30 +5565,31 @@
         <v>173</v>
       </c>
       <c r="C130" s="2"/>
-      <c r="D130" s="3">
+      <c r="D130" s="2"/>
+      <c r="E130" s="3">
         <v>75000</v>
       </c>
-      <c r="E130" s="3">
+      <c r="F130" s="3">
         <v>30000</v>
       </c>
-      <c r="F130" s="3">
+      <c r="G130" s="3">
         <v>80000</v>
       </c>
-      <c r="G130" s="3">
+      <c r="H130" s="3">
         <v>30000</v>
-      </c>
-      <c r="H130" s="3">
-        <v>80000</v>
       </c>
       <c r="I130" s="3">
         <v>80000</v>
       </c>
-      <c r="J130" s="4">
+      <c r="J130" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K130" s="4">
         <f t="shared" si="2"/>
         <v>375000</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>174</v>
       </c>
@@ -5368,14 +5597,12 @@
         <v>175</v>
       </c>
       <c r="C131" s="2"/>
-      <c r="D131" s="3">
+      <c r="D131" s="2"/>
+      <c r="E131" s="3">
         <v>20000</v>
       </c>
-      <c r="E131" s="3">
+      <c r="F131" s="3">
         <v>58400</v>
-      </c>
-      <c r="F131" s="3">
-        <v>64400</v>
       </c>
       <c r="G131" s="3">
         <v>64400</v>
@@ -5386,12 +5613,15 @@
       <c r="I131" s="3">
         <v>64400</v>
       </c>
-      <c r="J131" s="4">
+      <c r="J131" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K131" s="4">
         <f t="shared" si="2"/>
         <v>336000</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>176</v>
       </c>
@@ -5399,9 +5629,7 @@
         <v>177</v>
       </c>
       <c r="C132" s="2"/>
-      <c r="D132" s="3">
-        <v>2000</v>
-      </c>
+      <c r="D132" s="2"/>
       <c r="E132" s="3">
         <v>2000</v>
       </c>
@@ -5417,12 +5645,15 @@
       <c r="I132" s="3">
         <v>2000</v>
       </c>
-      <c r="J132" s="4">
+      <c r="J132" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K132" s="4">
         <f t="shared" si="2"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>178</v>
       </c>
@@ -5430,17 +5661,15 @@
         <v>179</v>
       </c>
       <c r="C133" s="2"/>
-      <c r="D133" s="3">
+      <c r="D133" s="2"/>
+      <c r="E133" s="3">
         <v>7000</v>
       </c>
-      <c r="E133" s="3">
+      <c r="F133" s="3">
         <v>27000</v>
       </c>
-      <c r="F133" s="3">
+      <c r="G133" s="3">
         <v>18000</v>
-      </c>
-      <c r="G133" s="3">
-        <v>24000</v>
       </c>
       <c r="H133" s="3">
         <v>24000</v>
@@ -5448,12 +5677,15 @@
       <c r="I133" s="3">
         <v>24000</v>
       </c>
-      <c r="J133" s="4">
+      <c r="J133" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K133" s="4">
         <f t="shared" si="2"/>
         <v>124000</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>171</v>
       </c>
@@ -5461,11 +5693,9 @@
         <v>268</v>
       </c>
       <c r="C134" s="2"/>
-      <c r="D134" s="3">
+      <c r="D134" s="2"/>
+      <c r="E134" s="3">
         <v>400000</v>
-      </c>
-      <c r="E134" s="3">
-        <v>750000</v>
       </c>
       <c r="F134" s="3">
         <v>750000</v>
@@ -5479,12 +5709,15 @@
       <c r="I134" s="3">
         <v>750000</v>
       </c>
-      <c r="J134" s="4">
+      <c r="J134" s="3">
+        <v>750000</v>
+      </c>
+      <c r="K134" s="4">
         <f t="shared" si="2"/>
         <v>4150000</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>180</v>
       </c>
@@ -5492,26 +5725,27 @@
         <v>181</v>
       </c>
       <c r="C135" s="2"/>
-      <c r="D135" s="3">
+      <c r="D135" s="2"/>
+      <c r="E135" s="3">
         <v>50000</v>
       </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3">
-        <v>50000</v>
-      </c>
+      <c r="F135" s="3"/>
       <c r="G135" s="3">
         <v>50000</v>
       </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3">
-        <v>0</v>
-      </c>
-      <c r="J135" s="4">
+      <c r="H135" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3">
+        <v>0</v>
+      </c>
+      <c r="K135" s="4">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>273</v>
       </c>
@@ -5519,22 +5753,23 @@
         <v>274</v>
       </c>
       <c r="C136" s="2"/>
-      <c r="D136" s="3"/>
+      <c r="D136" s="2"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="3">
-        <v>5000</v>
-      </c>
+      <c r="H136" s="3"/>
       <c r="I136" s="3">
         <v>5000</v>
       </c>
-      <c r="J136" s="4">
+      <c r="J136" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K136" s="4">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>182</v>
       </c>
@@ -5542,9 +5777,7 @@
         <v>183</v>
       </c>
       <c r="C137" s="2"/>
-      <c r="D137" s="3">
-        <v>200000</v>
-      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="3">
         <v>200000</v>
       </c>
@@ -5560,12 +5793,15 @@
       <c r="I137" s="3">
         <v>200000</v>
       </c>
-      <c r="J137" s="4">
+      <c r="J137" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K137" s="4">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>184</v>
       </c>
@@ -5573,30 +5809,31 @@
         <v>185</v>
       </c>
       <c r="C138" s="2"/>
-      <c r="D138" s="3">
+      <c r="D138" s="2"/>
+      <c r="E138" s="3">
         <v>210000</v>
       </c>
-      <c r="E138" s="3">
+      <c r="F138" s="3">
         <v>214000</v>
-      </c>
-      <c r="F138" s="3">
-        <v>219000</v>
       </c>
       <c r="G138" s="3">
         <v>219000</v>
       </c>
       <c r="H138" s="3">
-        <v>229000</v>
+        <v>219000</v>
       </c>
       <c r="I138" s="3">
         <v>229000</v>
       </c>
-      <c r="J138" s="4">
+      <c r="J138" s="3">
+        <v>229000</v>
+      </c>
+      <c r="K138" s="4">
         <f t="shared" si="2"/>
         <v>1320000</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>186</v>
       </c>
@@ -5604,30 +5841,31 @@
         <v>187</v>
       </c>
       <c r="C139" s="2"/>
-      <c r="D139" s="3">
+      <c r="D139" s="2"/>
+      <c r="E139" s="3">
         <v>356000</v>
       </c>
-      <c r="E139" s="3">
+      <c r="F139" s="3">
         <v>366000</v>
       </c>
-      <c r="F139" s="3">
+      <c r="G139" s="3">
         <v>358000</v>
       </c>
-      <c r="G139" s="3">
+      <c r="H139" s="3">
         <v>368000</v>
       </c>
-      <c r="H139" s="3">
+      <c r="I139" s="3">
         <v>358000</v>
       </c>
-      <c r="I139" s="3">
+      <c r="J139" s="3">
         <v>368000</v>
       </c>
-      <c r="J139" s="4">
+      <c r="K139" s="4">
         <f t="shared" si="2"/>
         <v>2174000</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>186</v>
       </c>
@@ -5635,9 +5873,7 @@
         <v>188</v>
       </c>
       <c r="C140" s="2"/>
-      <c r="D140" s="3">
-        <v>600000</v>
-      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="3">
         <v>600000</v>
       </c>
@@ -5653,12 +5889,15 @@
       <c r="I140" s="3">
         <v>600000</v>
       </c>
-      <c r="J140" s="4">
+      <c r="J140" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K140" s="4">
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>189</v>
       </c>
@@ -5666,14 +5905,12 @@
         <v>190</v>
       </c>
       <c r="C141" s="2"/>
-      <c r="D141" s="3">
+      <c r="D141" s="2"/>
+      <c r="E141" s="3">
         <v>262500</v>
       </c>
-      <c r="E141" s="3">
+      <c r="F141" s="3">
         <v>312500</v>
-      </c>
-      <c r="F141" s="3">
-        <v>315000</v>
       </c>
       <c r="G141" s="3">
         <v>315000</v>
@@ -5684,12 +5921,15 @@
       <c r="I141" s="3">
         <v>315000</v>
       </c>
-      <c r="J141" s="4">
-        <f t="shared" ref="J141:J202" si="3">SUM(D141:I141)</f>
+      <c r="J141" s="3">
+        <v>315000</v>
+      </c>
+      <c r="K141" s="4">
+        <f t="shared" ref="K141:K202" si="3">SUM(E141:J141)</f>
         <v>1835000</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>313</v>
       </c>
@@ -5697,9 +5937,7 @@
         <v>314</v>
       </c>
       <c r="C142" s="2"/>
-      <c r="D142" s="3">
-        <v>400000</v>
-      </c>
+      <c r="D142" s="2"/>
       <c r="E142" s="3">
         <v>400000</v>
       </c>
@@ -5707,7 +5945,7 @@
         <v>400000</v>
       </c>
       <c r="G142" s="3">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="H142" s="3">
         <v>300000</v>
@@ -5715,12 +5953,15 @@
       <c r="I142" s="3">
         <v>300000</v>
       </c>
-      <c r="J142" s="4">
+      <c r="J142" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K142" s="4">
         <f t="shared" si="3"/>
         <v>2100000</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>191</v>
       </c>
@@ -5728,9 +5969,7 @@
         <v>192</v>
       </c>
       <c r="C143" s="2"/>
-      <c r="D143" s="3">
-        <v>1000000</v>
-      </c>
+      <c r="D143" s="2"/>
       <c r="E143" s="3">
         <v>1000000</v>
       </c>
@@ -5746,12 +5985,15 @@
       <c r="I143" s="3">
         <v>1000000</v>
       </c>
-      <c r="J143" s="4">
+      <c r="J143" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K143" s="4">
         <f t="shared" si="3"/>
         <v>6000000</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>193</v>
       </c>
@@ -5759,9 +6001,7 @@
         <v>194</v>
       </c>
       <c r="C144" s="2"/>
-      <c r="D144" s="3">
-        <v>1000000</v>
-      </c>
+      <c r="D144" s="2"/>
       <c r="E144" s="3">
         <v>1000000</v>
       </c>
@@ -5777,12 +6017,15 @@
       <c r="I144" s="3">
         <v>1000000</v>
       </c>
-      <c r="J144" s="4">
+      <c r="J144" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K144" s="4">
         <f t="shared" si="3"/>
         <v>6000000</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
@@ -5790,9 +6033,7 @@
         <v>283</v>
       </c>
       <c r="C145" s="2"/>
-      <c r="D145" s="3">
-        <v>30000</v>
-      </c>
+      <c r="D145" s="2"/>
       <c r="E145" s="3">
         <v>30000</v>
       </c>
@@ -5808,12 +6049,15 @@
       <c r="I145" s="3">
         <v>30000</v>
       </c>
-      <c r="J145" s="4">
+      <c r="J145" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K145" s="4">
         <f t="shared" si="3"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>195</v>
       </c>
@@ -5821,9 +6065,7 @@
         <v>195</v>
       </c>
       <c r="C146" s="2"/>
-      <c r="D146" s="3">
-        <v>14880</v>
-      </c>
+      <c r="D146" s="2"/>
       <c r="E146" s="3">
         <v>14880</v>
       </c>
@@ -5839,12 +6081,15 @@
       <c r="I146" s="3">
         <v>14880</v>
       </c>
-      <c r="J146" s="4">
+      <c r="J146" s="3">
+        <v>14880</v>
+      </c>
+      <c r="K146" s="4">
         <f t="shared" si="3"/>
         <v>89280</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>196</v>
       </c>
@@ -5852,9 +6097,7 @@
         <v>196</v>
       </c>
       <c r="C147" s="2"/>
-      <c r="D147" s="3">
-        <v>13000</v>
-      </c>
+      <c r="D147" s="2"/>
       <c r="E147" s="3">
         <v>13000</v>
       </c>
@@ -5870,33 +6113,37 @@
       <c r="I147" s="3">
         <v>13000</v>
       </c>
-      <c r="J147" s="4">
+      <c r="J147" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K147" s="4">
         <f t="shared" si="3"/>
         <v>78000</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C148" s="2"/>
-      <c r="D148" s="3"/>
+      <c r="D148" s="2"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
-      <c r="I148" s="3">
-        <v>0</v>
-      </c>
-      <c r="J148" s="4">
+      <c r="I148" s="3"/>
+      <c r="J148" s="3">
+        <v>0</v>
+      </c>
+      <c r="K148" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>284</v>
       </c>
@@ -5904,9 +6151,7 @@
         <v>285</v>
       </c>
       <c r="C149" s="1"/>
-      <c r="D149" s="1">
-        <v>160000</v>
-      </c>
+      <c r="D149" s="1"/>
       <c r="E149" s="1">
         <v>160000</v>
       </c>
@@ -5922,12 +6167,15 @@
       <c r="I149" s="1">
         <v>160000</v>
       </c>
-      <c r="J149" s="4">
+      <c r="J149" s="1">
+        <v>160000</v>
+      </c>
+      <c r="K149" s="4">
         <f t="shared" si="3"/>
         <v>960000</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>275</v>
       </c>
@@ -5935,11 +6183,9 @@
         <v>276</v>
       </c>
       <c r="C150" s="1"/>
-      <c r="D150" s="1">
+      <c r="D150" s="1"/>
+      <c r="E150" s="1">
         <v>20000</v>
-      </c>
-      <c r="E150" s="1">
-        <v>30000</v>
       </c>
       <c r="F150" s="1">
         <v>30000</v>
@@ -5953,12 +6199,15 @@
       <c r="I150" s="1">
         <v>30000</v>
       </c>
-      <c r="J150" s="4">
+      <c r="J150" s="1">
+        <v>30000</v>
+      </c>
+      <c r="K150" s="4">
         <f t="shared" si="3"/>
         <v>170000</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>275</v>
       </c>
@@ -5966,11 +6215,9 @@
         <v>277</v>
       </c>
       <c r="C151" s="1"/>
-      <c r="D151" s="1">
+      <c r="D151" s="1"/>
+      <c r="E151" s="1">
         <v>20000</v>
-      </c>
-      <c r="E151" s="1">
-        <v>30000</v>
       </c>
       <c r="F151" s="1">
         <v>30000</v>
@@ -5984,12 +6231,15 @@
       <c r="I151" s="1">
         <v>30000</v>
       </c>
-      <c r="J151" s="4">
+      <c r="J151" s="1">
+        <v>30000</v>
+      </c>
+      <c r="K151" s="4">
         <f t="shared" si="3"/>
         <v>170000</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>197</v>
       </c>
@@ -5997,9 +6247,7 @@
         <v>198</v>
       </c>
       <c r="C152" s="1"/>
-      <c r="D152" s="1">
-        <v>0</v>
-      </c>
+      <c r="D152" s="1"/>
       <c r="E152" s="1">
         <v>0</v>
       </c>
@@ -6010,17 +6258,20 @@
         <v>0</v>
       </c>
       <c r="H152" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I152" s="1">
         <v>50000</v>
       </c>
-      <c r="J152" s="4">
+      <c r="J152" s="1">
+        <v>50000</v>
+      </c>
+      <c r="K152" s="4">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>199</v>
       </c>
@@ -6028,30 +6279,31 @@
         <v>200</v>
       </c>
       <c r="C153" s="1"/>
-      <c r="D153" s="1">
+      <c r="D153" s="1"/>
+      <c r="E153" s="1">
         <v>3000</v>
       </c>
-      <c r="E153" s="1">
-        <v>0</v>
-      </c>
       <c r="F153" s="1">
+        <v>0</v>
+      </c>
+      <c r="G153" s="1">
         <v>23000</v>
       </c>
-      <c r="G153" s="1">
+      <c r="H153" s="1">
         <v>20000</v>
-      </c>
-      <c r="H153" s="1">
-        <v>23000</v>
       </c>
       <c r="I153" s="1">
         <v>23000</v>
       </c>
-      <c r="J153" s="4">
+      <c r="J153" s="1">
+        <v>23000</v>
+      </c>
+      <c r="K153" s="4">
         <f t="shared" si="3"/>
         <v>92000</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>201</v>
       </c>
@@ -6059,30 +6311,31 @@
         <v>202</v>
       </c>
       <c r="C154" s="1"/>
-      <c r="D154" s="1">
+      <c r="D154" s="1"/>
+      <c r="E154" s="1">
         <v>31000</v>
       </c>
-      <c r="E154" s="1">
+      <c r="F154" s="1">
         <v>31500</v>
       </c>
-      <c r="F154" s="1">
+      <c r="G154" s="1">
         <v>31000</v>
       </c>
-      <c r="G154" s="1">
+      <c r="H154" s="1">
         <v>59500</v>
-      </c>
-      <c r="H154" s="1">
-        <v>59000</v>
       </c>
       <c r="I154" s="1">
         <v>59000</v>
       </c>
-      <c r="J154" s="4">
+      <c r="J154" s="1">
+        <v>59000</v>
+      </c>
+      <c r="K154" s="4">
         <f t="shared" si="3"/>
         <v>271000</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>203</v>
       </c>
@@ -6090,30 +6343,31 @@
         <v>204</v>
       </c>
       <c r="C155" s="1"/>
-      <c r="D155" s="1">
+      <c r="D155" s="1"/>
+      <c r="E155" s="1">
         <v>33000</v>
       </c>
-      <c r="E155" s="1">
+      <c r="F155" s="1">
         <v>37000</v>
       </c>
-      <c r="F155" s="1">
+      <c r="G155" s="1">
         <v>48000</v>
       </c>
-      <c r="G155" s="1">
+      <c r="H155" s="1">
         <v>58000</v>
-      </c>
-      <c r="H155" s="1">
-        <v>63000</v>
       </c>
       <c r="I155" s="1">
         <v>63000</v>
       </c>
-      <c r="J155" s="4">
+      <c r="J155" s="1">
+        <v>63000</v>
+      </c>
+      <c r="K155" s="4">
         <f t="shared" si="3"/>
         <v>302000</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>205</v>
       </c>
@@ -6121,9 +6375,7 @@
         <v>206</v>
       </c>
       <c r="C156" s="1"/>
-      <c r="D156" s="1">
-        <v>3000</v>
-      </c>
+      <c r="D156" s="1"/>
       <c r="E156" s="1">
         <v>3000</v>
       </c>
@@ -6139,12 +6391,15 @@
       <c r="I156" s="1">
         <v>3000</v>
       </c>
-      <c r="J156" s="4">
+      <c r="J156" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K156" s="4">
         <f t="shared" si="3"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>207</v>
       </c>
@@ -6152,17 +6407,15 @@
         <v>208</v>
       </c>
       <c r="C157" s="1"/>
-      <c r="D157" s="1">
+      <c r="D157" s="1"/>
+      <c r="E157" s="1">
         <v>12000</v>
-      </c>
-      <c r="E157" s="1">
-        <v>7000</v>
       </c>
       <c r="F157" s="1">
         <v>7000</v>
       </c>
       <c r="G157" s="1">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="H157" s="1">
         <v>18000</v>
@@ -6170,12 +6423,15 @@
       <c r="I157" s="1">
         <v>18000</v>
       </c>
-      <c r="J157" s="4">
+      <c r="J157" s="1">
+        <v>18000</v>
+      </c>
+      <c r="K157" s="4">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>209</v>
       </c>
@@ -6183,17 +6439,15 @@
         <v>210</v>
       </c>
       <c r="C158" s="1"/>
-      <c r="D158" s="1">
+      <c r="D158" s="1"/>
+      <c r="E158" s="1">
         <v>51000</v>
       </c>
-      <c r="E158" s="1">
+      <c r="F158" s="1">
         <v>56000</v>
       </c>
-      <c r="F158" s="1">
+      <c r="G158" s="1">
         <v>71000</v>
-      </c>
-      <c r="G158" s="1">
-        <v>91000</v>
       </c>
       <c r="H158" s="1">
         <v>91000</v>
@@ -6201,22 +6455,23 @@
       <c r="I158" s="1">
         <v>91000</v>
       </c>
-      <c r="J158" s="4">
+      <c r="J158" s="1">
+        <v>91000</v>
+      </c>
+      <c r="K158" s="4">
         <f t="shared" si="3"/>
         <v>451000</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="C159" s="1"/>
-      <c r="D159" s="1">
-        <v>0</v>
-      </c>
+      <c r="D159" s="1"/>
       <c r="E159" s="1">
         <v>0</v>
       </c>
@@ -6232,12 +6487,15 @@
       <c r="I159" s="1">
         <v>0</v>
       </c>
-      <c r="J159" s="4">
+      <c r="J159" s="1">
+        <v>0</v>
+      </c>
+      <c r="K159" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>211</v>
       </c>
@@ -6245,9 +6503,7 @@
         <v>212</v>
       </c>
       <c r="C160" s="1"/>
-      <c r="D160" s="1">
-        <v>100000</v>
-      </c>
+      <c r="D160" s="1"/>
       <c r="E160" s="1">
         <v>100000</v>
       </c>
@@ -6263,12 +6519,15 @@
       <c r="I160" s="1">
         <v>100000</v>
       </c>
-      <c r="J160" s="4">
+      <c r="J160" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K160" s="4">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>211</v>
       </c>
@@ -6276,9 +6535,7 @@
         <v>315</v>
       </c>
       <c r="C161" s="1"/>
-      <c r="D161" s="1">
-        <v>160000</v>
-      </c>
+      <c r="D161" s="1"/>
       <c r="E161" s="1">
         <v>160000</v>
       </c>
@@ -6294,12 +6551,15 @@
       <c r="I161" s="1">
         <v>160000</v>
       </c>
-      <c r="J161" s="4">
+      <c r="J161" s="1">
+        <v>160000</v>
+      </c>
+      <c r="K161" s="4">
         <f t="shared" si="3"/>
         <v>960000</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>211</v>
       </c>
@@ -6307,9 +6567,7 @@
         <v>316</v>
       </c>
       <c r="C162" s="1"/>
-      <c r="D162" s="1">
-        <v>40000</v>
-      </c>
+      <c r="D162" s="1"/>
       <c r="E162" s="1">
         <v>40000</v>
       </c>
@@ -6325,12 +6583,15 @@
       <c r="I162" s="1">
         <v>40000</v>
       </c>
-      <c r="J162" s="4">
+      <c r="J162" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K162" s="4">
         <f t="shared" si="3"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>211</v>
       </c>
@@ -6338,9 +6599,7 @@
         <v>213</v>
       </c>
       <c r="C163" s="1"/>
-      <c r="D163" s="1">
-        <v>92000</v>
-      </c>
+      <c r="D163" s="1"/>
       <c r="E163" s="1">
         <v>92000</v>
       </c>
@@ -6356,12 +6615,15 @@
       <c r="I163" s="1">
         <v>92000</v>
       </c>
-      <c r="J163" s="4">
+      <c r="J163" s="1">
+        <v>92000</v>
+      </c>
+      <c r="K163" s="4">
         <f t="shared" si="3"/>
         <v>552000</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>214</v>
       </c>
@@ -6369,9 +6631,7 @@
         <v>215</v>
       </c>
       <c r="C164" s="1"/>
-      <c r="D164" s="1">
-        <v>1000</v>
-      </c>
+      <c r="D164" s="1"/>
       <c r="E164" s="1">
         <v>1000</v>
       </c>
@@ -6387,12 +6647,15 @@
       <c r="I164" s="1">
         <v>1000</v>
       </c>
-      <c r="J164" s="4">
+      <c r="J164" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K164" s="4">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>216</v>
       </c>
@@ -6400,14 +6663,12 @@
         <v>217</v>
       </c>
       <c r="C165" s="1"/>
-      <c r="D165" s="1">
+      <c r="D165" s="1"/>
+      <c r="E165" s="1">
         <v>47000</v>
       </c>
-      <c r="E165" s="1">
+      <c r="F165" s="1">
         <v>37000</v>
-      </c>
-      <c r="F165" s="1">
-        <v>42000</v>
       </c>
       <c r="G165" s="1">
         <v>42000</v>
@@ -6418,12 +6679,15 @@
       <c r="I165" s="1">
         <v>42000</v>
       </c>
-      <c r="J165" s="4">
+      <c r="J165" s="1">
+        <v>42000</v>
+      </c>
+      <c r="K165" s="4">
         <f t="shared" si="3"/>
         <v>252000</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>218</v>
       </c>
@@ -6431,14 +6695,12 @@
         <v>219</v>
       </c>
       <c r="C166" s="1"/>
-      <c r="D166" s="1">
+      <c r="D166" s="1"/>
+      <c r="E166" s="1">
         <v>404500</v>
       </c>
-      <c r="E166" s="1">
+      <c r="F166" s="1">
         <v>284500</v>
-      </c>
-      <c r="F166" s="1">
-        <v>294500</v>
       </c>
       <c r="G166" s="1">
         <v>294500</v>
@@ -6449,17 +6711,20 @@
       <c r="I166" s="1">
         <v>294500</v>
       </c>
-      <c r="J166" s="4">
+      <c r="J166" s="1">
+        <v>294500</v>
+      </c>
+      <c r="K166" s="4">
         <f t="shared" si="3"/>
         <v>1867000</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -6467,15 +6732,16 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
-      <c r="I167" s="1">
-        <v>0</v>
-      </c>
-      <c r="J167" s="4">
+      <c r="I167" s="1"/>
+      <c r="J167" s="1">
+        <v>0</v>
+      </c>
+      <c r="K167" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>278</v>
       </c>
@@ -6483,11 +6749,9 @@
         <v>220</v>
       </c>
       <c r="C168" s="1"/>
-      <c r="D168" s="1">
+      <c r="D168" s="1"/>
+      <c r="E168" s="1">
         <v>110000</v>
-      </c>
-      <c r="E168" s="1">
-        <v>100000</v>
       </c>
       <c r="F168" s="1">
         <v>100000</v>
@@ -6501,12 +6765,15 @@
       <c r="I168" s="1">
         <v>100000</v>
       </c>
-      <c r="J168" s="4">
+      <c r="J168" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K168" s="4">
         <f t="shared" si="3"/>
         <v>610000</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>221</v>
       </c>
@@ -6516,9 +6783,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="1">
-        <v>20000</v>
-      </c>
+      <c r="F169" s="1"/>
       <c r="G169" s="1">
         <v>20000</v>
       </c>
@@ -6528,12 +6793,15 @@
       <c r="I169" s="1">
         <v>20000</v>
       </c>
-      <c r="J169" s="4">
+      <c r="J169" s="1">
+        <v>20000</v>
+      </c>
+      <c r="K169" s="4">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>222</v>
       </c>
@@ -6541,30 +6809,31 @@
         <v>223</v>
       </c>
       <c r="C170" s="1"/>
-      <c r="D170" s="1">
+      <c r="D170" s="1"/>
+      <c r="E170" s="1">
         <v>833570</v>
       </c>
-      <c r="E170" s="1">
+      <c r="F170" s="1">
         <v>857970</v>
       </c>
-      <c r="F170" s="1">
+      <c r="G170" s="1">
         <v>870370</v>
       </c>
-      <c r="G170" s="1">
+      <c r="H170" s="1">
         <v>878850</v>
-      </c>
-      <c r="H170" s="1">
-        <v>877330</v>
       </c>
       <c r="I170" s="1">
         <v>877330</v>
       </c>
-      <c r="J170" s="4">
+      <c r="J170" s="1">
+        <v>877330</v>
+      </c>
+      <c r="K170" s="4">
         <f t="shared" si="3"/>
         <v>5195420</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>224</v>
       </c>
@@ -6572,17 +6841,15 @@
         <v>317</v>
       </c>
       <c r="C171" s="1"/>
-      <c r="D171" s="1">
-        <v>506000</v>
-      </c>
+      <c r="D171" s="1"/>
       <c r="E171" s="1">
         <v>506000</v>
       </c>
       <c r="F171" s="1">
+        <v>506000</v>
+      </c>
+      <c r="G171" s="1">
         <v>406000</v>
-      </c>
-      <c r="G171" s="1">
-        <v>506000</v>
       </c>
       <c r="H171" s="1">
         <v>506000</v>
@@ -6590,12 +6857,15 @@
       <c r="I171" s="1">
         <v>506000</v>
       </c>
-      <c r="J171" s="4">
+      <c r="J171" s="1">
+        <v>506000</v>
+      </c>
+      <c r="K171" s="4">
         <f t="shared" si="3"/>
         <v>2936000</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>224</v>
       </c>
@@ -6603,9 +6873,7 @@
         <v>318</v>
       </c>
       <c r="C172" s="1"/>
-      <c r="D172" s="1">
-        <v>50000</v>
-      </c>
+      <c r="D172" s="1"/>
       <c r="E172" s="1">
         <v>50000</v>
       </c>
@@ -6621,12 +6889,15 @@
       <c r="I172" s="1">
         <v>50000</v>
       </c>
-      <c r="J172" s="4">
+      <c r="J172" s="1">
+        <v>50000</v>
+      </c>
+      <c r="K172" s="4">
         <f t="shared" si="3"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>225</v>
       </c>
@@ -6634,9 +6905,7 @@
         <v>319</v>
       </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="1">
-        <v>20000</v>
-      </c>
+      <c r="D173" s="1"/>
       <c r="E173" s="1">
         <v>20000</v>
       </c>
@@ -6652,12 +6921,15 @@
       <c r="I173" s="1">
         <v>20000</v>
       </c>
-      <c r="J173" s="4">
+      <c r="J173" s="1">
+        <v>20000</v>
+      </c>
+      <c r="K173" s="4">
         <f t="shared" si="3"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>226</v>
       </c>
@@ -6665,9 +6937,7 @@
         <v>280</v>
       </c>
       <c r="C174" s="1"/>
-      <c r="D174" s="1">
-        <v>100000</v>
-      </c>
+      <c r="D174" s="1"/>
       <c r="E174" s="1">
         <v>100000</v>
       </c>
@@ -6683,12 +6953,15 @@
       <c r="I174" s="1">
         <v>100000</v>
       </c>
-      <c r="J174" s="4">
+      <c r="J174" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K174" s="4">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>226</v>
       </c>
@@ -6696,30 +6969,31 @@
         <v>227</v>
       </c>
       <c r="C175" s="1"/>
-      <c r="D175" s="1">
+      <c r="D175" s="1"/>
+      <c r="E175" s="1">
         <v>330000</v>
       </c>
-      <c r="E175" s="1">
+      <c r="F175" s="1">
         <v>340500</v>
-      </c>
-      <c r="F175" s="1">
-        <v>240000</v>
       </c>
       <c r="G175" s="1">
         <v>240000</v>
       </c>
       <c r="H175" s="1">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="I175" s="1">
         <v>270000</v>
       </c>
-      <c r="J175" s="4">
+      <c r="J175" s="1">
+        <v>270000</v>
+      </c>
+      <c r="K175" s="4">
         <f t="shared" si="3"/>
         <v>1690500</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>228</v>
       </c>
@@ -6727,30 +7001,31 @@
         <v>229</v>
       </c>
       <c r="C176" s="1"/>
-      <c r="D176" s="1">
-        <v>120000</v>
-      </c>
+      <c r="D176" s="1"/>
       <c r="E176" s="1">
         <v>120000</v>
       </c>
       <c r="F176" s="1">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="G176" s="1">
         <v>125000</v>
       </c>
       <c r="H176" s="1">
-        <v>103000</v>
+        <v>125000</v>
       </c>
       <c r="I176" s="1">
         <v>103000</v>
       </c>
-      <c r="J176" s="4">
+      <c r="J176" s="1">
+        <v>103000</v>
+      </c>
+      <c r="K176" s="4">
         <f t="shared" si="3"/>
         <v>696000</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>230</v>
       </c>
@@ -6758,9 +7033,7 @@
         <v>281</v>
       </c>
       <c r="C177" s="1"/>
-      <c r="D177" s="1">
-        <v>90000</v>
-      </c>
+      <c r="D177" s="1"/>
       <c r="E177" s="1">
         <v>90000</v>
       </c>
@@ -6776,12 +7049,15 @@
       <c r="I177" s="1">
         <v>90000</v>
       </c>
-      <c r="J177" s="4">
+      <c r="J177" s="1">
+        <v>90000</v>
+      </c>
+      <c r="K177" s="4">
         <f t="shared" si="3"/>
         <v>540000</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>230</v>
       </c>
@@ -6789,35 +7065,36 @@
         <v>231</v>
       </c>
       <c r="C178" s="1"/>
-      <c r="D178" s="1">
+      <c r="D178" s="1"/>
+      <c r="E178" s="1">
         <v>179000</v>
       </c>
-      <c r="E178" s="1">
+      <c r="F178" s="1">
         <v>204000</v>
       </c>
-      <c r="F178" s="1">
+      <c r="G178" s="1">
         <v>214000</v>
       </c>
-      <c r="G178" s="1">
+      <c r="H178" s="1">
         <v>204000</v>
-      </c>
-      <c r="H178" s="1">
-        <v>207000</v>
       </c>
       <c r="I178" s="1">
         <v>207000</v>
       </c>
-      <c r="J178" s="4">
+      <c r="J178" s="1">
+        <v>207000</v>
+      </c>
+      <c r="K178" s="4">
         <f t="shared" si="3"/>
         <v>1215000</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -6825,15 +7102,16 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
-      <c r="I179" s="1">
-        <v>0</v>
-      </c>
-      <c r="J179" s="4">
+      <c r="I179" s="1"/>
+      <c r="J179" s="1">
+        <v>0</v>
+      </c>
+      <c r="K179" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>232</v>
       </c>
@@ -6841,17 +7119,15 @@
         <v>233</v>
       </c>
       <c r="C180" s="1"/>
-      <c r="D180" s="1">
+      <c r="D180" s="1"/>
+      <c r="E180" s="1">
         <v>610000</v>
       </c>
-      <c r="E180" s="1">
+      <c r="F180" s="1">
         <v>920000</v>
       </c>
-      <c r="F180" s="1">
+      <c r="G180" s="1">
         <v>700000</v>
-      </c>
-      <c r="G180" s="1">
-        <v>478000</v>
       </c>
       <c r="H180" s="1">
         <v>478000</v>
@@ -6859,12 +7135,15 @@
       <c r="I180" s="1">
         <v>478000</v>
       </c>
-      <c r="J180" s="4">
+      <c r="J180" s="1">
+        <v>478000</v>
+      </c>
+      <c r="K180" s="4">
         <f t="shared" si="3"/>
         <v>3664000</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>234</v>
       </c>
@@ -6872,9 +7151,7 @@
         <v>235</v>
       </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="1">
-        <v>2000</v>
-      </c>
+      <c r="D181" s="1"/>
       <c r="E181" s="1">
         <v>2000</v>
       </c>
@@ -6882,7 +7159,7 @@
         <v>2000</v>
       </c>
       <c r="G181" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="H181" s="1">
         <v>5000</v>
@@ -6890,12 +7167,15 @@
       <c r="I181" s="1">
         <v>5000</v>
       </c>
-      <c r="J181" s="4">
+      <c r="J181" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K181" s="4">
         <f t="shared" si="3"/>
         <v>21000</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>320</v>
       </c>
@@ -6903,9 +7183,7 @@
         <v>236</v>
       </c>
       <c r="C182" s="1"/>
-      <c r="D182" s="1">
-        <v>10000</v>
-      </c>
+      <c r="D182" s="1"/>
       <c r="E182" s="1">
         <v>10000</v>
       </c>
@@ -6913,7 +7191,7 @@
         <v>10000</v>
       </c>
       <c r="G182" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="H182" s="1">
         <v>4000</v>
@@ -6921,22 +7199,23 @@
       <c r="I182" s="1">
         <v>4000</v>
       </c>
-      <c r="J182" s="4">
+      <c r="J182" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K182" s="4">
         <f t="shared" si="3"/>
         <v>42000</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="C183" s="1"/>
-      <c r="D183" s="1">
-        <v>0</v>
-      </c>
+      <c r="D183" s="1"/>
       <c r="E183" s="1">
         <v>0</v>
       </c>
@@ -6952,12 +7231,15 @@
       <c r="I183" s="1">
         <v>0</v>
       </c>
-      <c r="J183" s="4">
+      <c r="J183" s="1">
+        <v>0</v>
+      </c>
+      <c r="K183" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>321</v>
       </c>
@@ -6965,30 +7247,31 @@
         <v>237</v>
       </c>
       <c r="C184" s="1"/>
-      <c r="D184" s="1">
-        <v>10000</v>
-      </c>
+      <c r="D184" s="1"/>
       <c r="E184" s="1">
         <v>10000</v>
       </c>
       <c r="F184" s="1">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G184" s="1">
         <v>25000</v>
       </c>
       <c r="H184" s="1">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="I184" s="1">
         <v>27000</v>
       </c>
-      <c r="J184" s="4">
+      <c r="J184" s="1">
+        <v>27000</v>
+      </c>
+      <c r="K184" s="4">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>238</v>
       </c>
@@ -6996,9 +7279,7 @@
         <v>239</v>
       </c>
       <c r="C185" s="1"/>
-      <c r="D185" s="1">
-        <v>27000</v>
-      </c>
+      <c r="D185" s="1"/>
       <c r="E185" s="1">
         <v>27000</v>
       </c>
@@ -7014,22 +7295,23 @@
       <c r="I185" s="1">
         <v>27000</v>
       </c>
-      <c r="J185" s="4">
+      <c r="J185" s="1">
+        <v>27000</v>
+      </c>
+      <c r="K185" s="4">
         <f t="shared" si="3"/>
         <v>162000</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="C186" s="1"/>
-      <c r="D186" s="1">
-        <v>0</v>
-      </c>
+      <c r="D186" s="1"/>
       <c r="E186" s="1">
         <v>0</v>
       </c>
@@ -7045,12 +7327,15 @@
       <c r="I186" s="1">
         <v>0</v>
       </c>
-      <c r="J186" s="4">
+      <c r="J186" s="1">
+        <v>0</v>
+      </c>
+      <c r="K186" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>240</v>
       </c>
@@ -7063,15 +7348,16 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
-      <c r="I187" s="1">
-        <v>0</v>
-      </c>
-      <c r="J187" s="4">
+      <c r="I187" s="1"/>
+      <c r="J187" s="1">
+        <v>0</v>
+      </c>
+      <c r="K187" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>242</v>
       </c>
@@ -7079,11 +7365,9 @@
         <v>243</v>
       </c>
       <c r="C188" s="1"/>
-      <c r="D188" s="1">
+      <c r="D188" s="1"/>
+      <c r="E188" s="1">
         <v>40000</v>
-      </c>
-      <c r="E188" s="1">
-        <v>41000</v>
       </c>
       <c r="F188" s="1">
         <v>41000</v>
@@ -7097,17 +7381,20 @@
       <c r="I188" s="1">
         <v>41000</v>
       </c>
-      <c r="J188" s="4">
+      <c r="J188" s="1">
+        <v>41000</v>
+      </c>
+      <c r="K188" s="4">
         <f t="shared" si="3"/>
         <v>245000</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -7115,15 +7402,16 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
-      <c r="I189" s="1">
-        <v>0</v>
-      </c>
-      <c r="J189" s="4">
+      <c r="I189" s="1"/>
+      <c r="J189" s="1">
+        <v>0</v>
+      </c>
+      <c r="K189" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>244</v>
       </c>
@@ -7131,30 +7419,31 @@
         <v>245</v>
       </c>
       <c r="C190" s="1"/>
-      <c r="D190" s="1">
+      <c r="D190" s="1"/>
+      <c r="E190" s="1">
         <v>1000000</v>
       </c>
-      <c r="E190" s="1">
+      <c r="F190" s="1">
         <v>1200000</v>
       </c>
-      <c r="F190" s="1">
+      <c r="G190" s="1">
         <v>2000000</v>
       </c>
-      <c r="G190" s="1">
+      <c r="H190" s="1">
         <v>1200000</v>
-      </c>
-      <c r="H190" s="1">
-        <v>2000000</v>
       </c>
       <c r="I190" s="1">
         <v>2000000</v>
       </c>
-      <c r="J190" s="4">
+      <c r="J190" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="K190" s="4">
         <f t="shared" si="3"/>
         <v>9400000</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>244</v>
       </c>
@@ -7162,30 +7451,31 @@
         <v>246</v>
       </c>
       <c r="C191" s="1"/>
-      <c r="D191" s="1">
+      <c r="D191" s="1"/>
+      <c r="E191" s="1">
         <v>600000</v>
       </c>
-      <c r="E191" s="1">
+      <c r="F191" s="1">
         <v>1000000</v>
       </c>
-      <c r="F191" s="1">
+      <c r="G191" s="1">
         <v>500000</v>
       </c>
-      <c r="G191" s="1">
+      <c r="H191" s="1">
         <v>600000</v>
-      </c>
-      <c r="H191" s="1">
-        <v>800000</v>
       </c>
       <c r="I191" s="1">
         <v>800000</v>
       </c>
-      <c r="J191" s="4">
+      <c r="J191" s="1">
+        <v>800000</v>
+      </c>
+      <c r="K191" s="4">
         <f t="shared" si="3"/>
         <v>4300000</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>247</v>
       </c>
@@ -7193,30 +7483,31 @@
         <v>248</v>
       </c>
       <c r="C192" s="1"/>
-      <c r="D192" s="1">
+      <c r="D192" s="1"/>
+      <c r="E192" s="1">
         <v>2400000</v>
       </c>
-      <c r="E192" s="1">
+      <c r="F192" s="1">
         <v>3600000</v>
       </c>
-      <c r="F192" s="1">
+      <c r="G192" s="1">
         <v>2100000</v>
       </c>
-      <c r="G192" s="1">
+      <c r="H192" s="1">
         <v>2400000</v>
-      </c>
-      <c r="H192" s="1">
-        <v>3800000</v>
       </c>
       <c r="I192" s="1">
         <v>3800000</v>
       </c>
-      <c r="J192" s="4">
+      <c r="J192" s="1">
+        <v>3800000</v>
+      </c>
+      <c r="K192" s="4">
         <f t="shared" si="3"/>
         <v>18100000</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>247</v>
       </c>
@@ -7224,35 +7515,36 @@
         <v>249</v>
       </c>
       <c r="C193" s="1"/>
-      <c r="D193" s="1">
-        <v>800000</v>
-      </c>
+      <c r="D193" s="1"/>
       <c r="E193" s="1">
         <v>800000</v>
       </c>
       <c r="F193" s="1">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="G193" s="1">
         <v>400000</v>
       </c>
       <c r="H193" s="1">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="I193" s="1">
         <v>800000</v>
       </c>
-      <c r="J193" s="4">
+      <c r="J193" s="1">
+        <v>800000</v>
+      </c>
+      <c r="K193" s="4">
         <f t="shared" si="3"/>
         <v>4000000</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -7260,20 +7552,21 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
-      <c r="I194" s="1">
-        <v>0</v>
-      </c>
-      <c r="J194" s="4">
+      <c r="I194" s="1"/>
+      <c r="J194" s="1">
+        <v>0</v>
+      </c>
+      <c r="K194" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -7281,15 +7574,16 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
-      <c r="I195" s="1">
-        <v>0</v>
-      </c>
-      <c r="J195" s="4">
+      <c r="I195" s="1"/>
+      <c r="J195" s="1">
+        <v>0</v>
+      </c>
+      <c r="K195" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>250</v>
       </c>
@@ -7297,30 +7591,31 @@
         <v>251</v>
       </c>
       <c r="C196" s="1"/>
-      <c r="D196" s="1">
+      <c r="D196" s="1"/>
+      <c r="E196" s="1">
         <v>50000</v>
       </c>
-      <c r="E196" s="1">
+      <c r="F196" s="1">
         <v>80000</v>
-      </c>
-      <c r="F196" s="1">
-        <v>100000</v>
       </c>
       <c r="G196" s="1">
         <v>100000</v>
       </c>
       <c r="H196" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I196" s="1">
         <v>200000</v>
       </c>
-      <c r="J196" s="4">
+      <c r="J196" s="1">
+        <v>200000</v>
+      </c>
+      <c r="K196" s="4">
         <f t="shared" si="3"/>
         <v>730000</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>252</v>
       </c>
@@ -7328,35 +7623,36 @@
         <v>253</v>
       </c>
       <c r="C197" s="1"/>
-      <c r="D197" s="1">
-        <v>500000</v>
-      </c>
+      <c r="D197" s="1"/>
       <c r="E197" s="1">
         <v>500000</v>
       </c>
       <c r="F197" s="1">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="G197" s="1">
         <v>600000</v>
       </c>
       <c r="H197" s="1">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="I197" s="1">
         <v>1000000</v>
       </c>
-      <c r="J197" s="4">
+      <c r="J197" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="K197" s="4">
         <f t="shared" si="3"/>
         <v>4200000</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -7364,15 +7660,16 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
-      <c r="I198" s="1">
-        <v>0</v>
-      </c>
-      <c r="J198" s="4">
+      <c r="I198" s="1"/>
+      <c r="J198" s="1">
+        <v>0</v>
+      </c>
+      <c r="K198" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>254</v>
       </c>
@@ -7380,9 +7677,7 @@
         <v>254</v>
       </c>
       <c r="C199" s="1"/>
-      <c r="D199" s="1">
-        <v>125</v>
-      </c>
+      <c r="D199" s="1"/>
       <c r="E199" s="1">
         <v>125</v>
       </c>
@@ -7398,12 +7693,15 @@
       <c r="I199" s="1">
         <v>125</v>
       </c>
-      <c r="J199" s="4">
+      <c r="J199" s="1">
+        <v>125</v>
+      </c>
+      <c r="K199" s="4">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>255</v>
       </c>
@@ -7413,24 +7711,25 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="1">
-        <v>15000</v>
-      </c>
+      <c r="F200" s="1"/>
       <c r="G200" s="1">
         <v>15000</v>
       </c>
       <c r="H200" s="1">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="I200" s="1">
         <v>20000</v>
       </c>
-      <c r="J200" s="4">
+      <c r="J200" s="1">
+        <v>20000</v>
+      </c>
+      <c r="K200" s="4">
         <f t="shared" si="3"/>
         <v>70000</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>257</v>
       </c>
@@ -7440,11 +7739,9 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="1">
+      <c r="F201" s="1"/>
+      <c r="G201" s="1">
         <v>5000</v>
-      </c>
-      <c r="G201" s="1">
-        <v>10000</v>
       </c>
       <c r="H201" s="1">
         <v>10000</v>
@@ -7452,12 +7749,15 @@
       <c r="I201" s="1">
         <v>10000</v>
       </c>
-      <c r="J201" s="4">
+      <c r="J201" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K201" s="4">
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>259</v>
       </c>
@@ -7465,14 +7765,12 @@
         <v>260</v>
       </c>
       <c r="C202" s="1"/>
-      <c r="D202" s="1">
+      <c r="D202" s="1"/>
+      <c r="E202" s="1">
         <v>51000</v>
       </c>
-      <c r="E202" s="1">
+      <c r="F202" s="1">
         <v>101000</v>
-      </c>
-      <c r="F202" s="1">
-        <v>105000</v>
       </c>
       <c r="G202" s="1">
         <v>105000</v>
@@ -7483,12 +7781,15 @@
       <c r="I202" s="1">
         <v>105000</v>
       </c>
-      <c r="J202" s="4">
+      <c r="J202" s="1">
+        <v>105000</v>
+      </c>
+      <c r="K202" s="4">
         <f t="shared" si="3"/>
         <v>572000</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>261</v>
       </c>
@@ -7496,14 +7797,12 @@
         <v>262</v>
       </c>
       <c r="C203" s="1"/>
-      <c r="D203" s="1">
-        <v>0</v>
-      </c>
+      <c r="D203" s="1"/>
       <c r="E203" s="1">
         <v>0</v>
       </c>
       <c r="F203" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G203" s="1">
         <v>10000</v>
@@ -7514,12 +7813,15 @@
       <c r="I203" s="1">
         <v>10000</v>
       </c>
-      <c r="J203" s="4">
-        <f t="shared" ref="J203:J215" si="4">SUM(D203:I203)</f>
+      <c r="J203" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K203" s="4">
+        <f t="shared" ref="K203:K215" si="4">SUM(E203:J203)</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>263</v>
       </c>
@@ -7527,14 +7829,12 @@
         <v>264</v>
       </c>
       <c r="C204" s="1"/>
-      <c r="D204" s="1">
+      <c r="D204" s="1"/>
+      <c r="E204" s="1">
         <v>27000</v>
       </c>
-      <c r="E204" s="1">
+      <c r="F204" s="1">
         <v>56000</v>
-      </c>
-      <c r="F204" s="1">
-        <v>105000</v>
       </c>
       <c r="G204" s="1">
         <v>105000</v>
@@ -7545,12 +7845,15 @@
       <c r="I204" s="1">
         <v>105000</v>
       </c>
-      <c r="J204" s="4">
+      <c r="J204" s="1">
+        <v>105000</v>
+      </c>
+      <c r="K204" s="4">
         <f t="shared" si="4"/>
         <v>503000</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>265</v>
       </c>
@@ -7558,14 +7861,12 @@
         <v>266</v>
       </c>
       <c r="C205" s="1"/>
-      <c r="D205" s="1">
+      <c r="D205" s="1"/>
+      <c r="E205" s="1">
         <v>4000</v>
       </c>
-      <c r="E205" s="1">
+      <c r="F205" s="1">
         <v>10000</v>
-      </c>
-      <c r="F205" s="1">
-        <v>20000</v>
       </c>
       <c r="G205" s="1">
         <v>20000</v>
@@ -7576,12 +7877,15 @@
       <c r="I205" s="1">
         <v>20000</v>
       </c>
-      <c r="J205" s="4">
+      <c r="J205" s="1">
+        <v>20000</v>
+      </c>
+      <c r="K205" s="4">
         <f t="shared" si="4"/>
         <v>94000</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>267</v>
       </c>
@@ -7589,35 +7893,36 @@
         <v>267</v>
       </c>
       <c r="C206" s="1"/>
-      <c r="D206" s="1">
+      <c r="D206" s="1"/>
+      <c r="E206" s="1">
         <v>12000</v>
-      </c>
-      <c r="E206" s="1">
-        <v>20000</v>
       </c>
       <c r="F206" s="1">
         <v>20000</v>
       </c>
       <c r="G206" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H206" s="1">
         <v>60000</v>
-      </c>
-      <c r="H206" s="1">
-        <v>120000</v>
       </c>
       <c r="I206" s="1">
         <v>120000</v>
       </c>
-      <c r="J206" s="4">
+      <c r="J206" s="1">
+        <v>120000</v>
+      </c>
+      <c r="K206" s="4">
         <f t="shared" si="4"/>
         <v>352000</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -7625,70 +7930,73 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
-      <c r="I207" s="1">
-        <v>0</v>
-      </c>
-      <c r="J207" s="4">
+      <c r="I207" s="1"/>
+      <c r="J207" s="1">
+        <v>0</v>
+      </c>
+      <c r="K207" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="C208" s="1"/>
-      <c r="D208" s="1">
-        <v>250000</v>
-      </c>
+      <c r="D208" s="1"/>
       <c r="E208" s="1">
         <v>250000</v>
       </c>
       <c r="F208" s="1">
         <v>250000</v>
       </c>
-      <c r="G208" s="1"/>
+      <c r="G208" s="1">
+        <v>250000</v>
+      </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-      <c r="J208" s="4">
+      <c r="J208" s="1"/>
+      <c r="K208" s="4">
         <f t="shared" si="4"/>
         <v>750000</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="C209" s="1"/>
-      <c r="D209" s="1">
-        <v>750000</v>
-      </c>
+      <c r="D209" s="1"/>
       <c r="E209" s="1">
         <v>750000</v>
       </c>
       <c r="F209" s="1">
+        <v>750000</v>
+      </c>
+      <c r="G209" s="1">
         <v>500000</v>
       </c>
-      <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-      <c r="J209" s="4">
+      <c r="J209" s="1"/>
+      <c r="K209" s="4">
         <f t="shared" si="4"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -7697,45 +8005,45 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-      <c r="J210" s="4">
+      <c r="J210" s="1"/>
+      <c r="K210" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="1">
+      <c r="E211" s="1"/>
+      <c r="F211" s="1">
         <v>370000</v>
       </c>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1">
+      <c r="G211" s="1"/>
+      <c r="H211" s="1">
         <v>400000</v>
       </c>
-      <c r="H211" s="1"/>
       <c r="I211" s="1"/>
-      <c r="J211" s="4">
+      <c r="J211" s="1"/>
+      <c r="K211" s="4">
         <f t="shared" si="4"/>
         <v>770000</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="C212" s="1"/>
-      <c r="D212" s="1">
-        <v>5000</v>
-      </c>
+      <c r="D212" s="1"/>
       <c r="E212" s="1">
         <v>5000</v>
       </c>
@@ -7751,17 +8059,20 @@
       <c r="I212" s="1">
         <v>5000</v>
       </c>
-      <c r="J212" s="4">
+      <c r="J212" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K212" s="4">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -7770,17 +8081,18 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="4">
+      <c r="J213" s="1"/>
+      <c r="K213" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -7789,17 +8101,18 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="4">
+      <c r="J214" s="1"/>
+      <c r="K214" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -7808,13 +8121,1682 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="4">
+      <c r="J215" s="1"/>
+      <c r="K215" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>3100</v>
+      </c>
+      <c r="B216" t="s">
+        <v>384</v>
+      </c>
+      <c r="D216" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>385</v>
+      </c>
+      <c r="B217" t="s">
+        <v>385</v>
+      </c>
+      <c r="D217" s="2">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" t="s">
+        <v>386</v>
+      </c>
+      <c r="D218" s="2">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="8">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B220" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="2">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" t="s">
+        <v>329</v>
+      </c>
+      <c r="D223" s="2">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" t="s">
+        <v>16</v>
+      </c>
+      <c r="D224" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" t="s">
+        <v>18</v>
+      </c>
+      <c r="C225" t="s">
+        <v>14</v>
+      </c>
+      <c r="D225" s="2">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>15</v>
+      </c>
+      <c r="B226" t="s">
+        <v>17</v>
+      </c>
+      <c r="D226" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" t="s">
+        <v>269</v>
+      </c>
+      <c r="D227" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" t="s">
+        <v>20</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229" t="s">
+        <v>20</v>
+      </c>
+      <c r="D229" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>21</v>
+      </c>
+      <c r="B230" t="s">
+        <v>22</v>
+      </c>
+      <c r="D230" s="2">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231" t="s">
+        <v>24</v>
+      </c>
+      <c r="D231" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>25</v>
+      </c>
+      <c r="B232" t="s">
+        <v>26</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>27</v>
+      </c>
+      <c r="B233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>27</v>
+      </c>
+      <c r="B234" t="s">
+        <v>29</v>
+      </c>
+      <c r="D234" s="2">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>27</v>
+      </c>
+      <c r="B235" t="s">
+        <v>30</v>
+      </c>
+      <c r="D235" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>31</v>
+      </c>
+      <c r="B236" t="s">
+        <v>387</v>
+      </c>
+      <c r="D236" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>31</v>
+      </c>
+      <c r="B237" t="s">
+        <v>388</v>
+      </c>
+      <c r="D237" s="2">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>32</v>
+      </c>
+      <c r="B238" t="s">
+        <v>33</v>
+      </c>
+      <c r="D238" s="2">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>34</v>
+      </c>
+      <c r="B239" t="s">
+        <v>35</v>
+      </c>
+      <c r="D239" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>36</v>
+      </c>
+      <c r="B240" t="s">
+        <v>37</v>
+      </c>
+      <c r="D240" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>38</v>
+      </c>
+      <c r="B241" t="s">
+        <v>39</v>
+      </c>
+      <c r="D241" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>40</v>
+      </c>
+      <c r="B242" t="s">
+        <v>41</v>
+      </c>
+      <c r="D242" s="2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>42</v>
+      </c>
+      <c r="B243" t="s">
+        <v>43</v>
+      </c>
+      <c r="D243" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>44</v>
+      </c>
+      <c r="B244" t="s">
+        <v>45</v>
+      </c>
+      <c r="D244" s="2">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>46</v>
+      </c>
+      <c r="B245" t="s">
+        <v>47</v>
+      </c>
+      <c r="D245" s="2">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>51</v>
+      </c>
+      <c r="B246" t="s">
+        <v>52</v>
+      </c>
+      <c r="D246" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>53</v>
+      </c>
+      <c r="B247" t="s">
+        <v>389</v>
+      </c>
+      <c r="D247" s="2">
+        <v>3855000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>53</v>
+      </c>
+      <c r="B248" t="s">
+        <v>390</v>
+      </c>
+      <c r="C248" t="s">
+        <v>391</v>
+      </c>
+      <c r="D248" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>53</v>
+      </c>
+      <c r="B249" t="s">
+        <v>54</v>
+      </c>
+      <c r="D249" s="2">
+        <v>2167000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>55</v>
+      </c>
+      <c r="B250" t="s">
+        <v>56</v>
+      </c>
+      <c r="D250" s="2">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>392</v>
+      </c>
+      <c r="B251" t="s">
+        <v>393</v>
+      </c>
+      <c r="D251" s="2">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>55</v>
+      </c>
+      <c r="B252" t="s">
+        <v>335</v>
+      </c>
+      <c r="D252" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>55</v>
+      </c>
+      <c r="B253" t="s">
+        <v>58</v>
+      </c>
+      <c r="D253" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>59</v>
+      </c>
+      <c r="B254" t="s">
+        <v>60</v>
+      </c>
+      <c r="D254" s="2">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>61</v>
+      </c>
+      <c r="B255" t="s">
+        <v>62</v>
+      </c>
+      <c r="D255" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>63</v>
+      </c>
+      <c r="B256" t="s">
+        <v>64</v>
+      </c>
+      <c r="D256" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>65</v>
+      </c>
+      <c r="B257" t="s">
+        <v>66</v>
+      </c>
+      <c r="D257" s="2">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>67</v>
+      </c>
+      <c r="B258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" s="2">
+        <v>338000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>69</v>
+      </c>
+      <c r="B259" t="s">
+        <v>70</v>
+      </c>
+      <c r="D259" s="2">
+        <v>316000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>71</v>
+      </c>
+      <c r="B260" t="s">
+        <v>72</v>
+      </c>
+      <c r="D260" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>73</v>
+      </c>
+      <c r="B261" t="s">
+        <v>74</v>
+      </c>
+      <c r="D261" s="2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>75</v>
+      </c>
+      <c r="B262" t="s">
+        <v>74</v>
+      </c>
+      <c r="D262" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>339</v>
+      </c>
+      <c r="B263" t="s">
+        <v>340</v>
+      </c>
+      <c r="D263" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>76</v>
+      </c>
+      <c r="B264" t="s">
+        <v>77</v>
+      </c>
+      <c r="D264" s="2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>78</v>
+      </c>
+      <c r="B265" t="s">
+        <v>79</v>
+      </c>
+      <c r="D265" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>80</v>
+      </c>
+      <c r="B266" t="s">
+        <v>81</v>
+      </c>
+      <c r="D266" s="2">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>82</v>
+      </c>
+      <c r="B267" t="s">
+        <v>83</v>
+      </c>
+      <c r="D267" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>84</v>
+      </c>
+      <c r="B268" t="s">
+        <v>85</v>
+      </c>
+      <c r="D268" s="13">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>86</v>
+      </c>
+      <c r="B269" t="s">
+        <v>300</v>
+      </c>
+      <c r="D269" s="13">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>86</v>
+      </c>
+      <c r="B270" t="s">
+        <v>88</v>
+      </c>
+      <c r="D270" s="13">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>89</v>
+      </c>
+      <c r="B271" t="s">
+        <v>90</v>
+      </c>
+      <c r="D271" s="2">
+        <v>272000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>91</v>
+      </c>
+      <c r="B272" t="s">
+        <v>92</v>
+      </c>
+      <c r="D272" s="13">
+        <v>591400</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>93</v>
+      </c>
+      <c r="B273" t="s">
+        <v>94</v>
+      </c>
+      <c r="D273" s="2">
+        <v>282000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>95</v>
+      </c>
+      <c r="B274" t="s">
+        <v>96</v>
+      </c>
+      <c r="D274" s="2">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>97</v>
+      </c>
+      <c r="B275" t="s">
+        <v>301</v>
+      </c>
+      <c r="D275" s="2">
+        <v>259000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>98</v>
+      </c>
+      <c r="B276" t="s">
+        <v>302</v>
+      </c>
+      <c r="D276" s="2">
+        <v>835000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>394</v>
+      </c>
+      <c r="B277" t="s">
+        <v>395</v>
+      </c>
+      <c r="D277" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>99</v>
+      </c>
+      <c r="B278" t="s">
+        <v>396</v>
+      </c>
+      <c r="D278" s="2">
+        <v>991156</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>102</v>
+      </c>
+      <c r="B279" t="s">
+        <v>103</v>
+      </c>
+      <c r="D279" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>104</v>
+      </c>
+      <c r="B280" t="s">
+        <v>105</v>
+      </c>
+      <c r="D280" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>106</v>
+      </c>
+      <c r="B281" t="s">
+        <v>107</v>
+      </c>
+      <c r="D281" s="2">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>108</v>
+      </c>
+      <c r="B282" t="s">
+        <v>109</v>
+      </c>
+      <c r="D282" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>108</v>
+      </c>
+      <c r="B283" t="s">
+        <v>110</v>
+      </c>
+      <c r="D283" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>111</v>
+      </c>
+      <c r="B284" t="s">
+        <v>112</v>
+      </c>
+      <c r="D284" s="13">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>113</v>
+      </c>
+      <c r="B285" t="s">
+        <v>114</v>
+      </c>
+      <c r="D285" s="2">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>115</v>
+      </c>
+      <c r="B286" t="s">
+        <v>116</v>
+      </c>
+      <c r="D286" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>117</v>
+      </c>
+      <c r="B287" t="s">
+        <v>118</v>
+      </c>
+      <c r="D287" s="2">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>119</v>
+      </c>
+      <c r="B288" t="s">
+        <v>120</v>
+      </c>
+      <c r="D288" s="2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>121</v>
+      </c>
+      <c r="B289" t="s">
+        <v>122</v>
+      </c>
+      <c r="D289" s="2">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>125</v>
+      </c>
+      <c r="B290" t="s">
+        <v>126</v>
+      </c>
+      <c r="D290" s="2">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>131</v>
+      </c>
+      <c r="B291" t="s">
+        <v>132</v>
+      </c>
+      <c r="D291" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>139</v>
+      </c>
+      <c r="B292" t="s">
+        <v>140</v>
+      </c>
+      <c r="D292" s="2">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>141</v>
+      </c>
+      <c r="B293" t="s">
+        <v>142</v>
+      </c>
+      <c r="D293" s="2">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>143</v>
+      </c>
+      <c r="B294" t="s">
+        <v>144</v>
+      </c>
+      <c r="D294" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>143</v>
+      </c>
+      <c r="B295" t="s">
+        <v>145</v>
+      </c>
+      <c r="D295" s="2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>147</v>
+      </c>
+      <c r="B296" t="s">
+        <v>148</v>
+      </c>
+      <c r="D296" s="2">
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>271</v>
+      </c>
+      <c r="B297" t="s">
+        <v>272</v>
+      </c>
+      <c r="D297" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>151</v>
+      </c>
+      <c r="B298" t="s">
+        <v>152</v>
+      </c>
+      <c r="D298" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>397</v>
+      </c>
+      <c r="B299" t="s">
+        <v>398</v>
+      </c>
+      <c r="D299" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>157</v>
+      </c>
+      <c r="B300" t="s">
+        <v>158</v>
+      </c>
+      <c r="D300" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>159</v>
+      </c>
+      <c r="B301" t="s">
+        <v>160</v>
+      </c>
+      <c r="D301" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>161</v>
+      </c>
+      <c r="B302" t="s">
+        <v>163</v>
+      </c>
+      <c r="D302" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>164</v>
+      </c>
+      <c r="B303" t="s">
+        <v>165</v>
+      </c>
+      <c r="D303" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>166</v>
+      </c>
+      <c r="B304" t="s">
+        <v>167</v>
+      </c>
+      <c r="D304" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>168</v>
+      </c>
+      <c r="B305" t="s">
+        <v>169</v>
+      </c>
+      <c r="D305" s="2">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>171</v>
+      </c>
+      <c r="B306" t="s">
+        <v>268</v>
+      </c>
+      <c r="D306" s="13">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>172</v>
+      </c>
+      <c r="B307" t="s">
+        <v>173</v>
+      </c>
+      <c r="D307" s="2">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>176</v>
+      </c>
+      <c r="B308" t="s">
+        <v>177</v>
+      </c>
+      <c r="D308" s="2">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>178</v>
+      </c>
+      <c r="B309" t="s">
+        <v>179</v>
+      </c>
+      <c r="D309" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>399</v>
+      </c>
+      <c r="B310" t="s">
+        <v>400</v>
+      </c>
+      <c r="D310" s="2">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>180</v>
+      </c>
+      <c r="B311" t="s">
+        <v>181</v>
+      </c>
+      <c r="D311" s="8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>182</v>
+      </c>
+      <c r="B312" t="s">
+        <v>183</v>
+      </c>
+      <c r="D312" s="9">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>184</v>
+      </c>
+      <c r="B313" t="s">
+        <v>185</v>
+      </c>
+      <c r="D313" s="2">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>186</v>
+      </c>
+      <c r="B314" t="s">
+        <v>187</v>
+      </c>
+      <c r="D314" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>186</v>
+      </c>
+      <c r="B315" t="s">
+        <v>188</v>
+      </c>
+      <c r="D315" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>189</v>
+      </c>
+      <c r="B316" t="s">
+        <v>190</v>
+      </c>
+      <c r="D316" s="2">
+        <v>212500</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>193</v>
+      </c>
+      <c r="B317" t="s">
+        <v>194</v>
+      </c>
+      <c r="D317" s="2">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>195</v>
+      </c>
+      <c r="B318" t="s">
+        <v>195</v>
+      </c>
+      <c r="D318" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>196</v>
+      </c>
+      <c r="B319" t="s">
+        <v>196</v>
+      </c>
+      <c r="D319" s="2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>199</v>
+      </c>
+      <c r="B320" t="s">
+        <v>200</v>
+      </c>
+      <c r="D320" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>201</v>
+      </c>
+      <c r="B321" t="s">
+        <v>202</v>
+      </c>
+      <c r="D321" s="2">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>203</v>
+      </c>
+      <c r="B322" t="s">
+        <v>204</v>
+      </c>
+      <c r="D322" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>205</v>
+      </c>
+      <c r="B323" t="s">
+        <v>206</v>
+      </c>
+      <c r="D323" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>207</v>
+      </c>
+      <c r="B324" t="s">
+        <v>208</v>
+      </c>
+      <c r="D324" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>209</v>
+      </c>
+      <c r="B325" t="s">
+        <v>210</v>
+      </c>
+      <c r="D325" s="2">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>211</v>
+      </c>
+      <c r="B326" t="s">
+        <v>212</v>
+      </c>
+      <c r="D326" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>401</v>
+      </c>
+      <c r="B327" t="s">
+        <v>402</v>
+      </c>
+      <c r="D327" s="2">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>401</v>
+      </c>
+      <c r="B328" t="s">
+        <v>403</v>
+      </c>
+      <c r="D328" s="2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>211</v>
+      </c>
+      <c r="B329" t="s">
+        <v>404</v>
+      </c>
+      <c r="D329" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>211</v>
+      </c>
+      <c r="B330" t="s">
+        <v>213</v>
+      </c>
+      <c r="D330" s="2">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>214</v>
+      </c>
+      <c r="B331" t="s">
+        <v>215</v>
+      </c>
+      <c r="D331" s="2">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>216</v>
+      </c>
+      <c r="B332" t="s">
+        <v>217</v>
+      </c>
+      <c r="D332" s="2">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>405</v>
+      </c>
+      <c r="B333" t="s">
+        <v>406</v>
+      </c>
+      <c r="D333" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>218</v>
+      </c>
+      <c r="B334" t="s">
+        <v>219</v>
+      </c>
+      <c r="D334" s="2">
+        <v>284500</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>278</v>
+      </c>
+      <c r="B335" t="s">
+        <v>220</v>
+      </c>
+      <c r="D335" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>221</v>
+      </c>
+      <c r="B336" t="s">
+        <v>279</v>
+      </c>
+      <c r="D336" s="2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>407</v>
+      </c>
+      <c r="B337" t="s">
+        <v>408</v>
+      </c>
+      <c r="D337" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>222</v>
+      </c>
+      <c r="B338" t="s">
+        <v>223</v>
+      </c>
+      <c r="D338" s="2">
+        <v>894000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>224</v>
+      </c>
+      <c r="B339" t="s">
+        <v>409</v>
+      </c>
+      <c r="D339" s="3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>225</v>
+      </c>
+      <c r="B340" t="s">
+        <v>319</v>
+      </c>
+      <c r="D340" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>226</v>
+      </c>
+      <c r="B341" t="s">
+        <v>227</v>
+      </c>
+      <c r="D341" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>226</v>
+      </c>
+      <c r="B342" t="s">
+        <v>280</v>
+      </c>
+      <c r="D342" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>228</v>
+      </c>
+      <c r="B343" t="s">
+        <v>229</v>
+      </c>
+      <c r="D343" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>410</v>
+      </c>
+      <c r="B344" t="s">
+        <v>411</v>
+      </c>
+      <c r="D344" s="2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>230</v>
+      </c>
+      <c r="B345" t="s">
+        <v>281</v>
+      </c>
+      <c r="D345" s="2">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>230</v>
+      </c>
+      <c r="B346" t="s">
+        <v>231</v>
+      </c>
+      <c r="D346" s="2">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>355</v>
+      </c>
+      <c r="B347" t="s">
+        <v>356</v>
+      </c>
+      <c r="D347" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>232</v>
+      </c>
+      <c r="B348" t="s">
+        <v>233</v>
+      </c>
+      <c r="D348" s="2">
+        <v>765000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>234</v>
+      </c>
+      <c r="B349" t="s">
+        <v>235</v>
+      </c>
+      <c r="D349" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>357</v>
+      </c>
+      <c r="B350" t="s">
+        <v>358</v>
+      </c>
+      <c r="D350" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>320</v>
+      </c>
+      <c r="B351" t="s">
+        <v>236</v>
+      </c>
+      <c r="D351" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>321</v>
+      </c>
+      <c r="B352" t="s">
+        <v>237</v>
+      </c>
+      <c r="D352" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>238</v>
+      </c>
+      <c r="B353" t="s">
+        <v>239</v>
+      </c>
+      <c r="D353" s="2">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>244</v>
+      </c>
+      <c r="B354" t="s">
+        <v>245</v>
+      </c>
+      <c r="D354" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>244</v>
+      </c>
+      <c r="B355" t="s">
+        <v>246</v>
+      </c>
+      <c r="D355" s="2">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>247</v>
+      </c>
+      <c r="B356" t="s">
+        <v>248</v>
+      </c>
+      <c r="D356" s="2">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>250</v>
+      </c>
+      <c r="B357" t="s">
+        <v>251</v>
+      </c>
+      <c r="D357" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>252</v>
+      </c>
+      <c r="B358" t="s">
+        <v>253</v>
+      </c>
+      <c r="D358" s="2">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>254</v>
+      </c>
+      <c r="B359" t="s">
+        <v>254</v>
+      </c>
+      <c r="D359" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>259</v>
+      </c>
+      <c r="B360" t="s">
+        <v>260</v>
+      </c>
+      <c r="D360" s="2">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>263</v>
+      </c>
+      <c r="B361" t="s">
+        <v>264</v>
+      </c>
+      <c r="D361" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>265</v>
+      </c>
+      <c r="B362" t="s">
+        <v>266</v>
+      </c>
+      <c r="D362" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>267</v>
+      </c>
+      <c r="B363" t="s">
+        <v>267</v>
+      </c>
+      <c r="D363" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>282</v>
+      </c>
+      <c r="B364" t="s">
+        <v>283</v>
+      </c>
+      <c r="D364" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>284</v>
+      </c>
+      <c r="B365" t="s">
+        <v>285</v>
+      </c>
+      <c r="D365" s="2">
+        <v>130000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J215" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
+  <autoFilter ref="A1:K215" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\04 - 预测\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\725\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FD8D60-B063-4FE4-9676-3B3AB4D640AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C2D5B-5BF7-497A-B938-4CF79FD607A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1599,10 +1599,10 @@
   <dimension ref="A1:N215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D194" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D213" sqref="D213"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4260,26 +4260,26 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3">
-        <v>1050000</v>
+        <v>1450000</v>
       </c>
       <c r="E92" s="3">
-        <v>1200000</v>
+        <v>1600000</v>
       </c>
       <c r="F92" s="3">
-        <v>1110000</v>
+        <v>1510000</v>
       </c>
       <c r="G92" s="3">
-        <v>1170000</v>
+        <v>1570000</v>
       </c>
       <c r="H92" s="3">
-        <v>1530000</v>
+        <v>1730000</v>
       </c>
       <c r="I92" s="3">
-        <v>1530000</v>
+        <v>1730000</v>
       </c>
       <c r="J92" s="4">
         <f t="shared" si="1"/>
-        <v>7590000</v>
+        <v>9590000</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -7814,7 +7814,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J215" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
+  <autoFilter ref="A1:N1" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\725\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C2D5B-5BF7-497A-B938-4CF79FD607A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E0B7A9-A3D7-4592-BCEF-83A69AAB9FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="386">
   <si>
     <t>产品型号</t>
   </si>
@@ -1003,9 +1003,6 @@
   </si>
   <si>
     <t>SC9675IM-LRF01-TR-Q</t>
-  </si>
-  <si>
-    <t>1月预测2</t>
   </si>
   <si>
     <t>合计</t>
@@ -1193,6 +1190,14 @@
   </si>
   <si>
     <t>SYLM358DC-GC-90AR-NM</t>
+  </si>
+  <si>
+    <t>1月预测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月预测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1596,13 +1601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}">
-  <dimension ref="A1:N215"/>
+  <dimension ref="A1:O215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1612,12 +1617,13 @@
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.25" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1643,17 +1649,20 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="6"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>286</v>
       </c>
@@ -1679,12 +1688,13 @@
       <c r="I2" s="3">
         <v>24</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3"/>
+      <c r="K2" s="4">
         <f>SUM(D2:I2)</f>
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>288</v>
       </c>
@@ -1710,17 +1720,18 @@
       <c r="I3" s="3">
         <v>25</v>
       </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J47" si="0">SUM(D3:I3)</f>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K47" si="0">SUM(D3:I3)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
@@ -1731,17 +1742,18 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3"/>
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -1752,17 +1764,18 @@
       <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3"/>
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
@@ -1783,12 +1796,13 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3"/>
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>289</v>
       </c>
@@ -1814,12 +1828,13 @@
       <c r="I7" s="9">
         <v>370000</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="9"/>
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>1110000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1845,12 +1860,13 @@
       <c r="I8" s="3">
         <v>50000</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3"/>
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1876,12 +1892,13 @@
       <c r="I9" s="3">
         <v>627150</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3"/>
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>3597900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1909,12 +1926,13 @@
       <c r="I10" s="3">
         <v>130000</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3"/>
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>780000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1942,12 +1960,13 @@
       <c r="I11" s="3">
         <v>50000</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3"/>
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1973,17 +1992,18 @@
       <c r="I12" s="3">
         <v>118000</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3"/>
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>586000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -1994,12 +2014,13 @@
       <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3"/>
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2025,12 +2046,13 @@
       <c r="I14" s="3">
         <v>120000</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3"/>
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2052,12 +2074,13 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3"/>
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>760000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2083,12 +2106,13 @@
       <c r="I16" s="3">
         <v>320000</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3"/>
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>1920000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2114,12 +2138,13 @@
       <c r="I17" s="3">
         <v>100000</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3"/>
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2147,12 +2172,13 @@
       <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3"/>
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2180,12 +2206,13 @@
       <c r="I19" s="3">
         <v>221000</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3"/>
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
         <v>1272000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2211,12 +2238,13 @@
       <c r="I20" s="3">
         <v>35000</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3"/>
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
         <v>206000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2242,12 +2270,13 @@
       <c r="I21" s="3">
         <v>400000</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3"/>
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
         <v>2400000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2273,12 +2302,13 @@
       <c r="I22" s="3">
         <v>235000</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3"/>
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
         <v>1570000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2304,12 +2334,13 @@
       <c r="I23" s="3">
         <v>19000</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3"/>
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
         <v>114000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2329,12 +2360,13 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3"/>
+      <c r="K24" s="4">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2360,12 +2392,13 @@
       <c r="I25" s="3">
         <v>3500000</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3"/>
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2391,12 +2424,13 @@
       <c r="I26" s="3">
         <v>1000000</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3"/>
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -2422,12 +2456,13 @@
       <c r="I27" s="3">
         <v>3000000</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3"/>
+      <c r="K27" s="4">
         <f t="shared" si="0"/>
         <v>18000000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2453,17 +2488,18 @@
       <c r="I28" s="3">
         <v>250000</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3"/>
+      <c r="K28" s="4">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
@@ -2474,17 +2510,18 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3"/>
+      <c r="K29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
@@ -2495,17 +2532,18 @@
       <c r="I30" s="3">
         <v>0</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3"/>
+      <c r="K30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
@@ -2516,12 +2554,13 @@
       <c r="I31" s="3">
         <v>0</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3"/>
+      <c r="K31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2541,12 +2580,13 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3"/>
+      <c r="K32" s="4">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2572,12 +2612,13 @@
       <c r="I33" s="3">
         <v>250000</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3"/>
+      <c r="K33" s="4">
         <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>294</v>
       </c>
@@ -2595,12 +2636,13 @@
       <c r="I34" s="3">
         <v>0</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3"/>
+      <c r="K34" s="4">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2618,12 +2660,13 @@
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>296</v>
       </c>
@@ -2649,12 +2692,13 @@
       <c r="I36" s="3">
         <v>65000</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="3"/>
+      <c r="K36" s="4">
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2680,12 +2724,13 @@
       <c r="I37" s="3">
         <v>240000</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="3"/>
+      <c r="K37" s="4">
         <f t="shared" si="0"/>
         <v>2437000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2711,12 +2756,13 @@
       <c r="I38" s="3">
         <v>30000</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="3"/>
+      <c r="K38" s="4">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -2742,12 +2788,13 @@
       <c r="I39" s="3">
         <v>379000</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="3"/>
+      <c r="K39" s="4">
         <f t="shared" si="0"/>
         <v>2274000</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -2773,12 +2820,13 @@
       <c r="I40" s="3">
         <v>80000</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3"/>
+      <c r="K40" s="4">
         <f t="shared" si="0"/>
         <v>480000</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2804,12 +2852,13 @@
       <c r="I41" s="3">
         <v>510000</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="3"/>
+      <c r="K41" s="4">
         <f t="shared" si="0"/>
         <v>3060000</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2827,12 +2876,13 @@
       <c r="I42" s="3">
         <v>0</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="3"/>
+      <c r="K42" s="4">
         <f t="shared" si="0"/>
         <v>381000</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -2858,12 +2908,13 @@
       <c r="I43" s="3">
         <v>70000</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="3"/>
+      <c r="K43" s="4">
         <f t="shared" si="0"/>
         <v>270000</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -2889,12 +2940,13 @@
       <c r="I44" s="3">
         <v>50000</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="3"/>
+      <c r="K44" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2920,17 +2972,18 @@
       <c r="I45" s="3">
         <v>4335000</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="3"/>
+      <c r="K45" s="4">
         <f t="shared" si="0"/>
         <v>24625000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
@@ -2941,12 +2994,13 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="3"/>
+      <c r="K46" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -2972,12 +3026,13 @@
       <c r="I47" s="3">
         <v>2287000</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="3"/>
+      <c r="K47" s="4">
         <f t="shared" si="0"/>
         <v>13242000</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -3003,12 +3058,13 @@
       <c r="I48" s="3">
         <v>600000</v>
       </c>
-      <c r="J48" s="4">
-        <f t="shared" ref="J48:J94" si="1">SUM(D48:I48)</f>
+      <c r="J48" s="3"/>
+      <c r="K48" s="4">
+        <f t="shared" ref="K48:K94" si="1">SUM(D48:I48)</f>
         <v>4500000</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -3034,12 +3090,13 @@
       <c r="I49" s="3">
         <v>400000</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="3"/>
+      <c r="K49" s="4">
         <f t="shared" si="1"/>
         <v>1800000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -3057,17 +3114,18 @@
       <c r="I50" s="3">
         <v>0</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="3"/>
+      <c r="K50" s="4">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="3">
@@ -3088,12 +3146,13 @@
       <c r="I51" s="3">
         <v>0</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="3"/>
+      <c r="K51" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -3113,17 +3172,18 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="3"/>
+      <c r="K52" s="4">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
@@ -3132,12 +3192,13 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="4">
+      <c r="J53" s="3"/>
+      <c r="K53" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -3161,12 +3222,13 @@
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="3"/>
+      <c r="K54" s="4">
         <f t="shared" si="1"/>
         <v>1200000</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -3192,12 +3254,13 @@
       <c r="I55" s="3">
         <v>140000</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="3"/>
+      <c r="K55" s="4">
         <f t="shared" si="1"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -3223,12 +3286,13 @@
       <c r="I56" s="3">
         <v>35000</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="3"/>
+      <c r="K56" s="4">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -3254,12 +3318,13 @@
       <c r="I57" s="3">
         <v>40000</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="3"/>
+      <c r="K57" s="4">
         <f t="shared" si="1"/>
         <v>115000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -3285,17 +3350,18 @@
       <c r="I58" s="3">
         <v>109000</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="3"/>
+      <c r="K58" s="4">
         <f t="shared" si="1"/>
         <v>578000</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -3306,12 +3372,13 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="3"/>
+      <c r="K59" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -3337,12 +3404,13 @@
       <c r="I60" s="3">
         <v>430000</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="3"/>
+      <c r="K60" s="4">
         <f t="shared" si="1"/>
         <v>2580000</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3368,12 +3436,13 @@
       <c r="I61" s="3">
         <v>165000</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61" s="3"/>
+      <c r="K61" s="4">
         <f t="shared" si="1"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -3399,12 +3468,13 @@
       <c r="I62" s="3">
         <v>30000</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="3"/>
+      <c r="K62" s="4">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -3426,17 +3496,18 @@
       <c r="I63" s="3">
         <v>0</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63" s="3"/>
+      <c r="K63" s="4">
         <f t="shared" si="1"/>
         <v>33000</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -3447,12 +3518,13 @@
       <c r="I64" s="3">
         <v>0</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J64" s="3"/>
+      <c r="K64" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -3478,12 +3550,13 @@
       <c r="I65" s="3">
         <v>18000</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J65" s="3"/>
+      <c r="K65" s="4">
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -3509,12 +3582,13 @@
       <c r="I66" s="3">
         <v>14000</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J66" s="3"/>
+      <c r="K66" s="4">
         <f t="shared" si="1"/>
         <v>81000</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
@@ -3540,12 +3614,13 @@
       <c r="I67" s="3">
         <v>19000</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67" s="3"/>
+      <c r="K67" s="4">
         <f t="shared" si="1"/>
         <v>114000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -3571,12 +3646,13 @@
       <c r="I68" s="3">
         <v>20000</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68" s="3"/>
+      <c r="K68" s="4">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
@@ -3602,12 +3678,13 @@
       <c r="I69" s="3">
         <v>352000</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J69" s="3"/>
+      <c r="K69" s="4">
         <f t="shared" si="1"/>
         <v>2022000</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
@@ -3633,12 +3710,13 @@
       <c r="I70" s="3">
         <v>1500000</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70" s="3"/>
+      <c r="K70" s="4">
         <f t="shared" si="1"/>
         <v>7100000</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
@@ -3664,12 +3742,13 @@
       <c r="I71" s="3">
         <v>242000</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J71" s="3"/>
+      <c r="K71" s="4">
         <f t="shared" si="1"/>
         <v>1362000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
@@ -3695,12 +3774,13 @@
       <c r="I72" s="3">
         <v>392000</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J72" s="3"/>
+      <c r="K72" s="4">
         <f t="shared" si="1"/>
         <v>2184000</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -3726,12 +3806,13 @@
       <c r="I73" s="3">
         <v>562000</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J73" s="3"/>
+      <c r="K73" s="4">
         <f t="shared" si="1"/>
         <v>2752000</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -3757,12 +3838,13 @@
       <c r="I74" s="3">
         <v>1527000</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J74" s="3"/>
+      <c r="K74" s="4">
         <f t="shared" si="1"/>
         <v>8058500</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>93</v>
       </c>
@@ -3788,17 +3870,18 @@
       <c r="I75" s="3">
         <v>292000</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75" s="3"/>
+      <c r="K75" s="4">
         <f t="shared" si="1"/>
         <v>1742000</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3809,12 +3892,13 @@
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J76" s="3"/>
+      <c r="K76" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>95</v>
       </c>
@@ -3840,12 +3924,13 @@
       <c r="I77" s="3">
         <v>505000</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J77" s="3"/>
+      <c r="K77" s="4">
         <f t="shared" si="1"/>
         <v>2880000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>97</v>
       </c>
@@ -3871,12 +3956,13 @@
       <c r="I78" s="3">
         <v>388000</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78" s="3"/>
+      <c r="K78" s="4">
         <f t="shared" si="1"/>
         <v>2020000</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>98</v>
       </c>
@@ -3902,12 +3988,13 @@
       <c r="I79" s="3">
         <v>840000</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J79" s="3"/>
+      <c r="K79" s="4">
         <f t="shared" si="1"/>
         <v>5020000</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>99</v>
       </c>
@@ -3933,12 +4020,13 @@
       <c r="I80" s="3">
         <v>1460000</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80" s="3"/>
+      <c r="K80" s="4">
         <f t="shared" si="1"/>
         <v>7686000</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>100</v>
       </c>
@@ -3956,12 +4044,13 @@
       <c r="I81" s="3">
         <v>200000</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J81" s="3"/>
+      <c r="K81" s="4">
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>304</v>
       </c>
@@ -3981,12 +4070,13 @@
       <c r="I82" s="3">
         <v>5000</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J82" s="3"/>
+      <c r="K82" s="4">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>102</v>
       </c>
@@ -4012,12 +4102,13 @@
       <c r="I83" s="3">
         <v>5000</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J83" s="3"/>
+      <c r="K83" s="4">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>104</v>
       </c>
@@ -4043,12 +4134,13 @@
       <c r="I84" s="3">
         <v>151000</v>
       </c>
-      <c r="J84" s="4">
+      <c r="J84" s="3"/>
+      <c r="K84" s="4">
         <f t="shared" si="1"/>
         <v>903000</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>106</v>
       </c>
@@ -4074,12 +4166,13 @@
       <c r="I85" s="3">
         <v>150000</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J85" s="3"/>
+      <c r="K85" s="4">
         <f t="shared" si="1"/>
         <v>836000</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>108</v>
       </c>
@@ -4105,12 +4198,13 @@
       <c r="I86" s="9">
         <v>10000</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J86" s="9"/>
+      <c r="K86" s="4">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
@@ -4128,12 +4222,13 @@
       <c r="I87" s="3">
         <v>0</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J87" s="3"/>
+      <c r="K87" s="4">
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>111</v>
       </c>
@@ -4159,12 +4254,13 @@
       <c r="I88" s="3">
         <v>3000</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88" s="3"/>
+      <c r="K88" s="4">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>113</v>
       </c>
@@ -4188,12 +4284,13 @@
       <c r="I89" s="3">
         <v>215000</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89" s="3"/>
+      <c r="K89" s="4">
         <f t="shared" si="1"/>
         <v>995000</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>306</v>
       </c>
@@ -4215,12 +4312,13 @@
       <c r="I90" s="3">
         <v>5000</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90" s="3"/>
+      <c r="K90" s="4">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>115</v>
       </c>
@@ -4246,12 +4344,13 @@
       <c r="I91" s="3">
         <v>1200000</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J91" s="3"/>
+      <c r="K91" s="4">
         <f t="shared" si="1"/>
         <v>7200000</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>117</v>
       </c>
@@ -4277,12 +4376,13 @@
       <c r="I92" s="3">
         <v>1730000</v>
       </c>
-      <c r="J92" s="4">
+      <c r="J92" s="3"/>
+      <c r="K92" s="4">
         <f t="shared" si="1"/>
         <v>9590000</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
@@ -4308,12 +4408,13 @@
       <c r="I93" s="3">
         <v>214000</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J93" s="3"/>
+      <c r="K93" s="4">
         <f t="shared" si="1"/>
         <v>914000</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>121</v>
       </c>
@@ -4339,12 +4440,13 @@
       <c r="I94" s="3">
         <v>95000</v>
       </c>
-      <c r="J94" s="4">
+      <c r="J94" s="3"/>
+      <c r="K94" s="4">
         <f t="shared" si="1"/>
         <v>570000</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>123</v>
       </c>
@@ -4370,12 +4472,13 @@
       <c r="I95" s="3">
         <v>10000</v>
       </c>
-      <c r="J95" s="4">
-        <f t="shared" ref="J95:J140" si="2">SUM(D95:I95)</f>
+      <c r="J95" s="3"/>
+      <c r="K95" s="4">
+        <f t="shared" ref="K95:K140" si="2">SUM(D95:I95)</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>125</v>
       </c>
@@ -4401,12 +4504,13 @@
       <c r="I96" s="3">
         <v>175000</v>
       </c>
-      <c r="J96" s="4">
+      <c r="J96" s="3"/>
+      <c r="K96" s="4">
         <f t="shared" si="2"/>
         <v>690000</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>127</v>
       </c>
@@ -4432,12 +4536,13 @@
       <c r="I97" s="3">
         <v>5000</v>
       </c>
-      <c r="J97" s="4">
+      <c r="J97" s="3"/>
+      <c r="K97" s="4">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>129</v>
       </c>
@@ -4459,12 +4564,13 @@
       <c r="I98" s="3">
         <v>5000</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98" s="3"/>
+      <c r="K98" s="4">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
@@ -4490,12 +4596,13 @@
       <c r="I99" s="3">
         <v>20000</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J99" s="3"/>
+      <c r="K99" s="4">
         <f t="shared" si="2"/>
         <v>95000</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
@@ -4515,12 +4622,13 @@
       <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="4">
+      <c r="J100" s="3"/>
+      <c r="K100" s="4">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>307</v>
       </c>
@@ -4544,12 +4652,13 @@
       <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="4">
+      <c r="J101" s="3"/>
+      <c r="K101" s="4">
         <f t="shared" si="2"/>
         <v>23000</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>309</v>
       </c>
@@ -4575,12 +4684,13 @@
       <c r="I102" s="3">
         <v>120000</v>
       </c>
-      <c r="J102" s="4">
+      <c r="J102" s="3"/>
+      <c r="K102" s="4">
         <f t="shared" si="2"/>
         <v>540000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>135</v>
       </c>
@@ -4602,12 +4712,13 @@
       <c r="I103" s="3">
         <v>18000</v>
       </c>
-      <c r="J103" s="4">
+      <c r="J103" s="3"/>
+      <c r="K103" s="4">
         <f t="shared" si="2"/>
         <v>59000</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>137</v>
       </c>
@@ -4623,12 +4734,13 @@
       <c r="I104" s="3">
         <v>0</v>
       </c>
-      <c r="J104" s="4">
+      <c r="J104" s="3"/>
+      <c r="K104" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>310</v>
       </c>
@@ -4654,17 +4766,18 @@
       <c r="I105" s="3">
         <v>50000</v>
       </c>
-      <c r="J105" s="4">
+      <c r="J105" s="3"/>
+      <c r="K105" s="4">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -4675,12 +4788,13 @@
       <c r="I106" s="3">
         <v>0</v>
       </c>
-      <c r="J106" s="4">
+      <c r="J106" s="3"/>
+      <c r="K106" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>311</v>
       </c>
@@ -4706,12 +4820,13 @@
       <c r="I107" s="3">
         <v>20000</v>
       </c>
-      <c r="J107" s="4">
+      <c r="J107" s="3"/>
+      <c r="K107" s="4">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>139</v>
       </c>
@@ -4737,12 +4852,13 @@
       <c r="I108" s="3">
         <v>190000</v>
       </c>
-      <c r="J108" s="4">
+      <c r="J108" s="3"/>
+      <c r="K108" s="4">
         <f t="shared" si="2"/>
         <v>1530000</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>141</v>
       </c>
@@ -4768,17 +4884,18 @@
       <c r="I109" s="3">
         <v>100000</v>
       </c>
-      <c r="J109" s="4">
+      <c r="J109" s="3"/>
+      <c r="K109" s="4">
         <f t="shared" si="2"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -4789,17 +4906,18 @@
       <c r="I110" s="3">
         <v>0</v>
       </c>
-      <c r="J110" s="4">
+      <c r="J110" s="3"/>
+      <c r="K110" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -4810,12 +4928,13 @@
       <c r="I111" s="3">
         <v>0</v>
       </c>
-      <c r="J111" s="4">
+      <c r="J111" s="3"/>
+      <c r="K111" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>143</v>
       </c>
@@ -4841,12 +4960,13 @@
       <c r="I112" s="3">
         <v>50000</v>
       </c>
-      <c r="J112" s="4">
+      <c r="J112" s="3"/>
+      <c r="K112" s="4">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>143</v>
       </c>
@@ -4872,12 +4992,13 @@
       <c r="I113" s="3">
         <v>30000</v>
       </c>
-      <c r="J113" s="4">
+      <c r="J113" s="3"/>
+      <c r="K113" s="4">
         <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>270</v>
       </c>
@@ -4903,12 +5024,13 @@
       <c r="I114" s="3">
         <v>500000</v>
       </c>
-      <c r="J114" s="4">
+      <c r="J114" s="3"/>
+      <c r="K114" s="4">
         <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>147</v>
       </c>
@@ -4934,12 +5056,13 @@
       <c r="I115" s="3">
         <v>260000</v>
       </c>
-      <c r="J115" s="4">
+      <c r="J115" s="3"/>
+      <c r="K115" s="4">
         <f t="shared" si="2"/>
         <v>1495000</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>271</v>
       </c>
@@ -4965,12 +5088,13 @@
       <c r="I116" s="3">
         <v>3000000</v>
       </c>
-      <c r="J116" s="4">
+      <c r="J116" s="3"/>
+      <c r="K116" s="4">
         <f t="shared" si="2"/>
         <v>18000000</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>149</v>
       </c>
@@ -4996,17 +5120,18 @@
       <c r="I117" s="3">
         <v>200000</v>
       </c>
-      <c r="J117" s="4">
+      <c r="J117" s="3"/>
+      <c r="K117" s="4">
         <f t="shared" si="2"/>
         <v>800000</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -5017,12 +5142,13 @@
       <c r="I118" s="3">
         <v>0</v>
       </c>
-      <c r="J118" s="4">
+      <c r="J118" s="3"/>
+      <c r="K118" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>151</v>
       </c>
@@ -5040,12 +5166,13 @@
       <c r="I119" s="3">
         <v>0</v>
       </c>
-      <c r="J119" s="4">
+      <c r="J119" s="3"/>
+      <c r="K119" s="4">
         <f t="shared" si="2"/>
         <v>65000</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>153</v>
       </c>
@@ -5067,12 +5194,13 @@
       <c r="I120" s="3">
         <v>250000</v>
       </c>
-      <c r="J120" s="4">
+      <c r="J120" s="3"/>
+      <c r="K120" s="4">
         <f t="shared" si="2"/>
         <v>950000</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>155</v>
       </c>
@@ -5094,12 +5222,13 @@
       <c r="I121" s="3">
         <v>2000000</v>
       </c>
-      <c r="J121" s="4">
+      <c r="J121" s="3"/>
+      <c r="K121" s="4">
         <f t="shared" si="2"/>
         <v>8000000</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>157</v>
       </c>
@@ -5113,12 +5242,13 @@
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
-      <c r="J122" s="4">
+      <c r="J122" s="3"/>
+      <c r="K122" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>159</v>
       </c>
@@ -5144,12 +5274,13 @@
       <c r="I123" s="3">
         <v>20000</v>
       </c>
-      <c r="J123" s="4">
+      <c r="J123" s="3"/>
+      <c r="K123" s="4">
         <f t="shared" si="2"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
@@ -5175,12 +5306,13 @@
       <c r="I124" s="3">
         <v>20000</v>
       </c>
-      <c r="J124" s="4">
+      <c r="J124" s="3"/>
+      <c r="K124" s="4">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>161</v>
       </c>
@@ -5206,12 +5338,13 @@
       <c r="I125" s="3">
         <v>1000000</v>
       </c>
-      <c r="J125" s="4">
+      <c r="J125" s="3"/>
+      <c r="K125" s="4">
         <f t="shared" si="2"/>
         <v>3500920</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>164</v>
       </c>
@@ -5237,12 +5370,13 @@
       <c r="I126" s="3">
         <v>30000</v>
       </c>
-      <c r="J126" s="4">
+      <c r="J126" s="3"/>
+      <c r="K126" s="4">
         <f t="shared" si="2"/>
         <v>158150</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>166</v>
       </c>
@@ -5264,12 +5398,13 @@
       <c r="I127" s="3">
         <v>0</v>
       </c>
-      <c r="J127" s="4">
+      <c r="J127" s="3"/>
+      <c r="K127" s="4">
         <f t="shared" si="2"/>
         <v>12250</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>168</v>
       </c>
@@ -5295,12 +5430,13 @@
       <c r="I128" s="3">
         <v>213000</v>
       </c>
-      <c r="J128" s="4">
+      <c r="J128" s="3"/>
+      <c r="K128" s="4">
         <f t="shared" si="2"/>
         <v>1019000</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>168</v>
       </c>
@@ -5324,12 +5460,13 @@
       <c r="I129" s="3">
         <v>250000</v>
       </c>
-      <c r="J129" s="4">
+      <c r="J129" s="3"/>
+      <c r="K129" s="4">
         <f t="shared" si="2"/>
         <v>1250000</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>172</v>
       </c>
@@ -5355,12 +5492,13 @@
       <c r="I130" s="3">
         <v>80000</v>
       </c>
-      <c r="J130" s="4">
+      <c r="J130" s="3"/>
+      <c r="K130" s="4">
         <f t="shared" si="2"/>
         <v>375000</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>174</v>
       </c>
@@ -5386,12 +5524,13 @@
       <c r="I131" s="3">
         <v>64400</v>
       </c>
-      <c r="J131" s="4">
+      <c r="J131" s="3"/>
+      <c r="K131" s="4">
         <f t="shared" si="2"/>
         <v>336000</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>176</v>
       </c>
@@ -5417,12 +5556,13 @@
       <c r="I132" s="3">
         <v>2000</v>
       </c>
-      <c r="J132" s="4">
+      <c r="J132" s="3"/>
+      <c r="K132" s="4">
         <f t="shared" si="2"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>178</v>
       </c>
@@ -5448,12 +5588,13 @@
       <c r="I133" s="3">
         <v>24000</v>
       </c>
-      <c r="J133" s="4">
+      <c r="J133" s="3"/>
+      <c r="K133" s="4">
         <f t="shared" si="2"/>
         <v>124000</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>171</v>
       </c>
@@ -5479,12 +5620,13 @@
       <c r="I134" s="3">
         <v>750000</v>
       </c>
-      <c r="J134" s="4">
+      <c r="J134" s="3"/>
+      <c r="K134" s="4">
         <f t="shared" si="2"/>
         <v>4150000</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>180</v>
       </c>
@@ -5506,12 +5648,13 @@
       <c r="I135" s="3">
         <v>0</v>
       </c>
-      <c r="J135" s="4">
+      <c r="J135" s="3"/>
+      <c r="K135" s="4">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>273</v>
       </c>
@@ -5529,12 +5672,13 @@
       <c r="I136" s="3">
         <v>5000</v>
       </c>
-      <c r="J136" s="4">
+      <c r="J136" s="3"/>
+      <c r="K136" s="4">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>182</v>
       </c>
@@ -5560,12 +5704,13 @@
       <c r="I137" s="3">
         <v>200000</v>
       </c>
-      <c r="J137" s="4">
+      <c r="J137" s="3"/>
+      <c r="K137" s="4">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>184</v>
       </c>
@@ -5591,12 +5736,13 @@
       <c r="I138" s="3">
         <v>229000</v>
       </c>
-      <c r="J138" s="4">
+      <c r="J138" s="3"/>
+      <c r="K138" s="4">
         <f t="shared" si="2"/>
         <v>1320000</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>186</v>
       </c>
@@ -5622,12 +5768,13 @@
       <c r="I139" s="3">
         <v>368000</v>
       </c>
-      <c r="J139" s="4">
+      <c r="J139" s="3"/>
+      <c r="K139" s="4">
         <f t="shared" si="2"/>
         <v>2174000</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>186</v>
       </c>
@@ -5653,12 +5800,13 @@
       <c r="I140" s="3">
         <v>600000</v>
       </c>
-      <c r="J140" s="4">
+      <c r="J140" s="3"/>
+      <c r="K140" s="4">
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>189</v>
       </c>
@@ -5684,12 +5832,13 @@
       <c r="I141" s="3">
         <v>315000</v>
       </c>
-      <c r="J141" s="4">
-        <f t="shared" ref="J141:J202" si="3">SUM(D141:I141)</f>
+      <c r="J141" s="3"/>
+      <c r="K141" s="4">
+        <f t="shared" ref="K141:K202" si="3">SUM(D141:I141)</f>
         <v>1835000</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>313</v>
       </c>
@@ -5715,12 +5864,13 @@
       <c r="I142" s="3">
         <v>300000</v>
       </c>
-      <c r="J142" s="4">
+      <c r="J142" s="3"/>
+      <c r="K142" s="4">
         <f t="shared" si="3"/>
         <v>2100000</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>191</v>
       </c>
@@ -5746,12 +5896,13 @@
       <c r="I143" s="3">
         <v>1000000</v>
       </c>
-      <c r="J143" s="4">
+      <c r="J143" s="3"/>
+      <c r="K143" s="4">
         <f t="shared" si="3"/>
         <v>6000000</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>193</v>
       </c>
@@ -5777,12 +5928,13 @@
       <c r="I144" s="3">
         <v>1000000</v>
       </c>
-      <c r="J144" s="4">
+      <c r="J144" s="3"/>
+      <c r="K144" s="4">
         <f t="shared" si="3"/>
         <v>6000000</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
@@ -5808,12 +5960,13 @@
       <c r="I145" s="3">
         <v>30000</v>
       </c>
-      <c r="J145" s="4">
+      <c r="J145" s="3"/>
+      <c r="K145" s="4">
         <f t="shared" si="3"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>195</v>
       </c>
@@ -5839,12 +5992,13 @@
       <c r="I146" s="3">
         <v>14880</v>
       </c>
-      <c r="J146" s="4">
+      <c r="J146" s="3"/>
+      <c r="K146" s="4">
         <f t="shared" si="3"/>
         <v>89280</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>196</v>
       </c>
@@ -5870,17 +6024,18 @@
       <c r="I147" s="3">
         <v>13000</v>
       </c>
-      <c r="J147" s="4">
+      <c r="J147" s="3"/>
+      <c r="K147" s="4">
         <f t="shared" si="3"/>
         <v>78000</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -5891,12 +6046,13 @@
       <c r="I148" s="3">
         <v>0</v>
       </c>
-      <c r="J148" s="4">
+      <c r="J148" s="3"/>
+      <c r="K148" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>284</v>
       </c>
@@ -5922,12 +6078,13 @@
       <c r="I149" s="1">
         <v>160000</v>
       </c>
-      <c r="J149" s="4">
+      <c r="J149" s="1"/>
+      <c r="K149" s="4">
         <f t="shared" si="3"/>
         <v>960000</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>275</v>
       </c>
@@ -5953,12 +6110,13 @@
       <c r="I150" s="1">
         <v>30000</v>
       </c>
-      <c r="J150" s="4">
+      <c r="J150" s="1"/>
+      <c r="K150" s="4">
         <f t="shared" si="3"/>
         <v>170000</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>275</v>
       </c>
@@ -5984,12 +6142,13 @@
       <c r="I151" s="1">
         <v>30000</v>
       </c>
-      <c r="J151" s="4">
+      <c r="J151" s="1"/>
+      <c r="K151" s="4">
         <f t="shared" si="3"/>
         <v>170000</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>197</v>
       </c>
@@ -6015,12 +6174,13 @@
       <c r="I152" s="1">
         <v>50000</v>
       </c>
-      <c r="J152" s="4">
+      <c r="J152" s="1"/>
+      <c r="K152" s="4">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>199</v>
       </c>
@@ -6046,12 +6206,13 @@
       <c r="I153" s="1">
         <v>23000</v>
       </c>
-      <c r="J153" s="4">
+      <c r="J153" s="1"/>
+      <c r="K153" s="4">
         <f t="shared" si="3"/>
         <v>92000</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>201</v>
       </c>
@@ -6077,12 +6238,13 @@
       <c r="I154" s="1">
         <v>59000</v>
       </c>
-      <c r="J154" s="4">
+      <c r="J154" s="1"/>
+      <c r="K154" s="4">
         <f t="shared" si="3"/>
         <v>271000</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>203</v>
       </c>
@@ -6108,12 +6270,13 @@
       <c r="I155" s="1">
         <v>63000</v>
       </c>
-      <c r="J155" s="4">
+      <c r="J155" s="1"/>
+      <c r="K155" s="4">
         <f t="shared" si="3"/>
         <v>302000</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>205</v>
       </c>
@@ -6139,12 +6302,13 @@
       <c r="I156" s="1">
         <v>3000</v>
       </c>
-      <c r="J156" s="4">
+      <c r="J156" s="1"/>
+      <c r="K156" s="4">
         <f t="shared" si="3"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>207</v>
       </c>
@@ -6170,12 +6334,13 @@
       <c r="I157" s="1">
         <v>18000</v>
       </c>
-      <c r="J157" s="4">
+      <c r="J157" s="1"/>
+      <c r="K157" s="4">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>209</v>
       </c>
@@ -6201,17 +6366,18 @@
       <c r="I158" s="1">
         <v>91000</v>
       </c>
-      <c r="J158" s="4">
+      <c r="J158" s="1"/>
+      <c r="K158" s="4">
         <f t="shared" si="3"/>
         <v>451000</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1">
@@ -6232,12 +6398,13 @@
       <c r="I159" s="1">
         <v>0</v>
       </c>
-      <c r="J159" s="4">
+      <c r="J159" s="1"/>
+      <c r="K159" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>211</v>
       </c>
@@ -6263,12 +6430,13 @@
       <c r="I160" s="1">
         <v>100000</v>
       </c>
-      <c r="J160" s="4">
+      <c r="J160" s="1"/>
+      <c r="K160" s="4">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>211</v>
       </c>
@@ -6294,12 +6462,13 @@
       <c r="I161" s="1">
         <v>160000</v>
       </c>
-      <c r="J161" s="4">
+      <c r="J161" s="1"/>
+      <c r="K161" s="4">
         <f t="shared" si="3"/>
         <v>960000</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>211</v>
       </c>
@@ -6325,12 +6494,13 @@
       <c r="I162" s="1">
         <v>40000</v>
       </c>
-      <c r="J162" s="4">
+      <c r="J162" s="1"/>
+      <c r="K162" s="4">
         <f t="shared" si="3"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>211</v>
       </c>
@@ -6356,12 +6526,13 @@
       <c r="I163" s="1">
         <v>92000</v>
       </c>
-      <c r="J163" s="4">
+      <c r="J163" s="1"/>
+      <c r="K163" s="4">
         <f t="shared" si="3"/>
         <v>552000</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>214</v>
       </c>
@@ -6387,12 +6558,13 @@
       <c r="I164" s="1">
         <v>1000</v>
       </c>
-      <c r="J164" s="4">
+      <c r="J164" s="1"/>
+      <c r="K164" s="4">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>216</v>
       </c>
@@ -6418,12 +6590,13 @@
       <c r="I165" s="1">
         <v>42000</v>
       </c>
-      <c r="J165" s="4">
+      <c r="J165" s="1"/>
+      <c r="K165" s="4">
         <f t="shared" si="3"/>
         <v>252000</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>218</v>
       </c>
@@ -6449,17 +6622,18 @@
       <c r="I166" s="1">
         <v>294500</v>
       </c>
-      <c r="J166" s="4">
+      <c r="J166" s="1"/>
+      <c r="K166" s="4">
         <f t="shared" si="3"/>
         <v>1867000</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -6470,12 +6644,13 @@
       <c r="I167" s="1">
         <v>0</v>
       </c>
-      <c r="J167" s="4">
+      <c r="J167" s="1"/>
+      <c r="K167" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>278</v>
       </c>
@@ -6501,12 +6676,13 @@
       <c r="I168" s="1">
         <v>100000</v>
       </c>
-      <c r="J168" s="4">
+      <c r="J168" s="1"/>
+      <c r="K168" s="4">
         <f t="shared" si="3"/>
         <v>610000</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>221</v>
       </c>
@@ -6528,12 +6704,13 @@
       <c r="I169" s="1">
         <v>20000</v>
       </c>
-      <c r="J169" s="4">
+      <c r="J169" s="1"/>
+      <c r="K169" s="4">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>222</v>
       </c>
@@ -6559,12 +6736,13 @@
       <c r="I170" s="1">
         <v>877330</v>
       </c>
-      <c r="J170" s="4">
+      <c r="J170" s="1"/>
+      <c r="K170" s="4">
         <f t="shared" si="3"/>
         <v>5195420</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>224</v>
       </c>
@@ -6590,12 +6768,13 @@
       <c r="I171" s="1">
         <v>506000</v>
       </c>
-      <c r="J171" s="4">
+      <c r="J171" s="1"/>
+      <c r="K171" s="4">
         <f t="shared" si="3"/>
         <v>2936000</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>224</v>
       </c>
@@ -6621,12 +6800,13 @@
       <c r="I172" s="1">
         <v>50000</v>
       </c>
-      <c r="J172" s="4">
+      <c r="J172" s="1"/>
+      <c r="K172" s="4">
         <f t="shared" si="3"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>225</v>
       </c>
@@ -6652,12 +6832,13 @@
       <c r="I173" s="1">
         <v>20000</v>
       </c>
-      <c r="J173" s="4">
+      <c r="J173" s="1"/>
+      <c r="K173" s="4">
         <f t="shared" si="3"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>226</v>
       </c>
@@ -6683,12 +6864,13 @@
       <c r="I174" s="1">
         <v>100000</v>
       </c>
-      <c r="J174" s="4">
+      <c r="J174" s="1"/>
+      <c r="K174" s="4">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>226</v>
       </c>
@@ -6714,12 +6896,13 @@
       <c r="I175" s="1">
         <v>270000</v>
       </c>
-      <c r="J175" s="4">
+      <c r="J175" s="1"/>
+      <c r="K175" s="4">
         <f t="shared" si="3"/>
         <v>1690500</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>228</v>
       </c>
@@ -6745,12 +6928,13 @@
       <c r="I176" s="1">
         <v>103000</v>
       </c>
-      <c r="J176" s="4">
+      <c r="J176" s="1"/>
+      <c r="K176" s="4">
         <f t="shared" si="3"/>
         <v>696000</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>230</v>
       </c>
@@ -6776,12 +6960,13 @@
       <c r="I177" s="1">
         <v>90000</v>
       </c>
-      <c r="J177" s="4">
+      <c r="J177" s="1"/>
+      <c r="K177" s="4">
         <f t="shared" si="3"/>
         <v>540000</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>230</v>
       </c>
@@ -6807,17 +6992,18 @@
       <c r="I178" s="1">
         <v>207000</v>
       </c>
-      <c r="J178" s="4">
+      <c r="J178" s="1"/>
+      <c r="K178" s="4">
         <f t="shared" si="3"/>
         <v>1215000</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -6828,12 +7014,13 @@
       <c r="I179" s="1">
         <v>0</v>
       </c>
-      <c r="J179" s="4">
+      <c r="J179" s="1"/>
+      <c r="K179" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>232</v>
       </c>
@@ -6859,12 +7046,13 @@
       <c r="I180" s="1">
         <v>478000</v>
       </c>
-      <c r="J180" s="4">
+      <c r="J180" s="1"/>
+      <c r="K180" s="4">
         <f t="shared" si="3"/>
         <v>3664000</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>234</v>
       </c>
@@ -6890,12 +7078,13 @@
       <c r="I181" s="1">
         <v>5000</v>
       </c>
-      <c r="J181" s="4">
+      <c r="J181" s="1"/>
+      <c r="K181" s="4">
         <f t="shared" si="3"/>
         <v>21000</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>320</v>
       </c>
@@ -6921,17 +7110,18 @@
       <c r="I182" s="1">
         <v>4000</v>
       </c>
-      <c r="J182" s="4">
+      <c r="J182" s="1"/>
+      <c r="K182" s="4">
         <f t="shared" si="3"/>
         <v>42000</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1">
@@ -6952,12 +7142,13 @@
       <c r="I183" s="1">
         <v>0</v>
       </c>
-      <c r="J183" s="4">
+      <c r="J183" s="1"/>
+      <c r="K183" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>321</v>
       </c>
@@ -6983,12 +7174,13 @@
       <c r="I184" s="1">
         <v>27000</v>
       </c>
-      <c r="J184" s="4">
+      <c r="J184" s="1"/>
+      <c r="K184" s="4">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>238</v>
       </c>
@@ -7014,17 +7206,18 @@
       <c r="I185" s="1">
         <v>27000</v>
       </c>
-      <c r="J185" s="4">
+      <c r="J185" s="1"/>
+      <c r="K185" s="4">
         <f t="shared" si="3"/>
         <v>162000</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1">
@@ -7045,12 +7238,13 @@
       <c r="I186" s="1">
         <v>0</v>
       </c>
-      <c r="J186" s="4">
+      <c r="J186" s="1"/>
+      <c r="K186" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>240</v>
       </c>
@@ -7066,12 +7260,13 @@
       <c r="I187" s="1">
         <v>0</v>
       </c>
-      <c r="J187" s="4">
+      <c r="J187" s="1"/>
+      <c r="K187" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>242</v>
       </c>
@@ -7097,17 +7292,18 @@
       <c r="I188" s="1">
         <v>41000</v>
       </c>
-      <c r="J188" s="4">
+      <c r="J188" s="1"/>
+      <c r="K188" s="4">
         <f t="shared" si="3"/>
         <v>245000</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -7118,12 +7314,13 @@
       <c r="I189" s="1">
         <v>0</v>
       </c>
-      <c r="J189" s="4">
+      <c r="J189" s="1"/>
+      <c r="K189" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>244</v>
       </c>
@@ -7149,12 +7346,13 @@
       <c r="I190" s="1">
         <v>2000000</v>
       </c>
-      <c r="J190" s="4">
+      <c r="J190" s="1"/>
+      <c r="K190" s="4">
         <f t="shared" si="3"/>
         <v>9400000</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>244</v>
       </c>
@@ -7180,12 +7378,13 @@
       <c r="I191" s="1">
         <v>800000</v>
       </c>
-      <c r="J191" s="4">
+      <c r="J191" s="1"/>
+      <c r="K191" s="4">
         <f t="shared" si="3"/>
         <v>4300000</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>247</v>
       </c>
@@ -7211,12 +7410,13 @@
       <c r="I192" s="1">
         <v>3800000</v>
       </c>
-      <c r="J192" s="4">
+      <c r="J192" s="1"/>
+      <c r="K192" s="4">
         <f t="shared" si="3"/>
         <v>18100000</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>247</v>
       </c>
@@ -7242,17 +7442,18 @@
       <c r="I193" s="1">
         <v>800000</v>
       </c>
-      <c r="J193" s="4">
+      <c r="J193" s="1"/>
+      <c r="K193" s="4">
         <f t="shared" si="3"/>
         <v>4000000</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -7263,17 +7464,18 @@
       <c r="I194" s="1">
         <v>0</v>
       </c>
-      <c r="J194" s="4">
+      <c r="J194" s="1"/>
+      <c r="K194" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -7284,12 +7486,13 @@
       <c r="I195" s="1">
         <v>0</v>
       </c>
-      <c r="J195" s="4">
+      <c r="J195" s="1"/>
+      <c r="K195" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>250</v>
       </c>
@@ -7315,12 +7518,13 @@
       <c r="I196" s="1">
         <v>200000</v>
       </c>
-      <c r="J196" s="4">
+      <c r="J196" s="1"/>
+      <c r="K196" s="4">
         <f t="shared" si="3"/>
         <v>730000</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>252</v>
       </c>
@@ -7346,17 +7550,18 @@
       <c r="I197" s="1">
         <v>1000000</v>
       </c>
-      <c r="J197" s="4">
+      <c r="J197" s="1"/>
+      <c r="K197" s="4">
         <f t="shared" si="3"/>
         <v>4200000</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -7367,12 +7572,13 @@
       <c r="I198" s="1">
         <v>0</v>
       </c>
-      <c r="J198" s="4">
+      <c r="J198" s="1"/>
+      <c r="K198" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>254</v>
       </c>
@@ -7398,12 +7604,13 @@
       <c r="I199" s="1">
         <v>125</v>
       </c>
-      <c r="J199" s="4">
+      <c r="J199" s="1"/>
+      <c r="K199" s="4">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>255</v>
       </c>
@@ -7425,12 +7632,13 @@
       <c r="I200" s="1">
         <v>20000</v>
       </c>
-      <c r="J200" s="4">
+      <c r="J200" s="1"/>
+      <c r="K200" s="4">
         <f t="shared" si="3"/>
         <v>70000</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>257</v>
       </c>
@@ -7452,12 +7660,13 @@
       <c r="I201" s="1">
         <v>10000</v>
       </c>
-      <c r="J201" s="4">
+      <c r="J201" s="1"/>
+      <c r="K201" s="4">
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>259</v>
       </c>
@@ -7483,12 +7692,13 @@
       <c r="I202" s="1">
         <v>105000</v>
       </c>
-      <c r="J202" s="4">
+      <c r="J202" s="1"/>
+      <c r="K202" s="4">
         <f t="shared" si="3"/>
         <v>572000</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>261</v>
       </c>
@@ -7514,12 +7724,13 @@
       <c r="I203" s="1">
         <v>10000</v>
       </c>
-      <c r="J203" s="4">
-        <f t="shared" ref="J203:J215" si="4">SUM(D203:I203)</f>
+      <c r="J203" s="1"/>
+      <c r="K203" s="4">
+        <f t="shared" ref="K203:K215" si="4">SUM(D203:I203)</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>263</v>
       </c>
@@ -7545,12 +7756,13 @@
       <c r="I204" s="1">
         <v>105000</v>
       </c>
-      <c r="J204" s="4">
+      <c r="J204" s="1"/>
+      <c r="K204" s="4">
         <f t="shared" si="4"/>
         <v>503000</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>265</v>
       </c>
@@ -7576,12 +7788,13 @@
       <c r="I205" s="1">
         <v>20000</v>
       </c>
-      <c r="J205" s="4">
+      <c r="J205" s="1"/>
+      <c r="K205" s="4">
         <f t="shared" si="4"/>
         <v>94000</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>267</v>
       </c>
@@ -7607,17 +7820,18 @@
       <c r="I206" s="1">
         <v>120000</v>
       </c>
-      <c r="J206" s="4">
+      <c r="J206" s="1"/>
+      <c r="K206" s="4">
         <f t="shared" si="4"/>
         <v>352000</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -7628,17 +7842,18 @@
       <c r="I207" s="1">
         <v>0</v>
       </c>
-      <c r="J207" s="4">
+      <c r="J207" s="1"/>
+      <c r="K207" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1">
@@ -7653,17 +7868,18 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-      <c r="J208" s="4">
+      <c r="J208" s="1"/>
+      <c r="K208" s="4">
         <f t="shared" si="4"/>
         <v>750000</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1">
@@ -7678,17 +7894,18 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-      <c r="J209" s="4">
+      <c r="J209" s="1"/>
+      <c r="K209" s="4">
         <f t="shared" si="4"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -7697,17 +7914,18 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-      <c r="J210" s="4">
+      <c r="J210" s="1"/>
+      <c r="K210" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -7720,17 +7938,18 @@
       </c>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
-      <c r="J211" s="4">
+      <c r="J211" s="1"/>
+      <c r="K211" s="4">
         <f t="shared" si="4"/>
         <v>770000</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1">
@@ -7751,17 +7970,18 @@
       <c r="I212" s="1">
         <v>5000</v>
       </c>
-      <c r="J212" s="4">
+      <c r="J212" s="1"/>
+      <c r="K212" s="4">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -7770,17 +7990,18 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="4">
+      <c r="J213" s="1"/>
+      <c r="K213" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -7789,17 +8010,18 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="4">
+      <c r="J214" s="1"/>
+      <c r="K214" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -7808,13 +8030,14 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="4">
+      <c r="J215" s="1"/>
+      <c r="K215" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
+  <autoFilter ref="A1:O1" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\222\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\728\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E0B7A9-A3D7-4592-BCEF-83A69AAB9FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA11233D-38DC-42E3-B10C-D7D9BB79B816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="427">
   <si>
     <t>产品型号</t>
   </si>
@@ -1196,7 +1196,130 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2月预测</t>
+    <t>3100-3100</t>
+  </si>
+  <si>
+    <t>PFD1014A</t>
+  </si>
+  <si>
+    <t>SC1134B1</t>
+  </si>
+  <si>
+    <t>SC1134B1-43F</t>
+  </si>
+  <si>
+    <t>SC1134BU-CI-00AR-1134</t>
+  </si>
+  <si>
+    <t>SC1645A1-AI-00HK-615HA</t>
+  </si>
+  <si>
+    <t>SC1645B1-AE-00HK-4601</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-CJ-00NR-2402</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-CJ-00NR-6571</t>
+  </si>
+  <si>
+    <t>CSMC</t>
+  </si>
+  <si>
+    <t>SC2402S1-BK</t>
+  </si>
+  <si>
+    <t>SC2402S1-CJ-90AK-6571</t>
+  </si>
+  <si>
+    <t>SC2432SO-Q-CM-10CR-NM</t>
+  </si>
+  <si>
+    <t>SC2443SO-H-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2443SO-H-Q-DB-60AR-2443H</t>
+  </si>
+  <si>
+    <t>SC2448SO-H-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2448SO-H-Q-DB-60AR-2448H</t>
+  </si>
+  <si>
+    <t>SC2448SO-Q-DB-40CR-2448</t>
+  </si>
+  <si>
+    <t>SC4015SO-N-TR</t>
+  </si>
+  <si>
+    <t>SC4015SO-N-CE-90NR-CY19</t>
+  </si>
+  <si>
+    <t>H/L</t>
+  </si>
+  <si>
+    <t>SC4015SO-N-CE-90NR-G01M</t>
+  </si>
+  <si>
+    <t>SC4104SE-TR</t>
+  </si>
+  <si>
+    <t>SC4104SE-GB-00LR-4104</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>SC4643VB-S-TR-Q</t>
+  </si>
+  <si>
+    <t>SC4643VB-S-Q-DE-40CR-4643</t>
+  </si>
+  <si>
+    <t>SC4688DC-Q-DC-40AR-6388</t>
+  </si>
+  <si>
+    <t>SC9314UA</t>
+  </si>
+  <si>
+    <t>SC9314UA-9201L</t>
+  </si>
+  <si>
+    <t>SC9314UA-9209</t>
+  </si>
+  <si>
+    <t>SC9314UA-CF-0XAK-2414</t>
+  </si>
+  <si>
+    <t>SC9621VB-TR-Q</t>
+  </si>
+  <si>
+    <t>SC9621VB-Q-CN-4XCR-9621</t>
+  </si>
+  <si>
+    <t>SC9634VB-BK</t>
+  </si>
+  <si>
+    <t>SC9634VB-CG-00CK-9634</t>
+  </si>
+  <si>
+    <t>SC9641TS-P-AI-10LR-41CPA</t>
+  </si>
+  <si>
+    <t>SC9642TS-E-TR</t>
+  </si>
+  <si>
+    <t>SC9642TS-E-AH-4XLR-9642</t>
+  </si>
+  <si>
+    <t>SC9685TS-RP180-TR-Q</t>
+  </si>
+  <si>
+    <t>SC9685TS-RP180-Q-DB-46AR-96851</t>
+  </si>
+  <si>
+    <t>7月预测</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1601,13 +1724,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}">
-  <dimension ref="A1:O215"/>
+  <dimension ref="A1:O419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1615,9 +1738,9 @@
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="11.625" style="11" bestFit="1" customWidth="1"/>
@@ -1634,25 +1757,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>384</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>385</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>322</v>
@@ -1670,27 +1793,27 @@
         <v>286</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="3">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3">
         <v>48</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>120</v>
-      </c>
-      <c r="F2" s="3">
-        <v>96</v>
       </c>
       <c r="G2" s="3">
         <v>96</v>
       </c>
       <c r="H2" s="3">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I2" s="3">
         <v>24</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3">
+        <v>24</v>
+      </c>
       <c r="K2" s="4">
-        <f>SUM(D2:I2)</f>
+        <f>SUM(E2:J2)</f>
         <v>408</v>
       </c>
     </row>
@@ -1702,27 +1825,27 @@
         <v>288</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>25</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>25</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <v>25</v>
+      </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K47" si="0">SUM(D3:I3)</f>
+        <f t="shared" ref="K3:K47" si="0">SUM(E3:J3)</f>
         <v>75</v>
       </c>
     </row>
@@ -1734,15 +1857,15 @@
         <v>324</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1756,15 +1879,15 @@
         <v>326</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1778,9 +1901,7 @@
         <v>328</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="3">
         <v>0</v>
       </c>
@@ -1796,7 +1917,9 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1810,25 +1933,25 @@
         <v>290</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
         <v>370000</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <v>370000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="9">
         <v>370000</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9">
+        <v>370000</v>
+      </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>1110000</v>
@@ -1842,9 +1965,7 @@
         <v>291</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="3">
         <v>50000</v>
       </c>
@@ -1860,7 +1981,9 @@
       <c r="I8" s="3">
         <v>50000</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <v>50000</v>
+      </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
@@ -1874,25 +1997,25 @@
         <v>10</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3">
         <v>572150</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>567150</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>572150</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>632150</v>
-      </c>
-      <c r="H9" s="3">
-        <v>627150</v>
       </c>
       <c r="I9" s="3">
         <v>627150</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>627150</v>
+      </c>
       <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>3597900</v>
@@ -1908,9 +2031,7 @@
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3">
-        <v>130000</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="3">
         <v>130000</v>
       </c>
@@ -1926,7 +2047,9 @@
       <c r="I10" s="3">
         <v>130000</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>130000</v>
+      </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>780000</v>
@@ -1942,9 +2065,7 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="3">
         <v>50000</v>
       </c>
@@ -1960,7 +2081,9 @@
       <c r="I11" s="3">
         <v>50000</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>50000</v>
+      </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
@@ -1974,25 +2097,25 @@
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <v>65000</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="3">
         <v>65000</v>
       </c>
       <c r="F12" s="3">
+        <v>65000</v>
+      </c>
+      <c r="G12" s="3">
         <v>135000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>85000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>118000</v>
       </c>
       <c r="I12" s="3">
         <v>118000</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3">
+        <v>118000</v>
+      </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>586000</v>
@@ -2006,15 +2129,15 @@
         <v>329</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2028,11 +2151,9 @@
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3">
         <v>240000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>120000</v>
       </c>
       <c r="F14" s="3">
         <v>120000</v>
@@ -2046,7 +2167,9 @@
       <c r="I14" s="3">
         <v>120000</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3">
+        <v>120000</v>
+      </c>
       <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>840000</v>
@@ -2062,19 +2185,19 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3">
-        <v>380000</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="3">
         <v>380000</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>380000</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>760000</v>
@@ -2088,9 +2211,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="3">
-        <v>320000</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="3">
         <v>320000</v>
       </c>
@@ -2106,7 +2227,9 @@
       <c r="I16" s="3">
         <v>320000</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3">
+        <v>320000</v>
+      </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>1920000</v>
@@ -2120,9 +2243,7 @@
         <v>269</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="3">
-        <v>100000</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="3">
         <v>100000</v>
       </c>
@@ -2138,7 +2259,9 @@
       <c r="I17" s="3">
         <v>100000</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3">
+        <v>100000</v>
+      </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>600000</v>
@@ -2154,9 +2277,7 @@
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>3000</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="3">
         <v>3000</v>
       </c>
@@ -2172,7 +2293,9 @@
       <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3">
+        <v>3000</v>
+      </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>18000</v>
@@ -2188,25 +2311,25 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="3">
         <v>212000</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>200000</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>218000</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>200000</v>
-      </c>
-      <c r="H19" s="3">
-        <v>221000</v>
       </c>
       <c r="I19" s="3">
         <v>221000</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3">
+        <v>221000</v>
+      </c>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
         <v>1272000</v>
@@ -2220,14 +2343,12 @@
         <v>20</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="3">
-        <v>33000</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="3">
         <v>33000</v>
       </c>
       <c r="F20" s="3">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="G20" s="3">
         <v>35000</v>
@@ -2238,7 +2359,9 @@
       <c r="I20" s="3">
         <v>35000</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="3">
+        <v>35000</v>
+      </c>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
         <v>206000</v>
@@ -2252,9 +2375,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="3">
-        <v>400000</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="3">
         <v>400000</v>
       </c>
@@ -2270,7 +2391,9 @@
       <c r="I21" s="3">
         <v>400000</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3">
+        <v>400000</v>
+      </c>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
         <v>2400000</v>
@@ -2284,11 +2407,9 @@
         <v>24</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="3">
+      <c r="D22" s="2"/>
+      <c r="E22" s="3">
         <v>395000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>235000</v>
       </c>
       <c r="F22" s="3">
         <v>235000</v>
@@ -2302,7 +2423,9 @@
       <c r="I22" s="3">
         <v>235000</v>
       </c>
-      <c r="J22" s="3"/>
+      <c r="J22" s="3">
+        <v>235000</v>
+      </c>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
         <v>1570000</v>
@@ -2316,9 +2439,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="3">
-        <v>19000</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="3">
         <v>19000</v>
       </c>
@@ -2334,7 +2455,9 @@
       <c r="I23" s="3">
         <v>19000</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="3">
+        <v>19000</v>
+      </c>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
         <v>114000</v>
@@ -2348,19 +2471,19 @@
         <v>28</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
         <v>500000</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
         <v>500000</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
       <c r="K24" s="4">
         <f t="shared" si="0"/>
         <v>1000000</v>
@@ -2374,9 +2497,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="3">
-        <v>3500000</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="3">
         <v>3500000</v>
       </c>
@@ -2392,7 +2513,9 @@
       <c r="I25" s="3">
         <v>3500000</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3">
+        <v>3500000</v>
+      </c>
       <c r="K25" s="4">
         <f t="shared" si="0"/>
         <v>21000000</v>
@@ -2406,11 +2529,9 @@
         <v>30</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="3">
+      <c r="D26" s="2"/>
+      <c r="E26" s="3">
         <v>2000000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1000000</v>
       </c>
       <c r="F26" s="3">
         <v>1000000</v>
@@ -2424,7 +2545,9 @@
       <c r="I26" s="3">
         <v>1000000</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3">
+        <v>1000000</v>
+      </c>
       <c r="K26" s="4">
         <f t="shared" si="0"/>
         <v>7000000</v>
@@ -2438,9 +2561,7 @@
         <v>292</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="3">
-        <v>3000000</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="3">
         <v>3000000</v>
       </c>
@@ -2456,7 +2577,9 @@
       <c r="I27" s="3">
         <v>3000000</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="3">
+        <v>3000000</v>
+      </c>
       <c r="K27" s="4">
         <f t="shared" si="0"/>
         <v>18000000</v>
@@ -2470,11 +2593,9 @@
         <v>293</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="3">
+      <c r="D28" s="2"/>
+      <c r="E28" s="3">
         <v>750000</v>
-      </c>
-      <c r="E28" s="3">
-        <v>250000</v>
       </c>
       <c r="F28" s="3">
         <v>250000</v>
@@ -2488,7 +2609,9 @@
       <c r="I28" s="3">
         <v>250000</v>
       </c>
-      <c r="J28" s="3"/>
+      <c r="J28" s="3">
+        <v>250000</v>
+      </c>
       <c r="K28" s="4">
         <f t="shared" si="0"/>
         <v>2000000</v>
@@ -2502,15 +2625,15 @@
         <v>331</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
       <c r="K29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2524,15 +2647,15 @@
         <v>332</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
       <c r="K30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2546,15 +2669,15 @@
         <v>333</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
       <c r="K31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2568,19 +2691,19 @@
         <v>33</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="3">
-        <v>2500000</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="3">
         <v>2500000</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3">
+        <v>2500000</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
       <c r="K32" s="4">
         <f t="shared" si="0"/>
         <v>5000000</v>
@@ -2594,11 +2717,9 @@
         <v>35</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="3">
+      <c r="D33" s="2"/>
+      <c r="E33" s="3">
         <v>500000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>250000</v>
       </c>
       <c r="F33" s="3">
         <v>250000</v>
@@ -2612,7 +2733,9 @@
       <c r="I33" s="3">
         <v>250000</v>
       </c>
-      <c r="J33" s="3"/>
+      <c r="J33" s="3">
+        <v>250000</v>
+      </c>
       <c r="K33" s="4">
         <f t="shared" si="0"/>
         <v>1750000</v>
@@ -2626,17 +2749,17 @@
         <v>295</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="3">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3">
         <v>250000</v>
       </c>
-      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
       <c r="K34" s="4">
         <f t="shared" si="0"/>
         <v>250000</v>
@@ -2650,17 +2773,17 @@
         <v>37</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="3">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3">
         <v>1500000</v>
       </c>
-      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
       <c r="K35" s="4">
         <f t="shared" si="0"/>
         <v>1500000</v>
@@ -2674,14 +2797,12 @@
         <v>297</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="3">
-        <v>60000</v>
-      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="3">
         <v>60000</v>
       </c>
       <c r="F36" s="3">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="G36" s="3">
         <v>65000</v>
@@ -2692,7 +2813,9 @@
       <c r="I36" s="3">
         <v>65000</v>
       </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="3">
+        <v>65000</v>
+      </c>
       <c r="K36" s="4">
         <f t="shared" si="0"/>
         <v>380000</v>
@@ -2706,17 +2829,15 @@
         <v>39</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="3">
+      <c r="D37" s="2"/>
+      <c r="E37" s="3">
         <v>239000</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>1239000</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>239000</v>
-      </c>
-      <c r="G37" s="3">
-        <v>240000</v>
       </c>
       <c r="H37" s="3">
         <v>240000</v>
@@ -2724,7 +2845,9 @@
       <c r="I37" s="3">
         <v>240000</v>
       </c>
-      <c r="J37" s="3"/>
+      <c r="J37" s="3">
+        <v>240000</v>
+      </c>
       <c r="K37" s="4">
         <f t="shared" si="0"/>
         <v>2437000</v>
@@ -2738,17 +2861,15 @@
         <v>41</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
         <v>30000</v>
       </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
       <c r="G38" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3">
         <v>30000</v>
@@ -2756,7 +2877,9 @@
       <c r="I38" s="3">
         <v>30000</v>
       </c>
-      <c r="J38" s="3"/>
+      <c r="J38" s="3">
+        <v>30000</v>
+      </c>
       <c r="K38" s="4">
         <f t="shared" si="0"/>
         <v>120000</v>
@@ -2770,9 +2893,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="3">
-        <v>379000</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="3">
         <v>379000</v>
       </c>
@@ -2788,7 +2909,9 @@
       <c r="I39" s="3">
         <v>379000</v>
       </c>
-      <c r="J39" s="3"/>
+      <c r="J39" s="3">
+        <v>379000</v>
+      </c>
       <c r="K39" s="4">
         <f t="shared" si="0"/>
         <v>2274000</v>
@@ -2802,9 +2925,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="3">
-        <v>80000</v>
-      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="3">
         <v>80000</v>
       </c>
@@ -2820,7 +2941,9 @@
       <c r="I40" s="3">
         <v>80000</v>
       </c>
-      <c r="J40" s="3"/>
+      <c r="J40" s="3">
+        <v>80000</v>
+      </c>
       <c r="K40" s="4">
         <f t="shared" si="0"/>
         <v>480000</v>
@@ -2834,9 +2957,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="3">
-        <v>510000</v>
-      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="3">
         <v>510000</v>
       </c>
@@ -2852,7 +2973,9 @@
       <c r="I41" s="3">
         <v>510000</v>
       </c>
-      <c r="J41" s="3"/>
+      <c r="J41" s="3">
+        <v>510000</v>
+      </c>
       <c r="K41" s="4">
         <f t="shared" si="0"/>
         <v>3060000</v>
@@ -2866,17 +2989,17 @@
         <v>48</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="3">
+      <c r="D42" s="2"/>
+      <c r="E42" s="3">
         <v>381000</v>
       </c>
-      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
       <c r="K42" s="4">
         <f t="shared" si="0"/>
         <v>381000</v>
@@ -2890,17 +3013,15 @@
         <v>50</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="3">
+      <c r="D43" s="2"/>
+      <c r="E43" s="3">
         <v>40000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>10000</v>
       </c>
       <c r="F43" s="3">
         <v>10000</v>
       </c>
       <c r="G43" s="3">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="H43" s="3">
         <v>70000</v>
@@ -2908,7 +3029,9 @@
       <c r="I43" s="3">
         <v>70000</v>
       </c>
-      <c r="J43" s="3"/>
+      <c r="J43" s="3">
+        <v>70000</v>
+      </c>
       <c r="K43" s="4">
         <f t="shared" si="0"/>
         <v>270000</v>
@@ -2922,9 +3045,7 @@
         <v>52</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="3">
         <v>50000</v>
       </c>
@@ -2940,7 +3061,9 @@
       <c r="I44" s="3">
         <v>50000</v>
       </c>
-      <c r="J44" s="3"/>
+      <c r="J44" s="3">
+        <v>50000</v>
+      </c>
       <c r="K44" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
@@ -2954,25 +3077,25 @@
         <v>298</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="3">
+      <c r="D45" s="2"/>
+      <c r="E45" s="3">
         <v>3910000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4335000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3615000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4095000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4335000</v>
       </c>
       <c r="I45" s="3">
         <v>4335000</v>
       </c>
-      <c r="J45" s="3"/>
+      <c r="J45" s="3">
+        <v>4335000</v>
+      </c>
       <c r="K45" s="4">
         <f t="shared" si="0"/>
         <v>24625000</v>
@@ -2986,15 +3109,15 @@
         <v>334</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
       <c r="K46" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3008,9 +3131,7 @@
         <v>54</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="3">
-        <v>2167000</v>
-      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="3">
         <v>2167000</v>
       </c>
@@ -3021,12 +3142,14 @@
         <v>2167000</v>
       </c>
       <c r="H47" s="3">
-        <v>2287000</v>
+        <v>2167000</v>
       </c>
       <c r="I47" s="3">
         <v>2287000</v>
       </c>
-      <c r="J47" s="3"/>
+      <c r="J47" s="3">
+        <v>2287000</v>
+      </c>
       <c r="K47" s="4">
         <f t="shared" si="0"/>
         <v>13242000</v>
@@ -3040,27 +3163,27 @@
         <v>56</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="3">
+      <c r="D48" s="2"/>
+      <c r="E48" s="3">
         <v>500000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>600000</v>
       </c>
       <c r="I48" s="3">
         <v>600000</v>
       </c>
-      <c r="J48" s="3"/>
+      <c r="J48" s="3">
+        <v>600000</v>
+      </c>
       <c r="K48" s="4">
-        <f t="shared" ref="K48:K94" si="1">SUM(D48:I48)</f>
+        <f t="shared" ref="K48:K94" si="1">SUM(E48:J48)</f>
         <v>4500000</v>
       </c>
     </row>
@@ -3072,25 +3195,25 @@
         <v>57</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="3">
+      <c r="D49" s="2"/>
+      <c r="E49" s="3">
         <v>400000</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>600000</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
       <c r="H49" s="3">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>400000</v>
       </c>
-      <c r="J49" s="3"/>
+      <c r="J49" s="3">
+        <v>400000</v>
+      </c>
       <c r="K49" s="4">
         <f t="shared" si="1"/>
         <v>1800000</v>
@@ -3104,17 +3227,17 @@
         <v>299</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="3">
+      <c r="D50" s="2"/>
+      <c r="E50" s="3">
         <v>1000000</v>
       </c>
-      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
       <c r="K50" s="4">
         <f t="shared" si="1"/>
         <v>1000000</v>
@@ -3128,9 +3251,7 @@
         <v>335</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="3">
         <v>0</v>
       </c>
@@ -3146,7 +3267,9 @@
       <c r="I51" s="3">
         <v>0</v>
       </c>
-      <c r="J51" s="3"/>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
       <c r="K51" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3160,19 +3283,19 @@
         <v>58</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="3">
+      <c r="D52" s="2"/>
+      <c r="E52" s="3">
         <v>1000000</v>
       </c>
-      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3">
         <v>1000000</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
       <c r="K52" s="4">
         <f t="shared" si="1"/>
         <v>2000000</v>
@@ -3186,7 +3309,7 @@
         <v>336</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -3206,23 +3329,23 @@
         <v>60</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="3">
+      <c r="D54" s="2"/>
+      <c r="E54" s="3">
         <v>600000</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>600000</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
       <c r="K54" s="4">
         <f t="shared" si="1"/>
         <v>1200000</v>
@@ -3236,9 +3359,7 @@
         <v>62</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="3">
-        <v>140000</v>
-      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="3">
         <v>140000</v>
       </c>
@@ -3254,7 +3375,9 @@
       <c r="I55" s="3">
         <v>140000</v>
       </c>
-      <c r="J55" s="3"/>
+      <c r="J55" s="3">
+        <v>140000</v>
+      </c>
       <c r="K55" s="4">
         <f t="shared" si="1"/>
         <v>840000</v>
@@ -3268,14 +3391,12 @@
         <v>64</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="3">
-        <v>20000</v>
-      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="3">
         <v>20000</v>
       </c>
       <c r="F56" s="3">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="G56" s="3">
         <v>35000</v>
@@ -3286,7 +3407,9 @@
       <c r="I56" s="3">
         <v>35000</v>
       </c>
-      <c r="J56" s="3"/>
+      <c r="J56" s="3">
+        <v>35000</v>
+      </c>
       <c r="K56" s="4">
         <f t="shared" si="1"/>
         <v>180000</v>
@@ -3300,11 +3423,9 @@
         <v>66</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="3">
+      <c r="D57" s="2"/>
+      <c r="E57" s="3">
         <v>5000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>10000</v>
       </c>
       <c r="F57" s="3">
         <v>10000</v>
@@ -3313,12 +3434,14 @@
         <v>10000</v>
       </c>
       <c r="H57" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="I57" s="3">
         <v>40000</v>
       </c>
-      <c r="J57" s="3"/>
+      <c r="J57" s="3">
+        <v>40000</v>
+      </c>
       <c r="K57" s="4">
         <f t="shared" si="1"/>
         <v>115000</v>
@@ -3332,25 +3455,25 @@
         <v>68</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="3">
+      <c r="D58" s="2"/>
+      <c r="E58" s="3">
         <v>106000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>76000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>89000</v>
       </c>
       <c r="G58" s="3">
         <v>89000</v>
       </c>
       <c r="H58" s="3">
-        <v>109000</v>
+        <v>89000</v>
       </c>
       <c r="I58" s="3">
         <v>109000</v>
       </c>
-      <c r="J58" s="3"/>
+      <c r="J58" s="3">
+        <v>109000</v>
+      </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
         <v>578000</v>
@@ -3364,15 +3487,15 @@
         <v>338</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="2"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
       <c r="K59" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3386,9 +3509,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="3">
-        <v>430000</v>
-      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="3">
         <v>430000</v>
       </c>
@@ -3404,7 +3525,9 @@
       <c r="I60" s="3">
         <v>430000</v>
       </c>
-      <c r="J60" s="3"/>
+      <c r="J60" s="3">
+        <v>430000</v>
+      </c>
       <c r="K60" s="4">
         <f t="shared" si="1"/>
         <v>2580000</v>
@@ -3418,25 +3541,25 @@
         <v>72</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="3">
+      <c r="D61" s="2"/>
+      <c r="E61" s="3">
         <v>120000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>125000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>130000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>135000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>165000</v>
       </c>
       <c r="I61" s="3">
         <v>165000</v>
       </c>
-      <c r="J61" s="3"/>
+      <c r="J61" s="3">
+        <v>165000</v>
+      </c>
       <c r="K61" s="4">
         <f t="shared" si="1"/>
         <v>840000</v>
@@ -3450,9 +3573,7 @@
         <v>74</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="3">
-        <v>30000</v>
-      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="3">
         <v>30000</v>
       </c>
@@ -3468,7 +3589,9 @@
       <c r="I62" s="3">
         <v>30000</v>
       </c>
-      <c r="J62" s="3"/>
+      <c r="J62" s="3">
+        <v>30000</v>
+      </c>
       <c r="K62" s="4">
         <f t="shared" si="1"/>
         <v>180000</v>
@@ -3482,21 +3605,21 @@
         <v>74</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3">
+      <c r="D63" s="2"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3">
         <v>12000</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <v>6000</v>
       </c>
-      <c r="G63" s="3">
+      <c r="H63" s="3">
         <v>15000</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3">
-        <v>0</v>
-      </c>
-      <c r="J63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
       <c r="K63" s="4">
         <f t="shared" si="1"/>
         <v>33000</v>
@@ -3510,15 +3633,15 @@
         <v>340</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="J64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
       <c r="K64" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3532,25 +3655,25 @@
         <v>77</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="3">
+      <c r="D65" s="2"/>
+      <c r="E65" s="3">
         <v>30000</v>
       </c>
-      <c r="E65" s="3">
+      <c r="F65" s="3">
         <v>18000</v>
-      </c>
-      <c r="F65" s="3">
-        <v>3000</v>
       </c>
       <c r="G65" s="3">
         <v>3000</v>
       </c>
       <c r="H65" s="3">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="I65" s="3">
         <v>18000</v>
       </c>
-      <c r="J65" s="3"/>
+      <c r="J65" s="3">
+        <v>18000</v>
+      </c>
       <c r="K65" s="4">
         <f t="shared" si="1"/>
         <v>90000</v>
@@ -3564,25 +3687,25 @@
         <v>79</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="3">
+      <c r="D66" s="2"/>
+      <c r="E66" s="3">
         <v>14000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>14000</v>
       </c>
       <c r="I66" s="3">
         <v>14000</v>
       </c>
-      <c r="J66" s="3"/>
+      <c r="J66" s="3">
+        <v>14000</v>
+      </c>
       <c r="K66" s="4">
         <f t="shared" si="1"/>
         <v>81000</v>
@@ -3596,9 +3719,7 @@
         <v>81</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="3">
-        <v>19000</v>
-      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="3">
         <v>19000</v>
       </c>
@@ -3614,7 +3735,9 @@
       <c r="I67" s="3">
         <v>19000</v>
       </c>
-      <c r="J67" s="3"/>
+      <c r="J67" s="3">
+        <v>19000</v>
+      </c>
       <c r="K67" s="4">
         <f t="shared" si="1"/>
         <v>114000</v>
@@ -3628,9 +3751,7 @@
         <v>83</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="3">
-        <v>20000</v>
-      </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="3">
         <v>20000</v>
       </c>
@@ -3646,7 +3767,9 @@
       <c r="I68" s="3">
         <v>20000</v>
       </c>
-      <c r="J68" s="3"/>
+      <c r="J68" s="3">
+        <v>20000</v>
+      </c>
       <c r="K68" s="4">
         <f t="shared" si="1"/>
         <v>120000</v>
@@ -3660,25 +3783,25 @@
         <v>85</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="3">
-        <v>322000</v>
-      </c>
+      <c r="D69" s="2"/>
       <c r="E69" s="3">
         <v>322000</v>
       </c>
       <c r="F69" s="3">
+        <v>322000</v>
+      </c>
+      <c r="G69" s="3">
         <v>352000</v>
       </c>
-      <c r="G69" s="3">
+      <c r="H69" s="3">
         <v>322000</v>
-      </c>
-      <c r="H69" s="3">
-        <v>352000</v>
       </c>
       <c r="I69" s="3">
         <v>352000</v>
       </c>
-      <c r="J69" s="3"/>
+      <c r="J69" s="3">
+        <v>352000</v>
+      </c>
       <c r="K69" s="4">
         <f t="shared" si="1"/>
         <v>2022000</v>
@@ -3692,25 +3815,25 @@
         <v>300</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="3">
-        <v>900000</v>
-      </c>
+      <c r="D70" s="2"/>
       <c r="E70" s="3">
         <v>900000</v>
       </c>
       <c r="F70" s="3">
+        <v>900000</v>
+      </c>
+      <c r="G70" s="3">
         <v>1000000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>1300000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1500000</v>
       </c>
       <c r="I70" s="3">
         <v>1500000</v>
       </c>
-      <c r="J70" s="3"/>
+      <c r="J70" s="3">
+        <v>1500000</v>
+      </c>
       <c r="K70" s="4">
         <f t="shared" si="1"/>
         <v>7100000</v>
@@ -3724,25 +3847,25 @@
         <v>87</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="3">
-        <v>212000</v>
-      </c>
+      <c r="D71" s="2"/>
       <c r="E71" s="3">
         <v>212000</v>
       </c>
       <c r="F71" s="3">
+        <v>212000</v>
+      </c>
+      <c r="G71" s="3">
         <v>242000</v>
       </c>
-      <c r="G71" s="3">
+      <c r="H71" s="3">
         <v>212000</v>
-      </c>
-      <c r="H71" s="3">
-        <v>242000</v>
       </c>
       <c r="I71" s="3">
         <v>242000</v>
       </c>
-      <c r="J71" s="3"/>
+      <c r="J71" s="3">
+        <v>242000</v>
+      </c>
       <c r="K71" s="4">
         <f t="shared" si="1"/>
         <v>1362000</v>
@@ -3756,25 +3879,25 @@
         <v>88</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="3">
-        <v>320000</v>
-      </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="3">
         <v>320000</v>
       </c>
       <c r="F72" s="3">
-        <v>380000</v>
+        <v>320000</v>
       </c>
       <c r="G72" s="3">
         <v>380000</v>
       </c>
       <c r="H72" s="3">
-        <v>392000</v>
+        <v>380000</v>
       </c>
       <c r="I72" s="3">
         <v>392000</v>
       </c>
-      <c r="J72" s="3"/>
+      <c r="J72" s="3">
+        <v>392000</v>
+      </c>
       <c r="K72" s="4">
         <f t="shared" si="1"/>
         <v>2184000</v>
@@ -3788,25 +3911,25 @@
         <v>90</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="3">
+      <c r="D73" s="2"/>
+      <c r="E73" s="3">
         <v>352000</v>
       </c>
-      <c r="E73" s="3">
+      <c r="F73" s="3">
         <v>552000</v>
-      </c>
-      <c r="F73" s="3">
-        <v>362000</v>
       </c>
       <c r="G73" s="3">
         <v>362000</v>
       </c>
       <c r="H73" s="3">
-        <v>562000</v>
+        <v>362000</v>
       </c>
       <c r="I73" s="3">
         <v>562000</v>
       </c>
-      <c r="J73" s="3"/>
+      <c r="J73" s="3">
+        <v>562000</v>
+      </c>
       <c r="K73" s="4">
         <f t="shared" si="1"/>
         <v>2752000</v>
@@ -3820,25 +3943,25 @@
         <v>92</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="3">
+      <c r="D74" s="2"/>
+      <c r="E74" s="3">
         <v>854000</v>
       </c>
-      <c r="E74" s="3">
+      <c r="F74" s="3">
         <v>1192500</v>
       </c>
-      <c r="F74" s="3">
+      <c r="G74" s="3">
         <v>1429000</v>
       </c>
-      <c r="G74" s="3">
+      <c r="H74" s="3">
         <v>1529000</v>
-      </c>
-      <c r="H74" s="3">
-        <v>1527000</v>
       </c>
       <c r="I74" s="3">
         <v>1527000</v>
       </c>
-      <c r="J74" s="3"/>
+      <c r="J74" s="3">
+        <v>1527000</v>
+      </c>
       <c r="K74" s="4">
         <f t="shared" si="1"/>
         <v>8058500</v>
@@ -3852,25 +3975,25 @@
         <v>94</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="3">
+      <c r="D75" s="2"/>
+      <c r="E75" s="3">
         <v>322000</v>
       </c>
-      <c r="E75" s="3">
+      <c r="F75" s="3">
         <v>272000</v>
-      </c>
-      <c r="F75" s="3">
-        <v>282000</v>
       </c>
       <c r="G75" s="3">
         <v>282000</v>
       </c>
       <c r="H75" s="3">
-        <v>292000</v>
+        <v>282000</v>
       </c>
       <c r="I75" s="3">
         <v>292000</v>
       </c>
-      <c r="J75" s="3"/>
+      <c r="J75" s="3">
+        <v>292000</v>
+      </c>
       <c r="K75" s="4">
         <f t="shared" si="1"/>
         <v>1742000</v>
@@ -3884,15 +4007,15 @@
         <v>341</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" s="3"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
       <c r="K76" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3906,14 +4029,12 @@
         <v>96</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="3">
+      <c r="D77" s="2"/>
+      <c r="E77" s="3">
         <v>360000</v>
       </c>
-      <c r="E77" s="3">
+      <c r="F77" s="3">
         <v>500000</v>
-      </c>
-      <c r="F77" s="3">
-        <v>505000</v>
       </c>
       <c r="G77" s="3">
         <v>505000</v>
@@ -3924,7 +4045,9 @@
       <c r="I77" s="3">
         <v>505000</v>
       </c>
-      <c r="J77" s="3"/>
+      <c r="J77" s="3">
+        <v>505000</v>
+      </c>
       <c r="K77" s="4">
         <f t="shared" si="1"/>
         <v>2880000</v>
@@ -3938,25 +4061,25 @@
         <v>301</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="3">
+      <c r="D78" s="2"/>
+      <c r="E78" s="3">
         <v>262000</v>
       </c>
-      <c r="E78" s="3">
+      <c r="F78" s="3">
         <v>283000</v>
       </c>
-      <c r="F78" s="3">
+      <c r="G78" s="3">
         <v>331000</v>
       </c>
-      <c r="G78" s="3">
+      <c r="H78" s="3">
         <v>368000</v>
-      </c>
-      <c r="H78" s="3">
-        <v>388000</v>
       </c>
       <c r="I78" s="3">
         <v>388000</v>
       </c>
-      <c r="J78" s="3"/>
+      <c r="J78" s="3">
+        <v>388000</v>
+      </c>
       <c r="K78" s="4">
         <f t="shared" si="1"/>
         <v>2020000</v>
@@ -3970,14 +4093,12 @@
         <v>302</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="D79" s="3">
-        <v>830000</v>
-      </c>
+      <c r="D79" s="2"/>
       <c r="E79" s="3">
         <v>830000</v>
       </c>
       <c r="F79" s="3">
-        <v>840000</v>
+        <v>830000</v>
       </c>
       <c r="G79" s="3">
         <v>840000</v>
@@ -3988,7 +4109,9 @@
       <c r="I79" s="3">
         <v>840000</v>
       </c>
-      <c r="J79" s="3"/>
+      <c r="J79" s="3">
+        <v>840000</v>
+      </c>
       <c r="K79" s="4">
         <f t="shared" si="1"/>
         <v>5020000</v>
@@ -4002,25 +4125,25 @@
         <v>303</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="3">
+      <c r="D80" s="2"/>
+      <c r="E80" s="3">
         <v>994000</v>
       </c>
-      <c r="E80" s="3">
+      <c r="F80" s="3">
         <v>1072000</v>
       </c>
-      <c r="F80" s="3">
+      <c r="G80" s="3">
         <v>1226000</v>
       </c>
-      <c r="G80" s="3">
+      <c r="H80" s="3">
         <v>1470000</v>
       </c>
-      <c r="H80" s="3">
+      <c r="I80" s="3">
         <v>1464000</v>
       </c>
-      <c r="I80" s="3">
+      <c r="J80" s="3">
         <v>1460000</v>
       </c>
-      <c r="J80" s="3"/>
       <c r="K80" s="4">
         <f t="shared" si="1"/>
         <v>7686000</v>
@@ -4034,17 +4157,17 @@
         <v>101</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="3"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="3">
-        <v>200000</v>
-      </c>
+      <c r="H81" s="3"/>
       <c r="I81" s="3">
         <v>200000</v>
       </c>
-      <c r="J81" s="3"/>
+      <c r="J81" s="3">
+        <v>200000</v>
+      </c>
       <c r="K81" s="4">
         <f t="shared" si="1"/>
         <v>400000</v>
@@ -4058,19 +4181,19 @@
         <v>305</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="3"/>
+      <c r="D82" s="2"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="3">
-        <v>5000</v>
-      </c>
+      <c r="G82" s="3"/>
       <c r="H82" s="3">
         <v>5000</v>
       </c>
       <c r="I82" s="3">
         <v>5000</v>
       </c>
-      <c r="J82" s="3"/>
+      <c r="J82" s="3">
+        <v>5000</v>
+      </c>
       <c r="K82" s="4">
         <f t="shared" si="1"/>
         <v>15000</v>
@@ -4084,9 +4207,7 @@
         <v>103</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" s="3">
-        <v>5000</v>
-      </c>
+      <c r="D83" s="2"/>
       <c r="E83" s="3">
         <v>5000</v>
       </c>
@@ -4102,7 +4223,9 @@
       <c r="I83" s="3">
         <v>5000</v>
       </c>
-      <c r="J83" s="3"/>
+      <c r="J83" s="3">
+        <v>5000</v>
+      </c>
       <c r="K83" s="4">
         <f t="shared" si="1"/>
         <v>30000</v>
@@ -4116,9 +4239,7 @@
         <v>105</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="3">
-        <v>150000</v>
-      </c>
+      <c r="D84" s="2"/>
       <c r="E84" s="3">
         <v>150000</v>
       </c>
@@ -4126,7 +4247,7 @@
         <v>150000</v>
       </c>
       <c r="G84" s="3">
-        <v>151000</v>
+        <v>150000</v>
       </c>
       <c r="H84" s="3">
         <v>151000</v>
@@ -4134,7 +4255,9 @@
       <c r="I84" s="3">
         <v>151000</v>
       </c>
-      <c r="J84" s="3"/>
+      <c r="J84" s="3">
+        <v>151000</v>
+      </c>
       <c r="K84" s="4">
         <f t="shared" si="1"/>
         <v>903000</v>
@@ -4148,25 +4271,25 @@
         <v>107</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="3">
+      <c r="D85" s="2"/>
+      <c r="E85" s="3">
         <v>128000</v>
       </c>
-      <c r="E85" s="3">
+      <c r="F85" s="3">
         <v>130000</v>
       </c>
-      <c r="F85" s="3">
+      <c r="G85" s="3">
         <v>133000</v>
       </c>
-      <c r="G85" s="3">
+      <c r="H85" s="3">
         <v>145000</v>
-      </c>
-      <c r="H85" s="3">
-        <v>150000</v>
       </c>
       <c r="I85" s="3">
         <v>150000</v>
       </c>
-      <c r="J85" s="3"/>
+      <c r="J85" s="3">
+        <v>150000</v>
+      </c>
       <c r="K85" s="4">
         <f t="shared" si="1"/>
         <v>836000</v>
@@ -4180,9 +4303,7 @@
         <v>109</v>
       </c>
       <c r="C86" s="8"/>
-      <c r="D86" s="9">
-        <v>10000</v>
-      </c>
+      <c r="D86" s="8"/>
       <c r="E86" s="9">
         <v>10000</v>
       </c>
@@ -4198,7 +4319,9 @@
       <c r="I86" s="9">
         <v>10000</v>
       </c>
-      <c r="J86" s="9"/>
+      <c r="J86" s="9">
+        <v>10000</v>
+      </c>
       <c r="K86" s="4">
         <f t="shared" si="1"/>
         <v>60000</v>
@@ -4212,17 +4335,17 @@
         <v>110</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="3">
+      <c r="D87" s="2"/>
+      <c r="E87" s="3">
         <v>400000</v>
       </c>
-      <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3">
-        <v>0</v>
-      </c>
-      <c r="J87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
       <c r="K87" s="4">
         <f t="shared" si="1"/>
         <v>400000</v>
@@ -4236,9 +4359,7 @@
         <v>112</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="3">
-        <v>3000</v>
-      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="3">
         <v>3000</v>
       </c>
@@ -4254,7 +4375,9 @@
       <c r="I88" s="3">
         <v>3000</v>
       </c>
-      <c r="J88" s="3"/>
+      <c r="J88" s="3">
+        <v>3000</v>
+      </c>
       <c r="K88" s="4">
         <f t="shared" si="1"/>
         <v>18000</v>
@@ -4268,23 +4391,23 @@
         <v>114</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3">
+      <c r="D89" s="2"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3">
         <v>200000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>215000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>150000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>215000</v>
       </c>
       <c r="I89" s="3">
         <v>215000</v>
       </c>
-      <c r="J89" s="3"/>
+      <c r="J89" s="3">
+        <v>215000</v>
+      </c>
       <c r="K89" s="4">
         <f t="shared" si="1"/>
         <v>995000</v>
@@ -4298,11 +4421,9 @@
         <v>287</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="3"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="3">
-        <v>5000</v>
-      </c>
+      <c r="F90" s="3"/>
       <c r="G90" s="3">
         <v>5000</v>
       </c>
@@ -4312,7 +4433,9 @@
       <c r="I90" s="3">
         <v>5000</v>
       </c>
-      <c r="J90" s="3"/>
+      <c r="J90" s="3">
+        <v>5000</v>
+      </c>
       <c r="K90" s="4">
         <f t="shared" si="1"/>
         <v>20000</v>
@@ -4326,9 +4449,7 @@
         <v>116</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="3">
-        <v>1200000</v>
-      </c>
+      <c r="D91" s="2"/>
       <c r="E91" s="3">
         <v>1200000</v>
       </c>
@@ -4344,7 +4465,9 @@
       <c r="I91" s="3">
         <v>1200000</v>
       </c>
-      <c r="J91" s="3"/>
+      <c r="J91" s="3">
+        <v>1200000</v>
+      </c>
       <c r="K91" s="4">
         <f t="shared" si="1"/>
         <v>7200000</v>
@@ -4358,25 +4481,25 @@
         <v>118</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="3">
+      <c r="D92" s="2"/>
+      <c r="E92" s="3">
         <v>1450000</v>
       </c>
-      <c r="E92" s="3">
+      <c r="F92" s="3">
         <v>1600000</v>
       </c>
-      <c r="F92" s="3">
+      <c r="G92" s="3">
         <v>1510000</v>
       </c>
-      <c r="G92" s="3">
+      <c r="H92" s="3">
         <v>1570000</v>
-      </c>
-      <c r="H92" s="3">
-        <v>1730000</v>
       </c>
       <c r="I92" s="3">
         <v>1730000</v>
       </c>
-      <c r="J92" s="3"/>
+      <c r="J92" s="3">
+        <v>1730000</v>
+      </c>
       <c r="K92" s="4">
         <f t="shared" si="1"/>
         <v>9590000</v>
@@ -4390,25 +4513,25 @@
         <v>120</v>
       </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="3">
+      <c r="D93" s="2"/>
+      <c r="E93" s="3">
         <v>82000</v>
       </c>
-      <c r="E93" s="3">
+      <c r="F93" s="3">
         <v>94000</v>
       </c>
-      <c r="F93" s="3">
+      <c r="G93" s="3">
         <v>120000</v>
       </c>
-      <c r="G93" s="3">
+      <c r="H93" s="3">
         <v>190000</v>
-      </c>
-      <c r="H93" s="3">
-        <v>214000</v>
       </c>
       <c r="I93" s="3">
         <v>214000</v>
       </c>
-      <c r="J93" s="3"/>
+      <c r="J93" s="3">
+        <v>214000</v>
+      </c>
       <c r="K93" s="4">
         <f t="shared" si="1"/>
         <v>914000</v>
@@ -4422,9 +4545,7 @@
         <v>122</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="3">
-        <v>95000</v>
-      </c>
+      <c r="D94" s="2"/>
       <c r="E94" s="3">
         <v>95000</v>
       </c>
@@ -4440,7 +4561,9 @@
       <c r="I94" s="3">
         <v>95000</v>
       </c>
-      <c r="J94" s="3"/>
+      <c r="J94" s="3">
+        <v>95000</v>
+      </c>
       <c r="K94" s="4">
         <f t="shared" si="1"/>
         <v>570000</v>
@@ -4454,9 +4577,7 @@
         <v>124</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="3">
-        <v>0</v>
-      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="3">
         <v>0</v>
       </c>
@@ -4467,14 +4588,16 @@
         <v>0</v>
       </c>
       <c r="H95" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I95" s="3">
         <v>10000</v>
       </c>
-      <c r="J95" s="3"/>
+      <c r="J95" s="3">
+        <v>10000</v>
+      </c>
       <c r="K95" s="4">
-        <f t="shared" ref="K95:K140" si="2">SUM(D95:I95)</f>
+        <f t="shared" ref="K95:K140" si="2">SUM(E95:J95)</f>
         <v>20000</v>
       </c>
     </row>
@@ -4486,25 +4609,25 @@
         <v>126</v>
       </c>
       <c r="C96" s="2"/>
-      <c r="D96" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D96" s="2"/>
       <c r="E96" s="3">
         <v>50000</v>
       </c>
       <c r="F96" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G96" s="3">
         <v>115000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>125000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>175000</v>
       </c>
       <c r="I96" s="3">
         <v>175000</v>
       </c>
-      <c r="J96" s="3"/>
+      <c r="J96" s="3">
+        <v>175000</v>
+      </c>
       <c r="K96" s="4">
         <f t="shared" si="2"/>
         <v>690000</v>
@@ -4518,9 +4641,7 @@
         <v>128</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="3">
-        <v>5000</v>
-      </c>
+      <c r="D97" s="2"/>
       <c r="E97" s="3">
         <v>5000</v>
       </c>
@@ -4536,7 +4657,9 @@
       <c r="I97" s="3">
         <v>5000</v>
       </c>
-      <c r="J97" s="3"/>
+      <c r="J97" s="3">
+        <v>5000</v>
+      </c>
       <c r="K97" s="4">
         <f t="shared" si="2"/>
         <v>30000</v>
@@ -4550,11 +4673,9 @@
         <v>130</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="3"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3">
-        <v>5000</v>
-      </c>
+      <c r="F98" s="3"/>
       <c r="G98" s="3">
         <v>5000</v>
       </c>
@@ -4564,7 +4685,9 @@
       <c r="I98" s="3">
         <v>5000</v>
       </c>
-      <c r="J98" s="3"/>
+      <c r="J98" s="3">
+        <v>5000</v>
+      </c>
       <c r="K98" s="4">
         <f t="shared" si="2"/>
         <v>20000</v>
@@ -4578,14 +4701,12 @@
         <v>132</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="3">
+      <c r="D99" s="2"/>
+      <c r="E99" s="3">
         <v>5000</v>
       </c>
-      <c r="E99" s="3">
+      <c r="F99" s="3">
         <v>10000</v>
-      </c>
-      <c r="F99" s="3">
-        <v>20000</v>
       </c>
       <c r="G99" s="3">
         <v>20000</v>
@@ -4596,7 +4717,9 @@
       <c r="I99" s="3">
         <v>20000</v>
       </c>
-      <c r="J99" s="3"/>
+      <c r="J99" s="3">
+        <v>20000</v>
+      </c>
       <c r="K99" s="4">
         <f t="shared" si="2"/>
         <v>95000</v>
@@ -4610,19 +4733,19 @@
         <v>134</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="3"/>
+      <c r="D100" s="2"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="3">
-        <v>3000</v>
-      </c>
+      <c r="G100" s="3"/>
       <c r="H100" s="3">
         <v>3000</v>
       </c>
       <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="3"/>
+      <c r="J100" s="3">
+        <v>3000</v>
+      </c>
       <c r="K100" s="4">
         <f t="shared" si="2"/>
         <v>9000</v>
@@ -4636,12 +4759,10 @@
         <v>308</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3">
+      <c r="D101" s="2"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3">
         <v>3000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>5000</v>
       </c>
       <c r="G101" s="3">
         <v>5000</v>
@@ -4652,7 +4773,9 @@
       <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3"/>
+      <c r="J101" s="3">
+        <v>5000</v>
+      </c>
       <c r="K101" s="4">
         <f t="shared" si="2"/>
         <v>23000</v>
@@ -4666,9 +4789,7 @@
         <v>287</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="3">
-        <v>60000</v>
-      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="3">
         <v>60000</v>
       </c>
@@ -4676,7 +4797,7 @@
         <v>60000</v>
       </c>
       <c r="G102" s="3">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="H102" s="3">
         <v>120000</v>
@@ -4684,7 +4805,9 @@
       <c r="I102" s="3">
         <v>120000</v>
       </c>
-      <c r="J102" s="3"/>
+      <c r="J102" s="3">
+        <v>120000</v>
+      </c>
       <c r="K102" s="4">
         <f t="shared" si="2"/>
         <v>540000</v>
@@ -4698,21 +4821,21 @@
         <v>136</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="3"/>
+      <c r="D103" s="2"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="3">
+      <c r="F103" s="3"/>
+      <c r="G103" s="3">
         <v>10000</v>
       </c>
-      <c r="G103" s="3">
+      <c r="H103" s="3">
         <v>13000</v>
-      </c>
-      <c r="H103" s="3">
-        <v>18000</v>
       </c>
       <c r="I103" s="3">
         <v>18000</v>
       </c>
-      <c r="J103" s="3"/>
+      <c r="J103" s="3">
+        <v>18000</v>
+      </c>
       <c r="K103" s="4">
         <f t="shared" si="2"/>
         <v>59000</v>
@@ -4726,15 +4849,15 @@
         <v>138</v>
       </c>
       <c r="C104" s="2"/>
-      <c r="D104" s="3"/>
+      <c r="D104" s="2"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="3">
-        <v>0</v>
-      </c>
-      <c r="J104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
       <c r="K104" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4748,9 +4871,7 @@
         <v>287</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D105" s="2"/>
       <c r="E105" s="3">
         <v>50000</v>
       </c>
@@ -4766,7 +4887,9 @@
       <c r="I105" s="3">
         <v>50000</v>
       </c>
-      <c r="J105" s="3"/>
+      <c r="J105" s="3">
+        <v>50000</v>
+      </c>
       <c r="K105" s="4">
         <f t="shared" si="2"/>
         <v>300000</v>
@@ -4780,15 +4903,15 @@
         <v>343</v>
       </c>
       <c r="C106" s="2"/>
-      <c r="D106" s="3"/>
+      <c r="D106" s="2"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
-      <c r="I106" s="3">
-        <v>0</v>
-      </c>
-      <c r="J106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
       <c r="K106" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4802,14 +4925,12 @@
         <v>312</v>
       </c>
       <c r="C107" s="2"/>
-      <c r="D107" s="3">
-        <v>10000</v>
-      </c>
+      <c r="D107" s="2"/>
       <c r="E107" s="3">
         <v>10000</v>
       </c>
       <c r="F107" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G107" s="3">
         <v>20000</v>
@@ -4820,7 +4941,9 @@
       <c r="I107" s="3">
         <v>20000</v>
       </c>
-      <c r="J107" s="3"/>
+      <c r="J107" s="3">
+        <v>20000</v>
+      </c>
       <c r="K107" s="4">
         <f t="shared" si="2"/>
         <v>100000</v>
@@ -4834,25 +4957,25 @@
         <v>140</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="D108" s="3">
-        <v>90000</v>
-      </c>
+      <c r="D108" s="2"/>
       <c r="E108" s="3">
         <v>90000</v>
       </c>
       <c r="F108" s="3">
+        <v>90000</v>
+      </c>
+      <c r="G108" s="3">
         <v>880000</v>
       </c>
-      <c r="G108" s="3">
+      <c r="H108" s="3">
         <v>90000</v>
-      </c>
-      <c r="H108" s="3">
-        <v>190000</v>
       </c>
       <c r="I108" s="3">
         <v>190000</v>
       </c>
-      <c r="J108" s="3"/>
+      <c r="J108" s="3">
+        <v>190000</v>
+      </c>
       <c r="K108" s="4">
         <f t="shared" si="2"/>
         <v>1530000</v>
@@ -4866,25 +4989,25 @@
         <v>142</v>
       </c>
       <c r="C109" s="2"/>
-      <c r="D109" s="3">
-        <v>0</v>
-      </c>
+      <c r="D109" s="2"/>
       <c r="E109" s="3">
         <v>0</v>
       </c>
       <c r="F109" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G109" s="3">
         <v>20000</v>
       </c>
       <c r="H109" s="3">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="I109" s="3">
         <v>100000</v>
       </c>
-      <c r="J109" s="3"/>
+      <c r="J109" s="3">
+        <v>100000</v>
+      </c>
       <c r="K109" s="4">
         <f t="shared" si="2"/>
         <v>240000</v>
@@ -4898,15 +5021,15 @@
         <v>345</v>
       </c>
       <c r="C110" s="2"/>
-      <c r="D110" s="3"/>
+      <c r="D110" s="2"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
-      <c r="I110" s="3">
-        <v>0</v>
-      </c>
-      <c r="J110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
       <c r="K110" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4920,15 +5043,15 @@
         <v>347</v>
       </c>
       <c r="C111" s="2"/>
-      <c r="D111" s="3"/>
+      <c r="D111" s="2"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="3">
-        <v>0</v>
-      </c>
-      <c r="J111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
       <c r="K111" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4942,9 +5065,7 @@
         <v>144</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D112" s="2"/>
       <c r="E112" s="3">
         <v>50000</v>
       </c>
@@ -4960,7 +5081,9 @@
       <c r="I112" s="3">
         <v>50000</v>
       </c>
-      <c r="J112" s="3"/>
+      <c r="J112" s="3">
+        <v>50000</v>
+      </c>
       <c r="K112" s="4">
         <f t="shared" si="2"/>
         <v>300000</v>
@@ -4974,9 +5097,7 @@
         <v>145</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="3">
-        <v>30000</v>
-      </c>
+      <c r="D113" s="2"/>
       <c r="E113" s="3">
         <v>30000</v>
       </c>
@@ -4992,7 +5113,9 @@
       <c r="I113" s="3">
         <v>30000</v>
       </c>
-      <c r="J113" s="3"/>
+      <c r="J113" s="3">
+        <v>30000</v>
+      </c>
       <c r="K113" s="4">
         <f t="shared" si="2"/>
         <v>180000</v>
@@ -5006,9 +5129,7 @@
         <v>146</v>
       </c>
       <c r="C114" s="2"/>
-      <c r="D114" s="3">
-        <v>500000</v>
-      </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="3">
         <v>500000</v>
       </c>
@@ -5024,7 +5145,9 @@
       <c r="I114" s="3">
         <v>500000</v>
       </c>
-      <c r="J114" s="3"/>
+      <c r="J114" s="3">
+        <v>500000</v>
+      </c>
       <c r="K114" s="4">
         <f t="shared" si="2"/>
         <v>3000000</v>
@@ -5038,11 +5161,9 @@
         <v>148</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="3">
+      <c r="D115" s="2"/>
+      <c r="E115" s="3">
         <v>240000</v>
-      </c>
-      <c r="E115" s="3">
-        <v>245000</v>
       </c>
       <c r="F115" s="3">
         <v>245000</v>
@@ -5051,12 +5172,14 @@
         <v>245000</v>
       </c>
       <c r="H115" s="3">
-        <v>260000</v>
+        <v>245000</v>
       </c>
       <c r="I115" s="3">
         <v>260000</v>
       </c>
-      <c r="J115" s="3"/>
+      <c r="J115" s="3">
+        <v>260000</v>
+      </c>
       <c r="K115" s="4">
         <f t="shared" si="2"/>
         <v>1495000</v>
@@ -5070,9 +5193,7 @@
         <v>272</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="3">
-        <v>3000000</v>
-      </c>
+      <c r="D116" s="2"/>
       <c r="E116" s="3">
         <v>3000000</v>
       </c>
@@ -5088,7 +5209,9 @@
       <c r="I116" s="3">
         <v>3000000</v>
       </c>
-      <c r="J116" s="3"/>
+      <c r="J116" s="3">
+        <v>3000000</v>
+      </c>
       <c r="K116" s="4">
         <f t="shared" si="2"/>
         <v>18000000</v>
@@ -5102,14 +5225,12 @@
         <v>150</v>
       </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="3">
-        <v>0</v>
-      </c>
-      <c r="E117" s="9">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3">
-        <v>200000</v>
+      <c r="D117" s="2"/>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="9">
+        <v>0</v>
       </c>
       <c r="G117" s="3">
         <v>200000</v>
@@ -5120,7 +5241,9 @@
       <c r="I117" s="3">
         <v>200000</v>
       </c>
-      <c r="J117" s="3"/>
+      <c r="J117" s="3">
+        <v>200000</v>
+      </c>
       <c r="K117" s="4">
         <f t="shared" si="2"/>
         <v>800000</v>
@@ -5139,10 +5262,10 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="3">
-        <v>0</v>
-      </c>
-      <c r="J118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
       <c r="K118" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5156,17 +5279,17 @@
         <v>152</v>
       </c>
       <c r="C119" s="2"/>
-      <c r="D119" s="3">
+      <c r="D119" s="2"/>
+      <c r="E119" s="3">
         <v>65000</v>
       </c>
-      <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="3">
-        <v>0</v>
-      </c>
-      <c r="J119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
       <c r="K119" s="4">
         <f t="shared" si="2"/>
         <v>65000</v>
@@ -5180,13 +5303,11 @@
         <v>154</v>
       </c>
       <c r="C120" s="2"/>
-      <c r="D120" s="3"/>
+      <c r="D120" s="2"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="3">
+      <c r="F120" s="3"/>
+      <c r="G120" s="3">
         <v>200000</v>
-      </c>
-      <c r="G120" s="3">
-        <v>250000</v>
       </c>
       <c r="H120" s="3">
         <v>250000</v>
@@ -5194,7 +5315,9 @@
       <c r="I120" s="3">
         <v>250000</v>
       </c>
-      <c r="J120" s="3"/>
+      <c r="J120" s="3">
+        <v>250000</v>
+      </c>
       <c r="K120" s="4">
         <f t="shared" si="2"/>
         <v>950000</v>
@@ -5208,11 +5331,9 @@
         <v>156</v>
       </c>
       <c r="C121" s="2"/>
-      <c r="D121" s="3"/>
+      <c r="D121" s="2"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="3">
-        <v>2000000</v>
-      </c>
+      <c r="F121" s="3"/>
       <c r="G121" s="3">
         <v>2000000</v>
       </c>
@@ -5222,7 +5343,9 @@
       <c r="I121" s="3">
         <v>2000000</v>
       </c>
-      <c r="J121" s="3"/>
+      <c r="J121" s="3">
+        <v>2000000</v>
+      </c>
       <c r="K121" s="4">
         <f t="shared" si="2"/>
         <v>8000000</v>
@@ -5236,7 +5359,7 @@
         <v>158</v>
       </c>
       <c r="C122" s="2"/>
-      <c r="D122" s="3"/>
+      <c r="D122" s="2"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -5256,9 +5379,7 @@
         <v>160</v>
       </c>
       <c r="C123" s="2"/>
-      <c r="D123" s="3">
-        <v>20000</v>
-      </c>
+      <c r="D123" s="2"/>
       <c r="E123" s="3">
         <v>20000</v>
       </c>
@@ -5274,7 +5395,9 @@
       <c r="I123" s="3">
         <v>20000</v>
       </c>
-      <c r="J123" s="3"/>
+      <c r="J123" s="3">
+        <v>20000</v>
+      </c>
       <c r="K123" s="4">
         <f t="shared" si="2"/>
         <v>120000</v>
@@ -5288,14 +5411,12 @@
         <v>162</v>
       </c>
       <c r="C124" s="2"/>
-      <c r="D124" s="3">
-        <v>10000</v>
-      </c>
+      <c r="D124" s="2"/>
       <c r="E124" s="3">
         <v>10000</v>
       </c>
       <c r="F124" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G124" s="3">
         <v>20000</v>
@@ -5306,7 +5427,9 @@
       <c r="I124" s="3">
         <v>20000</v>
       </c>
-      <c r="J124" s="3"/>
+      <c r="J124" s="3">
+        <v>20000</v>
+      </c>
       <c r="K124" s="4">
         <f t="shared" si="2"/>
         <v>100000</v>
@@ -5320,17 +5443,15 @@
         <v>163</v>
       </c>
       <c r="C125" s="2"/>
-      <c r="D125" s="3">
+      <c r="D125" s="2"/>
+      <c r="E125" s="3">
         <v>151320</v>
-      </c>
-      <c r="E125" s="3">
-        <v>174800</v>
       </c>
       <c r="F125" s="3">
         <v>174800</v>
       </c>
       <c r="G125" s="3">
-        <v>1000000</v>
+        <v>174800</v>
       </c>
       <c r="H125" s="3">
         <v>1000000</v>
@@ -5338,7 +5459,9 @@
       <c r="I125" s="3">
         <v>1000000</v>
       </c>
-      <c r="J125" s="3"/>
+      <c r="J125" s="3">
+        <v>1000000</v>
+      </c>
       <c r="K125" s="4">
         <f t="shared" si="2"/>
         <v>3500920</v>
@@ -5352,17 +5475,15 @@
         <v>165</v>
       </c>
       <c r="C126" s="2"/>
-      <c r="D126" s="3">
+      <c r="D126" s="2"/>
+      <c r="E126" s="3">
         <v>21150</v>
-      </c>
-      <c r="E126" s="3">
-        <v>23500</v>
       </c>
       <c r="F126" s="3">
         <v>23500</v>
       </c>
       <c r="G126" s="3">
-        <v>30000</v>
+        <v>23500</v>
       </c>
       <c r="H126" s="3">
         <v>30000</v>
@@ -5370,7 +5491,9 @@
       <c r="I126" s="3">
         <v>30000</v>
       </c>
-      <c r="J126" s="3"/>
+      <c r="J126" s="3">
+        <v>30000</v>
+      </c>
       <c r="K126" s="4">
         <f t="shared" si="2"/>
         <v>158150</v>
@@ -5384,21 +5507,21 @@
         <v>167</v>
       </c>
       <c r="C127" s="2"/>
-      <c r="D127" s="3">
+      <c r="D127" s="2"/>
+      <c r="E127" s="3">
         <v>4750</v>
-      </c>
-      <c r="E127" s="3">
-        <v>3750</v>
       </c>
       <c r="F127" s="3">
         <v>3750</v>
       </c>
-      <c r="G127" s="3"/>
+      <c r="G127" s="3">
+        <v>3750</v>
+      </c>
       <c r="H127" s="3"/>
-      <c r="I127" s="3">
-        <v>0</v>
-      </c>
-      <c r="J127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3">
+        <v>0</v>
+      </c>
       <c r="K127" s="4">
         <f t="shared" si="2"/>
         <v>12250</v>
@@ -5412,25 +5535,25 @@
         <v>169</v>
       </c>
       <c r="C128" s="2"/>
-      <c r="D128" s="3">
+      <c r="D128" s="2"/>
+      <c r="E128" s="3">
         <v>220000</v>
       </c>
-      <c r="E128" s="3">
+      <c r="F128" s="3">
         <v>85000</v>
       </c>
-      <c r="F128" s="3">
+      <c r="G128" s="3">
         <v>213000</v>
       </c>
-      <c r="G128" s="3">
+      <c r="H128" s="3">
         <v>75000</v>
-      </c>
-      <c r="H128" s="3">
-        <v>213000</v>
       </c>
       <c r="I128" s="3">
         <v>213000</v>
       </c>
-      <c r="J128" s="3"/>
+      <c r="J128" s="3">
+        <v>213000</v>
+      </c>
       <c r="K128" s="4">
         <f t="shared" si="2"/>
         <v>1019000</v>
@@ -5444,10 +5567,8 @@
         <v>170</v>
       </c>
       <c r="C129" s="2"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3">
-        <v>250000</v>
-      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="3"/>
       <c r="F129" s="3">
         <v>250000</v>
       </c>
@@ -5460,7 +5581,9 @@
       <c r="I129" s="3">
         <v>250000</v>
       </c>
-      <c r="J129" s="3"/>
+      <c r="J129" s="3">
+        <v>250000</v>
+      </c>
       <c r="K129" s="4">
         <f t="shared" si="2"/>
         <v>1250000</v>
@@ -5474,25 +5597,25 @@
         <v>173</v>
       </c>
       <c r="C130" s="2"/>
-      <c r="D130" s="3">
+      <c r="D130" s="2"/>
+      <c r="E130" s="3">
         <v>75000</v>
       </c>
-      <c r="E130" s="3">
+      <c r="F130" s="3">
         <v>30000</v>
       </c>
-      <c r="F130" s="3">
+      <c r="G130" s="3">
         <v>80000</v>
       </c>
-      <c r="G130" s="3">
+      <c r="H130" s="3">
         <v>30000</v>
-      </c>
-      <c r="H130" s="3">
-        <v>80000</v>
       </c>
       <c r="I130" s="3">
         <v>80000</v>
       </c>
-      <c r="J130" s="3"/>
+      <c r="J130" s="3">
+        <v>80000</v>
+      </c>
       <c r="K130" s="4">
         <f t="shared" si="2"/>
         <v>375000</v>
@@ -5506,14 +5629,12 @@
         <v>175</v>
       </c>
       <c r="C131" s="2"/>
-      <c r="D131" s="3">
+      <c r="D131" s="2"/>
+      <c r="E131" s="3">
         <v>20000</v>
       </c>
-      <c r="E131" s="3">
+      <c r="F131" s="3">
         <v>58400</v>
-      </c>
-      <c r="F131" s="3">
-        <v>64400</v>
       </c>
       <c r="G131" s="3">
         <v>64400</v>
@@ -5524,7 +5645,9 @@
       <c r="I131" s="3">
         <v>64400</v>
       </c>
-      <c r="J131" s="3"/>
+      <c r="J131" s="3">
+        <v>64400</v>
+      </c>
       <c r="K131" s="4">
         <f t="shared" si="2"/>
         <v>336000</v>
@@ -5538,9 +5661,7 @@
         <v>177</v>
       </c>
       <c r="C132" s="2"/>
-      <c r="D132" s="3">
-        <v>2000</v>
-      </c>
+      <c r="D132" s="2"/>
       <c r="E132" s="3">
         <v>2000</v>
       </c>
@@ -5556,7 +5677,9 @@
       <c r="I132" s="3">
         <v>2000</v>
       </c>
-      <c r="J132" s="3"/>
+      <c r="J132" s="3">
+        <v>2000</v>
+      </c>
       <c r="K132" s="4">
         <f t="shared" si="2"/>
         <v>12000</v>
@@ -5570,17 +5693,15 @@
         <v>179</v>
       </c>
       <c r="C133" s="2"/>
-      <c r="D133" s="3">
+      <c r="D133" s="2"/>
+      <c r="E133" s="3">
         <v>7000</v>
       </c>
-      <c r="E133" s="3">
+      <c r="F133" s="3">
         <v>27000</v>
       </c>
-      <c r="F133" s="3">
+      <c r="G133" s="3">
         <v>18000</v>
-      </c>
-      <c r="G133" s="3">
-        <v>24000</v>
       </c>
       <c r="H133" s="3">
         <v>24000</v>
@@ -5588,7 +5709,9 @@
       <c r="I133" s="3">
         <v>24000</v>
       </c>
-      <c r="J133" s="3"/>
+      <c r="J133" s="3">
+        <v>24000</v>
+      </c>
       <c r="K133" s="4">
         <f t="shared" si="2"/>
         <v>124000</v>
@@ -5602,11 +5725,9 @@
         <v>268</v>
       </c>
       <c r="C134" s="2"/>
-      <c r="D134" s="3">
+      <c r="D134" s="2"/>
+      <c r="E134" s="3">
         <v>400000</v>
-      </c>
-      <c r="E134" s="3">
-        <v>750000</v>
       </c>
       <c r="F134" s="3">
         <v>750000</v>
@@ -5620,7 +5741,9 @@
       <c r="I134" s="3">
         <v>750000</v>
       </c>
-      <c r="J134" s="3"/>
+      <c r="J134" s="3">
+        <v>750000</v>
+      </c>
       <c r="K134" s="4">
         <f t="shared" si="2"/>
         <v>4150000</v>
@@ -5634,21 +5757,21 @@
         <v>181</v>
       </c>
       <c r="C135" s="2"/>
-      <c r="D135" s="3">
+      <c r="D135" s="2"/>
+      <c r="E135" s="3">
         <v>50000</v>
       </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3">
-        <v>50000</v>
-      </c>
+      <c r="F135" s="3"/>
       <c r="G135" s="3">
         <v>50000</v>
       </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3">
-        <v>0</v>
-      </c>
-      <c r="J135" s="3"/>
+      <c r="H135" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3">
+        <v>0</v>
+      </c>
       <c r="K135" s="4">
         <f t="shared" si="2"/>
         <v>150000</v>
@@ -5662,17 +5785,17 @@
         <v>274</v>
       </c>
       <c r="C136" s="2"/>
-      <c r="D136" s="3"/>
+      <c r="D136" s="2"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="3">
-        <v>5000</v>
-      </c>
+      <c r="H136" s="3"/>
       <c r="I136" s="3">
         <v>5000</v>
       </c>
-      <c r="J136" s="3"/>
+      <c r="J136" s="3">
+        <v>5000</v>
+      </c>
       <c r="K136" s="4">
         <f t="shared" si="2"/>
         <v>10000</v>
@@ -5686,9 +5809,7 @@
         <v>183</v>
       </c>
       <c r="C137" s="2"/>
-      <c r="D137" s="3">
-        <v>200000</v>
-      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="3">
         <v>200000</v>
       </c>
@@ -5704,7 +5825,9 @@
       <c r="I137" s="3">
         <v>200000</v>
       </c>
-      <c r="J137" s="3"/>
+      <c r="J137" s="3">
+        <v>200000</v>
+      </c>
       <c r="K137" s="4">
         <f t="shared" si="2"/>
         <v>1200000</v>
@@ -5718,25 +5841,25 @@
         <v>185</v>
       </c>
       <c r="C138" s="2"/>
-      <c r="D138" s="3">
+      <c r="D138" s="2"/>
+      <c r="E138" s="3">
         <v>210000</v>
       </c>
-      <c r="E138" s="3">
+      <c r="F138" s="3">
         <v>214000</v>
-      </c>
-      <c r="F138" s="3">
-        <v>219000</v>
       </c>
       <c r="G138" s="3">
         <v>219000</v>
       </c>
       <c r="H138" s="3">
-        <v>229000</v>
+        <v>219000</v>
       </c>
       <c r="I138" s="3">
         <v>229000</v>
       </c>
-      <c r="J138" s="3"/>
+      <c r="J138" s="3">
+        <v>229000</v>
+      </c>
       <c r="K138" s="4">
         <f t="shared" si="2"/>
         <v>1320000</v>
@@ -5750,25 +5873,25 @@
         <v>187</v>
       </c>
       <c r="C139" s="2"/>
-      <c r="D139" s="3">
+      <c r="D139" s="2"/>
+      <c r="E139" s="3">
         <v>356000</v>
       </c>
-      <c r="E139" s="3">
+      <c r="F139" s="3">
         <v>366000</v>
       </c>
-      <c r="F139" s="3">
+      <c r="G139" s="3">
         <v>358000</v>
       </c>
-      <c r="G139" s="3">
+      <c r="H139" s="3">
         <v>368000</v>
       </c>
-      <c r="H139" s="3">
+      <c r="I139" s="3">
         <v>358000</v>
       </c>
-      <c r="I139" s="3">
+      <c r="J139" s="3">
         <v>368000</v>
       </c>
-      <c r="J139" s="3"/>
       <c r="K139" s="4">
         <f t="shared" si="2"/>
         <v>2174000</v>
@@ -5782,9 +5905,7 @@
         <v>188</v>
       </c>
       <c r="C140" s="2"/>
-      <c r="D140" s="3">
-        <v>600000</v>
-      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="3">
         <v>600000</v>
       </c>
@@ -5800,7 +5921,9 @@
       <c r="I140" s="3">
         <v>600000</v>
       </c>
-      <c r="J140" s="3"/>
+      <c r="J140" s="3">
+        <v>600000</v>
+      </c>
       <c r="K140" s="4">
         <f t="shared" si="2"/>
         <v>3600000</v>
@@ -5814,14 +5937,12 @@
         <v>190</v>
       </c>
       <c r="C141" s="2"/>
-      <c r="D141" s="3">
+      <c r="D141" s="2"/>
+      <c r="E141" s="3">
         <v>262500</v>
       </c>
-      <c r="E141" s="3">
+      <c r="F141" s="3">
         <v>312500</v>
-      </c>
-      <c r="F141" s="3">
-        <v>315000</v>
       </c>
       <c r="G141" s="3">
         <v>315000</v>
@@ -5832,9 +5953,11 @@
       <c r="I141" s="3">
         <v>315000</v>
       </c>
-      <c r="J141" s="3"/>
+      <c r="J141" s="3">
+        <v>315000</v>
+      </c>
       <c r="K141" s="4">
-        <f t="shared" ref="K141:K202" si="3">SUM(D141:I141)</f>
+        <f t="shared" ref="K141:K202" si="3">SUM(E141:J141)</f>
         <v>1835000</v>
       </c>
     </row>
@@ -5846,9 +5969,7 @@
         <v>314</v>
       </c>
       <c r="C142" s="2"/>
-      <c r="D142" s="3">
-        <v>400000</v>
-      </c>
+      <c r="D142" s="2"/>
       <c r="E142" s="3">
         <v>400000</v>
       </c>
@@ -5856,7 +5977,7 @@
         <v>400000</v>
       </c>
       <c r="G142" s="3">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="H142" s="3">
         <v>300000</v>
@@ -5864,7 +5985,9 @@
       <c r="I142" s="3">
         <v>300000</v>
       </c>
-      <c r="J142" s="3"/>
+      <c r="J142" s="3">
+        <v>300000</v>
+      </c>
       <c r="K142" s="4">
         <f t="shared" si="3"/>
         <v>2100000</v>
@@ -5878,9 +6001,7 @@
         <v>192</v>
       </c>
       <c r="C143" s="2"/>
-      <c r="D143" s="3">
-        <v>1000000</v>
-      </c>
+      <c r="D143" s="2"/>
       <c r="E143" s="3">
         <v>1000000</v>
       </c>
@@ -5896,7 +6017,9 @@
       <c r="I143" s="3">
         <v>1000000</v>
       </c>
-      <c r="J143" s="3"/>
+      <c r="J143" s="3">
+        <v>1000000</v>
+      </c>
       <c r="K143" s="4">
         <f t="shared" si="3"/>
         <v>6000000</v>
@@ -5910,9 +6033,7 @@
         <v>194</v>
       </c>
       <c r="C144" s="2"/>
-      <c r="D144" s="3">
-        <v>1000000</v>
-      </c>
+      <c r="D144" s="2"/>
       <c r="E144" s="3">
         <v>1000000</v>
       </c>
@@ -5928,7 +6049,9 @@
       <c r="I144" s="3">
         <v>1000000</v>
       </c>
-      <c r="J144" s="3"/>
+      <c r="J144" s="3">
+        <v>1000000</v>
+      </c>
       <c r="K144" s="4">
         <f t="shared" si="3"/>
         <v>6000000</v>
@@ -5942,9 +6065,7 @@
         <v>283</v>
       </c>
       <c r="C145" s="2"/>
-      <c r="D145" s="3">
-        <v>30000</v>
-      </c>
+      <c r="D145" s="2"/>
       <c r="E145" s="3">
         <v>30000</v>
       </c>
@@ -5960,7 +6081,9 @@
       <c r="I145" s="3">
         <v>30000</v>
       </c>
-      <c r="J145" s="3"/>
+      <c r="J145" s="3">
+        <v>30000</v>
+      </c>
       <c r="K145" s="4">
         <f t="shared" si="3"/>
         <v>180000</v>
@@ -5974,9 +6097,7 @@
         <v>195</v>
       </c>
       <c r="C146" s="2"/>
-      <c r="D146" s="3">
-        <v>14880</v>
-      </c>
+      <c r="D146" s="2"/>
       <c r="E146" s="3">
         <v>14880</v>
       </c>
@@ -5992,7 +6113,9 @@
       <c r="I146" s="3">
         <v>14880</v>
       </c>
-      <c r="J146" s="3"/>
+      <c r="J146" s="3">
+        <v>14880</v>
+      </c>
       <c r="K146" s="4">
         <f t="shared" si="3"/>
         <v>89280</v>
@@ -6006,9 +6129,7 @@
         <v>196</v>
       </c>
       <c r="C147" s="2"/>
-      <c r="D147" s="3">
-        <v>13000</v>
-      </c>
+      <c r="D147" s="2"/>
       <c r="E147" s="3">
         <v>13000</v>
       </c>
@@ -6024,7 +6145,9 @@
       <c r="I147" s="3">
         <v>13000</v>
       </c>
-      <c r="J147" s="3"/>
+      <c r="J147" s="3">
+        <v>13000</v>
+      </c>
       <c r="K147" s="4">
         <f t="shared" si="3"/>
         <v>78000</v>
@@ -6038,15 +6161,15 @@
         <v>350</v>
       </c>
       <c r="C148" s="2"/>
-      <c r="D148" s="3"/>
+      <c r="D148" s="2"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
-      <c r="I148" s="3">
-        <v>0</v>
-      </c>
-      <c r="J148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3">
+        <v>0</v>
+      </c>
       <c r="K148" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6060,9 +6183,7 @@
         <v>285</v>
       </c>
       <c r="C149" s="1"/>
-      <c r="D149" s="1">
-        <v>160000</v>
-      </c>
+      <c r="D149" s="1"/>
       <c r="E149" s="1">
         <v>160000</v>
       </c>
@@ -6078,7 +6199,9 @@
       <c r="I149" s="1">
         <v>160000</v>
       </c>
-      <c r="J149" s="1"/>
+      <c r="J149" s="1">
+        <v>160000</v>
+      </c>
       <c r="K149" s="4">
         <f t="shared" si="3"/>
         <v>960000</v>
@@ -6092,11 +6215,9 @@
         <v>276</v>
       </c>
       <c r="C150" s="1"/>
-      <c r="D150" s="1">
+      <c r="D150" s="1"/>
+      <c r="E150" s="1">
         <v>20000</v>
-      </c>
-      <c r="E150" s="1">
-        <v>30000</v>
       </c>
       <c r="F150" s="1">
         <v>30000</v>
@@ -6110,7 +6231,9 @@
       <c r="I150" s="1">
         <v>30000</v>
       </c>
-      <c r="J150" s="1"/>
+      <c r="J150" s="1">
+        <v>30000</v>
+      </c>
       <c r="K150" s="4">
         <f t="shared" si="3"/>
         <v>170000</v>
@@ -6124,11 +6247,9 @@
         <v>277</v>
       </c>
       <c r="C151" s="1"/>
-      <c r="D151" s="1">
+      <c r="D151" s="1"/>
+      <c r="E151" s="1">
         <v>20000</v>
-      </c>
-      <c r="E151" s="1">
-        <v>30000</v>
       </c>
       <c r="F151" s="1">
         <v>30000</v>
@@ -6142,7 +6263,9 @@
       <c r="I151" s="1">
         <v>30000</v>
       </c>
-      <c r="J151" s="1"/>
+      <c r="J151" s="1">
+        <v>30000</v>
+      </c>
       <c r="K151" s="4">
         <f t="shared" si="3"/>
         <v>170000</v>
@@ -6156,9 +6279,7 @@
         <v>198</v>
       </c>
       <c r="C152" s="1"/>
-      <c r="D152" s="1">
-        <v>0</v>
-      </c>
+      <c r="D152" s="1"/>
       <c r="E152" s="1">
         <v>0</v>
       </c>
@@ -6169,12 +6290,14 @@
         <v>0</v>
       </c>
       <c r="H152" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I152" s="1">
         <v>50000</v>
       </c>
-      <c r="J152" s="1"/>
+      <c r="J152" s="1">
+        <v>50000</v>
+      </c>
       <c r="K152" s="4">
         <f t="shared" si="3"/>
         <v>100000</v>
@@ -6188,25 +6311,25 @@
         <v>200</v>
       </c>
       <c r="C153" s="1"/>
-      <c r="D153" s="1">
+      <c r="D153" s="1"/>
+      <c r="E153" s="1">
         <v>3000</v>
       </c>
-      <c r="E153" s="1">
-        <v>0</v>
-      </c>
       <c r="F153" s="1">
+        <v>0</v>
+      </c>
+      <c r="G153" s="1">
         <v>23000</v>
       </c>
-      <c r="G153" s="1">
+      <c r="H153" s="1">
         <v>20000</v>
-      </c>
-      <c r="H153" s="1">
-        <v>23000</v>
       </c>
       <c r="I153" s="1">
         <v>23000</v>
       </c>
-      <c r="J153" s="1"/>
+      <c r="J153" s="1">
+        <v>23000</v>
+      </c>
       <c r="K153" s="4">
         <f t="shared" si="3"/>
         <v>92000</v>
@@ -6220,25 +6343,25 @@
         <v>202</v>
       </c>
       <c r="C154" s="1"/>
-      <c r="D154" s="1">
+      <c r="D154" s="1"/>
+      <c r="E154" s="1">
         <v>31000</v>
       </c>
-      <c r="E154" s="1">
+      <c r="F154" s="1">
         <v>31500</v>
       </c>
-      <c r="F154" s="1">
+      <c r="G154" s="1">
         <v>31000</v>
       </c>
-      <c r="G154" s="1">
+      <c r="H154" s="1">
         <v>59500</v>
-      </c>
-      <c r="H154" s="1">
-        <v>59000</v>
       </c>
       <c r="I154" s="1">
         <v>59000</v>
       </c>
-      <c r="J154" s="1"/>
+      <c r="J154" s="1">
+        <v>59000</v>
+      </c>
       <c r="K154" s="4">
         <f t="shared" si="3"/>
         <v>271000</v>
@@ -6252,25 +6375,25 @@
         <v>204</v>
       </c>
       <c r="C155" s="1"/>
-      <c r="D155" s="1">
+      <c r="D155" s="1"/>
+      <c r="E155" s="1">
         <v>33000</v>
       </c>
-      <c r="E155" s="1">
+      <c r="F155" s="1">
         <v>37000</v>
       </c>
-      <c r="F155" s="1">
+      <c r="G155" s="1">
         <v>48000</v>
       </c>
-      <c r="G155" s="1">
+      <c r="H155" s="1">
         <v>58000</v>
-      </c>
-      <c r="H155" s="1">
-        <v>63000</v>
       </c>
       <c r="I155" s="1">
         <v>63000</v>
       </c>
-      <c r="J155" s="1"/>
+      <c r="J155" s="1">
+        <v>63000</v>
+      </c>
       <c r="K155" s="4">
         <f t="shared" si="3"/>
         <v>302000</v>
@@ -6284,9 +6407,7 @@
         <v>206</v>
       </c>
       <c r="C156" s="1"/>
-      <c r="D156" s="1">
-        <v>3000</v>
-      </c>
+      <c r="D156" s="1"/>
       <c r="E156" s="1">
         <v>3000</v>
       </c>
@@ -6302,7 +6423,9 @@
       <c r="I156" s="1">
         <v>3000</v>
       </c>
-      <c r="J156" s="1"/>
+      <c r="J156" s="1">
+        <v>3000</v>
+      </c>
       <c r="K156" s="4">
         <f t="shared" si="3"/>
         <v>18000</v>
@@ -6316,17 +6439,15 @@
         <v>208</v>
       </c>
       <c r="C157" s="1"/>
-      <c r="D157" s="1">
+      <c r="D157" s="1"/>
+      <c r="E157" s="1">
         <v>12000</v>
-      </c>
-      <c r="E157" s="1">
-        <v>7000</v>
       </c>
       <c r="F157" s="1">
         <v>7000</v>
       </c>
       <c r="G157" s="1">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="H157" s="1">
         <v>18000</v>
@@ -6334,7 +6455,9 @@
       <c r="I157" s="1">
         <v>18000</v>
       </c>
-      <c r="J157" s="1"/>
+      <c r="J157" s="1">
+        <v>18000</v>
+      </c>
       <c r="K157" s="4">
         <f t="shared" si="3"/>
         <v>80000</v>
@@ -6348,17 +6471,15 @@
         <v>210</v>
       </c>
       <c r="C158" s="1"/>
-      <c r="D158" s="1">
+      <c r="D158" s="1"/>
+      <c r="E158" s="1">
         <v>51000</v>
       </c>
-      <c r="E158" s="1">
+      <c r="F158" s="1">
         <v>56000</v>
       </c>
-      <c r="F158" s="1">
+      <c r="G158" s="1">
         <v>71000</v>
-      </c>
-      <c r="G158" s="1">
-        <v>91000</v>
       </c>
       <c r="H158" s="1">
         <v>91000</v>
@@ -6366,7 +6487,9 @@
       <c r="I158" s="1">
         <v>91000</v>
       </c>
-      <c r="J158" s="1"/>
+      <c r="J158" s="1">
+        <v>91000</v>
+      </c>
       <c r="K158" s="4">
         <f t="shared" si="3"/>
         <v>451000</v>
@@ -6380,9 +6503,7 @@
         <v>352</v>
       </c>
       <c r="C159" s="1"/>
-      <c r="D159" s="1">
-        <v>0</v>
-      </c>
+      <c r="D159" s="1"/>
       <c r="E159" s="1">
         <v>0</v>
       </c>
@@ -6398,7 +6519,9 @@
       <c r="I159" s="1">
         <v>0</v>
       </c>
-      <c r="J159" s="1"/>
+      <c r="J159" s="1">
+        <v>0</v>
+      </c>
       <c r="K159" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6412,9 +6535,7 @@
         <v>212</v>
       </c>
       <c r="C160" s="1"/>
-      <c r="D160" s="1">
-        <v>100000</v>
-      </c>
+      <c r="D160" s="1"/>
       <c r="E160" s="1">
         <v>100000</v>
       </c>
@@ -6430,7 +6551,9 @@
       <c r="I160" s="1">
         <v>100000</v>
       </c>
-      <c r="J160" s="1"/>
+      <c r="J160" s="1">
+        <v>100000</v>
+      </c>
       <c r="K160" s="4">
         <f t="shared" si="3"/>
         <v>600000</v>
@@ -6444,9 +6567,7 @@
         <v>315</v>
       </c>
       <c r="C161" s="1"/>
-      <c r="D161" s="1">
-        <v>160000</v>
-      </c>
+      <c r="D161" s="1"/>
       <c r="E161" s="1">
         <v>160000</v>
       </c>
@@ -6462,7 +6583,9 @@
       <c r="I161" s="1">
         <v>160000</v>
       </c>
-      <c r="J161" s="1"/>
+      <c r="J161" s="1">
+        <v>160000</v>
+      </c>
       <c r="K161" s="4">
         <f t="shared" si="3"/>
         <v>960000</v>
@@ -6476,9 +6599,7 @@
         <v>316</v>
       </c>
       <c r="C162" s="1"/>
-      <c r="D162" s="1">
-        <v>40000</v>
-      </c>
+      <c r="D162" s="1"/>
       <c r="E162" s="1">
         <v>40000</v>
       </c>
@@ -6494,7 +6615,9 @@
       <c r="I162" s="1">
         <v>40000</v>
       </c>
-      <c r="J162" s="1"/>
+      <c r="J162" s="1">
+        <v>40000</v>
+      </c>
       <c r="K162" s="4">
         <f t="shared" si="3"/>
         <v>240000</v>
@@ -6508,9 +6631,7 @@
         <v>213</v>
       </c>
       <c r="C163" s="1"/>
-      <c r="D163" s="1">
-        <v>92000</v>
-      </c>
+      <c r="D163" s="1"/>
       <c r="E163" s="1">
         <v>92000</v>
       </c>
@@ -6526,7 +6647,9 @@
       <c r="I163" s="1">
         <v>92000</v>
       </c>
-      <c r="J163" s="1"/>
+      <c r="J163" s="1">
+        <v>92000</v>
+      </c>
       <c r="K163" s="4">
         <f t="shared" si="3"/>
         <v>552000</v>
@@ -6540,9 +6663,7 @@
         <v>215</v>
       </c>
       <c r="C164" s="1"/>
-      <c r="D164" s="1">
-        <v>1000</v>
-      </c>
+      <c r="D164" s="1"/>
       <c r="E164" s="1">
         <v>1000</v>
       </c>
@@ -6558,7 +6679,9 @@
       <c r="I164" s="1">
         <v>1000</v>
       </c>
-      <c r="J164" s="1"/>
+      <c r="J164" s="1">
+        <v>1000</v>
+      </c>
       <c r="K164" s="4">
         <f t="shared" si="3"/>
         <v>6000</v>
@@ -6572,14 +6695,12 @@
         <v>217</v>
       </c>
       <c r="C165" s="1"/>
-      <c r="D165" s="1">
+      <c r="D165" s="1"/>
+      <c r="E165" s="1">
         <v>47000</v>
       </c>
-      <c r="E165" s="1">
+      <c r="F165" s="1">
         <v>37000</v>
-      </c>
-      <c r="F165" s="1">
-        <v>42000</v>
       </c>
       <c r="G165" s="1">
         <v>42000</v>
@@ -6590,7 +6711,9 @@
       <c r="I165" s="1">
         <v>42000</v>
       </c>
-      <c r="J165" s="1"/>
+      <c r="J165" s="1">
+        <v>42000</v>
+      </c>
       <c r="K165" s="4">
         <f t="shared" si="3"/>
         <v>252000</v>
@@ -6604,14 +6727,12 @@
         <v>219</v>
       </c>
       <c r="C166" s="1"/>
-      <c r="D166" s="1">
+      <c r="D166" s="1"/>
+      <c r="E166" s="1">
         <v>404500</v>
       </c>
-      <c r="E166" s="1">
+      <c r="F166" s="1">
         <v>284500</v>
-      </c>
-      <c r="F166" s="1">
-        <v>294500</v>
       </c>
       <c r="G166" s="1">
         <v>294500</v>
@@ -6622,7 +6743,9 @@
       <c r="I166" s="1">
         <v>294500</v>
       </c>
-      <c r="J166" s="1"/>
+      <c r="J166" s="1">
+        <v>294500</v>
+      </c>
       <c r="K166" s="4">
         <f t="shared" si="3"/>
         <v>1867000</v>
@@ -6641,10 +6764,10 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
-      <c r="I167" s="1">
-        <v>0</v>
-      </c>
-      <c r="J167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1">
+        <v>0</v>
+      </c>
       <c r="K167" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6658,11 +6781,9 @@
         <v>220</v>
       </c>
       <c r="C168" s="1"/>
-      <c r="D168" s="1">
+      <c r="D168" s="1"/>
+      <c r="E168" s="1">
         <v>110000</v>
-      </c>
-      <c r="E168" s="1">
-        <v>100000</v>
       </c>
       <c r="F168" s="1">
         <v>100000</v>
@@ -6676,7 +6797,9 @@
       <c r="I168" s="1">
         <v>100000</v>
       </c>
-      <c r="J168" s="1"/>
+      <c r="J168" s="1">
+        <v>100000</v>
+      </c>
       <c r="K168" s="4">
         <f t="shared" si="3"/>
         <v>610000</v>
@@ -6692,9 +6815,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="1">
-        <v>20000</v>
-      </c>
+      <c r="F169" s="1"/>
       <c r="G169" s="1">
         <v>20000</v>
       </c>
@@ -6704,7 +6825,9 @@
       <c r="I169" s="1">
         <v>20000</v>
       </c>
-      <c r="J169" s="1"/>
+      <c r="J169" s="1">
+        <v>20000</v>
+      </c>
       <c r="K169" s="4">
         <f t="shared" si="3"/>
         <v>80000</v>
@@ -6718,25 +6841,25 @@
         <v>223</v>
       </c>
       <c r="C170" s="1"/>
-      <c r="D170" s="1">
+      <c r="D170" s="1"/>
+      <c r="E170" s="1">
         <v>833570</v>
       </c>
-      <c r="E170" s="1">
+      <c r="F170" s="1">
         <v>857970</v>
       </c>
-      <c r="F170" s="1">
+      <c r="G170" s="1">
         <v>870370</v>
       </c>
-      <c r="G170" s="1">
+      <c r="H170" s="1">
         <v>878850</v>
-      </c>
-      <c r="H170" s="1">
-        <v>877330</v>
       </c>
       <c r="I170" s="1">
         <v>877330</v>
       </c>
-      <c r="J170" s="1"/>
+      <c r="J170" s="1">
+        <v>877330</v>
+      </c>
       <c r="K170" s="4">
         <f t="shared" si="3"/>
         <v>5195420</v>
@@ -6750,17 +6873,15 @@
         <v>317</v>
       </c>
       <c r="C171" s="1"/>
-      <c r="D171" s="1">
-        <v>506000</v>
-      </c>
+      <c r="D171" s="1"/>
       <c r="E171" s="1">
         <v>506000</v>
       </c>
       <c r="F171" s="1">
+        <v>506000</v>
+      </c>
+      <c r="G171" s="1">
         <v>406000</v>
-      </c>
-      <c r="G171" s="1">
-        <v>506000</v>
       </c>
       <c r="H171" s="1">
         <v>506000</v>
@@ -6768,7 +6889,9 @@
       <c r="I171" s="1">
         <v>506000</v>
       </c>
-      <c r="J171" s="1"/>
+      <c r="J171" s="1">
+        <v>506000</v>
+      </c>
       <c r="K171" s="4">
         <f t="shared" si="3"/>
         <v>2936000</v>
@@ -6782,9 +6905,7 @@
         <v>318</v>
       </c>
       <c r="C172" s="1"/>
-      <c r="D172" s="1">
-        <v>50000</v>
-      </c>
+      <c r="D172" s="1"/>
       <c r="E172" s="1">
         <v>50000</v>
       </c>
@@ -6800,7 +6921,9 @@
       <c r="I172" s="1">
         <v>50000</v>
       </c>
-      <c r="J172" s="1"/>
+      <c r="J172" s="1">
+        <v>50000</v>
+      </c>
       <c r="K172" s="4">
         <f t="shared" si="3"/>
         <v>300000</v>
@@ -6814,9 +6937,7 @@
         <v>319</v>
       </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="1">
-        <v>20000</v>
-      </c>
+      <c r="D173" s="1"/>
       <c r="E173" s="1">
         <v>20000</v>
       </c>
@@ -6832,7 +6953,9 @@
       <c r="I173" s="1">
         <v>20000</v>
       </c>
-      <c r="J173" s="1"/>
+      <c r="J173" s="1">
+        <v>20000</v>
+      </c>
       <c r="K173" s="4">
         <f t="shared" si="3"/>
         <v>120000</v>
@@ -6846,9 +6969,7 @@
         <v>280</v>
       </c>
       <c r="C174" s="1"/>
-      <c r="D174" s="1">
-        <v>100000</v>
-      </c>
+      <c r="D174" s="1"/>
       <c r="E174" s="1">
         <v>100000</v>
       </c>
@@ -6864,7 +6985,9 @@
       <c r="I174" s="1">
         <v>100000</v>
       </c>
-      <c r="J174" s="1"/>
+      <c r="J174" s="1">
+        <v>100000</v>
+      </c>
       <c r="K174" s="4">
         <f t="shared" si="3"/>
         <v>600000</v>
@@ -6878,25 +7001,25 @@
         <v>227</v>
       </c>
       <c r="C175" s="1"/>
-      <c r="D175" s="1">
+      <c r="D175" s="1"/>
+      <c r="E175" s="1">
         <v>330000</v>
       </c>
-      <c r="E175" s="1">
+      <c r="F175" s="1">
         <v>340500</v>
-      </c>
-      <c r="F175" s="1">
-        <v>240000</v>
       </c>
       <c r="G175" s="1">
         <v>240000</v>
       </c>
       <c r="H175" s="1">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="I175" s="1">
         <v>270000</v>
       </c>
-      <c r="J175" s="1"/>
+      <c r="J175" s="1">
+        <v>270000</v>
+      </c>
       <c r="K175" s="4">
         <f t="shared" si="3"/>
         <v>1690500</v>
@@ -6910,25 +7033,25 @@
         <v>229</v>
       </c>
       <c r="C176" s="1"/>
-      <c r="D176" s="1">
-        <v>120000</v>
-      </c>
+      <c r="D176" s="1"/>
       <c r="E176" s="1">
         <v>120000</v>
       </c>
       <c r="F176" s="1">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="G176" s="1">
         <v>125000</v>
       </c>
       <c r="H176" s="1">
-        <v>103000</v>
+        <v>125000</v>
       </c>
       <c r="I176" s="1">
         <v>103000</v>
       </c>
-      <c r="J176" s="1"/>
+      <c r="J176" s="1">
+        <v>103000</v>
+      </c>
       <c r="K176" s="4">
         <f t="shared" si="3"/>
         <v>696000</v>
@@ -6942,9 +7065,7 @@
         <v>281</v>
       </c>
       <c r="C177" s="1"/>
-      <c r="D177" s="1">
-        <v>90000</v>
-      </c>
+      <c r="D177" s="1"/>
       <c r="E177" s="1">
         <v>90000</v>
       </c>
@@ -6960,7 +7081,9 @@
       <c r="I177" s="1">
         <v>90000</v>
       </c>
-      <c r="J177" s="1"/>
+      <c r="J177" s="1">
+        <v>90000</v>
+      </c>
       <c r="K177" s="4">
         <f t="shared" si="3"/>
         <v>540000</v>
@@ -6974,25 +7097,25 @@
         <v>231</v>
       </c>
       <c r="C178" s="1"/>
-      <c r="D178" s="1">
+      <c r="D178" s="1"/>
+      <c r="E178" s="1">
         <v>179000</v>
       </c>
-      <c r="E178" s="1">
+      <c r="F178" s="1">
         <v>204000</v>
       </c>
-      <c r="F178" s="1">
+      <c r="G178" s="1">
         <v>214000</v>
       </c>
-      <c r="G178" s="1">
+      <c r="H178" s="1">
         <v>204000</v>
-      </c>
-      <c r="H178" s="1">
-        <v>207000</v>
       </c>
       <c r="I178" s="1">
         <v>207000</v>
       </c>
-      <c r="J178" s="1"/>
+      <c r="J178" s="1">
+        <v>207000</v>
+      </c>
       <c r="K178" s="4">
         <f t="shared" si="3"/>
         <v>1215000</v>
@@ -7011,10 +7134,10 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
-      <c r="I179" s="1">
-        <v>0</v>
-      </c>
-      <c r="J179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1">
+        <v>0</v>
+      </c>
       <c r="K179" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7028,17 +7151,15 @@
         <v>233</v>
       </c>
       <c r="C180" s="1"/>
-      <c r="D180" s="1">
+      <c r="D180" s="1"/>
+      <c r="E180" s="1">
         <v>610000</v>
       </c>
-      <c r="E180" s="1">
+      <c r="F180" s="1">
         <v>920000</v>
       </c>
-      <c r="F180" s="1">
+      <c r="G180" s="1">
         <v>700000</v>
-      </c>
-      <c r="G180" s="1">
-        <v>478000</v>
       </c>
       <c r="H180" s="1">
         <v>478000</v>
@@ -7046,7 +7167,9 @@
       <c r="I180" s="1">
         <v>478000</v>
       </c>
-      <c r="J180" s="1"/>
+      <c r="J180" s="1">
+        <v>478000</v>
+      </c>
       <c r="K180" s="4">
         <f t="shared" si="3"/>
         <v>3664000</v>
@@ -7060,9 +7183,7 @@
         <v>235</v>
       </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="1">
-        <v>2000</v>
-      </c>
+      <c r="D181" s="1"/>
       <c r="E181" s="1">
         <v>2000</v>
       </c>
@@ -7070,7 +7191,7 @@
         <v>2000</v>
       </c>
       <c r="G181" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="H181" s="1">
         <v>5000</v>
@@ -7078,7 +7199,9 @@
       <c r="I181" s="1">
         <v>5000</v>
       </c>
-      <c r="J181" s="1"/>
+      <c r="J181" s="1">
+        <v>5000</v>
+      </c>
       <c r="K181" s="4">
         <f t="shared" si="3"/>
         <v>21000</v>
@@ -7092,9 +7215,7 @@
         <v>236</v>
       </c>
       <c r="C182" s="1"/>
-      <c r="D182" s="1">
-        <v>10000</v>
-      </c>
+      <c r="D182" s="1"/>
       <c r="E182" s="1">
         <v>10000</v>
       </c>
@@ -7102,7 +7223,7 @@
         <v>10000</v>
       </c>
       <c r="G182" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="H182" s="1">
         <v>4000</v>
@@ -7110,7 +7231,9 @@
       <c r="I182" s="1">
         <v>4000</v>
       </c>
-      <c r="J182" s="1"/>
+      <c r="J182" s="1">
+        <v>4000</v>
+      </c>
       <c r="K182" s="4">
         <f t="shared" si="3"/>
         <v>42000</v>
@@ -7124,9 +7247,7 @@
         <v>358</v>
       </c>
       <c r="C183" s="1"/>
-      <c r="D183" s="1">
-        <v>0</v>
-      </c>
+      <c r="D183" s="1"/>
       <c r="E183" s="1">
         <v>0</v>
       </c>
@@ -7142,7 +7263,9 @@
       <c r="I183" s="1">
         <v>0</v>
       </c>
-      <c r="J183" s="1"/>
+      <c r="J183" s="1">
+        <v>0</v>
+      </c>
       <c r="K183" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7156,25 +7279,25 @@
         <v>237</v>
       </c>
       <c r="C184" s="1"/>
-      <c r="D184" s="1">
-        <v>10000</v>
-      </c>
+      <c r="D184" s="1"/>
       <c r="E184" s="1">
         <v>10000</v>
       </c>
       <c r="F184" s="1">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G184" s="1">
         <v>25000</v>
       </c>
       <c r="H184" s="1">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="I184" s="1">
         <v>27000</v>
       </c>
-      <c r="J184" s="1"/>
+      <c r="J184" s="1">
+        <v>27000</v>
+      </c>
       <c r="K184" s="4">
         <f t="shared" si="3"/>
         <v>124000</v>
@@ -7188,9 +7311,7 @@
         <v>239</v>
       </c>
       <c r="C185" s="1"/>
-      <c r="D185" s="1">
-        <v>27000</v>
-      </c>
+      <c r="D185" s="1"/>
       <c r="E185" s="1">
         <v>27000</v>
       </c>
@@ -7206,7 +7327,9 @@
       <c r="I185" s="1">
         <v>27000</v>
       </c>
-      <c r="J185" s="1"/>
+      <c r="J185" s="1">
+        <v>27000</v>
+      </c>
       <c r="K185" s="4">
         <f t="shared" si="3"/>
         <v>162000</v>
@@ -7220,9 +7343,7 @@
         <v>360</v>
       </c>
       <c r="C186" s="1"/>
-      <c r="D186" s="1">
-        <v>0</v>
-      </c>
+      <c r="D186" s="1"/>
       <c r="E186" s="1">
         <v>0</v>
       </c>
@@ -7238,7 +7359,9 @@
       <c r="I186" s="1">
         <v>0</v>
       </c>
-      <c r="J186" s="1"/>
+      <c r="J186" s="1">
+        <v>0</v>
+      </c>
       <c r="K186" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7257,10 +7380,10 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
-      <c r="I187" s="1">
-        <v>0</v>
-      </c>
-      <c r="J187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1">
+        <v>0</v>
+      </c>
       <c r="K187" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7274,11 +7397,9 @@
         <v>243</v>
       </c>
       <c r="C188" s="1"/>
-      <c r="D188" s="1">
+      <c r="D188" s="1"/>
+      <c r="E188" s="1">
         <v>40000</v>
-      </c>
-      <c r="E188" s="1">
-        <v>41000</v>
       </c>
       <c r="F188" s="1">
         <v>41000</v>
@@ -7292,7 +7413,9 @@
       <c r="I188" s="1">
         <v>41000</v>
       </c>
-      <c r="J188" s="1"/>
+      <c r="J188" s="1">
+        <v>41000</v>
+      </c>
       <c r="K188" s="4">
         <f t="shared" si="3"/>
         <v>245000</v>
@@ -7311,10 +7434,10 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
-      <c r="I189" s="1">
-        <v>0</v>
-      </c>
-      <c r="J189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1">
+        <v>0</v>
+      </c>
       <c r="K189" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7328,25 +7451,25 @@
         <v>245</v>
       </c>
       <c r="C190" s="1"/>
-      <c r="D190" s="1">
+      <c r="D190" s="1"/>
+      <c r="E190" s="1">
         <v>1000000</v>
       </c>
-      <c r="E190" s="1">
+      <c r="F190" s="1">
         <v>1200000</v>
       </c>
-      <c r="F190" s="1">
+      <c r="G190" s="1">
         <v>2000000</v>
       </c>
-      <c r="G190" s="1">
+      <c r="H190" s="1">
         <v>1200000</v>
-      </c>
-      <c r="H190" s="1">
-        <v>2000000</v>
       </c>
       <c r="I190" s="1">
         <v>2000000</v>
       </c>
-      <c r="J190" s="1"/>
+      <c r="J190" s="1">
+        <v>2000000</v>
+      </c>
       <c r="K190" s="4">
         <f t="shared" si="3"/>
         <v>9400000</v>
@@ -7360,25 +7483,25 @@
         <v>246</v>
       </c>
       <c r="C191" s="1"/>
-      <c r="D191" s="1">
+      <c r="D191" s="1"/>
+      <c r="E191" s="1">
         <v>600000</v>
       </c>
-      <c r="E191" s="1">
+      <c r="F191" s="1">
         <v>1000000</v>
       </c>
-      <c r="F191" s="1">
+      <c r="G191" s="1">
         <v>500000</v>
       </c>
-      <c r="G191" s="1">
+      <c r="H191" s="1">
         <v>600000</v>
-      </c>
-      <c r="H191" s="1">
-        <v>800000</v>
       </c>
       <c r="I191" s="1">
         <v>800000</v>
       </c>
-      <c r="J191" s="1"/>
+      <c r="J191" s="1">
+        <v>800000</v>
+      </c>
       <c r="K191" s="4">
         <f t="shared" si="3"/>
         <v>4300000</v>
@@ -7392,25 +7515,25 @@
         <v>248</v>
       </c>
       <c r="C192" s="1"/>
-      <c r="D192" s="1">
+      <c r="D192" s="1"/>
+      <c r="E192" s="1">
         <v>2400000</v>
       </c>
-      <c r="E192" s="1">
+      <c r="F192" s="1">
         <v>3600000</v>
       </c>
-      <c r="F192" s="1">
+      <c r="G192" s="1">
         <v>2100000</v>
       </c>
-      <c r="G192" s="1">
+      <c r="H192" s="1">
         <v>2400000</v>
-      </c>
-      <c r="H192" s="1">
-        <v>3800000</v>
       </c>
       <c r="I192" s="1">
         <v>3800000</v>
       </c>
-      <c r="J192" s="1"/>
+      <c r="J192" s="1">
+        <v>3800000</v>
+      </c>
       <c r="K192" s="4">
         <f t="shared" si="3"/>
         <v>18100000</v>
@@ -7424,25 +7547,25 @@
         <v>249</v>
       </c>
       <c r="C193" s="1"/>
-      <c r="D193" s="1">
-        <v>800000</v>
-      </c>
+      <c r="D193" s="1"/>
       <c r="E193" s="1">
         <v>800000</v>
       </c>
       <c r="F193" s="1">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="G193" s="1">
         <v>400000</v>
       </c>
       <c r="H193" s="1">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="I193" s="1">
         <v>800000</v>
       </c>
-      <c r="J193" s="1"/>
+      <c r="J193" s="1">
+        <v>800000</v>
+      </c>
       <c r="K193" s="4">
         <f t="shared" si="3"/>
         <v>4000000</v>
@@ -7461,10 +7584,10 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
-      <c r="I194" s="1">
-        <v>0</v>
-      </c>
-      <c r="J194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1">
+        <v>0</v>
+      </c>
       <c r="K194" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7483,10 +7606,10 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
-      <c r="I195" s="1">
-        <v>0</v>
-      </c>
-      <c r="J195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1">
+        <v>0</v>
+      </c>
       <c r="K195" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7500,25 +7623,25 @@
         <v>251</v>
       </c>
       <c r="C196" s="1"/>
-      <c r="D196" s="1">
+      <c r="D196" s="1"/>
+      <c r="E196" s="1">
         <v>50000</v>
       </c>
-      <c r="E196" s="1">
+      <c r="F196" s="1">
         <v>80000</v>
-      </c>
-      <c r="F196" s="1">
-        <v>100000</v>
       </c>
       <c r="G196" s="1">
         <v>100000</v>
       </c>
       <c r="H196" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I196" s="1">
         <v>200000</v>
       </c>
-      <c r="J196" s="1"/>
+      <c r="J196" s="1">
+        <v>200000</v>
+      </c>
       <c r="K196" s="4">
         <f t="shared" si="3"/>
         <v>730000</v>
@@ -7532,25 +7655,25 @@
         <v>253</v>
       </c>
       <c r="C197" s="1"/>
-      <c r="D197" s="1">
-        <v>500000</v>
-      </c>
+      <c r="D197" s="1"/>
       <c r="E197" s="1">
         <v>500000</v>
       </c>
       <c r="F197" s="1">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="G197" s="1">
         <v>600000</v>
       </c>
       <c r="H197" s="1">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="I197" s="1">
         <v>1000000</v>
       </c>
-      <c r="J197" s="1"/>
+      <c r="J197" s="1">
+        <v>1000000</v>
+      </c>
       <c r="K197" s="4">
         <f t="shared" si="3"/>
         <v>4200000</v>
@@ -7569,10 +7692,10 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
-      <c r="I198" s="1">
-        <v>0</v>
-      </c>
-      <c r="J198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1">
+        <v>0</v>
+      </c>
       <c r="K198" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7586,9 +7709,7 @@
         <v>254</v>
       </c>
       <c r="C199" s="1"/>
-      <c r="D199" s="1">
-        <v>125</v>
-      </c>
+      <c r="D199" s="1"/>
       <c r="E199" s="1">
         <v>125</v>
       </c>
@@ -7604,7 +7725,9 @@
       <c r="I199" s="1">
         <v>125</v>
       </c>
-      <c r="J199" s="1"/>
+      <c r="J199" s="1">
+        <v>125</v>
+      </c>
       <c r="K199" s="4">
         <f t="shared" si="3"/>
         <v>750</v>
@@ -7620,19 +7743,19 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="1">
-        <v>15000</v>
-      </c>
+      <c r="F200" s="1"/>
       <c r="G200" s="1">
         <v>15000</v>
       </c>
       <c r="H200" s="1">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="I200" s="1">
         <v>20000</v>
       </c>
-      <c r="J200" s="1"/>
+      <c r="J200" s="1">
+        <v>20000</v>
+      </c>
       <c r="K200" s="4">
         <f t="shared" si="3"/>
         <v>70000</v>
@@ -7648,11 +7771,9 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="1">
+      <c r="F201" s="1"/>
+      <c r="G201" s="1">
         <v>5000</v>
-      </c>
-      <c r="G201" s="1">
-        <v>10000</v>
       </c>
       <c r="H201" s="1">
         <v>10000</v>
@@ -7660,7 +7781,9 @@
       <c r="I201" s="1">
         <v>10000</v>
       </c>
-      <c r="J201" s="1"/>
+      <c r="J201" s="1">
+        <v>10000</v>
+      </c>
       <c r="K201" s="4">
         <f t="shared" si="3"/>
         <v>35000</v>
@@ -7674,14 +7797,12 @@
         <v>260</v>
       </c>
       <c r="C202" s="1"/>
-      <c r="D202" s="1">
+      <c r="D202" s="1"/>
+      <c r="E202" s="1">
         <v>51000</v>
       </c>
-      <c r="E202" s="1">
+      <c r="F202" s="1">
         <v>101000</v>
-      </c>
-      <c r="F202" s="1">
-        <v>105000</v>
       </c>
       <c r="G202" s="1">
         <v>105000</v>
@@ -7692,7 +7813,9 @@
       <c r="I202" s="1">
         <v>105000</v>
       </c>
-      <c r="J202" s="1"/>
+      <c r="J202" s="1">
+        <v>105000</v>
+      </c>
       <c r="K202" s="4">
         <f t="shared" si="3"/>
         <v>572000</v>
@@ -7706,14 +7829,12 @@
         <v>262</v>
       </c>
       <c r="C203" s="1"/>
-      <c r="D203" s="1">
-        <v>0</v>
-      </c>
+      <c r="D203" s="1"/>
       <c r="E203" s="1">
         <v>0</v>
       </c>
       <c r="F203" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G203" s="1">
         <v>10000</v>
@@ -7724,9 +7845,11 @@
       <c r="I203" s="1">
         <v>10000</v>
       </c>
-      <c r="J203" s="1"/>
+      <c r="J203" s="1">
+        <v>10000</v>
+      </c>
       <c r="K203" s="4">
-        <f t="shared" ref="K203:K215" si="4">SUM(D203:I203)</f>
+        <f t="shared" ref="K203:K215" si="4">SUM(E203:J203)</f>
         <v>40000</v>
       </c>
     </row>
@@ -7738,14 +7861,12 @@
         <v>264</v>
       </c>
       <c r="C204" s="1"/>
-      <c r="D204" s="1">
+      <c r="D204" s="1"/>
+      <c r="E204" s="1">
         <v>27000</v>
       </c>
-      <c r="E204" s="1">
+      <c r="F204" s="1">
         <v>56000</v>
-      </c>
-      <c r="F204" s="1">
-        <v>105000</v>
       </c>
       <c r="G204" s="1">
         <v>105000</v>
@@ -7756,7 +7877,9 @@
       <c r="I204" s="1">
         <v>105000</v>
       </c>
-      <c r="J204" s="1"/>
+      <c r="J204" s="1">
+        <v>105000</v>
+      </c>
       <c r="K204" s="4">
         <f t="shared" si="4"/>
         <v>503000</v>
@@ -7770,14 +7893,12 @@
         <v>266</v>
       </c>
       <c r="C205" s="1"/>
-      <c r="D205" s="1">
+      <c r="D205" s="1"/>
+      <c r="E205" s="1">
         <v>4000</v>
       </c>
-      <c r="E205" s="1">
+      <c r="F205" s="1">
         <v>10000</v>
-      </c>
-      <c r="F205" s="1">
-        <v>20000</v>
       </c>
       <c r="G205" s="1">
         <v>20000</v>
@@ -7788,7 +7909,9 @@
       <c r="I205" s="1">
         <v>20000</v>
       </c>
-      <c r="J205" s="1"/>
+      <c r="J205" s="1">
+        <v>20000</v>
+      </c>
       <c r="K205" s="4">
         <f t="shared" si="4"/>
         <v>94000</v>
@@ -7802,25 +7925,25 @@
         <v>267</v>
       </c>
       <c r="C206" s="1"/>
-      <c r="D206" s="1">
+      <c r="D206" s="1"/>
+      <c r="E206" s="1">
         <v>12000</v>
-      </c>
-      <c r="E206" s="1">
-        <v>20000</v>
       </c>
       <c r="F206" s="1">
         <v>20000</v>
       </c>
       <c r="G206" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H206" s="1">
         <v>60000</v>
-      </c>
-      <c r="H206" s="1">
-        <v>120000</v>
       </c>
       <c r="I206" s="1">
         <v>120000</v>
       </c>
-      <c r="J206" s="1"/>
+      <c r="J206" s="1">
+        <v>120000</v>
+      </c>
       <c r="K206" s="4">
         <f t="shared" si="4"/>
         <v>352000</v>
@@ -7839,10 +7962,10 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
-      <c r="I207" s="1">
-        <v>0</v>
-      </c>
-      <c r="J207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1">
+        <v>0</v>
+      </c>
       <c r="K207" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7856,16 +7979,16 @@
         <v>370</v>
       </c>
       <c r="C208" s="1"/>
-      <c r="D208" s="1">
-        <v>250000</v>
-      </c>
+      <c r="D208" s="1"/>
       <c r="E208" s="1">
         <v>250000</v>
       </c>
       <c r="F208" s="1">
         <v>250000</v>
       </c>
-      <c r="G208" s="1"/>
+      <c r="G208" s="1">
+        <v>250000</v>
+      </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -7882,16 +8005,16 @@
         <v>372</v>
       </c>
       <c r="C209" s="1"/>
-      <c r="D209" s="1">
-        <v>750000</v>
-      </c>
+      <c r="D209" s="1"/>
       <c r="E209" s="1">
         <v>750000</v>
       </c>
       <c r="F209" s="1">
+        <v>750000</v>
+      </c>
+      <c r="G209" s="1">
         <v>500000</v>
       </c>
-      <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -7929,14 +8052,14 @@
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="1">
+      <c r="E211" s="1"/>
+      <c r="F211" s="1">
         <v>370000</v>
       </c>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1">
+      <c r="G211" s="1"/>
+      <c r="H211" s="1">
         <v>400000</v>
       </c>
-      <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="4">
@@ -7952,9 +8075,7 @@
         <v>378</v>
       </c>
       <c r="C212" s="1"/>
-      <c r="D212" s="1">
-        <v>5000</v>
-      </c>
+      <c r="D212" s="1"/>
       <c r="E212" s="1">
         <v>5000</v>
       </c>
@@ -7970,7 +8091,9 @@
       <c r="I212" s="1">
         <v>5000</v>
       </c>
-      <c r="J212" s="1"/>
+      <c r="J212" s="1">
+        <v>5000</v>
+      </c>
       <c r="K212" s="4">
         <f t="shared" si="4"/>
         <v>30000</v>
@@ -8036,6 +8159,2145 @@
         <v>0</v>
       </c>
     </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>3100</v>
+      </c>
+      <c r="B216" t="s">
+        <v>385</v>
+      </c>
+      <c r="D216">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>386</v>
+      </c>
+      <c r="B217" t="s">
+        <v>386</v>
+      </c>
+      <c r="D217">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>288</v>
+      </c>
+      <c r="B218" t="s">
+        <v>288</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>323</v>
+      </c>
+      <c r="B219" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>327</v>
+      </c>
+      <c r="B220" t="s">
+        <v>328</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>289</v>
+      </c>
+      <c r="B221" t="s">
+        <v>290</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>387</v>
+      </c>
+      <c r="B222" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" t="s">
+        <v>389</v>
+      </c>
+      <c r="D223">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>11</v>
+      </c>
+      <c r="B227" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>15</v>
+      </c>
+      <c r="B228" t="s">
+        <v>329</v>
+      </c>
+      <c r="D228">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>15</v>
+      </c>
+      <c r="B230" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>15</v>
+      </c>
+      <c r="B231" t="s">
+        <v>17</v>
+      </c>
+      <c r="D231">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>15</v>
+      </c>
+      <c r="B232" t="s">
+        <v>269</v>
+      </c>
+      <c r="D232">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" t="s">
+        <v>20</v>
+      </c>
+      <c r="C233" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" t="s">
+        <v>20</v>
+      </c>
+      <c r="C234" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>19</v>
+      </c>
+      <c r="B235" t="s">
+        <v>20</v>
+      </c>
+      <c r="D235">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>21</v>
+      </c>
+      <c r="B236" t="s">
+        <v>22</v>
+      </c>
+      <c r="D236">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>23</v>
+      </c>
+      <c r="B237" t="s">
+        <v>24</v>
+      </c>
+      <c r="D237">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>25</v>
+      </c>
+      <c r="B238" t="s">
+        <v>26</v>
+      </c>
+      <c r="C238" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>27</v>
+      </c>
+      <c r="B239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>27</v>
+      </c>
+      <c r="B240" t="s">
+        <v>29</v>
+      </c>
+      <c r="D240">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>27</v>
+      </c>
+      <c r="B241" t="s">
+        <v>30</v>
+      </c>
+      <c r="D241">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>31</v>
+      </c>
+      <c r="B242" t="s">
+        <v>390</v>
+      </c>
+      <c r="D242">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>31</v>
+      </c>
+      <c r="B243" t="s">
+        <v>391</v>
+      </c>
+      <c r="D243">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>330</v>
+      </c>
+      <c r="B244" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>330</v>
+      </c>
+      <c r="B245" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>32</v>
+      </c>
+      <c r="B246" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>32</v>
+      </c>
+      <c r="B247" t="s">
+        <v>33</v>
+      </c>
+      <c r="D247">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>34</v>
+      </c>
+      <c r="B248" t="s">
+        <v>35</v>
+      </c>
+      <c r="D248">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>36</v>
+      </c>
+      <c r="B249" t="s">
+        <v>37</v>
+      </c>
+      <c r="D249">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>38</v>
+      </c>
+      <c r="B250" t="s">
+        <v>39</v>
+      </c>
+      <c r="D250">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>40</v>
+      </c>
+      <c r="B251" t="s">
+        <v>41</v>
+      </c>
+      <c r="D251">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>42</v>
+      </c>
+      <c r="B252" t="s">
+        <v>43</v>
+      </c>
+      <c r="D252">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>44</v>
+      </c>
+      <c r="B253" t="s">
+        <v>45</v>
+      </c>
+      <c r="D253">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>46</v>
+      </c>
+      <c r="B254" t="s">
+        <v>47</v>
+      </c>
+      <c r="D254">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>46</v>
+      </c>
+      <c r="B255" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>49</v>
+      </c>
+      <c r="B256" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>51</v>
+      </c>
+      <c r="B257" t="s">
+        <v>52</v>
+      </c>
+      <c r="D257">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>53</v>
+      </c>
+      <c r="B258" t="s">
+        <v>392</v>
+      </c>
+      <c r="D258">
+        <v>3855000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>53</v>
+      </c>
+      <c r="B259" t="s">
+        <v>393</v>
+      </c>
+      <c r="C259" t="s">
+        <v>394</v>
+      </c>
+      <c r="D259">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>53</v>
+      </c>
+      <c r="B260" t="s">
+        <v>54</v>
+      </c>
+      <c r="D260">
+        <v>2167000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>55</v>
+      </c>
+      <c r="B261" t="s">
+        <v>56</v>
+      </c>
+      <c r="D261">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>55</v>
+      </c>
+      <c r="B262" t="s">
+        <v>57</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>395</v>
+      </c>
+      <c r="B263" t="s">
+        <v>396</v>
+      </c>
+      <c r="D263">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>55</v>
+      </c>
+      <c r="B264" t="s">
+        <v>335</v>
+      </c>
+      <c r="D264">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>55</v>
+      </c>
+      <c r="B265" t="s">
+        <v>58</v>
+      </c>
+      <c r="D265">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>59</v>
+      </c>
+      <c r="B266" t="s">
+        <v>60</v>
+      </c>
+      <c r="D266">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>61</v>
+      </c>
+      <c r="B267" t="s">
+        <v>62</v>
+      </c>
+      <c r="D267">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>63</v>
+      </c>
+      <c r="B268" t="s">
+        <v>64</v>
+      </c>
+      <c r="D268">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>65</v>
+      </c>
+      <c r="B269" t="s">
+        <v>66</v>
+      </c>
+      <c r="D269">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>67</v>
+      </c>
+      <c r="B270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270">
+        <v>338000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>67</v>
+      </c>
+      <c r="B271" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>337</v>
+      </c>
+      <c r="B272" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>69</v>
+      </c>
+      <c r="B273" t="s">
+        <v>70</v>
+      </c>
+      <c r="D273">
+        <v>316000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>71</v>
+      </c>
+      <c r="B274" t="s">
+        <v>72</v>
+      </c>
+      <c r="D274">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>73</v>
+      </c>
+      <c r="B275" t="s">
+        <v>74</v>
+      </c>
+      <c r="D275">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>75</v>
+      </c>
+      <c r="B276" t="s">
+        <v>74</v>
+      </c>
+      <c r="D276">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>339</v>
+      </c>
+      <c r="B277" t="s">
+        <v>340</v>
+      </c>
+      <c r="D277">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>76</v>
+      </c>
+      <c r="B278" t="s">
+        <v>77</v>
+      </c>
+      <c r="D278">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>78</v>
+      </c>
+      <c r="B279" t="s">
+        <v>79</v>
+      </c>
+      <c r="D279">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>80</v>
+      </c>
+      <c r="B280" t="s">
+        <v>81</v>
+      </c>
+      <c r="D280">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>82</v>
+      </c>
+      <c r="B281" t="s">
+        <v>83</v>
+      </c>
+      <c r="D281">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>84</v>
+      </c>
+      <c r="B282" t="s">
+        <v>85</v>
+      </c>
+      <c r="D282">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>86</v>
+      </c>
+      <c r="B283" t="s">
+        <v>300</v>
+      </c>
+      <c r="D283">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>86</v>
+      </c>
+      <c r="B284" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>86</v>
+      </c>
+      <c r="B285" t="s">
+        <v>88</v>
+      </c>
+      <c r="D285">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>89</v>
+      </c>
+      <c r="B286" t="s">
+        <v>90</v>
+      </c>
+      <c r="D286">
+        <v>272000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>91</v>
+      </c>
+      <c r="B287" t="s">
+        <v>92</v>
+      </c>
+      <c r="D287">
+        <v>591400</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>93</v>
+      </c>
+      <c r="B288" t="s">
+        <v>94</v>
+      </c>
+      <c r="D288">
+        <v>282000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>93</v>
+      </c>
+      <c r="B289" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>95</v>
+      </c>
+      <c r="B290" t="s">
+        <v>96</v>
+      </c>
+      <c r="D290">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>398</v>
+      </c>
+      <c r="B291" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>97</v>
+      </c>
+      <c r="B292" t="s">
+        <v>301</v>
+      </c>
+      <c r="D292">
+        <v>259000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>98</v>
+      </c>
+      <c r="B293" t="s">
+        <v>302</v>
+      </c>
+      <c r="D293">
+        <v>835000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>400</v>
+      </c>
+      <c r="B294" t="s">
+        <v>401</v>
+      </c>
+      <c r="D294">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>99</v>
+      </c>
+      <c r="B295" t="s">
+        <v>402</v>
+      </c>
+      <c r="D295">
+        <v>991156</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>100</v>
+      </c>
+      <c r="B296" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>102</v>
+      </c>
+      <c r="B297" t="s">
+        <v>103</v>
+      </c>
+      <c r="D297">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>104</v>
+      </c>
+      <c r="B298" t="s">
+        <v>105</v>
+      </c>
+      <c r="D298">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>106</v>
+      </c>
+      <c r="B299" t="s">
+        <v>107</v>
+      </c>
+      <c r="D299">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>108</v>
+      </c>
+      <c r="B300" t="s">
+        <v>109</v>
+      </c>
+      <c r="D300">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>108</v>
+      </c>
+      <c r="B301" t="s">
+        <v>110</v>
+      </c>
+      <c r="D301">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>111</v>
+      </c>
+      <c r="B302" t="s">
+        <v>112</v>
+      </c>
+      <c r="D302">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>113</v>
+      </c>
+      <c r="B303" t="s">
+        <v>114</v>
+      </c>
+      <c r="D303">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>115</v>
+      </c>
+      <c r="B304" t="s">
+        <v>116</v>
+      </c>
+      <c r="D304">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>117</v>
+      </c>
+      <c r="B305" t="s">
+        <v>118</v>
+      </c>
+      <c r="D305">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>119</v>
+      </c>
+      <c r="B306" t="s">
+        <v>120</v>
+      </c>
+      <c r="D306">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>121</v>
+      </c>
+      <c r="B307" t="s">
+        <v>122</v>
+      </c>
+      <c r="D307">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>123</v>
+      </c>
+      <c r="B308" t="s">
+        <v>124</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>125</v>
+      </c>
+      <c r="B309" t="s">
+        <v>126</v>
+      </c>
+      <c r="D309">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>127</v>
+      </c>
+      <c r="B310" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>129</v>
+      </c>
+      <c r="B311" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>131</v>
+      </c>
+      <c r="B312" t="s">
+        <v>132</v>
+      </c>
+      <c r="D312">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>133</v>
+      </c>
+      <c r="B313" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>135</v>
+      </c>
+      <c r="B314" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>137</v>
+      </c>
+      <c r="B315" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>342</v>
+      </c>
+      <c r="B316" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>139</v>
+      </c>
+      <c r="B317" t="s">
+        <v>140</v>
+      </c>
+      <c r="D317">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>141</v>
+      </c>
+      <c r="B318" t="s">
+        <v>142</v>
+      </c>
+      <c r="D318">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>143</v>
+      </c>
+      <c r="B319" t="s">
+        <v>144</v>
+      </c>
+      <c r="D319">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>143</v>
+      </c>
+      <c r="B320" t="s">
+        <v>145</v>
+      </c>
+      <c r="D320">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>270</v>
+      </c>
+      <c r="B321" t="s">
+        <v>146</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>147</v>
+      </c>
+      <c r="B322" t="s">
+        <v>148</v>
+      </c>
+      <c r="D322">
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>271</v>
+      </c>
+      <c r="B323" t="s">
+        <v>272</v>
+      </c>
+      <c r="D323">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>403</v>
+      </c>
+      <c r="B324" t="s">
+        <v>404</v>
+      </c>
+      <c r="C324" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>403</v>
+      </c>
+      <c r="B325" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>149</v>
+      </c>
+      <c r="B326" t="s">
+        <v>150</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>151</v>
+      </c>
+      <c r="B327" t="s">
+        <v>152</v>
+      </c>
+      <c r="D327">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>407</v>
+      </c>
+      <c r="B328" t="s">
+        <v>408</v>
+      </c>
+      <c r="D328">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>153</v>
+      </c>
+      <c r="B329" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>155</v>
+      </c>
+      <c r="B330" t="s">
+        <v>156</v>
+      </c>
+      <c r="C330" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>157</v>
+      </c>
+      <c r="B331" t="s">
+        <v>158</v>
+      </c>
+      <c r="D331">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>159</v>
+      </c>
+      <c r="B332" t="s">
+        <v>160</v>
+      </c>
+      <c r="D332">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>161</v>
+      </c>
+      <c r="B333" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>161</v>
+      </c>
+      <c r="B334" t="s">
+        <v>163</v>
+      </c>
+      <c r="D334">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>164</v>
+      </c>
+      <c r="B335" t="s">
+        <v>165</v>
+      </c>
+      <c r="D335">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>166</v>
+      </c>
+      <c r="B336" t="s">
+        <v>167</v>
+      </c>
+      <c r="D336">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>168</v>
+      </c>
+      <c r="B337" t="s">
+        <v>169</v>
+      </c>
+      <c r="D337">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>168</v>
+      </c>
+      <c r="B338" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>171</v>
+      </c>
+      <c r="B339" t="s">
+        <v>268</v>
+      </c>
+      <c r="D339">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>172</v>
+      </c>
+      <c r="B340" t="s">
+        <v>173</v>
+      </c>
+      <c r="D340">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>174</v>
+      </c>
+      <c r="B341" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>176</v>
+      </c>
+      <c r="B342" t="s">
+        <v>177</v>
+      </c>
+      <c r="D342">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>178</v>
+      </c>
+      <c r="B343" t="s">
+        <v>179</v>
+      </c>
+      <c r="D343">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>410</v>
+      </c>
+      <c r="B344" t="s">
+        <v>411</v>
+      </c>
+      <c r="D344">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>180</v>
+      </c>
+      <c r="B345" t="s">
+        <v>181</v>
+      </c>
+      <c r="D345">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>273</v>
+      </c>
+      <c r="B346" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>182</v>
+      </c>
+      <c r="B347" t="s">
+        <v>183</v>
+      </c>
+      <c r="D347">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>184</v>
+      </c>
+      <c r="B348" t="s">
+        <v>185</v>
+      </c>
+      <c r="D348">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>184</v>
+      </c>
+      <c r="B349" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>186</v>
+      </c>
+      <c r="B350" t="s">
+        <v>187</v>
+      </c>
+      <c r="D350">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>186</v>
+      </c>
+      <c r="B351" t="s">
+        <v>188</v>
+      </c>
+      <c r="D351">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>189</v>
+      </c>
+      <c r="B352" t="s">
+        <v>190</v>
+      </c>
+      <c r="D352">
+        <v>212500</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>191</v>
+      </c>
+      <c r="B353" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>193</v>
+      </c>
+      <c r="B354" t="s">
+        <v>194</v>
+      </c>
+      <c r="D354">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>195</v>
+      </c>
+      <c r="B355" t="s">
+        <v>195</v>
+      </c>
+      <c r="D355">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>196</v>
+      </c>
+      <c r="B356" t="s">
+        <v>196</v>
+      </c>
+      <c r="D356">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>275</v>
+      </c>
+      <c r="B357" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>275</v>
+      </c>
+      <c r="B358" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>197</v>
+      </c>
+      <c r="B359" t="s">
+        <v>198</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>199</v>
+      </c>
+      <c r="B360" t="s">
+        <v>200</v>
+      </c>
+      <c r="D360">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>201</v>
+      </c>
+      <c r="B361" t="s">
+        <v>202</v>
+      </c>
+      <c r="D361">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>203</v>
+      </c>
+      <c r="B362" t="s">
+        <v>204</v>
+      </c>
+      <c r="D362">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>205</v>
+      </c>
+      <c r="B363" t="s">
+        <v>206</v>
+      </c>
+      <c r="D363">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>207</v>
+      </c>
+      <c r="B364" t="s">
+        <v>208</v>
+      </c>
+      <c r="D364">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>209</v>
+      </c>
+      <c r="B365" t="s">
+        <v>210</v>
+      </c>
+      <c r="D365">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>211</v>
+      </c>
+      <c r="B366" t="s">
+        <v>212</v>
+      </c>
+      <c r="D366">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>413</v>
+      </c>
+      <c r="B367" t="s">
+        <v>414</v>
+      </c>
+      <c r="D367">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>413</v>
+      </c>
+      <c r="B368" t="s">
+        <v>415</v>
+      </c>
+      <c r="D368">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>211</v>
+      </c>
+      <c r="B369" t="s">
+        <v>416</v>
+      </c>
+      <c r="D369">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>211</v>
+      </c>
+      <c r="B370" t="s">
+        <v>213</v>
+      </c>
+      <c r="D370">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>214</v>
+      </c>
+      <c r="B371" t="s">
+        <v>215</v>
+      </c>
+      <c r="D371">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>216</v>
+      </c>
+      <c r="B372" t="s">
+        <v>217</v>
+      </c>
+      <c r="D372">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>417</v>
+      </c>
+      <c r="B373" t="s">
+        <v>418</v>
+      </c>
+      <c r="D373">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>218</v>
+      </c>
+      <c r="B374" t="s">
+        <v>219</v>
+      </c>
+      <c r="D374">
+        <v>284500</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>353</v>
+      </c>
+      <c r="B375" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>278</v>
+      </c>
+      <c r="B376" t="s">
+        <v>220</v>
+      </c>
+      <c r="D376">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>221</v>
+      </c>
+      <c r="B377" t="s">
+        <v>279</v>
+      </c>
+      <c r="D377">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>419</v>
+      </c>
+      <c r="B378" t="s">
+        <v>420</v>
+      </c>
+      <c r="D378">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>222</v>
+      </c>
+      <c r="B379" t="s">
+        <v>223</v>
+      </c>
+      <c r="D379">
+        <v>894000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>224</v>
+      </c>
+      <c r="B380" t="s">
+        <v>421</v>
+      </c>
+      <c r="D380">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>225</v>
+      </c>
+      <c r="B381" t="s">
+        <v>319</v>
+      </c>
+      <c r="D381">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>226</v>
+      </c>
+      <c r="B382" t="s">
+        <v>227</v>
+      </c>
+      <c r="D382">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>226</v>
+      </c>
+      <c r="B383" t="s">
+        <v>280</v>
+      </c>
+      <c r="D383">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>228</v>
+      </c>
+      <c r="B384" t="s">
+        <v>229</v>
+      </c>
+      <c r="D384">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>422</v>
+      </c>
+      <c r="B385" t="s">
+        <v>423</v>
+      </c>
+      <c r="D385">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>230</v>
+      </c>
+      <c r="B386" t="s">
+        <v>281</v>
+      </c>
+      <c r="D386">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>230</v>
+      </c>
+      <c r="B387" t="s">
+        <v>231</v>
+      </c>
+      <c r="D387">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>355</v>
+      </c>
+      <c r="B388" t="s">
+        <v>356</v>
+      </c>
+      <c r="D388">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>232</v>
+      </c>
+      <c r="B389" t="s">
+        <v>233</v>
+      </c>
+      <c r="D389">
+        <v>765000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>234</v>
+      </c>
+      <c r="B390" t="s">
+        <v>235</v>
+      </c>
+      <c r="D390">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>357</v>
+      </c>
+      <c r="B391" t="s">
+        <v>358</v>
+      </c>
+      <c r="D391">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>320</v>
+      </c>
+      <c r="B392" t="s">
+        <v>236</v>
+      </c>
+      <c r="D392">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>321</v>
+      </c>
+      <c r="B393" t="s">
+        <v>237</v>
+      </c>
+      <c r="D393">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>238</v>
+      </c>
+      <c r="B394" t="s">
+        <v>239</v>
+      </c>
+      <c r="D394">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>359</v>
+      </c>
+      <c r="B395" t="s">
+        <v>360</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>240</v>
+      </c>
+      <c r="B396" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>242</v>
+      </c>
+      <c r="B397" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>361</v>
+      </c>
+      <c r="B398" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>424</v>
+      </c>
+      <c r="B399" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>244</v>
+      </c>
+      <c r="B400" t="s">
+        <v>245</v>
+      </c>
+      <c r="D400">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>244</v>
+      </c>
+      <c r="B401" t="s">
+        <v>246</v>
+      </c>
+      <c r="D401">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>247</v>
+      </c>
+      <c r="B402" t="s">
+        <v>248</v>
+      </c>
+      <c r="D402">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>247</v>
+      </c>
+      <c r="B403" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>363</v>
+      </c>
+      <c r="B404" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>363</v>
+      </c>
+      <c r="B405" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>250</v>
+      </c>
+      <c r="B406" t="s">
+        <v>251</v>
+      </c>
+      <c r="D406">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>252</v>
+      </c>
+      <c r="B407" t="s">
+        <v>253</v>
+      </c>
+      <c r="D407">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>366</v>
+      </c>
+      <c r="B408" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>254</v>
+      </c>
+      <c r="B409" t="s">
+        <v>254</v>
+      </c>
+      <c r="D409">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>255</v>
+      </c>
+      <c r="B410" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>257</v>
+      </c>
+      <c r="B411" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>259</v>
+      </c>
+      <c r="B412" t="s">
+        <v>260</v>
+      </c>
+      <c r="D412">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>261</v>
+      </c>
+      <c r="B413" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>263</v>
+      </c>
+      <c r="B414" t="s">
+        <v>264</v>
+      </c>
+      <c r="D414">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>265</v>
+      </c>
+      <c r="B415" t="s">
+        <v>266</v>
+      </c>
+      <c r="D415">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>267</v>
+      </c>
+      <c r="B416" t="s">
+        <v>267</v>
+      </c>
+      <c r="D416">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>368</v>
+      </c>
+      <c r="B417" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>282</v>
+      </c>
+      <c r="B418" t="s">
+        <v>283</v>
+      </c>
+      <c r="D418">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>284</v>
+      </c>
+      <c r="B419" t="s">
+        <v>285</v>
+      </c>
+      <c r="D419">
+        <v>130000</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\728\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\04 - 预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA11233D-38DC-42E3-B10C-D7D9BB79B816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03BD9E9-99BD-4959-8E1B-925AA440AD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="385">
   <si>
     <t>产品型号</t>
   </si>
@@ -1193,133 +1193,6 @@
   </si>
   <si>
     <t>1月预测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3100-3100</t>
-  </si>
-  <si>
-    <t>PFD1014A</t>
-  </si>
-  <si>
-    <t>SC1134B1</t>
-  </si>
-  <si>
-    <t>SC1134B1-43F</t>
-  </si>
-  <si>
-    <t>SC1134BU-CI-00AR-1134</t>
-  </si>
-  <si>
-    <t>SC1645A1-AI-00HK-615HA</t>
-  </si>
-  <si>
-    <t>SC1645B1-AE-00HK-4601</t>
-  </si>
-  <si>
-    <t>SC2402SO-N-CJ-00NR-2402</t>
-  </si>
-  <si>
-    <t>SC2402SO-N-CJ-00NR-6571</t>
-  </si>
-  <si>
-    <t>CSMC</t>
-  </si>
-  <si>
-    <t>SC2402S1-BK</t>
-  </si>
-  <si>
-    <t>SC2402S1-CJ-90AK-6571</t>
-  </si>
-  <si>
-    <t>SC2432SO-Q-CM-10CR-NM</t>
-  </si>
-  <si>
-    <t>SC2443SO-H-TR-Q</t>
-  </si>
-  <si>
-    <t>SC2443SO-H-Q-DB-60AR-2443H</t>
-  </si>
-  <si>
-    <t>SC2448SO-H-TR-Q</t>
-  </si>
-  <si>
-    <t>SC2448SO-H-Q-DB-60AR-2448H</t>
-  </si>
-  <si>
-    <t>SC2448SO-Q-DB-40CR-2448</t>
-  </si>
-  <si>
-    <t>SC4015SO-N-TR</t>
-  </si>
-  <si>
-    <t>SC4015SO-N-CE-90NR-CY19</t>
-  </si>
-  <si>
-    <t>H/L</t>
-  </si>
-  <si>
-    <t>SC4015SO-N-CE-90NR-G01M</t>
-  </si>
-  <si>
-    <t>SC4104SE-TR</t>
-  </si>
-  <si>
-    <t>SC4104SE-GB-00LR-4104</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>SC4643VB-S-TR-Q</t>
-  </si>
-  <si>
-    <t>SC4643VB-S-Q-DE-40CR-4643</t>
-  </si>
-  <si>
-    <t>SC4688DC-Q-DC-40AR-6388</t>
-  </si>
-  <si>
-    <t>SC9314UA</t>
-  </si>
-  <si>
-    <t>SC9314UA-9201L</t>
-  </si>
-  <si>
-    <t>SC9314UA-9209</t>
-  </si>
-  <si>
-    <t>SC9314UA-CF-0XAK-2414</t>
-  </si>
-  <si>
-    <t>SC9621VB-TR-Q</t>
-  </si>
-  <si>
-    <t>SC9621VB-Q-CN-4XCR-9621</t>
-  </si>
-  <si>
-    <t>SC9634VB-BK</t>
-  </si>
-  <si>
-    <t>SC9634VB-CG-00CK-9634</t>
-  </si>
-  <si>
-    <t>SC9641TS-P-AI-10LR-41CPA</t>
-  </si>
-  <si>
-    <t>SC9642TS-E-TR</t>
-  </si>
-  <si>
-    <t>SC9642TS-E-AH-4XLR-9642</t>
-  </si>
-  <si>
-    <t>SC9685TS-RP180-TR-Q</t>
-  </si>
-  <si>
-    <t>SC9685TS-RP180-Q-DB-46AR-96851</t>
-  </si>
-  <si>
-    <t>7月预测</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1724,13 +1597,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}">
-  <dimension ref="A1:O419"/>
+  <dimension ref="A1:N215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1738,15 +1611,14 @@
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" customWidth="1"/>
-    <col min="5" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="11.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1757,35 +1629,32 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>7</v>
+        <v>384</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="K1" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="L1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>286</v>
       </c>
@@ -1793,31 +1662,30 @@
         <v>286</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3">
+        <v>48</v>
+      </c>
       <c r="E2" s="3">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="F2" s="3">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="G2" s="3">
         <v>96</v>
       </c>
       <c r="H2" s="3">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I2" s="3">
         <v>24</v>
       </c>
-      <c r="J2" s="3">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4">
-        <f>SUM(E2:J2)</f>
+      <c r="J2" s="4">
+        <f>SUM(D2:I2)</f>
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>288</v>
       </c>
@@ -1825,31 +1693,30 @@
         <v>288</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>25</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>25</v>
       </c>
-      <c r="J3" s="3">
-        <v>25</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K47" si="0">SUM(E3:J3)</f>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J47" si="0">SUM(D3:I3)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>323</v>
       </c>
@@ -1857,21 +1724,20 @@
         <v>324</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>325</v>
       </c>
@@ -1879,21 +1745,20 @@
         <v>326</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>327</v>
       </c>
@@ -1901,7 +1766,9 @@
         <v>328</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
@@ -1917,15 +1784,12 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>289</v>
       </c>
@@ -1933,31 +1797,30 @@
         <v>290</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
       <c r="E7" s="9">
-        <v>0</v>
+        <v>370000</v>
       </c>
       <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
         <v>370000</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
       </c>
       <c r="I7" s="9">
         <v>370000</v>
       </c>
-      <c r="J7" s="9">
-        <v>370000</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>1110000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1965,7 +1828,9 @@
         <v>291</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3">
+        <v>50000</v>
+      </c>
       <c r="E8" s="3">
         <v>50000</v>
       </c>
@@ -1981,15 +1846,12 @@
       <c r="I8" s="3">
         <v>50000</v>
       </c>
-      <c r="J8" s="3">
-        <v>50000</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1997,31 +1859,30 @@
         <v>10</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3">
+        <v>572150</v>
+      </c>
       <c r="E9" s="3">
+        <v>567150</v>
+      </c>
+      <c r="F9" s="3">
         <v>572150</v>
       </c>
-      <c r="F9" s="3">
-        <v>567150</v>
-      </c>
       <c r="G9" s="3">
-        <v>572150</v>
+        <v>632150</v>
       </c>
       <c r="H9" s="3">
-        <v>632150</v>
+        <v>627150</v>
       </c>
       <c r="I9" s="3">
         <v>627150</v>
       </c>
-      <c r="J9" s="3">
-        <v>627150</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>3597900</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2031,7 +1892,9 @@
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3">
+        <v>130000</v>
+      </c>
       <c r="E10" s="3">
         <v>130000</v>
       </c>
@@ -2047,15 +1910,12 @@
       <c r="I10" s="3">
         <v>130000</v>
       </c>
-      <c r="J10" s="3">
-        <v>130000</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>780000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2065,7 +1925,9 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3">
+        <v>50000</v>
+      </c>
       <c r="E11" s="3">
         <v>50000</v>
       </c>
@@ -2081,15 +1943,12 @@
       <c r="I11" s="3">
         <v>50000</v>
       </c>
-      <c r="J11" s="3">
-        <v>50000</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2097,31 +1956,30 @@
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3">
+        <v>65000</v>
+      </c>
       <c r="E12" s="3">
         <v>65000</v>
       </c>
       <c r="F12" s="3">
-        <v>65000</v>
+        <v>135000</v>
       </c>
       <c r="G12" s="3">
-        <v>135000</v>
+        <v>85000</v>
       </c>
       <c r="H12" s="3">
-        <v>85000</v>
+        <v>118000</v>
       </c>
       <c r="I12" s="3">
         <v>118000</v>
       </c>
-      <c r="J12" s="3">
-        <v>118000</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>586000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2129,21 +1987,20 @@
         <v>329</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2151,9 +2008,11 @@
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="3">
+        <v>240000</v>
+      </c>
       <c r="E14" s="3">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="F14" s="3">
         <v>120000</v>
@@ -2167,15 +2026,12 @@
       <c r="I14" s="3">
         <v>120000</v>
       </c>
-      <c r="J14" s="3">
-        <v>120000</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2185,25 +2041,24 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3">
+        <v>380000</v>
+      </c>
       <c r="E15" s="3">
         <v>380000</v>
       </c>
-      <c r="F15" s="3">
-        <v>380000</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>760000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2211,7 +2066,9 @@
         <v>17</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3">
+        <v>320000</v>
+      </c>
       <c r="E16" s="3">
         <v>320000</v>
       </c>
@@ -2227,15 +2084,12 @@
       <c r="I16" s="3">
         <v>320000</v>
       </c>
-      <c r="J16" s="3">
-        <v>320000</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="J16" s="4">
         <f t="shared" si="0"/>
         <v>1920000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2243,7 +2097,9 @@
         <v>269</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="3">
+        <v>100000</v>
+      </c>
       <c r="E17" s="3">
         <v>100000</v>
       </c>
@@ -2259,15 +2115,12 @@
       <c r="I17" s="3">
         <v>100000</v>
       </c>
-      <c r="J17" s="3">
-        <v>100000</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="J17" s="4">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2277,7 +2130,9 @@
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3">
+        <v>3000</v>
+      </c>
       <c r="E18" s="3">
         <v>3000</v>
       </c>
@@ -2293,15 +2148,12 @@
       <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2311,31 +2163,30 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3">
+        <v>212000</v>
+      </c>
       <c r="E19" s="3">
-        <v>212000</v>
+        <v>200000</v>
       </c>
       <c r="F19" s="3">
+        <v>218000</v>
+      </c>
+      <c r="G19" s="3">
         <v>200000</v>
       </c>
-      <c r="G19" s="3">
-        <v>218000</v>
-      </c>
       <c r="H19" s="3">
-        <v>200000</v>
+        <v>221000</v>
       </c>
       <c r="I19" s="3">
         <v>221000</v>
       </c>
-      <c r="J19" s="3">
-        <v>221000</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="J19" s="4">
         <f t="shared" si="0"/>
         <v>1272000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2343,12 +2194,14 @@
         <v>20</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3">
+        <v>33000</v>
+      </c>
       <c r="E20" s="3">
         <v>33000</v>
       </c>
       <c r="F20" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="G20" s="3">
         <v>35000</v>
@@ -2359,15 +2212,12 @@
       <c r="I20" s="3">
         <v>35000</v>
       </c>
-      <c r="J20" s="3">
-        <v>35000</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="J20" s="4">
         <f t="shared" si="0"/>
         <v>206000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2375,7 +2225,9 @@
         <v>22</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3">
+        <v>400000</v>
+      </c>
       <c r="E21" s="3">
         <v>400000</v>
       </c>
@@ -2391,15 +2243,12 @@
       <c r="I21" s="3">
         <v>400000</v>
       </c>
-      <c r="J21" s="3">
-        <v>400000</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="J21" s="4">
         <f t="shared" si="0"/>
         <v>2400000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2407,9 +2256,11 @@
         <v>24</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3">
+        <v>395000</v>
+      </c>
       <c r="E22" s="3">
-        <v>395000</v>
+        <v>235000</v>
       </c>
       <c r="F22" s="3">
         <v>235000</v>
@@ -2423,15 +2274,12 @@
       <c r="I22" s="3">
         <v>235000</v>
       </c>
-      <c r="J22" s="3">
-        <v>235000</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="J22" s="4">
         <f t="shared" si="0"/>
         <v>1570000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2439,7 +2287,9 @@
         <v>26</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3">
+        <v>19000</v>
+      </c>
       <c r="E23" s="3">
         <v>19000</v>
       </c>
@@ -2455,15 +2305,12 @@
       <c r="I23" s="3">
         <v>19000</v>
       </c>
-      <c r="J23" s="3">
-        <v>19000</v>
-      </c>
-      <c r="K23" s="4">
+      <c r="J23" s="4">
         <f t="shared" si="0"/>
         <v>114000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2471,25 +2318,24 @@
         <v>28</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>500000</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
         <v>500000</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2497,7 +2343,9 @@
         <v>29</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="3">
+        <v>3500000</v>
+      </c>
       <c r="E25" s="3">
         <v>3500000</v>
       </c>
@@ -2513,15 +2361,12 @@
       <c r="I25" s="3">
         <v>3500000</v>
       </c>
-      <c r="J25" s="3">
-        <v>3500000</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="J25" s="4">
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2529,9 +2374,11 @@
         <v>30</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3">
+        <v>2000000</v>
+      </c>
       <c r="E26" s="3">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F26" s="3">
         <v>1000000</v>
@@ -2545,15 +2392,12 @@
       <c r="I26" s="3">
         <v>1000000</v>
       </c>
-      <c r="J26" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="K26" s="4">
+      <c r="J26" s="4">
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -2561,7 +2405,9 @@
         <v>292</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="3">
+        <v>3000000</v>
+      </c>
       <c r="E27" s="3">
         <v>3000000</v>
       </c>
@@ -2577,15 +2423,12 @@
       <c r="I27" s="3">
         <v>3000000</v>
       </c>
-      <c r="J27" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="K27" s="4">
+      <c r="J27" s="4">
         <f t="shared" si="0"/>
         <v>18000000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2593,9 +2436,11 @@
         <v>293</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="3">
+        <v>750000</v>
+      </c>
       <c r="E28" s="3">
-        <v>750000</v>
+        <v>250000</v>
       </c>
       <c r="F28" s="3">
         <v>250000</v>
@@ -2609,15 +2454,12 @@
       <c r="I28" s="3">
         <v>250000</v>
       </c>
-      <c r="J28" s="3">
-        <v>250000</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="J28" s="4">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>330</v>
       </c>
@@ -2625,21 +2467,20 @@
         <v>331</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>330</v>
       </c>
@@ -2647,21 +2488,20 @@
         <v>332</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2669,21 +2509,20 @@
         <v>333</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2691,25 +2530,24 @@
         <v>33</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="3">
+        <v>2500000</v>
+      </c>
       <c r="E32" s="3">
         <v>2500000</v>
       </c>
-      <c r="F32" s="3">
-        <v>2500000</v>
-      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2717,9 +2555,11 @@
         <v>35</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="3">
+        <v>500000</v>
+      </c>
       <c r="E33" s="3">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="F33" s="3">
         <v>250000</v>
@@ -2733,15 +2573,12 @@
       <c r="I33" s="3">
         <v>250000</v>
       </c>
-      <c r="J33" s="3">
-        <v>250000</v>
-      </c>
-      <c r="K33" s="4">
+      <c r="J33" s="4">
         <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>294</v>
       </c>
@@ -2749,23 +2586,22 @@
         <v>295</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3">
+      <c r="D34" s="3">
         <v>250000</v>
       </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2773,23 +2609,22 @@
         <v>37</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3">
+      <c r="D35" s="3">
         <v>1500000</v>
       </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>296</v>
       </c>
@@ -2797,12 +2632,14 @@
         <v>297</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="3">
+        <v>60000</v>
+      </c>
       <c r="E36" s="3">
         <v>60000</v>
       </c>
       <c r="F36" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="G36" s="3">
         <v>65000</v>
@@ -2813,15 +2650,12 @@
       <c r="I36" s="3">
         <v>65000</v>
       </c>
-      <c r="J36" s="3">
-        <v>65000</v>
-      </c>
-      <c r="K36" s="4">
+      <c r="J36" s="4">
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2829,15 +2663,17 @@
         <v>39</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="3">
+        <v>239000</v>
+      </c>
       <c r="E37" s="3">
+        <v>1239000</v>
+      </c>
+      <c r="F37" s="3">
         <v>239000</v>
       </c>
-      <c r="F37" s="3">
-        <v>1239000</v>
-      </c>
       <c r="G37" s="3">
-        <v>239000</v>
+        <v>240000</v>
       </c>
       <c r="H37" s="3">
         <v>240000</v>
@@ -2845,15 +2681,12 @@
       <c r="I37" s="3">
         <v>240000</v>
       </c>
-      <c r="J37" s="3">
-        <v>240000</v>
-      </c>
-      <c r="K37" s="4">
+      <c r="J37" s="4">
         <f t="shared" si="0"/>
         <v>2437000</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2861,15 +2694,17 @@
         <v>41</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
         <v>30000</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
       </c>
       <c r="H38" s="3">
         <v>30000</v>
@@ -2877,15 +2712,12 @@
       <c r="I38" s="3">
         <v>30000</v>
       </c>
-      <c r="J38" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K38" s="4">
+      <c r="J38" s="4">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -2893,7 +2725,9 @@
         <v>43</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="3">
+        <v>379000</v>
+      </c>
       <c r="E39" s="3">
         <v>379000</v>
       </c>
@@ -2909,15 +2743,12 @@
       <c r="I39" s="3">
         <v>379000</v>
       </c>
-      <c r="J39" s="3">
-        <v>379000</v>
-      </c>
-      <c r="K39" s="4">
+      <c r="J39" s="4">
         <f t="shared" si="0"/>
         <v>2274000</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -2925,7 +2756,9 @@
         <v>45</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="3">
+        <v>80000</v>
+      </c>
       <c r="E40" s="3">
         <v>80000</v>
       </c>
@@ -2941,15 +2774,12 @@
       <c r="I40" s="3">
         <v>80000</v>
       </c>
-      <c r="J40" s="3">
-        <v>80000</v>
-      </c>
-      <c r="K40" s="4">
+      <c r="J40" s="4">
         <f t="shared" si="0"/>
         <v>480000</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2957,7 +2787,9 @@
         <v>47</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="3">
+        <v>510000</v>
+      </c>
       <c r="E41" s="3">
         <v>510000</v>
       </c>
@@ -2973,15 +2805,12 @@
       <c r="I41" s="3">
         <v>510000</v>
       </c>
-      <c r="J41" s="3">
-        <v>510000</v>
-      </c>
-      <c r="K41" s="4">
+      <c r="J41" s="4">
         <f t="shared" si="0"/>
         <v>3060000</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2989,23 +2818,22 @@
         <v>48</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3">
+      <c r="D42" s="3">
         <v>381000</v>
       </c>
+      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
         <f t="shared" si="0"/>
         <v>381000</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,15 +2841,17 @@
         <v>50</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="3">
+        <v>40000</v>
+      </c>
       <c r="E43" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="F43" s="3">
         <v>10000</v>
       </c>
       <c r="G43" s="3">
-        <v>10000</v>
+        <v>70000</v>
       </c>
       <c r="H43" s="3">
         <v>70000</v>
@@ -3029,15 +2859,12 @@
       <c r="I43" s="3">
         <v>70000</v>
       </c>
-      <c r="J43" s="3">
-        <v>70000</v>
-      </c>
-      <c r="K43" s="4">
+      <c r="J43" s="4">
         <f t="shared" si="0"/>
         <v>270000</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -3045,7 +2872,9 @@
         <v>52</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="3">
+        <v>50000</v>
+      </c>
       <c r="E44" s="3">
         <v>50000</v>
       </c>
@@ -3061,15 +2890,12 @@
       <c r="I44" s="3">
         <v>50000</v>
       </c>
-      <c r="J44" s="3">
-        <v>50000</v>
-      </c>
-      <c r="K44" s="4">
+      <c r="J44" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -3077,31 +2903,30 @@
         <v>298</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="3">
+        <v>3910000</v>
+      </c>
       <c r="E45" s="3">
-        <v>3910000</v>
+        <v>4335000</v>
       </c>
       <c r="F45" s="3">
+        <v>3615000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4095000</v>
+      </c>
+      <c r="H45" s="3">
         <v>4335000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3615000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4095000</v>
       </c>
       <c r="I45" s="3">
         <v>4335000</v>
       </c>
-      <c r="J45" s="3">
-        <v>4335000</v>
-      </c>
-      <c r="K45" s="4">
+      <c r="J45" s="4">
         <f t="shared" si="0"/>
         <v>24625000</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -3109,21 +2934,20 @@
         <v>334</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="4">
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -3131,7 +2955,9 @@
         <v>54</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="3">
+        <v>2167000</v>
+      </c>
       <c r="E47" s="3">
         <v>2167000</v>
       </c>
@@ -3142,20 +2968,17 @@
         <v>2167000</v>
       </c>
       <c r="H47" s="3">
-        <v>2167000</v>
+        <v>2287000</v>
       </c>
       <c r="I47" s="3">
         <v>2287000</v>
       </c>
-      <c r="J47" s="3">
-        <v>2287000</v>
-      </c>
-      <c r="K47" s="4">
+      <c r="J47" s="4">
         <f t="shared" si="0"/>
         <v>13242000</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -3163,31 +2986,30 @@
         <v>56</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="3">
+        <v>500000</v>
+      </c>
       <c r="E48" s="3">
-        <v>500000</v>
+        <v>1100000</v>
       </c>
       <c r="F48" s="3">
+        <v>600000</v>
+      </c>
+      <c r="G48" s="3">
         <v>1100000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>600000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1100000</v>
       </c>
       <c r="I48" s="3">
         <v>600000</v>
       </c>
-      <c r="J48" s="3">
-        <v>600000</v>
-      </c>
-      <c r="K48" s="4">
-        <f t="shared" ref="K48:K94" si="1">SUM(E48:J48)</f>
+      <c r="J48" s="4">
+        <f t="shared" ref="J48:J94" si="1">SUM(D48:I48)</f>
         <v>4500000</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -3195,31 +3017,30 @@
         <v>57</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="3">
+        <v>400000</v>
+      </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>600000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>400000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>600000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>400000</v>
       </c>
-      <c r="J49" s="3">
-        <v>400000</v>
-      </c>
-      <c r="K49" s="4">
+      <c r="J49" s="4">
         <f t="shared" si="1"/>
         <v>1800000</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -3227,23 +3048,22 @@
         <v>299</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="3">
+      <c r="D50" s="3">
         <v>1000000</v>
       </c>
+      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -3251,7 +3071,9 @@
         <v>335</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
       <c r="E51" s="3">
         <v>0</v>
       </c>
@@ -3267,15 +3089,12 @@
       <c r="I51" s="3">
         <v>0</v>
       </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
+      <c r="J51" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -3283,25 +3102,24 @@
         <v>58</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
         <v>1000000</v>
       </c>
+      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3">
+      <c r="G52" s="3">
         <v>1000000</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -3309,19 +3127,18 @@
         <v>336</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="4">
+      <c r="J53" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -3329,29 +3146,28 @@
         <v>60</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="3">
+        <v>600000</v>
+      </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>600000</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>600000</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
         <f t="shared" si="1"/>
         <v>1200000</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -3359,7 +3175,9 @@
         <v>62</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="3">
+        <v>140000</v>
+      </c>
       <c r="E55" s="3">
         <v>140000</v>
       </c>
@@ -3375,15 +3193,12 @@
       <c r="I55" s="3">
         <v>140000</v>
       </c>
-      <c r="J55" s="3">
-        <v>140000</v>
-      </c>
-      <c r="K55" s="4">
+      <c r="J55" s="4">
         <f t="shared" si="1"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -3391,12 +3206,14 @@
         <v>64</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="3">
+        <v>20000</v>
+      </c>
       <c r="E56" s="3">
         <v>20000</v>
       </c>
       <c r="F56" s="3">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="G56" s="3">
         <v>35000</v>
@@ -3407,15 +3224,12 @@
       <c r="I56" s="3">
         <v>35000</v>
       </c>
-      <c r="J56" s="3">
-        <v>35000</v>
-      </c>
-      <c r="K56" s="4">
+      <c r="J56" s="4">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -3423,9 +3237,11 @@
         <v>66</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="3">
+        <v>5000</v>
+      </c>
       <c r="E57" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F57" s="3">
         <v>10000</v>
@@ -3434,20 +3250,17 @@
         <v>10000</v>
       </c>
       <c r="H57" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="I57" s="3">
         <v>40000</v>
       </c>
-      <c r="J57" s="3">
-        <v>40000</v>
-      </c>
-      <c r="K57" s="4">
+      <c r="J57" s="4">
         <f t="shared" si="1"/>
         <v>115000</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -3455,31 +3268,30 @@
         <v>68</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="3">
+        <v>106000</v>
+      </c>
       <c r="E58" s="3">
-        <v>106000</v>
+        <v>76000</v>
       </c>
       <c r="F58" s="3">
-        <v>76000</v>
+        <v>89000</v>
       </c>
       <c r="G58" s="3">
         <v>89000</v>
       </c>
       <c r="H58" s="3">
-        <v>89000</v>
+        <v>109000</v>
       </c>
       <c r="I58" s="3">
         <v>109000</v>
       </c>
-      <c r="J58" s="3">
-        <v>109000</v>
-      </c>
-      <c r="K58" s="4">
+      <c r="J58" s="4">
         <f t="shared" si="1"/>
         <v>578000</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>337</v>
       </c>
@@ -3487,21 +3299,20 @@
         <v>338</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4">
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -3509,7 +3320,9 @@
         <v>70</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="3">
+        <v>430000</v>
+      </c>
       <c r="E60" s="3">
         <v>430000</v>
       </c>
@@ -3525,15 +3338,12 @@
       <c r="I60" s="3">
         <v>430000</v>
       </c>
-      <c r="J60" s="3">
-        <v>430000</v>
-      </c>
-      <c r="K60" s="4">
+      <c r="J60" s="4">
         <f t="shared" si="1"/>
         <v>2580000</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3541,31 +3351,30 @@
         <v>72</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="3">
+        <v>120000</v>
+      </c>
       <c r="E61" s="3">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="F61" s="3">
-        <v>125000</v>
+        <v>130000</v>
       </c>
       <c r="G61" s="3">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="H61" s="3">
-        <v>135000</v>
+        <v>165000</v>
       </c>
       <c r="I61" s="3">
         <v>165000</v>
       </c>
-      <c r="J61" s="3">
-        <v>165000</v>
-      </c>
-      <c r="K61" s="4">
+      <c r="J61" s="4">
         <f t="shared" si="1"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -3573,7 +3382,9 @@
         <v>74</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="3">
+        <v>30000</v>
+      </c>
       <c r="E62" s="3">
         <v>30000</v>
       </c>
@@ -3589,15 +3400,12 @@
       <c r="I62" s="3">
         <v>30000</v>
       </c>
-      <c r="J62" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K62" s="4">
+      <c r="J62" s="4">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -3605,27 +3413,26 @@
         <v>74</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3">
+        <v>12000</v>
+      </c>
       <c r="F63" s="3">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="G63" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H63" s="3">
         <v>15000</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3">
-        <v>0</v>
-      </c>
-      <c r="K63" s="4">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
         <f t="shared" si="1"/>
         <v>33000</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>339</v>
       </c>
@@ -3633,21 +3440,20 @@
         <v>340</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
-      <c r="K64" s="4">
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -3655,31 +3461,30 @@
         <v>77</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="D65" s="3">
+        <v>30000</v>
+      </c>
       <c r="E65" s="3">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="F65" s="3">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="G65" s="3">
         <v>3000</v>
       </c>
       <c r="H65" s="3">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="I65" s="3">
         <v>18000</v>
       </c>
-      <c r="J65" s="3">
-        <v>18000</v>
-      </c>
-      <c r="K65" s="4">
+      <c r="J65" s="4">
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -3687,31 +3492,30 @@
         <v>79</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="3">
+        <v>14000</v>
+      </c>
       <c r="E66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F66" s="3">
         <v>14000</v>
       </c>
-      <c r="F66" s="3">
-        <v>5000</v>
-      </c>
       <c r="G66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H66" s="3">
         <v>14000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>20000</v>
       </c>
       <c r="I66" s="3">
         <v>14000</v>
       </c>
-      <c r="J66" s="3">
-        <v>14000</v>
-      </c>
-      <c r="K66" s="4">
+      <c r="J66" s="4">
         <f t="shared" si="1"/>
         <v>81000</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
@@ -3719,7 +3523,9 @@
         <v>81</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="3">
+        <v>19000</v>
+      </c>
       <c r="E67" s="3">
         <v>19000</v>
       </c>
@@ -3735,15 +3541,12 @@
       <c r="I67" s="3">
         <v>19000</v>
       </c>
-      <c r="J67" s="3">
-        <v>19000</v>
-      </c>
-      <c r="K67" s="4">
+      <c r="J67" s="4">
         <f t="shared" si="1"/>
         <v>114000</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -3751,7 +3554,9 @@
         <v>83</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="3">
+        <v>20000</v>
+      </c>
       <c r="E68" s="3">
         <v>20000</v>
       </c>
@@ -3767,15 +3572,12 @@
       <c r="I68" s="3">
         <v>20000</v>
       </c>
-      <c r="J68" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K68" s="4">
+      <c r="J68" s="4">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
@@ -3783,31 +3585,30 @@
         <v>85</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="3">
+        <v>322000</v>
+      </c>
       <c r="E69" s="3">
         <v>322000</v>
       </c>
       <c r="F69" s="3">
+        <v>352000</v>
+      </c>
+      <c r="G69" s="3">
         <v>322000</v>
       </c>
-      <c r="G69" s="3">
+      <c r="H69" s="3">
         <v>352000</v>
-      </c>
-      <c r="H69" s="3">
-        <v>322000</v>
       </c>
       <c r="I69" s="3">
         <v>352000</v>
       </c>
-      <c r="J69" s="3">
-        <v>352000</v>
-      </c>
-      <c r="K69" s="4">
+      <c r="J69" s="4">
         <f t="shared" si="1"/>
         <v>2022000</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
@@ -3815,31 +3616,30 @@
         <v>300</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="D70" s="3">
+        <v>900000</v>
+      </c>
       <c r="E70" s="3">
         <v>900000</v>
       </c>
       <c r="F70" s="3">
-        <v>900000</v>
+        <v>1000000</v>
       </c>
       <c r="G70" s="3">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H70" s="3">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="I70" s="3">
         <v>1500000</v>
       </c>
-      <c r="J70" s="3">
-        <v>1500000</v>
-      </c>
-      <c r="K70" s="4">
+      <c r="J70" s="4">
         <f t="shared" si="1"/>
         <v>7100000</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
@@ -3847,31 +3647,30 @@
         <v>87</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="3">
+        <v>212000</v>
+      </c>
       <c r="E71" s="3">
         <v>212000</v>
       </c>
       <c r="F71" s="3">
+        <v>242000</v>
+      </c>
+      <c r="G71" s="3">
         <v>212000</v>
       </c>
-      <c r="G71" s="3">
+      <c r="H71" s="3">
         <v>242000</v>
-      </c>
-      <c r="H71" s="3">
-        <v>212000</v>
       </c>
       <c r="I71" s="3">
         <v>242000</v>
       </c>
-      <c r="J71" s="3">
-        <v>242000</v>
-      </c>
-      <c r="K71" s="4">
+      <c r="J71" s="4">
         <f t="shared" si="1"/>
         <v>1362000</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
@@ -3879,31 +3678,30 @@
         <v>88</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="3">
+        <v>320000</v>
+      </c>
       <c r="E72" s="3">
         <v>320000</v>
       </c>
       <c r="F72" s="3">
-        <v>320000</v>
+        <v>380000</v>
       </c>
       <c r="G72" s="3">
         <v>380000</v>
       </c>
       <c r="H72" s="3">
-        <v>380000</v>
+        <v>392000</v>
       </c>
       <c r="I72" s="3">
         <v>392000</v>
       </c>
-      <c r="J72" s="3">
-        <v>392000</v>
-      </c>
-      <c r="K72" s="4">
+      <c r="J72" s="4">
         <f t="shared" si="1"/>
         <v>2184000</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -3911,31 +3709,30 @@
         <v>90</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="3">
+        <v>352000</v>
+      </c>
       <c r="E73" s="3">
-        <v>352000</v>
+        <v>552000</v>
       </c>
       <c r="F73" s="3">
-        <v>552000</v>
+        <v>362000</v>
       </c>
       <c r="G73" s="3">
         <v>362000</v>
       </c>
       <c r="H73" s="3">
-        <v>362000</v>
+        <v>562000</v>
       </c>
       <c r="I73" s="3">
         <v>562000</v>
       </c>
-      <c r="J73" s="3">
-        <v>562000</v>
-      </c>
-      <c r="K73" s="4">
+      <c r="J73" s="4">
         <f t="shared" si="1"/>
         <v>2752000</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -3943,31 +3740,30 @@
         <v>92</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="3">
+        <v>854000</v>
+      </c>
       <c r="E74" s="3">
-        <v>854000</v>
+        <v>1192500</v>
       </c>
       <c r="F74" s="3">
-        <v>1192500</v>
+        <v>1429000</v>
       </c>
       <c r="G74" s="3">
-        <v>1429000</v>
+        <v>1529000</v>
       </c>
       <c r="H74" s="3">
-        <v>1529000</v>
+        <v>1527000</v>
       </c>
       <c r="I74" s="3">
         <v>1527000</v>
       </c>
-      <c r="J74" s="3">
-        <v>1527000</v>
-      </c>
-      <c r="K74" s="4">
+      <c r="J74" s="4">
         <f t="shared" si="1"/>
         <v>8058500</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>93</v>
       </c>
@@ -3975,31 +3771,30 @@
         <v>94</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="3">
+        <v>322000</v>
+      </c>
       <c r="E75" s="3">
-        <v>322000</v>
+        <v>272000</v>
       </c>
       <c r="F75" s="3">
-        <v>272000</v>
+        <v>282000</v>
       </c>
       <c r="G75" s="3">
         <v>282000</v>
       </c>
       <c r="H75" s="3">
-        <v>282000</v>
+        <v>292000</v>
       </c>
       <c r="I75" s="3">
         <v>292000</v>
       </c>
-      <c r="J75" s="3">
-        <v>292000</v>
-      </c>
-      <c r="K75" s="4">
+      <c r="J75" s="4">
         <f t="shared" si="1"/>
         <v>1742000</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
@@ -4007,21 +3802,20 @@
         <v>341</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="4">
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>95</v>
       </c>
@@ -4029,12 +3823,14 @@
         <v>96</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="3">
+        <v>360000</v>
+      </c>
       <c r="E77" s="3">
-        <v>360000</v>
+        <v>500000</v>
       </c>
       <c r="F77" s="3">
-        <v>500000</v>
+        <v>505000</v>
       </c>
       <c r="G77" s="3">
         <v>505000</v>
@@ -4045,15 +3841,12 @@
       <c r="I77" s="3">
         <v>505000</v>
       </c>
-      <c r="J77" s="3">
-        <v>505000</v>
-      </c>
-      <c r="K77" s="4">
+      <c r="J77" s="4">
         <f t="shared" si="1"/>
         <v>2880000</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>97</v>
       </c>
@@ -4061,31 +3854,30 @@
         <v>301</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="D78" s="3">
+        <v>262000</v>
+      </c>
       <c r="E78" s="3">
-        <v>262000</v>
+        <v>283000</v>
       </c>
       <c r="F78" s="3">
-        <v>283000</v>
+        <v>331000</v>
       </c>
       <c r="G78" s="3">
-        <v>331000</v>
+        <v>368000</v>
       </c>
       <c r="H78" s="3">
-        <v>368000</v>
+        <v>388000</v>
       </c>
       <c r="I78" s="3">
         <v>388000</v>
       </c>
-      <c r="J78" s="3">
-        <v>388000</v>
-      </c>
-      <c r="K78" s="4">
+      <c r="J78" s="4">
         <f t="shared" si="1"/>
         <v>2020000</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>98</v>
       </c>
@@ -4093,12 +3885,14 @@
         <v>302</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="D79" s="3">
+        <v>830000</v>
+      </c>
       <c r="E79" s="3">
         <v>830000</v>
       </c>
       <c r="F79" s="3">
-        <v>830000</v>
+        <v>840000</v>
       </c>
       <c r="G79" s="3">
         <v>840000</v>
@@ -4109,15 +3903,12 @@
       <c r="I79" s="3">
         <v>840000</v>
       </c>
-      <c r="J79" s="3">
-        <v>840000</v>
-      </c>
-      <c r="K79" s="4">
+      <c r="J79" s="4">
         <f t="shared" si="1"/>
         <v>5020000</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>99</v>
       </c>
@@ -4125,31 +3916,30 @@
         <v>303</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="3">
+        <v>994000</v>
+      </c>
       <c r="E80" s="3">
-        <v>994000</v>
+        <v>1072000</v>
       </c>
       <c r="F80" s="3">
-        <v>1072000</v>
+        <v>1226000</v>
       </c>
       <c r="G80" s="3">
-        <v>1226000</v>
+        <v>1470000</v>
       </c>
       <c r="H80" s="3">
-        <v>1470000</v>
+        <v>1464000</v>
       </c>
       <c r="I80" s="3">
-        <v>1464000</v>
-      </c>
-      <c r="J80" s="3">
         <v>1460000</v>
       </c>
-      <c r="K80" s="4">
+      <c r="J80" s="4">
         <f t="shared" si="1"/>
         <v>7686000</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>100</v>
       </c>
@@ -4157,23 +3947,22 @@
         <v>101</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
+      <c r="H81" s="3">
+        <v>200000</v>
+      </c>
       <c r="I81" s="3">
         <v>200000</v>
       </c>
-      <c r="J81" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K81" s="4">
+      <c r="J81" s="4">
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>304</v>
       </c>
@@ -4181,25 +3970,24 @@
         <v>305</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
+      <c r="G82" s="3">
+        <v>5000</v>
+      </c>
       <c r="H82" s="3">
         <v>5000</v>
       </c>
       <c r="I82" s="3">
         <v>5000</v>
       </c>
-      <c r="J82" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K82" s="4">
+      <c r="J82" s="4">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>102</v>
       </c>
@@ -4207,7 +3995,9 @@
         <v>103</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="D83" s="3">
+        <v>5000</v>
+      </c>
       <c r="E83" s="3">
         <v>5000</v>
       </c>
@@ -4223,15 +4013,12 @@
       <c r="I83" s="3">
         <v>5000</v>
       </c>
-      <c r="J83" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K83" s="4">
+      <c r="J83" s="4">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>104</v>
       </c>
@@ -4239,7 +4026,9 @@
         <v>105</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="3">
+        <v>150000</v>
+      </c>
       <c r="E84" s="3">
         <v>150000</v>
       </c>
@@ -4247,7 +4036,7 @@
         <v>150000</v>
       </c>
       <c r="G84" s="3">
-        <v>150000</v>
+        <v>151000</v>
       </c>
       <c r="H84" s="3">
         <v>151000</v>
@@ -4255,15 +4044,12 @@
       <c r="I84" s="3">
         <v>151000</v>
       </c>
-      <c r="J84" s="3">
-        <v>151000</v>
-      </c>
-      <c r="K84" s="4">
+      <c r="J84" s="4">
         <f t="shared" si="1"/>
         <v>903000</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>106</v>
       </c>
@@ -4271,31 +4057,30 @@
         <v>107</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="D85" s="3">
+        <v>128000</v>
+      </c>
       <c r="E85" s="3">
-        <v>128000</v>
+        <v>130000</v>
       </c>
       <c r="F85" s="3">
-        <v>130000</v>
+        <v>133000</v>
       </c>
       <c r="G85" s="3">
-        <v>133000</v>
+        <v>145000</v>
       </c>
       <c r="H85" s="3">
-        <v>145000</v>
+        <v>150000</v>
       </c>
       <c r="I85" s="3">
         <v>150000</v>
       </c>
-      <c r="J85" s="3">
-        <v>150000</v>
-      </c>
-      <c r="K85" s="4">
+      <c r="J85" s="4">
         <f t="shared" si="1"/>
         <v>836000</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>108</v>
       </c>
@@ -4303,7 +4088,9 @@
         <v>109</v>
       </c>
       <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+      <c r="D86" s="9">
+        <v>10000</v>
+      </c>
       <c r="E86" s="9">
         <v>10000</v>
       </c>
@@ -4319,15 +4106,12 @@
       <c r="I86" s="9">
         <v>10000</v>
       </c>
-      <c r="J86" s="9">
-        <v>10000</v>
-      </c>
-      <c r="K86" s="4">
+      <c r="J86" s="4">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
@@ -4335,23 +4119,22 @@
         <v>110</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="3">
+      <c r="D87" s="3">
         <v>400000</v>
       </c>
+      <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3">
-        <v>0</v>
-      </c>
-      <c r="K87" s="4">
+      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>111</v>
       </c>
@@ -4359,7 +4142,9 @@
         <v>112</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="D88" s="3">
+        <v>3000</v>
+      </c>
       <c r="E88" s="3">
         <v>3000</v>
       </c>
@@ -4375,15 +4160,12 @@
       <c r="I88" s="3">
         <v>3000</v>
       </c>
-      <c r="J88" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K88" s="4">
+      <c r="J88" s="4">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>113</v>
       </c>
@@ -4391,29 +4173,28 @@
         <v>114</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3">
+        <v>200000</v>
+      </c>
       <c r="F89" s="3">
-        <v>200000</v>
+        <v>215000</v>
       </c>
       <c r="G89" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H89" s="3">
         <v>215000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>150000</v>
       </c>
       <c r="I89" s="3">
         <v>215000</v>
       </c>
-      <c r="J89" s="3">
-        <v>215000</v>
-      </c>
-      <c r="K89" s="4">
+      <c r="J89" s="4">
         <f t="shared" si="1"/>
         <v>995000</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>306</v>
       </c>
@@ -4421,9 +4202,11 @@
         <v>287</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="3">
+        <v>5000</v>
+      </c>
       <c r="G90" s="3">
         <v>5000</v>
       </c>
@@ -4433,15 +4216,12 @@
       <c r="I90" s="3">
         <v>5000</v>
       </c>
-      <c r="J90" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K90" s="4">
+      <c r="J90" s="4">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>115</v>
       </c>
@@ -4449,7 +4229,9 @@
         <v>116</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="3">
+        <v>1200000</v>
+      </c>
       <c r="E91" s="3">
         <v>1200000</v>
       </c>
@@ -4465,15 +4247,12 @@
       <c r="I91" s="3">
         <v>1200000</v>
       </c>
-      <c r="J91" s="3">
-        <v>1200000</v>
-      </c>
-      <c r="K91" s="4">
+      <c r="J91" s="4">
         <f t="shared" si="1"/>
         <v>7200000</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>117</v>
       </c>
@@ -4481,31 +4260,30 @@
         <v>118</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="3">
+        <v>1450000</v>
+      </c>
       <c r="E92" s="3">
-        <v>1450000</v>
+        <v>1600000</v>
       </c>
       <c r="F92" s="3">
-        <v>1600000</v>
+        <v>1510000</v>
       </c>
       <c r="G92" s="3">
-        <v>1510000</v>
+        <v>1570000</v>
       </c>
       <c r="H92" s="3">
-        <v>1570000</v>
+        <v>1730000</v>
       </c>
       <c r="I92" s="3">
         <v>1730000</v>
       </c>
-      <c r="J92" s="3">
-        <v>1730000</v>
-      </c>
-      <c r="K92" s="4">
+      <c r="J92" s="4">
         <f t="shared" si="1"/>
         <v>9590000</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
@@ -4513,31 +4291,30 @@
         <v>120</v>
       </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="3">
+        <v>82000</v>
+      </c>
       <c r="E93" s="3">
-        <v>82000</v>
+        <v>94000</v>
       </c>
       <c r="F93" s="3">
-        <v>94000</v>
+        <v>120000</v>
       </c>
       <c r="G93" s="3">
-        <v>120000</v>
+        <v>190000</v>
       </c>
       <c r="H93" s="3">
-        <v>190000</v>
+        <v>214000</v>
       </c>
       <c r="I93" s="3">
         <v>214000</v>
       </c>
-      <c r="J93" s="3">
-        <v>214000</v>
-      </c>
-      <c r="K93" s="4">
+      <c r="J93" s="4">
         <f t="shared" si="1"/>
         <v>914000</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>121</v>
       </c>
@@ -4545,7 +4322,9 @@
         <v>122</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="3">
+        <v>95000</v>
+      </c>
       <c r="E94" s="3">
         <v>95000</v>
       </c>
@@ -4561,15 +4340,12 @@
       <c r="I94" s="3">
         <v>95000</v>
       </c>
-      <c r="J94" s="3">
-        <v>95000</v>
-      </c>
-      <c r="K94" s="4">
+      <c r="J94" s="4">
         <f t="shared" si="1"/>
         <v>570000</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>123</v>
       </c>
@@ -4577,7 +4353,9 @@
         <v>124</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
       <c r="E95" s="3">
         <v>0</v>
       </c>
@@ -4588,20 +4366,17 @@
         <v>0</v>
       </c>
       <c r="H95" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I95" s="3">
         <v>10000</v>
       </c>
-      <c r="J95" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K95" s="4">
-        <f t="shared" ref="K95:K140" si="2">SUM(E95:J95)</f>
+      <c r="J95" s="4">
+        <f t="shared" ref="J95:J140" si="2">SUM(D95:I95)</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>125</v>
       </c>
@@ -4609,31 +4384,30 @@
         <v>126</v>
       </c>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="D96" s="3">
+        <v>50000</v>
+      </c>
       <c r="E96" s="3">
         <v>50000</v>
       </c>
       <c r="F96" s="3">
-        <v>50000</v>
+        <v>115000</v>
       </c>
       <c r="G96" s="3">
-        <v>115000</v>
+        <v>125000</v>
       </c>
       <c r="H96" s="3">
-        <v>125000</v>
+        <v>175000</v>
       </c>
       <c r="I96" s="3">
         <v>175000</v>
       </c>
-      <c r="J96" s="3">
-        <v>175000</v>
-      </c>
-      <c r="K96" s="4">
+      <c r="J96" s="4">
         <f t="shared" si="2"/>
         <v>690000</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>127</v>
       </c>
@@ -4641,7 +4415,9 @@
         <v>128</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="D97" s="3">
+        <v>5000</v>
+      </c>
       <c r="E97" s="3">
         <v>5000</v>
       </c>
@@ -4657,15 +4433,12 @@
       <c r="I97" s="3">
         <v>5000</v>
       </c>
-      <c r="J97" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K97" s="4">
+      <c r="J97" s="4">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>129</v>
       </c>
@@ -4673,9 +4446,11 @@
         <v>130</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+      <c r="F98" s="3">
+        <v>5000</v>
+      </c>
       <c r="G98" s="3">
         <v>5000</v>
       </c>
@@ -4685,15 +4460,12 @@
       <c r="I98" s="3">
         <v>5000</v>
       </c>
-      <c r="J98" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K98" s="4">
+      <c r="J98" s="4">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
@@ -4701,12 +4473,14 @@
         <v>132</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="3">
+        <v>5000</v>
+      </c>
       <c r="E99" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F99" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G99" s="3">
         <v>20000</v>
@@ -4717,15 +4491,12 @@
       <c r="I99" s="3">
         <v>20000</v>
       </c>
-      <c r="J99" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K99" s="4">
+      <c r="J99" s="4">
         <f t="shared" si="2"/>
         <v>95000</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
@@ -4733,25 +4504,24 @@
         <v>134</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="G100" s="3">
+        <v>3000</v>
+      </c>
       <c r="H100" s="3">
         <v>3000</v>
       </c>
       <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K100" s="4">
+      <c r="J100" s="4">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>307</v>
       </c>
@@ -4759,10 +4529,12 @@
         <v>308</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3">
+        <v>3000</v>
+      </c>
       <c r="F101" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G101" s="3">
         <v>5000</v>
@@ -4773,15 +4545,12 @@
       <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K101" s="4">
+      <c r="J101" s="4">
         <f t="shared" si="2"/>
         <v>23000</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>309</v>
       </c>
@@ -4789,7 +4558,9 @@
         <v>287</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="3">
+        <v>60000</v>
+      </c>
       <c r="E102" s="3">
         <v>60000</v>
       </c>
@@ -4797,7 +4568,7 @@
         <v>60000</v>
       </c>
       <c r="G102" s="3">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="H102" s="3">
         <v>120000</v>
@@ -4805,15 +4576,12 @@
       <c r="I102" s="3">
         <v>120000</v>
       </c>
-      <c r="J102" s="3">
-        <v>120000</v>
-      </c>
-      <c r="K102" s="4">
+      <c r="J102" s="4">
         <f t="shared" si="2"/>
         <v>540000</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>135</v>
       </c>
@@ -4821,27 +4589,26 @@
         <v>136</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="F103" s="3">
+        <v>10000</v>
+      </c>
       <c r="G103" s="3">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="H103" s="3">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="I103" s="3">
         <v>18000</v>
       </c>
-      <c r="J103" s="3">
-        <v>18000</v>
-      </c>
-      <c r="K103" s="4">
+      <c r="J103" s="4">
         <f t="shared" si="2"/>
         <v>59000</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>137</v>
       </c>
@@ -4849,21 +4616,20 @@
         <v>138</v>
       </c>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3">
-        <v>0</v>
-      </c>
-      <c r="K104" s="4">
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>310</v>
       </c>
@@ -4871,7 +4637,9 @@
         <v>287</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="D105" s="3">
+        <v>50000</v>
+      </c>
       <c r="E105" s="3">
         <v>50000</v>
       </c>
@@ -4887,15 +4655,12 @@
       <c r="I105" s="3">
         <v>50000</v>
       </c>
-      <c r="J105" s="3">
-        <v>50000</v>
-      </c>
-      <c r="K105" s="4">
+      <c r="J105" s="4">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>342</v>
       </c>
@@ -4903,21 +4668,20 @@
         <v>343</v>
       </c>
       <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3">
-        <v>0</v>
-      </c>
-      <c r="K106" s="4">
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>311</v>
       </c>
@@ -4925,12 +4689,14 @@
         <v>312</v>
       </c>
       <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="D107" s="3">
+        <v>10000</v>
+      </c>
       <c r="E107" s="3">
         <v>10000</v>
       </c>
       <c r="F107" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G107" s="3">
         <v>20000</v>
@@ -4941,15 +4707,12 @@
       <c r="I107" s="3">
         <v>20000</v>
       </c>
-      <c r="J107" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K107" s="4">
+      <c r="J107" s="4">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>139</v>
       </c>
@@ -4957,31 +4720,30 @@
         <v>140</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="D108" s="3">
+        <v>90000</v>
+      </c>
       <c r="E108" s="3">
         <v>90000</v>
       </c>
       <c r="F108" s="3">
+        <v>880000</v>
+      </c>
+      <c r="G108" s="3">
         <v>90000</v>
       </c>
-      <c r="G108" s="3">
-        <v>880000</v>
-      </c>
       <c r="H108" s="3">
-        <v>90000</v>
+        <v>190000</v>
       </c>
       <c r="I108" s="3">
         <v>190000</v>
       </c>
-      <c r="J108" s="3">
-        <v>190000</v>
-      </c>
-      <c r="K108" s="4">
+      <c r="J108" s="4">
         <f t="shared" si="2"/>
         <v>1530000</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>141</v>
       </c>
@@ -4989,31 +4751,30 @@
         <v>142</v>
       </c>
       <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
       <c r="E109" s="3">
         <v>0</v>
       </c>
       <c r="F109" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G109" s="3">
         <v>20000</v>
       </c>
       <c r="H109" s="3">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="I109" s="3">
         <v>100000</v>
       </c>
-      <c r="J109" s="3">
-        <v>100000</v>
-      </c>
-      <c r="K109" s="4">
+      <c r="J109" s="4">
         <f t="shared" si="2"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>344</v>
       </c>
@@ -5021,21 +4782,20 @@
         <v>345</v>
       </c>
       <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3">
-        <v>0</v>
-      </c>
-      <c r="K110" s="4">
+      <c r="I110" s="3">
+        <v>0</v>
+      </c>
+      <c r="J110" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>346</v>
       </c>
@@ -5043,21 +4803,20 @@
         <v>347</v>
       </c>
       <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3">
-        <v>0</v>
-      </c>
-      <c r="K111" s="4">
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>143</v>
       </c>
@@ -5065,7 +4824,9 @@
         <v>144</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="D112" s="3">
+        <v>50000</v>
+      </c>
       <c r="E112" s="3">
         <v>50000</v>
       </c>
@@ -5081,15 +4842,12 @@
       <c r="I112" s="3">
         <v>50000</v>
       </c>
-      <c r="J112" s="3">
-        <v>50000</v>
-      </c>
-      <c r="K112" s="4">
+      <c r="J112" s="4">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>143</v>
       </c>
@@ -5097,7 +4855,9 @@
         <v>145</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="D113" s="3">
+        <v>30000</v>
+      </c>
       <c r="E113" s="3">
         <v>30000</v>
       </c>
@@ -5113,15 +4873,12 @@
       <c r="I113" s="3">
         <v>30000</v>
       </c>
-      <c r="J113" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K113" s="4">
+      <c r="J113" s="4">
         <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>270</v>
       </c>
@@ -5129,7 +4886,9 @@
         <v>146</v>
       </c>
       <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="3">
+        <v>500000</v>
+      </c>
       <c r="E114" s="3">
         <v>500000</v>
       </c>
@@ -5145,15 +4904,12 @@
       <c r="I114" s="3">
         <v>500000</v>
       </c>
-      <c r="J114" s="3">
-        <v>500000</v>
-      </c>
-      <c r="K114" s="4">
+      <c r="J114" s="4">
         <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>147</v>
       </c>
@@ -5161,9 +4917,11 @@
         <v>148</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="D115" s="3">
+        <v>240000</v>
+      </c>
       <c r="E115" s="3">
-        <v>240000</v>
+        <v>245000</v>
       </c>
       <c r="F115" s="3">
         <v>245000</v>
@@ -5172,20 +4930,17 @@
         <v>245000</v>
       </c>
       <c r="H115" s="3">
-        <v>245000</v>
+        <v>260000</v>
       </c>
       <c r="I115" s="3">
         <v>260000</v>
       </c>
-      <c r="J115" s="3">
-        <v>260000</v>
-      </c>
-      <c r="K115" s="4">
+      <c r="J115" s="4">
         <f t="shared" si="2"/>
         <v>1495000</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>271</v>
       </c>
@@ -5193,7 +4948,9 @@
         <v>272</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="3">
+        <v>3000000</v>
+      </c>
       <c r="E116" s="3">
         <v>3000000</v>
       </c>
@@ -5209,15 +4966,12 @@
       <c r="I116" s="3">
         <v>3000000</v>
       </c>
-      <c r="J116" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="K116" s="4">
+      <c r="J116" s="4">
         <f t="shared" si="2"/>
         <v>18000000</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>149</v>
       </c>
@@ -5225,12 +4979,14 @@
         <v>150</v>
       </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="3">
-        <v>0</v>
-      </c>
-      <c r="F117" s="9">
-        <v>0</v>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="9">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>200000</v>
       </c>
       <c r="G117" s="3">
         <v>200000</v>
@@ -5241,15 +4997,12 @@
       <c r="I117" s="3">
         <v>200000</v>
       </c>
-      <c r="J117" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K117" s="4">
+      <c r="J117" s="4">
         <f t="shared" si="2"/>
         <v>800000</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>348</v>
       </c>
@@ -5262,16 +5015,15 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3">
-        <v>0</v>
-      </c>
-      <c r="K118" s="4">
+      <c r="I118" s="3">
+        <v>0</v>
+      </c>
+      <c r="J118" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>151</v>
       </c>
@@ -5279,23 +5031,22 @@
         <v>152</v>
       </c>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="3">
+      <c r="D119" s="3">
         <v>65000</v>
       </c>
+      <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3">
-        <v>0</v>
-      </c>
-      <c r="K119" s="4">
+      <c r="I119" s="3">
+        <v>0</v>
+      </c>
+      <c r="J119" s="4">
         <f t="shared" si="2"/>
         <v>65000</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>153</v>
       </c>
@@ -5303,11 +5054,13 @@
         <v>154</v>
       </c>
       <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
+      <c r="F120" s="3">
+        <v>200000</v>
+      </c>
       <c r="G120" s="3">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="H120" s="3">
         <v>250000</v>
@@ -5315,15 +5068,12 @@
       <c r="I120" s="3">
         <v>250000</v>
       </c>
-      <c r="J120" s="3">
-        <v>250000</v>
-      </c>
-      <c r="K120" s="4">
+      <c r="J120" s="4">
         <f t="shared" si="2"/>
         <v>950000</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>155</v>
       </c>
@@ -5331,9 +5081,11 @@
         <v>156</v>
       </c>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+      <c r="F121" s="3">
+        <v>2000000</v>
+      </c>
       <c r="G121" s="3">
         <v>2000000</v>
       </c>
@@ -5343,15 +5095,12 @@
       <c r="I121" s="3">
         <v>2000000</v>
       </c>
-      <c r="J121" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="K121" s="4">
+      <c r="J121" s="4">
         <f t="shared" si="2"/>
         <v>8000000</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>157</v>
       </c>
@@ -5359,19 +5108,18 @@
         <v>158</v>
       </c>
       <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="4">
+      <c r="J122" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>159</v>
       </c>
@@ -5379,7 +5127,9 @@
         <v>160</v>
       </c>
       <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="D123" s="3">
+        <v>20000</v>
+      </c>
       <c r="E123" s="3">
         <v>20000</v>
       </c>
@@ -5395,15 +5145,12 @@
       <c r="I123" s="3">
         <v>20000</v>
       </c>
-      <c r="J123" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K123" s="4">
+      <c r="J123" s="4">
         <f t="shared" si="2"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
@@ -5411,12 +5158,14 @@
         <v>162</v>
       </c>
       <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="D124" s="3">
+        <v>10000</v>
+      </c>
       <c r="E124" s="3">
         <v>10000</v>
       </c>
       <c r="F124" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G124" s="3">
         <v>20000</v>
@@ -5427,15 +5176,12 @@
       <c r="I124" s="3">
         <v>20000</v>
       </c>
-      <c r="J124" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K124" s="4">
+      <c r="J124" s="4">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>161</v>
       </c>
@@ -5443,15 +5189,17 @@
         <v>163</v>
       </c>
       <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="D125" s="3">
+        <v>151320</v>
+      </c>
       <c r="E125" s="3">
-        <v>151320</v>
+        <v>174800</v>
       </c>
       <c r="F125" s="3">
         <v>174800</v>
       </c>
       <c r="G125" s="3">
-        <v>174800</v>
+        <v>1000000</v>
       </c>
       <c r="H125" s="3">
         <v>1000000</v>
@@ -5459,15 +5207,12 @@
       <c r="I125" s="3">
         <v>1000000</v>
       </c>
-      <c r="J125" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="K125" s="4">
+      <c r="J125" s="4">
         <f t="shared" si="2"/>
         <v>3500920</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>164</v>
       </c>
@@ -5475,15 +5220,17 @@
         <v>165</v>
       </c>
       <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="D126" s="3">
+        <v>21150</v>
+      </c>
       <c r="E126" s="3">
-        <v>21150</v>
+        <v>23500</v>
       </c>
       <c r="F126" s="3">
         <v>23500</v>
       </c>
       <c r="G126" s="3">
-        <v>23500</v>
+        <v>30000</v>
       </c>
       <c r="H126" s="3">
         <v>30000</v>
@@ -5491,15 +5238,12 @@
       <c r="I126" s="3">
         <v>30000</v>
       </c>
-      <c r="J126" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K126" s="4">
+      <c r="J126" s="4">
         <f t="shared" si="2"/>
         <v>158150</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>166</v>
       </c>
@@ -5507,27 +5251,26 @@
         <v>167</v>
       </c>
       <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="D127" s="3">
+        <v>4750</v>
+      </c>
       <c r="E127" s="3">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="F127" s="3">
         <v>3750</v>
       </c>
-      <c r="G127" s="3">
-        <v>3750</v>
-      </c>
+      <c r="G127" s="3"/>
       <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3">
-        <v>0</v>
-      </c>
-      <c r="K127" s="4">
+      <c r="I127" s="3">
+        <v>0</v>
+      </c>
+      <c r="J127" s="4">
         <f t="shared" si="2"/>
         <v>12250</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>168</v>
       </c>
@@ -5535,31 +5278,30 @@
         <v>169</v>
       </c>
       <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="D128" s="3">
+        <v>220000</v>
+      </c>
       <c r="E128" s="3">
-        <v>220000</v>
+        <v>85000</v>
       </c>
       <c r="F128" s="3">
-        <v>85000</v>
+        <v>213000</v>
       </c>
       <c r="G128" s="3">
+        <v>75000</v>
+      </c>
+      <c r="H128" s="3">
         <v>213000</v>
-      </c>
-      <c r="H128" s="3">
-        <v>75000</v>
       </c>
       <c r="I128" s="3">
         <v>213000</v>
       </c>
-      <c r="J128" s="3">
-        <v>213000</v>
-      </c>
-      <c r="K128" s="4">
+      <c r="J128" s="4">
         <f t="shared" si="2"/>
         <v>1019000</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>168</v>
       </c>
@@ -5567,8 +5309,10 @@
         <v>170</v>
       </c>
       <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3">
+        <v>250000</v>
+      </c>
       <c r="F129" s="3">
         <v>250000</v>
       </c>
@@ -5581,15 +5325,12 @@
       <c r="I129" s="3">
         <v>250000</v>
       </c>
-      <c r="J129" s="3">
-        <v>250000</v>
-      </c>
-      <c r="K129" s="4">
+      <c r="J129" s="4">
         <f t="shared" si="2"/>
         <v>1250000</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>172</v>
       </c>
@@ -5597,31 +5338,30 @@
         <v>173</v>
       </c>
       <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="D130" s="3">
+        <v>75000</v>
+      </c>
       <c r="E130" s="3">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="F130" s="3">
+        <v>80000</v>
+      </c>
+      <c r="G130" s="3">
         <v>30000</v>
       </c>
-      <c r="G130" s="3">
+      <c r="H130" s="3">
         <v>80000</v>
-      </c>
-      <c r="H130" s="3">
-        <v>30000</v>
       </c>
       <c r="I130" s="3">
         <v>80000</v>
       </c>
-      <c r="J130" s="3">
-        <v>80000</v>
-      </c>
-      <c r="K130" s="4">
+      <c r="J130" s="4">
         <f t="shared" si="2"/>
         <v>375000</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>174</v>
       </c>
@@ -5629,12 +5369,14 @@
         <v>175</v>
       </c>
       <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="D131" s="3">
+        <v>20000</v>
+      </c>
       <c r="E131" s="3">
-        <v>20000</v>
+        <v>58400</v>
       </c>
       <c r="F131" s="3">
-        <v>58400</v>
+        <v>64400</v>
       </c>
       <c r="G131" s="3">
         <v>64400</v>
@@ -5645,15 +5387,12 @@
       <c r="I131" s="3">
         <v>64400</v>
       </c>
-      <c r="J131" s="3">
-        <v>64400</v>
-      </c>
-      <c r="K131" s="4">
+      <c r="J131" s="4">
         <f t="shared" si="2"/>
         <v>336000</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>176</v>
       </c>
@@ -5661,7 +5400,9 @@
         <v>177</v>
       </c>
       <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+      <c r="D132" s="3">
+        <v>2000</v>
+      </c>
       <c r="E132" s="3">
         <v>2000</v>
       </c>
@@ -5677,15 +5418,12 @@
       <c r="I132" s="3">
         <v>2000</v>
       </c>
-      <c r="J132" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K132" s="4">
+      <c r="J132" s="4">
         <f t="shared" si="2"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>178</v>
       </c>
@@ -5693,15 +5431,17 @@
         <v>179</v>
       </c>
       <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+      <c r="D133" s="3">
+        <v>7000</v>
+      </c>
       <c r="E133" s="3">
-        <v>7000</v>
+        <v>27000</v>
       </c>
       <c r="F133" s="3">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="G133" s="3">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="H133" s="3">
         <v>24000</v>
@@ -5709,15 +5449,12 @@
       <c r="I133" s="3">
         <v>24000</v>
       </c>
-      <c r="J133" s="3">
-        <v>24000</v>
-      </c>
-      <c r="K133" s="4">
+      <c r="J133" s="4">
         <f t="shared" si="2"/>
         <v>124000</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>171</v>
       </c>
@@ -5725,9 +5462,11 @@
         <v>268</v>
       </c>
       <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+      <c r="D134" s="3">
+        <v>400000</v>
+      </c>
       <c r="E134" s="3">
-        <v>400000</v>
+        <v>750000</v>
       </c>
       <c r="F134" s="3">
         <v>750000</v>
@@ -5741,15 +5480,12 @@
       <c r="I134" s="3">
         <v>750000</v>
       </c>
-      <c r="J134" s="3">
-        <v>750000</v>
-      </c>
-      <c r="K134" s="4">
+      <c r="J134" s="4">
         <f t="shared" si="2"/>
         <v>4150000</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>180</v>
       </c>
@@ -5757,27 +5493,26 @@
         <v>181</v>
       </c>
       <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="3">
+      <c r="D135" s="3">
         <v>50000</v>
       </c>
-      <c r="F135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3">
+        <v>50000</v>
+      </c>
       <c r="G135" s="3">
         <v>50000</v>
       </c>
-      <c r="H135" s="3">
-        <v>50000</v>
-      </c>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3">
-        <v>0</v>
-      </c>
-      <c r="K135" s="4">
+      <c r="H135" s="3"/>
+      <c r="I135" s="3">
+        <v>0</v>
+      </c>
+      <c r="J135" s="4">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>273</v>
       </c>
@@ -5785,23 +5520,22 @@
         <v>274</v>
       </c>
       <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
+      <c r="H136" s="3">
+        <v>5000</v>
+      </c>
       <c r="I136" s="3">
         <v>5000</v>
       </c>
-      <c r="J136" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K136" s="4">
+      <c r="J136" s="4">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>182</v>
       </c>
@@ -5809,7 +5543,9 @@
         <v>183</v>
       </c>
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="3">
+        <v>200000</v>
+      </c>
       <c r="E137" s="3">
         <v>200000</v>
       </c>
@@ -5825,15 +5561,12 @@
       <c r="I137" s="3">
         <v>200000</v>
       </c>
-      <c r="J137" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K137" s="4">
+      <c r="J137" s="4">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>184</v>
       </c>
@@ -5841,31 +5574,30 @@
         <v>185</v>
       </c>
       <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="3">
+        <v>210000</v>
+      </c>
       <c r="E138" s="3">
-        <v>210000</v>
+        <v>214000</v>
       </c>
       <c r="F138" s="3">
-        <v>214000</v>
+        <v>219000</v>
       </c>
       <c r="G138" s="3">
         <v>219000</v>
       </c>
       <c r="H138" s="3">
-        <v>219000</v>
+        <v>229000</v>
       </c>
       <c r="I138" s="3">
         <v>229000</v>
       </c>
-      <c r="J138" s="3">
-        <v>229000</v>
-      </c>
-      <c r="K138" s="4">
+      <c r="J138" s="4">
         <f t="shared" si="2"/>
         <v>1320000</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>186</v>
       </c>
@@ -5873,31 +5605,30 @@
         <v>187</v>
       </c>
       <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="3">
+        <v>356000</v>
+      </c>
       <c r="E139" s="3">
-        <v>356000</v>
+        <v>366000</v>
       </c>
       <c r="F139" s="3">
-        <v>366000</v>
+        <v>358000</v>
       </c>
       <c r="G139" s="3">
+        <v>368000</v>
+      </c>
+      <c r="H139" s="3">
         <v>358000</v>
       </c>
-      <c r="H139" s="3">
+      <c r="I139" s="3">
         <v>368000</v>
       </c>
-      <c r="I139" s="3">
-        <v>358000</v>
-      </c>
-      <c r="J139" s="3">
-        <v>368000</v>
-      </c>
-      <c r="K139" s="4">
+      <c r="J139" s="4">
         <f t="shared" si="2"/>
         <v>2174000</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>186</v>
       </c>
@@ -5905,7 +5636,9 @@
         <v>188</v>
       </c>
       <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+      <c r="D140" s="3">
+        <v>600000</v>
+      </c>
       <c r="E140" s="3">
         <v>600000</v>
       </c>
@@ -5921,15 +5654,12 @@
       <c r="I140" s="3">
         <v>600000</v>
       </c>
-      <c r="J140" s="3">
-        <v>600000</v>
-      </c>
-      <c r="K140" s="4">
+      <c r="J140" s="4">
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>189</v>
       </c>
@@ -5937,12 +5667,14 @@
         <v>190</v>
       </c>
       <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="D141" s="3">
+        <v>262500</v>
+      </c>
       <c r="E141" s="3">
-        <v>262500</v>
+        <v>312500</v>
       </c>
       <c r="F141" s="3">
-        <v>312500</v>
+        <v>315000</v>
       </c>
       <c r="G141" s="3">
         <v>315000</v>
@@ -5953,15 +5685,12 @@
       <c r="I141" s="3">
         <v>315000</v>
       </c>
-      <c r="J141" s="3">
-        <v>315000</v>
-      </c>
-      <c r="K141" s="4">
-        <f t="shared" ref="K141:K202" si="3">SUM(E141:J141)</f>
+      <c r="J141" s="4">
+        <f t="shared" ref="J141:J202" si="3">SUM(D141:I141)</f>
         <v>1835000</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>313</v>
       </c>
@@ -5969,7 +5698,9 @@
         <v>314</v>
       </c>
       <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+      <c r="D142" s="3">
+        <v>400000</v>
+      </c>
       <c r="E142" s="3">
         <v>400000</v>
       </c>
@@ -5977,7 +5708,7 @@
         <v>400000</v>
       </c>
       <c r="G142" s="3">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="H142" s="3">
         <v>300000</v>
@@ -5985,15 +5716,12 @@
       <c r="I142" s="3">
         <v>300000</v>
       </c>
-      <c r="J142" s="3">
-        <v>300000</v>
-      </c>
-      <c r="K142" s="4">
+      <c r="J142" s="4">
         <f t="shared" si="3"/>
         <v>2100000</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>191</v>
       </c>
@@ -6001,7 +5729,9 @@
         <v>192</v>
       </c>
       <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+      <c r="D143" s="3">
+        <v>1000000</v>
+      </c>
       <c r="E143" s="3">
         <v>1000000</v>
       </c>
@@ -6017,15 +5747,12 @@
       <c r="I143" s="3">
         <v>1000000</v>
       </c>
-      <c r="J143" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="K143" s="4">
+      <c r="J143" s="4">
         <f t="shared" si="3"/>
         <v>6000000</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>193</v>
       </c>
@@ -6033,7 +5760,9 @@
         <v>194</v>
       </c>
       <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+      <c r="D144" s="3">
+        <v>1000000</v>
+      </c>
       <c r="E144" s="3">
         <v>1000000</v>
       </c>
@@ -6049,15 +5778,12 @@
       <c r="I144" s="3">
         <v>1000000</v>
       </c>
-      <c r="J144" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="K144" s="4">
+      <c r="J144" s="4">
         <f t="shared" si="3"/>
         <v>6000000</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
@@ -6065,7 +5791,9 @@
         <v>283</v>
       </c>
       <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+      <c r="D145" s="3">
+        <v>30000</v>
+      </c>
       <c r="E145" s="3">
         <v>30000</v>
       </c>
@@ -6081,15 +5809,12 @@
       <c r="I145" s="3">
         <v>30000</v>
       </c>
-      <c r="J145" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K145" s="4">
+      <c r="J145" s="4">
         <f t="shared" si="3"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>195</v>
       </c>
@@ -6097,7 +5822,9 @@
         <v>195</v>
       </c>
       <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="D146" s="3">
+        <v>14880</v>
+      </c>
       <c r="E146" s="3">
         <v>14880</v>
       </c>
@@ -6113,15 +5840,12 @@
       <c r="I146" s="3">
         <v>14880</v>
       </c>
-      <c r="J146" s="3">
-        <v>14880</v>
-      </c>
-      <c r="K146" s="4">
+      <c r="J146" s="4">
         <f t="shared" si="3"/>
         <v>89280</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>196</v>
       </c>
@@ -6129,7 +5853,9 @@
         <v>196</v>
       </c>
       <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="D147" s="3">
+        <v>13000</v>
+      </c>
       <c r="E147" s="3">
         <v>13000</v>
       </c>
@@ -6145,15 +5871,12 @@
       <c r="I147" s="3">
         <v>13000</v>
       </c>
-      <c r="J147" s="3">
-        <v>13000</v>
-      </c>
-      <c r="K147" s="4">
+      <c r="J147" s="4">
         <f t="shared" si="3"/>
         <v>78000</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>350</v>
       </c>
@@ -6161,21 +5884,20 @@
         <v>350</v>
       </c>
       <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+      <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3">
-        <v>0</v>
-      </c>
-      <c r="K148" s="4">
+      <c r="I148" s="3">
+        <v>0</v>
+      </c>
+      <c r="J148" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>284</v>
       </c>
@@ -6183,7 +5905,9 @@
         <v>285</v>
       </c>
       <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="D149" s="1">
+        <v>160000</v>
+      </c>
       <c r="E149" s="1">
         <v>160000</v>
       </c>
@@ -6199,15 +5923,12 @@
       <c r="I149" s="1">
         <v>160000</v>
       </c>
-      <c r="J149" s="1">
-        <v>160000</v>
-      </c>
-      <c r="K149" s="4">
+      <c r="J149" s="4">
         <f t="shared" si="3"/>
         <v>960000</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>275</v>
       </c>
@@ -6215,9 +5936,11 @@
         <v>276</v>
       </c>
       <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="D150" s="1">
+        <v>20000</v>
+      </c>
       <c r="E150" s="1">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F150" s="1">
         <v>30000</v>
@@ -6231,15 +5954,12 @@
       <c r="I150" s="1">
         <v>30000</v>
       </c>
-      <c r="J150" s="1">
-        <v>30000</v>
-      </c>
-      <c r="K150" s="4">
+      <c r="J150" s="4">
         <f t="shared" si="3"/>
         <v>170000</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>275</v>
       </c>
@@ -6247,9 +5967,11 @@
         <v>277</v>
       </c>
       <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="D151" s="1">
+        <v>20000</v>
+      </c>
       <c r="E151" s="1">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F151" s="1">
         <v>30000</v>
@@ -6263,15 +5985,12 @@
       <c r="I151" s="1">
         <v>30000</v>
       </c>
-      <c r="J151" s="1">
-        <v>30000</v>
-      </c>
-      <c r="K151" s="4">
+      <c r="J151" s="4">
         <f t="shared" si="3"/>
         <v>170000</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>197</v>
       </c>
@@ -6279,7 +5998,9 @@
         <v>198</v>
       </c>
       <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
+      <c r="D152" s="1">
+        <v>0</v>
+      </c>
       <c r="E152" s="1">
         <v>0</v>
       </c>
@@ -6290,20 +6011,17 @@
         <v>0</v>
       </c>
       <c r="H152" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I152" s="1">
         <v>50000</v>
       </c>
-      <c r="J152" s="1">
-        <v>50000</v>
-      </c>
-      <c r="K152" s="4">
+      <c r="J152" s="4">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>199</v>
       </c>
@@ -6311,31 +6029,30 @@
         <v>200</v>
       </c>
       <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="D153" s="1">
+        <v>3000</v>
+      </c>
       <c r="E153" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F153" s="1">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="G153" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H153" s="1">
         <v>23000</v>
-      </c>
-      <c r="H153" s="1">
-        <v>20000</v>
       </c>
       <c r="I153" s="1">
         <v>23000</v>
       </c>
-      <c r="J153" s="1">
-        <v>23000</v>
-      </c>
-      <c r="K153" s="4">
+      <c r="J153" s="4">
         <f t="shared" si="3"/>
         <v>92000</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>201</v>
       </c>
@@ -6343,31 +6060,30 @@
         <v>202</v>
       </c>
       <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="D154" s="1">
+        <v>31000</v>
+      </c>
       <c r="E154" s="1">
+        <v>31500</v>
+      </c>
+      <c r="F154" s="1">
         <v>31000</v>
       </c>
-      <c r="F154" s="1">
-        <v>31500</v>
-      </c>
       <c r="G154" s="1">
-        <v>31000</v>
+        <v>59500</v>
       </c>
       <c r="H154" s="1">
-        <v>59500</v>
+        <v>59000</v>
       </c>
       <c r="I154" s="1">
         <v>59000</v>
       </c>
-      <c r="J154" s="1">
-        <v>59000</v>
-      </c>
-      <c r="K154" s="4">
+      <c r="J154" s="4">
         <f t="shared" si="3"/>
         <v>271000</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>203</v>
       </c>
@@ -6375,31 +6091,30 @@
         <v>204</v>
       </c>
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="D155" s="1">
+        <v>33000</v>
+      </c>
       <c r="E155" s="1">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="F155" s="1">
-        <v>37000</v>
+        <v>48000</v>
       </c>
       <c r="G155" s="1">
-        <v>48000</v>
+        <v>58000</v>
       </c>
       <c r="H155" s="1">
-        <v>58000</v>
+        <v>63000</v>
       </c>
       <c r="I155" s="1">
         <v>63000</v>
       </c>
-      <c r="J155" s="1">
-        <v>63000</v>
-      </c>
-      <c r="K155" s="4">
+      <c r="J155" s="4">
         <f t="shared" si="3"/>
         <v>302000</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>205</v>
       </c>
@@ -6407,7 +6122,9 @@
         <v>206</v>
       </c>
       <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
+      <c r="D156" s="1">
+        <v>3000</v>
+      </c>
       <c r="E156" s="1">
         <v>3000</v>
       </c>
@@ -6423,15 +6140,12 @@
       <c r="I156" s="1">
         <v>3000</v>
       </c>
-      <c r="J156" s="1">
-        <v>3000</v>
-      </c>
-      <c r="K156" s="4">
+      <c r="J156" s="4">
         <f t="shared" si="3"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>207</v>
       </c>
@@ -6439,15 +6153,17 @@
         <v>208</v>
       </c>
       <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
+      <c r="D157" s="1">
+        <v>12000</v>
+      </c>
       <c r="E157" s="1">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="F157" s="1">
         <v>7000</v>
       </c>
       <c r="G157" s="1">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="H157" s="1">
         <v>18000</v>
@@ -6455,15 +6171,12 @@
       <c r="I157" s="1">
         <v>18000</v>
       </c>
-      <c r="J157" s="1">
-        <v>18000</v>
-      </c>
-      <c r="K157" s="4">
+      <c r="J157" s="4">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>209</v>
       </c>
@@ -6471,15 +6184,17 @@
         <v>210</v>
       </c>
       <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
+      <c r="D158" s="1">
+        <v>51000</v>
+      </c>
       <c r="E158" s="1">
-        <v>51000</v>
+        <v>56000</v>
       </c>
       <c r="F158" s="1">
-        <v>56000</v>
+        <v>71000</v>
       </c>
       <c r="G158" s="1">
-        <v>71000</v>
+        <v>91000</v>
       </c>
       <c r="H158" s="1">
         <v>91000</v>
@@ -6487,15 +6202,12 @@
       <c r="I158" s="1">
         <v>91000</v>
       </c>
-      <c r="J158" s="1">
-        <v>91000</v>
-      </c>
-      <c r="K158" s="4">
+      <c r="J158" s="4">
         <f t="shared" si="3"/>
         <v>451000</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>351</v>
       </c>
@@ -6503,7 +6215,9 @@
         <v>352</v>
       </c>
       <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
       <c r="E159" s="1">
         <v>0</v>
       </c>
@@ -6519,15 +6233,12 @@
       <c r="I159" s="1">
         <v>0</v>
       </c>
-      <c r="J159" s="1">
-        <v>0</v>
-      </c>
-      <c r="K159" s="4">
+      <c r="J159" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>211</v>
       </c>
@@ -6535,7 +6246,9 @@
         <v>212</v>
       </c>
       <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="D160" s="1">
+        <v>100000</v>
+      </c>
       <c r="E160" s="1">
         <v>100000</v>
       </c>
@@ -6551,15 +6264,12 @@
       <c r="I160" s="1">
         <v>100000</v>
       </c>
-      <c r="J160" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K160" s="4">
+      <c r="J160" s="4">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>211</v>
       </c>
@@ -6567,7 +6277,9 @@
         <v>315</v>
       </c>
       <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
+      <c r="D161" s="1">
+        <v>160000</v>
+      </c>
       <c r="E161" s="1">
         <v>160000</v>
       </c>
@@ -6583,15 +6295,12 @@
       <c r="I161" s="1">
         <v>160000</v>
       </c>
-      <c r="J161" s="1">
-        <v>160000</v>
-      </c>
-      <c r="K161" s="4">
+      <c r="J161" s="4">
         <f t="shared" si="3"/>
         <v>960000</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>211</v>
       </c>
@@ -6599,7 +6308,9 @@
         <v>316</v>
       </c>
       <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
+      <c r="D162" s="1">
+        <v>40000</v>
+      </c>
       <c r="E162" s="1">
         <v>40000</v>
       </c>
@@ -6615,15 +6326,12 @@
       <c r="I162" s="1">
         <v>40000</v>
       </c>
-      <c r="J162" s="1">
-        <v>40000</v>
-      </c>
-      <c r="K162" s="4">
+      <c r="J162" s="4">
         <f t="shared" si="3"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>211</v>
       </c>
@@ -6631,7 +6339,9 @@
         <v>213</v>
       </c>
       <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
+      <c r="D163" s="1">
+        <v>92000</v>
+      </c>
       <c r="E163" s="1">
         <v>92000</v>
       </c>
@@ -6647,15 +6357,12 @@
       <c r="I163" s="1">
         <v>92000</v>
       </c>
-      <c r="J163" s="1">
-        <v>92000</v>
-      </c>
-      <c r="K163" s="4">
+      <c r="J163" s="4">
         <f t="shared" si="3"/>
         <v>552000</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>214</v>
       </c>
@@ -6663,7 +6370,9 @@
         <v>215</v>
       </c>
       <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
+      <c r="D164" s="1">
+        <v>1000</v>
+      </c>
       <c r="E164" s="1">
         <v>1000</v>
       </c>
@@ -6679,15 +6388,12 @@
       <c r="I164" s="1">
         <v>1000</v>
       </c>
-      <c r="J164" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K164" s="4">
+      <c r="J164" s="4">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>216</v>
       </c>
@@ -6695,12 +6401,14 @@
         <v>217</v>
       </c>
       <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
+      <c r="D165" s="1">
+        <v>47000</v>
+      </c>
       <c r="E165" s="1">
-        <v>47000</v>
+        <v>37000</v>
       </c>
       <c r="F165" s="1">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="G165" s="1">
         <v>42000</v>
@@ -6711,15 +6419,12 @@
       <c r="I165" s="1">
         <v>42000</v>
       </c>
-      <c r="J165" s="1">
-        <v>42000</v>
-      </c>
-      <c r="K165" s="4">
+      <c r="J165" s="4">
         <f t="shared" si="3"/>
         <v>252000</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>218</v>
       </c>
@@ -6727,12 +6432,14 @@
         <v>219</v>
       </c>
       <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
+      <c r="D166" s="1">
+        <v>404500</v>
+      </c>
       <c r="E166" s="1">
-        <v>404500</v>
+        <v>284500</v>
       </c>
       <c r="F166" s="1">
-        <v>284500</v>
+        <v>294500</v>
       </c>
       <c r="G166" s="1">
         <v>294500</v>
@@ -6743,15 +6450,12 @@
       <c r="I166" s="1">
         <v>294500</v>
       </c>
-      <c r="J166" s="1">
-        <v>294500</v>
-      </c>
-      <c r="K166" s="4">
+      <c r="J166" s="4">
         <f t="shared" si="3"/>
         <v>1867000</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>353</v>
       </c>
@@ -6764,16 +6468,15 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1">
-        <v>0</v>
-      </c>
-      <c r="K167" s="4">
+      <c r="I167" s="1">
+        <v>0</v>
+      </c>
+      <c r="J167" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>278</v>
       </c>
@@ -6781,9 +6484,11 @@
         <v>220</v>
       </c>
       <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
+      <c r="D168" s="1">
+        <v>110000</v>
+      </c>
       <c r="E168" s="1">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="F168" s="1">
         <v>100000</v>
@@ -6797,15 +6502,12 @@
       <c r="I168" s="1">
         <v>100000</v>
       </c>
-      <c r="J168" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K168" s="4">
+      <c r="J168" s="4">
         <f t="shared" si="3"/>
         <v>610000</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>221</v>
       </c>
@@ -6815,7 +6517,9 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="F169" s="1">
+        <v>20000</v>
+      </c>
       <c r="G169" s="1">
         <v>20000</v>
       </c>
@@ -6825,15 +6529,12 @@
       <c r="I169" s="1">
         <v>20000</v>
       </c>
-      <c r="J169" s="1">
-        <v>20000</v>
-      </c>
-      <c r="K169" s="4">
+      <c r="J169" s="4">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>222</v>
       </c>
@@ -6841,31 +6542,30 @@
         <v>223</v>
       </c>
       <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
+      <c r="D170" s="1">
+        <v>833570</v>
+      </c>
       <c r="E170" s="1">
-        <v>833570</v>
+        <v>857970</v>
       </c>
       <c r="F170" s="1">
-        <v>857970</v>
+        <v>870370</v>
       </c>
       <c r="G170" s="1">
-        <v>870370</v>
+        <v>878850</v>
       </c>
       <c r="H170" s="1">
-        <v>878850</v>
+        <v>877330</v>
       </c>
       <c r="I170" s="1">
         <v>877330</v>
       </c>
-      <c r="J170" s="1">
-        <v>877330</v>
-      </c>
-      <c r="K170" s="4">
+      <c r="J170" s="4">
         <f t="shared" si="3"/>
         <v>5195420</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>224</v>
       </c>
@@ -6873,15 +6573,17 @@
         <v>317</v>
       </c>
       <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
+      <c r="D171" s="1">
+        <v>506000</v>
+      </c>
       <c r="E171" s="1">
         <v>506000</v>
       </c>
       <c r="F171" s="1">
+        <v>406000</v>
+      </c>
+      <c r="G171" s="1">
         <v>506000</v>
-      </c>
-      <c r="G171" s="1">
-        <v>406000</v>
       </c>
       <c r="H171" s="1">
         <v>506000</v>
@@ -6889,15 +6591,12 @@
       <c r="I171" s="1">
         <v>506000</v>
       </c>
-      <c r="J171" s="1">
-        <v>506000</v>
-      </c>
-      <c r="K171" s="4">
+      <c r="J171" s="4">
         <f t="shared" si="3"/>
         <v>2936000</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>224</v>
       </c>
@@ -6905,7 +6604,9 @@
         <v>318</v>
       </c>
       <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
+      <c r="D172" s="1">
+        <v>50000</v>
+      </c>
       <c r="E172" s="1">
         <v>50000</v>
       </c>
@@ -6921,15 +6622,12 @@
       <c r="I172" s="1">
         <v>50000</v>
       </c>
-      <c r="J172" s="1">
-        <v>50000</v>
-      </c>
-      <c r="K172" s="4">
+      <c r="J172" s="4">
         <f t="shared" si="3"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>225</v>
       </c>
@@ -6937,7 +6635,9 @@
         <v>319</v>
       </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
+      <c r="D173" s="1">
+        <v>20000</v>
+      </c>
       <c r="E173" s="1">
         <v>20000</v>
       </c>
@@ -6953,15 +6653,12 @@
       <c r="I173" s="1">
         <v>20000</v>
       </c>
-      <c r="J173" s="1">
-        <v>20000</v>
-      </c>
-      <c r="K173" s="4">
+      <c r="J173" s="4">
         <f t="shared" si="3"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>226</v>
       </c>
@@ -6969,7 +6666,9 @@
         <v>280</v>
       </c>
       <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
+      <c r="D174" s="1">
+        <v>100000</v>
+      </c>
       <c r="E174" s="1">
         <v>100000</v>
       </c>
@@ -6985,15 +6684,12 @@
       <c r="I174" s="1">
         <v>100000</v>
       </c>
-      <c r="J174" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K174" s="4">
+      <c r="J174" s="4">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>226</v>
       </c>
@@ -7001,31 +6697,30 @@
         <v>227</v>
       </c>
       <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
+      <c r="D175" s="1">
+        <v>330000</v>
+      </c>
       <c r="E175" s="1">
-        <v>330000</v>
+        <v>340500</v>
       </c>
       <c r="F175" s="1">
-        <v>340500</v>
+        <v>240000</v>
       </c>
       <c r="G175" s="1">
         <v>240000</v>
       </c>
       <c r="H175" s="1">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="I175" s="1">
         <v>270000</v>
       </c>
-      <c r="J175" s="1">
-        <v>270000</v>
-      </c>
-      <c r="K175" s="4">
+      <c r="J175" s="4">
         <f t="shared" si="3"/>
         <v>1690500</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>228</v>
       </c>
@@ -7033,31 +6728,30 @@
         <v>229</v>
       </c>
       <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="D176" s="1">
+        <v>120000</v>
+      </c>
       <c r="E176" s="1">
         <v>120000</v>
       </c>
       <c r="F176" s="1">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="G176" s="1">
         <v>125000</v>
       </c>
       <c r="H176" s="1">
-        <v>125000</v>
+        <v>103000</v>
       </c>
       <c r="I176" s="1">
         <v>103000</v>
       </c>
-      <c r="J176" s="1">
-        <v>103000</v>
-      </c>
-      <c r="K176" s="4">
+      <c r="J176" s="4">
         <f t="shared" si="3"/>
         <v>696000</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>230</v>
       </c>
@@ -7065,7 +6759,9 @@
         <v>281</v>
       </c>
       <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
+      <c r="D177" s="1">
+        <v>90000</v>
+      </c>
       <c r="E177" s="1">
         <v>90000</v>
       </c>
@@ -7081,15 +6777,12 @@
       <c r="I177" s="1">
         <v>90000</v>
       </c>
-      <c r="J177" s="1">
-        <v>90000</v>
-      </c>
-      <c r="K177" s="4">
+      <c r="J177" s="4">
         <f t="shared" si="3"/>
         <v>540000</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>230</v>
       </c>
@@ -7097,31 +6790,30 @@
         <v>231</v>
       </c>
       <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
+      <c r="D178" s="1">
+        <v>179000</v>
+      </c>
       <c r="E178" s="1">
-        <v>179000</v>
+        <v>204000</v>
       </c>
       <c r="F178" s="1">
+        <v>214000</v>
+      </c>
+      <c r="G178" s="1">
         <v>204000</v>
       </c>
-      <c r="G178" s="1">
-        <v>214000</v>
-      </c>
       <c r="H178" s="1">
-        <v>204000</v>
+        <v>207000</v>
       </c>
       <c r="I178" s="1">
         <v>207000</v>
       </c>
-      <c r="J178" s="1">
-        <v>207000</v>
-      </c>
-      <c r="K178" s="4">
+      <c r="J178" s="4">
         <f t="shared" si="3"/>
         <v>1215000</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>355</v>
       </c>
@@ -7134,16 +6826,15 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1">
-        <v>0</v>
-      </c>
-      <c r="K179" s="4">
+      <c r="I179" s="1">
+        <v>0</v>
+      </c>
+      <c r="J179" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>232</v>
       </c>
@@ -7151,15 +6842,17 @@
         <v>233</v>
       </c>
       <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="D180" s="1">
+        <v>610000</v>
+      </c>
       <c r="E180" s="1">
-        <v>610000</v>
+        <v>920000</v>
       </c>
       <c r="F180" s="1">
-        <v>920000</v>
+        <v>700000</v>
       </c>
       <c r="G180" s="1">
-        <v>700000</v>
+        <v>478000</v>
       </c>
       <c r="H180" s="1">
         <v>478000</v>
@@ -7167,15 +6860,12 @@
       <c r="I180" s="1">
         <v>478000</v>
       </c>
-      <c r="J180" s="1">
-        <v>478000</v>
-      </c>
-      <c r="K180" s="4">
+      <c r="J180" s="4">
         <f t="shared" si="3"/>
         <v>3664000</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>234</v>
       </c>
@@ -7183,7 +6873,9 @@
         <v>235</v>
       </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="D181" s="1">
+        <v>2000</v>
+      </c>
       <c r="E181" s="1">
         <v>2000</v>
       </c>
@@ -7191,7 +6883,7 @@
         <v>2000</v>
       </c>
       <c r="G181" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H181" s="1">
         <v>5000</v>
@@ -7199,15 +6891,12 @@
       <c r="I181" s="1">
         <v>5000</v>
       </c>
-      <c r="J181" s="1">
-        <v>5000</v>
-      </c>
-      <c r="K181" s="4">
+      <c r="J181" s="4">
         <f t="shared" si="3"/>
         <v>21000</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>320</v>
       </c>
@@ -7215,7 +6904,9 @@
         <v>236</v>
       </c>
       <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
+      <c r="D182" s="1">
+        <v>10000</v>
+      </c>
       <c r="E182" s="1">
         <v>10000</v>
       </c>
@@ -7223,7 +6914,7 @@
         <v>10000</v>
       </c>
       <c r="G182" s="1">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="H182" s="1">
         <v>4000</v>
@@ -7231,15 +6922,12 @@
       <c r="I182" s="1">
         <v>4000</v>
       </c>
-      <c r="J182" s="1">
-        <v>4000</v>
-      </c>
-      <c r="K182" s="4">
+      <c r="J182" s="4">
         <f t="shared" si="3"/>
         <v>42000</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>357</v>
       </c>
@@ -7247,7 +6935,9 @@
         <v>358</v>
       </c>
       <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
+      <c r="D183" s="1">
+        <v>0</v>
+      </c>
       <c r="E183" s="1">
         <v>0</v>
       </c>
@@ -7263,15 +6953,12 @@
       <c r="I183" s="1">
         <v>0</v>
       </c>
-      <c r="J183" s="1">
-        <v>0</v>
-      </c>
-      <c r="K183" s="4">
+      <c r="J183" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>321</v>
       </c>
@@ -7279,31 +6966,30 @@
         <v>237</v>
       </c>
       <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
+      <c r="D184" s="1">
+        <v>10000</v>
+      </c>
       <c r="E184" s="1">
         <v>10000</v>
       </c>
       <c r="F184" s="1">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="G184" s="1">
         <v>25000</v>
       </c>
       <c r="H184" s="1">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I184" s="1">
         <v>27000</v>
       </c>
-      <c r="J184" s="1">
-        <v>27000</v>
-      </c>
-      <c r="K184" s="4">
+      <c r="J184" s="4">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>238</v>
       </c>
@@ -7311,7 +6997,9 @@
         <v>239</v>
       </c>
       <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
+      <c r="D185" s="1">
+        <v>27000</v>
+      </c>
       <c r="E185" s="1">
         <v>27000</v>
       </c>
@@ -7327,15 +7015,12 @@
       <c r="I185" s="1">
         <v>27000</v>
       </c>
-      <c r="J185" s="1">
-        <v>27000</v>
-      </c>
-      <c r="K185" s="4">
+      <c r="J185" s="4">
         <f t="shared" si="3"/>
         <v>162000</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>359</v>
       </c>
@@ -7343,7 +7028,9 @@
         <v>360</v>
       </c>
       <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
+      <c r="D186" s="1">
+        <v>0</v>
+      </c>
       <c r="E186" s="1">
         <v>0</v>
       </c>
@@ -7359,15 +7046,12 @@
       <c r="I186" s="1">
         <v>0</v>
       </c>
-      <c r="J186" s="1">
-        <v>0</v>
-      </c>
-      <c r="K186" s="4">
+      <c r="J186" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>240</v>
       </c>
@@ -7380,16 +7064,15 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1">
-        <v>0</v>
-      </c>
-      <c r="K187" s="4">
+      <c r="I187" s="1">
+        <v>0</v>
+      </c>
+      <c r="J187" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>242</v>
       </c>
@@ -7397,9 +7080,11 @@
         <v>243</v>
       </c>
       <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
+      <c r="D188" s="1">
+        <v>40000</v>
+      </c>
       <c r="E188" s="1">
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="F188" s="1">
         <v>41000</v>
@@ -7413,15 +7098,12 @@
       <c r="I188" s="1">
         <v>41000</v>
       </c>
-      <c r="J188" s="1">
-        <v>41000</v>
-      </c>
-      <c r="K188" s="4">
+      <c r="J188" s="4">
         <f t="shared" si="3"/>
         <v>245000</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>361</v>
       </c>
@@ -7434,16 +7116,15 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1">
-        <v>0</v>
-      </c>
-      <c r="K189" s="4">
+      <c r="I189" s="1">
+        <v>0</v>
+      </c>
+      <c r="J189" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>244</v>
       </c>
@@ -7451,31 +7132,30 @@
         <v>245</v>
       </c>
       <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
+      <c r="D190" s="1">
+        <v>1000000</v>
+      </c>
       <c r="E190" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="F190" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="G190" s="1">
         <v>1200000</v>
       </c>
-      <c r="G190" s="1">
+      <c r="H190" s="1">
         <v>2000000</v>
-      </c>
-      <c r="H190" s="1">
-        <v>1200000</v>
       </c>
       <c r="I190" s="1">
         <v>2000000</v>
       </c>
-      <c r="J190" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="K190" s="4">
+      <c r="J190" s="4">
         <f t="shared" si="3"/>
         <v>9400000</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>244</v>
       </c>
@@ -7483,31 +7163,30 @@
         <v>246</v>
       </c>
       <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
+      <c r="D191" s="1">
+        <v>600000</v>
+      </c>
       <c r="E191" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F191" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G191" s="1">
         <v>600000</v>
       </c>
-      <c r="F191" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="G191" s="1">
-        <v>500000</v>
-      </c>
       <c r="H191" s="1">
-        <v>600000</v>
+        <v>800000</v>
       </c>
       <c r="I191" s="1">
         <v>800000</v>
       </c>
-      <c r="J191" s="1">
-        <v>800000</v>
-      </c>
-      <c r="K191" s="4">
+      <c r="J191" s="4">
         <f t="shared" si="3"/>
         <v>4300000</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>247</v>
       </c>
@@ -7515,31 +7194,30 @@
         <v>248</v>
       </c>
       <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
+      <c r="D192" s="1">
+        <v>2400000</v>
+      </c>
       <c r="E192" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="F192" s="1">
+        <v>2100000</v>
+      </c>
+      <c r="G192" s="1">
         <v>2400000</v>
       </c>
-      <c r="F192" s="1">
-        <v>3600000</v>
-      </c>
-      <c r="G192" s="1">
-        <v>2100000</v>
-      </c>
       <c r="H192" s="1">
-        <v>2400000</v>
+        <v>3800000</v>
       </c>
       <c r="I192" s="1">
         <v>3800000</v>
       </c>
-      <c r="J192" s="1">
-        <v>3800000</v>
-      </c>
-      <c r="K192" s="4">
+      <c r="J192" s="4">
         <f t="shared" si="3"/>
         <v>18100000</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>247</v>
       </c>
@@ -7547,31 +7225,30 @@
         <v>249</v>
       </c>
       <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
+      <c r="D193" s="1">
+        <v>800000</v>
+      </c>
       <c r="E193" s="1">
         <v>800000</v>
       </c>
       <c r="F193" s="1">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="G193" s="1">
         <v>400000</v>
       </c>
       <c r="H193" s="1">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="I193" s="1">
         <v>800000</v>
       </c>
-      <c r="J193" s="1">
-        <v>800000</v>
-      </c>
-      <c r="K193" s="4">
+      <c r="J193" s="4">
         <f t="shared" si="3"/>
         <v>4000000</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>363</v>
       </c>
@@ -7584,16 +7261,15 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1">
-        <v>0</v>
-      </c>
-      <c r="K194" s="4">
+      <c r="I194" s="1">
+        <v>0</v>
+      </c>
+      <c r="J194" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>363</v>
       </c>
@@ -7606,16 +7282,15 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1">
-        <v>0</v>
-      </c>
-      <c r="K195" s="4">
+      <c r="I195" s="1">
+        <v>0</v>
+      </c>
+      <c r="J195" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>250</v>
       </c>
@@ -7623,31 +7298,30 @@
         <v>251</v>
       </c>
       <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
+      <c r="D196" s="1">
+        <v>50000</v>
+      </c>
       <c r="E196" s="1">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="F196" s="1">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="G196" s="1">
         <v>100000</v>
       </c>
       <c r="H196" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I196" s="1">
         <v>200000</v>
       </c>
-      <c r="J196" s="1">
-        <v>200000</v>
-      </c>
-      <c r="K196" s="4">
+      <c r="J196" s="4">
         <f t="shared" si="3"/>
         <v>730000</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>252</v>
       </c>
@@ -7655,31 +7329,30 @@
         <v>253</v>
       </c>
       <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
+      <c r="D197" s="1">
+        <v>500000</v>
+      </c>
       <c r="E197" s="1">
         <v>500000</v>
       </c>
       <c r="F197" s="1">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="G197" s="1">
         <v>600000</v>
       </c>
       <c r="H197" s="1">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="I197" s="1">
         <v>1000000</v>
       </c>
-      <c r="J197" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="K197" s="4">
+      <c r="J197" s="4">
         <f t="shared" si="3"/>
         <v>4200000</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>366</v>
       </c>
@@ -7692,16 +7365,15 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1">
-        <v>0</v>
-      </c>
-      <c r="K198" s="4">
+      <c r="I198" s="1">
+        <v>0</v>
+      </c>
+      <c r="J198" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>254</v>
       </c>
@@ -7709,7 +7381,9 @@
         <v>254</v>
       </c>
       <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
+      <c r="D199" s="1">
+        <v>125</v>
+      </c>
       <c r="E199" s="1">
         <v>125</v>
       </c>
@@ -7725,15 +7399,12 @@
       <c r="I199" s="1">
         <v>125</v>
       </c>
-      <c r="J199" s="1">
-        <v>125</v>
-      </c>
-      <c r="K199" s="4">
+      <c r="J199" s="4">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>255</v>
       </c>
@@ -7743,25 +7414,24 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
+      <c r="F200" s="1">
+        <v>15000</v>
+      </c>
       <c r="G200" s="1">
         <v>15000</v>
       </c>
       <c r="H200" s="1">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="I200" s="1">
         <v>20000</v>
       </c>
-      <c r="J200" s="1">
-        <v>20000</v>
-      </c>
-      <c r="K200" s="4">
+      <c r="J200" s="4">
         <f t="shared" si="3"/>
         <v>70000</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>257</v>
       </c>
@@ -7771,9 +7441,11 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
+      <c r="F201" s="1">
+        <v>5000</v>
+      </c>
       <c r="G201" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="H201" s="1">
         <v>10000</v>
@@ -7781,15 +7453,12 @@
       <c r="I201" s="1">
         <v>10000</v>
       </c>
-      <c r="J201" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K201" s="4">
+      <c r="J201" s="4">
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>259</v>
       </c>
@@ -7797,12 +7466,14 @@
         <v>260</v>
       </c>
       <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
+      <c r="D202" s="1">
+        <v>51000</v>
+      </c>
       <c r="E202" s="1">
-        <v>51000</v>
+        <v>101000</v>
       </c>
       <c r="F202" s="1">
-        <v>101000</v>
+        <v>105000</v>
       </c>
       <c r="G202" s="1">
         <v>105000</v>
@@ -7813,15 +7484,12 @@
       <c r="I202" s="1">
         <v>105000</v>
       </c>
-      <c r="J202" s="1">
-        <v>105000</v>
-      </c>
-      <c r="K202" s="4">
+      <c r="J202" s="4">
         <f t="shared" si="3"/>
         <v>572000</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>261</v>
       </c>
@@ -7829,12 +7497,14 @@
         <v>262</v>
       </c>
       <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
+      <c r="D203" s="1">
+        <v>0</v>
+      </c>
       <c r="E203" s="1">
         <v>0</v>
       </c>
       <c r="F203" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G203" s="1">
         <v>10000</v>
@@ -7845,15 +7515,12 @@
       <c r="I203" s="1">
         <v>10000</v>
       </c>
-      <c r="J203" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K203" s="4">
-        <f t="shared" ref="K203:K215" si="4">SUM(E203:J203)</f>
+      <c r="J203" s="4">
+        <f t="shared" ref="J203:J215" si="4">SUM(D203:I203)</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>263</v>
       </c>
@@ -7861,12 +7528,14 @@
         <v>264</v>
       </c>
       <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
+      <c r="D204" s="1">
+        <v>27000</v>
+      </c>
       <c r="E204" s="1">
-        <v>27000</v>
+        <v>56000</v>
       </c>
       <c r="F204" s="1">
-        <v>56000</v>
+        <v>105000</v>
       </c>
       <c r="G204" s="1">
         <v>105000</v>
@@ -7877,15 +7546,12 @@
       <c r="I204" s="1">
         <v>105000</v>
       </c>
-      <c r="J204" s="1">
-        <v>105000</v>
-      </c>
-      <c r="K204" s="4">
+      <c r="J204" s="4">
         <f t="shared" si="4"/>
         <v>503000</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>265</v>
       </c>
@@ -7893,12 +7559,14 @@
         <v>266</v>
       </c>
       <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
+      <c r="D205" s="1">
+        <v>4000</v>
+      </c>
       <c r="E205" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="F205" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G205" s="1">
         <v>20000</v>
@@ -7909,15 +7577,12 @@
       <c r="I205" s="1">
         <v>20000</v>
       </c>
-      <c r="J205" s="1">
-        <v>20000</v>
-      </c>
-      <c r="K205" s="4">
+      <c r="J205" s="4">
         <f t="shared" si="4"/>
         <v>94000</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>267</v>
       </c>
@@ -7925,31 +7590,30 @@
         <v>267</v>
       </c>
       <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
+      <c r="D206" s="1">
+        <v>12000</v>
+      </c>
       <c r="E206" s="1">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="F206" s="1">
         <v>20000</v>
       </c>
       <c r="G206" s="1">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="H206" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="I206" s="1">
         <v>120000</v>
       </c>
-      <c r="J206" s="1">
-        <v>120000</v>
-      </c>
-      <c r="K206" s="4">
+      <c r="J206" s="4">
         <f t="shared" si="4"/>
         <v>352000</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>368</v>
       </c>
@@ -7962,16 +7626,15 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1">
-        <v>0</v>
-      </c>
-      <c r="K207" s="4">
+      <c r="I207" s="1">
+        <v>0</v>
+      </c>
+      <c r="J207" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>369</v>
       </c>
@@ -7979,25 +7642,24 @@
         <v>370</v>
       </c>
       <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
+      <c r="D208" s="1">
+        <v>250000</v>
+      </c>
       <c r="E208" s="1">
         <v>250000</v>
       </c>
       <c r="F208" s="1">
         <v>250000</v>
       </c>
-      <c r="G208" s="1">
-        <v>250000</v>
-      </c>
+      <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="4">
+      <c r="J208" s="4">
         <f t="shared" si="4"/>
         <v>750000</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>371</v>
       </c>
@@ -8005,25 +7667,24 @@
         <v>372</v>
       </c>
       <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
+      <c r="D209" s="1">
+        <v>750000</v>
+      </c>
       <c r="E209" s="1">
         <v>750000</v>
       </c>
       <c r="F209" s="1">
-        <v>750000</v>
-      </c>
-      <c r="G209" s="1">
         <v>500000</v>
       </c>
+      <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="4">
+      <c r="J209" s="4">
         <f t="shared" si="4"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>373</v>
       </c>
@@ -8037,13 +7698,12 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="4">
+      <c r="J210" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>375</v>
       </c>
@@ -8052,22 +7712,21 @@
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1">
+      <c r="E211" s="1">
         <v>370000</v>
       </c>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1">
+      <c r="F211" s="1"/>
+      <c r="G211" s="1">
         <v>400000</v>
       </c>
+      <c r="H211" s="1"/>
       <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="4">
+      <c r="J211" s="4">
         <f t="shared" si="4"/>
         <v>770000</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>377</v>
       </c>
@@ -8075,7 +7734,9 @@
         <v>378</v>
       </c>
       <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
+      <c r="D212" s="1">
+        <v>5000</v>
+      </c>
       <c r="E212" s="1">
         <v>5000</v>
       </c>
@@ -8091,15 +7752,12 @@
       <c r="I212" s="1">
         <v>5000</v>
       </c>
-      <c r="J212" s="1">
-        <v>5000</v>
-      </c>
-      <c r="K212" s="4">
+      <c r="J212" s="4">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>379</v>
       </c>
@@ -8113,13 +7771,12 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="4">
+      <c r="J213" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>381</v>
       </c>
@@ -8133,13 +7790,12 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="4">
+      <c r="J214" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>381</v>
       </c>
@@ -8153,2153 +7809,13 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="4">
+      <c r="J215" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>3100</v>
-      </c>
-      <c r="B216" t="s">
-        <v>385</v>
-      </c>
-      <c r="D216">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>386</v>
-      </c>
-      <c r="B217" t="s">
-        <v>386</v>
-      </c>
-      <c r="D217">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>288</v>
-      </c>
-      <c r="B218" t="s">
-        <v>288</v>
-      </c>
-      <c r="D218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>323</v>
-      </c>
-      <c r="B219" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>327</v>
-      </c>
-      <c r="B220" t="s">
-        <v>328</v>
-      </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>289</v>
-      </c>
-      <c r="B221" t="s">
-        <v>290</v>
-      </c>
-      <c r="D221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>387</v>
-      </c>
-      <c r="B222" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>8</v>
-      </c>
-      <c r="B223" t="s">
-        <v>389</v>
-      </c>
-      <c r="D223">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>9</v>
-      </c>
-      <c r="B224" t="s">
-        <v>10</v>
-      </c>
-      <c r="D224">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>11</v>
-      </c>
-      <c r="B225" t="s">
-        <v>12</v>
-      </c>
-      <c r="C225" t="s">
-        <v>13</v>
-      </c>
-      <c r="D225">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>11</v>
-      </c>
-      <c r="B226" t="s">
-        <v>12</v>
-      </c>
-      <c r="C226" t="s">
-        <v>14</v>
-      </c>
-      <c r="D226">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>11</v>
-      </c>
-      <c r="B227" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227">
-        <v>155000</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>15</v>
-      </c>
-      <c r="B228" t="s">
-        <v>329</v>
-      </c>
-      <c r="D228">
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>15</v>
-      </c>
-      <c r="B229" t="s">
-        <v>16</v>
-      </c>
-      <c r="D229">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>15</v>
-      </c>
-      <c r="B230" t="s">
-        <v>18</v>
-      </c>
-      <c r="C230" t="s">
-        <v>14</v>
-      </c>
-      <c r="D230">
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>15</v>
-      </c>
-      <c r="B231" t="s">
-        <v>17</v>
-      </c>
-      <c r="D231">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>15</v>
-      </c>
-      <c r="B232" t="s">
-        <v>269</v>
-      </c>
-      <c r="D232">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>19</v>
-      </c>
-      <c r="B233" t="s">
-        <v>20</v>
-      </c>
-      <c r="C233" t="s">
-        <v>13</v>
-      </c>
-      <c r="D233">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>19</v>
-      </c>
-      <c r="B234" t="s">
-        <v>20</v>
-      </c>
-      <c r="C234" t="s">
-        <v>14</v>
-      </c>
-      <c r="D234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>19</v>
-      </c>
-      <c r="B235" t="s">
-        <v>20</v>
-      </c>
-      <c r="D235">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>21</v>
-      </c>
-      <c r="B236" t="s">
-        <v>22</v>
-      </c>
-      <c r="D236">
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>23</v>
-      </c>
-      <c r="B237" t="s">
-        <v>24</v>
-      </c>
-      <c r="D237">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>25</v>
-      </c>
-      <c r="B238" t="s">
-        <v>26</v>
-      </c>
-      <c r="C238" t="s">
-        <v>13</v>
-      </c>
-      <c r="D238">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>27</v>
-      </c>
-      <c r="B239" t="s">
-        <v>28</v>
-      </c>
-      <c r="D239">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>27</v>
-      </c>
-      <c r="B240" t="s">
-        <v>29</v>
-      </c>
-      <c r="D240">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>27</v>
-      </c>
-      <c r="B241" t="s">
-        <v>30</v>
-      </c>
-      <c r="D241">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>31</v>
-      </c>
-      <c r="B242" t="s">
-        <v>390</v>
-      </c>
-      <c r="D242">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>31</v>
-      </c>
-      <c r="B243" t="s">
-        <v>391</v>
-      </c>
-      <c r="D243">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>330</v>
-      </c>
-      <c r="B244" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>330</v>
-      </c>
-      <c r="B245" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>32</v>
-      </c>
-      <c r="B246" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>32</v>
-      </c>
-      <c r="B247" t="s">
-        <v>33</v>
-      </c>
-      <c r="D247">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>34</v>
-      </c>
-      <c r="B248" t="s">
-        <v>35</v>
-      </c>
-      <c r="D248">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>36</v>
-      </c>
-      <c r="B249" t="s">
-        <v>37</v>
-      </c>
-      <c r="D249">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>38</v>
-      </c>
-      <c r="B250" t="s">
-        <v>39</v>
-      </c>
-      <c r="D250">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>40</v>
-      </c>
-      <c r="B251" t="s">
-        <v>41</v>
-      </c>
-      <c r="D251">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>42</v>
-      </c>
-      <c r="B252" t="s">
-        <v>43</v>
-      </c>
-      <c r="D252">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>44</v>
-      </c>
-      <c r="B253" t="s">
-        <v>45</v>
-      </c>
-      <c r="D253">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>46</v>
-      </c>
-      <c r="B254" t="s">
-        <v>47</v>
-      </c>
-      <c r="D254">
-        <v>390000</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>46</v>
-      </c>
-      <c r="B255" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>49</v>
-      </c>
-      <c r="B256" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>51</v>
-      </c>
-      <c r="B257" t="s">
-        <v>52</v>
-      </c>
-      <c r="D257">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>53</v>
-      </c>
-      <c r="B258" t="s">
-        <v>392</v>
-      </c>
-      <c r="D258">
-        <v>3855000</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>53</v>
-      </c>
-      <c r="B259" t="s">
-        <v>393</v>
-      </c>
-      <c r="C259" t="s">
-        <v>394</v>
-      </c>
-      <c r="D259">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>53</v>
-      </c>
-      <c r="B260" t="s">
-        <v>54</v>
-      </c>
-      <c r="D260">
-        <v>2167000</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>55</v>
-      </c>
-      <c r="B261" t="s">
-        <v>56</v>
-      </c>
-      <c r="D261">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>55</v>
-      </c>
-      <c r="B262" t="s">
-        <v>57</v>
-      </c>
-      <c r="D262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>395</v>
-      </c>
-      <c r="B263" t="s">
-        <v>396</v>
-      </c>
-      <c r="D263">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>55</v>
-      </c>
-      <c r="B264" t="s">
-        <v>335</v>
-      </c>
-      <c r="D264">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>55</v>
-      </c>
-      <c r="B265" t="s">
-        <v>58</v>
-      </c>
-      <c r="D265">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>59</v>
-      </c>
-      <c r="B266" t="s">
-        <v>60</v>
-      </c>
-      <c r="D266">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>61</v>
-      </c>
-      <c r="B267" t="s">
-        <v>62</v>
-      </c>
-      <c r="D267">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>63</v>
-      </c>
-      <c r="B268" t="s">
-        <v>64</v>
-      </c>
-      <c r="D268">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>65</v>
-      </c>
-      <c r="B269" t="s">
-        <v>66</v>
-      </c>
-      <c r="D269">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>67</v>
-      </c>
-      <c r="B270" t="s">
-        <v>68</v>
-      </c>
-      <c r="D270">
-        <v>338000</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>67</v>
-      </c>
-      <c r="B271" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>337</v>
-      </c>
-      <c r="B272" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>69</v>
-      </c>
-      <c r="B273" t="s">
-        <v>70</v>
-      </c>
-      <c r="D273">
-        <v>316000</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>71</v>
-      </c>
-      <c r="B274" t="s">
-        <v>72</v>
-      </c>
-      <c r="D274">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>73</v>
-      </c>
-      <c r="B275" t="s">
-        <v>74</v>
-      </c>
-      <c r="D275">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>75</v>
-      </c>
-      <c r="B276" t="s">
-        <v>74</v>
-      </c>
-      <c r="D276">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>339</v>
-      </c>
-      <c r="B277" t="s">
-        <v>340</v>
-      </c>
-      <c r="D277">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>76</v>
-      </c>
-      <c r="B278" t="s">
-        <v>77</v>
-      </c>
-      <c r="D278">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>78</v>
-      </c>
-      <c r="B279" t="s">
-        <v>79</v>
-      </c>
-      <c r="D279">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>80</v>
-      </c>
-      <c r="B280" t="s">
-        <v>81</v>
-      </c>
-      <c r="D280">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>82</v>
-      </c>
-      <c r="B281" t="s">
-        <v>83</v>
-      </c>
-      <c r="D281">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>84</v>
-      </c>
-      <c r="B282" t="s">
-        <v>85</v>
-      </c>
-      <c r="D282">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>86</v>
-      </c>
-      <c r="B283" t="s">
-        <v>300</v>
-      </c>
-      <c r="D283">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>86</v>
-      </c>
-      <c r="B284" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>86</v>
-      </c>
-      <c r="B285" t="s">
-        <v>88</v>
-      </c>
-      <c r="D285">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>89</v>
-      </c>
-      <c r="B286" t="s">
-        <v>90</v>
-      </c>
-      <c r="D286">
-        <v>272000</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>91</v>
-      </c>
-      <c r="B287" t="s">
-        <v>92</v>
-      </c>
-      <c r="D287">
-        <v>591400</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>93</v>
-      </c>
-      <c r="B288" t="s">
-        <v>94</v>
-      </c>
-      <c r="D288">
-        <v>282000</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>93</v>
-      </c>
-      <c r="B289" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>95</v>
-      </c>
-      <c r="B290" t="s">
-        <v>96</v>
-      </c>
-      <c r="D290">
-        <v>365000</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>398</v>
-      </c>
-      <c r="B291" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>97</v>
-      </c>
-      <c r="B292" t="s">
-        <v>301</v>
-      </c>
-      <c r="D292">
-        <v>259000</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>98</v>
-      </c>
-      <c r="B293" t="s">
-        <v>302</v>
-      </c>
-      <c r="D293">
-        <v>835000</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>400</v>
-      </c>
-      <c r="B294" t="s">
-        <v>401</v>
-      </c>
-      <c r="D294">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>99</v>
-      </c>
-      <c r="B295" t="s">
-        <v>402</v>
-      </c>
-      <c r="D295">
-        <v>991156</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>100</v>
-      </c>
-      <c r="B296" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>102</v>
-      </c>
-      <c r="B297" t="s">
-        <v>103</v>
-      </c>
-      <c r="D297">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>104</v>
-      </c>
-      <c r="B298" t="s">
-        <v>105</v>
-      </c>
-      <c r="D298">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>106</v>
-      </c>
-      <c r="B299" t="s">
-        <v>107</v>
-      </c>
-      <c r="D299">
-        <v>128000</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>108</v>
-      </c>
-      <c r="B300" t="s">
-        <v>109</v>
-      </c>
-      <c r="D300">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>108</v>
-      </c>
-      <c r="B301" t="s">
-        <v>110</v>
-      </c>
-      <c r="D301">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>111</v>
-      </c>
-      <c r="B302" t="s">
-        <v>112</v>
-      </c>
-      <c r="D302">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>113</v>
-      </c>
-      <c r="B303" t="s">
-        <v>114</v>
-      </c>
-      <c r="D303">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>115</v>
-      </c>
-      <c r="B304" t="s">
-        <v>116</v>
-      </c>
-      <c r="D304">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>117</v>
-      </c>
-      <c r="B305" t="s">
-        <v>118</v>
-      </c>
-      <c r="D305">
-        <v>1010000</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>119</v>
-      </c>
-      <c r="B306" t="s">
-        <v>120</v>
-      </c>
-      <c r="D306">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>121</v>
-      </c>
-      <c r="B307" t="s">
-        <v>122</v>
-      </c>
-      <c r="D307">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>123</v>
-      </c>
-      <c r="B308" t="s">
-        <v>124</v>
-      </c>
-      <c r="D308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>125</v>
-      </c>
-      <c r="B309" t="s">
-        <v>126</v>
-      </c>
-      <c r="D309">
-        <v>83000</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>127</v>
-      </c>
-      <c r="B310" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>129</v>
-      </c>
-      <c r="B311" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>131</v>
-      </c>
-      <c r="B312" t="s">
-        <v>132</v>
-      </c>
-      <c r="D312">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>133</v>
-      </c>
-      <c r="B313" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>135</v>
-      </c>
-      <c r="B314" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>137</v>
-      </c>
-      <c r="B315" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>342</v>
-      </c>
-      <c r="B316" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>139</v>
-      </c>
-      <c r="B317" t="s">
-        <v>140</v>
-      </c>
-      <c r="D317">
-        <v>880000</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>141</v>
-      </c>
-      <c r="B318" t="s">
-        <v>142</v>
-      </c>
-      <c r="D318">
-        <v>86000</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>143</v>
-      </c>
-      <c r="B319" t="s">
-        <v>144</v>
-      </c>
-      <c r="D319">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>143</v>
-      </c>
-      <c r="B320" t="s">
-        <v>145</v>
-      </c>
-      <c r="D320">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>270</v>
-      </c>
-      <c r="B321" t="s">
-        <v>146</v>
-      </c>
-      <c r="D321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>147</v>
-      </c>
-      <c r="B322" t="s">
-        <v>148</v>
-      </c>
-      <c r="D322">
-        <v>245000</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>271</v>
-      </c>
-      <c r="B323" t="s">
-        <v>272</v>
-      </c>
-      <c r="D323">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>403</v>
-      </c>
-      <c r="B324" t="s">
-        <v>404</v>
-      </c>
-      <c r="C324" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>403</v>
-      </c>
-      <c r="B325" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>149</v>
-      </c>
-      <c r="B326" t="s">
-        <v>150</v>
-      </c>
-      <c r="D326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>151</v>
-      </c>
-      <c r="B327" t="s">
-        <v>152</v>
-      </c>
-      <c r="D327">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>407</v>
-      </c>
-      <c r="B328" t="s">
-        <v>408</v>
-      </c>
-      <c r="D328">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>153</v>
-      </c>
-      <c r="B329" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>155</v>
-      </c>
-      <c r="B330" t="s">
-        <v>156</v>
-      </c>
-      <c r="C330" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>157</v>
-      </c>
-      <c r="B331" t="s">
-        <v>158</v>
-      </c>
-      <c r="D331">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>159</v>
-      </c>
-      <c r="B332" t="s">
-        <v>160</v>
-      </c>
-      <c r="D332">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>161</v>
-      </c>
-      <c r="B333" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>161</v>
-      </c>
-      <c r="B334" t="s">
-        <v>163</v>
-      </c>
-      <c r="D334">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>164</v>
-      </c>
-      <c r="B335" t="s">
-        <v>165</v>
-      </c>
-      <c r="D335">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>166</v>
-      </c>
-      <c r="B336" t="s">
-        <v>167</v>
-      </c>
-      <c r="D336">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>168</v>
-      </c>
-      <c r="B337" t="s">
-        <v>169</v>
-      </c>
-      <c r="D337">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>168</v>
-      </c>
-      <c r="B338" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>171</v>
-      </c>
-      <c r="B339" t="s">
-        <v>268</v>
-      </c>
-      <c r="D339">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>172</v>
-      </c>
-      <c r="B340" t="s">
-        <v>173</v>
-      </c>
-      <c r="D340">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>174</v>
-      </c>
-      <c r="B341" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>176</v>
-      </c>
-      <c r="B342" t="s">
-        <v>177</v>
-      </c>
-      <c r="D342">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>178</v>
-      </c>
-      <c r="B343" t="s">
-        <v>179</v>
-      </c>
-      <c r="D343">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
-        <v>410</v>
-      </c>
-      <c r="B344" t="s">
-        <v>411</v>
-      </c>
-      <c r="D344">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>180</v>
-      </c>
-      <c r="B345" t="s">
-        <v>181</v>
-      </c>
-      <c r="D345">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>273</v>
-      </c>
-      <c r="B346" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>182</v>
-      </c>
-      <c r="B347" t="s">
-        <v>183</v>
-      </c>
-      <c r="D347">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
-        <v>184</v>
-      </c>
-      <c r="B348" t="s">
-        <v>185</v>
-      </c>
-      <c r="D348">
-        <v>102000</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>184</v>
-      </c>
-      <c r="B349" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
-        <v>186</v>
-      </c>
-      <c r="B350" t="s">
-        <v>187</v>
-      </c>
-      <c r="D350">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>186</v>
-      </c>
-      <c r="B351" t="s">
-        <v>188</v>
-      </c>
-      <c r="D351">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
-        <v>189</v>
-      </c>
-      <c r="B352" t="s">
-        <v>190</v>
-      </c>
-      <c r="D352">
-        <v>212500</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>191</v>
-      </c>
-      <c r="B353" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>193</v>
-      </c>
-      <c r="B354" t="s">
-        <v>194</v>
-      </c>
-      <c r="D354">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>195</v>
-      </c>
-      <c r="B355" t="s">
-        <v>195</v>
-      </c>
-      <c r="D355">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>196</v>
-      </c>
-      <c r="B356" t="s">
-        <v>196</v>
-      </c>
-      <c r="D356">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>275</v>
-      </c>
-      <c r="B357" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>275</v>
-      </c>
-      <c r="B358" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>197</v>
-      </c>
-      <c r="B359" t="s">
-        <v>198</v>
-      </c>
-      <c r="D359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
-        <v>199</v>
-      </c>
-      <c r="B360" t="s">
-        <v>200</v>
-      </c>
-      <c r="D360">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>201</v>
-      </c>
-      <c r="B361" t="s">
-        <v>202</v>
-      </c>
-      <c r="D361">
-        <v>28500</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>203</v>
-      </c>
-      <c r="B362" t="s">
-        <v>204</v>
-      </c>
-      <c r="D362">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>205</v>
-      </c>
-      <c r="B363" t="s">
-        <v>206</v>
-      </c>
-      <c r="D363">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>207</v>
-      </c>
-      <c r="B364" t="s">
-        <v>208</v>
-      </c>
-      <c r="D364">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
-        <v>209</v>
-      </c>
-      <c r="B365" t="s">
-        <v>210</v>
-      </c>
-      <c r="D365">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>211</v>
-      </c>
-      <c r="B366" t="s">
-        <v>212</v>
-      </c>
-      <c r="D366">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>413</v>
-      </c>
-      <c r="B367" t="s">
-        <v>414</v>
-      </c>
-      <c r="D367">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
-        <v>413</v>
-      </c>
-      <c r="B368" t="s">
-        <v>415</v>
-      </c>
-      <c r="D368">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
-        <v>211</v>
-      </c>
-      <c r="B369" t="s">
-        <v>416</v>
-      </c>
-      <c r="D369">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
-        <v>211</v>
-      </c>
-      <c r="B370" t="s">
-        <v>213</v>
-      </c>
-      <c r="D370">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>214</v>
-      </c>
-      <c r="B371" t="s">
-        <v>215</v>
-      </c>
-      <c r="D371">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>216</v>
-      </c>
-      <c r="B372" t="s">
-        <v>217</v>
-      </c>
-      <c r="D372">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
-        <v>417</v>
-      </c>
-      <c r="B373" t="s">
-        <v>418</v>
-      </c>
-      <c r="D373">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>218</v>
-      </c>
-      <c r="B374" t="s">
-        <v>219</v>
-      </c>
-      <c r="D374">
-        <v>284500</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
-        <v>353</v>
-      </c>
-      <c r="B375" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
-        <v>278</v>
-      </c>
-      <c r="B376" t="s">
-        <v>220</v>
-      </c>
-      <c r="D376">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
-        <v>221</v>
-      </c>
-      <c r="B377" t="s">
-        <v>279</v>
-      </c>
-      <c r="D377">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
-        <v>419</v>
-      </c>
-      <c r="B378" t="s">
-        <v>420</v>
-      </c>
-      <c r="D378">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>222</v>
-      </c>
-      <c r="B379" t="s">
-        <v>223</v>
-      </c>
-      <c r="D379">
-        <v>894000</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>224</v>
-      </c>
-      <c r="B380" t="s">
-        <v>421</v>
-      </c>
-      <c r="D380">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>225</v>
-      </c>
-      <c r="B381" t="s">
-        <v>319</v>
-      </c>
-      <c r="D381">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>226</v>
-      </c>
-      <c r="B382" t="s">
-        <v>227</v>
-      </c>
-      <c r="D382">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>226</v>
-      </c>
-      <c r="B383" t="s">
-        <v>280</v>
-      </c>
-      <c r="D383">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>228</v>
-      </c>
-      <c r="B384" t="s">
-        <v>229</v>
-      </c>
-      <c r="D384">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>422</v>
-      </c>
-      <c r="B385" t="s">
-        <v>423</v>
-      </c>
-      <c r="D385">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
-        <v>230</v>
-      </c>
-      <c r="B386" t="s">
-        <v>281</v>
-      </c>
-      <c r="D386">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>230</v>
-      </c>
-      <c r="B387" t="s">
-        <v>231</v>
-      </c>
-      <c r="D387">
-        <v>136000</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>355</v>
-      </c>
-      <c r="B388" t="s">
-        <v>356</v>
-      </c>
-      <c r="D388">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
-        <v>232</v>
-      </c>
-      <c r="B389" t="s">
-        <v>233</v>
-      </c>
-      <c r="D389">
-        <v>765000</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
-        <v>234</v>
-      </c>
-      <c r="B390" t="s">
-        <v>235</v>
-      </c>
-      <c r="D390">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
-        <v>357</v>
-      </c>
-      <c r="B391" t="s">
-        <v>358</v>
-      </c>
-      <c r="D391">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
-        <v>320</v>
-      </c>
-      <c r="B392" t="s">
-        <v>236</v>
-      </c>
-      <c r="D392">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
-        <v>321</v>
-      </c>
-      <c r="B393" t="s">
-        <v>237</v>
-      </c>
-      <c r="D393">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
-        <v>238</v>
-      </c>
-      <c r="B394" t="s">
-        <v>239</v>
-      </c>
-      <c r="D394">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
-        <v>359</v>
-      </c>
-      <c r="B395" t="s">
-        <v>360</v>
-      </c>
-      <c r="D395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
-        <v>240</v>
-      </c>
-      <c r="B396" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>242</v>
-      </c>
-      <c r="B397" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>361</v>
-      </c>
-      <c r="B398" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>424</v>
-      </c>
-      <c r="B399" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>244</v>
-      </c>
-      <c r="B400" t="s">
-        <v>245</v>
-      </c>
-      <c r="D400">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>244</v>
-      </c>
-      <c r="B401" t="s">
-        <v>246</v>
-      </c>
-      <c r="D401">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
-        <v>247</v>
-      </c>
-      <c r="B402" t="s">
-        <v>248</v>
-      </c>
-      <c r="D402">
-        <v>2200000</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
-        <v>247</v>
-      </c>
-      <c r="B403" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
-        <v>363</v>
-      </c>
-      <c r="B404" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>363</v>
-      </c>
-      <c r="B405" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
-        <v>250</v>
-      </c>
-      <c r="B406" t="s">
-        <v>251</v>
-      </c>
-      <c r="D406">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
-        <v>252</v>
-      </c>
-      <c r="B407" t="s">
-        <v>253</v>
-      </c>
-      <c r="D407">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
-        <v>366</v>
-      </c>
-      <c r="B408" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
-        <v>254</v>
-      </c>
-      <c r="B409" t="s">
-        <v>254</v>
-      </c>
-      <c r="D409">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
-        <v>255</v>
-      </c>
-      <c r="B410" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
-        <v>257</v>
-      </c>
-      <c r="B411" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
-        <v>259</v>
-      </c>
-      <c r="B412" t="s">
-        <v>260</v>
-      </c>
-      <c r="D412">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
-        <v>261</v>
-      </c>
-      <c r="B413" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
-        <v>263</v>
-      </c>
-      <c r="B414" t="s">
-        <v>264</v>
-      </c>
-      <c r="D414">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
-        <v>265</v>
-      </c>
-      <c r="B415" t="s">
-        <v>266</v>
-      </c>
-      <c r="D415">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
-        <v>267</v>
-      </c>
-      <c r="B416" t="s">
-        <v>267</v>
-      </c>
-      <c r="D416">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
-        <v>368</v>
-      </c>
-      <c r="B417" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
-        <v>282</v>
-      </c>
-      <c r="B418" t="s">
-        <v>283</v>
-      </c>
-      <c r="D418">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
-        <v>284</v>
-      </c>
-      <c r="B419" t="s">
-        <v>285</v>
-      </c>
-      <c r="D419">
-        <v>130000</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
+  <autoFilter ref="A1:N1" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/预测.xlsx
+++ b/预测.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\04 - 预测\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\716\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03BD9E9-99BD-4959-8E1B-925AA440AD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C873399-2A79-4680-A4F6-F27435353FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$215</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="414">
   <si>
     <t>产品型号</t>
   </si>
@@ -1190,6 +1190,94 @@
   </si>
   <si>
     <t>SYLM358DC-GC-90AR-NM</t>
+  </si>
+  <si>
+    <t>3100-3100</t>
+  </si>
+  <si>
+    <t>PFD1014A</t>
+  </si>
+  <si>
+    <t>SC1134BU-CI-00AR-1134</t>
+  </si>
+  <si>
+    <t>SC1645A1-AI-00HK-615HA</t>
+  </si>
+  <si>
+    <t>SC1645B1-AE-00HK-4601</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-CJ-00NR-2402</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-CJ-00NR-6571</t>
+  </si>
+  <si>
+    <t>CSMC</t>
+  </si>
+  <si>
+    <t>SC2402S1-BK</t>
+  </si>
+  <si>
+    <t>SC2402S1-CJ-90AK-6571</t>
+  </si>
+  <si>
+    <t>SC2448SO-H-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2448SO-H-Q-DB-60AR-2448H</t>
+  </si>
+  <si>
+    <t>SC2448SO-Q-DB-40CR-2448</t>
+  </si>
+  <si>
+    <t>SC4104SE-TR</t>
+  </si>
+  <si>
+    <t>SC4104SE-GB-00LR-4104</t>
+  </si>
+  <si>
+    <t>SC4643VB-S-TR-Q</t>
+  </si>
+  <si>
+    <t>SC4643VB-S-Q-DE-40CR-4643</t>
+  </si>
+  <si>
+    <t>SC9314UA</t>
+  </si>
+  <si>
+    <t>SC9314UA-9201L</t>
+  </si>
+  <si>
+    <t>SC9314UA-9209</t>
+  </si>
+  <si>
+    <t>SC9314UA-CF-0XAK-2414</t>
+  </si>
+  <si>
+    <t>SC9621VB-TR-Q</t>
+  </si>
+  <si>
+    <t>SC9621VB-Q-CN-4XCR-9621</t>
+  </si>
+  <si>
+    <t>SC9634VB-BK</t>
+  </si>
+  <si>
+    <t>SC9634VB-CG-00CK-9634</t>
+  </si>
+  <si>
+    <t>SC9641TS-P-AI-10LR-41CPA</t>
+  </si>
+  <si>
+    <t>SC9642TS-E-TR</t>
+  </si>
+  <si>
+    <t>SC9642TS-E-AH-4XLR-9642</t>
+  </si>
+  <si>
+    <t>7月预测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1月预测</t>
@@ -1243,12 +1331,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1294,7 +1388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1316,6 +1410,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1597,13 +1692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF22F-A71C-44DB-B988-C97D9CF97379}">
-  <dimension ref="A1:N215"/>
+  <dimension ref="A1:O365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1611,14 +1706,15 @@
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1629,32 +1725,35 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>384</v>
-      </c>
       <c r="J1" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="6"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>286</v>
       </c>
@@ -1662,30 +1761,31 @@
         <v>286</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="3">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3">
         <v>48</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>120</v>
-      </c>
-      <c r="F2" s="3">
-        <v>96</v>
       </c>
       <c r="G2" s="3">
         <v>96</v>
       </c>
       <c r="H2" s="3">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I2" s="3">
         <v>24</v>
       </c>
-      <c r="J2" s="4">
-        <f>SUM(D2:I2)</f>
+      <c r="J2" s="3">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUM(E2:J2)</f>
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>288</v>
       </c>
@@ -1693,30 +1793,31 @@
         <v>288</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>25</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>25</v>
       </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J47" si="0">SUM(D3:I3)</f>
+      <c r="J3" s="3">
+        <v>25</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K47" si="0">SUM(E3:J3)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>323</v>
       </c>
@@ -1724,20 +1825,21 @@
         <v>324</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>325</v>
       </c>
@@ -1745,20 +1847,21 @@
         <v>326</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>327</v>
       </c>
@@ -1766,9 +1869,7 @@
         <v>328</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="3">
         <v>0</v>
       </c>
@@ -1784,12 +1885,15 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>289</v>
       </c>
@@ -1797,30 +1901,31 @@
         <v>290</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
         <v>370000</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <v>370000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="9">
         <v>370000</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="9">
+        <v>370000</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>1110000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1828,9 +1933,7 @@
         <v>291</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="3">
         <v>50000</v>
       </c>
@@ -1846,12 +1949,15 @@
       <c r="I8" s="3">
         <v>50000</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1859,30 +1965,31 @@
         <v>10</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3">
         <v>572150</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>567150</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>572150</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>632150</v>
-      </c>
-      <c r="H9" s="3">
-        <v>627150</v>
       </c>
       <c r="I9" s="3">
         <v>627150</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
+        <v>627150</v>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>3597900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1892,9 +1999,7 @@
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3">
-        <v>130000</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="3">
         <v>130000</v>
       </c>
@@ -1910,12 +2015,15 @@
       <c r="I10" s="3">
         <v>130000</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
+        <v>130000</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>780000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1925,9 +2033,7 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="3">
         <v>50000</v>
       </c>
@@ -1943,12 +2049,15 @@
       <c r="I11" s="3">
         <v>50000</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1956,30 +2065,31 @@
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <v>65000</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="3">
         <v>65000</v>
       </c>
       <c r="F12" s="3">
+        <v>65000</v>
+      </c>
+      <c r="G12" s="3">
         <v>135000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>85000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>118000</v>
       </c>
       <c r="I12" s="3">
         <v>118000</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
+        <v>118000</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>586000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1987,20 +2097,21 @@
         <v>329</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2008,11 +2119,9 @@
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3">
         <v>240000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>120000</v>
       </c>
       <c r="F14" s="3">
         <v>120000</v>
@@ -2026,12 +2135,15 @@
       <c r="I14" s="3">
         <v>120000</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
+        <v>120000</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2041,24 +2153,25 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3">
-        <v>380000</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="3">
         <v>380000</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>380000</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>760000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2066,9 +2179,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="3">
-        <v>320000</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="3">
         <v>320000</v>
       </c>
@@ -2084,12 +2195,15 @@
       <c r="I16" s="3">
         <v>320000</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
+        <v>320000</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>1920000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2097,9 +2211,7 @@
         <v>269</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="3">
-        <v>100000</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="3">
         <v>100000</v>
       </c>
@@ -2115,12 +2227,15 @@
       <c r="I17" s="3">
         <v>100000</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2130,9 +2245,7 @@
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>3000</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="3">
         <v>3000</v>
       </c>
@@ -2148,12 +2261,15 @@
       <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2163,30 +2279,31 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="3">
         <v>212000</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>200000</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>218000</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>200000</v>
-      </c>
-      <c r="H19" s="3">
-        <v>221000</v>
       </c>
       <c r="I19" s="3">
         <v>221000</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
+        <v>221000</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
         <v>1272000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2194,14 +2311,12 @@
         <v>20</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="3">
-        <v>33000</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="3">
         <v>33000</v>
       </c>
       <c r="F20" s="3">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="G20" s="3">
         <v>35000</v>
@@ -2212,12 +2327,15 @@
       <c r="I20" s="3">
         <v>35000</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
         <v>206000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2225,9 +2343,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="3">
-        <v>400000</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="3">
         <v>400000</v>
       </c>
@@ -2243,12 +2359,15 @@
       <c r="I21" s="3">
         <v>400000</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
+        <v>400000</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
         <v>2400000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2256,11 +2375,9 @@
         <v>24</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="3">
+      <c r="D22" s="2"/>
+      <c r="E22" s="3">
         <v>395000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>235000</v>
       </c>
       <c r="F22" s="3">
         <v>235000</v>
@@ -2274,12 +2391,15 @@
       <c r="I22" s="3">
         <v>235000</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
+        <v>235000</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
         <v>1570000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2287,9 +2407,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="3">
-        <v>19000</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="3">
         <v>19000</v>
       </c>
@@ -2305,12 +2423,15 @@
       <c r="I23" s="3">
         <v>19000</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
         <v>114000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2318,24 +2439,25 @@
         <v>28</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
         <v>500000</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
         <v>500000</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,9 +2465,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="3">
-        <v>3500000</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="3">
         <v>3500000</v>
       </c>
@@ -2361,12 +2481,15 @@
       <c r="I25" s="3">
         <v>3500000</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
+        <v>3500000</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2374,11 +2497,9 @@
         <v>30</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="3">
+      <c r="D26" s="2"/>
+      <c r="E26" s="3">
         <v>2000000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1000000</v>
       </c>
       <c r="F26" s="3">
         <v>1000000</v>
@@ -2392,12 +2513,15 @@
       <c r="I26" s="3">
         <v>1000000</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -2405,9 +2529,7 @@
         <v>292</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="3">
-        <v>3000000</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="3">
         <v>3000000</v>
       </c>
@@ -2423,12 +2545,15 @@
       <c r="I27" s="3">
         <v>3000000</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="K27" s="4">
         <f t="shared" si="0"/>
         <v>18000000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2436,11 +2561,9 @@
         <v>293</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="3">
+      <c r="D28" s="2"/>
+      <c r="E28" s="3">
         <v>750000</v>
-      </c>
-      <c r="E28" s="3">
-        <v>250000</v>
       </c>
       <c r="F28" s="3">
         <v>250000</v>
@@ -2454,12 +2577,15 @@
       <c r="I28" s="3">
         <v>250000</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K28" s="4">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>330</v>
       </c>
@@ -2467,20 +2593,21 @@
         <v>331</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>330</v>
       </c>
@@ -2488,20 +2615,21 @@
         <v>332</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2509,20 +2637,21 @@
         <v>333</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2530,24 +2659,25 @@
         <v>33</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="3">
-        <v>2500000</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="3">
         <v>2500000</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3">
+        <v>2500000</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2555,11 +2685,9 @@
         <v>35</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="3">
+      <c r="D33" s="2"/>
+      <c r="E33" s="3">
         <v>500000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>250000</v>
       </c>
       <c r="F33" s="3">
         <v>250000</v>
@@ -2573,12 +2701,15 @@
       <c r="I33" s="3">
         <v>250000</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K33" s="4">
         <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>294</v>
       </c>
@@ -2586,22 +2717,23 @@
         <v>295</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="3">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3">
         <v>250000</v>
       </c>
-      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2609,22 +2741,23 @@
         <v>37</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="3">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3">
         <v>1500000</v>
       </c>
-      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>296</v>
       </c>
@@ -2632,14 +2765,12 @@
         <v>297</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="3">
-        <v>60000</v>
-      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="3">
         <v>60000</v>
       </c>
       <c r="F36" s="3">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="G36" s="3">
         <v>65000</v>
@@ -2650,12 +2781,15 @@
       <c r="I36" s="3">
         <v>65000</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K36" s="4">
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2663,17 +2797,15 @@
         <v>39</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="3">
+      <c r="D37" s="2"/>
+      <c r="E37" s="3">
         <v>239000</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>1239000</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>239000</v>
-      </c>
-      <c r="G37" s="3">
-        <v>240000</v>
       </c>
       <c r="H37" s="3">
         <v>240000</v>
@@ -2681,12 +2813,15 @@
       <c r="I37" s="3">
         <v>240000</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="3">
+        <v>240000</v>
+      </c>
+      <c r="K37" s="4">
         <f t="shared" si="0"/>
         <v>2437000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2694,17 +2829,15 @@
         <v>41</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
         <v>30000</v>
       </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
       <c r="G38" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3">
         <v>30000</v>
@@ -2712,12 +2845,15 @@
       <c r="I38" s="3">
         <v>30000</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K38" s="4">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -2725,9 +2861,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="3">
-        <v>379000</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="3">
         <v>379000</v>
       </c>
@@ -2743,12 +2877,15 @@
       <c r="I39" s="3">
         <v>379000</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="3">
+        <v>379000</v>
+      </c>
+      <c r="K39" s="4">
         <f t="shared" si="0"/>
         <v>2274000</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -2756,9 +2893,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="3">
-        <v>80000</v>
-      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="3">
         <v>80000</v>
       </c>
@@ -2774,12 +2909,15 @@
       <c r="I40" s="3">
         <v>80000</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K40" s="4">
         <f t="shared" si="0"/>
         <v>480000</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,9 +2925,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="3">
-        <v>510000</v>
-      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="3">
         <v>510000</v>
       </c>
@@ -2805,12 +2941,15 @@
       <c r="I41" s="3">
         <v>510000</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="3">
+        <v>510000</v>
+      </c>
+      <c r="K41" s="4">
         <f t="shared" si="0"/>
         <v>3060000</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2818,22 +2957,23 @@
         <v>48</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="3">
+      <c r="D42" s="2"/>
+      <c r="E42" s="3">
         <v>381000</v>
       </c>
-      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
         <f t="shared" si="0"/>
         <v>381000</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -2841,17 +2981,15 @@
         <v>50</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="3">
+      <c r="D43" s="2"/>
+      <c r="E43" s="3">
         <v>40000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>10000</v>
       </c>
       <c r="F43" s="3">
         <v>10000</v>
       </c>
       <c r="G43" s="3">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="H43" s="3">
         <v>70000</v>
@@ -2859,12 +2997,15 @@
       <c r="I43" s="3">
         <v>70000</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K43" s="4">
         <f t="shared" si="0"/>
         <v>270000</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -2872,9 +3013,7 @@
         <v>52</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="3">
         <v>50000</v>
       </c>
@@ -2890,12 +3029,15 @@
       <c r="I44" s="3">
         <v>50000</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K44" s="4">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2903,30 +3045,31 @@
         <v>298</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="3">
+      <c r="D45" s="2"/>
+      <c r="E45" s="3">
         <v>3910000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4335000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3615000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4095000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4335000</v>
       </c>
       <c r="I45" s="3">
         <v>4335000</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="3">
+        <v>4335000</v>
+      </c>
+      <c r="K45" s="4">
         <f t="shared" si="0"/>
         <v>24625000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -2934,20 +3077,21 @@
         <v>334</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -2955,9 +3099,7 @@
         <v>54</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="3">
-        <v>2167000</v>
-      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="3">
         <v>2167000</v>
       </c>
@@ -2968,17 +3110,20 @@
         <v>2167000</v>
       </c>
       <c r="H47" s="3">
-        <v>2287000</v>
+        <v>2167000</v>
       </c>
       <c r="I47" s="3">
         <v>2287000</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="3">
+        <v>2287000</v>
+      </c>
+      <c r="K47" s="4">
         <f t="shared" si="0"/>
         <v>13242000</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -2986,30 +3131,31 @@
         <v>56</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="3">
+      <c r="D48" s="2"/>
+      <c r="E48" s="3">
         <v>500000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>600000</v>
       </c>
       <c r="I48" s="3">
         <v>600000</v>
       </c>
-      <c r="J48" s="4">
-        <f t="shared" ref="J48:J94" si="1">SUM(D48:I48)</f>
+      <c r="J48" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" ref="K48:K94" si="1">SUM(E48:J48)</f>
         <v>4500000</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -3017,30 +3163,31 @@
         <v>57</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="3">
+      <c r="D49" s="2"/>
+      <c r="E49" s="3">
         <v>400000</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>600000</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
       <c r="H49" s="3">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>400000</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="3">
+        <v>400000</v>
+      </c>
+      <c r="K49" s="4">
         <f t="shared" si="1"/>
         <v>1800000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -3048,22 +3195,23 @@
         <v>299</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="3">
+      <c r="D50" s="2"/>
+      <c r="E50" s="3">
         <v>1000000</v>
       </c>
-      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -3071,9 +3219,7 @@
         <v>335</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="3">
         <v>0</v>
       </c>
@@ -3089,12 +3235,15 @@
       <c r="I51" s="3">
         <v>0</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -3102,24 +3251,25 @@
         <v>58</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="3">
+      <c r="D52" s="2"/>
+      <c r="E52" s="3">
         <v>1000000</v>
       </c>
-      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3">
         <v>1000000</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -3127,18 +3277,19 @@
         <v>336</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="4">
+      <c r="J53" s="3"/>
+      <c r="K53" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -3146,28 +3297,29 @@
         <v>60</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="3">
+      <c r="D54" s="2"/>
+      <c r="E54" s="3">
         <v>600000</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>600000</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="4">
+      <c r="I54" s="3"/>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
         <f t="shared" si="1"/>
         <v>1200000</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -3175,9 +3327,7 @@
         <v>62</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="3">
-        <v>140000</v>
-      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="3">
         <v>140000</v>
       </c>
@@ -3193,12 +3343,15 @@
       <c r="I55" s="3">
         <v>140000</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="3">
+        <v>140000</v>
+      </c>
+      <c r="K55" s="4">
         <f t="shared" si="1"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -3206,14 +3359,12 @@
         <v>64</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="3">
-        <v>20000</v>
-      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="3">
         <v>20000</v>
       </c>
       <c r="F56" s="3">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="G56" s="3">
         <v>35000</v>
@@ -3224,12 +3375,15 @@
       <c r="I56" s="3">
         <v>35000</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K56" s="4">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -3237,11 +3391,9 @@
         <v>66</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="3">
+      <c r="D57" s="2"/>
+      <c r="E57" s="3">
         <v>5000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>10000</v>
       </c>
       <c r="F57" s="3">
         <v>10000</v>
@@ -3250,17 +3402,20 @@
         <v>10000</v>
       </c>
       <c r="H57" s="3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="I57" s="3">
         <v>40000</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K57" s="4">
         <f t="shared" si="1"/>
         <v>115000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -3268,30 +3423,31 @@
         <v>68</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="3">
+      <c r="D58" s="2"/>
+      <c r="E58" s="3">
         <v>106000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>76000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>89000</v>
       </c>
       <c r="G58" s="3">
         <v>89000</v>
       </c>
       <c r="H58" s="3">
-        <v>109000</v>
+        <v>89000</v>
       </c>
       <c r="I58" s="3">
         <v>109000</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K58" s="4">
         <f t="shared" si="1"/>
         <v>578000</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>337</v>
       </c>
@@ -3299,20 +3455,21 @@
         <v>338</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="2"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
+      <c r="I59" s="3"/>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -3320,9 +3477,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="3">
-        <v>430000</v>
-      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="3">
         <v>430000</v>
       </c>
@@ -3338,12 +3493,15 @@
       <c r="I60" s="3">
         <v>430000</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="3">
+        <v>430000</v>
+      </c>
+      <c r="K60" s="4">
         <f t="shared" si="1"/>
         <v>2580000</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3351,30 +3509,31 @@
         <v>72</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="3">
+      <c r="D61" s="2"/>
+      <c r="E61" s="3">
         <v>120000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>125000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>130000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>135000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>165000</v>
       </c>
       <c r="I61" s="3">
         <v>165000</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K61" s="4">
         <f t="shared" si="1"/>
         <v>840000</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -3382,9 +3541,7 @@
         <v>74</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="3">
-        <v>30000</v>
-      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="3">
         <v>30000</v>
       </c>
@@ -3400,12 +3557,15 @@
       <c r="I62" s="3">
         <v>30000</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K62" s="4">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -3413,26 +3573,27 @@
         <v>74</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3">
+      <c r="D63" s="2"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3">
         <v>12000</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <v>6000</v>
       </c>
-      <c r="G63" s="3">
+      <c r="H63" s="3">
         <v>15000</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
+      <c r="I63" s="3"/>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
         <f t="shared" si="1"/>
         <v>33000</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>339</v>
       </c>
@@ -3440,20 +3601,21 @@
         <v>340</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="J64" s="4">
+      <c r="I64" s="3"/>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -3461,30 +3623,31 @@
         <v>77</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="3">
+      <c r="D65" s="2"/>
+      <c r="E65" s="3">
         <v>30000</v>
       </c>
-      <c r="E65" s="3">
+      <c r="F65" s="3">
         <v>18000</v>
-      </c>
-      <c r="F65" s="3">
-        <v>3000</v>
       </c>
       <c r="G65" s="3">
         <v>3000</v>
       </c>
       <c r="H65" s="3">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="I65" s="3">
         <v>18000</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J65" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K65" s="4">
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -3492,30 +3655,31 @@
         <v>79</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="3">
+      <c r="D66" s="2"/>
+      <c r="E66" s="3">
         <v>14000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>14000</v>
       </c>
       <c r="I66" s="3">
         <v>14000</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J66" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K66" s="4">
         <f t="shared" si="1"/>
         <v>81000</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
@@ -3523,9 +3687,7 @@
         <v>81</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="3">
-        <v>19000</v>
-      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="3">
         <v>19000</v>
       </c>
@@ -3541,12 +3703,15 @@
       <c r="I67" s="3">
         <v>19000</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K67" s="4">
         <f t="shared" si="1"/>
         <v>114000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -3554,9 +3719,7 @@
         <v>83</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="3">
-        <v>20000</v>
-      </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="3">
         <v>20000</v>
       </c>
@@ -3572,12 +3735,15 @@
       <c r="I68" s="3">
         <v>20000</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K68" s="4">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
@@ -3585,30 +3751,31 @@
         <v>85</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="3">
-        <v>322000</v>
-      </c>
+      <c r="D69" s="2"/>
       <c r="E69" s="3">
         <v>322000</v>
       </c>
       <c r="F69" s="3">
+        <v>322000</v>
+      </c>
+      <c r="G69" s="3">
         <v>352000</v>
       </c>
-      <c r="G69" s="3">
+      <c r="H69" s="3">
         <v>322000</v>
-      </c>
-      <c r="H69" s="3">
-        <v>352000</v>
       </c>
       <c r="I69" s="3">
         <v>352000</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J69" s="3">
+        <v>352000</v>
+      </c>
+      <c r="K69" s="4">
         <f t="shared" si="1"/>
         <v>2022000</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
@@ -3616,30 +3783,31 @@
         <v>300</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="3">
-        <v>900000</v>
-      </c>
+      <c r="D70" s="2"/>
       <c r="E70" s="3">
         <v>900000</v>
       </c>
       <c r="F70" s="3">
+        <v>900000</v>
+      </c>
+      <c r="G70" s="3">
         <v>1000000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>1300000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1500000</v>
       </c>
       <c r="I70" s="3">
         <v>1500000</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="K70" s="4">
         <f t="shared" si="1"/>
         <v>7100000</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
@@ -3647,30 +3815,31 @@
         <v>87</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="3">
-        <v>212000</v>
-      </c>
+      <c r="D71" s="2"/>
       <c r="E71" s="3">
         <v>212000</v>
       </c>
       <c r="F71" s="3">
+        <v>212000</v>
+      </c>
+      <c r="G71" s="3">
         <v>242000</v>
       </c>
-      <c r="G71" s="3">
+      <c r="H71" s="3">
         <v>212000</v>
-      </c>
-      <c r="H71" s="3">
-        <v>242000</v>
       </c>
       <c r="I71" s="3">
         <v>242000</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J71" s="3">
+        <v>242000</v>
+      </c>
+      <c r="K71" s="4">
         <f t="shared" si="1"/>
         <v>1362000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
@@ -3678,30 +3847,31 @@
         <v>88</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="3">
-        <v>320000</v>
-      </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="3">
         <v>320000</v>
       </c>
       <c r="F72" s="3">
-        <v>380000</v>
+        <v>320000</v>
       </c>
       <c r="G72" s="3">
         <v>380000</v>
       </c>
       <c r="H72" s="3">
-        <v>392000</v>
+        <v>380000</v>
       </c>
       <c r="I72" s="3">
         <v>392000</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J72" s="3">
+        <v>392000</v>
+      </c>
+      <c r="K72" s="4">
         <f t="shared" si="1"/>
         <v>2184000</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -3709,30 +3879,31 @@
         <v>90</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="3">
+      <c r="D73" s="2"/>
+      <c r="E73" s="3">
         <v>352000</v>
       </c>
-      <c r="E73" s="3">
+      <c r="F73" s="3">
         <v>552000</v>
-      </c>
-      <c r="F73" s="3">
-        <v>362000</v>
       </c>
       <c r="G73" s="3">
         <v>362000</v>
       </c>
       <c r="H73" s="3">
-        <v>562000</v>
+        <v>362000</v>
       </c>
       <c r="I73" s="3">
         <v>562000</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J73" s="3">
+        <v>562000</v>
+      </c>
+      <c r="K73" s="4">
         <f t="shared" si="1"/>
         <v>2752000</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -3740,30 +3911,31 @@
         <v>92</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="3">
+      <c r="D74" s="2"/>
+      <c r="E74" s="3">
         <v>854000</v>
       </c>
-      <c r="E74" s="3">
+      <c r="F74" s="3">
         <v>1192500</v>
       </c>
-      <c r="F74" s="3">
+      <c r="G74" s="3">
         <v>1429000</v>
       </c>
-      <c r="G74" s="3">
+      <c r="H74" s="3">
         <v>1529000</v>
-      </c>
-      <c r="H74" s="3">
-        <v>1527000</v>
       </c>
       <c r="I74" s="3">
         <v>1527000</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J74" s="3">
+        <v>1527000</v>
+      </c>
+      <c r="K74" s="4">
         <f t="shared" si="1"/>
         <v>8058500</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>93</v>
       </c>
@@ -3771,30 +3943,31 @@
         <v>94</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="3">
+      <c r="D75" s="2"/>
+      <c r="E75" s="3">
         <v>322000</v>
       </c>
-      <c r="E75" s="3">
+      <c r="F75" s="3">
         <v>272000</v>
-      </c>
-      <c r="F75" s="3">
-        <v>282000</v>
       </c>
       <c r="G75" s="3">
         <v>282000</v>
       </c>
       <c r="H75" s="3">
-        <v>292000</v>
+        <v>282000</v>
       </c>
       <c r="I75" s="3">
         <v>292000</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75" s="3">
+        <v>292000</v>
+      </c>
+      <c r="K75" s="4">
         <f t="shared" si="1"/>
         <v>1742000</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
@@ -3802,20 +3975,21 @@
         <v>341</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" s="3"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="4">
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>95</v>
       </c>
@@ -3823,14 +3997,12 @@
         <v>96</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="3">
+      <c r="D77" s="2"/>
+      <c r="E77" s="3">
         <v>360000</v>
       </c>
-      <c r="E77" s="3">
+      <c r="F77" s="3">
         <v>500000</v>
-      </c>
-      <c r="F77" s="3">
-        <v>505000</v>
       </c>
       <c r="G77" s="3">
         <v>505000</v>
@@ -3841,12 +4013,15 @@
       <c r="I77" s="3">
         <v>505000</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J77" s="3">
+        <v>505000</v>
+      </c>
+      <c r="K77" s="4">
         <f t="shared" si="1"/>
         <v>2880000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>97</v>
       </c>
@@ -3854,30 +4029,31 @@
         <v>301</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="3">
+      <c r="D78" s="2"/>
+      <c r="E78" s="3">
         <v>262000</v>
       </c>
-      <c r="E78" s="3">
+      <c r="F78" s="3">
         <v>283000</v>
       </c>
-      <c r="F78" s="3">
+      <c r="G78" s="3">
         <v>331000</v>
       </c>
-      <c r="G78" s="3">
+      <c r="H78" s="3">
         <v>368000</v>
-      </c>
-      <c r="H78" s="3">
-        <v>388000</v>
       </c>
       <c r="I78" s="3">
         <v>388000</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78" s="3">
+        <v>388000</v>
+      </c>
+      <c r="K78" s="4">
         <f t="shared" si="1"/>
         <v>2020000</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>98</v>
       </c>
@@ -3885,14 +4061,12 @@
         <v>302</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="D79" s="3">
-        <v>830000</v>
-      </c>
+      <c r="D79" s="2"/>
       <c r="E79" s="3">
         <v>830000</v>
       </c>
       <c r="F79" s="3">
-        <v>840000</v>
+        <v>830000</v>
       </c>
       <c r="G79" s="3">
         <v>840000</v>
@@ -3903,12 +4077,15 @@
       <c r="I79" s="3">
         <v>840000</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J79" s="3">
+        <v>840000</v>
+      </c>
+      <c r="K79" s="4">
         <f t="shared" si="1"/>
         <v>5020000</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>99</v>
       </c>
@@ -3916,30 +4093,31 @@
         <v>303</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="3">
+      <c r="D80" s="2"/>
+      <c r="E80" s="3">
         <v>994000</v>
       </c>
-      <c r="E80" s="3">
+      <c r="F80" s="3">
         <v>1072000</v>
       </c>
-      <c r="F80" s="3">
+      <c r="G80" s="3">
         <v>1226000</v>
       </c>
-      <c r="G80" s="3">
+      <c r="H80" s="3">
         <v>1470000</v>
       </c>
-      <c r="H80" s="3">
+      <c r="I80" s="3">
         <v>1464000</v>
       </c>
-      <c r="I80" s="3">
+      <c r="J80" s="3">
         <v>1460000</v>
       </c>
-      <c r="J80" s="4">
+      <c r="K80" s="4">
         <f t="shared" si="1"/>
         <v>7686000</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>100</v>
       </c>
@@ -3947,22 +4125,23 @@
         <v>101</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="3"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="3">
-        <v>200000</v>
-      </c>
+      <c r="H81" s="3"/>
       <c r="I81" s="3">
         <v>200000</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J81" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K81" s="4">
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>304</v>
       </c>
@@ -3970,24 +4149,25 @@
         <v>305</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="3"/>
+      <c r="D82" s="2"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="3">
-        <v>5000</v>
-      </c>
+      <c r="G82" s="3"/>
       <c r="H82" s="3">
         <v>5000</v>
       </c>
       <c r="I82" s="3">
         <v>5000</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J82" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K82" s="4">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>102</v>
       </c>
@@ -3995,9 +4175,7 @@
         <v>103</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" s="3">
-        <v>5000</v>
-      </c>
+      <c r="D83" s="2"/>
       <c r="E83" s="3">
         <v>5000</v>
       </c>
@@ -4013,12 +4191,15 @@
       <c r="I83" s="3">
         <v>5000</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K83" s="4">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>104</v>
       </c>
@@ -4026,9 +4207,7 @@
         <v>105</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="3">
-        <v>150000</v>
-      </c>
+      <c r="D84" s="2"/>
       <c r="E84" s="3">
         <v>150000</v>
       </c>
@@ -4036,7 +4215,7 @@
         <v>150000</v>
       </c>
       <c r="G84" s="3">
-        <v>151000</v>
+        <v>150000</v>
       </c>
       <c r="H84" s="3">
         <v>151000</v>
@@ -4044,12 +4223,15 @@
       <c r="I84" s="3">
         <v>151000</v>
       </c>
-      <c r="J84" s="4">
+      <c r="J84" s="3">
+        <v>151000</v>
+      </c>
+      <c r="K84" s="4">
         <f t="shared" si="1"/>
         <v>903000</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>106</v>
       </c>
@@ -4057,30 +4239,31 @@
         <v>107</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="3">
+      <c r="D85" s="2"/>
+      <c r="E85" s="3">
         <v>128000</v>
       </c>
-      <c r="E85" s="3">
+      <c r="F85" s="3">
         <v>130000</v>
       </c>
-      <c r="F85" s="3">
+      <c r="G85" s="3">
         <v>133000</v>
       </c>
-      <c r="G85" s="3">
+      <c r="H85" s="3">
         <v>145000</v>
-      </c>
-      <c r="H85" s="3">
-        <v>150000</v>
       </c>
       <c r="I85" s="3">
         <v>150000</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J85" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K85" s="4">
         <f t="shared" si="1"/>
         <v>836000</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>108</v>
       </c>
@@ -4088,9 +4271,7 @@
         <v>109</v>
       </c>
       <c r="C86" s="8"/>
-      <c r="D86" s="9">
-        <v>10000</v>
-      </c>
+      <c r="D86" s="8"/>
       <c r="E86" s="9">
         <v>10000</v>
       </c>
@@ -4106,12 +4287,15 @@
       <c r="I86" s="9">
         <v>10000</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J86" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K86" s="4">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
@@ -4119,22 +4303,23 @@
         <v>110</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="3">
+      <c r="D87" s="2"/>
+      <c r="E87" s="3">
         <v>400000</v>
       </c>
-      <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3">
-        <v>0</v>
-      </c>
-      <c r="J87" s="4">
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>111</v>
       </c>
@@ -4142,9 +4327,7 @@
         <v>112</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="3">
-        <v>3000</v>
-      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="3">
         <v>3000</v>
       </c>
@@ -4160,12 +4343,15 @@
       <c r="I88" s="3">
         <v>3000</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K88" s="4">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>113</v>
       </c>
@@ -4173,28 +4359,29 @@
         <v>114</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3">
+      <c r="D89" s="2"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3">
         <v>200000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>215000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>150000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>215000</v>
       </c>
       <c r="I89" s="3">
         <v>215000</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89" s="3">
+        <v>215000</v>
+      </c>
+      <c r="K89" s="4">
         <f t="shared" si="1"/>
         <v>995000</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>306</v>
       </c>
@@ -4202,11 +4389,9 @@
         <v>287</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="3"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="3">
-        <v>5000</v>
-      </c>
+      <c r="F90" s="3"/>
       <c r="G90" s="3">
         <v>5000</v>
       </c>
@@ -4216,12 +4401,15 @@
       <c r="I90" s="3">
         <v>5000</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K90" s="4">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>115</v>
       </c>
@@ -4229,9 +4417,7 @@
         <v>116</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="3">
-        <v>1200000</v>
-      </c>
+      <c r="D91" s="2"/>
       <c r="E91" s="3">
         <v>1200000</v>
       </c>
@@ -4247,12 +4433,15 @@
       <c r="I91" s="3">
         <v>1200000</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J91" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="K91" s="4">
         <f t="shared" si="1"/>
         <v>7200000</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>117</v>
       </c>
@@ -4260,30 +4449,31 @@
         <v>118</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="3">
-        <v>1450000</v>
-      </c>
+      <c r="D92" s="2"/>
       <c r="E92" s="3">
-        <v>1600000</v>
+        <v>1050000</v>
       </c>
       <c r="F92" s="3">
-        <v>1510000</v>
+        <v>1200000</v>
       </c>
       <c r="G92" s="3">
-        <v>1570000</v>
+        <v>1110000</v>
       </c>
       <c r="H92" s="3">
-        <v>1730000</v>
+        <v>1170000</v>
       </c>
       <c r="I92" s="3">
-        <v>1730000</v>
-      </c>
-      <c r="J92" s="4">
+        <v>1530000</v>
+      </c>
+      <c r="J92" s="3">
+        <v>1530000</v>
+      </c>
+      <c r="K92" s="4">
         <f t="shared" si="1"/>
-        <v>9590000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7590000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
@@ -4291,30 +4481,31 @@
         <v>120</v>
       </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="3">
+      <c r="D93" s="2"/>
+      <c r="E93" s="3">
         <v>82000</v>
       </c>
-      <c r="E93" s="3">
+      <c r="F93" s="3">
         <v>94000</v>
       </c>
-      <c r="F93" s="3">
+      <c r="G93" s="3">
         <v>120000</v>
       </c>
-      <c r="G93" s="3">
+      <c r="H93" s="3">
         <v>190000</v>
-      </c>
-      <c r="H93" s="3">
-        <v>214000</v>
       </c>
       <c r="I93" s="3">
         <v>214000</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J93" s="3">
+        <v>214000</v>
+      </c>
+      <c r="K93" s="4">
         <f t="shared" si="1"/>
         <v>914000</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>121</v>
       </c>
@@ -4322,9 +4513,7 @@
         <v>122</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="3">
-        <v>95000</v>
-      </c>
+      <c r="D94" s="2"/>
       <c r="E94" s="3">
         <v>95000</v>
       </c>
@@ -4340,12 +4529,15 @@
       <c r="I94" s="3">
         <v>95000</v>
       </c>
-      <c r="J94" s="4">
+      <c r="J94" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K94" s="4">
         <f t="shared" si="1"/>
         <v>570000</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>123</v>
       </c>
@@ -4353,9 +4545,7 @@
         <v>124</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="3">
-        <v>0</v>
-      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="3">
         <v>0</v>
       </c>
@@ -4366,17 +4556,20 @@
         <v>0</v>
       </c>
       <c r="H95" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I95" s="3">
         <v>10000</v>
       </c>
-      <c r="J95" s="4">
-        <f t="shared" ref="J95:J140" si="2">SUM(D95:I95)</f>
+      <c r="J95" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K95" s="4">
+        <f t="shared" ref="K95:K140" si="2">SUM(E95:J95)</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>125</v>
       </c>
@@ -4384,30 +4577,31 @@
         <v>126</v>
       </c>
       <c r="C96" s="2"/>
-      <c r="D96" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D96" s="2"/>
       <c r="E96" s="3">
         <v>50000</v>
       </c>
       <c r="F96" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G96" s="3">
         <v>115000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>125000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>175000</v>
       </c>
       <c r="I96" s="3">
         <v>175000</v>
       </c>
-      <c r="J96" s="4">
+      <c r="J96" s="3">
+        <v>175000</v>
+      </c>
+      <c r="K96" s="4">
         <f t="shared" si="2"/>
         <v>690000</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>127</v>
       </c>
@@ -4415,9 +4609,7 @@
         <v>128</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="3">
-        <v>5000</v>
-      </c>
+      <c r="D97" s="2"/>
       <c r="E97" s="3">
         <v>5000</v>
       </c>
@@ -4433,12 +4625,15 @@
       <c r="I97" s="3">
         <v>5000</v>
       </c>
-      <c r="J97" s="4">
+      <c r="J97" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K97" s="4">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>129</v>
       </c>
@@ -4446,11 +4641,9 @@
         <v>130</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="3"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3">
-        <v>5000</v>
-      </c>
+      <c r="F98" s="3"/>
       <c r="G98" s="3">
         <v>5000</v>
       </c>
@@ -4460,12 +4653,15 @@
       <c r="I98" s="3">
         <v>5000</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K98" s="4">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
@@ -4473,14 +4669,12 @@
         <v>132</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="3">
+      <c r="D99" s="2"/>
+      <c r="E99" s="3">
         <v>5000</v>
       </c>
-      <c r="E99" s="3">
+      <c r="F99" s="3">
         <v>10000</v>
-      </c>
-      <c r="F99" s="3">
-        <v>20000</v>
       </c>
       <c r="G99" s="3">
         <v>20000</v>
@@ -4491,12 +4685,15 @@
       <c r="I99" s="3">
         <v>20000</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J99" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K99" s="4">
         <f t="shared" si="2"/>
         <v>95000</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
@@ -4504,24 +4701,25 @@
         <v>134</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="3"/>
+      <c r="D100" s="2"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="3">
-        <v>3000</v>
-      </c>
+      <c r="G100" s="3"/>
       <c r="H100" s="3">
         <v>3000</v>
       </c>
       <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="4">
+      <c r="J100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K100" s="4">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>307</v>
       </c>
@@ -4529,12 +4727,10 @@
         <v>308</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3">
+      <c r="D101" s="2"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3">
         <v>3000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>5000</v>
       </c>
       <c r="G101" s="3">
         <v>5000</v>
@@ -4545,12 +4741,15 @@
       <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="4">
+      <c r="J101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K101" s="4">
         <f t="shared" si="2"/>
         <v>23000</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>309</v>
       </c>
@@ -4558,9 +4757,7 @@
         <v>287</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="3">
-        <v>60000</v>
-      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="3">
         <v>60000</v>
       </c>
@@ -4568,7 +4765,7 @@
         <v>60000</v>
       </c>
       <c r="G102" s="3">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="H102" s="3">
         <v>120000</v>
@@ -4576,12 +4773,15 @@
       <c r="I102" s="3">
         <v>120000</v>
       </c>
-      <c r="J102" s="4">
+      <c r="J102" s="3">
+        <v>120000</v>
+      </c>
+      <c r="K102" s="4">
         <f t="shared" si="2"/>
         <v>540000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>135</v>
       </c>
@@ -4589,26 +4789,27 @@
         <v>136</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="3"/>
+      <c r="D103" s="2"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="3">
+      <c r="F103" s="3"/>
+      <c r="G103" s="3">
         <v>10000</v>
       </c>
-      <c r="G103" s="3">
+      <c r="H103" s="3">
         <v>13000</v>
-      </c>
-      <c r="H103" s="3">
-        <v>18000</v>
       </c>
       <c r="I103" s="3">
         <v>18000</v>
       </c>
-      <c r="J103" s="4">
+      <c r="J103" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K103" s="4">
         <f t="shared" si="2"/>
         <v>59000</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>137</v>
       </c>
@@ -4616,20 +4817,21 @@
         <v>138</v>
       </c>
       <c r="C104" s="2"/>
-      <c r="D104" s="3"/>
+      <c r="D104" s="2"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="3">
-        <v>0</v>
-      </c>
-      <c r="J104" s="4">
+      <c r="I104" s="3"/>
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
+      <c r="K104" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>310</v>
       </c>
@@ -4637,9 +4839,7 @@
         <v>287</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D105" s="2"/>
       <c r="E105" s="3">
         <v>50000</v>
       </c>
@@ -4655,12 +4855,15 @@
       <c r="I105" s="3">
         <v>50000</v>
       </c>
-      <c r="J105" s="4">
+      <c r="J105" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K105" s="4">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>342</v>
       </c>
@@ -4668,20 +4871,21 @@
         <v>343</v>
       </c>
       <c r="C106" s="2"/>
-      <c r="D106" s="3"/>
+      <c r="D106" s="2"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
-      <c r="I106" s="3">
-        <v>0</v>
-      </c>
-      <c r="J106" s="4">
+      <c r="I106" s="3"/>
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
+      <c r="K106" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>311</v>
       </c>
@@ -4689,14 +4893,12 @@
         <v>312</v>
       </c>
       <c r="C107" s="2"/>
-      <c r="D107" s="3">
-        <v>10000</v>
-      </c>
+      <c r="D107" s="2"/>
       <c r="E107" s="3">
         <v>10000</v>
       </c>
       <c r="F107" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G107" s="3">
         <v>20000</v>
@@ -4707,12 +4909,15 @@
       <c r="I107" s="3">
         <v>20000</v>
       </c>
-      <c r="J107" s="4">
+      <c r="J107" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K107" s="4">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>139</v>
       </c>
@@ -4720,30 +4925,31 @@
         <v>140</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="D108" s="3">
-        <v>90000</v>
-      </c>
+      <c r="D108" s="2"/>
       <c r="E108" s="3">
         <v>90000</v>
       </c>
       <c r="F108" s="3">
+        <v>90000</v>
+      </c>
+      <c r="G108" s="3">
         <v>880000</v>
       </c>
-      <c r="G108" s="3">
+      <c r="H108" s="3">
         <v>90000</v>
-      </c>
-      <c r="H108" s="3">
-        <v>190000</v>
       </c>
       <c r="I108" s="3">
         <v>190000</v>
       </c>
-      <c r="J108" s="4">
+      <c r="J108" s="3">
+        <v>190000</v>
+      </c>
+      <c r="K108" s="4">
         <f t="shared" si="2"/>
         <v>1530000</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>141</v>
       </c>
@@ -4751,30 +4957,31 @@
         <v>142</v>
       </c>
       <c r="C109" s="2"/>
-      <c r="D109" s="3">
-        <v>0</v>
-      </c>
+      <c r="D109" s="2"/>
       <c r="E109" s="3">
         <v>0</v>
       </c>
       <c r="F109" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G109" s="3">
         <v>20000</v>
       </c>
       <c r="H109" s="3">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="I109" s="3">
         <v>100000</v>
       </c>
-      <c r="J109" s="4">
+      <c r="J109" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K109" s="4">
         <f t="shared" si="2"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>344</v>
       </c>
@@ -4782,20 +4989,21 @@
         <v>345</v>
       </c>
       <c r="C110" s="2"/>
-      <c r="D110" s="3"/>
+      <c r="D110" s="2"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
-      <c r="I110" s="3">
-        <v>0</v>
-      </c>
-      <c r="J110" s="4">
+      <c r="I110" s="3"/>
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
+      <c r="K110" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>346</v>
       </c>
@@ -4803,20 +5011,21 @@
         <v>347</v>
       </c>
       <c r="C111" s="2"/>
-      <c r="D111" s="3"/>
+      <c r="D111" s="2"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="3">
-        <v>0</v>
-      </c>
-      <c r="J111" s="4">
+      <c r="I111" s="3"/>
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
+      <c r="K111" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>143</v>
       </c>
@@ -4824,9 +5033,7 @@
         <v>144</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="3">
-        <v>50000</v>
-      </c>
+      <c r="D112" s="2"/>
       <c r="E112" s="3">
         <v>50000</v>
       </c>
@@ -4842,12 +5049,15 @@
       <c r="I112" s="3">
         <v>50000</v>
       </c>
-      <c r="J112" s="4">
+      <c r="J112" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K112" s="4">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>143</v>
       </c>
@@ -4855,9 +5065,7 @@
         <v>145</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="3">
-        <v>30000</v>
-      </c>
+      <c r="D113" s="2"/>
       <c r="E113" s="3">
         <v>30000</v>
       </c>
@@ -4873,12 +5081,15 @@
       <c r="I113" s="3">
         <v>30000</v>
       </c>
-      <c r="J113" s="4">
+      <c r="J113" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K113" s="4">
         <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>270</v>
       </c>
@@ -4886,9 +5097,7 @@
         <v>146</v>
       </c>
       <c r="C114" s="2"/>
-      <c r="D114" s="3">
-        <v>500000</v>
-      </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="3">
         <v>500000</v>
       </c>
@@ -4904,12 +5113,15 @@
       <c r="I114" s="3">
         <v>500000</v>
       </c>
-      <c r="J114" s="4">
+      <c r="J114" s="3">
+        <v>500000</v>
+      </c>
+      <c r="K114" s="4">
         <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>147</v>
       </c>
@@ -4917,11 +5129,9 @@
         <v>148</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="3">
+      <c r="D115" s="2"/>
+      <c r="E115" s="3">
         <v>240000</v>
-      </c>
-      <c r="E115" s="3">
-        <v>245000</v>
       </c>
       <c r="F115" s="3">
         <v>245000</v>
@@ -4930,17 +5140,20 @@
         <v>245000</v>
       </c>
       <c r="H115" s="3">
-        <v>260000</v>
+        <v>245000</v>
       </c>
       <c r="I115" s="3">
         <v>260000</v>
       </c>
-      <c r="J115" s="4">
+      <c r="J115" s="3">
+        <v>260000</v>
+      </c>
+      <c r="K115" s="4">
         <f t="shared" si="2"/>
         <v>1495000</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>271</v>
       </c>
@@ -4948,9 +5161,7 @@
         <v>272</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="3">
-        <v>3000000</v>
-      </c>
+      <c r="D116" s="2"/>
       <c r="E116" s="3">
         <v>3000000</v>
       </c>
@@ -4966,12 +5177,15 @@
       <c r="I116" s="3">
         <v>3000000</v>
       </c>
-      <c r="J116" s="4">
+      <c r="J116" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="K116" s="4">
         <f t="shared" si="2"/>
         <v>18000000</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>149</v>
       </c>
@@ -4979,14 +5193,12 @@
         <v>150</v>
       </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="3">
-        <v>0</v>
-      </c>
-      <c r="E117" s="9">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3">
-        <v>200000</v>
+      <c r="D117" s="2"/>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="9">
+        <v>0</v>
       </c>
       <c r="G117" s="3">
         <v>200000</v>
@@ -4997,12 +5209,15 @@
       <c r="I117" s="3">
         <v>200000</v>
       </c>
-      <c r="J117" s="4">
+      <c r="J117" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K117" s="4">
         <f t="shared" si="2"/>
         <v>800000</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>348</v>
       </c>
@@ -5015,15 +5230,16 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="3">
-        <v>0</v>
-      </c>
-      <c r="J118" s="4">
+      <c r="I118" s="3"/>
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
+      <c r="K118" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>151</v>
       </c>
@@ -5031,22 +5247,23 @@
         <v>152</v>
       </c>
       <c r="C119" s="2"/>
-      <c r="D119" s="3">
+      <c r="D119" s="2"/>
+      <c r="E119" s="3">
         <v>65000</v>
       </c>
-      <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="3">
-        <v>0</v>
-      </c>
-      <c r="J119" s="4">
+      <c r="I119" s="3"/>
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
+      <c r="K119" s="4">
         <f t="shared" si="2"/>
         <v>65000</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>153</v>
       </c>
@@ -5054,13 +5271,11 @@
         <v>154</v>
       </c>
       <c r="C120" s="2"/>
-      <c r="D120" s="3"/>
+      <c r="D120" s="2"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="3">
+      <c r="F120" s="3"/>
+      <c r="G120" s="3">
         <v>200000</v>
-      </c>
-      <c r="G120" s="3">
-        <v>250000</v>
       </c>
       <c r="H120" s="3">
         <v>250000</v>
@@ -5068,12 +5283,15 @@
       <c r="I120" s="3">
         <v>250000</v>
       </c>
-      <c r="J120" s="4">
+      <c r="J120" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K120" s="4">
         <f t="shared" si="2"/>
         <v>950000</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>155</v>
       </c>
@@ -5081,11 +5299,9 @@
         <v>156</v>
       </c>
       <c r="C121" s="2"/>
-      <c r="D121" s="3"/>
+      <c r="D121" s="2"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="3">
-        <v>2000000</v>
-      </c>
+      <c r="F121" s="3"/>
       <c r="G121" s="3">
         <v>2000000</v>
       </c>
@@ -5095,12 +5311,15 @@
       <c r="I121" s="3">
         <v>2000000</v>
       </c>
-      <c r="J121" s="4">
+      <c r="J121" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="K121" s="4">
         <f t="shared" si="2"/>
         <v>8000000</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>157</v>
       </c>
@@ -5108,18 +5327,19 @@
         <v>158</v>
       </c>
       <c r="C122" s="2"/>
-      <c r="D122" s="3"/>
+      <c r="D122" s="2"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
-      <c r="J122" s="4">
+      <c r="J122" s="3"/>
+      <c r="K122" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>159</v>
       </c>
@@ -5127,9 +5347,7 @@
         <v>160</v>
       </c>
       <c r="C123" s="2"/>
-      <c r="D123" s="3">
-        <v>20000</v>
-      </c>
+      <c r="D123" s="2"/>
       <c r="E123" s="3">
         <v>20000</v>
       </c>
@@ -5145,12 +5363,15 @@
       <c r="I123" s="3">
         <v>20000</v>
       </c>
-      <c r="J123" s="4">
+      <c r="J123" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K123" s="4">
         <f t="shared" si="2"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
@@ -5158,14 +5379,12 @@
         <v>162</v>
       </c>
       <c r="C124" s="2"/>
-      <c r="D124" s="3">
-        <v>10000</v>
-      </c>
+      <c r="D124" s="2"/>
       <c r="E124" s="3">
         <v>10000</v>
       </c>
       <c r="F124" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G124" s="3">
         <v>20000</v>
@@ -5176,12 +5395,15 @@
       <c r="I124" s="3">
         <v>20000</v>
       </c>
-      <c r="J124" s="4">
+      <c r="J124" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K124" s="4">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>161</v>
       </c>
@@ -5189,17 +5411,15 @@
         <v>163</v>
       </c>
       <c r="C125" s="2"/>
-      <c r="D125" s="3">
+      <c r="D125" s="2"/>
+      <c r="E125" s="3">
         <v>151320</v>
-      </c>
-      <c r="E125" s="3">
-        <v>174800</v>
       </c>
       <c r="F125" s="3">
         <v>174800</v>
       </c>
       <c r="G125" s="3">
-        <v>1000000</v>
+        <v>174800</v>
       </c>
       <c r="H125" s="3">
         <v>1000000</v>
@@ -5207,12 +5427,15 @@
       <c r="I125" s="3">
         <v>1000000</v>
       </c>
-      <c r="J125" s="4">
+      <c r="J125" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K125" s="4">
         <f t="shared" si="2"/>
         <v>3500920</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>164</v>
       </c>
@@ -5220,17 +5443,15 @@
         <v>165</v>
       </c>
       <c r="C126" s="2"/>
-      <c r="D126" s="3">
+      <c r="D126" s="2"/>
+      <c r="E126" s="3">
         <v>21150</v>
-      </c>
-      <c r="E126" s="3">
-        <v>23500</v>
       </c>
       <c r="F126" s="3">
         <v>23500</v>
       </c>
       <c r="G126" s="3">
-        <v>30000</v>
+        <v>23500</v>
       </c>
       <c r="H126" s="3">
         <v>30000</v>
@@ -5238,12 +5459,15 @@
       <c r="I126" s="3">
         <v>30000</v>
       </c>
-      <c r="J126" s="4">
+      <c r="J126" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K126" s="4">
         <f t="shared" si="2"/>
         <v>158150</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>166</v>
       </c>
@@ -5251,26 +5475,27 @@
         <v>167</v>
       </c>
       <c r="C127" s="2"/>
-      <c r="D127" s="3">
+      <c r="D127" s="2"/>
+      <c r="E127" s="3">
         <v>4750</v>
-      </c>
-      <c r="E127" s="3">
-        <v>3750</v>
       </c>
       <c r="F127" s="3">
         <v>3750</v>
       </c>
-      <c r="G127" s="3"/>
+      <c r="G127" s="3">
+        <v>3750</v>
+      </c>
       <c r="H127" s="3"/>
-      <c r="I127" s="3">
-        <v>0</v>
-      </c>
-      <c r="J127" s="4">
+      <c r="I127" s="3"/>
+      <c r="J127" s="3">
+        <v>0</v>
+      </c>
+      <c r="K127" s="4">
         <f t="shared" si="2"/>
         <v>12250</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>168</v>
       </c>
@@ -5278,30 +5503,31 @@
         <v>169</v>
       </c>
       <c r="C128" s="2"/>
-      <c r="D128" s="3">
+      <c r="D128" s="2"/>
+      <c r="E128" s="3">
         <v>220000</v>
       </c>
-      <c r="E128" s="3">
+      <c r="F128" s="3">
         <v>85000</v>
       </c>
-      <c r="F128" s="3">
+      <c r="G128" s="3">
         <v>213000</v>
       </c>
-      <c r="G128" s="3">
+      <c r="H128" s="3">
         <v>75000</v>
-      </c>
-      <c r="H128" s="3">
-        <v>213000</v>
       </c>
       <c r="I128" s="3">
         <v>213000</v>
       </c>
-      <c r="J128" s="4">
+      <c r="J128" s="3">
+        <v>213000</v>
+      </c>
+      <c r="K128" s="4">
         <f t="shared" si="2"/>
         <v>1019000</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>168</v>
       </c>
@@ -5309,10 +5535,8 @@
         <v>170</v>
       </c>
       <c r="C129" s="2"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3">
-        <v>250000</v>
-      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="3"/>
       <c r="F129" s="3">
         <v>250000</v>
       </c>
@@ -5325,12 +5549,15 @@
       <c r="I129" s="3">
         <v>250000</v>
       </c>
-      <c r="J129" s="4">
+      <c r="J129" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K129" s="4">
         <f t="shared" si="2"/>
         <v>1250000</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>172</v>
       </c>
@@ -5338,30 +5565,31 @@
         <v>173</v>
       </c>
       <c r="C130" s="2"/>
-      <c r="D130" s="3">
+      <c r="D130" s="2"/>
+      <c r="E130" s="3">
         <v>75000</v>
       </c>
-      <c r="E130" s="3">
+      <c r="F130" s="3">
         <v>30000</v>
       </c>
-      <c r="F130" s="3">
+      <c r="G130" s="3">
         <v>80000</v>
       </c>
-      <c r="G130" s="3">
+      <c r="H130" s="3">
         <v>30000</v>
-      </c>
-      <c r="H130" s="3">
-        <v>80000</v>
       </c>
       <c r="I130" s="3">
         <v>80000</v>
       </c>
-      <c r="J130" s="4">
+      <c r="J130" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K130" s="4">
         <f t="shared" si="2"/>
         <v>375000</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>174</v>
       </c>
@@ -5369,14 +5597,12 @@
         <v>175</v>
       </c>
       <c r="C131" s="2"/>
-      <c r="D131" s="3">
+      <c r="D131" s="2"/>
+      <c r="E131" s="3">
         <v>20000</v>
       </c>
-      <c r="E131" s="3">
+      <c r="F131" s="3">
         <v>58400</v>
-      </c>
-      <c r="F131" s="3">
-        <v>64400</v>
       </c>
       <c r="G131" s="3">
         <v>64400</v>
@@ -5387,12 +5613,15 @@
       <c r="I131" s="3">
         <v>64400</v>
       </c>
-      <c r="J131" s="4">
+      <c r="J131" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K131" s="4">
         <f t="shared" si="2"/>
         <v>336000</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>176</v>
       </c>
@@ -5400,9 +5629,7 @@
         <v>177</v>
       </c>
       <c r="C132" s="2"/>
-      <c r="D132" s="3">
-        <v>2000</v>
-      </c>
+      <c r="D132" s="2"/>
       <c r="E132" s="3">
         <v>2000</v>
       </c>
@@ -5418,12 +5645,15 @@
       <c r="I132" s="3">
         <v>2000</v>
       </c>
-      <c r="J132" s="4">
+      <c r="J132" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K132" s="4">
         <f t="shared" si="2"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>178</v>
       </c>
@@ -5431,17 +5661,15 @@
         <v>179</v>
       </c>
       <c r="C133" s="2"/>
-      <c r="D133" s="3">
+      <c r="D133" s="2"/>
+      <c r="E133" s="3">
         <v>7000</v>
       </c>
-      <c r="E133" s="3">
+      <c r="F133" s="3">
         <v>27000</v>
       </c>
-      <c r="F133" s="3">
+      <c r="G133" s="3">
         <v>18000</v>
-      </c>
-      <c r="G133" s="3">
-        <v>24000</v>
       </c>
       <c r="H133" s="3">
         <v>24000</v>
@@ -5449,12 +5677,15 @@
       <c r="I133" s="3">
         <v>24000</v>
       </c>
-      <c r="J133" s="4">
+      <c r="J133" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K133" s="4">
         <f t="shared" si="2"/>
         <v>124000</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>171</v>
       </c>
@@ -5462,11 +5693,9 @@
         <v>268</v>
       </c>
       <c r="C134" s="2"/>
-      <c r="D134" s="3">
+      <c r="D134" s="2"/>
+      <c r="E134" s="3">
         <v>400000</v>
-      </c>
-      <c r="E134" s="3">
-        <v>750000</v>
       </c>
       <c r="F134" s="3">
         <v>750000</v>
@@ -5480,12 +5709,15 @@
       <c r="I134" s="3">
         <v>750000</v>
       </c>
-      <c r="J134" s="4">
+      <c r="J134" s="3">
+        <v>750000</v>
+      </c>
+      <c r="K134" s="4">
         <f t="shared" si="2"/>
         <v>4150000</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>180</v>
       </c>
@@ -5493,26 +5725,27 @@
         <v>181</v>
       </c>
       <c r="C135" s="2"/>
-      <c r="D135" s="3">
+      <c r="D135" s="2"/>
+      <c r="E135" s="3">
         <v>50000</v>
       </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3">
-        <v>50000</v>
-      </c>
+      <c r="F135" s="3"/>
       <c r="G135" s="3">
         <v>50000</v>
       </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3">
-        <v>0</v>
-      </c>
-      <c r="J135" s="4">
+      <c r="H135" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3">
+        <v>0</v>
+      </c>
+      <c r="K135" s="4">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>273</v>
       </c>
@@ -5520,22 +5753,23 @@
         <v>274</v>
       </c>
       <c r="C136" s="2"/>
-      <c r="D136" s="3"/>
+      <c r="D136" s="2"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="3">
-        <v>5000</v>
-      </c>
+      <c r="H136" s="3"/>
       <c r="I136" s="3">
         <v>5000</v>
       </c>
-      <c r="J136" s="4">
+      <c r="J136" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K136" s="4">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>182</v>
       </c>
@@ -5543,9 +5777,7 @@
         <v>183</v>
       </c>
       <c r="C137" s="2"/>
-      <c r="D137" s="3">
-        <v>200000</v>
-      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="3">
         <v>200000</v>
       </c>
@@ -5561,12 +5793,15 @@
       <c r="I137" s="3">
         <v>200000</v>
       </c>
-      <c r="J137" s="4">
+      <c r="J137" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K137" s="4">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>184</v>
       </c>
@@ -5574,30 +5809,31 @@
         <v>185</v>
       </c>
       <c r="C138" s="2"/>
-      <c r="D138" s="3">
+      <c r="D138" s="2"/>
+      <c r="E138" s="3">
         <v>210000</v>
       </c>
-      <c r="E138" s="3">
+      <c r="F138" s="3">
         <v>214000</v>
-      </c>
-      <c r="F138" s="3">
-        <v>219000</v>
       </c>
       <c r="G138" s="3">
         <v>219000</v>
       </c>
       <c r="H138" s="3">
-        <v>229000</v>
+        <v>219000</v>
       </c>
       <c r="I138" s="3">
         <v>229000</v>
       </c>
-      <c r="J138" s="4">
+      <c r="J138" s="3">
+        <v>229000</v>
+      </c>
+      <c r="K138" s="4">
         <f t="shared" si="2"/>
         <v>1320000</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>186</v>
       </c>
@@ -5605,30 +5841,31 @@
         <v>187</v>
       </c>
       <c r="C139" s="2"/>
-      <c r="D139" s="3">
+      <c r="D139" s="2"/>
+      <c r="E139" s="3">
         <v>356000</v>
       </c>
-      <c r="E139" s="3">
+      <c r="F139" s="3">
         <v>366000</v>
       </c>
-      <c r="F139" s="3">
+      <c r="G139" s="3">
         <v>358000</v>
       </c>
-      <c r="G139" s="3">
+      <c r="H139" s="3">
         <v>368000</v>
       </c>
-      <c r="H139" s="3">
+      <c r="I139" s="3">
         <v>358000</v>
       </c>
-      <c r="I139" s="3">
+      <c r="J139" s="3">
         <v>368000</v>
       </c>
-      <c r="J139" s="4">
+      <c r="K139" s="4">
         <f t="shared" si="2"/>
         <v>2174000</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>186</v>
       </c>
@@ -5636,9 +5873,7 @@
         <v>188</v>
       </c>
       <c r="C140" s="2"/>
-      <c r="D140" s="3">
-        <v>600000</v>
-      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="3">
         <v>600000</v>
       </c>
@@ -5654,12 +5889,15 @@
       <c r="I140" s="3">
         <v>600000</v>
       </c>
-      <c r="J140" s="4">
+      <c r="J140" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K140" s="4">
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>189</v>
       </c>
@@ -5667,14 +5905,12 @@
         <v>190</v>
       </c>
       <c r="C141" s="2"/>
-      <c r="D141" s="3">
+      <c r="D141" s="2"/>
+      <c r="E141" s="3">
         <v>262500</v>
       </c>
-      <c r="E141" s="3">
+      <c r="F141" s="3">
         <v>312500</v>
-      </c>
-      <c r="F141" s="3">
-        <v>315000</v>
       </c>
       <c r="G141" s="3">
         <v>315000</v>
@@ -5685,12 +5921,15 @@
       <c r="I141" s="3">
         <v>315000</v>
       </c>
-      <c r="J141" s="4">
-        <f t="shared" ref="J141:J202" si="3">SUM(D141:I141)</f>
+      <c r="J141" s="3">
+        <v>315000</v>
+      </c>
+      <c r="K141" s="4">
+        <f t="shared" ref="K141:K202" si="3">SUM(E141:J141)</f>
         <v>1835000</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>313</v>
       </c>
@@ -5698,9 +5937,7 @@
         <v>314</v>
       </c>
       <c r="C142" s="2"/>
-      <c r="D142" s="3">
-        <v>400000</v>
-      </c>
+      <c r="D142" s="2"/>
       <c r="E142" s="3">
         <v>400000</v>
       </c>
@@ -5708,7 +5945,7 @@
         <v>400000</v>
       </c>
       <c r="G142" s="3">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="H142" s="3">
         <v>300000</v>
@@ -5716,12 +5953,15 @@
       <c r="I142" s="3">
         <v>300000</v>
       </c>
-      <c r="J142" s="4">
+      <c r="J142" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K142" s="4">
         <f t="shared" si="3"/>
         <v>2100000</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>191</v>
       </c>
@@ -5729,9 +5969,7 @@
         <v>192</v>
       </c>
       <c r="C143" s="2"/>
-      <c r="D143" s="3">
-        <v>1000000</v>
-      </c>
+      <c r="D143" s="2"/>
       <c r="E143" s="3">
         <v>1000000</v>
       </c>
@@ -5747,12 +5985,15 @@
       <c r="I143" s="3">
         <v>1000000</v>
       </c>
-      <c r="J143" s="4">
+      <c r="J143" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K143" s="4">
         <f t="shared" si="3"/>
         <v>6000000</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>193</v>
       </c>
@@ -5760,9 +6001,7 @@
         <v>194</v>
       </c>
       <c r="C144" s="2"/>
-      <c r="D144" s="3">
-        <v>1000000</v>
-      </c>
+      <c r="D144" s="2"/>
       <c r="E144" s="3">
         <v>1000000</v>
       </c>
@@ -5778,12 +6017,15 @@
       <c r="I144" s="3">
         <v>1000000</v>
       </c>
-      <c r="J144" s="4">
+      <c r="J144" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K144" s="4">
         <f t="shared" si="3"/>
         <v>6000000</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
@@ -5791,9 +6033,7 @@
         <v>283</v>
       </c>
       <c r="C145" s="2"/>
-      <c r="D145" s="3">
-        <v>30000</v>
-      </c>
+      <c r="D145" s="2"/>
       <c r="E145" s="3">
         <v>30000</v>
       </c>
@@ -5809,12 +6049,15 @@
       <c r="I145" s="3">
         <v>30000</v>
       </c>
-      <c r="J145" s="4">
+      <c r="J145" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K145" s="4">
         <f t="shared" si="3"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>195</v>
       </c>
@@ -5822,9 +6065,7 @@
         <v>195</v>
       </c>
       <c r="C146" s="2"/>
-      <c r="D146" s="3">
-        <v>14880</v>
-      </c>
+      <c r="D146" s="2"/>
       <c r="E146" s="3">
         <v>14880</v>
       </c>
@@ -5840,12 +6081,15 @@
       <c r="I146" s="3">
         <v>14880</v>
       </c>
-      <c r="J146" s="4">
+      <c r="J146" s="3">
+        <v>14880</v>
+      </c>
+      <c r="K146" s="4">
         <f t="shared" si="3"/>
         <v>89280</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>196</v>
       </c>
@@ -5853,9 +6097,7 @@
         <v>196</v>
       </c>
       <c r="C147" s="2"/>
-      <c r="D147" s="3">
-        <v>13000</v>
-      </c>
+      <c r="D147" s="2"/>
       <c r="E147" s="3">
         <v>13000</v>
       </c>
@@ -5871,12 +6113,15 @@
       <c r="I147" s="3">
         <v>13000</v>
       </c>
-      <c r="J147" s="4">
+      <c r="J147" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K147" s="4">
         <f t="shared" si="3"/>
         <v>78000</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>350</v>
       </c>
@@ -5884,20 +6129,21 @@
         <v>350</v>
       </c>
       <c r="C148" s="2"/>
-      <c r="D148" s="3"/>
+      <c r="D148" s="2"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
-      <c r="I148" s="3">
-        <v>0</v>
-      </c>
-      <c r="J148" s="4">
+      <c r="I148" s="3"/>
+      <c r="J148" s="3">
+        <v>0</v>
+      </c>
+      <c r="K148" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>284</v>
       </c>
@@ -5905,9 +6151,7 @@
         <v>285</v>
       </c>
       <c r="C149" s="1"/>
-      <c r="D149" s="1">
-        <v>160000</v>
-      </c>
+      <c r="D149" s="1"/>
       <c r="E149" s="1">
         <v>160000</v>
       </c>
@@ -5923,12 +6167,15 @@
       <c r="I149" s="1">
         <v>160000</v>
       </c>
-      <c r="J149" s="4">
+      <c r="J149" s="1">
+        <v>160000</v>
+      </c>
+      <c r="K149" s="4">
         <f t="shared" si="3"/>
         <v>960000</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>275</v>
       </c>
@@ -5936,11 +6183,9 @@
         <v>276</v>
       </c>
       <c r="C150" s="1"/>
-      <c r="D150" s="1">
+      <c r="D150" s="1"/>
+      <c r="E150" s="1">
         <v>20000</v>
-      </c>
-      <c r="E150" s="1">
-        <v>30000</v>
       </c>
       <c r="F150" s="1">
         <v>30000</v>
@@ -5954,12 +6199,15 @@
       <c r="I150" s="1">
         <v>30000</v>
       </c>
-      <c r="J150" s="4">
+      <c r="J150" s="1">
+        <v>30000</v>
+      </c>
+      <c r="K150" s="4">
         <f t="shared" si="3"/>
         <v>170000</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>275</v>
       </c>
@@ -5967,11 +6215,9 @@
         <v>277</v>
       </c>
       <c r="C151" s="1"/>
-      <c r="D151" s="1">
+      <c r="D151" s="1"/>
+      <c r="E151" s="1">
         <v>20000</v>
-      </c>
-      <c r="E151" s="1">
-        <v>30000</v>
       </c>
       <c r="F151" s="1">
         <v>30000</v>
@@ -5985,12 +6231,15 @@
       <c r="I151" s="1">
         <v>30000</v>
       </c>
-      <c r="J151" s="4">
+      <c r="J151" s="1">
+        <v>30000</v>
+      </c>
+      <c r="K151" s="4">
         <f t="shared" si="3"/>
         <v>170000</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>197</v>
       </c>
@@ -5998,9 +6247,7 @@
         <v>198</v>
       </c>
       <c r="C152" s="1"/>
-      <c r="D152" s="1">
-        <v>0</v>
-      </c>
+      <c r="D152" s="1"/>
       <c r="E152" s="1">
         <v>0</v>
       </c>
@@ -6011,17 +6258,20 @@
         <v>0</v>
       </c>
       <c r="H152" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I152" s="1">
         <v>50000</v>
       </c>
-      <c r="J152" s="4">
+      <c r="J152" s="1">
+        <v>50000</v>
+      </c>
+      <c r="K152" s="4">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>199</v>
       </c>
@@ -6029,30 +6279,31 @@
         <v>200</v>
       </c>
       <c r="C153" s="1"/>
-      <c r="D153" s="1">
+      <c r="D153" s="1"/>
+      <c r="E153" s="1">
         <v>3000</v>
       </c>
-      <c r="E153" s="1">
-        <v>0</v>
-      </c>
       <c r="F153" s="1">
+        <v>0</v>
+      </c>
+      <c r="G153" s="1">
         <v>23000</v>
       </c>
-      <c r="G153" s="1">
+      <c r="H153" s="1">
         <v>20000</v>
-      </c>
-      <c r="H153" s="1">
-        <v>23000</v>
       </c>
       <c r="I153" s="1">
         <v>23000</v>
       </c>
-      <c r="J153" s="4">
+      <c r="J153" s="1">
+        <v>23000</v>
+      </c>
+      <c r="K153" s="4">
         <f t="shared" si="3"/>
         <v>92000</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>201</v>
       </c>
@@ -6060,30 +6311,31 @@
         <v>202</v>
       </c>
       <c r="C154" s="1"/>
-      <c r="D154" s="1">
+      <c r="D154" s="1"/>
+      <c r="E154" s="1">
         <v>31000</v>
       </c>
-      <c r="E154" s="1">
+      <c r="F154" s="1">
         <v>31500</v>
       </c>
-      <c r="F154" s="1">
+      <c r="G154" s="1">
         <v>31000</v>
       </c>
-      <c r="G154" s="1">
+      <c r="H154" s="1">
         <v>59500</v>
-      </c>
-      <c r="H154" s="1">
-        <v>59000</v>
       </c>
       <c r="I154" s="1">
         <v>59000</v>
       </c>
-      <c r="J154" s="4">
+      <c r="J154" s="1">
+        <v>59000</v>
+      </c>
+      <c r="K154" s="4">
         <f t="shared" si="3"/>
         <v>271000</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>203</v>
       </c>
@@ -6091,30 +6343,31 @@
         <v>204</v>
       </c>
       <c r="C155" s="1"/>
-      <c r="D155" s="1">
+      <c r="D155" s="1"/>
+      <c r="E155" s="1">
         <v>33000</v>
       </c>
-      <c r="E155" s="1">
+      <c r="F155" s="1">
         <v>37000</v>
       </c>
-      <c r="F155" s="1">
+      <c r="G155" s="1">
         <v>48000</v>
       </c>
-      <c r="G155" s="1">
+      <c r="H155" s="1">
         <v>58000</v>
-      </c>
-      <c r="H155" s="1">
-        <v>63000</v>
       </c>
       <c r="I155" s="1">
         <v>63000</v>
       </c>
-      <c r="J155" s="4">
+      <c r="J155" s="1">
+        <v>63000</v>
+      </c>
+      <c r="K155" s="4">
         <f t="shared" si="3"/>
         <v>302000</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>205</v>
       </c>
@@ -6122,9 +6375,7 @@
         <v>206</v>
       </c>
       <c r="C156" s="1"/>
-      <c r="D156" s="1">
-        <v>3000</v>
-      </c>
+      <c r="D156" s="1"/>
       <c r="E156" s="1">
         <v>3000</v>
       </c>
@@ -6140,12 +6391,15 @@
       <c r="I156" s="1">
         <v>3000</v>
       </c>
-      <c r="J156" s="4">
+      <c r="J156" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K156" s="4">
         <f t="shared" si="3"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>207</v>
       </c>
@@ -6153,17 +6407,15 @@
         <v>208</v>
       </c>
       <c r="C157" s="1"/>
-      <c r="D157" s="1">
+      <c r="D157" s="1"/>
+      <c r="E157" s="1">
         <v>12000</v>
-      </c>
-      <c r="E157" s="1">
-        <v>7000</v>
       </c>
       <c r="F157" s="1">
         <v>7000</v>
       </c>
       <c r="G157" s="1">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="H157" s="1">
         <v>18000</v>
@@ -6171,12 +6423,15 @@
       <c r="I157" s="1">
         <v>18000</v>
       </c>
-      <c r="J157" s="4">
+      <c r="J157" s="1">
+        <v>18000</v>
+      </c>
+      <c r="K157" s="4">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>209</v>
       </c>
@@ -6184,17 +6439,15 @@
         <v>210</v>
       </c>
       <c r="C158" s="1"/>
-      <c r="D158" s="1">
+      <c r="D158" s="1"/>
+      <c r="E158" s="1">
         <v>51000</v>
       </c>
-      <c r="E158" s="1">
+      <c r="F158" s="1">
         <v>56000</v>
       </c>
-      <c r="F158" s="1">
+      <c r="G158" s="1">
         <v>71000</v>
-      </c>
-      <c r="G158" s="1">
-        <v>91000</v>
       </c>
       <c r="H158" s="1">
         <v>91000</v>
@@ -6202,12 +6455,15 @@
       <c r="I158" s="1">
         <v>91000</v>
       </c>
-      <c r="J158" s="4">
+      <c r="J158" s="1">
+        <v>91000</v>
+      </c>
+      <c r="K158" s="4">
         <f t="shared" si="3"/>
         <v>451000</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>351</v>
       </c>
@@ -6215,9 +6471,7 @@
         <v>352</v>
       </c>
       <c r="C159" s="1"/>
-      <c r="D159" s="1">
-        <v>0</v>
-      </c>
+      <c r="D159" s="1"/>
       <c r="E159" s="1">
         <v>0</v>
       </c>
@@ -6233,12 +6487,15 @@
       <c r="I159" s="1">
         <v>0</v>
       </c>
-      <c r="J159" s="4">
+      <c r="J159" s="1">
+        <v>0</v>
+      </c>
+      <c r="K159" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>211</v>
       </c>
@@ -6246,9 +6503,7 @@
         <v>212</v>
       </c>
       <c r="C160" s="1"/>
-      <c r="D160" s="1">
-        <v>100000</v>
-      </c>
+      <c r="D160" s="1"/>
       <c r="E160" s="1">
         <v>100000</v>
       </c>
@@ -6264,12 +6519,15 @@
       <c r="I160" s="1">
         <v>100000</v>
       </c>
-      <c r="J160" s="4">
+      <c r="J160" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K160" s="4">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>211</v>
       </c>
@@ -6277,9 +6535,7 @@
         <v>315</v>
       </c>
       <c r="C161" s="1"/>
-      <c r="D161" s="1">
-        <v>160000</v>
-      </c>
+      <c r="D161" s="1"/>
       <c r="E161" s="1">
         <v>160000</v>
       </c>
@@ -6295,12 +6551,15 @@
       <c r="I161" s="1">
         <v>160000</v>
       </c>
-      <c r="J161" s="4">
+      <c r="J161" s="1">
+        <v>160000</v>
+      </c>
+      <c r="K161" s="4">
         <f t="shared" si="3"/>
         <v>960000</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>211</v>
       </c>
@@ -6308,9 +6567,7 @@
         <v>316</v>
       </c>
       <c r="C162" s="1"/>
-      <c r="D162" s="1">
-        <v>40000</v>
-      </c>
+      <c r="D162" s="1"/>
       <c r="E162" s="1">
         <v>40000</v>
       </c>
@@ -6326,12 +6583,15 @@
       <c r="I162" s="1">
         <v>40000</v>
       </c>
-      <c r="J162" s="4">
+      <c r="J162" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K162" s="4">
         <f t="shared" si="3"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>211</v>
       </c>
@@ -6339,9 +6599,7 @@
         <v>213</v>
       </c>
       <c r="C163" s="1"/>
-      <c r="D163" s="1">
-        <v>92000</v>
-      </c>
+      <c r="D163" s="1"/>
       <c r="E163" s="1">
         <v>92000</v>
       </c>
@@ -6357,12 +6615,15 @@
       <c r="I163" s="1">
         <v>92000</v>
       </c>
-      <c r="J163" s="4">
+      <c r="J163" s="1">
+        <v>92000</v>
+      </c>
+      <c r="K163" s="4">
         <f t="shared" si="3"/>
         <v>552000</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>214</v>
       </c>
@@ -6370,9 +6631,7 @@
         <v>215</v>
       </c>
       <c r="C164" s="1"/>
-      <c r="D164" s="1">
-        <v>1000</v>
-      </c>
+      <c r="D164" s="1"/>
       <c r="E164" s="1">
         <v>1000</v>
       </c>
@@ -6388,12 +6647,15 @@
       <c r="I164" s="1">
         <v>1000</v>
       </c>
-      <c r="J164" s="4">
+      <c r="J164" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K164" s="4">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>216</v>
       </c>
@@ -6401,14 +6663,12 @@
         <v>217</v>
       </c>
       <c r="C165" s="1"/>
-      <c r="D165" s="1">
+      <c r="D165" s="1"/>
+      <c r="E165" s="1">
         <v>47000</v>
       </c>
-      <c r="E165" s="1">
+      <c r="F165" s="1">
         <v>37000</v>
-      </c>
-      <c r="F165" s="1">
-        <v>42000</v>
       </c>
       <c r="G165" s="1">
         <v>42000</v>
@@ -6419,12 +6679,15 @@
       <c r="I165" s="1">
         <v>42000</v>
       </c>
-      <c r="J165" s="4">
+      <c r="J165" s="1">
+        <v>42000</v>
+      </c>
+      <c r="K165" s="4">
         <f t="shared" si="3"/>
         <v>252000</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>218</v>
       </c>
@@ -6432,14 +6695,12 @@
         <v>219</v>
       </c>
       <c r="C166" s="1"/>
-      <c r="D166" s="1">
+      <c r="D166" s="1"/>
+      <c r="E166" s="1">
         <v>404500</v>
       </c>
-      <c r="E166" s="1">
+      <c r="F166" s="1">
         <v>284500</v>
-      </c>
-      <c r="F166" s="1">
-        <v>294500</v>
       </c>
       <c r="G166" s="1">
         <v>294500</v>
@@ -6450,12 +6711,15 @@
       <c r="I166" s="1">
         <v>294500</v>
       </c>
-      <c r="J166" s="4">
+      <c r="J166" s="1">
+        <v>294500</v>
+      </c>
+      <c r="K166" s="4">
         <f t="shared" si="3"/>
         <v>1867000</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>353</v>
       </c>
@@ -6468,15 +6732,16 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
-      <c r="I167" s="1">
-        <v>0</v>
-      </c>
-      <c r="J167" s="4">
+      <c r="I167" s="1"/>
+      <c r="J167" s="1">
+        <v>0</v>
+      </c>
+      <c r="K167" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>278</v>
       </c>
@@ -6484,11 +6749,9 @@
         <v>220</v>
       </c>
       <c r="C168" s="1"/>
-      <c r="D168" s="1">
+      <c r="D168" s="1"/>
+      <c r="E168" s="1">
         <v>110000</v>
-      </c>
-      <c r="E168" s="1">
-        <v>100000</v>
       </c>
       <c r="F168" s="1">
         <v>100000</v>
@@ -6502,12 +6765,15 @@
       <c r="I168" s="1">
         <v>100000</v>
       </c>
-      <c r="J168" s="4">
+      <c r="J168" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K168" s="4">
         <f t="shared" si="3"/>
         <v>610000</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>221</v>
       </c>
@@ -6517,9 +6783,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="1">
-        <v>20000</v>
-      </c>
+      <c r="F169" s="1"/>
       <c r="G169" s="1">
         <v>20000</v>
       </c>
@@ -6529,12 +6793,15 @@
       <c r="I169" s="1">
         <v>20000</v>
       </c>
-      <c r="J169" s="4">
+      <c r="J169" s="1">
+        <v>20000</v>
+      </c>
+      <c r="K169" s="4">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>222</v>
       </c>
@@ -6542,30 +6809,31 @@
         <v>223</v>
       </c>
       <c r="C170" s="1"/>
-      <c r="D170" s="1">
+      <c r="D170" s="1"/>
+      <c r="E170" s="1">
         <v>833570</v>
       </c>
-      <c r="E170" s="1">
+      <c r="F170" s="1">
         <v>857970</v>
       </c>
-      <c r="F170" s="1">
+      <c r="G170" s="1">
         <v>870370</v>
       </c>
-      <c r="G170" s="1">
+      <c r="H170" s="1">
         <v>878850</v>
-      </c>
-      <c r="H170" s="1">
-        <v>877330</v>
       </c>
       <c r="I170" s="1">
         <v>877330</v>
       </c>
-      <c r="J170" s="4">
+      <c r="J170" s="1">
+        <v>877330</v>
+      </c>
+      <c r="K170" s="4">
         <f t="shared" si="3"/>
         <v>5195420</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>224</v>
       </c>
@@ -6573,17 +6841,15 @@
         <v>317</v>
       </c>
       <c r="C171" s="1"/>
-      <c r="D171" s="1">
-        <v>506000</v>
-      </c>
+      <c r="D171" s="1"/>
       <c r="E171" s="1">
         <v>506000</v>
       </c>
       <c r="F171" s="1">
+        <v>506000</v>
+      </c>
+      <c r="G171" s="1">
         <v>406000</v>
-      </c>
-      <c r="G171" s="1">
-        <v>506000</v>
       </c>
       <c r="H171" s="1">
         <v>506000</v>
@@ -6591,12 +6857,15 @@
       <c r="I171" s="1">
         <v>506000</v>
       </c>
-      <c r="J171" s="4">
+      <c r="J171" s="1">
+        <v>506000</v>
+      </c>
+      <c r="K171" s="4">
         <f t="shared" si="3"/>
         <v>2936000</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>224</v>
       </c>
@@ -6604,9 +6873,7 @@
         <v>318</v>
       </c>
       <c r="C172" s="1"/>
-      <c r="D172" s="1">
-        <v>50000</v>
-      </c>
+      <c r="D172" s="1"/>
       <c r="E172" s="1">
         <v>50000</v>
       </c>
@@ -6622,12 +6889,15 @@
       <c r="I172" s="1">
         <v>50000</v>
       </c>
-      <c r="J172" s="4">
+      <c r="J172" s="1">
+        <v>50000</v>
+      </c>
+      <c r="K172" s="4">
         <f t="shared" si="3"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>225</v>
       </c>
@@ -6635,9 +6905,7 @@
         <v>319</v>
       </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="1">
-        <v>20000</v>
-      </c>
+      <c r="D173" s="1"/>
       <c r="E173" s="1">
         <v>20000</v>
       </c>
@@ -6653,12 +6921,15 @@
       <c r="I173" s="1">
         <v>20000</v>
       </c>
-      <c r="J173" s="4">
+      <c r="J173" s="1">
+        <v>20000</v>
+      </c>
+      <c r="K173" s="4">
         <f t="shared" si="3"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>226</v>
       </c>
@@ -6666,9 +6937,7 @@
         <v>280</v>
       </c>
       <c r="C174" s="1"/>
-      <c r="D174" s="1">
-        <v>100000</v>
-      </c>
+      <c r="D174" s="1"/>
       <c r="E174" s="1">
         <v>100000</v>
       </c>
@@ -6684,12 +6953,15 @@
       <c r="I174" s="1">
         <v>100000</v>
       </c>
-      <c r="J174" s="4">
+      <c r="J174" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K174" s="4">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>226</v>
       </c>
@@ -6697,30 +6969,31 @@
         <v>227</v>
       </c>
       <c r="C175" s="1"/>
-      <c r="D175" s="1">
+      <c r="D175" s="1"/>
+      <c r="E175" s="1">
         <v>330000</v>
       </c>
-      <c r="E175" s="1">
+      <c r="F175" s="1">
         <v>340500</v>
-      </c>
-      <c r="F175" s="1">
-        <v>240000</v>
       </c>
       <c r="G175" s="1">
         <v>240000</v>
       </c>
       <c r="H175" s="1">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="I175" s="1">
         <v>270000</v>
       </c>
-      <c r="J175" s="4">
+      <c r="J175" s="1">
+        <v>270000</v>
+      </c>
+      <c r="K175" s="4">
         <f t="shared" si="3"/>
         <v>1690500</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>228</v>
       </c>
@@ -6728,30 +7001,31 @@
         <v>229</v>
       </c>
       <c r="C176" s="1"/>
-      <c r="D176" s="1">
-        <v>120000</v>
-      </c>
+      <c r="D176" s="1"/>
       <c r="E176" s="1">
         <v>120000</v>
       </c>
       <c r="F176" s="1">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="G176" s="1">
         <v>125000</v>
       </c>
       <c r="H176" s="1">
-        <v>103000</v>
+        <v>125000</v>
       </c>
       <c r="I176" s="1">
         <v>103000</v>
       </c>
-      <c r="J176" s="4">
+      <c r="J176" s="1">
+        <v>103000</v>
+      </c>
+      <c r="K176" s="4">
         <f t="shared" si="3"/>
         <v>696000</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>230</v>
       </c>
@@ -6759,9 +7033,7 @@
         <v>281</v>
       </c>
       <c r="C177" s="1"/>
-      <c r="D177" s="1">
-        <v>90000</v>
-      </c>
+      <c r="D177" s="1"/>
       <c r="E177" s="1">
         <v>90000</v>
       </c>
@@ -6777,12 +7049,15 @@
       <c r="I177" s="1">
         <v>90000</v>
       </c>
-      <c r="J177" s="4">
+      <c r="J177" s="1">
+        <v>90000</v>
+      </c>
+      <c r="K177" s="4">
         <f t="shared" si="3"/>
         <v>540000</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>230</v>
       </c>
@@ -6790,30 +7065,31 @@
         <v>231</v>
       </c>
       <c r="C178" s="1"/>
-      <c r="D178" s="1">
+      <c r="D178" s="1"/>
+      <c r="E178" s="1">
         <v>179000</v>
       </c>
-      <c r="E178" s="1">
+      <c r="F178" s="1">
         <v>204000</v>
       </c>
-      <c r="F178" s="1">
+      <c r="G178" s="1">
         <v>214000</v>
       </c>
-      <c r="G178" s="1">
+      <c r="H178" s="1">
         <v>204000</v>
-      </c>
-      <c r="H178" s="1">
-        <v>207000</v>
       </c>
       <c r="I178" s="1">
         <v>207000</v>
       </c>
-      <c r="J178" s="4">
+      <c r="J178" s="1">
+        <v>207000</v>
+      </c>
+      <c r="K178" s="4">
         <f t="shared" si="3"/>
         <v>1215000</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>355</v>
       </c>
@@ -6826,15 +7102,16 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
-      <c r="I179" s="1">
-        <v>0</v>
-      </c>
-      <c r="J179" s="4">
+      <c r="I179" s="1"/>
+      <c r="J179" s="1">
+        <v>0</v>
+      </c>
+      <c r="K179" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>232</v>
       </c>
@@ -6842,17 +7119,15 @@
         <v>233</v>
       </c>
       <c r="C180" s="1"/>
-      <c r="D180" s="1">
+      <c r="D180" s="1"/>
+      <c r="E180" s="1">
         <v>610000</v>
       </c>
-      <c r="E180" s="1">
+      <c r="F180" s="1">
         <v>920000</v>
       </c>
-      <c r="F180" s="1">
+      <c r="G180" s="1">
         <v>700000</v>
-      </c>
-      <c r="G180" s="1">
-        <v>478000</v>
       </c>
       <c r="H180" s="1">
         <v>478000</v>
@@ -6860,12 +7135,15 @@
       <c r="I180" s="1">
         <v>478000</v>
       </c>
-      <c r="J180" s="4">
+      <c r="J180" s="1">
+        <v>478000</v>
+      </c>
+      <c r="K180" s="4">
         <f t="shared" si="3"/>
         <v>3664000</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>234</v>
       </c>
@@ -6873,9 +7151,7 @@
         <v>235</v>
       </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="1">
-        <v>2000</v>
-      </c>
+      <c r="D181" s="1"/>
       <c r="E181" s="1">
         <v>2000</v>
       </c>
@@ -6883,7 +7159,7 @@
         <v>2000</v>
       </c>
       <c r="G181" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="H181" s="1">
         <v>5000</v>
@@ -6891,12 +7167,15 @@
       <c r="I181" s="1">
         <v>5000</v>
       </c>
-      <c r="J181" s="4">
+      <c r="J181" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K181" s="4">
         <f t="shared" si="3"/>
         <v>21000</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>320</v>
       </c>
@@ -6904,9 +7183,7 @@
         <v>236</v>
       </c>
       <c r="C182" s="1"/>
-      <c r="D182" s="1">
-        <v>10000</v>
-      </c>
+      <c r="D182" s="1"/>
       <c r="E182" s="1">
         <v>10000</v>
       </c>
@@ -6914,7 +7191,7 @@
         <v>10000</v>
       </c>
       <c r="G182" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="H182" s="1">
         <v>4000</v>
@@ -6922,12 +7199,15 @@
       <c r="I182" s="1">
         <v>4000</v>
       </c>
-      <c r="J182" s="4">
+      <c r="J182" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K182" s="4">
         <f t="shared" si="3"/>
         <v>42000</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>357</v>
       </c>
@@ -6935,9 +7215,7 @@
         <v>358</v>
       </c>
       <c r="C183" s="1"/>
-      <c r="D183" s="1">
-        <v>0</v>
-      </c>
+      <c r="D183" s="1"/>
       <c r="E183" s="1">
         <v>0</v>
       </c>
@@ -6953,12 +7231,15 @@
       <c r="I183" s="1">
         <v>0</v>
       </c>
-      <c r="J183" s="4">
+      <c r="J183" s="1">
+        <v>0</v>
+      </c>
+      <c r="K183" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>321</v>
       </c>
@@ -6966,30 +7247,31 @@
         <v>237</v>
       </c>
       <c r="C184" s="1"/>
-      <c r="D184" s="1">
-        <v>10000</v>
-      </c>
+      <c r="D184" s="1"/>
       <c r="E184" s="1">
         <v>10000</v>
       </c>
       <c r="F184" s="1">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G184" s="1">
         <v>25000</v>
       </c>
       <c r="H184" s="1">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="I184" s="1">
         <v>27000</v>
       </c>
-      <c r="J184" s="4">
+      <c r="J184" s="1">
+        <v>27000</v>
+      </c>
+      <c r="K184" s="4">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>238</v>
       </c>
@@ -6997,9 +7279,7 @@
         <v>239</v>
       </c>
       <c r="C185" s="1"/>
-      <c r="D185" s="1">
-        <v>27000</v>
-      </c>
+      <c r="D185" s="1"/>
       <c r="E185" s="1">
         <v>27000</v>
       </c>
@@ -7015,12 +7295,15 @@
       <c r="I185" s="1">
         <v>27000</v>
       </c>
-      <c r="J185" s="4">
+      <c r="J185" s="1">
+        <v>27000</v>
+      </c>
+      <c r="K185" s="4">
         <f t="shared" si="3"/>
         <v>162000</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>359</v>
       </c>
@@ -7028,9 +7311,7 @@
         <v>360</v>
       </c>
       <c r="C186" s="1"/>
-      <c r="D186" s="1">
-        <v>0</v>
-      </c>
+      <c r="D186" s="1"/>
       <c r="E186" s="1">
         <v>0</v>
       </c>
@@ -7046,12 +7327,15 @@
       <c r="I186" s="1">
         <v>0</v>
       </c>
-      <c r="J186" s="4">
+      <c r="J186" s="1">
+        <v>0</v>
+      </c>
+      <c r="K186" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>240</v>
       </c>
@@ -7064,15 +7348,16 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
-      <c r="I187" s="1">
-        <v>0</v>
-      </c>
-      <c r="J187" s="4">
+      <c r="I187" s="1"/>
+      <c r="J187" s="1">
+        <v>0</v>
+      </c>
+      <c r="K187" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>242</v>
       </c>
@@ -7080,11 +7365,9 @@
         <v>243</v>
       </c>
       <c r="C188" s="1"/>
-      <c r="D188" s="1">
+      <c r="D188" s="1"/>
+      <c r="E188" s="1">
         <v>40000</v>
-      </c>
-      <c r="E188" s="1">
-        <v>41000</v>
       </c>
       <c r="F188" s="1">
         <v>41000</v>
@@ -7098,12 +7381,15 @@
       <c r="I188" s="1">
         <v>41000</v>
       </c>
-      <c r="J188" s="4">
+      <c r="J188" s="1">
+        <v>41000</v>
+      </c>
+      <c r="K188" s="4">
         <f t="shared" si="3"/>
         <v>245000</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>361</v>
       </c>
@@ -7116,15 +7402,16 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
-      <c r="I189" s="1">
-        <v>0</v>
-      </c>
-      <c r="J189" s="4">
+      <c r="I189" s="1"/>
+      <c r="J189" s="1">
+        <v>0</v>
+      </c>
+      <c r="K189" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>244</v>
       </c>
@@ -7132,30 +7419,31 @@
         <v>245</v>
       </c>
       <c r="C190" s="1"/>
-      <c r="D190" s="1">
+      <c r="D190" s="1"/>
+      <c r="E190" s="1">
         <v>1000000</v>
       </c>
-      <c r="E190" s="1">
+      <c r="F190" s="1">
         <v>1200000</v>
       </c>
-      <c r="F190" s="1">
+      <c r="G190" s="1">
         <v>2000000</v>
       </c>
-      <c r="G190" s="1">
+      <c r="H190" s="1">
         <v>1200000</v>
-      </c>
-      <c r="H190" s="1">
-        <v>2000000</v>
       </c>
       <c r="I190" s="1">
         <v>2000000</v>
       </c>
-      <c r="J190" s="4">
+      <c r="J190" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="K190" s="4">
         <f t="shared" si="3"/>
         <v>9400000</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>244</v>
       </c>
@@ -7163,30 +7451,31 @@
         <v>246</v>
       </c>
       <c r="C191" s="1"/>
-      <c r="D191" s="1">
+      <c r="D191" s="1"/>
+      <c r="E191" s="1">
         <v>600000</v>
       </c>
-      <c r="E191" s="1">
+      <c r="F191" s="1">
         <v>1000000</v>
       </c>
-      <c r="F191" s="1">
+      <c r="G191" s="1">
         <v>500000</v>
       </c>
-      <c r="G191" s="1">
+      <c r="H191" s="1">
         <v>600000</v>
-      </c>
-      <c r="H191" s="1">
-        <v>800000</v>
       </c>
       <c r="I191" s="1">
         <v>800000</v>
       </c>
-      <c r="J191" s="4">
+      <c r="J191" 